--- a/Raw Data/Arthropod_data.xlsx
+++ b/Raw Data/Arthropod_data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Identifications" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="64">
   <si>
     <t>location</t>
   </si>
@@ -194,19 +194,46 @@
   </si>
   <si>
     <t>row ID, order is the order I ided in</t>
+  </si>
+  <si>
+    <t>Acrididae</t>
+  </si>
+  <si>
+    <t>The North American Grasshoppers Vol 1 and 2, David Otte</t>
+  </si>
+  <si>
+    <t>Where can I obtain?</t>
+  </si>
+  <si>
+    <t>YorkU library has both, McMaster has Vol 1</t>
+  </si>
+  <si>
+    <t>Diptera</t>
+  </si>
+  <si>
+    <t>Manual of Nearctic Diptera</t>
+  </si>
+  <si>
+    <t>I have downloaded</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -229,11 +256,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -690,24 +718,50 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:J3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>34</v>
       </c>
       <c r="D1" t="s">
         <v>35</v>
       </c>
+      <c r="J1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="J2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D3" t="s">
+        <v>62</v>
+      </c>
+      <c r="J3" t="s">
+        <v>63</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -715,7 +769,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+    <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>

--- a/Raw Data/Arthropod_data.xlsx
+++ b/Raw Data/Arthropod_data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650"/>
   </bookViews>
   <sheets>
     <sheet name="Identifications" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="140">
   <si>
     <t>location</t>
   </si>
@@ -215,6 +215,234 @@
   </si>
   <si>
     <t>I have downloaded</t>
+  </si>
+  <si>
+    <t>sample?</t>
+  </si>
+  <si>
+    <t>SiCr-July-22-2020-FF-1</t>
+  </si>
+  <si>
+    <t>SiCr-July-22-2020-FF-2</t>
+  </si>
+  <si>
+    <t>SiCr-July-22-2020-FF-3</t>
+  </si>
+  <si>
+    <t>SiCr-July-22-2020-FF-4</t>
+  </si>
+  <si>
+    <t>SiCr-July-22-2020-FF-5</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>SiCr</t>
+  </si>
+  <si>
+    <t>FF</t>
+  </si>
+  <si>
+    <t>July</t>
+  </si>
+  <si>
+    <t>pinned</t>
+  </si>
+  <si>
+    <t>Hymenoptera</t>
+  </si>
+  <si>
+    <t>Asilidae</t>
+  </si>
+  <si>
+    <t>Halictidae</t>
+  </si>
+  <si>
+    <t>Odonata</t>
+  </si>
+  <si>
+    <t>Coleoptera</t>
+  </si>
+  <si>
+    <t>Tenebrionidae</t>
+  </si>
+  <si>
+    <t>Eleodes</t>
+  </si>
+  <si>
+    <t>Discover Life</t>
+  </si>
+  <si>
+    <t>Augochlora</t>
+  </si>
+  <si>
+    <t>The bees of the genera Augochlora, Augochloropsis, and Augochlorella (Hymenoptera; Apoidea) occurring in the United States</t>
+  </si>
+  <si>
+    <t>Grace A. Sandhouse</t>
+  </si>
+  <si>
+    <t>Augochlorini</t>
+  </si>
+  <si>
+    <t>Augochlora pura</t>
+  </si>
+  <si>
+    <t>shrub</t>
+  </si>
+  <si>
+    <t>SWP</t>
+  </si>
+  <si>
+    <t>PG</t>
+  </si>
+  <si>
+    <t>Mantodea</t>
+  </si>
+  <si>
+    <t>Mantidae</t>
+  </si>
+  <si>
+    <t>Mantis</t>
+  </si>
+  <si>
+    <t>Mantis reliogiosa</t>
+  </si>
+  <si>
+    <t>SiCr-July-21-2020-S8-SWP-1</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>SS</t>
+  </si>
+  <si>
+    <t>SiCr-July-22-2020-T3-SS-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">July </t>
+  </si>
+  <si>
+    <t>Orthoptera</t>
+  </si>
+  <si>
+    <t>SiCr-July-22-2020-T7-SWP-1</t>
+  </si>
+  <si>
+    <t>SiCr-July-22-2020-T4-SS-1</t>
+  </si>
+  <si>
+    <t>blue veined hind wings</t>
+  </si>
+  <si>
+    <t>nymph</t>
+  </si>
+  <si>
+    <t>Grace wood page 549</t>
+  </si>
+  <si>
+    <t>Asilinae</t>
+  </si>
+  <si>
+    <t>sex</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>Asilini</t>
+  </si>
+  <si>
+    <t>Efferia</t>
+  </si>
+  <si>
+    <t>Sphecidae</t>
+  </si>
+  <si>
+    <t>Chlorion</t>
+  </si>
+  <si>
+    <t>Chlorion aerarium</t>
+  </si>
+  <si>
+    <t>Aven-July-22-2020-T3-SS-1</t>
+  </si>
+  <si>
+    <t>Aven</t>
+  </si>
+  <si>
+    <t>Aven-July-22-2020-T9-SS-1</t>
+  </si>
+  <si>
+    <t>Aven-July-22-2020-T4-SS-1</t>
+  </si>
+  <si>
+    <t>Aven-July-22-2020-FF-1</t>
+  </si>
+  <si>
+    <t>Aven-July-22-2020-FF-2</t>
+  </si>
+  <si>
+    <t>Aven-July-22-2020-FF-3</t>
+  </si>
+  <si>
+    <t>Aven-July-22-2020-FF-4</t>
+  </si>
+  <si>
+    <t>Aven-July-22-2020-FF-5</t>
+  </si>
+  <si>
+    <t>Aven-July-22-2020-FF-6</t>
+  </si>
+  <si>
+    <t>Aven-July-22-2020-FF-7</t>
+  </si>
+  <si>
+    <t>Aven-July-22-2020-FF-8</t>
+  </si>
+  <si>
+    <t>Aven-July-22-2020-FF-9</t>
+  </si>
+  <si>
+    <t>Aven-July-22-2020-FF-10</t>
+  </si>
+  <si>
+    <t>Lepidoptera</t>
+  </si>
+  <si>
+    <t>Papilionidae</t>
+  </si>
+  <si>
+    <t>Sphecidae?</t>
+  </si>
+  <si>
+    <t>Aven-July-22-2020-FF-11</t>
+  </si>
+  <si>
+    <t>Lasioglossum</t>
+  </si>
+  <si>
+    <t>Aven-July-22-2020-T10 SS-1</t>
+  </si>
+  <si>
+    <t>Aven-July-22-2020-T5-SS-1</t>
+  </si>
+  <si>
+    <t>Hemiptera</t>
+  </si>
+  <si>
+    <t>Leprus?</t>
+  </si>
+  <si>
+    <t>Enallagma</t>
+  </si>
+  <si>
+    <t>Coenagrionidae</t>
+  </si>
+  <si>
+    <t>maybe familiar</t>
   </si>
 </sst>
 </file>
@@ -542,21 +770,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q1"/>
+  <dimension ref="A1:T166"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="R6" sqref="R6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="3" max="3" width="4.54296875" customWidth="1"/>
-    <col min="6" max="7" width="7.1796875" customWidth="1"/>
-    <col min="8" max="8" width="5.90625" customWidth="1"/>
-    <col min="16" max="16" width="12.6328125" customWidth="1"/>
+    <col min="2" max="2" width="20.453125" customWidth="1"/>
+    <col min="4" max="4" width="4.54296875" customWidth="1"/>
+    <col min="7" max="8" width="7.1796875" customWidth="1"/>
+    <col min="9" max="9" width="5.90625" customWidth="1"/>
+    <col min="12" max="12" width="12.81640625" customWidth="1"/>
+    <col min="18" max="18" width="12.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>55</v>
       </c>
@@ -564,49 +796,1756 @@
         <v>4</v>
       </c>
       <c r="C1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D1" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>13</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>14</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>15</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>16</v>
       </c>
-      <c r="N1" t="s">
+      <c r="P1" t="s">
         <v>17</v>
       </c>
-      <c r="O1" t="s">
+      <c r="Q1" t="s">
         <v>18</v>
       </c>
-      <c r="P1" t="s">
+      <c r="R1" t="s">
         <v>3</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="S1" t="s">
         <v>19</v>
+      </c>
+      <c r="T1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D2" t="s">
+        <v>71</v>
+      </c>
+      <c r="F2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H2">
+        <v>22</v>
+      </c>
+      <c r="I2">
+        <v>1</v>
+      </c>
+      <c r="J2" t="s">
+        <v>74</v>
+      </c>
+      <c r="K2">
+        <v>1</v>
+      </c>
+      <c r="L2" t="s">
+        <v>75</v>
+      </c>
+      <c r="M2" t="s">
+        <v>111</v>
+      </c>
+      <c r="P2" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>113</v>
+      </c>
+      <c r="R2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C3" t="s">
+        <v>70</v>
+      </c>
+      <c r="D3" t="s">
+        <v>71</v>
+      </c>
+      <c r="F3" t="s">
+        <v>72</v>
+      </c>
+      <c r="G3" t="s">
+        <v>73</v>
+      </c>
+      <c r="H3">
+        <v>22</v>
+      </c>
+      <c r="I3">
+        <v>1</v>
+      </c>
+      <c r="J3" t="s">
+        <v>74</v>
+      </c>
+      <c r="K3">
+        <v>1</v>
+      </c>
+      <c r="L3" t="s">
+        <v>61</v>
+      </c>
+      <c r="M3" t="s">
+        <v>76</v>
+      </c>
+      <c r="N3" t="s">
+        <v>106</v>
+      </c>
+      <c r="O3" t="s">
+        <v>109</v>
+      </c>
+      <c r="P3" t="s">
+        <v>110</v>
+      </c>
+      <c r="R3" t="s">
+        <v>110</v>
+      </c>
+      <c r="T3" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>67</v>
+      </c>
+      <c r="D4" t="s">
+        <v>71</v>
+      </c>
+      <c r="F4" t="s">
+        <v>72</v>
+      </c>
+      <c r="G4" t="s">
+        <v>73</v>
+      </c>
+      <c r="H4">
+        <v>22</v>
+      </c>
+      <c r="I4">
+        <v>1</v>
+      </c>
+      <c r="J4" t="s">
+        <v>74</v>
+      </c>
+      <c r="K4">
+        <v>1</v>
+      </c>
+      <c r="L4" t="s">
+        <v>75</v>
+      </c>
+      <c r="M4" t="s">
+        <v>77</v>
+      </c>
+      <c r="P4" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>87</v>
+      </c>
+      <c r="R4" t="s">
+        <v>87</v>
+      </c>
+      <c r="T4" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>68</v>
+      </c>
+      <c r="C5" t="s">
+        <v>70</v>
+      </c>
+      <c r="D5" t="s">
+        <v>71</v>
+      </c>
+      <c r="F5" t="s">
+        <v>72</v>
+      </c>
+      <c r="G5" t="s">
+        <v>73</v>
+      </c>
+      <c r="H5">
+        <v>22</v>
+      </c>
+      <c r="I5">
+        <v>1</v>
+      </c>
+      <c r="J5" t="s">
+        <v>74</v>
+      </c>
+      <c r="K5">
+        <v>1</v>
+      </c>
+      <c r="L5" t="s">
+        <v>78</v>
+      </c>
+      <c r="M5" t="s">
+        <v>138</v>
+      </c>
+      <c r="P5" t="s">
+        <v>137</v>
+      </c>
+      <c r="R5" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>69</v>
+      </c>
+      <c r="C6" t="s">
+        <v>70</v>
+      </c>
+      <c r="D6" t="s">
+        <v>71</v>
+      </c>
+      <c r="F6" t="s">
+        <v>72</v>
+      </c>
+      <c r="G6" t="s">
+        <v>73</v>
+      </c>
+      <c r="H6">
+        <v>22</v>
+      </c>
+      <c r="I6">
+        <v>1</v>
+      </c>
+      <c r="J6" t="s">
+        <v>74</v>
+      </c>
+      <c r="K6">
+        <v>1</v>
+      </c>
+      <c r="L6" t="s">
+        <v>79</v>
+      </c>
+      <c r="M6" t="s">
+        <v>80</v>
+      </c>
+      <c r="P6" t="s">
+        <v>81</v>
+      </c>
+      <c r="R6" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>95</v>
+      </c>
+      <c r="D7" t="s">
+        <v>71</v>
+      </c>
+      <c r="E7" t="s">
+        <v>88</v>
+      </c>
+      <c r="F7" t="s">
+        <v>89</v>
+      </c>
+      <c r="G7" t="s">
+        <v>73</v>
+      </c>
+      <c r="H7">
+        <v>21</v>
+      </c>
+      <c r="I7">
+        <v>8</v>
+      </c>
+      <c r="J7" t="s">
+        <v>90</v>
+      </c>
+      <c r="K7">
+        <v>1</v>
+      </c>
+      <c r="L7" t="s">
+        <v>91</v>
+      </c>
+      <c r="M7" t="s">
+        <v>92</v>
+      </c>
+      <c r="P7" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>94</v>
+      </c>
+      <c r="R7" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>98</v>
+      </c>
+      <c r="C8" t="s">
+        <v>70</v>
+      </c>
+      <c r="D8" t="s">
+        <v>71</v>
+      </c>
+      <c r="E8" t="s">
+        <v>96</v>
+      </c>
+      <c r="F8" t="s">
+        <v>97</v>
+      </c>
+      <c r="G8" t="s">
+        <v>99</v>
+      </c>
+      <c r="H8">
+        <v>22</v>
+      </c>
+      <c r="I8">
+        <v>3</v>
+      </c>
+      <c r="J8" t="s">
+        <v>74</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8" t="s">
+        <v>100</v>
+      </c>
+      <c r="P8" t="s">
+        <v>136</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>102</v>
+      </c>
+      <c r="D9" t="s">
+        <v>71</v>
+      </c>
+      <c r="E9" t="s">
+        <v>96</v>
+      </c>
+      <c r="F9" t="s">
+        <v>97</v>
+      </c>
+      <c r="G9" t="s">
+        <v>73</v>
+      </c>
+      <c r="H9">
+        <v>22</v>
+      </c>
+      <c r="I9">
+        <v>4</v>
+      </c>
+      <c r="J9" t="s">
+        <v>74</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
+      <c r="L9" t="s">
+        <v>100</v>
+      </c>
+      <c r="P9" t="s">
+        <v>136</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>101</v>
+      </c>
+      <c r="C10" t="s">
+        <v>70</v>
+      </c>
+      <c r="D10" t="s">
+        <v>71</v>
+      </c>
+      <c r="E10" t="s">
+        <v>96</v>
+      </c>
+      <c r="F10" t="s">
+        <v>89</v>
+      </c>
+      <c r="G10" t="s">
+        <v>73</v>
+      </c>
+      <c r="H10">
+        <v>22</v>
+      </c>
+      <c r="I10">
+        <v>7</v>
+      </c>
+      <c r="J10" t="s">
+        <v>74</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+      <c r="L10" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>114</v>
+      </c>
+      <c r="C11" t="s">
+        <v>70</v>
+      </c>
+      <c r="D11" t="s">
+        <v>115</v>
+      </c>
+      <c r="E11" t="s">
+        <v>96</v>
+      </c>
+      <c r="F11" t="s">
+        <v>97</v>
+      </c>
+      <c r="G11" t="s">
+        <v>73</v>
+      </c>
+      <c r="H11">
+        <v>22</v>
+      </c>
+      <c r="I11">
+        <v>3</v>
+      </c>
+      <c r="J11" t="s">
+        <v>74</v>
+      </c>
+      <c r="K11">
+        <v>1</v>
+      </c>
+      <c r="L11" t="s">
+        <v>100</v>
+      </c>
+      <c r="P11" t="s">
+        <v>136</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>116</v>
+      </c>
+      <c r="D12" t="s">
+        <v>115</v>
+      </c>
+      <c r="E12" t="s">
+        <v>96</v>
+      </c>
+      <c r="F12" t="s">
+        <v>97</v>
+      </c>
+      <c r="G12" t="s">
+        <v>73</v>
+      </c>
+      <c r="H12">
+        <v>22</v>
+      </c>
+      <c r="I12">
+        <v>9</v>
+      </c>
+      <c r="J12" t="s">
+        <v>74</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+      <c r="L12" t="s">
+        <v>100</v>
+      </c>
+      <c r="P12" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>117</v>
+      </c>
+      <c r="D13" t="s">
+        <v>115</v>
+      </c>
+      <c r="E13" t="s">
+        <v>96</v>
+      </c>
+      <c r="F13" t="s">
+        <v>97</v>
+      </c>
+      <c r="G13" t="s">
+        <v>73</v>
+      </c>
+      <c r="H13">
+        <v>22</v>
+      </c>
+      <c r="I13">
+        <v>4</v>
+      </c>
+      <c r="J13" t="s">
+        <v>74</v>
+      </c>
+      <c r="K13">
+        <v>1</v>
+      </c>
+      <c r="L13" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>118</v>
+      </c>
+      <c r="D14" t="s">
+        <v>115</v>
+      </c>
+      <c r="E14" t="s">
+        <v>96</v>
+      </c>
+      <c r="F14" t="s">
+        <v>72</v>
+      </c>
+      <c r="G14" t="s">
+        <v>73</v>
+      </c>
+      <c r="H14">
+        <v>22</v>
+      </c>
+      <c r="I14">
+        <v>1</v>
+      </c>
+      <c r="J14" t="s">
+        <v>74</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="L14" t="s">
+        <v>128</v>
+      </c>
+      <c r="M14" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>119</v>
+      </c>
+      <c r="D15" t="s">
+        <v>115</v>
+      </c>
+      <c r="E15" t="s">
+        <v>96</v>
+      </c>
+      <c r="F15" t="s">
+        <v>72</v>
+      </c>
+      <c r="G15" t="s">
+        <v>73</v>
+      </c>
+      <c r="H15">
+        <v>22</v>
+      </c>
+      <c r="I15">
+        <v>1</v>
+      </c>
+      <c r="J15" t="s">
+        <v>74</v>
+      </c>
+      <c r="K15">
+        <v>1</v>
+      </c>
+      <c r="L15" t="s">
+        <v>75</v>
+      </c>
+      <c r="M15" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>120</v>
+      </c>
+      <c r="C16" t="s">
+        <v>70</v>
+      </c>
+      <c r="D16" t="s">
+        <v>115</v>
+      </c>
+      <c r="E16" t="s">
+        <v>96</v>
+      </c>
+      <c r="F16" t="s">
+        <v>72</v>
+      </c>
+      <c r="G16" t="s">
+        <v>73</v>
+      </c>
+      <c r="H16">
+        <v>22</v>
+      </c>
+      <c r="I16">
+        <v>1</v>
+      </c>
+      <c r="J16" t="s">
+        <v>74</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>121</v>
+      </c>
+      <c r="D17" t="s">
+        <v>115</v>
+      </c>
+      <c r="E17" t="s">
+        <v>96</v>
+      </c>
+      <c r="F17" t="s">
+        <v>72</v>
+      </c>
+      <c r="G17" t="s">
+        <v>73</v>
+      </c>
+      <c r="H17">
+        <v>22</v>
+      </c>
+      <c r="I17">
+        <v>1</v>
+      </c>
+      <c r="J17" t="s">
+        <v>74</v>
+      </c>
+      <c r="K17">
+        <v>1</v>
+      </c>
+      <c r="L17" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>122</v>
+      </c>
+      <c r="D18" t="s">
+        <v>115</v>
+      </c>
+      <c r="E18" t="s">
+        <v>96</v>
+      </c>
+      <c r="F18" t="s">
+        <v>72</v>
+      </c>
+      <c r="G18" t="s">
+        <v>73</v>
+      </c>
+      <c r="H18">
+        <v>22</v>
+      </c>
+      <c r="I18">
+        <v>1</v>
+      </c>
+      <c r="J18" t="s">
+        <v>74</v>
+      </c>
+      <c r="K18">
+        <v>1</v>
+      </c>
+      <c r="L18" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>123</v>
+      </c>
+      <c r="D19" t="s">
+        <v>115</v>
+      </c>
+      <c r="E19" t="s">
+        <v>96</v>
+      </c>
+      <c r="F19" t="s">
+        <v>72</v>
+      </c>
+      <c r="G19" t="s">
+        <v>73</v>
+      </c>
+      <c r="H19">
+        <v>22</v>
+      </c>
+      <c r="I19">
+        <v>1</v>
+      </c>
+      <c r="J19" t="s">
+        <v>74</v>
+      </c>
+      <c r="K19">
+        <v>1</v>
+      </c>
+      <c r="L19" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>124</v>
+      </c>
+      <c r="D20" t="s">
+        <v>115</v>
+      </c>
+      <c r="E20" t="s">
+        <v>96</v>
+      </c>
+      <c r="F20" t="s">
+        <v>72</v>
+      </c>
+      <c r="G20" t="s">
+        <v>73</v>
+      </c>
+      <c r="H20">
+        <v>22</v>
+      </c>
+      <c r="I20">
+        <v>1</v>
+      </c>
+      <c r="J20" t="s">
+        <v>74</v>
+      </c>
+      <c r="K20">
+        <v>1</v>
+      </c>
+      <c r="L20" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>125</v>
+      </c>
+      <c r="D21" t="s">
+        <v>115</v>
+      </c>
+      <c r="E21" t="s">
+        <v>96</v>
+      </c>
+      <c r="F21" t="s">
+        <v>72</v>
+      </c>
+      <c r="G21" t="s">
+        <v>73</v>
+      </c>
+      <c r="H21">
+        <v>22</v>
+      </c>
+      <c r="I21">
+        <v>1</v>
+      </c>
+      <c r="J21" t="s">
+        <v>74</v>
+      </c>
+      <c r="K21">
+        <v>1</v>
+      </c>
+      <c r="L21" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>126</v>
+      </c>
+      <c r="D22" t="s">
+        <v>115</v>
+      </c>
+      <c r="E22" t="s">
+        <v>96</v>
+      </c>
+      <c r="F22" t="s">
+        <v>72</v>
+      </c>
+      <c r="G22" t="s">
+        <v>73</v>
+      </c>
+      <c r="H22">
+        <v>22</v>
+      </c>
+      <c r="I22">
+        <v>1</v>
+      </c>
+      <c r="J22" t="s">
+        <v>74</v>
+      </c>
+      <c r="K22">
+        <v>1</v>
+      </c>
+      <c r="L22" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>127</v>
+      </c>
+      <c r="C23" t="s">
+        <v>70</v>
+      </c>
+      <c r="D23" t="s">
+        <v>115</v>
+      </c>
+      <c r="E23" t="s">
+        <v>96</v>
+      </c>
+      <c r="F23" t="s">
+        <v>72</v>
+      </c>
+      <c r="G23" t="s">
+        <v>73</v>
+      </c>
+      <c r="H23">
+        <v>22</v>
+      </c>
+      <c r="I23">
+        <v>1</v>
+      </c>
+      <c r="J23" t="s">
+        <v>74</v>
+      </c>
+      <c r="K23">
+        <v>1</v>
+      </c>
+      <c r="L23" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>131</v>
+      </c>
+      <c r="D24" t="s">
+        <v>115</v>
+      </c>
+      <c r="E24" t="s">
+        <v>96</v>
+      </c>
+      <c r="F24" t="s">
+        <v>72</v>
+      </c>
+      <c r="G24" t="s">
+        <v>73</v>
+      </c>
+      <c r="H24">
+        <v>22</v>
+      </c>
+      <c r="I24">
+        <v>1</v>
+      </c>
+      <c r="J24" t="s">
+        <v>74</v>
+      </c>
+      <c r="K24">
+        <v>1</v>
+      </c>
+      <c r="L24" t="s">
+        <v>75</v>
+      </c>
+      <c r="M24" t="s">
+        <v>77</v>
+      </c>
+      <c r="P24" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>133</v>
+      </c>
+      <c r="D25" t="s">
+        <v>115</v>
+      </c>
+      <c r="E25" t="s">
+        <v>96</v>
+      </c>
+      <c r="F25" t="s">
+        <v>97</v>
+      </c>
+      <c r="G25" t="s">
+        <v>73</v>
+      </c>
+      <c r="H25">
+        <v>22</v>
+      </c>
+      <c r="I25">
+        <v>10</v>
+      </c>
+      <c r="J25" t="s">
+        <v>74</v>
+      </c>
+      <c r="K25">
+        <v>1</v>
+      </c>
+      <c r="L25" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" t="s">
+        <v>134</v>
+      </c>
+      <c r="C26" t="s">
+        <v>70</v>
+      </c>
+      <c r="D26" t="s">
+        <v>115</v>
+      </c>
+      <c r="E26" t="s">
+        <v>96</v>
+      </c>
+      <c r="F26" t="s">
+        <v>97</v>
+      </c>
+      <c r="G26" t="s">
+        <v>73</v>
+      </c>
+      <c r="H26">
+        <v>22</v>
+      </c>
+      <c r="I26">
+        <v>5</v>
+      </c>
+      <c r="J26" t="s">
+        <v>74</v>
+      </c>
+      <c r="K26">
+        <v>1</v>
+      </c>
+      <c r="L26" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A27">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A28">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A29">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A30">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A31">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A32">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A33">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A34">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A35">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A36">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A37">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A38">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A39">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A40">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A41">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A42">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A43">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A44">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A45">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A46">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A47">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A48">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A49">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A50">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A51">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A52">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A53">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A54">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A55">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A56">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A57">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A58">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A59">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A60">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A61">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A62">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A63">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A64">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A65">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A66">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A67">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A68">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A69">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A70">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A71">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A72">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A73">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A74">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A75">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A76">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A77">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A78">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A79">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A80">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A81">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A82">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A83">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A84">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A85">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A86">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A87">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A88">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A89">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A90">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A91">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A92">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A93">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A94">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A95">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A96">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A97">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A98">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A99">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A100">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A101">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A102">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A103">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A104">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A105">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A106">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A107">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A108">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A109">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A110">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A111">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A112">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A113">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A114">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A115">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A116">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A117">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A118">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A119">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A120">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A121">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A122">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A123">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A124">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A125">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A126">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A127">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A128">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A129">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A130">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A131">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A132">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A133">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A134">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A135">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A136">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A137">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A138">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A139">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="140" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A140">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="141" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A141">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="142" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A142">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="143" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A143">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="144" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A144">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="145" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A145">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="146" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A146">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="147" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A147">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="148" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A148">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="149" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A149">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="150" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A150">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="151" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A151">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="152" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A152">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="153" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A153">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="154" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A154">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="155" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A155">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="156" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A156">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="157" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A157">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="158" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A158">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="159" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A159">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="160" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A160">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="161" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A161">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="162" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A162">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="163" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A163">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="164" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A164">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="165" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A165">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="166" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A166">
+        <v>165</v>
       </c>
     </row>
   </sheetData>
@@ -718,15 +2657,15 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J3"/>
+  <dimension ref="A1:P8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>34</v>
       </c>
@@ -737,7 +2676,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>57</v>
       </c>
@@ -748,7 +2687,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>61</v>
       </c>
@@ -757,6 +2696,33 @@
       </c>
       <c r="J3" t="s">
         <v>63</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="C4" t="s">
+        <v>76</v>
+      </c>
+      <c r="D4" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>75</v>
+      </c>
+      <c r="D6" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="B8" t="s">
+        <v>86</v>
+      </c>
+      <c r="D8" t="s">
+        <v>84</v>
+      </c>
+      <c r="P8" t="s">
+        <v>85</v>
       </c>
     </row>
   </sheetData>

--- a/Raw Data/Arthropod_data.xlsx
+++ b/Raw Data/Arthropod_data.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1497" uniqueCount="237">
   <si>
     <t>location</t>
   </si>
@@ -443,6 +443,297 @@
   </si>
   <si>
     <t>maybe familiar</t>
+  </si>
+  <si>
+    <t>SemiT-July-18-2020-O9-PT-1</t>
+  </si>
+  <si>
+    <t>SemiT</t>
+  </si>
+  <si>
+    <t>PT</t>
+  </si>
+  <si>
+    <t>Mutillidae</t>
+  </si>
+  <si>
+    <t>ET</t>
+  </si>
+  <si>
+    <t>Isopoda</t>
+  </si>
+  <si>
+    <t>Formicidae</t>
+  </si>
+  <si>
+    <t>Solenopsis</t>
+  </si>
+  <si>
+    <t>SemiT-July-18-2020-O10-PT-1</t>
+  </si>
+  <si>
+    <t>Aranae</t>
+  </si>
+  <si>
+    <t>Agelenidae?</t>
+  </si>
+  <si>
+    <t>Salticidae</t>
+  </si>
+  <si>
+    <t>immature</t>
+  </si>
+  <si>
+    <t>Corixidae</t>
+  </si>
+  <si>
+    <t>SemiT-July-18-2020-O10-PT-2</t>
+  </si>
+  <si>
+    <t>SemiT-July-18-2020-O10-PT-3</t>
+  </si>
+  <si>
+    <t>SemiT-July-18-2020-O10-PT-4</t>
+  </si>
+  <si>
+    <t>SemiT-July-18-2020-O10-PT-5</t>
+  </si>
+  <si>
+    <t>SemiT-July-18-2020-O10-PT-6</t>
+  </si>
+  <si>
+    <t>Sarcophagidae?</t>
+  </si>
+  <si>
+    <t>Gryllidae</t>
+  </si>
+  <si>
+    <t>looks like Melanoplus lakinus</t>
+  </si>
+  <si>
+    <t>Coal</t>
+  </si>
+  <si>
+    <t>Dorymyrmex</t>
+  </si>
+  <si>
+    <t>Coal-July-17-2020-S5-PT-1</t>
+  </si>
+  <si>
+    <t>Coal-July-17-2020-S5-PT-2</t>
+  </si>
+  <si>
+    <t>Coal-July-17-2020-S5-PT-3</t>
+  </si>
+  <si>
+    <t>Coal-July-17-2020-S5-PT-4</t>
+  </si>
+  <si>
+    <t>Coal-July-17-2020-S5-PT-5</t>
+  </si>
+  <si>
+    <t>Carabide?</t>
+  </si>
+  <si>
+    <t>Carabidae</t>
+  </si>
+  <si>
+    <t>Gnaphosidae</t>
+  </si>
+  <si>
+    <t>recluse?</t>
+  </si>
+  <si>
+    <t>Microcoryphia</t>
+  </si>
+  <si>
+    <t>tiny immature</t>
+  </si>
+  <si>
+    <t>Nitulidae?</t>
+  </si>
+  <si>
+    <t>Coal-July-17-2020-S4-PT-1</t>
+  </si>
+  <si>
+    <t>Coal-July-17-2020-S4-PT-2</t>
+  </si>
+  <si>
+    <t>Coal-July-17-2020-S4-PT-3</t>
+  </si>
+  <si>
+    <t>Coal-July-17-2020-S4-PT-4</t>
+  </si>
+  <si>
+    <t>Ptinidae</t>
+  </si>
+  <si>
+    <t>Coal-July-17-2020-O4-PT-1</t>
+  </si>
+  <si>
+    <t>Coal-July-17-2020-O4-PT-2</t>
+  </si>
+  <si>
+    <t>Coal-July-17-2020-O4-PT-3</t>
+  </si>
+  <si>
+    <t>Coal-July-17-2020-O4-PT-4</t>
+  </si>
+  <si>
+    <t>Coal-July-17-2020-O4-PT-5</t>
+  </si>
+  <si>
+    <t>Coal-July-17-2020-O4-PT-6</t>
+  </si>
+  <si>
+    <t>Embioptera</t>
+  </si>
+  <si>
+    <t>Coal-July-17-2020-S12-PT-1</t>
+  </si>
+  <si>
+    <t>SemiT-July-18-2020-O8-PT-1</t>
+  </si>
+  <si>
+    <t>SemiT-July-18-2020-O8-PT-2</t>
+  </si>
+  <si>
+    <t>Coal-July-19-2020-FF-1</t>
+  </si>
+  <si>
+    <t>Coal-July-19-2020-FF-2</t>
+  </si>
+  <si>
+    <t>Coal-July-19-2020-FF-3</t>
+  </si>
+  <si>
+    <t>Coal-July-19-2020-FF-4</t>
+  </si>
+  <si>
+    <t>Coal-July-19-2020-FF-5</t>
+  </si>
+  <si>
+    <t>Coal-July-19-2020-FF-6</t>
+  </si>
+  <si>
+    <t>Coal-July-19-2020-FF-7</t>
+  </si>
+  <si>
+    <t>Coal-July-19-2020-FF-8</t>
+  </si>
+  <si>
+    <t>aphidy</t>
+  </si>
+  <si>
+    <t>Thomisdae</t>
+  </si>
+  <si>
+    <t>MAL</t>
+  </si>
+  <si>
+    <t>lots</t>
+  </si>
+  <si>
+    <t>Coal-July-19-2020-T5-SS-1</t>
+  </si>
+  <si>
+    <t>CaS</t>
+  </si>
+  <si>
+    <t>MR</t>
+  </si>
+  <si>
+    <t>Mr</t>
+  </si>
+  <si>
+    <t>CasS-July-10-2020-T10-SS-1</t>
+  </si>
+  <si>
+    <t>new</t>
+  </si>
+  <si>
+    <t>damaged</t>
+  </si>
+  <si>
+    <t>diptera</t>
+  </si>
+  <si>
+    <t>CasS-July-10-2020-T3-SS-1</t>
+  </si>
+  <si>
+    <t>CasS-July-10-2020-S7-SWP-1</t>
+  </si>
+  <si>
+    <t>red</t>
+  </si>
+  <si>
+    <t>CasS-July-10-2020-T5-SWP-1</t>
+  </si>
+  <si>
+    <t>hopper</t>
+  </si>
+  <si>
+    <t>CasS-July-10-2020-T5-SWP-2</t>
+  </si>
+  <si>
+    <t>CasS-July-10-2020-T2-SS-2</t>
+  </si>
+  <si>
+    <t>CaS-July-10-2020-FF-1</t>
+  </si>
+  <si>
+    <t>CaS-July-10-2020-FF-2</t>
+  </si>
+  <si>
+    <t>CaS-July-10-2020-FF-4</t>
+  </si>
+  <si>
+    <t>LoK</t>
+  </si>
+  <si>
+    <t>hopper not cicadellidae</t>
+  </si>
+  <si>
+    <t>Lok-July-14-2020-S1-SWP-1</t>
+  </si>
+  <si>
+    <t>Lok003PG</t>
+  </si>
+  <si>
+    <t>Cicadellidae</t>
+  </si>
+  <si>
+    <t>Araneidae</t>
+  </si>
+  <si>
+    <t>Lok004PG</t>
+  </si>
+  <si>
+    <t>hoppers</t>
+  </si>
+  <si>
+    <t>Latrodectus hesperis?</t>
+  </si>
+  <si>
+    <t>Lok002PG</t>
+  </si>
+  <si>
+    <t>Lok001PG</t>
+  </si>
+  <si>
+    <t>PaPL</t>
+  </si>
+  <si>
+    <t>nympth</t>
+  </si>
+  <si>
+    <t>PaPL002PG</t>
+  </si>
+  <si>
+    <t>Oxyopidae?</t>
+  </si>
+  <si>
+    <t>juveline</t>
   </si>
 </sst>
 </file>
@@ -770,21 +1061,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T166"/>
+  <dimension ref="A1:T191"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A174" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="R6" sqref="R6"/>
+      <selection pane="bottomLeft" activeCell="B191" sqref="B191"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="2" max="2" width="20.453125" customWidth="1"/>
-    <col min="4" max="4" width="4.54296875" customWidth="1"/>
+    <col min="4" max="4" width="8.7265625" customWidth="1"/>
     <col min="7" max="8" width="7.1796875" customWidth="1"/>
     <col min="9" max="9" width="5.90625" customWidth="1"/>
     <col min="12" max="12" width="12.81640625" customWidth="1"/>
+    <col min="16" max="16" width="12.7265625" customWidth="1"/>
     <col min="18" max="18" width="12.6328125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1485,6 +1777,9 @@
       <c r="L16" t="s">
         <v>100</v>
       </c>
+      <c r="P16" t="s">
+        <v>161</v>
+      </c>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A17">
@@ -1852,700 +2147,5742 @@
       <c r="A27">
         <v>26</v>
       </c>
+      <c r="B27" t="s">
+        <v>140</v>
+      </c>
+      <c r="C27" t="s">
+        <v>70</v>
+      </c>
+      <c r="D27" t="s">
+        <v>141</v>
+      </c>
+      <c r="E27" t="s">
+        <v>96</v>
+      </c>
+      <c r="F27" t="s">
+        <v>142</v>
+      </c>
+      <c r="G27" t="s">
+        <v>73</v>
+      </c>
+      <c r="H27">
+        <v>18</v>
+      </c>
+      <c r="I27">
+        <v>9</v>
+      </c>
+      <c r="J27" t="s">
+        <v>74</v>
+      </c>
+      <c r="K27">
+        <v>1</v>
+      </c>
+      <c r="L27" t="s">
+        <v>75</v>
+      </c>
+      <c r="M27" t="s">
+        <v>143</v>
+      </c>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>27</v>
       </c>
+      <c r="B28" t="s">
+        <v>140</v>
+      </c>
+      <c r="D28" t="s">
+        <v>141</v>
+      </c>
+      <c r="E28" t="s">
+        <v>96</v>
+      </c>
+      <c r="F28" t="s">
+        <v>142</v>
+      </c>
+      <c r="G28" t="s">
+        <v>73</v>
+      </c>
+      <c r="H28">
+        <v>18</v>
+      </c>
+      <c r="I28">
+        <v>9</v>
+      </c>
+      <c r="J28" t="s">
+        <v>144</v>
+      </c>
+      <c r="K28">
+        <v>2</v>
+      </c>
+      <c r="L28" t="s">
+        <v>145</v>
+      </c>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>28</v>
       </c>
+      <c r="B29" t="s">
+        <v>140</v>
+      </c>
+      <c r="D29" t="s">
+        <v>141</v>
+      </c>
+      <c r="E29" t="s">
+        <v>96</v>
+      </c>
+      <c r="F29" t="s">
+        <v>142</v>
+      </c>
+      <c r="G29" t="s">
+        <v>73</v>
+      </c>
+      <c r="H29">
+        <v>18</v>
+      </c>
+      <c r="I29">
+        <v>9</v>
+      </c>
+      <c r="J29" t="s">
+        <v>144</v>
+      </c>
+      <c r="K29">
+        <v>3</v>
+      </c>
+      <c r="L29" t="s">
+        <v>75</v>
+      </c>
+      <c r="M29" t="s">
+        <v>146</v>
+      </c>
+      <c r="P29" t="s">
+        <v>147</v>
+      </c>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>29</v>
       </c>
+      <c r="D30" t="s">
+        <v>141</v>
+      </c>
+      <c r="E30" t="s">
+        <v>96</v>
+      </c>
+      <c r="F30" t="s">
+        <v>142</v>
+      </c>
+      <c r="G30" t="s">
+        <v>73</v>
+      </c>
+      <c r="H30">
+        <v>18</v>
+      </c>
+      <c r="I30">
+        <v>10</v>
+      </c>
+      <c r="J30" t="s">
+        <v>144</v>
+      </c>
+      <c r="K30">
+        <v>2</v>
+      </c>
+      <c r="L30" t="s">
+        <v>145</v>
+      </c>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>30</v>
       </c>
+      <c r="D31" t="s">
+        <v>141</v>
+      </c>
+      <c r="E31" t="s">
+        <v>96</v>
+      </c>
+      <c r="F31" t="s">
+        <v>142</v>
+      </c>
+      <c r="G31" t="s">
+        <v>73</v>
+      </c>
+      <c r="H31">
+        <v>18</v>
+      </c>
+      <c r="I31">
+        <v>10</v>
+      </c>
+      <c r="J31" t="s">
+        <v>144</v>
+      </c>
+      <c r="K31">
+        <v>4</v>
+      </c>
+      <c r="L31" t="s">
+        <v>75</v>
+      </c>
+      <c r="M31" t="s">
+        <v>146</v>
+      </c>
+      <c r="P31" t="s">
+        <v>147</v>
+      </c>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>31</v>
       </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B32" t="s">
+        <v>148</v>
+      </c>
+      <c r="C32" t="s">
+        <v>70</v>
+      </c>
+      <c r="D32" t="s">
+        <v>141</v>
+      </c>
+      <c r="E32" t="s">
+        <v>96</v>
+      </c>
+      <c r="F32" t="s">
+        <v>142</v>
+      </c>
+      <c r="G32" t="s">
+        <v>73</v>
+      </c>
+      <c r="H32">
+        <v>18</v>
+      </c>
+      <c r="I32">
+        <v>10</v>
+      </c>
+      <c r="J32" t="s">
+        <v>144</v>
+      </c>
+      <c r="K32">
+        <v>1</v>
+      </c>
+      <c r="L32" t="s">
+        <v>149</v>
+      </c>
+      <c r="M32" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>32</v>
       </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="D33" t="s">
+        <v>141</v>
+      </c>
+      <c r="E33" t="s">
+        <v>96</v>
+      </c>
+      <c r="F33" t="s">
+        <v>142</v>
+      </c>
+      <c r="G33" t="s">
+        <v>73</v>
+      </c>
+      <c r="H33">
+        <v>18</v>
+      </c>
+      <c r="I33">
+        <v>10</v>
+      </c>
+      <c r="J33" t="s">
+        <v>144</v>
+      </c>
+      <c r="K33">
+        <v>1</v>
+      </c>
+      <c r="L33" t="s">
+        <v>149</v>
+      </c>
+      <c r="M33" t="s">
+        <v>151</v>
+      </c>
+      <c r="P33" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>33</v>
       </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="D34" t="s">
+        <v>141</v>
+      </c>
+      <c r="E34" t="s">
+        <v>96</v>
+      </c>
+      <c r="F34" t="s">
+        <v>142</v>
+      </c>
+      <c r="G34" t="s">
+        <v>73</v>
+      </c>
+      <c r="H34">
+        <v>18</v>
+      </c>
+      <c r="I34">
+        <v>10</v>
+      </c>
+      <c r="J34" t="s">
+        <v>144</v>
+      </c>
+      <c r="K34">
+        <v>1</v>
+      </c>
+      <c r="L34" t="s">
+        <v>135</v>
+      </c>
+      <c r="M34" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="35" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>34</v>
       </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="D35" t="s">
+        <v>141</v>
+      </c>
+      <c r="E35" t="s">
+        <v>96</v>
+      </c>
+      <c r="F35" t="s">
+        <v>142</v>
+      </c>
+      <c r="G35" t="s">
+        <v>73</v>
+      </c>
+      <c r="H35">
+        <v>18</v>
+      </c>
+      <c r="I35">
+        <v>10</v>
+      </c>
+      <c r="J35" t="s">
+        <v>144</v>
+      </c>
+      <c r="K35">
+        <v>1</v>
+      </c>
+      <c r="L35" t="s">
+        <v>100</v>
+      </c>
+      <c r="M35" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="36" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>35</v>
       </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B36" t="s">
+        <v>154</v>
+      </c>
+      <c r="C36" t="s">
+        <v>70</v>
+      </c>
+      <c r="D36" t="s">
+        <v>141</v>
+      </c>
+      <c r="E36" t="s">
+        <v>96</v>
+      </c>
+      <c r="F36" t="s">
+        <v>142</v>
+      </c>
+      <c r="G36" t="s">
+        <v>73</v>
+      </c>
+      <c r="H36">
+        <v>18</v>
+      </c>
+      <c r="I36">
+        <v>10</v>
+      </c>
+      <c r="J36" t="s">
+        <v>74</v>
+      </c>
+      <c r="K36">
+        <v>1</v>
+      </c>
+      <c r="L36" t="s">
+        <v>100</v>
+      </c>
+      <c r="M36" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="37" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>36</v>
       </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B37" t="s">
+        <v>155</v>
+      </c>
+      <c r="D37" t="s">
+        <v>141</v>
+      </c>
+      <c r="E37" t="s">
+        <v>96</v>
+      </c>
+      <c r="F37" t="s">
+        <v>142</v>
+      </c>
+      <c r="G37" t="s">
+        <v>73</v>
+      </c>
+      <c r="H37">
+        <v>18</v>
+      </c>
+      <c r="I37">
+        <v>10</v>
+      </c>
+      <c r="J37" t="s">
+        <v>74</v>
+      </c>
+      <c r="K37">
+        <v>1</v>
+      </c>
+      <c r="L37" t="s">
+        <v>100</v>
+      </c>
+      <c r="M37" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="38" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A38">
         <v>37</v>
       </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B38" t="s">
+        <v>156</v>
+      </c>
+      <c r="D38" t="s">
+        <v>141</v>
+      </c>
+      <c r="E38" t="s">
+        <v>96</v>
+      </c>
+      <c r="F38" t="s">
+        <v>142</v>
+      </c>
+      <c r="G38" t="s">
+        <v>73</v>
+      </c>
+      <c r="H38">
+        <v>18</v>
+      </c>
+      <c r="I38">
+        <v>10</v>
+      </c>
+      <c r="J38" t="s">
+        <v>74</v>
+      </c>
+      <c r="K38">
+        <v>1</v>
+      </c>
+      <c r="L38" t="s">
+        <v>100</v>
+      </c>
+      <c r="M38" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="39" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>38</v>
       </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B39" t="s">
+        <v>157</v>
+      </c>
+      <c r="D39" t="s">
+        <v>141</v>
+      </c>
+      <c r="E39" t="s">
+        <v>96</v>
+      </c>
+      <c r="F39" t="s">
+        <v>142</v>
+      </c>
+      <c r="G39" t="s">
+        <v>73</v>
+      </c>
+      <c r="H39">
+        <v>18</v>
+      </c>
+      <c r="I39">
+        <v>10</v>
+      </c>
+      <c r="J39" t="s">
+        <v>74</v>
+      </c>
+      <c r="K39">
+        <v>1</v>
+      </c>
+      <c r="L39" t="s">
+        <v>100</v>
+      </c>
+      <c r="M39" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="40" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A40">
         <v>39</v>
       </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B40" t="s">
+        <v>158</v>
+      </c>
+      <c r="C40" t="s">
+        <v>70</v>
+      </c>
+      <c r="D40" t="s">
+        <v>141</v>
+      </c>
+      <c r="E40" t="s">
+        <v>96</v>
+      </c>
+      <c r="F40" t="s">
+        <v>142</v>
+      </c>
+      <c r="G40" t="s">
+        <v>73</v>
+      </c>
+      <c r="H40">
+        <v>18</v>
+      </c>
+      <c r="I40">
+        <v>10</v>
+      </c>
+      <c r="J40" t="s">
+        <v>74</v>
+      </c>
+      <c r="K40">
+        <v>1</v>
+      </c>
+      <c r="L40" t="s">
+        <v>61</v>
+      </c>
+      <c r="M40" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="41" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A41">
         <v>40</v>
       </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="D41" t="s">
+        <v>162</v>
+      </c>
+      <c r="E41" t="s">
+        <v>88</v>
+      </c>
+      <c r="F41" t="s">
+        <v>142</v>
+      </c>
+      <c r="G41" t="s">
+        <v>73</v>
+      </c>
+      <c r="H41">
+        <v>17</v>
+      </c>
+      <c r="I41">
+        <v>5</v>
+      </c>
+      <c r="J41" t="s">
+        <v>144</v>
+      </c>
+      <c r="K41">
+        <v>1</v>
+      </c>
+      <c r="L41" t="s">
+        <v>75</v>
+      </c>
+      <c r="M41" t="s">
+        <v>146</v>
+      </c>
+      <c r="P41" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="42" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A42">
         <v>41</v>
       </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="D42" t="s">
+        <v>162</v>
+      </c>
+      <c r="E42" t="s">
+        <v>88</v>
+      </c>
+      <c r="F42" t="s">
+        <v>142</v>
+      </c>
+      <c r="G42" t="s">
+        <v>73</v>
+      </c>
+      <c r="H42">
+        <v>17</v>
+      </c>
+      <c r="I42">
+        <v>5</v>
+      </c>
+      <c r="J42" t="s">
+        <v>144</v>
+      </c>
+      <c r="K42">
+        <v>1</v>
+      </c>
+      <c r="L42" t="s">
+        <v>149</v>
+      </c>
+      <c r="R42" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="43" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A43">
         <v>42</v>
       </c>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B43" t="s">
+        <v>164</v>
+      </c>
+      <c r="C43" t="s">
+        <v>70</v>
+      </c>
+      <c r="D43" t="s">
+        <v>162</v>
+      </c>
+      <c r="E43" t="s">
+        <v>88</v>
+      </c>
+      <c r="F43" t="s">
+        <v>142</v>
+      </c>
+      <c r="G43" t="s">
+        <v>73</v>
+      </c>
+      <c r="H43">
+        <v>17</v>
+      </c>
+      <c r="I43">
+        <v>5</v>
+      </c>
+      <c r="J43" t="s">
+        <v>144</v>
+      </c>
+      <c r="K43">
+        <v>1</v>
+      </c>
+      <c r="L43" t="s">
+        <v>79</v>
+      </c>
+      <c r="M43" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="44" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A44">
         <v>43</v>
       </c>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B44" t="s">
+        <v>165</v>
+      </c>
+      <c r="D44" t="s">
+        <v>162</v>
+      </c>
+      <c r="E44" t="s">
+        <v>88</v>
+      </c>
+      <c r="F44" t="s">
+        <v>142</v>
+      </c>
+      <c r="G44" t="s">
+        <v>73</v>
+      </c>
+      <c r="H44">
+        <v>17</v>
+      </c>
+      <c r="I44">
+        <v>5</v>
+      </c>
+      <c r="J44" t="s">
+        <v>144</v>
+      </c>
+      <c r="K44">
+        <v>1</v>
+      </c>
+      <c r="L44" t="s">
+        <v>79</v>
+      </c>
+      <c r="M44" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="45" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A45">
         <v>44</v>
       </c>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B45" t="s">
+        <v>166</v>
+      </c>
+      <c r="C45" t="s">
+        <v>70</v>
+      </c>
+      <c r="D45" t="s">
+        <v>162</v>
+      </c>
+      <c r="E45" t="s">
+        <v>88</v>
+      </c>
+      <c r="F45" t="s">
+        <v>142</v>
+      </c>
+      <c r="G45" t="s">
+        <v>73</v>
+      </c>
+      <c r="H45">
+        <v>17</v>
+      </c>
+      <c r="I45">
+        <v>5</v>
+      </c>
+      <c r="J45" t="s">
+        <v>144</v>
+      </c>
+      <c r="K45">
+        <v>1</v>
+      </c>
+      <c r="L45" t="s">
+        <v>79</v>
+      </c>
+      <c r="M45" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="46" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A46">
         <v>45</v>
       </c>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B46" t="s">
+        <v>167</v>
+      </c>
+      <c r="D46" t="s">
+        <v>162</v>
+      </c>
+      <c r="E46" t="s">
+        <v>88</v>
+      </c>
+      <c r="F46" t="s">
+        <v>142</v>
+      </c>
+      <c r="G46" t="s">
+        <v>73</v>
+      </c>
+      <c r="H46">
+        <v>17</v>
+      </c>
+      <c r="I46">
+        <v>5</v>
+      </c>
+      <c r="J46" t="s">
+        <v>144</v>
+      </c>
+      <c r="K46">
+        <v>1</v>
+      </c>
+      <c r="L46" t="s">
+        <v>75</v>
+      </c>
+      <c r="M46" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="47" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A47">
         <v>46</v>
       </c>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B47" t="s">
+        <v>168</v>
+      </c>
+      <c r="D47" t="s">
+        <v>162</v>
+      </c>
+      <c r="E47" t="s">
+        <v>88</v>
+      </c>
+      <c r="F47" t="s">
+        <v>142</v>
+      </c>
+      <c r="G47" t="s">
+        <v>73</v>
+      </c>
+      <c r="H47">
+        <v>17</v>
+      </c>
+      <c r="I47">
+        <v>5</v>
+      </c>
+      <c r="J47" t="s">
+        <v>144</v>
+      </c>
+      <c r="K47">
+        <v>1</v>
+      </c>
+      <c r="L47" t="s">
+        <v>75</v>
+      </c>
+      <c r="M47" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="48" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A48">
         <v>47</v>
       </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B48" t="s">
+        <v>176</v>
+      </c>
+      <c r="C48" t="s">
+        <v>70</v>
+      </c>
+      <c r="D48" t="s">
+        <v>162</v>
+      </c>
+      <c r="E48" t="s">
+        <v>88</v>
+      </c>
+      <c r="F48" t="s">
+        <v>142</v>
+      </c>
+      <c r="G48" t="s">
+        <v>73</v>
+      </c>
+      <c r="H48">
+        <v>17</v>
+      </c>
+      <c r="I48">
+        <v>4</v>
+      </c>
+      <c r="J48" t="s">
+        <v>74</v>
+      </c>
+      <c r="K48">
+        <v>1</v>
+      </c>
+      <c r="L48" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="49" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A49">
         <v>48</v>
       </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B49" t="s">
+        <v>177</v>
+      </c>
+      <c r="C49" t="s">
+        <v>70</v>
+      </c>
+      <c r="D49" t="s">
+        <v>162</v>
+      </c>
+      <c r="E49" t="s">
+        <v>88</v>
+      </c>
+      <c r="F49" t="s">
+        <v>142</v>
+      </c>
+      <c r="G49" t="s">
+        <v>73</v>
+      </c>
+      <c r="H49">
+        <v>17</v>
+      </c>
+      <c r="I49">
+        <v>4</v>
+      </c>
+      <c r="J49" t="s">
+        <v>74</v>
+      </c>
+      <c r="K49">
+        <v>1</v>
+      </c>
+      <c r="L49" t="s">
+        <v>79</v>
+      </c>
+      <c r="M49" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="50" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A50">
         <v>49</v>
       </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="D50" t="s">
+        <v>162</v>
+      </c>
+      <c r="E50" t="s">
+        <v>88</v>
+      </c>
+      <c r="F50" t="s">
+        <v>142</v>
+      </c>
+      <c r="G50" t="s">
+        <v>73</v>
+      </c>
+      <c r="H50">
+        <v>17</v>
+      </c>
+      <c r="I50">
+        <v>4</v>
+      </c>
+      <c r="J50" t="s">
+        <v>144</v>
+      </c>
+      <c r="K50">
+        <v>3</v>
+      </c>
+      <c r="L50" t="s">
+        <v>79</v>
+      </c>
+      <c r="M50" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="51" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A51">
         <v>50</v>
       </c>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B51" t="s">
+        <v>178</v>
+      </c>
+      <c r="C51" t="s">
+        <v>70</v>
+      </c>
+      <c r="D51" t="s">
+        <v>162</v>
+      </c>
+      <c r="E51" t="s">
+        <v>88</v>
+      </c>
+      <c r="F51" t="s">
+        <v>142</v>
+      </c>
+      <c r="G51" t="s">
+        <v>73</v>
+      </c>
+      <c r="H51">
+        <v>17</v>
+      </c>
+      <c r="I51">
+        <v>4</v>
+      </c>
+      <c r="J51" t="s">
+        <v>74</v>
+      </c>
+      <c r="K51">
+        <v>1</v>
+      </c>
+      <c r="L51" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="52" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A52">
         <v>51</v>
       </c>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="D52" t="s">
+        <v>162</v>
+      </c>
+      <c r="E52" t="s">
+        <v>88</v>
+      </c>
+      <c r="F52" t="s">
+        <v>142</v>
+      </c>
+      <c r="G52" t="s">
+        <v>73</v>
+      </c>
+      <c r="H52">
+        <v>17</v>
+      </c>
+      <c r="I52">
+        <v>4</v>
+      </c>
+      <c r="J52" t="s">
+        <v>144</v>
+      </c>
+      <c r="K52">
+        <v>1</v>
+      </c>
+      <c r="L52" t="s">
+        <v>149</v>
+      </c>
+      <c r="M52" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="53" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A53">
         <v>52</v>
       </c>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="D53" t="s">
+        <v>162</v>
+      </c>
+      <c r="E53" t="s">
+        <v>88</v>
+      </c>
+      <c r="F53" t="s">
+        <v>142</v>
+      </c>
+      <c r="G53" t="s">
+        <v>73</v>
+      </c>
+      <c r="H53">
+        <v>17</v>
+      </c>
+      <c r="I53">
+        <v>4</v>
+      </c>
+      <c r="J53" t="s">
+        <v>144</v>
+      </c>
+      <c r="K53">
+        <v>1</v>
+      </c>
+      <c r="L53" t="s">
+        <v>149</v>
+      </c>
+      <c r="M53" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="54" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A54">
         <v>53</v>
       </c>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="D54" t="s">
+        <v>162</v>
+      </c>
+      <c r="E54" t="s">
+        <v>88</v>
+      </c>
+      <c r="F54" t="s">
+        <v>142</v>
+      </c>
+      <c r="G54" t="s">
+        <v>73</v>
+      </c>
+      <c r="H54">
+        <v>17</v>
+      </c>
+      <c r="I54">
+        <v>4</v>
+      </c>
+      <c r="J54" t="s">
+        <v>144</v>
+      </c>
+      <c r="K54">
+        <v>1</v>
+      </c>
+      <c r="L54" t="s">
+        <v>149</v>
+      </c>
+      <c r="M54" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="55" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A55">
         <v>54</v>
       </c>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="D55" t="s">
+        <v>162</v>
+      </c>
+      <c r="E55" t="s">
+        <v>88</v>
+      </c>
+      <c r="F55" t="s">
+        <v>142</v>
+      </c>
+      <c r="G55" t="s">
+        <v>73</v>
+      </c>
+      <c r="H55">
+        <v>17</v>
+      </c>
+      <c r="I55">
+        <v>4</v>
+      </c>
+      <c r="J55" t="s">
+        <v>144</v>
+      </c>
+      <c r="K55">
+        <v>2</v>
+      </c>
+      <c r="L55" t="s">
+        <v>75</v>
+      </c>
+      <c r="M55" t="s">
+        <v>146</v>
+      </c>
+      <c r="P55" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="56" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A56">
         <v>55</v>
       </c>
-    </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="D56" t="s">
+        <v>162</v>
+      </c>
+      <c r="E56" t="s">
+        <v>88</v>
+      </c>
+      <c r="F56" t="s">
+        <v>142</v>
+      </c>
+      <c r="G56" t="s">
+        <v>73</v>
+      </c>
+      <c r="H56">
+        <v>17</v>
+      </c>
+      <c r="I56">
+        <v>4</v>
+      </c>
+      <c r="J56" t="s">
+        <v>144</v>
+      </c>
+      <c r="K56">
+        <v>1</v>
+      </c>
+      <c r="L56" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="57" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A57">
         <v>56</v>
       </c>
-    </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="D57" t="s">
+        <v>162</v>
+      </c>
+      <c r="E57" t="s">
+        <v>88</v>
+      </c>
+      <c r="F57" t="s">
+        <v>142</v>
+      </c>
+      <c r="G57" t="s">
+        <v>73</v>
+      </c>
+      <c r="H57">
+        <v>17</v>
+      </c>
+      <c r="I57">
+        <v>4</v>
+      </c>
+      <c r="J57" t="s">
+        <v>144</v>
+      </c>
+      <c r="K57">
+        <v>1</v>
+      </c>
+      <c r="L57" t="s">
+        <v>79</v>
+      </c>
+      <c r="M57" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="58" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A58">
         <v>57</v>
       </c>
-    </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="D58" t="s">
+        <v>162</v>
+      </c>
+      <c r="E58" t="s">
+        <v>88</v>
+      </c>
+      <c r="F58" t="s">
+        <v>142</v>
+      </c>
+      <c r="G58" t="s">
+        <v>73</v>
+      </c>
+      <c r="H58">
+        <v>17</v>
+      </c>
+      <c r="I58">
+        <v>4</v>
+      </c>
+      <c r="J58" t="s">
+        <v>144</v>
+      </c>
+      <c r="K58">
+        <v>1</v>
+      </c>
+      <c r="L58" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="59" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A59">
         <v>58</v>
       </c>
-    </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B59" t="s">
+        <v>179</v>
+      </c>
+      <c r="C59" t="s">
+        <v>70</v>
+      </c>
+      <c r="D59" t="s">
+        <v>162</v>
+      </c>
+      <c r="E59" t="s">
+        <v>88</v>
+      </c>
+      <c r="F59" t="s">
+        <v>142</v>
+      </c>
+      <c r="G59" t="s">
+        <v>73</v>
+      </c>
+      <c r="H59">
+        <v>17</v>
+      </c>
+      <c r="I59">
+        <v>4</v>
+      </c>
+      <c r="J59" t="s">
+        <v>74</v>
+      </c>
+      <c r="K59">
+        <v>1</v>
+      </c>
+      <c r="L59" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="60" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A60">
         <v>59</v>
       </c>
-    </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="D60" t="s">
+        <v>162</v>
+      </c>
+      <c r="E60" t="s">
+        <v>88</v>
+      </c>
+      <c r="F60" t="s">
+        <v>142</v>
+      </c>
+      <c r="G60" t="s">
+        <v>73</v>
+      </c>
+      <c r="H60">
+        <v>17</v>
+      </c>
+      <c r="I60">
+        <v>4</v>
+      </c>
+      <c r="J60" t="s">
+        <v>144</v>
+      </c>
+      <c r="K60">
+        <v>1</v>
+      </c>
+      <c r="L60" t="s">
+        <v>149</v>
+      </c>
+      <c r="R60" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="61" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A61">
         <v>60</v>
       </c>
-    </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="D61" t="s">
+        <v>162</v>
+      </c>
+      <c r="E61" t="s">
+        <v>96</v>
+      </c>
+      <c r="F61" t="s">
+        <v>142</v>
+      </c>
+      <c r="G61" t="s">
+        <v>73</v>
+      </c>
+      <c r="H61">
+        <v>17</v>
+      </c>
+      <c r="I61">
+        <v>4</v>
+      </c>
+      <c r="J61" t="s">
+        <v>144</v>
+      </c>
+      <c r="K61">
+        <v>2</v>
+      </c>
+      <c r="L61" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="62" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A62">
         <v>61</v>
       </c>
-    </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="D62" t="s">
+        <v>162</v>
+      </c>
+      <c r="E62" t="s">
+        <v>96</v>
+      </c>
+      <c r="F62" t="s">
+        <v>142</v>
+      </c>
+      <c r="G62" t="s">
+        <v>73</v>
+      </c>
+      <c r="H62">
+        <v>17</v>
+      </c>
+      <c r="I62">
+        <v>4</v>
+      </c>
+      <c r="J62" t="s">
+        <v>144</v>
+      </c>
+      <c r="K62">
+        <v>1</v>
+      </c>
+      <c r="L62" t="s">
+        <v>79</v>
+      </c>
+      <c r="M62" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="63" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A63">
         <v>62</v>
       </c>
-    </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="D63" t="s">
+        <v>162</v>
+      </c>
+      <c r="E63" t="s">
+        <v>96</v>
+      </c>
+      <c r="F63" t="s">
+        <v>142</v>
+      </c>
+      <c r="G63" t="s">
+        <v>73</v>
+      </c>
+      <c r="H63">
+        <v>17</v>
+      </c>
+      <c r="I63">
+        <v>4</v>
+      </c>
+      <c r="J63" t="s">
+        <v>144</v>
+      </c>
+      <c r="K63">
+        <v>5</v>
+      </c>
+      <c r="L63" t="s">
+        <v>75</v>
+      </c>
+      <c r="M63" t="s">
+        <v>146</v>
+      </c>
+      <c r="P63" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="64" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A64">
         <v>63</v>
       </c>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="D64" t="s">
+        <v>162</v>
+      </c>
+      <c r="E64" t="s">
+        <v>96</v>
+      </c>
+      <c r="F64" t="s">
+        <v>142</v>
+      </c>
+      <c r="G64" t="s">
+        <v>73</v>
+      </c>
+      <c r="H64">
+        <v>17</v>
+      </c>
+      <c r="I64">
+        <v>4</v>
+      </c>
+      <c r="J64" t="s">
+        <v>144</v>
+      </c>
+      <c r="K64">
+        <v>11</v>
+      </c>
+      <c r="L64" t="s">
+        <v>75</v>
+      </c>
+      <c r="M64" t="s">
+        <v>146</v>
+      </c>
+      <c r="P64" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="65" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A65">
         <v>64</v>
       </c>
-    </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="D65" t="s">
+        <v>162</v>
+      </c>
+      <c r="E65" t="s">
+        <v>96</v>
+      </c>
+      <c r="F65" t="s">
+        <v>142</v>
+      </c>
+      <c r="G65" t="s">
+        <v>73</v>
+      </c>
+      <c r="H65">
+        <v>17</v>
+      </c>
+      <c r="I65">
+        <v>4</v>
+      </c>
+      <c r="J65" t="s">
+        <v>144</v>
+      </c>
+      <c r="K65">
+        <v>2</v>
+      </c>
+      <c r="L65" t="s">
+        <v>75</v>
+      </c>
+      <c r="M65" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="66" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A66">
         <v>65</v>
       </c>
-    </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B66" t="s">
+        <v>181</v>
+      </c>
+      <c r="D66" t="s">
+        <v>162</v>
+      </c>
+      <c r="E66" t="s">
+        <v>96</v>
+      </c>
+      <c r="F66" t="s">
+        <v>142</v>
+      </c>
+      <c r="G66" t="s">
+        <v>73</v>
+      </c>
+      <c r="H66">
+        <v>17</v>
+      </c>
+      <c r="I66">
+        <v>4</v>
+      </c>
+      <c r="J66" t="s">
+        <v>74</v>
+      </c>
+      <c r="K66">
+        <v>1</v>
+      </c>
+      <c r="L66" t="s">
+        <v>100</v>
+      </c>
+      <c r="M66" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="67" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A67">
         <v>66</v>
       </c>
-    </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B67" t="s">
+        <v>182</v>
+      </c>
+      <c r="D67" t="s">
+        <v>162</v>
+      </c>
+      <c r="E67" t="s">
+        <v>96</v>
+      </c>
+      <c r="F67" t="s">
+        <v>142</v>
+      </c>
+      <c r="G67" t="s">
+        <v>73</v>
+      </c>
+      <c r="H67">
+        <v>17</v>
+      </c>
+      <c r="I67">
+        <v>4</v>
+      </c>
+      <c r="J67" t="s">
+        <v>74</v>
+      </c>
+      <c r="K67">
+        <v>1</v>
+      </c>
+      <c r="L67" t="s">
+        <v>100</v>
+      </c>
+      <c r="M67" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="68" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A68">
         <v>67</v>
       </c>
-    </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B68" t="s">
+        <v>183</v>
+      </c>
+      <c r="D68" t="s">
+        <v>162</v>
+      </c>
+      <c r="E68" t="s">
+        <v>96</v>
+      </c>
+      <c r="F68" t="s">
+        <v>142</v>
+      </c>
+      <c r="G68" t="s">
+        <v>73</v>
+      </c>
+      <c r="H68">
+        <v>17</v>
+      </c>
+      <c r="I68">
+        <v>4</v>
+      </c>
+      <c r="J68" t="s">
+        <v>74</v>
+      </c>
+      <c r="K68">
+        <v>1</v>
+      </c>
+      <c r="L68" t="s">
+        <v>100</v>
+      </c>
+      <c r="M68" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="69" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A69">
         <v>68</v>
       </c>
-    </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B69" t="s">
+        <v>184</v>
+      </c>
+      <c r="D69" t="s">
+        <v>162</v>
+      </c>
+      <c r="E69" t="s">
+        <v>96</v>
+      </c>
+      <c r="F69" t="s">
+        <v>142</v>
+      </c>
+      <c r="G69" t="s">
+        <v>73</v>
+      </c>
+      <c r="H69">
+        <v>17</v>
+      </c>
+      <c r="I69">
+        <v>4</v>
+      </c>
+      <c r="J69" t="s">
+        <v>74</v>
+      </c>
+      <c r="K69">
+        <v>1</v>
+      </c>
+      <c r="L69" t="s">
+        <v>79</v>
+      </c>
+      <c r="M69" t="s">
+        <v>80</v>
+      </c>
+      <c r="P69" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="70" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A70">
         <v>69</v>
       </c>
-    </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B70" t="s">
+        <v>185</v>
+      </c>
+      <c r="D70" t="s">
+        <v>162</v>
+      </c>
+      <c r="E70" t="s">
+        <v>96</v>
+      </c>
+      <c r="F70" t="s">
+        <v>142</v>
+      </c>
+      <c r="G70" t="s">
+        <v>73</v>
+      </c>
+      <c r="H70">
+        <v>17</v>
+      </c>
+      <c r="I70">
+        <v>4</v>
+      </c>
+      <c r="J70" t="s">
+        <v>74</v>
+      </c>
+      <c r="K70">
+        <v>1</v>
+      </c>
+      <c r="L70" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="71" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A71">
         <v>70</v>
       </c>
-    </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B71" t="s">
+        <v>186</v>
+      </c>
+      <c r="D71" t="s">
+        <v>162</v>
+      </c>
+      <c r="E71" t="s">
+        <v>96</v>
+      </c>
+      <c r="F71" t="s">
+        <v>142</v>
+      </c>
+      <c r="G71" t="s">
+        <v>73</v>
+      </c>
+      <c r="H71">
+        <v>17</v>
+      </c>
+      <c r="I71">
+        <v>4</v>
+      </c>
+      <c r="J71" t="s">
+        <v>74</v>
+      </c>
+      <c r="K71">
+        <v>1</v>
+      </c>
+      <c r="L71" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="72" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A72">
         <v>71</v>
       </c>
-    </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B72" t="s">
+        <v>188</v>
+      </c>
+      <c r="D72" t="s">
+        <v>162</v>
+      </c>
+      <c r="E72" t="s">
+        <v>88</v>
+      </c>
+      <c r="F72" t="s">
+        <v>142</v>
+      </c>
+      <c r="G72" t="s">
+        <v>73</v>
+      </c>
+      <c r="H72">
+        <v>17</v>
+      </c>
+      <c r="I72">
+        <v>12</v>
+      </c>
+      <c r="J72" t="s">
+        <v>74</v>
+      </c>
+      <c r="K72">
+        <v>1</v>
+      </c>
+      <c r="L72" t="s">
+        <v>79</v>
+      </c>
+      <c r="M72" t="s">
+        <v>80</v>
+      </c>
+      <c r="P72" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="73" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A73">
         <v>72</v>
       </c>
-    </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="D73" t="s">
+        <v>162</v>
+      </c>
+      <c r="E73" t="s">
+        <v>88</v>
+      </c>
+      <c r="F73" t="s">
+        <v>142</v>
+      </c>
+      <c r="G73" t="s">
+        <v>73</v>
+      </c>
+      <c r="H73">
+        <v>17</v>
+      </c>
+      <c r="I73">
+        <v>12</v>
+      </c>
+      <c r="J73" t="s">
+        <v>144</v>
+      </c>
+      <c r="K73">
+        <v>1</v>
+      </c>
+      <c r="L73" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="74" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A74">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.35">
+        <v>74</v>
+      </c>
+      <c r="D74" t="s">
+        <v>162</v>
+      </c>
+      <c r="E74" t="s">
+        <v>88</v>
+      </c>
+      <c r="F74" t="s">
+        <v>142</v>
+      </c>
+      <c r="G74" t="s">
+        <v>73</v>
+      </c>
+      <c r="H74">
+        <v>17</v>
+      </c>
+      <c r="I74">
+        <v>12</v>
+      </c>
+      <c r="J74" t="s">
+        <v>144</v>
+      </c>
+      <c r="K74">
+        <v>1</v>
+      </c>
+      <c r="L74" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="75" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A75">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.35">
+        <v>75</v>
+      </c>
+      <c r="D75" t="s">
+        <v>162</v>
+      </c>
+      <c r="E75" t="s">
+        <v>88</v>
+      </c>
+      <c r="F75" t="s">
+        <v>142</v>
+      </c>
+      <c r="G75" t="s">
+        <v>73</v>
+      </c>
+      <c r="H75">
+        <v>17</v>
+      </c>
+      <c r="I75">
+        <v>12</v>
+      </c>
+      <c r="J75" t="s">
+        <v>144</v>
+      </c>
+      <c r="K75">
+        <v>1</v>
+      </c>
+      <c r="L75" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="76" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A76">
+        <v>76</v>
+      </c>
+      <c r="D76" t="s">
+        <v>162</v>
+      </c>
+      <c r="E76" t="s">
+        <v>88</v>
+      </c>
+      <c r="F76" t="s">
+        <v>142</v>
+      </c>
+      <c r="G76" t="s">
+        <v>73</v>
+      </c>
+      <c r="H76">
+        <v>17</v>
+      </c>
+      <c r="I76">
+        <v>12</v>
+      </c>
+      <c r="J76" t="s">
+        <v>144</v>
+      </c>
+      <c r="K76">
+        <v>1</v>
+      </c>
+      <c r="L76" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="77" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A77">
+        <v>77</v>
+      </c>
+      <c r="D77" t="s">
+        <v>162</v>
+      </c>
+      <c r="E77" t="s">
+        <v>88</v>
+      </c>
+      <c r="F77" t="s">
+        <v>142</v>
+      </c>
+      <c r="G77" t="s">
+        <v>73</v>
+      </c>
+      <c r="H77">
+        <v>17</v>
+      </c>
+      <c r="I77">
+        <v>12</v>
+      </c>
+      <c r="J77" t="s">
+        <v>144</v>
+      </c>
+      <c r="K77">
+        <v>1</v>
+      </c>
+      <c r="L77" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="78" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A78">
+        <v>78</v>
+      </c>
+      <c r="D78" t="s">
+        <v>162</v>
+      </c>
+      <c r="E78" t="s">
+        <v>88</v>
+      </c>
+      <c r="F78" t="s">
+        <v>142</v>
+      </c>
+      <c r="G78" t="s">
+        <v>73</v>
+      </c>
+      <c r="H78">
+        <v>17</v>
+      </c>
+      <c r="I78">
+        <v>12</v>
+      </c>
+      <c r="J78" t="s">
+        <v>144</v>
+      </c>
+      <c r="K78">
+        <v>1</v>
+      </c>
+      <c r="L78" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A77">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A78">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="M78" t="s">
+        <v>146</v>
+      </c>
+      <c r="P78" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="79" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A79">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.35">
+        <v>79</v>
+      </c>
+      <c r="D79" t="s">
+        <v>162</v>
+      </c>
+      <c r="E79" t="s">
+        <v>88</v>
+      </c>
+      <c r="F79" t="s">
+        <v>142</v>
+      </c>
+      <c r="G79" t="s">
+        <v>73</v>
+      </c>
+      <c r="H79">
+        <v>17</v>
+      </c>
+      <c r="I79">
+        <v>12</v>
+      </c>
+      <c r="J79" t="s">
+        <v>144</v>
+      </c>
+      <c r="K79">
+        <v>1</v>
+      </c>
+      <c r="L79" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="80" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A80">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.35">
+        <v>80</v>
+      </c>
+      <c r="D80" t="s">
+        <v>141</v>
+      </c>
+      <c r="E80" t="s">
+        <v>96</v>
+      </c>
+      <c r="F80" t="s">
+        <v>142</v>
+      </c>
+      <c r="G80" t="s">
+        <v>73</v>
+      </c>
+      <c r="H80">
+        <v>18</v>
+      </c>
+      <c r="I80">
+        <v>8</v>
+      </c>
+      <c r="J80" t="s">
+        <v>144</v>
+      </c>
+      <c r="K80">
+        <v>30</v>
+      </c>
+      <c r="L80" t="s">
+        <v>75</v>
+      </c>
+      <c r="M80" t="s">
+        <v>146</v>
+      </c>
+      <c r="P80" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="81" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A81">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.35">
+        <v>81</v>
+      </c>
+      <c r="B81" t="s">
+        <v>189</v>
+      </c>
+      <c r="D81" t="s">
+        <v>141</v>
+      </c>
+      <c r="E81" t="s">
+        <v>96</v>
+      </c>
+      <c r="F81" t="s">
+        <v>142</v>
+      </c>
+      <c r="G81" t="s">
+        <v>73</v>
+      </c>
+      <c r="H81">
+        <v>18</v>
+      </c>
+      <c r="I81">
+        <v>8</v>
+      </c>
+      <c r="J81" t="s">
+        <v>74</v>
+      </c>
+      <c r="K81">
+        <v>1</v>
+      </c>
+      <c r="L81" t="s">
+        <v>100</v>
+      </c>
+      <c r="M81" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="82" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A82">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.35">
+        <v>82</v>
+      </c>
+      <c r="B82" t="s">
+        <v>190</v>
+      </c>
+      <c r="D82" t="s">
+        <v>141</v>
+      </c>
+      <c r="E82" t="s">
+        <v>96</v>
+      </c>
+      <c r="F82" t="s">
+        <v>142</v>
+      </c>
+      <c r="G82" t="s">
+        <v>73</v>
+      </c>
+      <c r="H82">
+        <v>18</v>
+      </c>
+      <c r="I82">
+        <v>8</v>
+      </c>
+      <c r="J82" t="s">
+        <v>74</v>
+      </c>
+      <c r="K82">
+        <v>1</v>
+      </c>
+      <c r="L82" t="s">
+        <v>100</v>
+      </c>
+      <c r="M82" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="83" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A83">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.35">
+        <v>83</v>
+      </c>
+      <c r="B83" t="s">
+        <v>191</v>
+      </c>
+      <c r="D83" t="s">
+        <v>162</v>
+      </c>
+      <c r="F83" t="s">
+        <v>72</v>
+      </c>
+      <c r="G83" t="s">
+        <v>73</v>
+      </c>
+      <c r="H83">
+        <v>19</v>
+      </c>
+      <c r="I83">
+        <v>1</v>
+      </c>
+      <c r="J83" t="s">
+        <v>74</v>
+      </c>
+      <c r="K83">
+        <v>1</v>
+      </c>
+      <c r="L83" t="s">
+        <v>100</v>
+      </c>
+      <c r="M83" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="84" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A84">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.35">
+        <v>84</v>
+      </c>
+      <c r="B84" t="s">
+        <v>192</v>
+      </c>
+      <c r="D84" t="s">
+        <v>162</v>
+      </c>
+      <c r="F84" t="s">
+        <v>72</v>
+      </c>
+      <c r="G84" t="s">
+        <v>73</v>
+      </c>
+      <c r="H84">
+        <v>19</v>
+      </c>
+      <c r="I84">
+        <v>1</v>
+      </c>
+      <c r="J84" t="s">
+        <v>74</v>
+      </c>
+      <c r="K84">
+        <v>1</v>
+      </c>
+      <c r="L84" t="s">
+        <v>100</v>
+      </c>
+      <c r="M84" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="85" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A85">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.35">
+        <v>85</v>
+      </c>
+      <c r="B85" t="s">
+        <v>193</v>
+      </c>
+      <c r="D85" t="s">
+        <v>162</v>
+      </c>
+      <c r="F85" t="s">
+        <v>72</v>
+      </c>
+      <c r="G85" t="s">
+        <v>73</v>
+      </c>
+      <c r="H85">
+        <v>19</v>
+      </c>
+      <c r="I85">
+        <v>1</v>
+      </c>
+      <c r="J85" t="s">
+        <v>74</v>
+      </c>
+      <c r="K85">
+        <v>1</v>
+      </c>
+      <c r="L85" t="s">
+        <v>100</v>
+      </c>
+      <c r="M85" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="86" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A86">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A87">
         <v>86</v>
       </c>
-    </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B86" t="s">
+        <v>194</v>
+      </c>
+      <c r="D86" t="s">
+        <v>162</v>
+      </c>
+      <c r="F86" t="s">
+        <v>72</v>
+      </c>
+      <c r="G86" t="s">
+        <v>73</v>
+      </c>
+      <c r="H86">
+        <v>19</v>
+      </c>
+      <c r="I86">
+        <v>1</v>
+      </c>
+      <c r="J86" t="s">
+        <v>74</v>
+      </c>
+      <c r="K86">
+        <v>1</v>
+      </c>
+      <c r="L86" t="s">
+        <v>100</v>
+      </c>
+      <c r="M86" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="87" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="B87" t="s">
+        <v>195</v>
+      </c>
+      <c r="D87" t="s">
+        <v>162</v>
+      </c>
+      <c r="F87" t="s">
+        <v>72</v>
+      </c>
+      <c r="J87" t="s">
+        <v>74</v>
+      </c>
+      <c r="K87">
+        <v>1</v>
+      </c>
+      <c r="L87" t="s">
+        <v>100</v>
+      </c>
+      <c r="M87" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="88" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A88">
         <v>87</v>
       </c>
-    </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B88" t="s">
+        <v>196</v>
+      </c>
+      <c r="C88" t="s">
+        <v>70</v>
+      </c>
+      <c r="D88" t="s">
+        <v>162</v>
+      </c>
+      <c r="F88" t="s">
+        <v>72</v>
+      </c>
+      <c r="G88" t="s">
+        <v>73</v>
+      </c>
+      <c r="H88">
+        <v>19</v>
+      </c>
+      <c r="I88">
+        <v>1</v>
+      </c>
+      <c r="J88" t="s">
+        <v>74</v>
+      </c>
+      <c r="K88">
+        <v>1</v>
+      </c>
+      <c r="L88" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="89" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A89">
         <v>88</v>
       </c>
-    </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B89" t="s">
+        <v>197</v>
+      </c>
+      <c r="C89" t="s">
+        <v>70</v>
+      </c>
+      <c r="D89" t="s">
+        <v>162</v>
+      </c>
+      <c r="F89" t="s">
+        <v>72</v>
+      </c>
+      <c r="G89" t="s">
+        <v>73</v>
+      </c>
+      <c r="H89">
+        <v>19</v>
+      </c>
+      <c r="I89">
+        <v>1</v>
+      </c>
+      <c r="J89" t="s">
+        <v>74</v>
+      </c>
+      <c r="K89">
+        <v>1</v>
+      </c>
+      <c r="L89" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="90" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A90">
         <v>89</v>
       </c>
-    </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B90" t="s">
+        <v>198</v>
+      </c>
+      <c r="D90" t="s">
+        <v>162</v>
+      </c>
+      <c r="F90" t="s">
+        <v>72</v>
+      </c>
+      <c r="G90" t="s">
+        <v>73</v>
+      </c>
+      <c r="H90">
+        <v>19</v>
+      </c>
+      <c r="I90">
+        <v>1</v>
+      </c>
+      <c r="J90" t="s">
+        <v>74</v>
+      </c>
+      <c r="K90">
+        <v>1</v>
+      </c>
+      <c r="L90" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="91" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A91">
         <v>90</v>
       </c>
-    </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="D91" t="s">
+        <v>162</v>
+      </c>
+      <c r="E91" t="s">
+        <v>96</v>
+      </c>
+      <c r="F91" t="s">
+        <v>89</v>
+      </c>
+      <c r="G91" t="s">
+        <v>73</v>
+      </c>
+      <c r="H91">
+        <v>19</v>
+      </c>
+      <c r="I91">
+        <v>6</v>
+      </c>
+      <c r="J91" t="s">
+        <v>74</v>
+      </c>
+      <c r="K91">
+        <v>2</v>
+      </c>
+      <c r="L91" t="s">
+        <v>100</v>
+      </c>
+      <c r="M91" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="92" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A92">
         <v>91</v>
       </c>
-    </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="D92" t="s">
+        <v>162</v>
+      </c>
+      <c r="E92" t="s">
+        <v>96</v>
+      </c>
+      <c r="F92" t="s">
+        <v>97</v>
+      </c>
+      <c r="G92" t="s">
+        <v>73</v>
+      </c>
+      <c r="H92">
+        <v>19</v>
+      </c>
+      <c r="I92">
+        <v>3</v>
+      </c>
+      <c r="J92" t="s">
+        <v>74</v>
+      </c>
+      <c r="K92">
+        <v>1</v>
+      </c>
+      <c r="L92" t="s">
+        <v>100</v>
+      </c>
+      <c r="M92" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="93" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A93">
         <v>92</v>
       </c>
-    </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="D93" t="s">
+        <v>162</v>
+      </c>
+      <c r="E93" t="s">
+        <v>96</v>
+      </c>
+      <c r="F93" t="s">
+        <v>97</v>
+      </c>
+      <c r="G93" t="s">
+        <v>73</v>
+      </c>
+      <c r="H93">
+        <v>19</v>
+      </c>
+      <c r="I93">
+        <v>10</v>
+      </c>
+      <c r="J93" t="s">
+        <v>74</v>
+      </c>
+      <c r="K93">
+        <v>5</v>
+      </c>
+      <c r="L93" t="s">
+        <v>100</v>
+      </c>
+      <c r="M93" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="94" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A94">
         <v>93</v>
       </c>
-    </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="D94" t="s">
+        <v>162</v>
+      </c>
+      <c r="E94" t="s">
+        <v>96</v>
+      </c>
+      <c r="F94" t="s">
+        <v>97</v>
+      </c>
+      <c r="G94" t="s">
+        <v>73</v>
+      </c>
+      <c r="H94">
+        <v>19</v>
+      </c>
+      <c r="I94">
+        <v>1</v>
+      </c>
+      <c r="J94" t="s">
+        <v>74</v>
+      </c>
+      <c r="K94">
+        <v>1</v>
+      </c>
+      <c r="L94" t="s">
+        <v>100</v>
+      </c>
+      <c r="M94" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="95" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A95">
         <v>94</v>
       </c>
-    </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="D95" t="s">
+        <v>162</v>
+      </c>
+      <c r="E95" t="s">
+        <v>96</v>
+      </c>
+      <c r="F95" t="s">
+        <v>97</v>
+      </c>
+      <c r="G95" t="s">
+        <v>73</v>
+      </c>
+      <c r="H95">
+        <v>19</v>
+      </c>
+      <c r="I95">
+        <v>6</v>
+      </c>
+      <c r="J95" t="s">
+        <v>74</v>
+      </c>
+      <c r="K95">
+        <v>4</v>
+      </c>
+      <c r="L95" t="s">
+        <v>100</v>
+      </c>
+      <c r="M95" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="96" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A96">
         <v>95</v>
       </c>
-    </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="D96" t="s">
+        <v>162</v>
+      </c>
+      <c r="E96" t="s">
+        <v>96</v>
+      </c>
+      <c r="F96" t="s">
+        <v>97</v>
+      </c>
+      <c r="G96" t="s">
+        <v>73</v>
+      </c>
+      <c r="H96">
+        <v>19</v>
+      </c>
+      <c r="I96">
+        <v>4</v>
+      </c>
+      <c r="J96" t="s">
+        <v>74</v>
+      </c>
+      <c r="K96">
+        <v>2</v>
+      </c>
+      <c r="L96" t="s">
+        <v>100</v>
+      </c>
+      <c r="M96" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="97" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A97">
         <v>96</v>
       </c>
-    </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="D97" t="s">
+        <v>162</v>
+      </c>
+      <c r="E97" t="s">
+        <v>96</v>
+      </c>
+      <c r="F97" t="s">
+        <v>97</v>
+      </c>
+      <c r="G97" t="s">
+        <v>73</v>
+      </c>
+      <c r="H97">
+        <v>19</v>
+      </c>
+      <c r="I97">
+        <v>2</v>
+      </c>
+      <c r="J97" t="s">
+        <v>74</v>
+      </c>
+      <c r="K97">
+        <v>2</v>
+      </c>
+      <c r="L97" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="98" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A98">
         <v>97</v>
       </c>
-    </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="D98" t="s">
+        <v>162</v>
+      </c>
+      <c r="E98" t="s">
+        <v>96</v>
+      </c>
+      <c r="F98" t="s">
+        <v>97</v>
+      </c>
+      <c r="G98" t="s">
+        <v>73</v>
+      </c>
+      <c r="H98">
+        <v>19</v>
+      </c>
+      <c r="I98">
+        <v>8</v>
+      </c>
+      <c r="J98" t="s">
+        <v>74</v>
+      </c>
+      <c r="K98">
+        <v>1</v>
+      </c>
+      <c r="L98" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="99" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A99">
         <v>98</v>
       </c>
-    </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="D99" t="s">
+        <v>162</v>
+      </c>
+      <c r="E99" t="s">
+        <v>96</v>
+      </c>
+      <c r="F99" t="s">
+        <v>97</v>
+      </c>
+      <c r="G99" t="s">
+        <v>73</v>
+      </c>
+      <c r="H99">
+        <v>19</v>
+      </c>
+      <c r="I99">
+        <v>7</v>
+      </c>
+      <c r="J99" t="s">
+        <v>74</v>
+      </c>
+      <c r="K99">
+        <v>5</v>
+      </c>
+      <c r="L99" t="s">
+        <v>100</v>
+      </c>
+      <c r="M99" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="100" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A100">
         <v>99</v>
       </c>
-    </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="D100" t="s">
+        <v>162</v>
+      </c>
+      <c r="E100" t="s">
+        <v>96</v>
+      </c>
+      <c r="F100" t="s">
+        <v>89</v>
+      </c>
+      <c r="G100" t="s">
+        <v>73</v>
+      </c>
+      <c r="H100">
+        <v>19</v>
+      </c>
+      <c r="I100">
+        <v>10</v>
+      </c>
+      <c r="J100" t="s">
+        <v>74</v>
+      </c>
+      <c r="K100">
+        <v>1</v>
+      </c>
+      <c r="L100" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="101" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A101">
         <v>100</v>
       </c>
-    </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B101" t="s">
+        <v>203</v>
+      </c>
+      <c r="C101" t="s">
+        <v>70</v>
+      </c>
+      <c r="D101" t="s">
+        <v>162</v>
+      </c>
+      <c r="E101" t="s">
+        <v>96</v>
+      </c>
+      <c r="F101" t="s">
+        <v>97</v>
+      </c>
+      <c r="G101" t="s">
+        <v>73</v>
+      </c>
+      <c r="H101">
+        <v>19</v>
+      </c>
+      <c r="I101">
+        <v>5</v>
+      </c>
+      <c r="J101" t="s">
+        <v>74</v>
+      </c>
+      <c r="K101">
+        <v>1</v>
+      </c>
+      <c r="L101" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="102" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A102">
         <v>101</v>
       </c>
-    </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="D102" t="s">
+        <v>162</v>
+      </c>
+      <c r="E102" t="s">
+        <v>96</v>
+      </c>
+      <c r="F102" t="s">
+        <v>89</v>
+      </c>
+      <c r="G102" t="s">
+        <v>73</v>
+      </c>
+      <c r="H102">
+        <v>19</v>
+      </c>
+      <c r="I102">
+        <v>3</v>
+      </c>
+      <c r="J102" t="s">
+        <v>144</v>
+      </c>
+      <c r="K102">
+        <v>25</v>
+      </c>
+      <c r="L102" t="s">
+        <v>135</v>
+      </c>
+      <c r="M102" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="103" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A103">
         <v>102</v>
       </c>
-    </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="D103" t="s">
+        <v>162</v>
+      </c>
+      <c r="E103" t="s">
+        <v>96</v>
+      </c>
+      <c r="F103" t="s">
+        <v>89</v>
+      </c>
+      <c r="G103" t="s">
+        <v>73</v>
+      </c>
+      <c r="H103">
+        <v>19</v>
+      </c>
+      <c r="I103">
+        <v>3</v>
+      </c>
+      <c r="J103" t="s">
+        <v>144</v>
+      </c>
+      <c r="K103">
+        <v>2</v>
+      </c>
+      <c r="L103" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="104" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A104">
         <v>103</v>
       </c>
-    </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="D104" t="s">
+        <v>162</v>
+      </c>
+      <c r="E104" t="s">
+        <v>96</v>
+      </c>
+      <c r="F104" t="s">
+        <v>89</v>
+      </c>
+      <c r="G104" t="s">
+        <v>73</v>
+      </c>
+      <c r="H104">
+        <v>19</v>
+      </c>
+      <c r="I104">
+        <v>3</v>
+      </c>
+      <c r="J104" t="s">
+        <v>144</v>
+      </c>
+      <c r="K104">
+        <v>1</v>
+      </c>
+      <c r="L104" t="s">
+        <v>149</v>
+      </c>
+      <c r="M104" t="s">
+        <v>200</v>
+      </c>
+      <c r="R104" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="105" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A105">
         <v>104</v>
       </c>
-    </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="D105" t="s">
+        <v>162</v>
+      </c>
+      <c r="E105" t="s">
+        <v>96</v>
+      </c>
+      <c r="F105" t="s">
+        <v>97</v>
+      </c>
+      <c r="G105" t="s">
+        <v>73</v>
+      </c>
+      <c r="H105">
+        <v>19</v>
+      </c>
+      <c r="I105">
+        <v>9</v>
+      </c>
+      <c r="J105" t="s">
+        <v>74</v>
+      </c>
+      <c r="K105">
+        <v>3</v>
+      </c>
+      <c r="L105" t="s">
+        <v>100</v>
+      </c>
+      <c r="M105" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="106" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A106">
         <v>105</v>
       </c>
-    </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="D106" t="s">
+        <v>162</v>
+      </c>
+      <c r="E106" t="s">
+        <v>96</v>
+      </c>
+      <c r="F106" t="s">
+        <v>97</v>
+      </c>
+      <c r="G106" t="s">
+        <v>73</v>
+      </c>
+      <c r="H106">
+        <v>19</v>
+      </c>
+      <c r="I106">
+        <v>9</v>
+      </c>
+      <c r="J106" t="s">
+        <v>74</v>
+      </c>
+      <c r="K106">
+        <v>1</v>
+      </c>
+      <c r="L106" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="107" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A107">
         <v>106</v>
       </c>
-    </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="D107" t="s">
+        <v>162</v>
+      </c>
+      <c r="E107" t="s">
+        <v>96</v>
+      </c>
+      <c r="F107" t="s">
+        <v>89</v>
+      </c>
+      <c r="G107" t="s">
+        <v>73</v>
+      </c>
+      <c r="H107">
+        <v>19</v>
+      </c>
+      <c r="I107">
+        <v>1</v>
+      </c>
+      <c r="J107" t="s">
+        <v>144</v>
+      </c>
+      <c r="K107">
+        <v>2</v>
+      </c>
+      <c r="L107" t="s">
+        <v>79</v>
+      </c>
+      <c r="M107" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="108" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A108">
         <v>107</v>
       </c>
-    </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="D108" t="s">
+        <v>162</v>
+      </c>
+      <c r="E108" t="s">
+        <v>96</v>
+      </c>
+      <c r="F108" t="s">
+        <v>97</v>
+      </c>
+      <c r="G108" t="s">
+        <v>73</v>
+      </c>
+      <c r="H108">
+        <v>19</v>
+      </c>
+      <c r="I108">
+        <v>5</v>
+      </c>
+      <c r="J108" t="s">
+        <v>74</v>
+      </c>
+      <c r="K108">
+        <v>25</v>
+      </c>
+      <c r="L108" t="s">
+        <v>100</v>
+      </c>
+      <c r="M108" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="109" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A109">
         <v>108</v>
       </c>
-    </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="D109" t="s">
+        <v>162</v>
+      </c>
+      <c r="E109" t="s">
+        <v>96</v>
+      </c>
+      <c r="F109" t="s">
+        <v>97</v>
+      </c>
+      <c r="G109" t="s">
+        <v>73</v>
+      </c>
+      <c r="H109">
+        <v>19</v>
+      </c>
+      <c r="I109">
+        <v>5</v>
+      </c>
+      <c r="J109" t="s">
+        <v>74</v>
+      </c>
+      <c r="K109">
+        <v>1</v>
+      </c>
+      <c r="L109" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="110" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A110">
         <v>109</v>
       </c>
-    </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="D110" t="s">
+        <v>162</v>
+      </c>
+      <c r="E110" t="s">
+        <v>96</v>
+      </c>
+      <c r="F110" t="s">
+        <v>201</v>
+      </c>
+      <c r="G110" t="s">
+        <v>73</v>
+      </c>
+      <c r="H110">
+        <v>19</v>
+      </c>
+      <c r="I110">
+        <v>1</v>
+      </c>
+      <c r="J110" t="s">
+        <v>144</v>
+      </c>
+      <c r="L110" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="111" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A111">
         <v>110</v>
       </c>
-    </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="D111" t="s">
+        <v>162</v>
+      </c>
+      <c r="E111" t="s">
+        <v>96</v>
+      </c>
+      <c r="F111" t="s">
+        <v>201</v>
+      </c>
+      <c r="G111" t="s">
+        <v>73</v>
+      </c>
+      <c r="H111">
+        <v>19</v>
+      </c>
+      <c r="I111">
+        <v>1</v>
+      </c>
+      <c r="J111" t="s">
+        <v>74</v>
+      </c>
+      <c r="K111">
+        <v>2</v>
+      </c>
+      <c r="L111" t="s">
+        <v>100</v>
+      </c>
+      <c r="M111" t="s">
+        <v>57</v>
+      </c>
+      <c r="R111" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="112" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A112">
         <v>111</v>
       </c>
-    </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="D112" t="s">
+        <v>204</v>
+      </c>
+      <c r="E112" t="s">
+        <v>96</v>
+      </c>
+      <c r="F112" t="s">
+        <v>97</v>
+      </c>
+      <c r="G112" t="s">
+        <v>73</v>
+      </c>
+      <c r="H112">
+        <v>10</v>
+      </c>
+      <c r="I112">
+        <v>7</v>
+      </c>
+      <c r="J112" t="s">
+        <v>74</v>
+      </c>
+      <c r="K112">
+        <v>1</v>
+      </c>
+      <c r="L112" t="s">
+        <v>100</v>
+      </c>
+      <c r="M112" t="s">
+        <v>57</v>
+      </c>
+      <c r="R112" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="113" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A113">
         <v>112</v>
       </c>
-    </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B113" t="s">
+        <v>207</v>
+      </c>
+      <c r="C113" t="s">
+        <v>70</v>
+      </c>
+      <c r="D113" t="s">
+        <v>204</v>
+      </c>
+      <c r="E113" t="s">
+        <v>96</v>
+      </c>
+      <c r="F113" t="s">
+        <v>97</v>
+      </c>
+      <c r="G113" t="s">
+        <v>73</v>
+      </c>
+      <c r="H113">
+        <v>10</v>
+      </c>
+      <c r="I113">
+        <v>10</v>
+      </c>
+      <c r="J113" t="s">
+        <v>74</v>
+      </c>
+      <c r="K113">
+        <v>1</v>
+      </c>
+      <c r="L113" t="s">
+        <v>100</v>
+      </c>
+      <c r="M113" t="s">
+        <v>57</v>
+      </c>
+      <c r="R113" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="114" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A114">
         <v>113</v>
       </c>
-    </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="D114" t="s">
+        <v>204</v>
+      </c>
+      <c r="E114" t="s">
+        <v>96</v>
+      </c>
+      <c r="F114" t="s">
+        <v>89</v>
+      </c>
+      <c r="G114" t="s">
+        <v>73</v>
+      </c>
+      <c r="H114">
+        <v>10</v>
+      </c>
+      <c r="I114">
+        <v>3</v>
+      </c>
+      <c r="J114" t="s">
+        <v>144</v>
+      </c>
+      <c r="K114">
+        <v>1</v>
+      </c>
+      <c r="L114" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="115" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A115">
         <v>114</v>
       </c>
-    </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="D115" t="s">
+        <v>204</v>
+      </c>
+      <c r="E115" t="s">
+        <v>88</v>
+      </c>
+      <c r="F115" t="s">
+        <v>89</v>
+      </c>
+      <c r="G115" t="s">
+        <v>73</v>
+      </c>
+      <c r="H115">
+        <v>10</v>
+      </c>
+      <c r="I115">
+        <v>10</v>
+      </c>
+      <c r="J115" t="s">
+        <v>144</v>
+      </c>
+      <c r="K115">
+        <v>1</v>
+      </c>
+      <c r="L115" t="s">
+        <v>149</v>
+      </c>
+      <c r="M115" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="116" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A116">
         <v>115</v>
       </c>
-    </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="D116" t="s">
+        <v>204</v>
+      </c>
+      <c r="E116" t="s">
+        <v>88</v>
+      </c>
+      <c r="F116" t="s">
+        <v>89</v>
+      </c>
+      <c r="G116" t="s">
+        <v>73</v>
+      </c>
+      <c r="H116">
+        <v>10</v>
+      </c>
+      <c r="I116">
+        <v>10</v>
+      </c>
+      <c r="J116" t="s">
+        <v>144</v>
+      </c>
+      <c r="K116">
+        <v>0</v>
+      </c>
+      <c r="L116" t="s">
+        <v>210</v>
+      </c>
+      <c r="R116" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="117" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A117">
         <v>116</v>
       </c>
-    </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B117" t="s">
+        <v>211</v>
+      </c>
+      <c r="D117" t="s">
+        <v>204</v>
+      </c>
+      <c r="E117" t="s">
+        <v>96</v>
+      </c>
+      <c r="F117" t="s">
+        <v>97</v>
+      </c>
+      <c r="G117" t="s">
+        <v>73</v>
+      </c>
+      <c r="H117">
+        <v>10</v>
+      </c>
+      <c r="I117">
+        <v>3</v>
+      </c>
+      <c r="J117" t="s">
+        <v>74</v>
+      </c>
+      <c r="K117">
+        <v>1</v>
+      </c>
+      <c r="L117" t="s">
+        <v>100</v>
+      </c>
+      <c r="M117" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="118" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A118">
         <v>117</v>
       </c>
-    </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="D118" t="s">
+        <v>204</v>
+      </c>
+      <c r="E118" t="s">
+        <v>96</v>
+      </c>
+      <c r="F118" t="s">
+        <v>97</v>
+      </c>
+      <c r="G118" t="s">
+        <v>73</v>
+      </c>
+      <c r="H118">
+        <v>10</v>
+      </c>
+      <c r="I118">
+        <v>3</v>
+      </c>
+      <c r="J118" t="s">
+        <v>74</v>
+      </c>
+      <c r="K118">
+        <v>1</v>
+      </c>
+      <c r="L118" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="119" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A119">
         <v>118</v>
       </c>
-    </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="D119" t="s">
+        <v>204</v>
+      </c>
+      <c r="E119" t="s">
+        <v>88</v>
+      </c>
+      <c r="F119" t="s">
+        <v>89</v>
+      </c>
+      <c r="G119" t="s">
+        <v>73</v>
+      </c>
+      <c r="H119">
+        <v>10</v>
+      </c>
+      <c r="I119">
+        <v>2</v>
+      </c>
+      <c r="J119" t="s">
+        <v>144</v>
+      </c>
+      <c r="K119">
+        <v>1</v>
+      </c>
+      <c r="L119" t="s">
+        <v>149</v>
+      </c>
+      <c r="R119" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="120" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A120">
         <v>119</v>
       </c>
-    </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="D120" t="s">
+        <v>204</v>
+      </c>
+      <c r="E120" t="s">
+        <v>96</v>
+      </c>
+      <c r="F120" t="s">
+        <v>89</v>
+      </c>
+      <c r="G120" t="s">
+        <v>73</v>
+      </c>
+      <c r="H120">
+        <v>10</v>
+      </c>
+      <c r="I120">
+        <v>6</v>
+      </c>
+      <c r="J120" t="s">
+        <v>74</v>
+      </c>
+      <c r="K120">
+        <v>1</v>
+      </c>
+      <c r="L120" t="s">
+        <v>100</v>
+      </c>
+      <c r="M120" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="121" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A121">
         <v>120</v>
       </c>
-    </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="D121" t="s">
+        <v>204</v>
+      </c>
+      <c r="E121" t="s">
+        <v>96</v>
+      </c>
+      <c r="F121" t="s">
+        <v>97</v>
+      </c>
+      <c r="G121" t="s">
+        <v>73</v>
+      </c>
+      <c r="H121">
+        <v>10</v>
+      </c>
+      <c r="I121">
+        <v>4</v>
+      </c>
+      <c r="J121" t="s">
+        <v>74</v>
+      </c>
+      <c r="K121">
+        <v>1</v>
+      </c>
+      <c r="L121" t="s">
+        <v>100</v>
+      </c>
+      <c r="M121" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="122" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A122">
         <v>121</v>
       </c>
-    </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B122" t="s">
+        <v>212</v>
+      </c>
+      <c r="C122" t="s">
+        <v>70</v>
+      </c>
+      <c r="D122" t="s">
+        <v>204</v>
+      </c>
+      <c r="E122" t="s">
+        <v>88</v>
+      </c>
+      <c r="F122" t="s">
+        <v>89</v>
+      </c>
+      <c r="G122" t="s">
+        <v>73</v>
+      </c>
+      <c r="H122">
+        <v>10</v>
+      </c>
+      <c r="I122">
+        <v>7</v>
+      </c>
+      <c r="J122" t="s">
+        <v>74</v>
+      </c>
+      <c r="K122">
+        <v>1</v>
+      </c>
+      <c r="L122" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="123" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A123">
         <v>122</v>
       </c>
-    </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B123" t="s">
+        <v>214</v>
+      </c>
+      <c r="C123" t="s">
+        <v>70</v>
+      </c>
+      <c r="D123" t="s">
+        <v>204</v>
+      </c>
+      <c r="E123" t="s">
+        <v>96</v>
+      </c>
+      <c r="F123" t="s">
+        <v>89</v>
+      </c>
+      <c r="G123" t="s">
+        <v>73</v>
+      </c>
+      <c r="H123">
+        <v>10</v>
+      </c>
+      <c r="I123">
+        <v>5</v>
+      </c>
+      <c r="J123" t="s">
+        <v>74</v>
+      </c>
+      <c r="K123">
+        <v>1</v>
+      </c>
+      <c r="L123" t="s">
+        <v>135</v>
+      </c>
+      <c r="R123" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="124" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A124">
         <v>123</v>
       </c>
-    </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B124" t="s">
+        <v>216</v>
+      </c>
+      <c r="C124" t="s">
+        <v>70</v>
+      </c>
+      <c r="D124" t="s">
+        <v>204</v>
+      </c>
+      <c r="E124" t="s">
+        <v>96</v>
+      </c>
+      <c r="F124" t="s">
+        <v>89</v>
+      </c>
+      <c r="G124" t="s">
+        <v>73</v>
+      </c>
+      <c r="H124">
+        <v>10</v>
+      </c>
+      <c r="I124">
+        <v>5</v>
+      </c>
+      <c r="J124" t="s">
+        <v>74</v>
+      </c>
+      <c r="K124">
+        <v>1</v>
+      </c>
+      <c r="L124" t="s">
+        <v>135</v>
+      </c>
+      <c r="M124" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="125" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A125">
         <v>124</v>
       </c>
-    </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="D125" t="s">
+        <v>204</v>
+      </c>
+      <c r="E125" t="s">
+        <v>96</v>
+      </c>
+      <c r="F125" t="s">
+        <v>97</v>
+      </c>
+      <c r="G125" t="s">
+        <v>73</v>
+      </c>
+      <c r="H125">
+        <v>10</v>
+      </c>
+      <c r="I125">
+        <v>1</v>
+      </c>
+      <c r="J125" t="s">
+        <v>74</v>
+      </c>
+      <c r="K125">
+        <v>1</v>
+      </c>
+      <c r="L125" t="s">
+        <v>100</v>
+      </c>
+      <c r="M125" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="126" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A126">
         <v>125</v>
       </c>
-    </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="D126" t="s">
+        <v>204</v>
+      </c>
+      <c r="E126" t="s">
+        <v>96</v>
+      </c>
+      <c r="F126" t="s">
+        <v>97</v>
+      </c>
+      <c r="G126" t="s">
+        <v>73</v>
+      </c>
+      <c r="H126">
+        <v>10</v>
+      </c>
+      <c r="I126">
+        <v>2</v>
+      </c>
+      <c r="J126" t="s">
+        <v>74</v>
+      </c>
+      <c r="K126">
+        <v>1</v>
+      </c>
+      <c r="L126" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="127" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A127">
         <v>126</v>
       </c>
-    </row>
-    <row r="128" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B127" t="s">
+        <v>217</v>
+      </c>
+      <c r="D127" t="s">
+        <v>204</v>
+      </c>
+      <c r="E127" t="s">
+        <v>96</v>
+      </c>
+      <c r="F127" t="s">
+        <v>97</v>
+      </c>
+      <c r="G127" t="s">
+        <v>73</v>
+      </c>
+      <c r="H127">
+        <v>10</v>
+      </c>
+      <c r="I127">
+        <v>2</v>
+      </c>
+      <c r="J127" t="s">
+        <v>74</v>
+      </c>
+      <c r="K127">
+        <v>1</v>
+      </c>
+      <c r="L127" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="128" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A128">
         <v>127</v>
       </c>
-    </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="D128" t="s">
+        <v>204</v>
+      </c>
+      <c r="E128" t="s">
+        <v>88</v>
+      </c>
+      <c r="F128" t="s">
+        <v>89</v>
+      </c>
+      <c r="G128" t="s">
+        <v>73</v>
+      </c>
+      <c r="H128">
+        <v>10</v>
+      </c>
+      <c r="I128">
+        <v>9</v>
+      </c>
+      <c r="J128" t="s">
+        <v>74</v>
+      </c>
+      <c r="K128">
+        <v>2</v>
+      </c>
+      <c r="L128" t="s">
+        <v>100</v>
+      </c>
+      <c r="M128" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="129" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A129">
         <v>128</v>
       </c>
-    </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="D129" t="s">
+        <v>204</v>
+      </c>
+      <c r="E129" t="s">
+        <v>88</v>
+      </c>
+      <c r="F129" t="s">
+        <v>89</v>
+      </c>
+      <c r="G129" t="s">
+        <v>73</v>
+      </c>
+      <c r="H129">
+        <v>10</v>
+      </c>
+      <c r="I129">
+        <v>9</v>
+      </c>
+      <c r="J129" t="s">
+        <v>74</v>
+      </c>
+      <c r="K129">
+        <v>1</v>
+      </c>
+      <c r="L129" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="130" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A130">
         <v>129</v>
       </c>
-    </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="D130" t="s">
+        <v>204</v>
+      </c>
+      <c r="E130" t="s">
+        <v>88</v>
+      </c>
+      <c r="F130" t="s">
+        <v>89</v>
+      </c>
+      <c r="G130" t="s">
+        <v>73</v>
+      </c>
+      <c r="H130">
+        <v>10</v>
+      </c>
+      <c r="I130">
+        <v>9</v>
+      </c>
+      <c r="J130" t="s">
+        <v>144</v>
+      </c>
+      <c r="K130">
+        <v>1</v>
+      </c>
+      <c r="L130" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="131" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A131">
         <v>130</v>
       </c>
-    </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="D131" t="s">
+        <v>204</v>
+      </c>
+      <c r="E131" t="s">
+        <v>88</v>
+      </c>
+      <c r="F131" t="s">
+        <v>89</v>
+      </c>
+      <c r="G131" t="s">
+        <v>73</v>
+      </c>
+      <c r="H131">
+        <v>10</v>
+      </c>
+      <c r="I131">
+        <v>9</v>
+      </c>
+      <c r="J131" t="s">
+        <v>144</v>
+      </c>
+      <c r="K131">
+        <v>1</v>
+      </c>
+      <c r="L131" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="132" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A132">
         <v>131</v>
       </c>
-    </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="D132" t="s">
+        <v>204</v>
+      </c>
+      <c r="E132" t="s">
+        <v>96</v>
+      </c>
+      <c r="F132" t="s">
+        <v>89</v>
+      </c>
+      <c r="G132" t="s">
+        <v>73</v>
+      </c>
+      <c r="H132">
+        <v>10</v>
+      </c>
+      <c r="I132">
+        <v>10</v>
+      </c>
+      <c r="J132" t="s">
+        <v>74</v>
+      </c>
+      <c r="K132">
+        <v>1</v>
+      </c>
+      <c r="L132" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="133" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A133">
         <v>132</v>
       </c>
-    </row>
-    <row r="134" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="D133" t="s">
+        <v>204</v>
+      </c>
+      <c r="E133" t="s">
+        <v>96</v>
+      </c>
+      <c r="F133" t="s">
+        <v>97</v>
+      </c>
+      <c r="G133" t="s">
+        <v>73</v>
+      </c>
+      <c r="H133">
+        <v>10</v>
+      </c>
+      <c r="I133">
+        <v>6</v>
+      </c>
+      <c r="J133" t="s">
+        <v>144</v>
+      </c>
+      <c r="K133">
+        <v>5</v>
+      </c>
+      <c r="L133" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="134" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A134">
         <v>133</v>
       </c>
-    </row>
-    <row r="135" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="D134" t="s">
+        <v>204</v>
+      </c>
+      <c r="E134" t="s">
+        <v>96</v>
+      </c>
+      <c r="F134" t="s">
+        <v>97</v>
+      </c>
+      <c r="G134" t="s">
+        <v>73</v>
+      </c>
+      <c r="H134">
+        <v>10</v>
+      </c>
+      <c r="I134">
+        <v>6</v>
+      </c>
+      <c r="J134" t="s">
+        <v>144</v>
+      </c>
+      <c r="K134">
+        <v>1</v>
+      </c>
+      <c r="L134" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="135" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A135">
         <v>134</v>
       </c>
-    </row>
-    <row r="136" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="D135" t="s">
+        <v>204</v>
+      </c>
+      <c r="E135" t="s">
+        <v>96</v>
+      </c>
+      <c r="F135" t="s">
+        <v>89</v>
+      </c>
+      <c r="G135" t="s">
+        <v>73</v>
+      </c>
+      <c r="H135">
+        <v>10</v>
+      </c>
+      <c r="I135">
+        <v>9</v>
+      </c>
+      <c r="J135" t="s">
+        <v>74</v>
+      </c>
+      <c r="K135">
+        <v>1</v>
+      </c>
+      <c r="L135" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="136" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A136">
         <v>135</v>
       </c>
-    </row>
-    <row r="137" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="D136" t="s">
+        <v>204</v>
+      </c>
+      <c r="E136" t="s">
+        <v>88</v>
+      </c>
+      <c r="F136" t="s">
+        <v>89</v>
+      </c>
+      <c r="G136" t="s">
+        <v>73</v>
+      </c>
+      <c r="H136">
+        <v>10</v>
+      </c>
+      <c r="I136">
+        <v>1</v>
+      </c>
+      <c r="J136" t="s">
+        <v>144</v>
+      </c>
+      <c r="K136">
+        <v>2</v>
+      </c>
+      <c r="L136" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="137" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A137">
         <v>136</v>
       </c>
-    </row>
-    <row r="138" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="D137" t="s">
+        <v>204</v>
+      </c>
+      <c r="E137" t="s">
+        <v>96</v>
+      </c>
+      <c r="F137" t="s">
+        <v>89</v>
+      </c>
+      <c r="G137" t="s">
+        <v>73</v>
+      </c>
+      <c r="H137">
+        <v>10</v>
+      </c>
+      <c r="I137">
+        <v>7</v>
+      </c>
+      <c r="J137" t="s">
+        <v>144</v>
+      </c>
+      <c r="K137">
+        <v>2</v>
+      </c>
+      <c r="L137" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="138" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A138">
         <v>137</v>
       </c>
-    </row>
-    <row r="139" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="D138" t="s">
+        <v>204</v>
+      </c>
+      <c r="E138" t="s">
+        <v>96</v>
+      </c>
+      <c r="F138" t="s">
+        <v>72</v>
+      </c>
+      <c r="G138" t="s">
+        <v>73</v>
+      </c>
+      <c r="H138">
+        <v>10</v>
+      </c>
+      <c r="I138">
+        <v>1</v>
+      </c>
+      <c r="J138" t="s">
+        <v>144</v>
+      </c>
+      <c r="K138">
+        <v>1</v>
+      </c>
+      <c r="L138" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="139" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A139">
         <v>138</v>
       </c>
-    </row>
-    <row r="140" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B139" t="s">
+        <v>218</v>
+      </c>
+      <c r="C139" t="s">
+        <v>70</v>
+      </c>
+      <c r="D139" t="s">
+        <v>204</v>
+      </c>
+      <c r="E139" t="s">
+        <v>96</v>
+      </c>
+      <c r="F139" t="s">
+        <v>72</v>
+      </c>
+      <c r="G139" t="s">
+        <v>73</v>
+      </c>
+      <c r="H139">
+        <v>10</v>
+      </c>
+      <c r="I139">
+        <v>1</v>
+      </c>
+      <c r="J139" t="s">
+        <v>74</v>
+      </c>
+      <c r="K139">
+        <v>1</v>
+      </c>
+      <c r="L139" t="s">
+        <v>100</v>
+      </c>
+      <c r="N139" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="140" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A140">
         <v>139</v>
       </c>
-    </row>
-    <row r="141" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B140" t="s">
+        <v>219</v>
+      </c>
+      <c r="C140" t="s">
+        <v>70</v>
+      </c>
+      <c r="D140" t="s">
+        <v>204</v>
+      </c>
+      <c r="E140" t="s">
+        <v>96</v>
+      </c>
+      <c r="F140" t="s">
+        <v>72</v>
+      </c>
+      <c r="G140" t="s">
+        <v>73</v>
+      </c>
+      <c r="H140">
+        <v>10</v>
+      </c>
+      <c r="I140">
+        <v>1</v>
+      </c>
+      <c r="J140" t="s">
+        <v>74</v>
+      </c>
+      <c r="K140">
+        <v>2</v>
+      </c>
+      <c r="L140" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="141" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A141">
         <v>140</v>
       </c>
-    </row>
-    <row r="142" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B141" t="s">
+        <v>220</v>
+      </c>
+      <c r="C141" t="s">
+        <v>70</v>
+      </c>
+      <c r="D141" t="s">
+        <v>204</v>
+      </c>
+      <c r="E141" t="s">
+        <v>96</v>
+      </c>
+      <c r="F141" t="s">
+        <v>72</v>
+      </c>
+      <c r="G141" t="s">
+        <v>73</v>
+      </c>
+      <c r="H141">
+        <v>10</v>
+      </c>
+      <c r="I141">
+        <v>1</v>
+      </c>
+      <c r="J141" t="s">
+        <v>74</v>
+      </c>
+      <c r="K141">
+        <v>1</v>
+      </c>
+      <c r="L141" t="s">
+        <v>61</v>
+      </c>
+      <c r="M141" t="s">
+        <v>76</v>
+      </c>
+      <c r="P141" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="142" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A142">
         <v>141</v>
       </c>
-    </row>
-    <row r="143" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="D142" t="s">
+        <v>221</v>
+      </c>
+      <c r="E142" t="s">
+        <v>88</v>
+      </c>
+      <c r="F142" t="s">
+        <v>89</v>
+      </c>
+      <c r="G142" t="s">
+        <v>73</v>
+      </c>
+      <c r="H142">
+        <v>14</v>
+      </c>
+      <c r="I142">
+        <v>7</v>
+      </c>
+      <c r="J142" t="s">
+        <v>144</v>
+      </c>
+      <c r="K142">
+        <v>4</v>
+      </c>
+      <c r="L142" t="s">
+        <v>135</v>
+      </c>
+      <c r="M142" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="143" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A143">
         <v>142</v>
       </c>
-    </row>
-    <row r="144" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="D143" t="s">
+        <v>221</v>
+      </c>
+      <c r="E143" t="s">
+        <v>88</v>
+      </c>
+      <c r="F143" t="s">
+        <v>89</v>
+      </c>
+      <c r="G143" t="s">
+        <v>73</v>
+      </c>
+      <c r="H143">
+        <v>14</v>
+      </c>
+      <c r="I143">
+        <v>7</v>
+      </c>
+      <c r="J143" t="s">
+        <v>74</v>
+      </c>
+      <c r="K143">
+        <v>1</v>
+      </c>
+      <c r="L143" t="s">
+        <v>100</v>
+      </c>
+      <c r="M143" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="144" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A144">
         <v>143</v>
       </c>
-    </row>
-    <row r="145" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="D144" t="s">
+        <v>221</v>
+      </c>
+      <c r="F144" t="s">
+        <v>72</v>
+      </c>
+      <c r="G144" t="s">
+        <v>73</v>
+      </c>
+      <c r="H144">
+        <v>14</v>
+      </c>
+      <c r="I144">
+        <v>1</v>
+      </c>
+      <c r="J144" t="s">
+        <v>74</v>
+      </c>
+      <c r="K144">
+        <v>3</v>
+      </c>
+      <c r="L144" t="s">
+        <v>100</v>
+      </c>
+      <c r="M144" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="145" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A145">
         <v>144</v>
       </c>
-    </row>
-    <row r="146" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="D145" t="s">
+        <v>221</v>
+      </c>
+      <c r="F145" t="s">
+        <v>72</v>
+      </c>
+      <c r="G145" t="s">
+        <v>73</v>
+      </c>
+      <c r="H145">
+        <v>14</v>
+      </c>
+      <c r="I145">
+        <v>1</v>
+      </c>
+      <c r="J145" t="s">
+        <v>74</v>
+      </c>
+      <c r="K145">
+        <v>1</v>
+      </c>
+      <c r="L145" t="s">
+        <v>100</v>
+      </c>
+      <c r="M145" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="146" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A146">
         <v>145</v>
       </c>
-    </row>
-    <row r="147" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="D146" t="s">
+        <v>221</v>
+      </c>
+      <c r="F146" t="s">
+        <v>72</v>
+      </c>
+      <c r="G146" t="s">
+        <v>73</v>
+      </c>
+      <c r="H146">
+        <v>14</v>
+      </c>
+      <c r="I146">
+        <v>1</v>
+      </c>
+      <c r="J146" t="s">
+        <v>74</v>
+      </c>
+      <c r="K146">
+        <v>2</v>
+      </c>
+      <c r="L146" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="147" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A147">
         <v>146</v>
       </c>
-    </row>
-    <row r="148" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="D147" t="s">
+        <v>221</v>
+      </c>
+      <c r="F147" t="s">
+        <v>72</v>
+      </c>
+      <c r="G147" t="s">
+        <v>73</v>
+      </c>
+      <c r="H147">
+        <v>14</v>
+      </c>
+      <c r="I147">
+        <v>1</v>
+      </c>
+      <c r="J147" t="s">
+        <v>144</v>
+      </c>
+      <c r="K147">
+        <v>2</v>
+      </c>
+      <c r="L147" t="s">
+        <v>149</v>
+      </c>
+      <c r="M147" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="148" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A148">
         <v>147</v>
       </c>
-    </row>
-    <row r="149" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="D148" t="s">
+        <v>221</v>
+      </c>
+      <c r="E148" t="s">
+        <v>88</v>
+      </c>
+      <c r="F148" t="s">
+        <v>89</v>
+      </c>
+      <c r="G148" t="s">
+        <v>73</v>
+      </c>
+      <c r="H148">
+        <v>14</v>
+      </c>
+      <c r="I148">
+        <v>1</v>
+      </c>
+      <c r="J148" t="s">
+        <v>144</v>
+      </c>
+      <c r="K148">
+        <v>1</v>
+      </c>
+      <c r="L148" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="149" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A149">
         <v>148</v>
       </c>
-    </row>
-    <row r="150" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="D149" t="s">
+        <v>221</v>
+      </c>
+      <c r="E149" t="s">
+        <v>88</v>
+      </c>
+      <c r="F149" t="s">
+        <v>89</v>
+      </c>
+      <c r="G149" t="s">
+        <v>73</v>
+      </c>
+      <c r="H149">
+        <v>14</v>
+      </c>
+      <c r="I149">
+        <v>1</v>
+      </c>
+      <c r="J149" t="s">
+        <v>144</v>
+      </c>
+      <c r="K149">
+        <v>1</v>
+      </c>
+      <c r="L149" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="150" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A150">
         <v>149</v>
       </c>
-    </row>
-    <row r="151" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B150" t="s">
+        <v>223</v>
+      </c>
+      <c r="D150" t="s">
+        <v>221</v>
+      </c>
+      <c r="E150" t="s">
+        <v>88</v>
+      </c>
+      <c r="F150" t="s">
+        <v>89</v>
+      </c>
+      <c r="G150" t="s">
+        <v>73</v>
+      </c>
+      <c r="H150">
+        <v>14</v>
+      </c>
+      <c r="I150">
+        <v>1</v>
+      </c>
+      <c r="J150" t="s">
+        <v>74</v>
+      </c>
+      <c r="K150">
+        <v>1</v>
+      </c>
+      <c r="L150" t="s">
+        <v>100</v>
+      </c>
+      <c r="M150" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="151" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A151">
         <v>150</v>
       </c>
-    </row>
-    <row r="152" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="D151" t="s">
+        <v>221</v>
+      </c>
+      <c r="E151" t="s">
+        <v>88</v>
+      </c>
+      <c r="F151" t="s">
+        <v>89</v>
+      </c>
+      <c r="G151" t="s">
+        <v>73</v>
+      </c>
+      <c r="H151">
+        <v>14</v>
+      </c>
+      <c r="I151">
+        <v>1</v>
+      </c>
+      <c r="J151" t="s">
+        <v>74</v>
+      </c>
+      <c r="K151">
+        <v>4</v>
+      </c>
+      <c r="L151" t="s">
+        <v>100</v>
+      </c>
+      <c r="M151" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="152" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A152">
         <v>151</v>
       </c>
-    </row>
-    <row r="153" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="D152" t="s">
+        <v>221</v>
+      </c>
+      <c r="E152" t="s">
+        <v>88</v>
+      </c>
+      <c r="F152" t="s">
+        <v>89</v>
+      </c>
+      <c r="G152" t="s">
+        <v>73</v>
+      </c>
+      <c r="H152">
+        <v>14</v>
+      </c>
+      <c r="I152">
+        <v>10</v>
+      </c>
+      <c r="J152" t="s">
+        <v>144</v>
+      </c>
+      <c r="K152">
+        <v>1</v>
+      </c>
+      <c r="L152" t="s">
+        <v>149</v>
+      </c>
+      <c r="M152" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="153" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A153">
         <v>152</v>
       </c>
-    </row>
-    <row r="154" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="D153" t="s">
+        <v>221</v>
+      </c>
+      <c r="E153" t="s">
+        <v>88</v>
+      </c>
+      <c r="F153" t="s">
+        <v>89</v>
+      </c>
+      <c r="G153" t="s">
+        <v>73</v>
+      </c>
+      <c r="H153">
+        <v>14</v>
+      </c>
+      <c r="I153">
+        <v>10</v>
+      </c>
+      <c r="J153" t="s">
+        <v>74</v>
+      </c>
+      <c r="K153">
+        <v>3</v>
+      </c>
+      <c r="L153" t="s">
+        <v>100</v>
+      </c>
+      <c r="M153" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="154" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A154">
         <v>153</v>
       </c>
-    </row>
-    <row r="155" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B154" t="s">
+        <v>224</v>
+      </c>
+      <c r="D154" t="s">
+        <v>221</v>
+      </c>
+      <c r="E154" t="s">
+        <v>96</v>
+      </c>
+      <c r="F154" t="s">
+        <v>89</v>
+      </c>
+      <c r="G154" t="s">
+        <v>73</v>
+      </c>
+      <c r="H154">
+        <v>14</v>
+      </c>
+      <c r="I154">
+        <v>6</v>
+      </c>
+      <c r="J154" t="s">
+        <v>74</v>
+      </c>
+      <c r="K154">
+        <v>1</v>
+      </c>
+      <c r="L154" t="s">
+        <v>100</v>
+      </c>
+      <c r="M154" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="155" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A155">
         <v>154</v>
       </c>
-    </row>
-    <row r="156" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="D155" t="s">
+        <v>221</v>
+      </c>
+      <c r="E155" t="s">
+        <v>88</v>
+      </c>
+      <c r="F155" t="s">
+        <v>89</v>
+      </c>
+      <c r="G155" t="s">
+        <v>73</v>
+      </c>
+      <c r="H155">
+        <v>14</v>
+      </c>
+      <c r="I155">
+        <v>3</v>
+      </c>
+      <c r="J155" t="s">
+        <v>144</v>
+      </c>
+      <c r="K155">
+        <v>2</v>
+      </c>
+      <c r="L155" t="s">
+        <v>135</v>
+      </c>
+      <c r="M155" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="156" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A156">
         <v>155</v>
       </c>
-    </row>
-    <row r="157" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="D156" t="s">
+        <v>221</v>
+      </c>
+      <c r="E156" t="s">
+        <v>88</v>
+      </c>
+      <c r="F156" t="s">
+        <v>89</v>
+      </c>
+      <c r="G156" t="s">
+        <v>73</v>
+      </c>
+      <c r="H156">
+        <v>14</v>
+      </c>
+      <c r="I156">
+        <v>3</v>
+      </c>
+      <c r="J156" t="s">
+        <v>74</v>
+      </c>
+      <c r="K156">
+        <v>8</v>
+      </c>
+      <c r="L156" t="s">
+        <v>100</v>
+      </c>
+      <c r="M156" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="157" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A157">
         <v>156</v>
       </c>
-    </row>
-    <row r="158" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="D157" t="s">
+        <v>221</v>
+      </c>
+      <c r="E157" t="s">
+        <v>88</v>
+      </c>
+      <c r="F157" t="s">
+        <v>89</v>
+      </c>
+      <c r="G157" t="s">
+        <v>73</v>
+      </c>
+      <c r="H157">
+        <v>14</v>
+      </c>
+      <c r="I157">
+        <v>3</v>
+      </c>
+      <c r="J157" t="s">
+        <v>74</v>
+      </c>
+      <c r="K157">
+        <v>1</v>
+      </c>
+      <c r="L157" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="158" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A158">
         <v>157</v>
       </c>
-    </row>
-    <row r="159" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="D158" t="s">
+        <v>221</v>
+      </c>
+      <c r="F158" t="s">
+        <v>72</v>
+      </c>
+      <c r="G158" t="s">
+        <v>73</v>
+      </c>
+      <c r="H158">
+        <v>14</v>
+      </c>
+      <c r="I158">
+        <v>1</v>
+      </c>
+      <c r="J158" t="s">
+        <v>144</v>
+      </c>
+      <c r="K158">
+        <v>1</v>
+      </c>
+      <c r="L158" t="s">
+        <v>91</v>
+      </c>
+      <c r="M158" t="s">
+        <v>92</v>
+      </c>
+      <c r="P158" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q158" t="s">
+        <v>94</v>
+      </c>
+      <c r="R158" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="159" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A159">
         <v>158</v>
       </c>
-    </row>
-    <row r="160" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="D159" t="s">
+        <v>221</v>
+      </c>
+      <c r="E159" t="s">
+        <v>88</v>
+      </c>
+      <c r="F159" t="s">
+        <v>89</v>
+      </c>
+      <c r="G159" t="s">
+        <v>73</v>
+      </c>
+      <c r="H159">
+        <v>14</v>
+      </c>
+      <c r="I159">
+        <v>9</v>
+      </c>
+      <c r="J159" t="s">
+        <v>144</v>
+      </c>
+      <c r="K159">
+        <v>1</v>
+      </c>
+      <c r="L159" t="s">
+        <v>149</v>
+      </c>
+      <c r="M159" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="160" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A160">
         <v>159</v>
       </c>
-    </row>
-    <row r="161" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="D160" t="s">
+        <v>221</v>
+      </c>
+      <c r="E160" t="s">
+        <v>88</v>
+      </c>
+      <c r="F160" t="s">
+        <v>89</v>
+      </c>
+      <c r="G160" t="s">
+        <v>73</v>
+      </c>
+      <c r="H160">
+        <v>14</v>
+      </c>
+      <c r="I160">
+        <v>9</v>
+      </c>
+      <c r="J160" t="s">
+        <v>74</v>
+      </c>
+      <c r="K160">
+        <v>3</v>
+      </c>
+      <c r="L160" t="s">
+        <v>100</v>
+      </c>
+      <c r="M160" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="161" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A161">
         <v>160</v>
       </c>
-    </row>
-    <row r="162" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="D161" t="s">
+        <v>221</v>
+      </c>
+      <c r="E161" t="s">
+        <v>96</v>
+      </c>
+      <c r="F161" t="s">
+        <v>97</v>
+      </c>
+      <c r="G161" t="s">
+        <v>73</v>
+      </c>
+      <c r="H161">
+        <v>14</v>
+      </c>
+      <c r="I161">
+        <v>1</v>
+      </c>
+      <c r="J161" t="s">
+        <v>74</v>
+      </c>
+      <c r="K161">
+        <v>1</v>
+      </c>
+      <c r="L161" t="s">
+        <v>100</v>
+      </c>
+      <c r="M161" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="162" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A162">
         <v>161</v>
       </c>
-    </row>
-    <row r="163" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="D162" t="s">
+        <v>221</v>
+      </c>
+      <c r="E162" t="s">
+        <v>88</v>
+      </c>
+      <c r="F162" t="s">
+        <v>89</v>
+      </c>
+      <c r="G162" t="s">
+        <v>73</v>
+      </c>
+      <c r="H162">
+        <v>14</v>
+      </c>
+      <c r="I162">
+        <v>4</v>
+      </c>
+      <c r="J162" t="s">
+        <v>74</v>
+      </c>
+      <c r="K162">
+        <v>7</v>
+      </c>
+      <c r="L162" t="s">
+        <v>100</v>
+      </c>
+      <c r="M162" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="163" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A163">
         <v>162</v>
       </c>
-    </row>
-    <row r="164" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B163" t="s">
+        <v>227</v>
+      </c>
+      <c r="D163" t="s">
+        <v>221</v>
+      </c>
+      <c r="F163" t="s">
+        <v>72</v>
+      </c>
+      <c r="G163" t="s">
+        <v>73</v>
+      </c>
+      <c r="H163">
+        <v>14</v>
+      </c>
+      <c r="I163">
+        <v>1</v>
+      </c>
+      <c r="J163" t="s">
+        <v>74</v>
+      </c>
+      <c r="K163">
+        <v>1</v>
+      </c>
+      <c r="L163" t="s">
+        <v>100</v>
+      </c>
+      <c r="M163" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="164" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A164">
         <v>163</v>
       </c>
-    </row>
-    <row r="165" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="D164" t="s">
+        <v>221</v>
+      </c>
+      <c r="E164" t="s">
+        <v>96</v>
+      </c>
+      <c r="F164" t="s">
+        <v>97</v>
+      </c>
+      <c r="G164" t="s">
+        <v>73</v>
+      </c>
+      <c r="H164">
+        <v>14</v>
+      </c>
+      <c r="I164">
+        <v>5</v>
+      </c>
+      <c r="J164" t="s">
+        <v>74</v>
+      </c>
+      <c r="K164">
+        <v>1</v>
+      </c>
+      <c r="L164" t="s">
+        <v>100</v>
+      </c>
+      <c r="M164" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="165" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A165">
         <v>164</v>
       </c>
-    </row>
-    <row r="166" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="D165" t="s">
+        <v>221</v>
+      </c>
+      <c r="E165" t="s">
+        <v>88</v>
+      </c>
+      <c r="F165" t="s">
+        <v>89</v>
+      </c>
+      <c r="G165" t="s">
+        <v>73</v>
+      </c>
+      <c r="H165">
+        <v>14</v>
+      </c>
+      <c r="I165">
+        <v>8</v>
+      </c>
+      <c r="J165" t="s">
+        <v>74</v>
+      </c>
+      <c r="K165">
+        <v>1</v>
+      </c>
+      <c r="L165" t="s">
+        <v>100</v>
+      </c>
+      <c r="M165" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="166" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A166">
         <v>165</v>
+      </c>
+      <c r="D166" t="s">
+        <v>221</v>
+      </c>
+      <c r="E166" t="s">
+        <v>88</v>
+      </c>
+      <c r="F166" t="s">
+        <v>89</v>
+      </c>
+      <c r="G166" t="s">
+        <v>73</v>
+      </c>
+      <c r="H166">
+        <v>14</v>
+      </c>
+      <c r="I166">
+        <v>6</v>
+      </c>
+      <c r="J166" t="s">
+        <v>74</v>
+      </c>
+      <c r="K166">
+        <v>1</v>
+      </c>
+      <c r="L166" t="s">
+        <v>100</v>
+      </c>
+      <c r="M166" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="167" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="D167" t="s">
+        <v>221</v>
+      </c>
+      <c r="E167" t="s">
+        <v>88</v>
+      </c>
+      <c r="F167" t="s">
+        <v>89</v>
+      </c>
+      <c r="G167" t="s">
+        <v>73</v>
+      </c>
+      <c r="H167">
+        <v>14</v>
+      </c>
+      <c r="I167">
+        <v>6</v>
+      </c>
+      <c r="J167" t="s">
+        <v>144</v>
+      </c>
+      <c r="K167">
+        <v>2</v>
+      </c>
+      <c r="L167" t="s">
+        <v>135</v>
+      </c>
+      <c r="M167" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="168" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="D168" t="s">
+        <v>221</v>
+      </c>
+      <c r="E168" t="s">
+        <v>88</v>
+      </c>
+      <c r="F168" t="s">
+        <v>89</v>
+      </c>
+      <c r="G168" t="s">
+        <v>73</v>
+      </c>
+      <c r="H168">
+        <v>14</v>
+      </c>
+      <c r="I168">
+        <v>6</v>
+      </c>
+      <c r="J168" t="s">
+        <v>144</v>
+      </c>
+      <c r="K168">
+        <v>1</v>
+      </c>
+      <c r="L168" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="169" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="D169" t="s">
+        <v>221</v>
+      </c>
+      <c r="E169" t="s">
+        <v>96</v>
+      </c>
+      <c r="F169" t="s">
+        <v>89</v>
+      </c>
+      <c r="G169" t="s">
+        <v>73</v>
+      </c>
+      <c r="H169">
+        <v>14</v>
+      </c>
+      <c r="I169">
+        <v>7</v>
+      </c>
+      <c r="J169" t="s">
+        <v>74</v>
+      </c>
+      <c r="K169">
+        <v>1</v>
+      </c>
+      <c r="L169" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="170" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="D170" t="s">
+        <v>221</v>
+      </c>
+      <c r="E170" t="s">
+        <v>96</v>
+      </c>
+      <c r="F170" t="s">
+        <v>89</v>
+      </c>
+      <c r="G170" t="s">
+        <v>73</v>
+      </c>
+      <c r="H170">
+        <v>14</v>
+      </c>
+      <c r="I170">
+        <v>10</v>
+      </c>
+      <c r="J170" t="s">
+        <v>144</v>
+      </c>
+      <c r="K170">
+        <v>1</v>
+      </c>
+      <c r="L170" t="s">
+        <v>149</v>
+      </c>
+      <c r="P170" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="171" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="D171" t="s">
+        <v>221</v>
+      </c>
+      <c r="E171" t="s">
+        <v>88</v>
+      </c>
+      <c r="F171" t="s">
+        <v>89</v>
+      </c>
+      <c r="G171" t="s">
+        <v>73</v>
+      </c>
+      <c r="H171">
+        <v>14</v>
+      </c>
+      <c r="I171">
+        <v>2</v>
+      </c>
+      <c r="J171" t="s">
+        <v>144</v>
+      </c>
+      <c r="K171">
+        <v>3</v>
+      </c>
+      <c r="L171" t="s">
+        <v>135</v>
+      </c>
+      <c r="R171" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="172" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="B172" t="s">
+        <v>227</v>
+      </c>
+      <c r="D172" t="s">
+        <v>221</v>
+      </c>
+      <c r="F172" t="s">
+        <v>72</v>
+      </c>
+      <c r="G172" t="s">
+        <v>73</v>
+      </c>
+      <c r="H172">
+        <v>14</v>
+      </c>
+      <c r="I172">
+        <v>1</v>
+      </c>
+      <c r="J172" t="s">
+        <v>74</v>
+      </c>
+      <c r="K172">
+        <v>1</v>
+      </c>
+      <c r="L172" t="s">
+        <v>100</v>
+      </c>
+      <c r="M172" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="173" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="B173" t="s">
+        <v>230</v>
+      </c>
+      <c r="D173" t="s">
+        <v>221</v>
+      </c>
+      <c r="E173" t="s">
+        <v>96</v>
+      </c>
+      <c r="F173" t="s">
+        <v>89</v>
+      </c>
+      <c r="G173" t="s">
+        <v>73</v>
+      </c>
+      <c r="H173">
+        <v>14</v>
+      </c>
+      <c r="I173">
+        <v>6</v>
+      </c>
+      <c r="J173" t="s">
+        <v>74</v>
+      </c>
+      <c r="K173">
+        <v>1</v>
+      </c>
+      <c r="L173" t="s">
+        <v>100</v>
+      </c>
+      <c r="M173" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="174" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="D174" t="s">
+        <v>221</v>
+      </c>
+      <c r="E174" t="s">
+        <v>96</v>
+      </c>
+      <c r="F174" t="s">
+        <v>89</v>
+      </c>
+      <c r="G174" t="s">
+        <v>73</v>
+      </c>
+      <c r="H174">
+        <v>14</v>
+      </c>
+      <c r="I174">
+        <v>4</v>
+      </c>
+      <c r="J174" t="s">
+        <v>74</v>
+      </c>
+      <c r="K174">
+        <v>1</v>
+      </c>
+      <c r="L174" t="s">
+        <v>100</v>
+      </c>
+      <c r="M174" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="175" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="B175" t="s">
+        <v>231</v>
+      </c>
+      <c r="D175" t="s">
+        <v>221</v>
+      </c>
+      <c r="E175" t="s">
+        <v>96</v>
+      </c>
+      <c r="F175" t="s">
+        <v>97</v>
+      </c>
+      <c r="G175" t="s">
+        <v>73</v>
+      </c>
+      <c r="H175">
+        <v>14</v>
+      </c>
+      <c r="I175">
+        <v>2</v>
+      </c>
+      <c r="J175" t="s">
+        <v>74</v>
+      </c>
+      <c r="K175">
+        <v>1</v>
+      </c>
+      <c r="L175" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="176" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="D176" t="s">
+        <v>221</v>
+      </c>
+      <c r="E176" t="s">
+        <v>88</v>
+      </c>
+      <c r="F176" t="s">
+        <v>89</v>
+      </c>
+      <c r="G176" t="s">
+        <v>73</v>
+      </c>
+      <c r="H176">
+        <v>14</v>
+      </c>
+      <c r="I176">
+        <v>5</v>
+      </c>
+      <c r="J176" t="s">
+        <v>144</v>
+      </c>
+      <c r="K176">
+        <v>1</v>
+      </c>
+      <c r="L176" t="s">
+        <v>149</v>
+      </c>
+      <c r="M176" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="177" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="D177" t="s">
+        <v>221</v>
+      </c>
+      <c r="E177" t="s">
+        <v>88</v>
+      </c>
+      <c r="F177" t="s">
+        <v>89</v>
+      </c>
+      <c r="G177" t="s">
+        <v>73</v>
+      </c>
+      <c r="H177">
+        <v>14</v>
+      </c>
+      <c r="I177">
+        <v>5</v>
+      </c>
+      <c r="J177" t="s">
+        <v>74</v>
+      </c>
+      <c r="K177">
+        <v>2</v>
+      </c>
+      <c r="L177" t="s">
+        <v>100</v>
+      </c>
+      <c r="M177" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="178" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="D178" t="s">
+        <v>221</v>
+      </c>
+      <c r="E178" t="s">
+        <v>88</v>
+      </c>
+      <c r="F178" t="s">
+        <v>89</v>
+      </c>
+      <c r="G178" t="s">
+        <v>73</v>
+      </c>
+      <c r="H178">
+        <v>14</v>
+      </c>
+      <c r="I178">
+        <v>5</v>
+      </c>
+      <c r="J178" t="s">
+        <v>74</v>
+      </c>
+      <c r="K178">
+        <v>1</v>
+      </c>
+      <c r="L178" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="179" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="D179" t="s">
+        <v>221</v>
+      </c>
+      <c r="E179" t="s">
+        <v>96</v>
+      </c>
+      <c r="F179" t="s">
+        <v>89</v>
+      </c>
+      <c r="G179" t="s">
+        <v>73</v>
+      </c>
+      <c r="H179">
+        <v>14</v>
+      </c>
+      <c r="I179">
+        <v>3</v>
+      </c>
+      <c r="J179" t="s">
+        <v>144</v>
+      </c>
+      <c r="K179">
+        <v>1</v>
+      </c>
+      <c r="L179" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="180" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="D180" t="s">
+        <v>221</v>
+      </c>
+      <c r="E180" t="s">
+        <v>96</v>
+      </c>
+      <c r="F180" t="s">
+        <v>89</v>
+      </c>
+      <c r="G180" t="s">
+        <v>73</v>
+      </c>
+      <c r="H180">
+        <v>14</v>
+      </c>
+      <c r="I180">
+        <v>3</v>
+      </c>
+      <c r="J180" t="s">
+        <v>144</v>
+      </c>
+      <c r="K180">
+        <v>1</v>
+      </c>
+      <c r="L180" t="s">
+        <v>100</v>
+      </c>
+      <c r="R180" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="181" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="D181" t="s">
+        <v>221</v>
+      </c>
+      <c r="E181" t="s">
+        <v>96</v>
+      </c>
+      <c r="F181" t="s">
+        <v>89</v>
+      </c>
+      <c r="G181" t="s">
+        <v>73</v>
+      </c>
+      <c r="H181">
+        <v>14</v>
+      </c>
+      <c r="I181">
+        <v>6</v>
+      </c>
+      <c r="J181" t="s">
+        <v>144</v>
+      </c>
+      <c r="K181">
+        <v>1</v>
+      </c>
+      <c r="L181" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="182" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="D182" t="s">
+        <v>221</v>
+      </c>
+      <c r="E182" t="s">
+        <v>96</v>
+      </c>
+      <c r="F182" t="s">
+        <v>89</v>
+      </c>
+      <c r="G182" t="s">
+        <v>73</v>
+      </c>
+      <c r="H182">
+        <v>14</v>
+      </c>
+      <c r="I182">
+        <v>6</v>
+      </c>
+      <c r="J182" t="s">
+        <v>144</v>
+      </c>
+      <c r="K182">
+        <v>2</v>
+      </c>
+      <c r="L182" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="183" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="D183" t="s">
+        <v>232</v>
+      </c>
+      <c r="E183" t="s">
+        <v>96</v>
+      </c>
+      <c r="F183" t="s">
+        <v>97</v>
+      </c>
+      <c r="G183" t="s">
+        <v>73</v>
+      </c>
+      <c r="H183">
+        <v>23</v>
+      </c>
+      <c r="I183">
+        <v>1</v>
+      </c>
+      <c r="J183" t="s">
+        <v>74</v>
+      </c>
+      <c r="K183">
+        <v>1</v>
+      </c>
+      <c r="L183" t="s">
+        <v>100</v>
+      </c>
+      <c r="M183" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="184" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="D184" t="s">
+        <v>232</v>
+      </c>
+      <c r="E184" t="s">
+        <v>88</v>
+      </c>
+      <c r="F184" t="s">
+        <v>89</v>
+      </c>
+      <c r="G184" t="s">
+        <v>73</v>
+      </c>
+      <c r="H184">
+        <v>23</v>
+      </c>
+      <c r="I184">
+        <v>8</v>
+      </c>
+      <c r="J184" t="s">
+        <v>74</v>
+      </c>
+      <c r="K184">
+        <v>1</v>
+      </c>
+      <c r="L184" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="185" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="D185" t="s">
+        <v>232</v>
+      </c>
+      <c r="E185" t="s">
+        <v>88</v>
+      </c>
+      <c r="F185" t="s">
+        <v>89</v>
+      </c>
+      <c r="G185" t="s">
+        <v>73</v>
+      </c>
+      <c r="H185">
+        <v>23</v>
+      </c>
+      <c r="I185">
+        <v>8</v>
+      </c>
+      <c r="J185" t="s">
+        <v>144</v>
+      </c>
+      <c r="K185">
+        <v>3</v>
+      </c>
+      <c r="L185" t="s">
+        <v>135</v>
+      </c>
+      <c r="R185" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="186" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="D186" t="s">
+        <v>232</v>
+      </c>
+      <c r="E186" t="s">
+        <v>88</v>
+      </c>
+      <c r="F186" t="s">
+        <v>89</v>
+      </c>
+      <c r="G186" t="s">
+        <v>73</v>
+      </c>
+      <c r="H186">
+        <v>23</v>
+      </c>
+      <c r="I186">
+        <v>8</v>
+      </c>
+      <c r="J186" t="s">
+        <v>144</v>
+      </c>
+      <c r="K186">
+        <v>1</v>
+      </c>
+      <c r="L186" t="s">
+        <v>149</v>
+      </c>
+      <c r="M186" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="187" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="D187" t="s">
+        <v>232</v>
+      </c>
+      <c r="E187" t="s">
+        <v>88</v>
+      </c>
+      <c r="F187" t="s">
+        <v>89</v>
+      </c>
+      <c r="G187" t="s">
+        <v>73</v>
+      </c>
+      <c r="H187">
+        <v>23</v>
+      </c>
+      <c r="I187">
+        <v>5</v>
+      </c>
+      <c r="J187" t="s">
+        <v>144</v>
+      </c>
+      <c r="K187">
+        <v>5</v>
+      </c>
+      <c r="L187" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="188" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="B188" t="s">
+        <v>234</v>
+      </c>
+      <c r="D188" t="s">
+        <v>232</v>
+      </c>
+      <c r="F188" t="s">
+        <v>72</v>
+      </c>
+      <c r="G188" t="s">
+        <v>73</v>
+      </c>
+      <c r="H188">
+        <v>23</v>
+      </c>
+      <c r="I188">
+        <v>1</v>
+      </c>
+      <c r="J188" t="s">
+        <v>74</v>
+      </c>
+      <c r="K188">
+        <v>1</v>
+      </c>
+      <c r="L188" t="s">
+        <v>100</v>
+      </c>
+      <c r="M188" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="189" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="D189" t="s">
+        <v>232</v>
+      </c>
+      <c r="E189" t="s">
+        <v>88</v>
+      </c>
+      <c r="F189" t="s">
+        <v>89</v>
+      </c>
+      <c r="G189" t="s">
+        <v>73</v>
+      </c>
+      <c r="H189">
+        <v>23</v>
+      </c>
+      <c r="I189">
+        <v>4</v>
+      </c>
+      <c r="J189" t="s">
+        <v>144</v>
+      </c>
+      <c r="K189">
+        <v>6</v>
+      </c>
+      <c r="L189" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="190" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="D190" t="s">
+        <v>232</v>
+      </c>
+      <c r="E190" t="s">
+        <v>96</v>
+      </c>
+      <c r="F190" t="s">
+        <v>89</v>
+      </c>
+      <c r="G190" t="s">
+        <v>73</v>
+      </c>
+      <c r="H190">
+        <v>23</v>
+      </c>
+      <c r="I190">
+        <v>2</v>
+      </c>
+      <c r="J190" t="s">
+        <v>144</v>
+      </c>
+      <c r="K190">
+        <v>1</v>
+      </c>
+      <c r="L190" t="s">
+        <v>135</v>
+      </c>
+      <c r="R190" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="191" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="D191" t="s">
+        <v>232</v>
+      </c>
+      <c r="E191" t="s">
+        <v>96</v>
+      </c>
+      <c r="F191" t="s">
+        <v>89</v>
+      </c>
+      <c r="G191" t="s">
+        <v>73</v>
+      </c>
+      <c r="H191">
+        <v>23</v>
+      </c>
+      <c r="I191">
+        <v>2</v>
+      </c>
+      <c r="J191" t="s">
+        <v>144</v>
+      </c>
+      <c r="K191">
+        <v>1</v>
+      </c>
+      <c r="L191" t="s">
+        <v>149</v>
+      </c>
+      <c r="M191" t="s">
+        <v>235</v>
+      </c>
+      <c r="R191" t="s">
+        <v>236</v>
       </c>
     </row>
   </sheetData>

--- a/Raw Data/Arthropod_data.xlsx
+++ b/Raw Data/Arthropod_data.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1497" uniqueCount="237">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1752" uniqueCount="248">
   <si>
     <t>location</t>
   </si>
@@ -734,6 +734,39 @@
   </si>
   <si>
     <t>juveline</t>
+  </si>
+  <si>
+    <t>Melanoplinae</t>
+  </si>
+  <si>
+    <t>PaPl003PG</t>
+  </si>
+  <si>
+    <t>Curculionoidea</t>
+  </si>
+  <si>
+    <t>Oodonata</t>
+  </si>
+  <si>
+    <t>Pompilidae</t>
+  </si>
+  <si>
+    <t>Coal004PG</t>
+  </si>
+  <si>
+    <t>Coal003PG</t>
+  </si>
+  <si>
+    <t>Pentatomidae</t>
+  </si>
+  <si>
+    <t>Chlorochroa sayi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chlorochroa </t>
+  </si>
+  <si>
+    <t>Coal001PG</t>
   </si>
 </sst>
 </file>
@@ -1061,12 +1094,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T191"/>
+  <dimension ref="A1:T226"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A174" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="B191" sqref="B191"/>
+      <selection pane="bottomLeft" activeCell="D229" sqref="D229"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -7883,6 +7916,1156 @@
       </c>
       <c r="R191" t="s">
         <v>236</v>
+      </c>
+    </row>
+    <row r="192" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="D192" t="s">
+        <v>232</v>
+      </c>
+      <c r="E192" t="s">
+        <v>88</v>
+      </c>
+      <c r="F192" t="s">
+        <v>89</v>
+      </c>
+      <c r="G192" t="s">
+        <v>73</v>
+      </c>
+      <c r="H192">
+        <v>23</v>
+      </c>
+      <c r="I192">
+        <v>10</v>
+      </c>
+      <c r="J192" t="s">
+        <v>144</v>
+      </c>
+      <c r="K192">
+        <v>1</v>
+      </c>
+      <c r="L192" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="193" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="D193" t="s">
+        <v>232</v>
+      </c>
+      <c r="E193" t="s">
+        <v>88</v>
+      </c>
+      <c r="F193" t="s">
+        <v>89</v>
+      </c>
+      <c r="G193" t="s">
+        <v>73</v>
+      </c>
+      <c r="H193">
+        <v>23</v>
+      </c>
+      <c r="I193">
+        <v>10</v>
+      </c>
+      <c r="J193" t="s">
+        <v>74</v>
+      </c>
+      <c r="K193">
+        <v>1</v>
+      </c>
+      <c r="L193" t="s">
+        <v>100</v>
+      </c>
+      <c r="M193" t="s">
+        <v>57</v>
+      </c>
+      <c r="N193" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="194" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="D194" t="s">
+        <v>232</v>
+      </c>
+      <c r="E194" t="s">
+        <v>96</v>
+      </c>
+      <c r="F194" t="s">
+        <v>89</v>
+      </c>
+      <c r="G194" t="s">
+        <v>73</v>
+      </c>
+      <c r="H194">
+        <v>23</v>
+      </c>
+      <c r="I194">
+        <v>4</v>
+      </c>
+      <c r="J194" t="s">
+        <v>144</v>
+      </c>
+      <c r="K194">
+        <v>1</v>
+      </c>
+      <c r="L194" t="s">
+        <v>149</v>
+      </c>
+      <c r="M194" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="195" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="B195" t="s">
+        <v>238</v>
+      </c>
+      <c r="D195" t="s">
+        <v>232</v>
+      </c>
+      <c r="E195" t="s">
+        <v>96</v>
+      </c>
+      <c r="F195" t="s">
+        <v>97</v>
+      </c>
+      <c r="G195" t="s">
+        <v>73</v>
+      </c>
+      <c r="H195">
+        <v>23</v>
+      </c>
+      <c r="I195">
+        <v>3</v>
+      </c>
+      <c r="J195" t="s">
+        <v>74</v>
+      </c>
+      <c r="K195">
+        <v>1</v>
+      </c>
+      <c r="L195" t="s">
+        <v>100</v>
+      </c>
+      <c r="M195" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="196" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="D196" t="s">
+        <v>232</v>
+      </c>
+      <c r="E196" t="s">
+        <v>96</v>
+      </c>
+      <c r="F196" t="s">
+        <v>89</v>
+      </c>
+      <c r="G196" t="s">
+        <v>73</v>
+      </c>
+      <c r="H196">
+        <v>23</v>
+      </c>
+      <c r="I196">
+        <v>7</v>
+      </c>
+      <c r="J196" t="s">
+        <v>74</v>
+      </c>
+      <c r="K196">
+        <v>1</v>
+      </c>
+      <c r="L196" t="s">
+        <v>100</v>
+      </c>
+      <c r="M196" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="197" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="D197" t="s">
+        <v>232</v>
+      </c>
+      <c r="E197" t="s">
+        <v>88</v>
+      </c>
+      <c r="F197" t="s">
+        <v>89</v>
+      </c>
+      <c r="G197" t="s">
+        <v>73</v>
+      </c>
+      <c r="H197">
+        <v>23</v>
+      </c>
+      <c r="I197">
+        <v>9</v>
+      </c>
+      <c r="J197" t="s">
+        <v>144</v>
+      </c>
+      <c r="K197">
+        <v>2</v>
+      </c>
+      <c r="L197" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="198" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="D198" t="s">
+        <v>232</v>
+      </c>
+      <c r="E198" t="s">
+        <v>96</v>
+      </c>
+      <c r="F198" t="s">
+        <v>97</v>
+      </c>
+      <c r="G198" t="s">
+        <v>73</v>
+      </c>
+      <c r="H198">
+        <v>23</v>
+      </c>
+      <c r="I198">
+        <v>3</v>
+      </c>
+      <c r="J198" t="s">
+        <v>74</v>
+      </c>
+      <c r="K198">
+        <v>3</v>
+      </c>
+      <c r="L198" t="s">
+        <v>100</v>
+      </c>
+      <c r="M198" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="199" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="D199" t="s">
+        <v>232</v>
+      </c>
+      <c r="E199" t="s">
+        <v>88</v>
+      </c>
+      <c r="F199" t="s">
+        <v>89</v>
+      </c>
+      <c r="G199" t="s">
+        <v>73</v>
+      </c>
+      <c r="H199">
+        <v>23</v>
+      </c>
+      <c r="I199">
+        <v>2</v>
+      </c>
+      <c r="J199" t="s">
+        <v>144</v>
+      </c>
+      <c r="K199">
+        <v>1</v>
+      </c>
+      <c r="L199" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="200" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="D200" t="s">
+        <v>232</v>
+      </c>
+      <c r="E200" t="s">
+        <v>88</v>
+      </c>
+      <c r="F200" t="s">
+        <v>89</v>
+      </c>
+      <c r="G200" t="s">
+        <v>73</v>
+      </c>
+      <c r="H200">
+        <v>23</v>
+      </c>
+      <c r="I200">
+        <v>3</v>
+      </c>
+      <c r="J200" t="s">
+        <v>144</v>
+      </c>
+      <c r="K200">
+        <v>4</v>
+      </c>
+      <c r="L200" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="201" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="D201" t="s">
+        <v>232</v>
+      </c>
+      <c r="E201" t="s">
+        <v>96</v>
+      </c>
+      <c r="F201" t="s">
+        <v>89</v>
+      </c>
+      <c r="G201" t="s">
+        <v>73</v>
+      </c>
+      <c r="H201">
+        <v>23</v>
+      </c>
+      <c r="I201">
+        <v>5</v>
+      </c>
+      <c r="J201" t="s">
+        <v>144</v>
+      </c>
+      <c r="K201">
+        <v>2</v>
+      </c>
+      <c r="L201" t="s">
+        <v>79</v>
+      </c>
+      <c r="M201" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="202" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="D202" t="s">
+        <v>232</v>
+      </c>
+      <c r="E202" t="s">
+        <v>96</v>
+      </c>
+      <c r="F202" t="s">
+        <v>89</v>
+      </c>
+      <c r="G202" t="s">
+        <v>73</v>
+      </c>
+      <c r="H202">
+        <v>23</v>
+      </c>
+      <c r="I202">
+        <v>5</v>
+      </c>
+      <c r="J202" t="s">
+        <v>144</v>
+      </c>
+      <c r="K202">
+        <v>2</v>
+      </c>
+      <c r="L202" t="s">
+        <v>149</v>
+      </c>
+      <c r="M202" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="203" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="D203" t="s">
+        <v>232</v>
+      </c>
+      <c r="E203" t="s">
+        <v>96</v>
+      </c>
+      <c r="F203" t="s">
+        <v>89</v>
+      </c>
+      <c r="G203" t="s">
+        <v>73</v>
+      </c>
+      <c r="H203">
+        <v>23</v>
+      </c>
+      <c r="I203">
+        <v>5</v>
+      </c>
+      <c r="J203" t="s">
+        <v>144</v>
+      </c>
+      <c r="K203">
+        <v>1</v>
+      </c>
+      <c r="L203" t="s">
+        <v>149</v>
+      </c>
+      <c r="M203" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="204" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="D204" t="s">
+        <v>232</v>
+      </c>
+      <c r="E204" t="s">
+        <v>96</v>
+      </c>
+      <c r="F204" t="s">
+        <v>97</v>
+      </c>
+      <c r="G204" t="s">
+        <v>73</v>
+      </c>
+      <c r="H204">
+        <v>23</v>
+      </c>
+      <c r="I204">
+        <v>4</v>
+      </c>
+      <c r="J204" t="s">
+        <v>74</v>
+      </c>
+      <c r="K204">
+        <v>1</v>
+      </c>
+      <c r="L204" t="s">
+        <v>100</v>
+      </c>
+      <c r="M204" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="205" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="D205" t="s">
+        <v>232</v>
+      </c>
+      <c r="E205" t="s">
+        <v>88</v>
+      </c>
+      <c r="F205" t="s">
+        <v>89</v>
+      </c>
+      <c r="G205" t="s">
+        <v>73</v>
+      </c>
+      <c r="H205">
+        <v>23</v>
+      </c>
+      <c r="I205">
+        <v>6</v>
+      </c>
+      <c r="J205" t="s">
+        <v>144</v>
+      </c>
+      <c r="K205">
+        <v>1</v>
+      </c>
+      <c r="L205" t="s">
+        <v>149</v>
+      </c>
+      <c r="M205" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="206" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="D206" t="s">
+        <v>232</v>
+      </c>
+      <c r="E206" t="s">
+        <v>88</v>
+      </c>
+      <c r="F206" t="s">
+        <v>89</v>
+      </c>
+      <c r="G206" t="s">
+        <v>73</v>
+      </c>
+      <c r="H206">
+        <v>23</v>
+      </c>
+      <c r="I206">
+        <v>6</v>
+      </c>
+      <c r="J206" t="s">
+        <v>144</v>
+      </c>
+      <c r="K206">
+        <v>1</v>
+      </c>
+      <c r="L206" t="s">
+        <v>149</v>
+      </c>
+      <c r="R206" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="207" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="D207" t="s">
+        <v>232</v>
+      </c>
+      <c r="E207" t="s">
+        <v>88</v>
+      </c>
+      <c r="F207" t="s">
+        <v>89</v>
+      </c>
+      <c r="G207" t="s">
+        <v>73</v>
+      </c>
+      <c r="H207">
+        <v>23</v>
+      </c>
+      <c r="I207">
+        <v>6</v>
+      </c>
+      <c r="J207" t="s">
+        <v>144</v>
+      </c>
+      <c r="K207">
+        <v>3</v>
+      </c>
+      <c r="L207" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="208" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="D208" t="s">
+        <v>232</v>
+      </c>
+      <c r="F208" t="s">
+        <v>72</v>
+      </c>
+      <c r="G208" t="s">
+        <v>73</v>
+      </c>
+      <c r="H208">
+        <v>23</v>
+      </c>
+      <c r="I208">
+        <v>1</v>
+      </c>
+      <c r="J208" t="s">
+        <v>144</v>
+      </c>
+      <c r="K208">
+        <v>1</v>
+      </c>
+      <c r="L208" t="s">
+        <v>91</v>
+      </c>
+      <c r="M208" t="s">
+        <v>92</v>
+      </c>
+      <c r="P208" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q208" t="s">
+        <v>94</v>
+      </c>
+      <c r="R208" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="209" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="D209" t="s">
+        <v>232</v>
+      </c>
+      <c r="F209" t="s">
+        <v>72</v>
+      </c>
+      <c r="G209" t="s">
+        <v>73</v>
+      </c>
+      <c r="H209">
+        <v>23</v>
+      </c>
+      <c r="I209">
+        <v>1</v>
+      </c>
+      <c r="J209" t="s">
+        <v>74</v>
+      </c>
+      <c r="K209">
+        <v>1</v>
+      </c>
+      <c r="L209" t="s">
+        <v>100</v>
+      </c>
+      <c r="M209" t="s">
+        <v>57</v>
+      </c>
+      <c r="N209" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="210" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="D210" t="s">
+        <v>232</v>
+      </c>
+      <c r="F210" t="s">
+        <v>72</v>
+      </c>
+      <c r="G210" t="s">
+        <v>73</v>
+      </c>
+      <c r="H210">
+        <v>23</v>
+      </c>
+      <c r="I210">
+        <v>1</v>
+      </c>
+      <c r="J210" t="s">
+        <v>74</v>
+      </c>
+      <c r="K210">
+        <v>1</v>
+      </c>
+      <c r="L210" t="s">
+        <v>100</v>
+      </c>
+      <c r="M210" t="s">
+        <v>57</v>
+      </c>
+      <c r="N210" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="211" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="D211" t="s">
+        <v>232</v>
+      </c>
+      <c r="F211" t="s">
+        <v>72</v>
+      </c>
+      <c r="G211" t="s">
+        <v>73</v>
+      </c>
+      <c r="H211">
+        <v>23</v>
+      </c>
+      <c r="I211">
+        <v>1</v>
+      </c>
+      <c r="J211" t="s">
+        <v>74</v>
+      </c>
+      <c r="K211">
+        <v>1</v>
+      </c>
+      <c r="L211" t="s">
+        <v>240</v>
+      </c>
+      <c r="M211" t="s">
+        <v>138</v>
+      </c>
+      <c r="P211" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="212" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="D212" t="s">
+        <v>232</v>
+      </c>
+      <c r="F212" t="s">
+        <v>72</v>
+      </c>
+      <c r="G212" t="s">
+        <v>73</v>
+      </c>
+      <c r="H212">
+        <v>23</v>
+      </c>
+      <c r="I212">
+        <v>1</v>
+      </c>
+      <c r="J212" t="s">
+        <v>74</v>
+      </c>
+      <c r="K212">
+        <v>1</v>
+      </c>
+      <c r="L212" t="s">
+        <v>75</v>
+      </c>
+      <c r="M212" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="213" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="D213" t="s">
+        <v>162</v>
+      </c>
+      <c r="E213" t="s">
+        <v>96</v>
+      </c>
+      <c r="F213" t="s">
+        <v>89</v>
+      </c>
+      <c r="G213" t="s">
+        <v>73</v>
+      </c>
+      <c r="H213">
+        <v>16</v>
+      </c>
+      <c r="I213">
+        <v>4</v>
+      </c>
+      <c r="J213" t="s">
+        <v>74</v>
+      </c>
+      <c r="K213">
+        <v>1</v>
+      </c>
+      <c r="L213" t="s">
+        <v>100</v>
+      </c>
+      <c r="M213" t="s">
+        <v>57</v>
+      </c>
+      <c r="N213" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="214" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="B214" t="s">
+        <v>242</v>
+      </c>
+      <c r="D214" t="s">
+        <v>162</v>
+      </c>
+      <c r="F214" t="s">
+        <v>72</v>
+      </c>
+      <c r="G214" t="s">
+        <v>73</v>
+      </c>
+      <c r="H214">
+        <v>16</v>
+      </c>
+      <c r="I214">
+        <v>1</v>
+      </c>
+      <c r="J214" t="s">
+        <v>74</v>
+      </c>
+      <c r="K214">
+        <v>1</v>
+      </c>
+      <c r="L214" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="215" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="D215" t="s">
+        <v>162</v>
+      </c>
+      <c r="E215" t="s">
+        <v>96</v>
+      </c>
+      <c r="F215" t="s">
+        <v>97</v>
+      </c>
+      <c r="G215" t="s">
+        <v>73</v>
+      </c>
+      <c r="H215">
+        <v>16</v>
+      </c>
+      <c r="I215">
+        <v>7</v>
+      </c>
+      <c r="J215" t="s">
+        <v>74</v>
+      </c>
+      <c r="K215">
+        <v>4</v>
+      </c>
+      <c r="L215" t="s">
+        <v>100</v>
+      </c>
+      <c r="M215" t="s">
+        <v>57</v>
+      </c>
+      <c r="N215" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="216" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="D216" t="s">
+        <v>162</v>
+      </c>
+      <c r="E216" t="s">
+        <v>96</v>
+      </c>
+      <c r="F216" t="s">
+        <v>97</v>
+      </c>
+      <c r="G216" t="s">
+        <v>73</v>
+      </c>
+      <c r="H216">
+        <v>16</v>
+      </c>
+      <c r="I216">
+        <v>5</v>
+      </c>
+      <c r="J216" t="s">
+        <v>74</v>
+      </c>
+      <c r="K216">
+        <v>4</v>
+      </c>
+      <c r="L216" t="s">
+        <v>100</v>
+      </c>
+      <c r="M216" t="s">
+        <v>57</v>
+      </c>
+      <c r="N216" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="217" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="D217" t="s">
+        <v>162</v>
+      </c>
+      <c r="E217" t="s">
+        <v>96</v>
+      </c>
+      <c r="F217" t="s">
+        <v>89</v>
+      </c>
+      <c r="G217" t="s">
+        <v>73</v>
+      </c>
+      <c r="H217">
+        <v>16</v>
+      </c>
+      <c r="I217">
+        <v>2</v>
+      </c>
+      <c r="J217" t="s">
+        <v>74</v>
+      </c>
+      <c r="K217">
+        <v>1</v>
+      </c>
+      <c r="L217" t="s">
+        <v>100</v>
+      </c>
+      <c r="M217" t="s">
+        <v>57</v>
+      </c>
+      <c r="N217" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="218" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="B218" t="s">
+        <v>243</v>
+      </c>
+      <c r="D218" t="s">
+        <v>162</v>
+      </c>
+      <c r="E218" t="s">
+        <v>96</v>
+      </c>
+      <c r="F218" t="s">
+        <v>97</v>
+      </c>
+      <c r="G218" t="s">
+        <v>73</v>
+      </c>
+      <c r="H218">
+        <v>16</v>
+      </c>
+      <c r="I218">
+        <v>2</v>
+      </c>
+      <c r="J218" t="s">
+        <v>74</v>
+      </c>
+      <c r="K218">
+        <v>1</v>
+      </c>
+      <c r="L218" t="s">
+        <v>100</v>
+      </c>
+      <c r="M218" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="219" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="D219" t="s">
+        <v>162</v>
+      </c>
+      <c r="E219" t="s">
+        <v>96</v>
+      </c>
+      <c r="F219" t="s">
+        <v>97</v>
+      </c>
+      <c r="G219" t="s">
+        <v>73</v>
+      </c>
+      <c r="H219">
+        <v>16</v>
+      </c>
+      <c r="I219">
+        <v>1</v>
+      </c>
+      <c r="J219" t="s">
+        <v>74</v>
+      </c>
+      <c r="K219">
+        <v>1</v>
+      </c>
+      <c r="L219" t="s">
+        <v>100</v>
+      </c>
+      <c r="M219" t="s">
+        <v>57</v>
+      </c>
+      <c r="N219" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="220" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="D220" t="s">
+        <v>162</v>
+      </c>
+      <c r="E220" t="s">
+        <v>96</v>
+      </c>
+      <c r="F220" t="s">
+        <v>97</v>
+      </c>
+      <c r="G220" t="s">
+        <v>73</v>
+      </c>
+      <c r="H220">
+        <v>16</v>
+      </c>
+      <c r="I220">
+        <v>8</v>
+      </c>
+      <c r="J220" t="s">
+        <v>74</v>
+      </c>
+      <c r="K220">
+        <v>4</v>
+      </c>
+      <c r="L220" t="s">
+        <v>100</v>
+      </c>
+      <c r="M220" t="s">
+        <v>57</v>
+      </c>
+      <c r="N220" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="221" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="D221" t="s">
+        <v>162</v>
+      </c>
+      <c r="E221" t="s">
+        <v>96</v>
+      </c>
+      <c r="F221" t="s">
+        <v>72</v>
+      </c>
+      <c r="G221" t="s">
+        <v>73</v>
+      </c>
+      <c r="H221">
+        <v>16</v>
+      </c>
+      <c r="I221">
+        <v>1</v>
+      </c>
+      <c r="J221" t="s">
+        <v>144</v>
+      </c>
+      <c r="K221">
+        <v>2</v>
+      </c>
+      <c r="L221" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="222" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="D222" t="s">
+        <v>162</v>
+      </c>
+      <c r="E222" t="s">
+        <v>96</v>
+      </c>
+      <c r="F222" t="s">
+        <v>72</v>
+      </c>
+      <c r="G222" t="s">
+        <v>73</v>
+      </c>
+      <c r="H222">
+        <v>16</v>
+      </c>
+      <c r="I222">
+        <v>1</v>
+      </c>
+      <c r="J222" t="s">
+        <v>74</v>
+      </c>
+      <c r="K222">
+        <v>6</v>
+      </c>
+      <c r="L222" t="s">
+        <v>100</v>
+      </c>
+      <c r="M222" t="s">
+        <v>57</v>
+      </c>
+      <c r="N222" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="223" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="D223" t="s">
+        <v>162</v>
+      </c>
+      <c r="E223" t="s">
+        <v>96</v>
+      </c>
+      <c r="F223" t="s">
+        <v>72</v>
+      </c>
+      <c r="G223" t="s">
+        <v>73</v>
+      </c>
+      <c r="H223">
+        <v>16</v>
+      </c>
+      <c r="I223">
+        <v>1</v>
+      </c>
+      <c r="J223" t="s">
+        <v>74</v>
+      </c>
+      <c r="K223">
+        <v>1</v>
+      </c>
+      <c r="L223" t="s">
+        <v>135</v>
+      </c>
+      <c r="M223" t="s">
+        <v>244</v>
+      </c>
+      <c r="P223" t="s">
+        <v>246</v>
+      </c>
+      <c r="Q223" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="224" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="B224" t="s">
+        <v>247</v>
+      </c>
+      <c r="D224" t="s">
+        <v>162</v>
+      </c>
+      <c r="E224" t="s">
+        <v>96</v>
+      </c>
+      <c r="F224" t="s">
+        <v>97</v>
+      </c>
+      <c r="G224" t="s">
+        <v>73</v>
+      </c>
+      <c r="H224">
+        <v>16</v>
+      </c>
+      <c r="I224">
+        <v>10</v>
+      </c>
+      <c r="J224" t="s">
+        <v>74</v>
+      </c>
+      <c r="K224">
+        <v>1</v>
+      </c>
+      <c r="L224" t="s">
+        <v>100</v>
+      </c>
+      <c r="M224" t="s">
+        <v>57</v>
+      </c>
+      <c r="N224" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="225" spans="4:14" x14ac:dyDescent="0.35">
+      <c r="D225" t="s">
+        <v>162</v>
+      </c>
+      <c r="E225" t="s">
+        <v>96</v>
+      </c>
+      <c r="F225" t="s">
+        <v>97</v>
+      </c>
+      <c r="G225" t="s">
+        <v>73</v>
+      </c>
+      <c r="H225">
+        <v>16</v>
+      </c>
+      <c r="I225">
+        <v>4</v>
+      </c>
+      <c r="J225" t="s">
+        <v>74</v>
+      </c>
+      <c r="K225">
+        <v>2</v>
+      </c>
+      <c r="L225" t="s">
+        <v>100</v>
+      </c>
+      <c r="M225" t="s">
+        <v>57</v>
+      </c>
+      <c r="N225" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="226" spans="4:14" x14ac:dyDescent="0.35">
+      <c r="D226" t="s">
+        <v>162</v>
+      </c>
+      <c r="E226" t="s">
+        <v>96</v>
+      </c>
+      <c r="F226" t="s">
+        <v>97</v>
+      </c>
+      <c r="G226" t="s">
+        <v>73</v>
+      </c>
+      <c r="H226">
+        <v>16</v>
+      </c>
+      <c r="I226">
+        <v>2</v>
+      </c>
+      <c r="J226" t="s">
+        <v>74</v>
+      </c>
+      <c r="K226">
+        <v>3</v>
+      </c>
+      <c r="L226" t="s">
+        <v>100</v>
+      </c>
+      <c r="M226" t="s">
+        <v>57</v>
+      </c>
+      <c r="N226" t="s">
+        <v>237</v>
       </c>
     </row>
   </sheetData>

--- a/Raw Data/Arthropod_data.xlsx
+++ b/Raw Data/Arthropod_data.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1752" uniqueCount="248">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2375" uniqueCount="276">
   <si>
     <t>location</t>
   </si>
@@ -767,6 +767,90 @@
   </si>
   <si>
     <t>Coal001PG</t>
+  </si>
+  <si>
+    <t>Coal002PG</t>
+  </si>
+  <si>
+    <t>Gomphocerinae</t>
+  </si>
+  <si>
+    <t>Lok</t>
+  </si>
+  <si>
+    <t>different</t>
+  </si>
+  <si>
+    <t>Neuroptera</t>
+  </si>
+  <si>
+    <t>Chrysopidae</t>
+  </si>
+  <si>
+    <t>Eremochrysa?</t>
+  </si>
+  <si>
+    <t>Lok007PG</t>
+  </si>
+  <si>
+    <t>Oedipodinae</t>
+  </si>
+  <si>
+    <t>Mythicomyidae</t>
+  </si>
+  <si>
+    <t>missing head</t>
+  </si>
+  <si>
+    <t>Lok012</t>
+  </si>
+  <si>
+    <t>Brac/Ich</t>
+  </si>
+  <si>
+    <t>Cixiidae</t>
+  </si>
+  <si>
+    <t>Lok008PG</t>
+  </si>
+  <si>
+    <t>Lok009PG</t>
+  </si>
+  <si>
+    <t>Mythicomyiidae</t>
+  </si>
+  <si>
+    <t>Lok010E</t>
+  </si>
+  <si>
+    <t>CaSL</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>9?</t>
+  </si>
+  <si>
+    <t>Cicadidae</t>
+  </si>
+  <si>
+    <t>Aven-July-21-2020-T10-SS-1</t>
+  </si>
+  <si>
+    <t>Clidophelps</t>
+  </si>
+  <si>
+    <t>Cicada</t>
+  </si>
+  <si>
+    <t>The cicadas of california, simons</t>
+  </si>
+  <si>
+    <t>planthopper</t>
+  </si>
+  <si>
+    <t>tiny nymph</t>
   </si>
 </sst>
 </file>
@@ -1094,19 +1178,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T226"/>
+  <dimension ref="A1:T313"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A303" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="D229" sqref="D229"/>
+      <selection pane="bottomLeft" activeCell="D317" sqref="D317"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="2" max="2" width="20.453125" customWidth="1"/>
     <col min="4" max="4" width="8.7265625" customWidth="1"/>
-    <col min="7" max="8" width="7.1796875" customWidth="1"/>
+    <col min="5" max="6" width="7.1796875" customWidth="1"/>
     <col min="9" max="9" width="5.90625" customWidth="1"/>
     <col min="12" max="12" width="12.81640625" customWidth="1"/>
     <col min="16" max="16" width="12.7265625" customWidth="1"/>
@@ -1127,16 +1211,16 @@
         <v>10</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>22</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>27</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>12</v>
@@ -1185,14 +1269,14 @@
       <c r="D2" t="s">
         <v>71</v>
       </c>
-      <c r="F2" t="s">
+      <c r="E2" t="s">
+        <v>73</v>
+      </c>
+      <c r="F2">
+        <v>22</v>
+      </c>
+      <c r="H2" t="s">
         <v>72</v>
-      </c>
-      <c r="G2" t="s">
-        <v>73</v>
-      </c>
-      <c r="H2">
-        <v>22</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -1232,14 +1316,14 @@
       <c r="D3" t="s">
         <v>71</v>
       </c>
-      <c r="F3" t="s">
+      <c r="E3" t="s">
+        <v>73</v>
+      </c>
+      <c r="F3">
+        <v>22</v>
+      </c>
+      <c r="H3" t="s">
         <v>72</v>
-      </c>
-      <c r="G3" t="s">
-        <v>73</v>
-      </c>
-      <c r="H3">
-        <v>22</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -1282,14 +1366,14 @@
       <c r="D4" t="s">
         <v>71</v>
       </c>
-      <c r="F4" t="s">
+      <c r="E4" t="s">
+        <v>73</v>
+      </c>
+      <c r="F4">
+        <v>22</v>
+      </c>
+      <c r="H4" t="s">
         <v>72</v>
-      </c>
-      <c r="G4" t="s">
-        <v>73</v>
-      </c>
-      <c r="H4">
-        <v>22</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -1332,14 +1416,14 @@
       <c r="D5" t="s">
         <v>71</v>
       </c>
-      <c r="F5" t="s">
+      <c r="E5" t="s">
+        <v>73</v>
+      </c>
+      <c r="F5">
+        <v>22</v>
+      </c>
+      <c r="H5" t="s">
         <v>72</v>
-      </c>
-      <c r="G5" t="s">
-        <v>73</v>
-      </c>
-      <c r="H5">
-        <v>22</v>
       </c>
       <c r="I5">
         <v>1</v>
@@ -1376,14 +1460,14 @@
       <c r="D6" t="s">
         <v>71</v>
       </c>
-      <c r="F6" t="s">
+      <c r="E6" t="s">
+        <v>73</v>
+      </c>
+      <c r="F6">
+        <v>22</v>
+      </c>
+      <c r="H6" t="s">
         <v>72</v>
-      </c>
-      <c r="G6" t="s">
-        <v>73</v>
-      </c>
-      <c r="H6">
-        <v>22</v>
       </c>
       <c r="I6">
         <v>1</v>
@@ -1418,16 +1502,16 @@
         <v>71</v>
       </c>
       <c r="E7" t="s">
+        <v>73</v>
+      </c>
+      <c r="F7">
+        <v>21</v>
+      </c>
+      <c r="G7" t="s">
         <v>88</v>
       </c>
-      <c r="F7" t="s">
-        <v>89</v>
-      </c>
-      <c r="G7" t="s">
-        <v>73</v>
-      </c>
-      <c r="H7">
-        <v>21</v>
+      <c r="H7" t="s">
+        <v>89</v>
       </c>
       <c r="I7">
         <v>8</v>
@@ -1468,16 +1552,16 @@
         <v>71</v>
       </c>
       <c r="E8" t="s">
-        <v>96</v>
-      </c>
-      <c r="F8" t="s">
+        <v>99</v>
+      </c>
+      <c r="F8">
+        <v>22</v>
+      </c>
+      <c r="G8" t="s">
+        <v>96</v>
+      </c>
+      <c r="H8" t="s">
         <v>97</v>
-      </c>
-      <c r="G8" t="s">
-        <v>99</v>
-      </c>
-      <c r="H8">
-        <v>22</v>
       </c>
       <c r="I8">
         <v>3</v>
@@ -1509,16 +1593,16 @@
         <v>71</v>
       </c>
       <c r="E9" t="s">
-        <v>96</v>
-      </c>
-      <c r="F9" t="s">
+        <v>73</v>
+      </c>
+      <c r="F9">
+        <v>22</v>
+      </c>
+      <c r="G9" t="s">
+        <v>96</v>
+      </c>
+      <c r="H9" t="s">
         <v>97</v>
-      </c>
-      <c r="G9" t="s">
-        <v>73</v>
-      </c>
-      <c r="H9">
-        <v>22</v>
       </c>
       <c r="I9">
         <v>4</v>
@@ -1553,16 +1637,16 @@
         <v>71</v>
       </c>
       <c r="E10" t="s">
-        <v>96</v>
-      </c>
-      <c r="F10" t="s">
-        <v>89</v>
+        <v>73</v>
+      </c>
+      <c r="F10">
+        <v>22</v>
       </c>
       <c r="G10" t="s">
-        <v>73</v>
-      </c>
-      <c r="H10">
-        <v>22</v>
+        <v>96</v>
+      </c>
+      <c r="H10" t="s">
+        <v>89</v>
       </c>
       <c r="I10">
         <v>7</v>
@@ -1594,16 +1678,16 @@
         <v>115</v>
       </c>
       <c r="E11" t="s">
-        <v>96</v>
-      </c>
-      <c r="F11" t="s">
+        <v>73</v>
+      </c>
+      <c r="F11">
+        <v>22</v>
+      </c>
+      <c r="G11" t="s">
+        <v>96</v>
+      </c>
+      <c r="H11" t="s">
         <v>97</v>
-      </c>
-      <c r="G11" t="s">
-        <v>73</v>
-      </c>
-      <c r="H11">
-        <v>22</v>
       </c>
       <c r="I11">
         <v>3</v>
@@ -1635,16 +1719,16 @@
         <v>115</v>
       </c>
       <c r="E12" t="s">
-        <v>96</v>
-      </c>
-      <c r="F12" t="s">
+        <v>73</v>
+      </c>
+      <c r="F12">
+        <v>22</v>
+      </c>
+      <c r="G12" t="s">
+        <v>96</v>
+      </c>
+      <c r="H12" t="s">
         <v>97</v>
-      </c>
-      <c r="G12" t="s">
-        <v>73</v>
-      </c>
-      <c r="H12">
-        <v>22</v>
       </c>
       <c r="I12">
         <v>9</v>
@@ -1673,16 +1757,16 @@
         <v>115</v>
       </c>
       <c r="E13" t="s">
-        <v>96</v>
-      </c>
-      <c r="F13" t="s">
+        <v>73</v>
+      </c>
+      <c r="F13">
+        <v>22</v>
+      </c>
+      <c r="G13" t="s">
+        <v>96</v>
+      </c>
+      <c r="H13" t="s">
         <v>97</v>
-      </c>
-      <c r="G13" t="s">
-        <v>73</v>
-      </c>
-      <c r="H13">
-        <v>22</v>
       </c>
       <c r="I13">
         <v>4</v>
@@ -1708,16 +1792,16 @@
         <v>115</v>
       </c>
       <c r="E14" t="s">
-        <v>96</v>
-      </c>
-      <c r="F14" t="s">
+        <v>73</v>
+      </c>
+      <c r="F14">
+        <v>22</v>
+      </c>
+      <c r="G14" t="s">
+        <v>96</v>
+      </c>
+      <c r="H14" t="s">
         <v>72</v>
-      </c>
-      <c r="G14" t="s">
-        <v>73</v>
-      </c>
-      <c r="H14">
-        <v>22</v>
       </c>
       <c r="I14">
         <v>1</v>
@@ -1746,16 +1830,16 @@
         <v>115</v>
       </c>
       <c r="E15" t="s">
-        <v>96</v>
-      </c>
-      <c r="F15" t="s">
+        <v>73</v>
+      </c>
+      <c r="F15">
+        <v>22</v>
+      </c>
+      <c r="G15" t="s">
+        <v>96</v>
+      </c>
+      <c r="H15" t="s">
         <v>72</v>
-      </c>
-      <c r="G15" t="s">
-        <v>73</v>
-      </c>
-      <c r="H15">
-        <v>22</v>
       </c>
       <c r="I15">
         <v>1</v>
@@ -1787,16 +1871,16 @@
         <v>115</v>
       </c>
       <c r="E16" t="s">
-        <v>96</v>
-      </c>
-      <c r="F16" t="s">
+        <v>73</v>
+      </c>
+      <c r="F16">
+        <v>22</v>
+      </c>
+      <c r="G16" t="s">
+        <v>96</v>
+      </c>
+      <c r="H16" t="s">
         <v>72</v>
-      </c>
-      <c r="G16" t="s">
-        <v>73</v>
-      </c>
-      <c r="H16">
-        <v>22</v>
       </c>
       <c r="I16">
         <v>1</v>
@@ -1825,16 +1909,16 @@
         <v>115</v>
       </c>
       <c r="E17" t="s">
-        <v>96</v>
-      </c>
-      <c r="F17" t="s">
+        <v>73</v>
+      </c>
+      <c r="F17">
+        <v>22</v>
+      </c>
+      <c r="G17" t="s">
+        <v>96</v>
+      </c>
+      <c r="H17" t="s">
         <v>72</v>
-      </c>
-      <c r="G17" t="s">
-        <v>73</v>
-      </c>
-      <c r="H17">
-        <v>22</v>
       </c>
       <c r="I17">
         <v>1</v>
@@ -1860,16 +1944,16 @@
         <v>115</v>
       </c>
       <c r="E18" t="s">
-        <v>96</v>
-      </c>
-      <c r="F18" t="s">
+        <v>73</v>
+      </c>
+      <c r="F18">
+        <v>22</v>
+      </c>
+      <c r="G18" t="s">
+        <v>96</v>
+      </c>
+      <c r="H18" t="s">
         <v>72</v>
-      </c>
-      <c r="G18" t="s">
-        <v>73</v>
-      </c>
-      <c r="H18">
-        <v>22</v>
       </c>
       <c r="I18">
         <v>1</v>
@@ -1895,16 +1979,16 @@
         <v>115</v>
       </c>
       <c r="E19" t="s">
-        <v>96</v>
-      </c>
-      <c r="F19" t="s">
+        <v>73</v>
+      </c>
+      <c r="F19">
+        <v>22</v>
+      </c>
+      <c r="G19" t="s">
+        <v>96</v>
+      </c>
+      <c r="H19" t="s">
         <v>72</v>
-      </c>
-      <c r="G19" t="s">
-        <v>73</v>
-      </c>
-      <c r="H19">
-        <v>22</v>
       </c>
       <c r="I19">
         <v>1</v>
@@ -1930,16 +2014,16 @@
         <v>115</v>
       </c>
       <c r="E20" t="s">
-        <v>96</v>
-      </c>
-      <c r="F20" t="s">
+        <v>73</v>
+      </c>
+      <c r="F20">
+        <v>22</v>
+      </c>
+      <c r="G20" t="s">
+        <v>96</v>
+      </c>
+      <c r="H20" t="s">
         <v>72</v>
-      </c>
-      <c r="G20" t="s">
-        <v>73</v>
-      </c>
-      <c r="H20">
-        <v>22</v>
       </c>
       <c r="I20">
         <v>1</v>
@@ -1965,16 +2049,16 @@
         <v>115</v>
       </c>
       <c r="E21" t="s">
-        <v>96</v>
-      </c>
-      <c r="F21" t="s">
+        <v>73</v>
+      </c>
+      <c r="F21">
+        <v>22</v>
+      </c>
+      <c r="G21" t="s">
+        <v>96</v>
+      </c>
+      <c r="H21" t="s">
         <v>72</v>
-      </c>
-      <c r="G21" t="s">
-        <v>73</v>
-      </c>
-      <c r="H21">
-        <v>22</v>
       </c>
       <c r="I21">
         <v>1</v>
@@ -2000,16 +2084,16 @@
         <v>115</v>
       </c>
       <c r="E22" t="s">
-        <v>96</v>
-      </c>
-      <c r="F22" t="s">
+        <v>73</v>
+      </c>
+      <c r="F22">
+        <v>22</v>
+      </c>
+      <c r="G22" t="s">
+        <v>96</v>
+      </c>
+      <c r="H22" t="s">
         <v>72</v>
-      </c>
-      <c r="G22" t="s">
-        <v>73</v>
-      </c>
-      <c r="H22">
-        <v>22</v>
       </c>
       <c r="I22">
         <v>1</v>
@@ -2038,16 +2122,16 @@
         <v>115</v>
       </c>
       <c r="E23" t="s">
-        <v>96</v>
-      </c>
-      <c r="F23" t="s">
+        <v>73</v>
+      </c>
+      <c r="F23">
+        <v>22</v>
+      </c>
+      <c r="G23" t="s">
+        <v>96</v>
+      </c>
+      <c r="H23" t="s">
         <v>72</v>
-      </c>
-      <c r="G23" t="s">
-        <v>73</v>
-      </c>
-      <c r="H23">
-        <v>22</v>
       </c>
       <c r="I23">
         <v>1</v>
@@ -2073,16 +2157,16 @@
         <v>115</v>
       </c>
       <c r="E24" t="s">
-        <v>96</v>
-      </c>
-      <c r="F24" t="s">
+        <v>73</v>
+      </c>
+      <c r="F24">
+        <v>22</v>
+      </c>
+      <c r="G24" t="s">
+        <v>96</v>
+      </c>
+      <c r="H24" t="s">
         <v>72</v>
-      </c>
-      <c r="G24" t="s">
-        <v>73</v>
-      </c>
-      <c r="H24">
-        <v>22</v>
       </c>
       <c r="I24">
         <v>1</v>
@@ -2114,16 +2198,16 @@
         <v>115</v>
       </c>
       <c r="E25" t="s">
-        <v>96</v>
-      </c>
-      <c r="F25" t="s">
+        <v>73</v>
+      </c>
+      <c r="F25">
+        <v>22</v>
+      </c>
+      <c r="G25" t="s">
+        <v>96</v>
+      </c>
+      <c r="H25" t="s">
         <v>97</v>
-      </c>
-      <c r="G25" t="s">
-        <v>73</v>
-      </c>
-      <c r="H25">
-        <v>22</v>
       </c>
       <c r="I25">
         <v>10</v>
@@ -2152,16 +2236,16 @@
         <v>115</v>
       </c>
       <c r="E26" t="s">
-        <v>96</v>
-      </c>
-      <c r="F26" t="s">
+        <v>73</v>
+      </c>
+      <c r="F26">
+        <v>22</v>
+      </c>
+      <c r="G26" t="s">
+        <v>96</v>
+      </c>
+      <c r="H26" t="s">
         <v>97</v>
-      </c>
-      <c r="G26" t="s">
-        <v>73</v>
-      </c>
-      <c r="H26">
-        <v>22</v>
       </c>
       <c r="I26">
         <v>5</v>
@@ -2190,16 +2274,16 @@
         <v>141</v>
       </c>
       <c r="E27" t="s">
-        <v>96</v>
-      </c>
-      <c r="F27" t="s">
+        <v>73</v>
+      </c>
+      <c r="F27">
+        <v>18</v>
+      </c>
+      <c r="G27" t="s">
+        <v>96</v>
+      </c>
+      <c r="H27" t="s">
         <v>142</v>
-      </c>
-      <c r="G27" t="s">
-        <v>73</v>
-      </c>
-      <c r="H27">
-        <v>18</v>
       </c>
       <c r="I27">
         <v>9</v>
@@ -2228,16 +2312,16 @@
         <v>141</v>
       </c>
       <c r="E28" t="s">
-        <v>96</v>
-      </c>
-      <c r="F28" t="s">
+        <v>73</v>
+      </c>
+      <c r="F28">
+        <v>18</v>
+      </c>
+      <c r="G28" t="s">
+        <v>96</v>
+      </c>
+      <c r="H28" t="s">
         <v>142</v>
-      </c>
-      <c r="G28" t="s">
-        <v>73</v>
-      </c>
-      <c r="H28">
-        <v>18</v>
       </c>
       <c r="I28">
         <v>9</v>
@@ -2263,16 +2347,16 @@
         <v>141</v>
       </c>
       <c r="E29" t="s">
-        <v>96</v>
-      </c>
-      <c r="F29" t="s">
+        <v>73</v>
+      </c>
+      <c r="F29">
+        <v>18</v>
+      </c>
+      <c r="G29" t="s">
+        <v>96</v>
+      </c>
+      <c r="H29" t="s">
         <v>142</v>
-      </c>
-      <c r="G29" t="s">
-        <v>73</v>
-      </c>
-      <c r="H29">
-        <v>18</v>
       </c>
       <c r="I29">
         <v>9</v>
@@ -2301,16 +2385,16 @@
         <v>141</v>
       </c>
       <c r="E30" t="s">
-        <v>96</v>
-      </c>
-      <c r="F30" t="s">
+        <v>73</v>
+      </c>
+      <c r="F30">
+        <v>18</v>
+      </c>
+      <c r="G30" t="s">
+        <v>96</v>
+      </c>
+      <c r="H30" t="s">
         <v>142</v>
-      </c>
-      <c r="G30" t="s">
-        <v>73</v>
-      </c>
-      <c r="H30">
-        <v>18</v>
       </c>
       <c r="I30">
         <v>10</v>
@@ -2333,16 +2417,16 @@
         <v>141</v>
       </c>
       <c r="E31" t="s">
-        <v>96</v>
-      </c>
-      <c r="F31" t="s">
+        <v>73</v>
+      </c>
+      <c r="F31">
+        <v>18</v>
+      </c>
+      <c r="G31" t="s">
+        <v>96</v>
+      </c>
+      <c r="H31" t="s">
         <v>142</v>
-      </c>
-      <c r="G31" t="s">
-        <v>73</v>
-      </c>
-      <c r="H31">
-        <v>18</v>
       </c>
       <c r="I31">
         <v>10</v>
@@ -2377,16 +2461,16 @@
         <v>141</v>
       </c>
       <c r="E32" t="s">
-        <v>96</v>
-      </c>
-      <c r="F32" t="s">
+        <v>73</v>
+      </c>
+      <c r="F32">
+        <v>18</v>
+      </c>
+      <c r="G32" t="s">
+        <v>96</v>
+      </c>
+      <c r="H32" t="s">
         <v>142</v>
-      </c>
-      <c r="G32" t="s">
-        <v>73</v>
-      </c>
-      <c r="H32">
-        <v>18</v>
       </c>
       <c r="I32">
         <v>10</v>
@@ -2412,16 +2496,16 @@
         <v>141</v>
       </c>
       <c r="E33" t="s">
-        <v>96</v>
-      </c>
-      <c r="F33" t="s">
+        <v>73</v>
+      </c>
+      <c r="F33">
+        <v>18</v>
+      </c>
+      <c r="G33" t="s">
+        <v>96</v>
+      </c>
+      <c r="H33" t="s">
         <v>142</v>
-      </c>
-      <c r="G33" t="s">
-        <v>73</v>
-      </c>
-      <c r="H33">
-        <v>18</v>
       </c>
       <c r="I33">
         <v>10</v>
@@ -2450,16 +2534,16 @@
         <v>141</v>
       </c>
       <c r="E34" t="s">
-        <v>96</v>
-      </c>
-      <c r="F34" t="s">
+        <v>73</v>
+      </c>
+      <c r="F34">
+        <v>18</v>
+      </c>
+      <c r="G34" t="s">
+        <v>96</v>
+      </c>
+      <c r="H34" t="s">
         <v>142</v>
-      </c>
-      <c r="G34" t="s">
-        <v>73</v>
-      </c>
-      <c r="H34">
-        <v>18</v>
       </c>
       <c r="I34">
         <v>10</v>
@@ -2485,16 +2569,16 @@
         <v>141</v>
       </c>
       <c r="E35" t="s">
-        <v>96</v>
-      </c>
-      <c r="F35" t="s">
+        <v>73</v>
+      </c>
+      <c r="F35">
+        <v>18</v>
+      </c>
+      <c r="G35" t="s">
+        <v>96</v>
+      </c>
+      <c r="H35" t="s">
         <v>142</v>
-      </c>
-      <c r="G35" t="s">
-        <v>73</v>
-      </c>
-      <c r="H35">
-        <v>18</v>
       </c>
       <c r="I35">
         <v>10</v>
@@ -2526,16 +2610,16 @@
         <v>141</v>
       </c>
       <c r="E36" t="s">
-        <v>96</v>
-      </c>
-      <c r="F36" t="s">
+        <v>73</v>
+      </c>
+      <c r="F36">
+        <v>18</v>
+      </c>
+      <c r="G36" t="s">
+        <v>96</v>
+      </c>
+      <c r="H36" t="s">
         <v>142</v>
-      </c>
-      <c r="G36" t="s">
-        <v>73</v>
-      </c>
-      <c r="H36">
-        <v>18</v>
       </c>
       <c r="I36">
         <v>10</v>
@@ -2564,16 +2648,16 @@
         <v>141</v>
       </c>
       <c r="E37" t="s">
-        <v>96</v>
-      </c>
-      <c r="F37" t="s">
+        <v>73</v>
+      </c>
+      <c r="F37">
+        <v>18</v>
+      </c>
+      <c r="G37" t="s">
+        <v>96</v>
+      </c>
+      <c r="H37" t="s">
         <v>142</v>
-      </c>
-      <c r="G37" t="s">
-        <v>73</v>
-      </c>
-      <c r="H37">
-        <v>18</v>
       </c>
       <c r="I37">
         <v>10</v>
@@ -2602,16 +2686,16 @@
         <v>141</v>
       </c>
       <c r="E38" t="s">
-        <v>96</v>
-      </c>
-      <c r="F38" t="s">
+        <v>73</v>
+      </c>
+      <c r="F38">
+        <v>18</v>
+      </c>
+      <c r="G38" t="s">
+        <v>96</v>
+      </c>
+      <c r="H38" t="s">
         <v>142</v>
-      </c>
-      <c r="G38" t="s">
-        <v>73</v>
-      </c>
-      <c r="H38">
-        <v>18</v>
       </c>
       <c r="I38">
         <v>10</v>
@@ -2640,16 +2724,16 @@
         <v>141</v>
       </c>
       <c r="E39" t="s">
-        <v>96</v>
-      </c>
-      <c r="F39" t="s">
+        <v>73</v>
+      </c>
+      <c r="F39">
+        <v>18</v>
+      </c>
+      <c r="G39" t="s">
+        <v>96</v>
+      </c>
+      <c r="H39" t="s">
         <v>142</v>
-      </c>
-      <c r="G39" t="s">
-        <v>73</v>
-      </c>
-      <c r="H39">
-        <v>18</v>
       </c>
       <c r="I39">
         <v>10</v>
@@ -2681,16 +2765,16 @@
         <v>141</v>
       </c>
       <c r="E40" t="s">
-        <v>96</v>
-      </c>
-      <c r="F40" t="s">
+        <v>73</v>
+      </c>
+      <c r="F40">
+        <v>18</v>
+      </c>
+      <c r="G40" t="s">
+        <v>96</v>
+      </c>
+      <c r="H40" t="s">
         <v>142</v>
-      </c>
-      <c r="G40" t="s">
-        <v>73</v>
-      </c>
-      <c r="H40">
-        <v>18</v>
       </c>
       <c r="I40">
         <v>10</v>
@@ -2716,16 +2800,16 @@
         <v>162</v>
       </c>
       <c r="E41" t="s">
+        <v>73</v>
+      </c>
+      <c r="F41">
+        <v>17</v>
+      </c>
+      <c r="G41" t="s">
         <v>88</v>
       </c>
-      <c r="F41" t="s">
+      <c r="H41" t="s">
         <v>142</v>
-      </c>
-      <c r="G41" t="s">
-        <v>73</v>
-      </c>
-      <c r="H41">
-        <v>17</v>
       </c>
       <c r="I41">
         <v>5</v>
@@ -2754,16 +2838,16 @@
         <v>162</v>
       </c>
       <c r="E42" t="s">
+        <v>73</v>
+      </c>
+      <c r="F42">
+        <v>17</v>
+      </c>
+      <c r="G42" t="s">
         <v>88</v>
       </c>
-      <c r="F42" t="s">
+      <c r="H42" t="s">
         <v>142</v>
-      </c>
-      <c r="G42" t="s">
-        <v>73</v>
-      </c>
-      <c r="H42">
-        <v>17</v>
       </c>
       <c r="I42">
         <v>5</v>
@@ -2795,16 +2879,16 @@
         <v>162</v>
       </c>
       <c r="E43" t="s">
+        <v>73</v>
+      </c>
+      <c r="F43">
+        <v>17</v>
+      </c>
+      <c r="G43" t="s">
         <v>88</v>
       </c>
-      <c r="F43" t="s">
+      <c r="H43" t="s">
         <v>142</v>
-      </c>
-      <c r="G43" t="s">
-        <v>73</v>
-      </c>
-      <c r="H43">
-        <v>17</v>
       </c>
       <c r="I43">
         <v>5</v>
@@ -2833,16 +2917,16 @@
         <v>162</v>
       </c>
       <c r="E44" t="s">
+        <v>73</v>
+      </c>
+      <c r="F44">
+        <v>17</v>
+      </c>
+      <c r="G44" t="s">
         <v>88</v>
       </c>
-      <c r="F44" t="s">
+      <c r="H44" t="s">
         <v>142</v>
-      </c>
-      <c r="G44" t="s">
-        <v>73</v>
-      </c>
-      <c r="H44">
-        <v>17</v>
       </c>
       <c r="I44">
         <v>5</v>
@@ -2874,16 +2958,16 @@
         <v>162</v>
       </c>
       <c r="E45" t="s">
+        <v>73</v>
+      </c>
+      <c r="F45">
+        <v>17</v>
+      </c>
+      <c r="G45" t="s">
         <v>88</v>
       </c>
-      <c r="F45" t="s">
+      <c r="H45" t="s">
         <v>142</v>
-      </c>
-      <c r="G45" t="s">
-        <v>73</v>
-      </c>
-      <c r="H45">
-        <v>17</v>
       </c>
       <c r="I45">
         <v>5</v>
@@ -2912,16 +2996,16 @@
         <v>162</v>
       </c>
       <c r="E46" t="s">
+        <v>73</v>
+      </c>
+      <c r="F46">
+        <v>17</v>
+      </c>
+      <c r="G46" t="s">
         <v>88</v>
       </c>
-      <c r="F46" t="s">
+      <c r="H46" t="s">
         <v>142</v>
-      </c>
-      <c r="G46" t="s">
-        <v>73</v>
-      </c>
-      <c r="H46">
-        <v>17</v>
       </c>
       <c r="I46">
         <v>5</v>
@@ -2950,16 +3034,16 @@
         <v>162</v>
       </c>
       <c r="E47" t="s">
+        <v>73</v>
+      </c>
+      <c r="F47">
+        <v>17</v>
+      </c>
+      <c r="G47" t="s">
         <v>88</v>
       </c>
-      <c r="F47" t="s">
+      <c r="H47" t="s">
         <v>142</v>
-      </c>
-      <c r="G47" t="s">
-        <v>73</v>
-      </c>
-      <c r="H47">
-        <v>17</v>
       </c>
       <c r="I47">
         <v>5</v>
@@ -2991,16 +3075,16 @@
         <v>162</v>
       </c>
       <c r="E48" t="s">
+        <v>73</v>
+      </c>
+      <c r="F48">
+        <v>17</v>
+      </c>
+      <c r="G48" t="s">
         <v>88</v>
       </c>
-      <c r="F48" t="s">
+      <c r="H48" t="s">
         <v>142</v>
-      </c>
-      <c r="G48" t="s">
-        <v>73</v>
-      </c>
-      <c r="H48">
-        <v>17</v>
       </c>
       <c r="I48">
         <v>4</v>
@@ -3029,16 +3113,16 @@
         <v>162</v>
       </c>
       <c r="E49" t="s">
+        <v>73</v>
+      </c>
+      <c r="F49">
+        <v>17</v>
+      </c>
+      <c r="G49" t="s">
         <v>88</v>
       </c>
-      <c r="F49" t="s">
+      <c r="H49" t="s">
         <v>142</v>
-      </c>
-      <c r="G49" t="s">
-        <v>73</v>
-      </c>
-      <c r="H49">
-        <v>17</v>
       </c>
       <c r="I49">
         <v>4</v>
@@ -3064,16 +3148,16 @@
         <v>162</v>
       </c>
       <c r="E50" t="s">
+        <v>73</v>
+      </c>
+      <c r="F50">
+        <v>17</v>
+      </c>
+      <c r="G50" t="s">
         <v>88</v>
       </c>
-      <c r="F50" t="s">
+      <c r="H50" t="s">
         <v>142</v>
-      </c>
-      <c r="G50" t="s">
-        <v>73</v>
-      </c>
-      <c r="H50">
-        <v>17</v>
       </c>
       <c r="I50">
         <v>4</v>
@@ -3105,16 +3189,16 @@
         <v>162</v>
       </c>
       <c r="E51" t="s">
+        <v>73</v>
+      </c>
+      <c r="F51">
+        <v>17</v>
+      </c>
+      <c r="G51" t="s">
         <v>88</v>
       </c>
-      <c r="F51" t="s">
+      <c r="H51" t="s">
         <v>142</v>
-      </c>
-      <c r="G51" t="s">
-        <v>73</v>
-      </c>
-      <c r="H51">
-        <v>17</v>
       </c>
       <c r="I51">
         <v>4</v>
@@ -3137,16 +3221,16 @@
         <v>162</v>
       </c>
       <c r="E52" t="s">
+        <v>73</v>
+      </c>
+      <c r="F52">
+        <v>17</v>
+      </c>
+      <c r="G52" t="s">
         <v>88</v>
       </c>
-      <c r="F52" t="s">
+      <c r="H52" t="s">
         <v>142</v>
-      </c>
-      <c r="G52" t="s">
-        <v>73</v>
-      </c>
-      <c r="H52">
-        <v>17</v>
       </c>
       <c r="I52">
         <v>4</v>
@@ -3172,16 +3256,16 @@
         <v>162</v>
       </c>
       <c r="E53" t="s">
+        <v>73</v>
+      </c>
+      <c r="F53">
+        <v>17</v>
+      </c>
+      <c r="G53" t="s">
         <v>88</v>
       </c>
-      <c r="F53" t="s">
+      <c r="H53" t="s">
         <v>142</v>
-      </c>
-      <c r="G53" t="s">
-        <v>73</v>
-      </c>
-      <c r="H53">
-        <v>17</v>
       </c>
       <c r="I53">
         <v>4</v>
@@ -3207,16 +3291,16 @@
         <v>162</v>
       </c>
       <c r="E54" t="s">
+        <v>73</v>
+      </c>
+      <c r="F54">
+        <v>17</v>
+      </c>
+      <c r="G54" t="s">
         <v>88</v>
       </c>
-      <c r="F54" t="s">
+      <c r="H54" t="s">
         <v>142</v>
-      </c>
-      <c r="G54" t="s">
-        <v>73</v>
-      </c>
-      <c r="H54">
-        <v>17</v>
       </c>
       <c r="I54">
         <v>4</v>
@@ -3242,16 +3326,16 @@
         <v>162</v>
       </c>
       <c r="E55" t="s">
+        <v>73</v>
+      </c>
+      <c r="F55">
+        <v>17</v>
+      </c>
+      <c r="G55" t="s">
         <v>88</v>
       </c>
-      <c r="F55" t="s">
+      <c r="H55" t="s">
         <v>142</v>
-      </c>
-      <c r="G55" t="s">
-        <v>73</v>
-      </c>
-      <c r="H55">
-        <v>17</v>
       </c>
       <c r="I55">
         <v>4</v>
@@ -3280,16 +3364,16 @@
         <v>162</v>
       </c>
       <c r="E56" t="s">
+        <v>73</v>
+      </c>
+      <c r="F56">
+        <v>17</v>
+      </c>
+      <c r="G56" t="s">
         <v>88</v>
       </c>
-      <c r="F56" t="s">
+      <c r="H56" t="s">
         <v>142</v>
-      </c>
-      <c r="G56" t="s">
-        <v>73</v>
-      </c>
-      <c r="H56">
-        <v>17</v>
       </c>
       <c r="I56">
         <v>4</v>
@@ -3312,16 +3396,16 @@
         <v>162</v>
       </c>
       <c r="E57" t="s">
+        <v>73</v>
+      </c>
+      <c r="F57">
+        <v>17</v>
+      </c>
+      <c r="G57" t="s">
         <v>88</v>
       </c>
-      <c r="F57" t="s">
+      <c r="H57" t="s">
         <v>142</v>
-      </c>
-      <c r="G57" t="s">
-        <v>73</v>
-      </c>
-      <c r="H57">
-        <v>17</v>
       </c>
       <c r="I57">
         <v>4</v>
@@ -3347,16 +3431,16 @@
         <v>162</v>
       </c>
       <c r="E58" t="s">
+        <v>73</v>
+      </c>
+      <c r="F58">
+        <v>17</v>
+      </c>
+      <c r="G58" t="s">
         <v>88</v>
       </c>
-      <c r="F58" t="s">
+      <c r="H58" t="s">
         <v>142</v>
-      </c>
-      <c r="G58" t="s">
-        <v>73</v>
-      </c>
-      <c r="H58">
-        <v>17</v>
       </c>
       <c r="I58">
         <v>4</v>
@@ -3385,16 +3469,16 @@
         <v>162</v>
       </c>
       <c r="E59" t="s">
+        <v>73</v>
+      </c>
+      <c r="F59">
+        <v>17</v>
+      </c>
+      <c r="G59" t="s">
         <v>88</v>
       </c>
-      <c r="F59" t="s">
+      <c r="H59" t="s">
         <v>142</v>
-      </c>
-      <c r="G59" t="s">
-        <v>73</v>
-      </c>
-      <c r="H59">
-        <v>17</v>
       </c>
       <c r="I59">
         <v>4</v>
@@ -3417,16 +3501,16 @@
         <v>162</v>
       </c>
       <c r="E60" t="s">
+        <v>73</v>
+      </c>
+      <c r="F60">
+        <v>17</v>
+      </c>
+      <c r="G60" t="s">
         <v>88</v>
       </c>
-      <c r="F60" t="s">
+      <c r="H60" t="s">
         <v>142</v>
-      </c>
-      <c r="G60" t="s">
-        <v>73</v>
-      </c>
-      <c r="H60">
-        <v>17</v>
       </c>
       <c r="I60">
         <v>4</v>
@@ -3452,16 +3536,16 @@
         <v>162</v>
       </c>
       <c r="E61" t="s">
-        <v>96</v>
-      </c>
-      <c r="F61" t="s">
+        <v>73</v>
+      </c>
+      <c r="F61">
+        <v>17</v>
+      </c>
+      <c r="G61" t="s">
+        <v>96</v>
+      </c>
+      <c r="H61" t="s">
         <v>142</v>
-      </c>
-      <c r="G61" t="s">
-        <v>73</v>
-      </c>
-      <c r="H61">
-        <v>17</v>
       </c>
       <c r="I61">
         <v>4</v>
@@ -3484,16 +3568,16 @@
         <v>162</v>
       </c>
       <c r="E62" t="s">
-        <v>96</v>
-      </c>
-      <c r="F62" t="s">
+        <v>73</v>
+      </c>
+      <c r="F62">
+        <v>17</v>
+      </c>
+      <c r="G62" t="s">
+        <v>96</v>
+      </c>
+      <c r="H62" t="s">
         <v>142</v>
-      </c>
-      <c r="G62" t="s">
-        <v>73</v>
-      </c>
-      <c r="H62">
-        <v>17</v>
       </c>
       <c r="I62">
         <v>4</v>
@@ -3519,16 +3603,16 @@
         <v>162</v>
       </c>
       <c r="E63" t="s">
-        <v>96</v>
-      </c>
-      <c r="F63" t="s">
+        <v>73</v>
+      </c>
+      <c r="F63">
+        <v>17</v>
+      </c>
+      <c r="G63" t="s">
+        <v>96</v>
+      </c>
+      <c r="H63" t="s">
         <v>142</v>
-      </c>
-      <c r="G63" t="s">
-        <v>73</v>
-      </c>
-      <c r="H63">
-        <v>17</v>
       </c>
       <c r="I63">
         <v>4</v>
@@ -3557,16 +3641,16 @@
         <v>162</v>
       </c>
       <c r="E64" t="s">
-        <v>96</v>
-      </c>
-      <c r="F64" t="s">
+        <v>73</v>
+      </c>
+      <c r="F64">
+        <v>17</v>
+      </c>
+      <c r="G64" t="s">
+        <v>96</v>
+      </c>
+      <c r="H64" t="s">
         <v>142</v>
-      </c>
-      <c r="G64" t="s">
-        <v>73</v>
-      </c>
-      <c r="H64">
-        <v>17</v>
       </c>
       <c r="I64">
         <v>4</v>
@@ -3595,16 +3679,16 @@
         <v>162</v>
       </c>
       <c r="E65" t="s">
-        <v>96</v>
-      </c>
-      <c r="F65" t="s">
+        <v>73</v>
+      </c>
+      <c r="F65">
+        <v>17</v>
+      </c>
+      <c r="G65" t="s">
+        <v>96</v>
+      </c>
+      <c r="H65" t="s">
         <v>142</v>
-      </c>
-      <c r="G65" t="s">
-        <v>73</v>
-      </c>
-      <c r="H65">
-        <v>17</v>
       </c>
       <c r="I65">
         <v>4</v>
@@ -3633,16 +3717,16 @@
         <v>162</v>
       </c>
       <c r="E66" t="s">
-        <v>96</v>
-      </c>
-      <c r="F66" t="s">
+        <v>73</v>
+      </c>
+      <c r="F66">
+        <v>17</v>
+      </c>
+      <c r="G66" t="s">
+        <v>96</v>
+      </c>
+      <c r="H66" t="s">
         <v>142</v>
-      </c>
-      <c r="G66" t="s">
-        <v>73</v>
-      </c>
-      <c r="H66">
-        <v>17</v>
       </c>
       <c r="I66">
         <v>4</v>
@@ -3671,16 +3755,16 @@
         <v>162</v>
       </c>
       <c r="E67" t="s">
-        <v>96</v>
-      </c>
-      <c r="F67" t="s">
+        <v>73</v>
+      </c>
+      <c r="F67">
+        <v>17</v>
+      </c>
+      <c r="G67" t="s">
+        <v>96</v>
+      </c>
+      <c r="H67" t="s">
         <v>142</v>
-      </c>
-      <c r="G67" t="s">
-        <v>73</v>
-      </c>
-      <c r="H67">
-        <v>17</v>
       </c>
       <c r="I67">
         <v>4</v>
@@ -3709,16 +3793,16 @@
         <v>162</v>
       </c>
       <c r="E68" t="s">
-        <v>96</v>
-      </c>
-      <c r="F68" t="s">
+        <v>73</v>
+      </c>
+      <c r="F68">
+        <v>17</v>
+      </c>
+      <c r="G68" t="s">
+        <v>96</v>
+      </c>
+      <c r="H68" t="s">
         <v>142</v>
-      </c>
-      <c r="G68" t="s">
-        <v>73</v>
-      </c>
-      <c r="H68">
-        <v>17</v>
       </c>
       <c r="I68">
         <v>4</v>
@@ -3747,16 +3831,16 @@
         <v>162</v>
       </c>
       <c r="E69" t="s">
-        <v>96</v>
-      </c>
-      <c r="F69" t="s">
+        <v>73</v>
+      </c>
+      <c r="F69">
+        <v>17</v>
+      </c>
+      <c r="G69" t="s">
+        <v>96</v>
+      </c>
+      <c r="H69" t="s">
         <v>142</v>
-      </c>
-      <c r="G69" t="s">
-        <v>73</v>
-      </c>
-      <c r="H69">
-        <v>17</v>
       </c>
       <c r="I69">
         <v>4</v>
@@ -3788,16 +3872,16 @@
         <v>162</v>
       </c>
       <c r="E70" t="s">
-        <v>96</v>
-      </c>
-      <c r="F70" t="s">
+        <v>73</v>
+      </c>
+      <c r="F70">
+        <v>17</v>
+      </c>
+      <c r="G70" t="s">
+        <v>96</v>
+      </c>
+      <c r="H70" t="s">
         <v>142</v>
-      </c>
-      <c r="G70" t="s">
-        <v>73</v>
-      </c>
-      <c r="H70">
-        <v>17</v>
       </c>
       <c r="I70">
         <v>4</v>
@@ -3823,16 +3907,16 @@
         <v>162</v>
       </c>
       <c r="E71" t="s">
-        <v>96</v>
-      </c>
-      <c r="F71" t="s">
+        <v>73</v>
+      </c>
+      <c r="F71">
+        <v>17</v>
+      </c>
+      <c r="G71" t="s">
+        <v>96</v>
+      </c>
+      <c r="H71" t="s">
         <v>142</v>
-      </c>
-      <c r="G71" t="s">
-        <v>73</v>
-      </c>
-      <c r="H71">
-        <v>17</v>
       </c>
       <c r="I71">
         <v>4</v>
@@ -3858,16 +3942,16 @@
         <v>162</v>
       </c>
       <c r="E72" t="s">
+        <v>73</v>
+      </c>
+      <c r="F72">
+        <v>17</v>
+      </c>
+      <c r="G72" t="s">
         <v>88</v>
       </c>
-      <c r="F72" t="s">
+      <c r="H72" t="s">
         <v>142</v>
-      </c>
-      <c r="G72" t="s">
-        <v>73</v>
-      </c>
-      <c r="H72">
-        <v>17</v>
       </c>
       <c r="I72">
         <v>12</v>
@@ -3896,16 +3980,16 @@
         <v>162</v>
       </c>
       <c r="E73" t="s">
+        <v>73</v>
+      </c>
+      <c r="F73">
+        <v>17</v>
+      </c>
+      <c r="G73" t="s">
         <v>88</v>
       </c>
-      <c r="F73" t="s">
+      <c r="H73" t="s">
         <v>142</v>
-      </c>
-      <c r="G73" t="s">
-        <v>73</v>
-      </c>
-      <c r="H73">
-        <v>17</v>
       </c>
       <c r="I73">
         <v>12</v>
@@ -3928,16 +4012,16 @@
         <v>162</v>
       </c>
       <c r="E74" t="s">
+        <v>73</v>
+      </c>
+      <c r="F74">
+        <v>17</v>
+      </c>
+      <c r="G74" t="s">
         <v>88</v>
       </c>
-      <c r="F74" t="s">
+      <c r="H74" t="s">
         <v>142</v>
-      </c>
-      <c r="G74" t="s">
-        <v>73</v>
-      </c>
-      <c r="H74">
-        <v>17</v>
       </c>
       <c r="I74">
         <v>12</v>
@@ -3960,16 +4044,16 @@
         <v>162</v>
       </c>
       <c r="E75" t="s">
+        <v>73</v>
+      </c>
+      <c r="F75">
+        <v>17</v>
+      </c>
+      <c r="G75" t="s">
         <v>88</v>
       </c>
-      <c r="F75" t="s">
+      <c r="H75" t="s">
         <v>142</v>
-      </c>
-      <c r="G75" t="s">
-        <v>73</v>
-      </c>
-      <c r="H75">
-        <v>17</v>
       </c>
       <c r="I75">
         <v>12</v>
@@ -3992,16 +4076,16 @@
         <v>162</v>
       </c>
       <c r="E76" t="s">
+        <v>73</v>
+      </c>
+      <c r="F76">
+        <v>17</v>
+      </c>
+      <c r="G76" t="s">
         <v>88</v>
       </c>
-      <c r="F76" t="s">
+      <c r="H76" t="s">
         <v>142</v>
-      </c>
-      <c r="G76" t="s">
-        <v>73</v>
-      </c>
-      <c r="H76">
-        <v>17</v>
       </c>
       <c r="I76">
         <v>12</v>
@@ -4024,16 +4108,16 @@
         <v>162</v>
       </c>
       <c r="E77" t="s">
+        <v>73</v>
+      </c>
+      <c r="F77">
+        <v>17</v>
+      </c>
+      <c r="G77" t="s">
         <v>88</v>
       </c>
-      <c r="F77" t="s">
+      <c r="H77" t="s">
         <v>142</v>
-      </c>
-      <c r="G77" t="s">
-        <v>73</v>
-      </c>
-      <c r="H77">
-        <v>17</v>
       </c>
       <c r="I77">
         <v>12</v>
@@ -4056,16 +4140,16 @@
         <v>162</v>
       </c>
       <c r="E78" t="s">
+        <v>73</v>
+      </c>
+      <c r="F78">
+        <v>17</v>
+      </c>
+      <c r="G78" t="s">
         <v>88</v>
       </c>
-      <c r="F78" t="s">
+      <c r="H78" t="s">
         <v>142</v>
-      </c>
-      <c r="G78" t="s">
-        <v>73</v>
-      </c>
-      <c r="H78">
-        <v>17</v>
       </c>
       <c r="I78">
         <v>12</v>
@@ -4094,16 +4178,16 @@
         <v>162</v>
       </c>
       <c r="E79" t="s">
+        <v>73</v>
+      </c>
+      <c r="F79">
+        <v>17</v>
+      </c>
+      <c r="G79" t="s">
         <v>88</v>
       </c>
-      <c r="F79" t="s">
+      <c r="H79" t="s">
         <v>142</v>
-      </c>
-      <c r="G79" t="s">
-        <v>73</v>
-      </c>
-      <c r="H79">
-        <v>17</v>
       </c>
       <c r="I79">
         <v>12</v>
@@ -4126,16 +4210,16 @@
         <v>141</v>
       </c>
       <c r="E80" t="s">
-        <v>96</v>
-      </c>
-      <c r="F80" t="s">
+        <v>73</v>
+      </c>
+      <c r="F80">
+        <v>18</v>
+      </c>
+      <c r="G80" t="s">
+        <v>96</v>
+      </c>
+      <c r="H80" t="s">
         <v>142</v>
-      </c>
-      <c r="G80" t="s">
-        <v>73</v>
-      </c>
-      <c r="H80">
-        <v>18</v>
       </c>
       <c r="I80">
         <v>8</v>
@@ -4167,16 +4251,16 @@
         <v>141</v>
       </c>
       <c r="E81" t="s">
-        <v>96</v>
-      </c>
-      <c r="F81" t="s">
+        <v>73</v>
+      </c>
+      <c r="F81">
+        <v>18</v>
+      </c>
+      <c r="G81" t="s">
+        <v>96</v>
+      </c>
+      <c r="H81" t="s">
         <v>142</v>
-      </c>
-      <c r="G81" t="s">
-        <v>73</v>
-      </c>
-      <c r="H81">
-        <v>18</v>
       </c>
       <c r="I81">
         <v>8</v>
@@ -4205,16 +4289,16 @@
         <v>141</v>
       </c>
       <c r="E82" t="s">
-        <v>96</v>
-      </c>
-      <c r="F82" t="s">
+        <v>73</v>
+      </c>
+      <c r="F82">
+        <v>18</v>
+      </c>
+      <c r="G82" t="s">
+        <v>96</v>
+      </c>
+      <c r="H82" t="s">
         <v>142</v>
-      </c>
-      <c r="G82" t="s">
-        <v>73</v>
-      </c>
-      <c r="H82">
-        <v>18</v>
       </c>
       <c r="I82">
         <v>8</v>
@@ -4242,14 +4326,14 @@
       <c r="D83" t="s">
         <v>162</v>
       </c>
-      <c r="F83" t="s">
+      <c r="E83" t="s">
+        <v>73</v>
+      </c>
+      <c r="F83">
+        <v>19</v>
+      </c>
+      <c r="H83" t="s">
         <v>72</v>
-      </c>
-      <c r="G83" t="s">
-        <v>73</v>
-      </c>
-      <c r="H83">
-        <v>19</v>
       </c>
       <c r="I83">
         <v>1</v>
@@ -4277,14 +4361,14 @@
       <c r="D84" t="s">
         <v>162</v>
       </c>
-      <c r="F84" t="s">
+      <c r="E84" t="s">
+        <v>73</v>
+      </c>
+      <c r="F84">
+        <v>19</v>
+      </c>
+      <c r="H84" t="s">
         <v>72</v>
-      </c>
-      <c r="G84" t="s">
-        <v>73</v>
-      </c>
-      <c r="H84">
-        <v>19</v>
       </c>
       <c r="I84">
         <v>1</v>
@@ -4312,14 +4396,14 @@
       <c r="D85" t="s">
         <v>162</v>
       </c>
-      <c r="F85" t="s">
+      <c r="E85" t="s">
+        <v>73</v>
+      </c>
+      <c r="F85">
+        <v>19</v>
+      </c>
+      <c r="H85" t="s">
         <v>72</v>
-      </c>
-      <c r="G85" t="s">
-        <v>73</v>
-      </c>
-      <c r="H85">
-        <v>19</v>
       </c>
       <c r="I85">
         <v>1</v>
@@ -4347,14 +4431,14 @@
       <c r="D86" t="s">
         <v>162</v>
       </c>
-      <c r="F86" t="s">
+      <c r="E86" t="s">
+        <v>73</v>
+      </c>
+      <c r="F86">
+        <v>19</v>
+      </c>
+      <c r="H86" t="s">
         <v>72</v>
-      </c>
-      <c r="G86" t="s">
-        <v>73</v>
-      </c>
-      <c r="H86">
-        <v>19</v>
       </c>
       <c r="I86">
         <v>1</v>
@@ -4379,7 +4463,7 @@
       <c r="D87" t="s">
         <v>162</v>
       </c>
-      <c r="F87" t="s">
+      <c r="H87" t="s">
         <v>72</v>
       </c>
       <c r="J87" t="s">
@@ -4408,14 +4492,14 @@
       <c r="D88" t="s">
         <v>162</v>
       </c>
-      <c r="F88" t="s">
+      <c r="E88" t="s">
+        <v>73</v>
+      </c>
+      <c r="F88">
+        <v>19</v>
+      </c>
+      <c r="H88" t="s">
         <v>72</v>
-      </c>
-      <c r="G88" t="s">
-        <v>73</v>
-      </c>
-      <c r="H88">
-        <v>19</v>
       </c>
       <c r="I88">
         <v>1</v>
@@ -4443,14 +4527,14 @@
       <c r="D89" t="s">
         <v>162</v>
       </c>
-      <c r="F89" t="s">
+      <c r="E89" t="s">
+        <v>73</v>
+      </c>
+      <c r="F89">
+        <v>19</v>
+      </c>
+      <c r="H89" t="s">
         <v>72</v>
-      </c>
-      <c r="G89" t="s">
-        <v>73</v>
-      </c>
-      <c r="H89">
-        <v>19</v>
       </c>
       <c r="I89">
         <v>1</v>
@@ -4475,14 +4559,14 @@
       <c r="D90" t="s">
         <v>162</v>
       </c>
-      <c r="F90" t="s">
+      <c r="E90" t="s">
+        <v>73</v>
+      </c>
+      <c r="F90">
+        <v>19</v>
+      </c>
+      <c r="H90" t="s">
         <v>72</v>
-      </c>
-      <c r="G90" t="s">
-        <v>73</v>
-      </c>
-      <c r="H90">
-        <v>19</v>
       </c>
       <c r="I90">
         <v>1</v>
@@ -4505,16 +4589,16 @@
         <v>162</v>
       </c>
       <c r="E91" t="s">
-        <v>96</v>
-      </c>
-      <c r="F91" t="s">
-        <v>89</v>
+        <v>73</v>
+      </c>
+      <c r="F91">
+        <v>19</v>
       </c>
       <c r="G91" t="s">
-        <v>73</v>
-      </c>
-      <c r="H91">
-        <v>19</v>
+        <v>96</v>
+      </c>
+      <c r="H91" t="s">
+        <v>89</v>
       </c>
       <c r="I91">
         <v>6</v>
@@ -4540,16 +4624,16 @@
         <v>162</v>
       </c>
       <c r="E92" t="s">
-        <v>96</v>
-      </c>
-      <c r="F92" t="s">
+        <v>73</v>
+      </c>
+      <c r="F92">
+        <v>19</v>
+      </c>
+      <c r="G92" t="s">
+        <v>96</v>
+      </c>
+      <c r="H92" t="s">
         <v>97</v>
-      </c>
-      <c r="G92" t="s">
-        <v>73</v>
-      </c>
-      <c r="H92">
-        <v>19</v>
       </c>
       <c r="I92">
         <v>3</v>
@@ -4575,16 +4659,16 @@
         <v>162</v>
       </c>
       <c r="E93" t="s">
-        <v>96</v>
-      </c>
-      <c r="F93" t="s">
+        <v>73</v>
+      </c>
+      <c r="F93">
+        <v>19</v>
+      </c>
+      <c r="G93" t="s">
+        <v>96</v>
+      </c>
+      <c r="H93" t="s">
         <v>97</v>
-      </c>
-      <c r="G93" t="s">
-        <v>73</v>
-      </c>
-      <c r="H93">
-        <v>19</v>
       </c>
       <c r="I93">
         <v>10</v>
@@ -4610,16 +4694,16 @@
         <v>162</v>
       </c>
       <c r="E94" t="s">
-        <v>96</v>
-      </c>
-      <c r="F94" t="s">
+        <v>73</v>
+      </c>
+      <c r="F94">
+        <v>19</v>
+      </c>
+      <c r="G94" t="s">
+        <v>96</v>
+      </c>
+      <c r="H94" t="s">
         <v>97</v>
-      </c>
-      <c r="G94" t="s">
-        <v>73</v>
-      </c>
-      <c r="H94">
-        <v>19</v>
       </c>
       <c r="I94">
         <v>1</v>
@@ -4645,16 +4729,16 @@
         <v>162</v>
       </c>
       <c r="E95" t="s">
-        <v>96</v>
-      </c>
-      <c r="F95" t="s">
+        <v>73</v>
+      </c>
+      <c r="F95">
+        <v>19</v>
+      </c>
+      <c r="G95" t="s">
+        <v>96</v>
+      </c>
+      <c r="H95" t="s">
         <v>97</v>
-      </c>
-      <c r="G95" t="s">
-        <v>73</v>
-      </c>
-      <c r="H95">
-        <v>19</v>
       </c>
       <c r="I95">
         <v>6</v>
@@ -4680,16 +4764,16 @@
         <v>162</v>
       </c>
       <c r="E96" t="s">
-        <v>96</v>
-      </c>
-      <c r="F96" t="s">
+        <v>73</v>
+      </c>
+      <c r="F96">
+        <v>19</v>
+      </c>
+      <c r="G96" t="s">
+        <v>96</v>
+      </c>
+      <c r="H96" t="s">
         <v>97</v>
-      </c>
-      <c r="G96" t="s">
-        <v>73</v>
-      </c>
-      <c r="H96">
-        <v>19</v>
       </c>
       <c r="I96">
         <v>4</v>
@@ -4715,16 +4799,16 @@
         <v>162</v>
       </c>
       <c r="E97" t="s">
-        <v>96</v>
-      </c>
-      <c r="F97" t="s">
+        <v>73</v>
+      </c>
+      <c r="F97">
+        <v>19</v>
+      </c>
+      <c r="G97" t="s">
+        <v>96</v>
+      </c>
+      <c r="H97" t="s">
         <v>97</v>
-      </c>
-      <c r="G97" t="s">
-        <v>73</v>
-      </c>
-      <c r="H97">
-        <v>19</v>
       </c>
       <c r="I97">
         <v>2</v>
@@ -4747,16 +4831,16 @@
         <v>162</v>
       </c>
       <c r="E98" t="s">
-        <v>96</v>
-      </c>
-      <c r="F98" t="s">
+        <v>73</v>
+      </c>
+      <c r="F98">
+        <v>19</v>
+      </c>
+      <c r="G98" t="s">
+        <v>96</v>
+      </c>
+      <c r="H98" t="s">
         <v>97</v>
-      </c>
-      <c r="G98" t="s">
-        <v>73</v>
-      </c>
-      <c r="H98">
-        <v>19</v>
       </c>
       <c r="I98">
         <v>8</v>
@@ -4779,16 +4863,16 @@
         <v>162</v>
       </c>
       <c r="E99" t="s">
-        <v>96</v>
-      </c>
-      <c r="F99" t="s">
+        <v>73</v>
+      </c>
+      <c r="F99">
+        <v>19</v>
+      </c>
+      <c r="G99" t="s">
+        <v>96</v>
+      </c>
+      <c r="H99" t="s">
         <v>97</v>
-      </c>
-      <c r="G99" t="s">
-        <v>73</v>
-      </c>
-      <c r="H99">
-        <v>19</v>
       </c>
       <c r="I99">
         <v>7</v>
@@ -4814,16 +4898,16 @@
         <v>162</v>
       </c>
       <c r="E100" t="s">
-        <v>96</v>
-      </c>
-      <c r="F100" t="s">
-        <v>89</v>
+        <v>73</v>
+      </c>
+      <c r="F100">
+        <v>19</v>
       </c>
       <c r="G100" t="s">
-        <v>73</v>
-      </c>
-      <c r="H100">
-        <v>19</v>
+        <v>96</v>
+      </c>
+      <c r="H100" t="s">
+        <v>89</v>
       </c>
       <c r="I100">
         <v>10</v>
@@ -4852,16 +4936,16 @@
         <v>162</v>
       </c>
       <c r="E101" t="s">
-        <v>96</v>
-      </c>
-      <c r="F101" t="s">
+        <v>73</v>
+      </c>
+      <c r="F101">
+        <v>19</v>
+      </c>
+      <c r="G101" t="s">
+        <v>96</v>
+      </c>
+      <c r="H101" t="s">
         <v>97</v>
-      </c>
-      <c r="G101" t="s">
-        <v>73</v>
-      </c>
-      <c r="H101">
-        <v>19</v>
       </c>
       <c r="I101">
         <v>5</v>
@@ -4884,16 +4968,16 @@
         <v>162</v>
       </c>
       <c r="E102" t="s">
-        <v>96</v>
-      </c>
-      <c r="F102" t="s">
-        <v>89</v>
+        <v>73</v>
+      </c>
+      <c r="F102">
+        <v>19</v>
       </c>
       <c r="G102" t="s">
-        <v>73</v>
-      </c>
-      <c r="H102">
-        <v>19</v>
+        <v>96</v>
+      </c>
+      <c r="H102" t="s">
+        <v>89</v>
       </c>
       <c r="I102">
         <v>3</v>
@@ -4919,16 +5003,16 @@
         <v>162</v>
       </c>
       <c r="E103" t="s">
-        <v>96</v>
-      </c>
-      <c r="F103" t="s">
-        <v>89</v>
+        <v>73</v>
+      </c>
+      <c r="F103">
+        <v>19</v>
       </c>
       <c r="G103" t="s">
-        <v>73</v>
-      </c>
-      <c r="H103">
-        <v>19</v>
+        <v>96</v>
+      </c>
+      <c r="H103" t="s">
+        <v>89</v>
       </c>
       <c r="I103">
         <v>3</v>
@@ -4951,16 +5035,16 @@
         <v>162</v>
       </c>
       <c r="E104" t="s">
-        <v>96</v>
-      </c>
-      <c r="F104" t="s">
-        <v>89</v>
+        <v>73</v>
+      </c>
+      <c r="F104">
+        <v>19</v>
       </c>
       <c r="G104" t="s">
-        <v>73</v>
-      </c>
-      <c r="H104">
-        <v>19</v>
+        <v>96</v>
+      </c>
+      <c r="H104" t="s">
+        <v>89</v>
       </c>
       <c r="I104">
         <v>3</v>
@@ -4989,16 +5073,16 @@
         <v>162</v>
       </c>
       <c r="E105" t="s">
-        <v>96</v>
-      </c>
-      <c r="F105" t="s">
+        <v>73</v>
+      </c>
+      <c r="F105">
+        <v>19</v>
+      </c>
+      <c r="G105" t="s">
+        <v>96</v>
+      </c>
+      <c r="H105" t="s">
         <v>97</v>
-      </c>
-      <c r="G105" t="s">
-        <v>73</v>
-      </c>
-      <c r="H105">
-        <v>19</v>
       </c>
       <c r="I105">
         <v>9</v>
@@ -5024,16 +5108,16 @@
         <v>162</v>
       </c>
       <c r="E106" t="s">
-        <v>96</v>
-      </c>
-      <c r="F106" t="s">
+        <v>73</v>
+      </c>
+      <c r="F106">
+        <v>19</v>
+      </c>
+      <c r="G106" t="s">
+        <v>96</v>
+      </c>
+      <c r="H106" t="s">
         <v>97</v>
-      </c>
-      <c r="G106" t="s">
-        <v>73</v>
-      </c>
-      <c r="H106">
-        <v>19</v>
       </c>
       <c r="I106">
         <v>9</v>
@@ -5056,16 +5140,16 @@
         <v>162</v>
       </c>
       <c r="E107" t="s">
-        <v>96</v>
-      </c>
-      <c r="F107" t="s">
-        <v>89</v>
+        <v>73</v>
+      </c>
+      <c r="F107">
+        <v>19</v>
       </c>
       <c r="G107" t="s">
-        <v>73</v>
-      </c>
-      <c r="H107">
-        <v>19</v>
+        <v>96</v>
+      </c>
+      <c r="H107" t="s">
+        <v>89</v>
       </c>
       <c r="I107">
         <v>1</v>
@@ -5091,16 +5175,16 @@
         <v>162</v>
       </c>
       <c r="E108" t="s">
-        <v>96</v>
-      </c>
-      <c r="F108" t="s">
+        <v>73</v>
+      </c>
+      <c r="F108">
+        <v>19</v>
+      </c>
+      <c r="G108" t="s">
+        <v>96</v>
+      </c>
+      <c r="H108" t="s">
         <v>97</v>
-      </c>
-      <c r="G108" t="s">
-        <v>73</v>
-      </c>
-      <c r="H108">
-        <v>19</v>
       </c>
       <c r="I108">
         <v>5</v>
@@ -5126,16 +5210,16 @@
         <v>162</v>
       </c>
       <c r="E109" t="s">
-        <v>96</v>
-      </c>
-      <c r="F109" t="s">
+        <v>73</v>
+      </c>
+      <c r="F109">
+        <v>19</v>
+      </c>
+      <c r="G109" t="s">
+        <v>96</v>
+      </c>
+      <c r="H109" t="s">
         <v>97</v>
-      </c>
-      <c r="G109" t="s">
-        <v>73</v>
-      </c>
-      <c r="H109">
-        <v>19</v>
       </c>
       <c r="I109">
         <v>5</v>
@@ -5158,16 +5242,16 @@
         <v>162</v>
       </c>
       <c r="E110" t="s">
-        <v>96</v>
-      </c>
-      <c r="F110" t="s">
+        <v>73</v>
+      </c>
+      <c r="F110">
+        <v>19</v>
+      </c>
+      <c r="G110" t="s">
+        <v>96</v>
+      </c>
+      <c r="H110" t="s">
         <v>201</v>
-      </c>
-      <c r="G110" t="s">
-        <v>73</v>
-      </c>
-      <c r="H110">
-        <v>19</v>
       </c>
       <c r="I110">
         <v>1</v>
@@ -5187,16 +5271,16 @@
         <v>162</v>
       </c>
       <c r="E111" t="s">
-        <v>96</v>
-      </c>
-      <c r="F111" t="s">
+        <v>73</v>
+      </c>
+      <c r="F111">
+        <v>19</v>
+      </c>
+      <c r="G111" t="s">
+        <v>96</v>
+      </c>
+      <c r="H111" t="s">
         <v>201</v>
-      </c>
-      <c r="G111" t="s">
-        <v>73</v>
-      </c>
-      <c r="H111">
-        <v>19</v>
       </c>
       <c r="I111">
         <v>1</v>
@@ -5225,16 +5309,16 @@
         <v>204</v>
       </c>
       <c r="E112" t="s">
-        <v>96</v>
-      </c>
-      <c r="F112" t="s">
+        <v>73</v>
+      </c>
+      <c r="F112">
+        <v>10</v>
+      </c>
+      <c r="G112" t="s">
+        <v>96</v>
+      </c>
+      <c r="H112" t="s">
         <v>97</v>
-      </c>
-      <c r="G112" t="s">
-        <v>73</v>
-      </c>
-      <c r="H112">
-        <v>10</v>
       </c>
       <c r="I112">
         <v>7</v>
@@ -5269,16 +5353,16 @@
         <v>204</v>
       </c>
       <c r="E113" t="s">
-        <v>96</v>
-      </c>
-      <c r="F113" t="s">
+        <v>73</v>
+      </c>
+      <c r="F113">
+        <v>10</v>
+      </c>
+      <c r="G113" t="s">
+        <v>96</v>
+      </c>
+      <c r="H113" t="s">
         <v>97</v>
-      </c>
-      <c r="G113" t="s">
-        <v>73</v>
-      </c>
-      <c r="H113">
-        <v>10</v>
       </c>
       <c r="I113">
         <v>10</v>
@@ -5307,16 +5391,16 @@
         <v>204</v>
       </c>
       <c r="E114" t="s">
-        <v>96</v>
-      </c>
-      <c r="F114" t="s">
-        <v>89</v>
+        <v>73</v>
+      </c>
+      <c r="F114">
+        <v>10</v>
       </c>
       <c r="G114" t="s">
-        <v>73</v>
-      </c>
-      <c r="H114">
-        <v>10</v>
+        <v>96</v>
+      </c>
+      <c r="H114" t="s">
+        <v>89</v>
       </c>
       <c r="I114">
         <v>3</v>
@@ -5339,16 +5423,16 @@
         <v>204</v>
       </c>
       <c r="E115" t="s">
+        <v>73</v>
+      </c>
+      <c r="F115">
+        <v>10</v>
+      </c>
+      <c r="G115" t="s">
         <v>88</v>
       </c>
-      <c r="F115" t="s">
-        <v>89</v>
-      </c>
-      <c r="G115" t="s">
-        <v>73</v>
-      </c>
-      <c r="H115">
-        <v>10</v>
+      <c r="H115" t="s">
+        <v>89</v>
       </c>
       <c r="I115">
         <v>10</v>
@@ -5374,16 +5458,16 @@
         <v>204</v>
       </c>
       <c r="E116" t="s">
+        <v>73</v>
+      </c>
+      <c r="F116">
+        <v>10</v>
+      </c>
+      <c r="G116" t="s">
         <v>88</v>
       </c>
-      <c r="F116" t="s">
-        <v>89</v>
-      </c>
-      <c r="G116" t="s">
-        <v>73</v>
-      </c>
-      <c r="H116">
-        <v>10</v>
+      <c r="H116" t="s">
+        <v>89</v>
       </c>
       <c r="I116">
         <v>10</v>
@@ -5412,16 +5496,16 @@
         <v>204</v>
       </c>
       <c r="E117" t="s">
-        <v>96</v>
-      </c>
-      <c r="F117" t="s">
+        <v>73</v>
+      </c>
+      <c r="F117">
+        <v>10</v>
+      </c>
+      <c r="G117" t="s">
+        <v>96</v>
+      </c>
+      <c r="H117" t="s">
         <v>97</v>
-      </c>
-      <c r="G117" t="s">
-        <v>73</v>
-      </c>
-      <c r="H117">
-        <v>10</v>
       </c>
       <c r="I117">
         <v>3</v>
@@ -5447,16 +5531,16 @@
         <v>204</v>
       </c>
       <c r="E118" t="s">
-        <v>96</v>
-      </c>
-      <c r="F118" t="s">
+        <v>73</v>
+      </c>
+      <c r="F118">
+        <v>10</v>
+      </c>
+      <c r="G118" t="s">
+        <v>96</v>
+      </c>
+      <c r="H118" t="s">
         <v>97</v>
-      </c>
-      <c r="G118" t="s">
-        <v>73</v>
-      </c>
-      <c r="H118">
-        <v>10</v>
       </c>
       <c r="I118">
         <v>3</v>
@@ -5479,16 +5563,16 @@
         <v>204</v>
       </c>
       <c r="E119" t="s">
+        <v>73</v>
+      </c>
+      <c r="F119">
+        <v>10</v>
+      </c>
+      <c r="G119" t="s">
         <v>88</v>
       </c>
-      <c r="F119" t="s">
-        <v>89</v>
-      </c>
-      <c r="G119" t="s">
-        <v>73</v>
-      </c>
-      <c r="H119">
-        <v>10</v>
+      <c r="H119" t="s">
+        <v>89</v>
       </c>
       <c r="I119">
         <v>2</v>
@@ -5514,16 +5598,16 @@
         <v>204</v>
       </c>
       <c r="E120" t="s">
-        <v>96</v>
-      </c>
-      <c r="F120" t="s">
-        <v>89</v>
+        <v>73</v>
+      </c>
+      <c r="F120">
+        <v>10</v>
       </c>
       <c r="G120" t="s">
-        <v>73</v>
-      </c>
-      <c r="H120">
-        <v>10</v>
+        <v>96</v>
+      </c>
+      <c r="H120" t="s">
+        <v>89</v>
       </c>
       <c r="I120">
         <v>6</v>
@@ -5549,16 +5633,16 @@
         <v>204</v>
       </c>
       <c r="E121" t="s">
-        <v>96</v>
-      </c>
-      <c r="F121" t="s">
+        <v>73</v>
+      </c>
+      <c r="F121">
+        <v>10</v>
+      </c>
+      <c r="G121" t="s">
+        <v>96</v>
+      </c>
+      <c r="H121" t="s">
         <v>97</v>
-      </c>
-      <c r="G121" t="s">
-        <v>73</v>
-      </c>
-      <c r="H121">
-        <v>10</v>
       </c>
       <c r="I121">
         <v>4</v>
@@ -5590,16 +5674,16 @@
         <v>204</v>
       </c>
       <c r="E122" t="s">
+        <v>73</v>
+      </c>
+      <c r="F122">
+        <v>10</v>
+      </c>
+      <c r="G122" t="s">
         <v>88</v>
       </c>
-      <c r="F122" t="s">
-        <v>89</v>
-      </c>
-      <c r="G122" t="s">
-        <v>73</v>
-      </c>
-      <c r="H122">
-        <v>10</v>
+      <c r="H122" t="s">
+        <v>89</v>
       </c>
       <c r="I122">
         <v>7</v>
@@ -5628,16 +5712,16 @@
         <v>204</v>
       </c>
       <c r="E123" t="s">
-        <v>96</v>
-      </c>
-      <c r="F123" t="s">
-        <v>89</v>
+        <v>73</v>
+      </c>
+      <c r="F123">
+        <v>10</v>
       </c>
       <c r="G123" t="s">
-        <v>73</v>
-      </c>
-      <c r="H123">
-        <v>10</v>
+        <v>96</v>
+      </c>
+      <c r="H123" t="s">
+        <v>89</v>
       </c>
       <c r="I123">
         <v>5</v>
@@ -5669,16 +5753,16 @@
         <v>204</v>
       </c>
       <c r="E124" t="s">
-        <v>96</v>
-      </c>
-      <c r="F124" t="s">
-        <v>89</v>
+        <v>73</v>
+      </c>
+      <c r="F124">
+        <v>10</v>
       </c>
       <c r="G124" t="s">
-        <v>73</v>
-      </c>
-      <c r="H124">
-        <v>10</v>
+        <v>96</v>
+      </c>
+      <c r="H124" t="s">
+        <v>89</v>
       </c>
       <c r="I124">
         <v>5</v>
@@ -5704,16 +5788,16 @@
         <v>204</v>
       </c>
       <c r="E125" t="s">
-        <v>96</v>
-      </c>
-      <c r="F125" t="s">
+        <v>73</v>
+      </c>
+      <c r="F125">
+        <v>10</v>
+      </c>
+      <c r="G125" t="s">
+        <v>96</v>
+      </c>
+      <c r="H125" t="s">
         <v>97</v>
-      </c>
-      <c r="G125" t="s">
-        <v>73</v>
-      </c>
-      <c r="H125">
-        <v>10</v>
       </c>
       <c r="I125">
         <v>1</v>
@@ -5739,16 +5823,16 @@
         <v>204</v>
       </c>
       <c r="E126" t="s">
-        <v>96</v>
-      </c>
-      <c r="F126" t="s">
+        <v>73</v>
+      </c>
+      <c r="F126">
+        <v>10</v>
+      </c>
+      <c r="G126" t="s">
+        <v>96</v>
+      </c>
+      <c r="H126" t="s">
         <v>97</v>
-      </c>
-      <c r="G126" t="s">
-        <v>73</v>
-      </c>
-      <c r="H126">
-        <v>10</v>
       </c>
       <c r="I126">
         <v>2</v>
@@ -5774,16 +5858,16 @@
         <v>204</v>
       </c>
       <c r="E127" t="s">
-        <v>96</v>
-      </c>
-      <c r="F127" t="s">
+        <v>73</v>
+      </c>
+      <c r="F127">
+        <v>10</v>
+      </c>
+      <c r="G127" t="s">
+        <v>96</v>
+      </c>
+      <c r="H127" t="s">
         <v>97</v>
-      </c>
-      <c r="G127" t="s">
-        <v>73</v>
-      </c>
-      <c r="H127">
-        <v>10</v>
       </c>
       <c r="I127">
         <v>2</v>
@@ -5806,16 +5890,16 @@
         <v>204</v>
       </c>
       <c r="E128" t="s">
+        <v>73</v>
+      </c>
+      <c r="F128">
+        <v>10</v>
+      </c>
+      <c r="G128" t="s">
         <v>88</v>
       </c>
-      <c r="F128" t="s">
-        <v>89</v>
-      </c>
-      <c r="G128" t="s">
-        <v>73</v>
-      </c>
-      <c r="H128">
-        <v>10</v>
+      <c r="H128" t="s">
+        <v>89</v>
       </c>
       <c r="I128">
         <v>9</v>
@@ -5841,16 +5925,16 @@
         <v>204</v>
       </c>
       <c r="E129" t="s">
+        <v>73</v>
+      </c>
+      <c r="F129">
+        <v>10</v>
+      </c>
+      <c r="G129" t="s">
         <v>88</v>
       </c>
-      <c r="F129" t="s">
-        <v>89</v>
-      </c>
-      <c r="G129" t="s">
-        <v>73</v>
-      </c>
-      <c r="H129">
-        <v>10</v>
+      <c r="H129" t="s">
+        <v>89</v>
       </c>
       <c r="I129">
         <v>9</v>
@@ -5873,16 +5957,16 @@
         <v>204</v>
       </c>
       <c r="E130" t="s">
+        <v>73</v>
+      </c>
+      <c r="F130">
+        <v>10</v>
+      </c>
+      <c r="G130" t="s">
         <v>88</v>
       </c>
-      <c r="F130" t="s">
-        <v>89</v>
-      </c>
-      <c r="G130" t="s">
-        <v>73</v>
-      </c>
-      <c r="H130">
-        <v>10</v>
+      <c r="H130" t="s">
+        <v>89</v>
       </c>
       <c r="I130">
         <v>9</v>
@@ -5905,16 +5989,16 @@
         <v>204</v>
       </c>
       <c r="E131" t="s">
+        <v>73</v>
+      </c>
+      <c r="F131">
+        <v>10</v>
+      </c>
+      <c r="G131" t="s">
         <v>88</v>
       </c>
-      <c r="F131" t="s">
-        <v>89</v>
-      </c>
-      <c r="G131" t="s">
-        <v>73</v>
-      </c>
-      <c r="H131">
-        <v>10</v>
+      <c r="H131" t="s">
+        <v>89</v>
       </c>
       <c r="I131">
         <v>9</v>
@@ -5937,16 +6021,16 @@
         <v>204</v>
       </c>
       <c r="E132" t="s">
-        <v>96</v>
-      </c>
-      <c r="F132" t="s">
-        <v>89</v>
+        <v>73</v>
+      </c>
+      <c r="F132">
+        <v>10</v>
       </c>
       <c r="G132" t="s">
-        <v>73</v>
-      </c>
-      <c r="H132">
-        <v>10</v>
+        <v>96</v>
+      </c>
+      <c r="H132" t="s">
+        <v>89</v>
       </c>
       <c r="I132">
         <v>10</v>
@@ -5969,16 +6053,16 @@
         <v>204</v>
       </c>
       <c r="E133" t="s">
-        <v>96</v>
-      </c>
-      <c r="F133" t="s">
+        <v>73</v>
+      </c>
+      <c r="F133">
+        <v>10</v>
+      </c>
+      <c r="G133" t="s">
+        <v>96</v>
+      </c>
+      <c r="H133" t="s">
         <v>97</v>
-      </c>
-      <c r="G133" t="s">
-        <v>73</v>
-      </c>
-      <c r="H133">
-        <v>10</v>
       </c>
       <c r="I133">
         <v>6</v>
@@ -6001,16 +6085,16 @@
         <v>204</v>
       </c>
       <c r="E134" t="s">
-        <v>96</v>
-      </c>
-      <c r="F134" t="s">
+        <v>73</v>
+      </c>
+      <c r="F134">
+        <v>10</v>
+      </c>
+      <c r="G134" t="s">
+        <v>96</v>
+      </c>
+      <c r="H134" t="s">
         <v>97</v>
-      </c>
-      <c r="G134" t="s">
-        <v>73</v>
-      </c>
-      <c r="H134">
-        <v>10</v>
       </c>
       <c r="I134">
         <v>6</v>
@@ -6033,16 +6117,16 @@
         <v>204</v>
       </c>
       <c r="E135" t="s">
-        <v>96</v>
-      </c>
-      <c r="F135" t="s">
-        <v>89</v>
+        <v>73</v>
+      </c>
+      <c r="F135">
+        <v>10</v>
       </c>
       <c r="G135" t="s">
-        <v>73</v>
-      </c>
-      <c r="H135">
-        <v>10</v>
+        <v>96</v>
+      </c>
+      <c r="H135" t="s">
+        <v>89</v>
       </c>
       <c r="I135">
         <v>9</v>
@@ -6065,16 +6149,16 @@
         <v>204</v>
       </c>
       <c r="E136" t="s">
+        <v>73</v>
+      </c>
+      <c r="F136">
+        <v>10</v>
+      </c>
+      <c r="G136" t="s">
         <v>88</v>
       </c>
-      <c r="F136" t="s">
-        <v>89</v>
-      </c>
-      <c r="G136" t="s">
-        <v>73</v>
-      </c>
-      <c r="H136">
-        <v>10</v>
+      <c r="H136" t="s">
+        <v>89</v>
       </c>
       <c r="I136">
         <v>1</v>
@@ -6097,16 +6181,16 @@
         <v>204</v>
       </c>
       <c r="E137" t="s">
-        <v>96</v>
-      </c>
-      <c r="F137" t="s">
-        <v>89</v>
+        <v>73</v>
+      </c>
+      <c r="F137">
+        <v>10</v>
       </c>
       <c r="G137" t="s">
-        <v>73</v>
-      </c>
-      <c r="H137">
-        <v>10</v>
+        <v>96</v>
+      </c>
+      <c r="H137" t="s">
+        <v>89</v>
       </c>
       <c r="I137">
         <v>7</v>
@@ -6129,16 +6213,16 @@
         <v>204</v>
       </c>
       <c r="E138" t="s">
-        <v>96</v>
-      </c>
-      <c r="F138" t="s">
+        <v>73</v>
+      </c>
+      <c r="F138">
+        <v>10</v>
+      </c>
+      <c r="G138" t="s">
+        <v>96</v>
+      </c>
+      <c r="H138" t="s">
         <v>72</v>
-      </c>
-      <c r="G138" t="s">
-        <v>73</v>
-      </c>
-      <c r="H138">
-        <v>10</v>
       </c>
       <c r="I138">
         <v>1</v>
@@ -6167,16 +6251,16 @@
         <v>204</v>
       </c>
       <c r="E139" t="s">
-        <v>96</v>
-      </c>
-      <c r="F139" t="s">
+        <v>73</v>
+      </c>
+      <c r="F139">
+        <v>10</v>
+      </c>
+      <c r="G139" t="s">
+        <v>96</v>
+      </c>
+      <c r="H139" t="s">
         <v>72</v>
-      </c>
-      <c r="G139" t="s">
-        <v>73</v>
-      </c>
-      <c r="H139">
-        <v>10</v>
       </c>
       <c r="I139">
         <v>1</v>
@@ -6208,16 +6292,16 @@
         <v>204</v>
       </c>
       <c r="E140" t="s">
-        <v>96</v>
-      </c>
-      <c r="F140" t="s">
+        <v>73</v>
+      </c>
+      <c r="F140">
+        <v>10</v>
+      </c>
+      <c r="G140" t="s">
+        <v>96</v>
+      </c>
+      <c r="H140" t="s">
         <v>72</v>
-      </c>
-      <c r="G140" t="s">
-        <v>73</v>
-      </c>
-      <c r="H140">
-        <v>10</v>
       </c>
       <c r="I140">
         <v>1</v>
@@ -6246,16 +6330,16 @@
         <v>204</v>
       </c>
       <c r="E141" t="s">
-        <v>96</v>
-      </c>
-      <c r="F141" t="s">
+        <v>73</v>
+      </c>
+      <c r="F141">
+        <v>10</v>
+      </c>
+      <c r="G141" t="s">
+        <v>96</v>
+      </c>
+      <c r="H141" t="s">
         <v>72</v>
-      </c>
-      <c r="G141" t="s">
-        <v>73</v>
-      </c>
-      <c r="H141">
-        <v>10</v>
       </c>
       <c r="I141">
         <v>1</v>
@@ -6284,16 +6368,16 @@
         <v>221</v>
       </c>
       <c r="E142" t="s">
+        <v>73</v>
+      </c>
+      <c r="F142">
+        <v>14</v>
+      </c>
+      <c r="G142" t="s">
         <v>88</v>
       </c>
-      <c r="F142" t="s">
-        <v>89</v>
-      </c>
-      <c r="G142" t="s">
-        <v>73</v>
-      </c>
-      <c r="H142">
-        <v>14</v>
+      <c r="H142" t="s">
+        <v>89</v>
       </c>
       <c r="I142">
         <v>7</v>
@@ -6319,16 +6403,16 @@
         <v>221</v>
       </c>
       <c r="E143" t="s">
+        <v>73</v>
+      </c>
+      <c r="F143">
+        <v>14</v>
+      </c>
+      <c r="G143" t="s">
         <v>88</v>
       </c>
-      <c r="F143" t="s">
-        <v>89</v>
-      </c>
-      <c r="G143" t="s">
-        <v>73</v>
-      </c>
-      <c r="H143">
-        <v>14</v>
+      <c r="H143" t="s">
+        <v>89</v>
       </c>
       <c r="I143">
         <v>7</v>
@@ -6353,14 +6437,14 @@
       <c r="D144" t="s">
         <v>221</v>
       </c>
-      <c r="F144" t="s">
+      <c r="E144" t="s">
+        <v>73</v>
+      </c>
+      <c r="F144">
+        <v>14</v>
+      </c>
+      <c r="H144" t="s">
         <v>72</v>
-      </c>
-      <c r="G144" t="s">
-        <v>73</v>
-      </c>
-      <c r="H144">
-        <v>14</v>
       </c>
       <c r="I144">
         <v>1</v>
@@ -6385,14 +6469,14 @@
       <c r="D145" t="s">
         <v>221</v>
       </c>
-      <c r="F145" t="s">
+      <c r="E145" t="s">
+        <v>73</v>
+      </c>
+      <c r="F145">
+        <v>14</v>
+      </c>
+      <c r="H145" t="s">
         <v>72</v>
-      </c>
-      <c r="G145" t="s">
-        <v>73</v>
-      </c>
-      <c r="H145">
-        <v>14</v>
       </c>
       <c r="I145">
         <v>1</v>
@@ -6417,14 +6501,14 @@
       <c r="D146" t="s">
         <v>221</v>
       </c>
-      <c r="F146" t="s">
+      <c r="E146" t="s">
+        <v>73</v>
+      </c>
+      <c r="F146">
+        <v>14</v>
+      </c>
+      <c r="H146" t="s">
         <v>72</v>
-      </c>
-      <c r="G146" t="s">
-        <v>73</v>
-      </c>
-      <c r="H146">
-        <v>14</v>
       </c>
       <c r="I146">
         <v>1</v>
@@ -6446,14 +6530,14 @@
       <c r="D147" t="s">
         <v>221</v>
       </c>
-      <c r="F147" t="s">
+      <c r="E147" t="s">
+        <v>73</v>
+      </c>
+      <c r="F147">
+        <v>14</v>
+      </c>
+      <c r="H147" t="s">
         <v>72</v>
-      </c>
-      <c r="G147" t="s">
-        <v>73</v>
-      </c>
-      <c r="H147">
-        <v>14</v>
       </c>
       <c r="I147">
         <v>1</v>
@@ -6479,16 +6563,16 @@
         <v>221</v>
       </c>
       <c r="E148" t="s">
+        <v>73</v>
+      </c>
+      <c r="F148">
+        <v>14</v>
+      </c>
+      <c r="G148" t="s">
         <v>88</v>
       </c>
-      <c r="F148" t="s">
-        <v>89</v>
-      </c>
-      <c r="G148" t="s">
-        <v>73</v>
-      </c>
-      <c r="H148">
-        <v>14</v>
+      <c r="H148" t="s">
+        <v>89</v>
       </c>
       <c r="I148">
         <v>1</v>
@@ -6511,16 +6595,16 @@
         <v>221</v>
       </c>
       <c r="E149" t="s">
+        <v>73</v>
+      </c>
+      <c r="F149">
+        <v>14</v>
+      </c>
+      <c r="G149" t="s">
         <v>88</v>
       </c>
-      <c r="F149" t="s">
-        <v>89</v>
-      </c>
-      <c r="G149" t="s">
-        <v>73</v>
-      </c>
-      <c r="H149">
-        <v>14</v>
+      <c r="H149" t="s">
+        <v>89</v>
       </c>
       <c r="I149">
         <v>1</v>
@@ -6546,16 +6630,16 @@
         <v>221</v>
       </c>
       <c r="E150" t="s">
+        <v>73</v>
+      </c>
+      <c r="F150">
+        <v>14</v>
+      </c>
+      <c r="G150" t="s">
         <v>88</v>
       </c>
-      <c r="F150" t="s">
-        <v>89</v>
-      </c>
-      <c r="G150" t="s">
-        <v>73</v>
-      </c>
-      <c r="H150">
-        <v>14</v>
+      <c r="H150" t="s">
+        <v>89</v>
       </c>
       <c r="I150">
         <v>1</v>
@@ -6581,16 +6665,16 @@
         <v>221</v>
       </c>
       <c r="E151" t="s">
+        <v>73</v>
+      </c>
+      <c r="F151">
+        <v>14</v>
+      </c>
+      <c r="G151" t="s">
         <v>88</v>
       </c>
-      <c r="F151" t="s">
-        <v>89</v>
-      </c>
-      <c r="G151" t="s">
-        <v>73</v>
-      </c>
-      <c r="H151">
-        <v>14</v>
+      <c r="H151" t="s">
+        <v>89</v>
       </c>
       <c r="I151">
         <v>1</v>
@@ -6616,16 +6700,16 @@
         <v>221</v>
       </c>
       <c r="E152" t="s">
+        <v>73</v>
+      </c>
+      <c r="F152">
+        <v>14</v>
+      </c>
+      <c r="G152" t="s">
         <v>88</v>
       </c>
-      <c r="F152" t="s">
-        <v>89</v>
-      </c>
-      <c r="G152" t="s">
-        <v>73</v>
-      </c>
-      <c r="H152">
-        <v>14</v>
+      <c r="H152" t="s">
+        <v>89</v>
       </c>
       <c r="I152">
         <v>10</v>
@@ -6651,16 +6735,16 @@
         <v>221</v>
       </c>
       <c r="E153" t="s">
+        <v>73</v>
+      </c>
+      <c r="F153">
+        <v>14</v>
+      </c>
+      <c r="G153" t="s">
         <v>88</v>
       </c>
-      <c r="F153" t="s">
-        <v>89</v>
-      </c>
-      <c r="G153" t="s">
-        <v>73</v>
-      </c>
-      <c r="H153">
-        <v>14</v>
+      <c r="H153" t="s">
+        <v>89</v>
       </c>
       <c r="I153">
         <v>10</v>
@@ -6689,16 +6773,16 @@
         <v>221</v>
       </c>
       <c r="E154" t="s">
-        <v>96</v>
-      </c>
-      <c r="F154" t="s">
-        <v>89</v>
+        <v>73</v>
+      </c>
+      <c r="F154">
+        <v>14</v>
       </c>
       <c r="G154" t="s">
-        <v>73</v>
-      </c>
-      <c r="H154">
-        <v>14</v>
+        <v>96</v>
+      </c>
+      <c r="H154" t="s">
+        <v>89</v>
       </c>
       <c r="I154">
         <v>6</v>
@@ -6724,16 +6808,16 @@
         <v>221</v>
       </c>
       <c r="E155" t="s">
+        <v>73</v>
+      </c>
+      <c r="F155">
+        <v>14</v>
+      </c>
+      <c r="G155" t="s">
         <v>88</v>
       </c>
-      <c r="F155" t="s">
-        <v>89</v>
-      </c>
-      <c r="G155" t="s">
-        <v>73</v>
-      </c>
-      <c r="H155">
-        <v>14</v>
+      <c r="H155" t="s">
+        <v>89</v>
       </c>
       <c r="I155">
         <v>3</v>
@@ -6759,16 +6843,16 @@
         <v>221</v>
       </c>
       <c r="E156" t="s">
+        <v>73</v>
+      </c>
+      <c r="F156">
+        <v>14</v>
+      </c>
+      <c r="G156" t="s">
         <v>88</v>
       </c>
-      <c r="F156" t="s">
-        <v>89</v>
-      </c>
-      <c r="G156" t="s">
-        <v>73</v>
-      </c>
-      <c r="H156">
-        <v>14</v>
+      <c r="H156" t="s">
+        <v>89</v>
       </c>
       <c r="I156">
         <v>3</v>
@@ -6794,16 +6878,16 @@
         <v>221</v>
       </c>
       <c r="E157" t="s">
+        <v>73</v>
+      </c>
+      <c r="F157">
+        <v>14</v>
+      </c>
+      <c r="G157" t="s">
         <v>88</v>
       </c>
-      <c r="F157" t="s">
-        <v>89</v>
-      </c>
-      <c r="G157" t="s">
-        <v>73</v>
-      </c>
-      <c r="H157">
-        <v>14</v>
+      <c r="H157" t="s">
+        <v>89</v>
       </c>
       <c r="I157">
         <v>3</v>
@@ -6825,14 +6909,14 @@
       <c r="D158" t="s">
         <v>221</v>
       </c>
-      <c r="F158" t="s">
+      <c r="E158" t="s">
+        <v>73</v>
+      </c>
+      <c r="F158">
+        <v>14</v>
+      </c>
+      <c r="H158" t="s">
         <v>72</v>
-      </c>
-      <c r="G158" t="s">
-        <v>73</v>
-      </c>
-      <c r="H158">
-        <v>14</v>
       </c>
       <c r="I158">
         <v>1</v>
@@ -6867,16 +6951,16 @@
         <v>221</v>
       </c>
       <c r="E159" t="s">
+        <v>73</v>
+      </c>
+      <c r="F159">
+        <v>14</v>
+      </c>
+      <c r="G159" t="s">
         <v>88</v>
       </c>
-      <c r="F159" t="s">
-        <v>89</v>
-      </c>
-      <c r="G159" t="s">
-        <v>73</v>
-      </c>
-      <c r="H159">
-        <v>14</v>
+      <c r="H159" t="s">
+        <v>89</v>
       </c>
       <c r="I159">
         <v>9</v>
@@ -6902,16 +6986,16 @@
         <v>221</v>
       </c>
       <c r="E160" t="s">
+        <v>73</v>
+      </c>
+      <c r="F160">
+        <v>14</v>
+      </c>
+      <c r="G160" t="s">
         <v>88</v>
       </c>
-      <c r="F160" t="s">
-        <v>89</v>
-      </c>
-      <c r="G160" t="s">
-        <v>73</v>
-      </c>
-      <c r="H160">
-        <v>14</v>
+      <c r="H160" t="s">
+        <v>89</v>
       </c>
       <c r="I160">
         <v>9</v>
@@ -6937,16 +7021,16 @@
         <v>221</v>
       </c>
       <c r="E161" t="s">
-        <v>96</v>
-      </c>
-      <c r="F161" t="s">
+        <v>73</v>
+      </c>
+      <c r="F161">
+        <v>14</v>
+      </c>
+      <c r="G161" t="s">
+        <v>96</v>
+      </c>
+      <c r="H161" t="s">
         <v>97</v>
-      </c>
-      <c r="G161" t="s">
-        <v>73</v>
-      </c>
-      <c r="H161">
-        <v>14</v>
       </c>
       <c r="I161">
         <v>1</v>
@@ -6972,16 +7056,16 @@
         <v>221</v>
       </c>
       <c r="E162" t="s">
+        <v>73</v>
+      </c>
+      <c r="F162">
+        <v>14</v>
+      </c>
+      <c r="G162" t="s">
         <v>88</v>
       </c>
-      <c r="F162" t="s">
-        <v>89</v>
-      </c>
-      <c r="G162" t="s">
-        <v>73</v>
-      </c>
-      <c r="H162">
-        <v>14</v>
+      <c r="H162" t="s">
+        <v>89</v>
       </c>
       <c r="I162">
         <v>4</v>
@@ -7009,14 +7093,14 @@
       <c r="D163" t="s">
         <v>221</v>
       </c>
-      <c r="F163" t="s">
+      <c r="E163" t="s">
+        <v>73</v>
+      </c>
+      <c r="F163">
+        <v>14</v>
+      </c>
+      <c r="H163" t="s">
         <v>72</v>
-      </c>
-      <c r="G163" t="s">
-        <v>73</v>
-      </c>
-      <c r="H163">
-        <v>14</v>
       </c>
       <c r="I163">
         <v>1</v>
@@ -7042,16 +7126,16 @@
         <v>221</v>
       </c>
       <c r="E164" t="s">
-        <v>96</v>
-      </c>
-      <c r="F164" t="s">
+        <v>73</v>
+      </c>
+      <c r="F164">
+        <v>14</v>
+      </c>
+      <c r="G164" t="s">
+        <v>96</v>
+      </c>
+      <c r="H164" t="s">
         <v>97</v>
-      </c>
-      <c r="G164" t="s">
-        <v>73</v>
-      </c>
-      <c r="H164">
-        <v>14</v>
       </c>
       <c r="I164">
         <v>5</v>
@@ -7077,16 +7161,16 @@
         <v>221</v>
       </c>
       <c r="E165" t="s">
+        <v>73</v>
+      </c>
+      <c r="F165">
+        <v>14</v>
+      </c>
+      <c r="G165" t="s">
         <v>88</v>
       </c>
-      <c r="F165" t="s">
-        <v>89</v>
-      </c>
-      <c r="G165" t="s">
-        <v>73</v>
-      </c>
-      <c r="H165">
-        <v>14</v>
+      <c r="H165" t="s">
+        <v>89</v>
       </c>
       <c r="I165">
         <v>8</v>
@@ -7112,16 +7196,16 @@
         <v>221</v>
       </c>
       <c r="E166" t="s">
+        <v>73</v>
+      </c>
+      <c r="F166">
+        <v>14</v>
+      </c>
+      <c r="G166" t="s">
         <v>88</v>
       </c>
-      <c r="F166" t="s">
-        <v>89</v>
-      </c>
-      <c r="G166" t="s">
-        <v>73</v>
-      </c>
-      <c r="H166">
-        <v>14</v>
+      <c r="H166" t="s">
+        <v>89</v>
       </c>
       <c r="I166">
         <v>6</v>
@@ -7144,16 +7228,16 @@
         <v>221</v>
       </c>
       <c r="E167" t="s">
+        <v>73</v>
+      </c>
+      <c r="F167">
+        <v>14</v>
+      </c>
+      <c r="G167" t="s">
         <v>88</v>
       </c>
-      <c r="F167" t="s">
-        <v>89</v>
-      </c>
-      <c r="G167" t="s">
-        <v>73</v>
-      </c>
-      <c r="H167">
-        <v>14</v>
+      <c r="H167" t="s">
+        <v>89</v>
       </c>
       <c r="I167">
         <v>6</v>
@@ -7176,16 +7260,16 @@
         <v>221</v>
       </c>
       <c r="E168" t="s">
+        <v>73</v>
+      </c>
+      <c r="F168">
+        <v>14</v>
+      </c>
+      <c r="G168" t="s">
         <v>88</v>
       </c>
-      <c r="F168" t="s">
-        <v>89</v>
-      </c>
-      <c r="G168" t="s">
-        <v>73</v>
-      </c>
-      <c r="H168">
-        <v>14</v>
+      <c r="H168" t="s">
+        <v>89</v>
       </c>
       <c r="I168">
         <v>6</v>
@@ -7205,16 +7289,16 @@
         <v>221</v>
       </c>
       <c r="E169" t="s">
-        <v>96</v>
-      </c>
-      <c r="F169" t="s">
-        <v>89</v>
+        <v>73</v>
+      </c>
+      <c r="F169">
+        <v>14</v>
       </c>
       <c r="G169" t="s">
-        <v>73</v>
-      </c>
-      <c r="H169">
-        <v>14</v>
+        <v>96</v>
+      </c>
+      <c r="H169" t="s">
+        <v>89</v>
       </c>
       <c r="I169">
         <v>7</v>
@@ -7234,16 +7318,16 @@
         <v>221</v>
       </c>
       <c r="E170" t="s">
-        <v>96</v>
-      </c>
-      <c r="F170" t="s">
-        <v>89</v>
+        <v>73</v>
+      </c>
+      <c r="F170">
+        <v>14</v>
       </c>
       <c r="G170" t="s">
-        <v>73</v>
-      </c>
-      <c r="H170">
-        <v>14</v>
+        <v>96</v>
+      </c>
+      <c r="H170" t="s">
+        <v>89</v>
       </c>
       <c r="I170">
         <v>10</v>
@@ -7266,16 +7350,16 @@
         <v>221</v>
       </c>
       <c r="E171" t="s">
+        <v>73</v>
+      </c>
+      <c r="F171">
+        <v>14</v>
+      </c>
+      <c r="G171" t="s">
         <v>88</v>
       </c>
-      <c r="F171" t="s">
-        <v>89</v>
-      </c>
-      <c r="G171" t="s">
-        <v>73</v>
-      </c>
-      <c r="H171">
-        <v>14</v>
+      <c r="H171" t="s">
+        <v>89</v>
       </c>
       <c r="I171">
         <v>2</v>
@@ -7300,14 +7384,14 @@
       <c r="D172" t="s">
         <v>221</v>
       </c>
-      <c r="F172" t="s">
+      <c r="E172" t="s">
+        <v>73</v>
+      </c>
+      <c r="F172">
+        <v>14</v>
+      </c>
+      <c r="H172" t="s">
         <v>72</v>
-      </c>
-      <c r="G172" t="s">
-        <v>73</v>
-      </c>
-      <c r="H172">
-        <v>14</v>
       </c>
       <c r="I172">
         <v>1</v>
@@ -7333,16 +7417,16 @@
         <v>221</v>
       </c>
       <c r="E173" t="s">
-        <v>96</v>
-      </c>
-      <c r="F173" t="s">
-        <v>89</v>
+        <v>73</v>
+      </c>
+      <c r="F173">
+        <v>14</v>
       </c>
       <c r="G173" t="s">
-        <v>73</v>
-      </c>
-      <c r="H173">
-        <v>14</v>
+        <v>96</v>
+      </c>
+      <c r="H173" t="s">
+        <v>89</v>
       </c>
       <c r="I173">
         <v>6</v>
@@ -7365,16 +7449,16 @@
         <v>221</v>
       </c>
       <c r="E174" t="s">
-        <v>96</v>
-      </c>
-      <c r="F174" t="s">
-        <v>89</v>
+        <v>73</v>
+      </c>
+      <c r="F174">
+        <v>14</v>
       </c>
       <c r="G174" t="s">
-        <v>73</v>
-      </c>
-      <c r="H174">
-        <v>14</v>
+        <v>96</v>
+      </c>
+      <c r="H174" t="s">
+        <v>89</v>
       </c>
       <c r="I174">
         <v>4</v>
@@ -7400,16 +7484,16 @@
         <v>221</v>
       </c>
       <c r="E175" t="s">
-        <v>96</v>
-      </c>
-      <c r="F175" t="s">
+        <v>73</v>
+      </c>
+      <c r="F175">
+        <v>14</v>
+      </c>
+      <c r="G175" t="s">
+        <v>96</v>
+      </c>
+      <c r="H175" t="s">
         <v>97</v>
-      </c>
-      <c r="G175" t="s">
-        <v>73</v>
-      </c>
-      <c r="H175">
-        <v>14</v>
       </c>
       <c r="I175">
         <v>2</v>
@@ -7429,16 +7513,16 @@
         <v>221</v>
       </c>
       <c r="E176" t="s">
+        <v>73</v>
+      </c>
+      <c r="F176">
+        <v>14</v>
+      </c>
+      <c r="G176" t="s">
         <v>88</v>
       </c>
-      <c r="F176" t="s">
-        <v>89</v>
-      </c>
-      <c r="G176" t="s">
-        <v>73</v>
-      </c>
-      <c r="H176">
-        <v>14</v>
+      <c r="H176" t="s">
+        <v>89</v>
       </c>
       <c r="I176">
         <v>5</v>
@@ -7461,16 +7545,16 @@
         <v>221</v>
       </c>
       <c r="E177" t="s">
+        <v>73</v>
+      </c>
+      <c r="F177">
+        <v>14</v>
+      </c>
+      <c r="G177" t="s">
         <v>88</v>
       </c>
-      <c r="F177" t="s">
-        <v>89</v>
-      </c>
-      <c r="G177" t="s">
-        <v>73</v>
-      </c>
-      <c r="H177">
-        <v>14</v>
+      <c r="H177" t="s">
+        <v>89</v>
       </c>
       <c r="I177">
         <v>5</v>
@@ -7493,16 +7577,16 @@
         <v>221</v>
       </c>
       <c r="E178" t="s">
+        <v>73</v>
+      </c>
+      <c r="F178">
+        <v>14</v>
+      </c>
+      <c r="G178" t="s">
         <v>88</v>
       </c>
-      <c r="F178" t="s">
-        <v>89</v>
-      </c>
-      <c r="G178" t="s">
-        <v>73</v>
-      </c>
-      <c r="H178">
-        <v>14</v>
+      <c r="H178" t="s">
+        <v>89</v>
       </c>
       <c r="I178">
         <v>5</v>
@@ -7522,16 +7606,16 @@
         <v>221</v>
       </c>
       <c r="E179" t="s">
-        <v>96</v>
-      </c>
-      <c r="F179" t="s">
-        <v>89</v>
+        <v>73</v>
+      </c>
+      <c r="F179">
+        <v>14</v>
       </c>
       <c r="G179" t="s">
-        <v>73</v>
-      </c>
-      <c r="H179">
-        <v>14</v>
+        <v>96</v>
+      </c>
+      <c r="H179" t="s">
+        <v>89</v>
       </c>
       <c r="I179">
         <v>3</v>
@@ -7551,16 +7635,16 @@
         <v>221</v>
       </c>
       <c r="E180" t="s">
-        <v>96</v>
-      </c>
-      <c r="F180" t="s">
-        <v>89</v>
+        <v>73</v>
+      </c>
+      <c r="F180">
+        <v>14</v>
       </c>
       <c r="G180" t="s">
-        <v>73</v>
-      </c>
-      <c r="H180">
-        <v>14</v>
+        <v>96</v>
+      </c>
+      <c r="H180" t="s">
+        <v>89</v>
       </c>
       <c r="I180">
         <v>3</v>
@@ -7583,16 +7667,16 @@
         <v>221</v>
       </c>
       <c r="E181" t="s">
-        <v>96</v>
-      </c>
-      <c r="F181" t="s">
-        <v>89</v>
+        <v>73</v>
+      </c>
+      <c r="F181">
+        <v>14</v>
       </c>
       <c r="G181" t="s">
-        <v>73</v>
-      </c>
-      <c r="H181">
-        <v>14</v>
+        <v>96</v>
+      </c>
+      <c r="H181" t="s">
+        <v>89</v>
       </c>
       <c r="I181">
         <v>6</v>
@@ -7612,16 +7696,16 @@
         <v>221</v>
       </c>
       <c r="E182" t="s">
-        <v>96</v>
-      </c>
-      <c r="F182" t="s">
-        <v>89</v>
+        <v>73</v>
+      </c>
+      <c r="F182">
+        <v>14</v>
       </c>
       <c r="G182" t="s">
-        <v>73</v>
-      </c>
-      <c r="H182">
-        <v>14</v>
+        <v>96</v>
+      </c>
+      <c r="H182" t="s">
+        <v>89</v>
       </c>
       <c r="I182">
         <v>6</v>
@@ -7641,16 +7725,16 @@
         <v>232</v>
       </c>
       <c r="E183" t="s">
-        <v>96</v>
-      </c>
-      <c r="F183" t="s">
+        <v>73</v>
+      </c>
+      <c r="F183">
+        <v>23</v>
+      </c>
+      <c r="G183" t="s">
+        <v>96</v>
+      </c>
+      <c r="H183" t="s">
         <v>97</v>
-      </c>
-      <c r="G183" t="s">
-        <v>73</v>
-      </c>
-      <c r="H183">
-        <v>23</v>
       </c>
       <c r="I183">
         <v>1</v>
@@ -7673,16 +7757,16 @@
         <v>232</v>
       </c>
       <c r="E184" t="s">
+        <v>73</v>
+      </c>
+      <c r="F184">
+        <v>23</v>
+      </c>
+      <c r="G184" t="s">
         <v>88</v>
       </c>
-      <c r="F184" t="s">
-        <v>89</v>
-      </c>
-      <c r="G184" t="s">
-        <v>73</v>
-      </c>
-      <c r="H184">
-        <v>23</v>
+      <c r="H184" t="s">
+        <v>89</v>
       </c>
       <c r="I184">
         <v>8</v>
@@ -7702,16 +7786,16 @@
         <v>232</v>
       </c>
       <c r="E185" t="s">
+        <v>73</v>
+      </c>
+      <c r="F185">
+        <v>23</v>
+      </c>
+      <c r="G185" t="s">
         <v>88</v>
       </c>
-      <c r="F185" t="s">
-        <v>89</v>
-      </c>
-      <c r="G185" t="s">
-        <v>73</v>
-      </c>
-      <c r="H185">
-        <v>23</v>
+      <c r="H185" t="s">
+        <v>89</v>
       </c>
       <c r="I185">
         <v>8</v>
@@ -7734,16 +7818,16 @@
         <v>232</v>
       </c>
       <c r="E186" t="s">
+        <v>73</v>
+      </c>
+      <c r="F186">
+        <v>23</v>
+      </c>
+      <c r="G186" t="s">
         <v>88</v>
       </c>
-      <c r="F186" t="s">
-        <v>89</v>
-      </c>
-      <c r="G186" t="s">
-        <v>73</v>
-      </c>
-      <c r="H186">
-        <v>23</v>
+      <c r="H186" t="s">
+        <v>89</v>
       </c>
       <c r="I186">
         <v>8</v>
@@ -7766,16 +7850,16 @@
         <v>232</v>
       </c>
       <c r="E187" t="s">
+        <v>73</v>
+      </c>
+      <c r="F187">
+        <v>23</v>
+      </c>
+      <c r="G187" t="s">
         <v>88</v>
       </c>
-      <c r="F187" t="s">
-        <v>89</v>
-      </c>
-      <c r="G187" t="s">
-        <v>73</v>
-      </c>
-      <c r="H187">
-        <v>23</v>
+      <c r="H187" t="s">
+        <v>89</v>
       </c>
       <c r="I187">
         <v>5</v>
@@ -7797,14 +7881,14 @@
       <c r="D188" t="s">
         <v>232</v>
       </c>
-      <c r="F188" t="s">
+      <c r="E188" t="s">
+        <v>73</v>
+      </c>
+      <c r="F188">
+        <v>23</v>
+      </c>
+      <c r="H188" t="s">
         <v>72</v>
-      </c>
-      <c r="G188" t="s">
-        <v>73</v>
-      </c>
-      <c r="H188">
-        <v>23</v>
       </c>
       <c r="I188">
         <v>1</v>
@@ -7827,16 +7911,16 @@
         <v>232</v>
       </c>
       <c r="E189" t="s">
+        <v>73</v>
+      </c>
+      <c r="F189">
+        <v>23</v>
+      </c>
+      <c r="G189" t="s">
         <v>88</v>
       </c>
-      <c r="F189" t="s">
-        <v>89</v>
-      </c>
-      <c r="G189" t="s">
-        <v>73</v>
-      </c>
-      <c r="H189">
-        <v>23</v>
+      <c r="H189" t="s">
+        <v>89</v>
       </c>
       <c r="I189">
         <v>4</v>
@@ -7856,16 +7940,16 @@
         <v>232</v>
       </c>
       <c r="E190" t="s">
-        <v>96</v>
-      </c>
-      <c r="F190" t="s">
-        <v>89</v>
+        <v>73</v>
+      </c>
+      <c r="F190">
+        <v>23</v>
       </c>
       <c r="G190" t="s">
-        <v>73</v>
-      </c>
-      <c r="H190">
-        <v>23</v>
+        <v>96</v>
+      </c>
+      <c r="H190" t="s">
+        <v>89</v>
       </c>
       <c r="I190">
         <v>2</v>
@@ -7888,16 +7972,16 @@
         <v>232</v>
       </c>
       <c r="E191" t="s">
-        <v>96</v>
-      </c>
-      <c r="F191" t="s">
-        <v>89</v>
+        <v>73</v>
+      </c>
+      <c r="F191">
+        <v>23</v>
       </c>
       <c r="G191" t="s">
-        <v>73</v>
-      </c>
-      <c r="H191">
-        <v>23</v>
+        <v>96</v>
+      </c>
+      <c r="H191" t="s">
+        <v>89</v>
       </c>
       <c r="I191">
         <v>2</v>
@@ -7923,16 +8007,16 @@
         <v>232</v>
       </c>
       <c r="E192" t="s">
+        <v>73</v>
+      </c>
+      <c r="F192">
+        <v>23</v>
+      </c>
+      <c r="G192" t="s">
         <v>88</v>
       </c>
-      <c r="F192" t="s">
-        <v>89</v>
-      </c>
-      <c r="G192" t="s">
-        <v>73</v>
-      </c>
-      <c r="H192">
-        <v>23</v>
+      <c r="H192" t="s">
+        <v>89</v>
       </c>
       <c r="I192">
         <v>10</v>
@@ -7952,16 +8036,16 @@
         <v>232</v>
       </c>
       <c r="E193" t="s">
+        <v>73</v>
+      </c>
+      <c r="F193">
+        <v>23</v>
+      </c>
+      <c r="G193" t="s">
         <v>88</v>
       </c>
-      <c r="F193" t="s">
-        <v>89</v>
-      </c>
-      <c r="G193" t="s">
-        <v>73</v>
-      </c>
-      <c r="H193">
-        <v>23</v>
+      <c r="H193" t="s">
+        <v>89</v>
       </c>
       <c r="I193">
         <v>10</v>
@@ -7987,16 +8071,16 @@
         <v>232</v>
       </c>
       <c r="E194" t="s">
-        <v>96</v>
-      </c>
-      <c r="F194" t="s">
-        <v>89</v>
+        <v>73</v>
+      </c>
+      <c r="F194">
+        <v>23</v>
       </c>
       <c r="G194" t="s">
-        <v>73</v>
-      </c>
-      <c r="H194">
-        <v>23</v>
+        <v>96</v>
+      </c>
+      <c r="H194" t="s">
+        <v>89</v>
       </c>
       <c r="I194">
         <v>4</v>
@@ -8022,16 +8106,16 @@
         <v>232</v>
       </c>
       <c r="E195" t="s">
-        <v>96</v>
-      </c>
-      <c r="F195" t="s">
+        <v>73</v>
+      </c>
+      <c r="F195">
+        <v>23</v>
+      </c>
+      <c r="G195" t="s">
+        <v>96</v>
+      </c>
+      <c r="H195" t="s">
         <v>97</v>
-      </c>
-      <c r="G195" t="s">
-        <v>73</v>
-      </c>
-      <c r="H195">
-        <v>23</v>
       </c>
       <c r="I195">
         <v>3</v>
@@ -8054,16 +8138,16 @@
         <v>232</v>
       </c>
       <c r="E196" t="s">
-        <v>96</v>
-      </c>
-      <c r="F196" t="s">
-        <v>89</v>
+        <v>73</v>
+      </c>
+      <c r="F196">
+        <v>23</v>
       </c>
       <c r="G196" t="s">
-        <v>73</v>
-      </c>
-      <c r="H196">
-        <v>23</v>
+        <v>96</v>
+      </c>
+      <c r="H196" t="s">
+        <v>89</v>
       </c>
       <c r="I196">
         <v>7</v>
@@ -8086,16 +8170,16 @@
         <v>232</v>
       </c>
       <c r="E197" t="s">
+        <v>73</v>
+      </c>
+      <c r="F197">
+        <v>23</v>
+      </c>
+      <c r="G197" t="s">
         <v>88</v>
       </c>
-      <c r="F197" t="s">
-        <v>89</v>
-      </c>
-      <c r="G197" t="s">
-        <v>73</v>
-      </c>
-      <c r="H197">
-        <v>23</v>
+      <c r="H197" t="s">
+        <v>89</v>
       </c>
       <c r="I197">
         <v>9</v>
@@ -8115,16 +8199,16 @@
         <v>232</v>
       </c>
       <c r="E198" t="s">
-        <v>96</v>
-      </c>
-      <c r="F198" t="s">
+        <v>73</v>
+      </c>
+      <c r="F198">
+        <v>23</v>
+      </c>
+      <c r="G198" t="s">
+        <v>96</v>
+      </c>
+      <c r="H198" t="s">
         <v>97</v>
-      </c>
-      <c r="G198" t="s">
-        <v>73</v>
-      </c>
-      <c r="H198">
-        <v>23</v>
       </c>
       <c r="I198">
         <v>3</v>
@@ -8147,16 +8231,16 @@
         <v>232</v>
       </c>
       <c r="E199" t="s">
+        <v>73</v>
+      </c>
+      <c r="F199">
+        <v>23</v>
+      </c>
+      <c r="G199" t="s">
         <v>88</v>
       </c>
-      <c r="F199" t="s">
-        <v>89</v>
-      </c>
-      <c r="G199" t="s">
-        <v>73</v>
-      </c>
-      <c r="H199">
-        <v>23</v>
+      <c r="H199" t="s">
+        <v>89</v>
       </c>
       <c r="I199">
         <v>2</v>
@@ -8176,16 +8260,16 @@
         <v>232</v>
       </c>
       <c r="E200" t="s">
+        <v>73</v>
+      </c>
+      <c r="F200">
+        <v>23</v>
+      </c>
+      <c r="G200" t="s">
         <v>88</v>
       </c>
-      <c r="F200" t="s">
-        <v>89</v>
-      </c>
-      <c r="G200" t="s">
-        <v>73</v>
-      </c>
-      <c r="H200">
-        <v>23</v>
+      <c r="H200" t="s">
+        <v>89</v>
       </c>
       <c r="I200">
         <v>3</v>
@@ -8205,16 +8289,16 @@
         <v>232</v>
       </c>
       <c r="E201" t="s">
-        <v>96</v>
-      </c>
-      <c r="F201" t="s">
-        <v>89</v>
+        <v>73</v>
+      </c>
+      <c r="F201">
+        <v>23</v>
       </c>
       <c r="G201" t="s">
-        <v>73</v>
-      </c>
-      <c r="H201">
-        <v>23</v>
+        <v>96</v>
+      </c>
+      <c r="H201" t="s">
+        <v>89</v>
       </c>
       <c r="I201">
         <v>5</v>
@@ -8237,16 +8321,16 @@
         <v>232</v>
       </c>
       <c r="E202" t="s">
-        <v>96</v>
-      </c>
-      <c r="F202" t="s">
-        <v>89</v>
+        <v>73</v>
+      </c>
+      <c r="F202">
+        <v>23</v>
       </c>
       <c r="G202" t="s">
-        <v>73</v>
-      </c>
-      <c r="H202">
-        <v>23</v>
+        <v>96</v>
+      </c>
+      <c r="H202" t="s">
+        <v>89</v>
       </c>
       <c r="I202">
         <v>5</v>
@@ -8269,16 +8353,16 @@
         <v>232</v>
       </c>
       <c r="E203" t="s">
-        <v>96</v>
-      </c>
-      <c r="F203" t="s">
-        <v>89</v>
+        <v>73</v>
+      </c>
+      <c r="F203">
+        <v>23</v>
       </c>
       <c r="G203" t="s">
-        <v>73</v>
-      </c>
-      <c r="H203">
-        <v>23</v>
+        <v>96</v>
+      </c>
+      <c r="H203" t="s">
+        <v>89</v>
       </c>
       <c r="I203">
         <v>5</v>
@@ -8301,16 +8385,16 @@
         <v>232</v>
       </c>
       <c r="E204" t="s">
-        <v>96</v>
-      </c>
-      <c r="F204" t="s">
+        <v>73</v>
+      </c>
+      <c r="F204">
+        <v>23</v>
+      </c>
+      <c r="G204" t="s">
+        <v>96</v>
+      </c>
+      <c r="H204" t="s">
         <v>97</v>
-      </c>
-      <c r="G204" t="s">
-        <v>73</v>
-      </c>
-      <c r="H204">
-        <v>23</v>
       </c>
       <c r="I204">
         <v>4</v>
@@ -8333,16 +8417,16 @@
         <v>232</v>
       </c>
       <c r="E205" t="s">
+        <v>73</v>
+      </c>
+      <c r="F205">
+        <v>23</v>
+      </c>
+      <c r="G205" t="s">
         <v>88</v>
       </c>
-      <c r="F205" t="s">
-        <v>89</v>
-      </c>
-      <c r="G205" t="s">
-        <v>73</v>
-      </c>
-      <c r="H205">
-        <v>23</v>
+      <c r="H205" t="s">
+        <v>89</v>
       </c>
       <c r="I205">
         <v>6</v>
@@ -8365,16 +8449,16 @@
         <v>232</v>
       </c>
       <c r="E206" t="s">
+        <v>73</v>
+      </c>
+      <c r="F206">
+        <v>23</v>
+      </c>
+      <c r="G206" t="s">
         <v>88</v>
       </c>
-      <c r="F206" t="s">
-        <v>89</v>
-      </c>
-      <c r="G206" t="s">
-        <v>73</v>
-      </c>
-      <c r="H206">
-        <v>23</v>
+      <c r="H206" t="s">
+        <v>89</v>
       </c>
       <c r="I206">
         <v>6</v>
@@ -8397,16 +8481,16 @@
         <v>232</v>
       </c>
       <c r="E207" t="s">
+        <v>73</v>
+      </c>
+      <c r="F207">
+        <v>23</v>
+      </c>
+      <c r="G207" t="s">
         <v>88</v>
       </c>
-      <c r="F207" t="s">
-        <v>89</v>
-      </c>
-      <c r="G207" t="s">
-        <v>73</v>
-      </c>
-      <c r="H207">
-        <v>23</v>
+      <c r="H207" t="s">
+        <v>89</v>
       </c>
       <c r="I207">
         <v>6</v>
@@ -8425,14 +8509,14 @@
       <c r="D208" t="s">
         <v>232</v>
       </c>
-      <c r="F208" t="s">
+      <c r="E208" t="s">
+        <v>73</v>
+      </c>
+      <c r="F208">
+        <v>23</v>
+      </c>
+      <c r="H208" t="s">
         <v>72</v>
-      </c>
-      <c r="G208" t="s">
-        <v>73</v>
-      </c>
-      <c r="H208">
-        <v>23</v>
       </c>
       <c r="I208">
         <v>1</v>
@@ -8463,14 +8547,14 @@
       <c r="D209" t="s">
         <v>232</v>
       </c>
-      <c r="F209" t="s">
+      <c r="E209" t="s">
+        <v>73</v>
+      </c>
+      <c r="F209">
+        <v>23</v>
+      </c>
+      <c r="H209" t="s">
         <v>72</v>
-      </c>
-      <c r="G209" t="s">
-        <v>73</v>
-      </c>
-      <c r="H209">
-        <v>23</v>
       </c>
       <c r="I209">
         <v>1</v>
@@ -8495,14 +8579,14 @@
       <c r="D210" t="s">
         <v>232</v>
       </c>
-      <c r="F210" t="s">
+      <c r="E210" t="s">
+        <v>73</v>
+      </c>
+      <c r="F210">
+        <v>23</v>
+      </c>
+      <c r="H210" t="s">
         <v>72</v>
-      </c>
-      <c r="G210" t="s">
-        <v>73</v>
-      </c>
-      <c r="H210">
-        <v>23</v>
       </c>
       <c r="I210">
         <v>1</v>
@@ -8527,14 +8611,14 @@
       <c r="D211" t="s">
         <v>232</v>
       </c>
-      <c r="F211" t="s">
+      <c r="E211" t="s">
+        <v>73</v>
+      </c>
+      <c r="F211">
+        <v>23</v>
+      </c>
+      <c r="H211" t="s">
         <v>72</v>
-      </c>
-      <c r="G211" t="s">
-        <v>73</v>
-      </c>
-      <c r="H211">
-        <v>23</v>
       </c>
       <c r="I211">
         <v>1</v>
@@ -8559,14 +8643,14 @@
       <c r="D212" t="s">
         <v>232</v>
       </c>
-      <c r="F212" t="s">
+      <c r="E212" t="s">
+        <v>73</v>
+      </c>
+      <c r="F212">
+        <v>23</v>
+      </c>
+      <c r="H212" t="s">
         <v>72</v>
-      </c>
-      <c r="G212" t="s">
-        <v>73</v>
-      </c>
-      <c r="H212">
-        <v>23</v>
       </c>
       <c r="I212">
         <v>1</v>
@@ -8589,16 +8673,16 @@
         <v>162</v>
       </c>
       <c r="E213" t="s">
-        <v>96</v>
-      </c>
-      <c r="F213" t="s">
-        <v>89</v>
+        <v>73</v>
+      </c>
+      <c r="F213">
+        <v>16</v>
       </c>
       <c r="G213" t="s">
-        <v>73</v>
-      </c>
-      <c r="H213">
-        <v>16</v>
+        <v>96</v>
+      </c>
+      <c r="H213" t="s">
+        <v>89</v>
       </c>
       <c r="I213">
         <v>4</v>
@@ -8626,14 +8710,14 @@
       <c r="D214" t="s">
         <v>162</v>
       </c>
-      <c r="F214" t="s">
+      <c r="E214" t="s">
+        <v>73</v>
+      </c>
+      <c r="F214">
+        <v>16</v>
+      </c>
+      <c r="H214" t="s">
         <v>72</v>
-      </c>
-      <c r="G214" t="s">
-        <v>73</v>
-      </c>
-      <c r="H214">
-        <v>16</v>
       </c>
       <c r="I214">
         <v>1</v>
@@ -8653,16 +8737,16 @@
         <v>162</v>
       </c>
       <c r="E215" t="s">
-        <v>96</v>
-      </c>
-      <c r="F215" t="s">
+        <v>73</v>
+      </c>
+      <c r="F215">
+        <v>16</v>
+      </c>
+      <c r="G215" t="s">
+        <v>96</v>
+      </c>
+      <c r="H215" t="s">
         <v>97</v>
-      </c>
-      <c r="G215" t="s">
-        <v>73</v>
-      </c>
-      <c r="H215">
-        <v>16</v>
       </c>
       <c r="I215">
         <v>7</v>
@@ -8688,16 +8772,16 @@
         <v>162</v>
       </c>
       <c r="E216" t="s">
-        <v>96</v>
-      </c>
-      <c r="F216" t="s">
+        <v>73</v>
+      </c>
+      <c r="F216">
+        <v>16</v>
+      </c>
+      <c r="G216" t="s">
+        <v>96</v>
+      </c>
+      <c r="H216" t="s">
         <v>97</v>
-      </c>
-      <c r="G216" t="s">
-        <v>73</v>
-      </c>
-      <c r="H216">
-        <v>16</v>
       </c>
       <c r="I216">
         <v>5</v>
@@ -8723,16 +8807,16 @@
         <v>162</v>
       </c>
       <c r="E217" t="s">
-        <v>96</v>
-      </c>
-      <c r="F217" t="s">
-        <v>89</v>
+        <v>73</v>
+      </c>
+      <c r="F217">
+        <v>16</v>
       </c>
       <c r="G217" t="s">
-        <v>73</v>
-      </c>
-      <c r="H217">
-        <v>16</v>
+        <v>96</v>
+      </c>
+      <c r="H217" t="s">
+        <v>89</v>
       </c>
       <c r="I217">
         <v>2</v>
@@ -8761,16 +8845,16 @@
         <v>162</v>
       </c>
       <c r="E218" t="s">
-        <v>96</v>
-      </c>
-      <c r="F218" t="s">
+        <v>73</v>
+      </c>
+      <c r="F218">
+        <v>16</v>
+      </c>
+      <c r="G218" t="s">
+        <v>96</v>
+      </c>
+      <c r="H218" t="s">
         <v>97</v>
-      </c>
-      <c r="G218" t="s">
-        <v>73</v>
-      </c>
-      <c r="H218">
-        <v>16</v>
       </c>
       <c r="I218">
         <v>2</v>
@@ -8793,16 +8877,16 @@
         <v>162</v>
       </c>
       <c r="E219" t="s">
-        <v>96</v>
-      </c>
-      <c r="F219" t="s">
+        <v>73</v>
+      </c>
+      <c r="F219">
+        <v>16</v>
+      </c>
+      <c r="G219" t="s">
+        <v>96</v>
+      </c>
+      <c r="H219" t="s">
         <v>97</v>
-      </c>
-      <c r="G219" t="s">
-        <v>73</v>
-      </c>
-      <c r="H219">
-        <v>16</v>
       </c>
       <c r="I219">
         <v>1</v>
@@ -8828,16 +8912,16 @@
         <v>162</v>
       </c>
       <c r="E220" t="s">
-        <v>96</v>
-      </c>
-      <c r="F220" t="s">
+        <v>73</v>
+      </c>
+      <c r="F220">
+        <v>16</v>
+      </c>
+      <c r="G220" t="s">
+        <v>96</v>
+      </c>
+      <c r="H220" t="s">
         <v>97</v>
-      </c>
-      <c r="G220" t="s">
-        <v>73</v>
-      </c>
-      <c r="H220">
-        <v>16</v>
       </c>
       <c r="I220">
         <v>8</v>
@@ -8863,16 +8947,16 @@
         <v>162</v>
       </c>
       <c r="E221" t="s">
-        <v>96</v>
-      </c>
-      <c r="F221" t="s">
+        <v>73</v>
+      </c>
+      <c r="F221">
+        <v>16</v>
+      </c>
+      <c r="G221" t="s">
+        <v>96</v>
+      </c>
+      <c r="H221" t="s">
         <v>72</v>
-      </c>
-      <c r="G221" t="s">
-        <v>73</v>
-      </c>
-      <c r="H221">
-        <v>16</v>
       </c>
       <c r="I221">
         <v>1</v>
@@ -8892,16 +8976,16 @@
         <v>162</v>
       </c>
       <c r="E222" t="s">
-        <v>96</v>
-      </c>
-      <c r="F222" t="s">
+        <v>73</v>
+      </c>
+      <c r="F222">
+        <v>16</v>
+      </c>
+      <c r="G222" t="s">
+        <v>96</v>
+      </c>
+      <c r="H222" t="s">
         <v>72</v>
-      </c>
-      <c r="G222" t="s">
-        <v>73</v>
-      </c>
-      <c r="H222">
-        <v>16</v>
       </c>
       <c r="I222">
         <v>1</v>
@@ -8927,16 +9011,16 @@
         <v>162</v>
       </c>
       <c r="E223" t="s">
-        <v>96</v>
-      </c>
-      <c r="F223" t="s">
+        <v>73</v>
+      </c>
+      <c r="F223">
+        <v>16</v>
+      </c>
+      <c r="G223" t="s">
+        <v>96</v>
+      </c>
+      <c r="H223" t="s">
         <v>72</v>
-      </c>
-      <c r="G223" t="s">
-        <v>73</v>
-      </c>
-      <c r="H223">
-        <v>16</v>
       </c>
       <c r="I223">
         <v>1</v>
@@ -8968,16 +9052,16 @@
         <v>162</v>
       </c>
       <c r="E224" t="s">
-        <v>96</v>
-      </c>
-      <c r="F224" t="s">
+        <v>73</v>
+      </c>
+      <c r="F224">
+        <v>16</v>
+      </c>
+      <c r="G224" t="s">
+        <v>96</v>
+      </c>
+      <c r="H224" t="s">
         <v>97</v>
-      </c>
-      <c r="G224" t="s">
-        <v>73</v>
-      </c>
-      <c r="H224">
-        <v>16</v>
       </c>
       <c r="I224">
         <v>10</v>
@@ -8998,21 +9082,21 @@
         <v>237</v>
       </c>
     </row>
-    <row r="225" spans="4:14" x14ac:dyDescent="0.35">
+    <row r="225" spans="2:20" x14ac:dyDescent="0.35">
       <c r="D225" t="s">
         <v>162</v>
       </c>
       <c r="E225" t="s">
-        <v>96</v>
-      </c>
-      <c r="F225" t="s">
+        <v>73</v>
+      </c>
+      <c r="F225">
+        <v>16</v>
+      </c>
+      <c r="G225" t="s">
+        <v>96</v>
+      </c>
+      <c r="H225" t="s">
         <v>97</v>
-      </c>
-      <c r="G225" t="s">
-        <v>73</v>
-      </c>
-      <c r="H225">
-        <v>16</v>
       </c>
       <c r="I225">
         <v>4</v>
@@ -9033,21 +9117,21 @@
         <v>237</v>
       </c>
     </row>
-    <row r="226" spans="4:14" x14ac:dyDescent="0.35">
+    <row r="226" spans="2:20" x14ac:dyDescent="0.35">
       <c r="D226" t="s">
         <v>162</v>
       </c>
       <c r="E226" t="s">
-        <v>96</v>
-      </c>
-      <c r="F226" t="s">
+        <v>73</v>
+      </c>
+      <c r="F226">
+        <v>16</v>
+      </c>
+      <c r="G226" t="s">
+        <v>96</v>
+      </c>
+      <c r="H226" t="s">
         <v>97</v>
-      </c>
-      <c r="G226" t="s">
-        <v>73</v>
-      </c>
-      <c r="H226">
-        <v>16</v>
       </c>
       <c r="I226">
         <v>2</v>
@@ -9066,6 +9150,2805 @@
       </c>
       <c r="N226" t="s">
         <v>237</v>
+      </c>
+    </row>
+    <row r="227" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="B227" t="s">
+        <v>248</v>
+      </c>
+      <c r="D227" t="s">
+        <v>162</v>
+      </c>
+      <c r="E227" t="s">
+        <v>73</v>
+      </c>
+      <c r="F227">
+        <v>16</v>
+      </c>
+      <c r="G227" t="s">
+        <v>96</v>
+      </c>
+      <c r="H227" t="s">
+        <v>89</v>
+      </c>
+      <c r="I227">
+        <v>9</v>
+      </c>
+      <c r="J227" t="s">
+        <v>74</v>
+      </c>
+      <c r="K227">
+        <v>1</v>
+      </c>
+      <c r="L227" t="s">
+        <v>100</v>
+      </c>
+      <c r="M227" t="s">
+        <v>57</v>
+      </c>
+      <c r="N227" t="s">
+        <v>249</v>
+      </c>
+      <c r="T227" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="228" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="D228" t="s">
+        <v>162</v>
+      </c>
+      <c r="E228" t="s">
+        <v>73</v>
+      </c>
+      <c r="F228">
+        <v>16</v>
+      </c>
+      <c r="G228" t="s">
+        <v>96</v>
+      </c>
+      <c r="H228" t="s">
+        <v>97</v>
+      </c>
+      <c r="I228">
+        <v>9</v>
+      </c>
+      <c r="J228" t="s">
+        <v>74</v>
+      </c>
+      <c r="K228">
+        <v>1</v>
+      </c>
+      <c r="L228" t="s">
+        <v>100</v>
+      </c>
+      <c r="M228" t="s">
+        <v>57</v>
+      </c>
+      <c r="N228" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="229" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="D229" t="s">
+        <v>162</v>
+      </c>
+      <c r="E229" t="s">
+        <v>73</v>
+      </c>
+      <c r="F229">
+        <v>16</v>
+      </c>
+      <c r="G229" t="s">
+        <v>96</v>
+      </c>
+      <c r="H229" t="s">
+        <v>97</v>
+      </c>
+      <c r="I229">
+        <v>9</v>
+      </c>
+      <c r="J229" t="s">
+        <v>74</v>
+      </c>
+      <c r="K229">
+        <v>1</v>
+      </c>
+      <c r="L229" t="s">
+        <v>100</v>
+      </c>
+      <c r="M229" t="s">
+        <v>57</v>
+      </c>
+      <c r="N229" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="230" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="D230" t="s">
+        <v>250</v>
+      </c>
+      <c r="E230" t="s">
+        <v>73</v>
+      </c>
+      <c r="F230">
+        <v>15</v>
+      </c>
+      <c r="G230" t="s">
+        <v>88</v>
+      </c>
+      <c r="H230" t="s">
+        <v>89</v>
+      </c>
+      <c r="I230">
+        <v>8</v>
+      </c>
+      <c r="J230" t="s">
+        <v>144</v>
+      </c>
+      <c r="K230">
+        <v>2</v>
+      </c>
+      <c r="L230" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="231" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="D231" t="s">
+        <v>250</v>
+      </c>
+      <c r="E231" t="s">
+        <v>73</v>
+      </c>
+      <c r="F231">
+        <v>15</v>
+      </c>
+      <c r="G231" t="s">
+        <v>88</v>
+      </c>
+      <c r="H231" t="s">
+        <v>89</v>
+      </c>
+      <c r="I231">
+        <v>8</v>
+      </c>
+      <c r="J231" t="s">
+        <v>74</v>
+      </c>
+      <c r="K231">
+        <v>2</v>
+      </c>
+      <c r="L231" t="s">
+        <v>100</v>
+      </c>
+      <c r="M231" t="s">
+        <v>57</v>
+      </c>
+      <c r="N231" t="s">
+        <v>237</v>
+      </c>
+      <c r="P231" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="232" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="D232" t="s">
+        <v>250</v>
+      </c>
+      <c r="E232" t="s">
+        <v>73</v>
+      </c>
+      <c r="F232">
+        <v>15</v>
+      </c>
+      <c r="G232" t="s">
+        <v>88</v>
+      </c>
+      <c r="H232" t="s">
+        <v>89</v>
+      </c>
+      <c r="I232">
+        <v>4</v>
+      </c>
+      <c r="J232" t="s">
+        <v>144</v>
+      </c>
+      <c r="K232">
+        <v>1</v>
+      </c>
+      <c r="L232" t="s">
+        <v>135</v>
+      </c>
+      <c r="M232" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="233" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="D233" t="s">
+        <v>250</v>
+      </c>
+      <c r="E233" t="s">
+        <v>73</v>
+      </c>
+      <c r="F233">
+        <v>15</v>
+      </c>
+      <c r="G233" t="s">
+        <v>88</v>
+      </c>
+      <c r="H233" t="s">
+        <v>89</v>
+      </c>
+      <c r="I233">
+        <v>4</v>
+      </c>
+      <c r="J233" t="s">
+        <v>144</v>
+      </c>
+      <c r="K233">
+        <v>1</v>
+      </c>
+      <c r="L233" t="s">
+        <v>149</v>
+      </c>
+      <c r="M233" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="234" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="D234" t="s">
+        <v>250</v>
+      </c>
+      <c r="E234" t="s">
+        <v>73</v>
+      </c>
+      <c r="F234">
+        <v>15</v>
+      </c>
+      <c r="G234" t="s">
+        <v>88</v>
+      </c>
+      <c r="H234" t="s">
+        <v>89</v>
+      </c>
+      <c r="I234">
+        <v>4</v>
+      </c>
+      <c r="J234" t="s">
+        <v>144</v>
+      </c>
+      <c r="K234">
+        <v>1</v>
+      </c>
+      <c r="L234" t="s">
+        <v>252</v>
+      </c>
+      <c r="M234" t="s">
+        <v>253</v>
+      </c>
+      <c r="P234" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="235" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="B235" t="s">
+        <v>255</v>
+      </c>
+      <c r="D235" t="s">
+        <v>221</v>
+      </c>
+      <c r="E235" t="s">
+        <v>73</v>
+      </c>
+      <c r="F235">
+        <v>15</v>
+      </c>
+      <c r="G235" t="s">
+        <v>96</v>
+      </c>
+      <c r="H235" t="s">
+        <v>89</v>
+      </c>
+      <c r="I235">
+        <v>4</v>
+      </c>
+      <c r="J235" t="s">
+        <v>74</v>
+      </c>
+      <c r="K235">
+        <v>1</v>
+      </c>
+      <c r="L235" t="s">
+        <v>100</v>
+      </c>
+      <c r="M235" t="s">
+        <v>57</v>
+      </c>
+      <c r="N235" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="236" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="D236" t="s">
+        <v>221</v>
+      </c>
+      <c r="E236" t="s">
+        <v>73</v>
+      </c>
+      <c r="F236">
+        <v>15</v>
+      </c>
+      <c r="G236" t="s">
+        <v>88</v>
+      </c>
+      <c r="H236" t="s">
+        <v>89</v>
+      </c>
+      <c r="I236">
+        <v>5</v>
+      </c>
+      <c r="J236" t="s">
+        <v>144</v>
+      </c>
+      <c r="K236">
+        <v>1</v>
+      </c>
+      <c r="L236" t="s">
+        <v>149</v>
+      </c>
+      <c r="M236" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="237" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="D237" t="s">
+        <v>221</v>
+      </c>
+      <c r="E237" t="s">
+        <v>73</v>
+      </c>
+      <c r="F237">
+        <v>15</v>
+      </c>
+      <c r="G237" t="s">
+        <v>88</v>
+      </c>
+      <c r="H237" t="s">
+        <v>89</v>
+      </c>
+      <c r="I237">
+        <v>5</v>
+      </c>
+      <c r="J237" t="s">
+        <v>144</v>
+      </c>
+      <c r="K237">
+        <v>1</v>
+      </c>
+      <c r="L237" t="s">
+        <v>149</v>
+      </c>
+      <c r="M237" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="238" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="D238" t="s">
+        <v>221</v>
+      </c>
+      <c r="E238" t="s">
+        <v>73</v>
+      </c>
+      <c r="F238">
+        <v>15</v>
+      </c>
+      <c r="G238" t="s">
+        <v>96</v>
+      </c>
+      <c r="H238" t="s">
+        <v>89</v>
+      </c>
+      <c r="I238">
+        <v>6</v>
+      </c>
+      <c r="J238" t="s">
+        <v>144</v>
+      </c>
+      <c r="K238">
+        <v>1</v>
+      </c>
+      <c r="L238" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="239" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="D239" t="s">
+        <v>221</v>
+      </c>
+      <c r="E239" t="s">
+        <v>73</v>
+      </c>
+      <c r="F239">
+        <v>15</v>
+      </c>
+      <c r="G239" t="s">
+        <v>96</v>
+      </c>
+      <c r="H239" t="s">
+        <v>89</v>
+      </c>
+      <c r="I239">
+        <v>6</v>
+      </c>
+      <c r="J239" t="s">
+        <v>144</v>
+      </c>
+      <c r="K239">
+        <v>1</v>
+      </c>
+      <c r="L239" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="240" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="D240" t="s">
+        <v>221</v>
+      </c>
+      <c r="E240" t="s">
+        <v>73</v>
+      </c>
+      <c r="F240">
+        <v>15</v>
+      </c>
+      <c r="G240" t="s">
+        <v>88</v>
+      </c>
+      <c r="H240" t="s">
+        <v>89</v>
+      </c>
+      <c r="I240">
+        <v>6</v>
+      </c>
+      <c r="J240" t="s">
+        <v>144</v>
+      </c>
+      <c r="K240">
+        <v>1</v>
+      </c>
+      <c r="L240" t="s">
+        <v>135</v>
+      </c>
+      <c r="M240" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="241" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="D241" t="s">
+        <v>221</v>
+      </c>
+      <c r="E241" t="s">
+        <v>73</v>
+      </c>
+      <c r="F241">
+        <v>15</v>
+      </c>
+      <c r="G241" t="s">
+        <v>88</v>
+      </c>
+      <c r="H241" t="s">
+        <v>89</v>
+      </c>
+      <c r="I241">
+        <v>6</v>
+      </c>
+      <c r="J241" t="s">
+        <v>144</v>
+      </c>
+      <c r="K241">
+        <v>1</v>
+      </c>
+      <c r="L241" t="s">
+        <v>149</v>
+      </c>
+      <c r="M241" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="242" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="D242" t="s">
+        <v>221</v>
+      </c>
+      <c r="E242" t="s">
+        <v>73</v>
+      </c>
+      <c r="F242">
+        <v>15</v>
+      </c>
+      <c r="G242" t="s">
+        <v>96</v>
+      </c>
+      <c r="H242" t="s">
+        <v>89</v>
+      </c>
+      <c r="I242">
+        <v>6</v>
+      </c>
+      <c r="J242" t="s">
+        <v>74</v>
+      </c>
+      <c r="K242">
+        <v>1</v>
+      </c>
+      <c r="L242" t="s">
+        <v>100</v>
+      </c>
+      <c r="M242" t="s">
+        <v>57</v>
+      </c>
+      <c r="N242" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="243" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="D243" t="s">
+        <v>221</v>
+      </c>
+      <c r="E243" t="s">
+        <v>73</v>
+      </c>
+      <c r="F243">
+        <v>15</v>
+      </c>
+      <c r="H243" t="s">
+        <v>72</v>
+      </c>
+      <c r="I243">
+        <v>1</v>
+      </c>
+      <c r="J243" t="s">
+        <v>144</v>
+      </c>
+      <c r="K243">
+        <v>1</v>
+      </c>
+      <c r="L243" t="s">
+        <v>149</v>
+      </c>
+      <c r="M243" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="244" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="D244" t="s">
+        <v>221</v>
+      </c>
+      <c r="E244" t="s">
+        <v>73</v>
+      </c>
+      <c r="F244">
+        <v>15</v>
+      </c>
+      <c r="H244" t="s">
+        <v>72</v>
+      </c>
+      <c r="I244">
+        <v>1</v>
+      </c>
+      <c r="J244" t="s">
+        <v>144</v>
+      </c>
+      <c r="K244">
+        <v>1</v>
+      </c>
+      <c r="L244" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="245" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="D245" t="s">
+        <v>221</v>
+      </c>
+      <c r="E245" t="s">
+        <v>73</v>
+      </c>
+      <c r="F245">
+        <v>15</v>
+      </c>
+      <c r="H245" t="s">
+        <v>72</v>
+      </c>
+      <c r="I245">
+        <v>1</v>
+      </c>
+      <c r="J245" t="s">
+        <v>144</v>
+      </c>
+      <c r="K245">
+        <v>1</v>
+      </c>
+      <c r="L245" t="s">
+        <v>135</v>
+      </c>
+      <c r="M245" t="s">
+        <v>222</v>
+      </c>
+      <c r="R245" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="246" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="D246" t="s">
+        <v>221</v>
+      </c>
+      <c r="E246" t="s">
+        <v>73</v>
+      </c>
+      <c r="F246">
+        <v>15</v>
+      </c>
+      <c r="H246" t="s">
+        <v>72</v>
+      </c>
+      <c r="I246">
+        <v>1</v>
+      </c>
+      <c r="J246" t="s">
+        <v>144</v>
+      </c>
+      <c r="K246">
+        <v>1</v>
+      </c>
+      <c r="L246" t="s">
+        <v>61</v>
+      </c>
+      <c r="M246" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="247" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="D247" t="s">
+        <v>221</v>
+      </c>
+      <c r="E247" t="s">
+        <v>73</v>
+      </c>
+      <c r="F247">
+        <v>15</v>
+      </c>
+      <c r="H247" t="s">
+        <v>72</v>
+      </c>
+      <c r="I247">
+        <v>1</v>
+      </c>
+      <c r="J247" t="s">
+        <v>144</v>
+      </c>
+      <c r="K247">
+        <v>1</v>
+      </c>
+      <c r="L247" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="248" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="D248" t="s">
+        <v>221</v>
+      </c>
+      <c r="E248" t="s">
+        <v>73</v>
+      </c>
+      <c r="F248">
+        <v>15</v>
+      </c>
+      <c r="H248" t="s">
+        <v>72</v>
+      </c>
+      <c r="I248">
+        <v>1</v>
+      </c>
+      <c r="J248" t="s">
+        <v>144</v>
+      </c>
+      <c r="K248">
+        <v>1</v>
+      </c>
+      <c r="L248" t="s">
+        <v>135</v>
+      </c>
+      <c r="M248" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="249" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="B249" t="s">
+        <v>259</v>
+      </c>
+      <c r="D249" t="s">
+        <v>221</v>
+      </c>
+      <c r="E249" t="s">
+        <v>73</v>
+      </c>
+      <c r="F249">
+        <v>15</v>
+      </c>
+      <c r="H249" t="s">
+        <v>72</v>
+      </c>
+      <c r="I249">
+        <v>1</v>
+      </c>
+      <c r="J249" t="s">
+        <v>74</v>
+      </c>
+      <c r="K249">
+        <v>1</v>
+      </c>
+      <c r="L249" t="s">
+        <v>100</v>
+      </c>
+      <c r="M249" t="s">
+        <v>57</v>
+      </c>
+      <c r="R249" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="250" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="D250" t="s">
+        <v>221</v>
+      </c>
+      <c r="E250" t="s">
+        <v>73</v>
+      </c>
+      <c r="F250">
+        <v>15</v>
+      </c>
+      <c r="G250" t="s">
+        <v>96</v>
+      </c>
+      <c r="H250" t="s">
+        <v>89</v>
+      </c>
+      <c r="I250">
+        <v>10</v>
+      </c>
+      <c r="J250" t="s">
+        <v>74</v>
+      </c>
+      <c r="K250">
+        <v>1</v>
+      </c>
+      <c r="L250" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="251" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="D251" t="s">
+        <v>221</v>
+      </c>
+      <c r="E251" t="s">
+        <v>73</v>
+      </c>
+      <c r="F251">
+        <v>15</v>
+      </c>
+      <c r="G251" t="s">
+        <v>88</v>
+      </c>
+      <c r="H251" t="s">
+        <v>89</v>
+      </c>
+      <c r="I251">
+        <v>1</v>
+      </c>
+      <c r="J251" t="s">
+        <v>74</v>
+      </c>
+      <c r="K251">
+        <v>2</v>
+      </c>
+      <c r="L251" t="s">
+        <v>100</v>
+      </c>
+      <c r="M251" t="s">
+        <v>57</v>
+      </c>
+      <c r="N251" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="252" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="D252" t="s">
+        <v>221</v>
+      </c>
+      <c r="E252" t="s">
+        <v>73</v>
+      </c>
+      <c r="F252">
+        <v>15</v>
+      </c>
+      <c r="G252" t="s">
+        <v>88</v>
+      </c>
+      <c r="H252" t="s">
+        <v>89</v>
+      </c>
+      <c r="I252">
+        <v>1</v>
+      </c>
+      <c r="J252" t="s">
+        <v>144</v>
+      </c>
+      <c r="K252">
+        <v>4</v>
+      </c>
+      <c r="L252" t="s">
+        <v>252</v>
+      </c>
+      <c r="M252" t="s">
+        <v>253</v>
+      </c>
+      <c r="P252" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="253" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="D253" t="s">
+        <v>221</v>
+      </c>
+      <c r="E253" t="s">
+        <v>73</v>
+      </c>
+      <c r="F253">
+        <v>15</v>
+      </c>
+      <c r="G253" t="s">
+        <v>88</v>
+      </c>
+      <c r="H253" t="s">
+        <v>89</v>
+      </c>
+      <c r="I253">
+        <v>1</v>
+      </c>
+      <c r="J253" t="s">
+        <v>144</v>
+      </c>
+      <c r="K253">
+        <v>1</v>
+      </c>
+      <c r="L253" t="s">
+        <v>149</v>
+      </c>
+      <c r="M253" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="254" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="D254" t="s">
+        <v>221</v>
+      </c>
+      <c r="E254" t="s">
+        <v>73</v>
+      </c>
+      <c r="F254">
+        <v>15</v>
+      </c>
+      <c r="G254" t="s">
+        <v>88</v>
+      </c>
+      <c r="H254" t="s">
+        <v>89</v>
+      </c>
+      <c r="I254">
+        <v>1</v>
+      </c>
+      <c r="J254" t="s">
+        <v>144</v>
+      </c>
+      <c r="K254">
+        <v>2</v>
+      </c>
+      <c r="L254" t="s">
+        <v>149</v>
+      </c>
+      <c r="M254" t="s">
+        <v>151</v>
+      </c>
+      <c r="R254" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="255" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="D255" t="s">
+        <v>221</v>
+      </c>
+      <c r="E255" t="s">
+        <v>73</v>
+      </c>
+      <c r="F255">
+        <v>15</v>
+      </c>
+      <c r="G255" t="s">
+        <v>88</v>
+      </c>
+      <c r="H255" t="s">
+        <v>89</v>
+      </c>
+      <c r="I255">
+        <v>1</v>
+      </c>
+      <c r="J255" t="s">
+        <v>144</v>
+      </c>
+      <c r="K255">
+        <v>1</v>
+      </c>
+      <c r="L255" t="s">
+        <v>135</v>
+      </c>
+      <c r="M255" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="256" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="D256" t="s">
+        <v>221</v>
+      </c>
+      <c r="E256" t="s">
+        <v>73</v>
+      </c>
+      <c r="F256">
+        <v>15</v>
+      </c>
+      <c r="G256" t="s">
+        <v>88</v>
+      </c>
+      <c r="H256" t="s">
+        <v>89</v>
+      </c>
+      <c r="I256">
+        <v>1</v>
+      </c>
+      <c r="J256" t="s">
+        <v>144</v>
+      </c>
+      <c r="K256">
+        <v>6</v>
+      </c>
+      <c r="L256" t="s">
+        <v>135</v>
+      </c>
+      <c r="M256" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="257" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="D257" t="s">
+        <v>221</v>
+      </c>
+      <c r="E257" t="s">
+        <v>73</v>
+      </c>
+      <c r="F257">
+        <v>15</v>
+      </c>
+      <c r="G257" t="s">
+        <v>88</v>
+      </c>
+      <c r="H257" t="s">
+        <v>89</v>
+      </c>
+      <c r="I257">
+        <v>1</v>
+      </c>
+      <c r="J257" t="s">
+        <v>144</v>
+      </c>
+      <c r="K257">
+        <v>2</v>
+      </c>
+      <c r="L257" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="258" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="D258" t="s">
+        <v>221</v>
+      </c>
+      <c r="E258" t="s">
+        <v>73</v>
+      </c>
+      <c r="F258">
+        <v>15</v>
+      </c>
+      <c r="G258" t="s">
+        <v>88</v>
+      </c>
+      <c r="H258" t="s">
+        <v>89</v>
+      </c>
+      <c r="I258">
+        <v>1</v>
+      </c>
+      <c r="J258" t="s">
+        <v>144</v>
+      </c>
+      <c r="K258">
+        <v>1</v>
+      </c>
+      <c r="L258" t="s">
+        <v>75</v>
+      </c>
+      <c r="M258" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="259" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="D259" t="s">
+        <v>221</v>
+      </c>
+      <c r="E259" t="s">
+        <v>73</v>
+      </c>
+      <c r="F259">
+        <v>15</v>
+      </c>
+      <c r="G259" t="s">
+        <v>96</v>
+      </c>
+      <c r="H259" t="s">
+        <v>89</v>
+      </c>
+      <c r="I259">
+        <v>7</v>
+      </c>
+      <c r="J259" t="s">
+        <v>144</v>
+      </c>
+      <c r="K259">
+        <v>1</v>
+      </c>
+      <c r="L259" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="260" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="B260" t="s">
+        <v>262</v>
+      </c>
+      <c r="D260" t="s">
+        <v>221</v>
+      </c>
+      <c r="E260" t="s">
+        <v>73</v>
+      </c>
+      <c r="F260">
+        <v>15</v>
+      </c>
+      <c r="G260" t="s">
+        <v>96</v>
+      </c>
+      <c r="H260" t="s">
+        <v>89</v>
+      </c>
+      <c r="I260">
+        <v>1</v>
+      </c>
+      <c r="J260" t="s">
+        <v>144</v>
+      </c>
+      <c r="K260">
+        <v>1</v>
+      </c>
+      <c r="L260" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="261" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="D261" t="s">
+        <v>221</v>
+      </c>
+      <c r="E261" t="s">
+        <v>73</v>
+      </c>
+      <c r="F261">
+        <v>15</v>
+      </c>
+      <c r="G261" t="s">
+        <v>96</v>
+      </c>
+      <c r="H261" t="s">
+        <v>89</v>
+      </c>
+      <c r="I261">
+        <v>4</v>
+      </c>
+      <c r="J261" t="s">
+        <v>74</v>
+      </c>
+      <c r="K261">
+        <v>1</v>
+      </c>
+      <c r="L261" t="s">
+        <v>100</v>
+      </c>
+      <c r="M261" t="s">
+        <v>57</v>
+      </c>
+      <c r="N261" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="262" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="B262" t="s">
+        <v>263</v>
+      </c>
+      <c r="D262" t="s">
+        <v>221</v>
+      </c>
+      <c r="E262" t="s">
+        <v>73</v>
+      </c>
+      <c r="F262">
+        <v>15</v>
+      </c>
+      <c r="G262" t="s">
+        <v>88</v>
+      </c>
+      <c r="H262" t="s">
+        <v>89</v>
+      </c>
+      <c r="I262">
+        <v>1</v>
+      </c>
+      <c r="J262" t="s">
+        <v>144</v>
+      </c>
+      <c r="K262">
+        <v>1</v>
+      </c>
+      <c r="L262" t="s">
+        <v>100</v>
+      </c>
+      <c r="M262" t="s">
+        <v>57</v>
+      </c>
+      <c r="R262" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="263" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="D263" t="s">
+        <v>221</v>
+      </c>
+      <c r="E263" t="s">
+        <v>73</v>
+      </c>
+      <c r="F263">
+        <v>15</v>
+      </c>
+      <c r="G263" t="s">
+        <v>96</v>
+      </c>
+      <c r="H263" t="s">
+        <v>89</v>
+      </c>
+      <c r="I263">
+        <v>8</v>
+      </c>
+      <c r="J263" t="s">
+        <v>144</v>
+      </c>
+      <c r="K263">
+        <v>1</v>
+      </c>
+      <c r="L263" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="264" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="D264" t="s">
+        <v>221</v>
+      </c>
+      <c r="E264" t="s">
+        <v>73</v>
+      </c>
+      <c r="F264">
+        <v>15</v>
+      </c>
+      <c r="G264" t="s">
+        <v>96</v>
+      </c>
+      <c r="H264" t="s">
+        <v>89</v>
+      </c>
+      <c r="I264">
+        <v>8</v>
+      </c>
+      <c r="J264" t="s">
+        <v>144</v>
+      </c>
+      <c r="K264">
+        <v>1</v>
+      </c>
+      <c r="L264" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="265" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="D265" t="s">
+        <v>221</v>
+      </c>
+      <c r="E265" t="s">
+        <v>73</v>
+      </c>
+      <c r="F265">
+        <v>15</v>
+      </c>
+      <c r="G265" t="s">
+        <v>88</v>
+      </c>
+      <c r="H265" t="s">
+        <v>89</v>
+      </c>
+      <c r="I265">
+        <v>3</v>
+      </c>
+      <c r="J265" t="s">
+        <v>144</v>
+      </c>
+      <c r="K265">
+        <v>1</v>
+      </c>
+      <c r="L265" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="266" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="D266" t="s">
+        <v>221</v>
+      </c>
+      <c r="E266" t="s">
+        <v>73</v>
+      </c>
+      <c r="F266">
+        <v>15</v>
+      </c>
+      <c r="G266" t="s">
+        <v>88</v>
+      </c>
+      <c r="H266" t="s">
+        <v>89</v>
+      </c>
+      <c r="I266">
+        <v>3</v>
+      </c>
+      <c r="J266" t="s">
+        <v>144</v>
+      </c>
+      <c r="K266">
+        <v>1</v>
+      </c>
+      <c r="L266" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="267" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="D267" t="s">
+        <v>221</v>
+      </c>
+      <c r="E267" t="s">
+        <v>73</v>
+      </c>
+      <c r="F267">
+        <v>15</v>
+      </c>
+      <c r="G267" t="s">
+        <v>88</v>
+      </c>
+      <c r="H267" t="s">
+        <v>89</v>
+      </c>
+      <c r="I267">
+        <v>3</v>
+      </c>
+      <c r="J267" t="s">
+        <v>74</v>
+      </c>
+      <c r="K267">
+        <v>3</v>
+      </c>
+      <c r="L267" t="s">
+        <v>100</v>
+      </c>
+      <c r="M267" t="s">
+        <v>57</v>
+      </c>
+      <c r="N267" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="268" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="D268" t="s">
+        <v>221</v>
+      </c>
+      <c r="E268" t="s">
+        <v>73</v>
+      </c>
+      <c r="F268">
+        <v>15</v>
+      </c>
+      <c r="G268" t="s">
+        <v>88</v>
+      </c>
+      <c r="H268" t="s">
+        <v>89</v>
+      </c>
+      <c r="I268">
+        <v>3</v>
+      </c>
+      <c r="J268" t="s">
+        <v>74</v>
+      </c>
+      <c r="K268">
+        <v>1</v>
+      </c>
+      <c r="L268" t="s">
+        <v>100</v>
+      </c>
+      <c r="M268" t="s">
+        <v>57</v>
+      </c>
+      <c r="N268" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="269" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="D269" t="s">
+        <v>221</v>
+      </c>
+      <c r="E269" t="s">
+        <v>73</v>
+      </c>
+      <c r="F269">
+        <v>15</v>
+      </c>
+      <c r="G269" t="s">
+        <v>88</v>
+      </c>
+      <c r="H269" t="s">
+        <v>89</v>
+      </c>
+      <c r="I269">
+        <v>1</v>
+      </c>
+      <c r="J269" t="s">
+        <v>144</v>
+      </c>
+      <c r="K269">
+        <v>1</v>
+      </c>
+      <c r="L269" t="s">
+        <v>135</v>
+      </c>
+      <c r="M269" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="270" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="D270" t="s">
+        <v>221</v>
+      </c>
+      <c r="E270" t="s">
+        <v>73</v>
+      </c>
+      <c r="F270">
+        <v>15</v>
+      </c>
+      <c r="G270" t="s">
+        <v>88</v>
+      </c>
+      <c r="H270" t="s">
+        <v>89</v>
+      </c>
+      <c r="I270">
+        <v>1</v>
+      </c>
+      <c r="J270" t="s">
+        <v>144</v>
+      </c>
+      <c r="K270">
+        <v>2</v>
+      </c>
+      <c r="L270" t="s">
+        <v>61</v>
+      </c>
+      <c r="M270" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="271" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="D271" t="s">
+        <v>221</v>
+      </c>
+      <c r="E271" t="s">
+        <v>73</v>
+      </c>
+      <c r="F271">
+        <v>15</v>
+      </c>
+      <c r="G271" t="s">
+        <v>88</v>
+      </c>
+      <c r="H271" t="s">
+        <v>89</v>
+      </c>
+      <c r="I271">
+        <v>1</v>
+      </c>
+      <c r="J271" t="s">
+        <v>74</v>
+      </c>
+      <c r="K271">
+        <v>4</v>
+      </c>
+      <c r="L271" t="s">
+        <v>100</v>
+      </c>
+      <c r="M271" t="s">
+        <v>57</v>
+      </c>
+      <c r="N271" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="272" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="D272" t="s">
+        <v>221</v>
+      </c>
+      <c r="E272" t="s">
+        <v>73</v>
+      </c>
+      <c r="F272">
+        <v>15</v>
+      </c>
+      <c r="G272" t="s">
+        <v>88</v>
+      </c>
+      <c r="H272" t="s">
+        <v>89</v>
+      </c>
+      <c r="I272">
+        <v>9</v>
+      </c>
+      <c r="J272" t="s">
+        <v>144</v>
+      </c>
+      <c r="K272">
+        <v>2</v>
+      </c>
+      <c r="L272" t="s">
+        <v>135</v>
+      </c>
+      <c r="M272" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="273" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="D273" t="s">
+        <v>221</v>
+      </c>
+      <c r="E273" t="s">
+        <v>73</v>
+      </c>
+      <c r="F273">
+        <v>15</v>
+      </c>
+      <c r="G273" t="s">
+        <v>88</v>
+      </c>
+      <c r="H273" t="s">
+        <v>89</v>
+      </c>
+      <c r="I273">
+        <v>9</v>
+      </c>
+      <c r="J273" t="s">
+        <v>74</v>
+      </c>
+      <c r="K273">
+        <v>1</v>
+      </c>
+      <c r="L273" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="274" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="D274" t="s">
+        <v>221</v>
+      </c>
+      <c r="E274" t="s">
+        <v>73</v>
+      </c>
+      <c r="F274">
+        <v>15</v>
+      </c>
+      <c r="G274" t="s">
+        <v>88</v>
+      </c>
+      <c r="H274" t="s">
+        <v>89</v>
+      </c>
+      <c r="I274">
+        <v>9</v>
+      </c>
+      <c r="J274" t="s">
+        <v>74</v>
+      </c>
+      <c r="K274">
+        <v>2</v>
+      </c>
+      <c r="L274" t="s">
+        <v>100</v>
+      </c>
+      <c r="M274" t="s">
+        <v>57</v>
+      </c>
+      <c r="N274" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="275" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="D275" t="s">
+        <v>221</v>
+      </c>
+      <c r="E275" t="s">
+        <v>73</v>
+      </c>
+      <c r="F275">
+        <v>15</v>
+      </c>
+      <c r="G275" t="s">
+        <v>88</v>
+      </c>
+      <c r="H275" t="s">
+        <v>89</v>
+      </c>
+      <c r="I275">
+        <v>2</v>
+      </c>
+      <c r="J275" t="s">
+        <v>144</v>
+      </c>
+      <c r="K275">
+        <v>3</v>
+      </c>
+      <c r="L275" t="s">
+        <v>252</v>
+      </c>
+      <c r="M275" t="s">
+        <v>253</v>
+      </c>
+      <c r="P275" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="276" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="D276" t="s">
+        <v>221</v>
+      </c>
+      <c r="E276" t="s">
+        <v>73</v>
+      </c>
+      <c r="F276">
+        <v>15</v>
+      </c>
+      <c r="G276" t="s">
+        <v>88</v>
+      </c>
+      <c r="H276" t="s">
+        <v>89</v>
+      </c>
+      <c r="I276">
+        <v>2</v>
+      </c>
+      <c r="J276" t="s">
+        <v>144</v>
+      </c>
+      <c r="K276">
+        <v>1</v>
+      </c>
+      <c r="L276" t="s">
+        <v>135</v>
+      </c>
+      <c r="M276" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="277" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="D277" t="s">
+        <v>221</v>
+      </c>
+      <c r="E277" t="s">
+        <v>73</v>
+      </c>
+      <c r="F277">
+        <v>15</v>
+      </c>
+      <c r="G277" t="s">
+        <v>88</v>
+      </c>
+      <c r="H277" t="s">
+        <v>89</v>
+      </c>
+      <c r="I277">
+        <v>2</v>
+      </c>
+      <c r="J277" t="s">
+        <v>144</v>
+      </c>
+      <c r="K277">
+        <v>1</v>
+      </c>
+      <c r="L277" t="s">
+        <v>61</v>
+      </c>
+      <c r="M277" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="278" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="D278" t="s">
+        <v>221</v>
+      </c>
+      <c r="E278" t="s">
+        <v>73</v>
+      </c>
+      <c r="F278">
+        <v>15</v>
+      </c>
+      <c r="G278" t="s">
+        <v>88</v>
+      </c>
+      <c r="H278" t="s">
+        <v>89</v>
+      </c>
+      <c r="I278">
+        <v>2</v>
+      </c>
+      <c r="J278" t="s">
+        <v>74</v>
+      </c>
+      <c r="K278">
+        <v>1</v>
+      </c>
+      <c r="L278" t="s">
+        <v>100</v>
+      </c>
+      <c r="M278" t="s">
+        <v>57</v>
+      </c>
+      <c r="N278" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="279" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="B279" t="s">
+        <v>265</v>
+      </c>
+      <c r="D279" t="s">
+        <v>221</v>
+      </c>
+      <c r="E279" t="s">
+        <v>73</v>
+      </c>
+      <c r="F279">
+        <v>15</v>
+      </c>
+      <c r="H279" t="s">
+        <v>72</v>
+      </c>
+      <c r="I279">
+        <v>1</v>
+      </c>
+      <c r="J279" t="s">
+        <v>74</v>
+      </c>
+      <c r="K279">
+        <v>1</v>
+      </c>
+      <c r="L279" t="s">
+        <v>100</v>
+      </c>
+      <c r="M279" t="s">
+        <v>57</v>
+      </c>
+      <c r="R279" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="280" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="D280" t="s">
+        <v>266</v>
+      </c>
+      <c r="E280" t="s">
+        <v>73</v>
+      </c>
+      <c r="F280">
+        <v>9</v>
+      </c>
+      <c r="H280" t="s">
+        <v>72</v>
+      </c>
+      <c r="J280" t="s">
+        <v>144</v>
+      </c>
+      <c r="K280">
+        <v>3</v>
+      </c>
+      <c r="L280" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="281" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="D281" t="s">
+        <v>266</v>
+      </c>
+      <c r="E281" t="s">
+        <v>73</v>
+      </c>
+      <c r="F281">
+        <v>9</v>
+      </c>
+      <c r="H281" t="s">
+        <v>72</v>
+      </c>
+      <c r="J281" t="s">
+        <v>74</v>
+      </c>
+      <c r="K281">
+        <v>5</v>
+      </c>
+      <c r="L281" t="s">
+        <v>100</v>
+      </c>
+      <c r="M281" t="s">
+        <v>57</v>
+      </c>
+      <c r="N281" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="282" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="D282" t="s">
+        <v>266</v>
+      </c>
+      <c r="E282" t="s">
+        <v>73</v>
+      </c>
+      <c r="F282">
+        <v>9</v>
+      </c>
+      <c r="H282" t="s">
+        <v>72</v>
+      </c>
+      <c r="J282" t="s">
+        <v>74</v>
+      </c>
+      <c r="K282">
+        <v>1</v>
+      </c>
+      <c r="L282" t="s">
+        <v>100</v>
+      </c>
+      <c r="M282" t="s">
+        <v>57</v>
+      </c>
+      <c r="N282" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="283" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="D283" t="s">
+        <v>266</v>
+      </c>
+      <c r="E283" t="s">
+        <v>73</v>
+      </c>
+      <c r="F283">
+        <v>9</v>
+      </c>
+      <c r="H283" t="s">
+        <v>72</v>
+      </c>
+      <c r="J283" t="s">
+        <v>74</v>
+      </c>
+      <c r="K283">
+        <v>1</v>
+      </c>
+      <c r="L283" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="284" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="D284" t="s">
+        <v>266</v>
+      </c>
+      <c r="E284" t="s">
+        <v>73</v>
+      </c>
+      <c r="F284">
+        <v>9</v>
+      </c>
+      <c r="H284" t="s">
+        <v>72</v>
+      </c>
+      <c r="J284" t="s">
+        <v>74</v>
+      </c>
+      <c r="K284">
+        <v>1</v>
+      </c>
+      <c r="L284" t="s">
+        <v>61</v>
+      </c>
+      <c r="M284" t="s">
+        <v>76</v>
+      </c>
+      <c r="P284" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="285" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="D285" t="s">
+        <v>266</v>
+      </c>
+      <c r="E285" t="s">
+        <v>73</v>
+      </c>
+      <c r="F285">
+        <v>9</v>
+      </c>
+      <c r="G285" t="s">
+        <v>96</v>
+      </c>
+      <c r="H285" t="s">
+        <v>97</v>
+      </c>
+      <c r="I285">
+        <v>2</v>
+      </c>
+      <c r="J285" t="s">
+        <v>74</v>
+      </c>
+      <c r="K285">
+        <v>3</v>
+      </c>
+      <c r="L285" t="s">
+        <v>61</v>
+      </c>
+      <c r="M285" t="s">
+        <v>76</v>
+      </c>
+      <c r="P285" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="286" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="D286" t="s">
+        <v>266</v>
+      </c>
+      <c r="E286" t="s">
+        <v>73</v>
+      </c>
+      <c r="F286">
+        <v>9</v>
+      </c>
+      <c r="G286" t="s">
+        <v>96</v>
+      </c>
+      <c r="H286" t="s">
+        <v>97</v>
+      </c>
+      <c r="I286" t="s">
+        <v>268</v>
+      </c>
+      <c r="J286" t="s">
+        <v>74</v>
+      </c>
+      <c r="K286">
+        <v>3</v>
+      </c>
+      <c r="L286" t="s">
+        <v>100</v>
+      </c>
+      <c r="M286" t="s">
+        <v>57</v>
+      </c>
+      <c r="N286" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="287" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="D287" t="s">
+        <v>266</v>
+      </c>
+      <c r="E287" t="s">
+        <v>73</v>
+      </c>
+      <c r="F287">
+        <v>9</v>
+      </c>
+      <c r="I287" t="s">
+        <v>267</v>
+      </c>
+      <c r="J287" t="s">
+        <v>74</v>
+      </c>
+      <c r="K287">
+        <v>1</v>
+      </c>
+      <c r="L287" t="s">
+        <v>100</v>
+      </c>
+      <c r="M287" t="s">
+        <v>57</v>
+      </c>
+      <c r="N287" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="288" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="D288" t="s">
+        <v>266</v>
+      </c>
+      <c r="E288" t="s">
+        <v>73</v>
+      </c>
+      <c r="F288">
+        <v>9</v>
+      </c>
+      <c r="G288" t="s">
+        <v>96</v>
+      </c>
+      <c r="H288" t="s">
+        <v>97</v>
+      </c>
+      <c r="I288">
+        <v>1</v>
+      </c>
+      <c r="J288" t="s">
+        <v>74</v>
+      </c>
+      <c r="K288">
+        <v>1</v>
+      </c>
+      <c r="L288" t="s">
+        <v>100</v>
+      </c>
+      <c r="M288" t="s">
+        <v>57</v>
+      </c>
+      <c r="N288" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="289" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="D289" t="s">
+        <v>266</v>
+      </c>
+      <c r="E289" t="s">
+        <v>73</v>
+      </c>
+      <c r="F289">
+        <v>9</v>
+      </c>
+      <c r="G289" t="s">
+        <v>96</v>
+      </c>
+      <c r="H289" t="s">
+        <v>97</v>
+      </c>
+      <c r="I289">
+        <v>8</v>
+      </c>
+      <c r="J289" t="s">
+        <v>74</v>
+      </c>
+      <c r="K289">
+        <v>1</v>
+      </c>
+      <c r="L289" t="s">
+        <v>100</v>
+      </c>
+      <c r="M289" t="s">
+        <v>57</v>
+      </c>
+      <c r="N289" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="290" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="D290" t="s">
+        <v>266</v>
+      </c>
+      <c r="E290" t="s">
+        <v>73</v>
+      </c>
+      <c r="F290">
+        <v>9</v>
+      </c>
+      <c r="G290" t="s">
+        <v>96</v>
+      </c>
+      <c r="H290" t="s">
+        <v>97</v>
+      </c>
+      <c r="I290">
+        <v>8</v>
+      </c>
+      <c r="J290" t="s">
+        <v>74</v>
+      </c>
+      <c r="K290">
+        <v>1</v>
+      </c>
+      <c r="L290" t="s">
+        <v>100</v>
+      </c>
+      <c r="M290" t="s">
+        <v>57</v>
+      </c>
+      <c r="N290" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="291" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="D291" t="s">
+        <v>266</v>
+      </c>
+      <c r="E291" t="s">
+        <v>73</v>
+      </c>
+      <c r="F291">
+        <v>9</v>
+      </c>
+      <c r="G291" t="s">
+        <v>96</v>
+      </c>
+      <c r="H291" t="s">
+        <v>97</v>
+      </c>
+      <c r="I291">
+        <v>10</v>
+      </c>
+      <c r="J291" t="s">
+        <v>74</v>
+      </c>
+      <c r="K291">
+        <v>1</v>
+      </c>
+      <c r="L291" t="s">
+        <v>100</v>
+      </c>
+      <c r="M291" t="s">
+        <v>57</v>
+      </c>
+      <c r="N291" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="292" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="D292" t="s">
+        <v>266</v>
+      </c>
+      <c r="E292" t="s">
+        <v>73</v>
+      </c>
+      <c r="F292">
+        <v>9</v>
+      </c>
+      <c r="G292" t="s">
+        <v>96</v>
+      </c>
+      <c r="H292" t="s">
+        <v>97</v>
+      </c>
+      <c r="I292">
+        <v>10</v>
+      </c>
+      <c r="J292" t="s">
+        <v>74</v>
+      </c>
+      <c r="K292">
+        <v>1</v>
+      </c>
+      <c r="L292" t="s">
+        <v>61</v>
+      </c>
+      <c r="M292" t="s">
+        <v>76</v>
+      </c>
+      <c r="P292" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="293" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="D293" t="s">
+        <v>266</v>
+      </c>
+      <c r="E293" t="s">
+        <v>73</v>
+      </c>
+      <c r="F293">
+        <v>9</v>
+      </c>
+      <c r="G293" t="s">
+        <v>96</v>
+      </c>
+      <c r="H293" t="s">
+        <v>97</v>
+      </c>
+      <c r="I293">
+        <v>7</v>
+      </c>
+      <c r="J293" t="s">
+        <v>74</v>
+      </c>
+      <c r="K293">
+        <v>1</v>
+      </c>
+      <c r="L293" t="s">
+        <v>100</v>
+      </c>
+      <c r="M293" t="s">
+        <v>57</v>
+      </c>
+      <c r="N293" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="294" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="D294" t="s">
+        <v>266</v>
+      </c>
+      <c r="E294" t="s">
+        <v>73</v>
+      </c>
+      <c r="F294">
+        <v>9</v>
+      </c>
+      <c r="G294" t="s">
+        <v>96</v>
+      </c>
+      <c r="H294" t="s">
+        <v>97</v>
+      </c>
+      <c r="I294">
+        <v>3</v>
+      </c>
+      <c r="J294" t="s">
+        <v>74</v>
+      </c>
+      <c r="K294">
+        <v>5</v>
+      </c>
+      <c r="L294" t="s">
+        <v>100</v>
+      </c>
+      <c r="M294" t="s">
+        <v>57</v>
+      </c>
+      <c r="N294" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="295" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="D295" t="s">
+        <v>115</v>
+      </c>
+      <c r="E295" t="s">
+        <v>73</v>
+      </c>
+      <c r="F295">
+        <v>21</v>
+      </c>
+      <c r="G295" t="s">
+        <v>88</v>
+      </c>
+      <c r="H295" t="s">
+        <v>89</v>
+      </c>
+      <c r="I295">
+        <v>6</v>
+      </c>
+      <c r="J295" t="s">
+        <v>144</v>
+      </c>
+      <c r="K295">
+        <v>1</v>
+      </c>
+      <c r="L295" t="s">
+        <v>135</v>
+      </c>
+      <c r="M295" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="296" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="B296" t="s">
+        <v>270</v>
+      </c>
+      <c r="D296" t="s">
+        <v>115</v>
+      </c>
+      <c r="E296" t="s">
+        <v>73</v>
+      </c>
+      <c r="F296">
+        <v>21</v>
+      </c>
+      <c r="G296" t="s">
+        <v>96</v>
+      </c>
+      <c r="H296" t="s">
+        <v>97</v>
+      </c>
+      <c r="I296">
+        <v>10</v>
+      </c>
+      <c r="J296" t="s">
+        <v>74</v>
+      </c>
+      <c r="K296">
+        <v>1</v>
+      </c>
+      <c r="L296" t="s">
+        <v>135</v>
+      </c>
+      <c r="M296" t="s">
+        <v>269</v>
+      </c>
+      <c r="P296" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="297" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="D297" t="s">
+        <v>115</v>
+      </c>
+      <c r="E297" t="s">
+        <v>73</v>
+      </c>
+      <c r="F297">
+        <v>21</v>
+      </c>
+      <c r="G297" t="s">
+        <v>88</v>
+      </c>
+      <c r="H297" t="s">
+        <v>89</v>
+      </c>
+      <c r="I297">
+        <v>4</v>
+      </c>
+      <c r="J297" t="s">
+        <v>144</v>
+      </c>
+      <c r="K297">
+        <v>1</v>
+      </c>
+      <c r="L297" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="298" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="D298" t="s">
+        <v>115</v>
+      </c>
+      <c r="E298" t="s">
+        <v>73</v>
+      </c>
+      <c r="F298">
+        <v>21</v>
+      </c>
+      <c r="G298" t="s">
+        <v>88</v>
+      </c>
+      <c r="H298" t="s">
+        <v>89</v>
+      </c>
+      <c r="I298">
+        <v>10</v>
+      </c>
+      <c r="J298" t="s">
+        <v>144</v>
+      </c>
+      <c r="K298">
+        <v>3</v>
+      </c>
+      <c r="L298" t="s">
+        <v>135</v>
+      </c>
+      <c r="M298" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="299" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="D299" t="s">
+        <v>115</v>
+      </c>
+      <c r="E299" t="s">
+        <v>73</v>
+      </c>
+      <c r="F299">
+        <v>21</v>
+      </c>
+      <c r="G299" t="s">
+        <v>88</v>
+      </c>
+      <c r="H299" t="s">
+        <v>89</v>
+      </c>
+      <c r="I299">
+        <v>10</v>
+      </c>
+      <c r="J299" t="s">
+        <v>144</v>
+      </c>
+      <c r="K299">
+        <v>3</v>
+      </c>
+      <c r="L299" t="s">
+        <v>149</v>
+      </c>
+      <c r="M299" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="300" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="D300" t="s">
+        <v>115</v>
+      </c>
+      <c r="E300" t="s">
+        <v>73</v>
+      </c>
+      <c r="F300">
+        <v>21</v>
+      </c>
+      <c r="G300" t="s">
+        <v>88</v>
+      </c>
+      <c r="H300" t="s">
+        <v>89</v>
+      </c>
+      <c r="I300">
+        <v>10</v>
+      </c>
+      <c r="J300" t="s">
+        <v>144</v>
+      </c>
+      <c r="K300">
+        <v>2</v>
+      </c>
+      <c r="L300" t="s">
+        <v>135</v>
+      </c>
+      <c r="M300" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="301" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="D301" t="s">
+        <v>115</v>
+      </c>
+      <c r="E301" t="s">
+        <v>73</v>
+      </c>
+      <c r="F301">
+        <v>21</v>
+      </c>
+      <c r="G301" t="s">
+        <v>88</v>
+      </c>
+      <c r="H301" t="s">
+        <v>89</v>
+      </c>
+      <c r="I301">
+        <v>10</v>
+      </c>
+      <c r="J301" t="s">
+        <v>144</v>
+      </c>
+      <c r="K301">
+        <v>1</v>
+      </c>
+      <c r="L301" t="s">
+        <v>135</v>
+      </c>
+      <c r="R301" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="302" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="D302" t="s">
+        <v>115</v>
+      </c>
+      <c r="E302" t="s">
+        <v>73</v>
+      </c>
+      <c r="F302">
+        <v>21</v>
+      </c>
+      <c r="G302" t="s">
+        <v>96</v>
+      </c>
+      <c r="H302" t="s">
+        <v>89</v>
+      </c>
+      <c r="I302">
+        <v>10</v>
+      </c>
+      <c r="J302" t="s">
+        <v>74</v>
+      </c>
+      <c r="K302">
+        <v>1</v>
+      </c>
+      <c r="L302" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="303" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="D303" t="s">
+        <v>115</v>
+      </c>
+      <c r="E303" t="s">
+        <v>73</v>
+      </c>
+      <c r="F303">
+        <v>21</v>
+      </c>
+      <c r="H303" t="s">
+        <v>72</v>
+      </c>
+      <c r="I303">
+        <v>1</v>
+      </c>
+      <c r="J303" t="s">
+        <v>74</v>
+      </c>
+      <c r="K303">
+        <v>1</v>
+      </c>
+      <c r="L303" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="304" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="D304" t="s">
+        <v>115</v>
+      </c>
+      <c r="E304" t="s">
+        <v>73</v>
+      </c>
+      <c r="F304">
+        <v>21</v>
+      </c>
+      <c r="H304" t="s">
+        <v>72</v>
+      </c>
+      <c r="I304">
+        <v>1</v>
+      </c>
+      <c r="J304" t="s">
+        <v>74</v>
+      </c>
+      <c r="K304">
+        <v>5</v>
+      </c>
+      <c r="L304" t="s">
+        <v>100</v>
+      </c>
+      <c r="M304" t="s">
+        <v>57</v>
+      </c>
+      <c r="N304" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="305" spans="4:18" x14ac:dyDescent="0.35">
+      <c r="D305" t="s">
+        <v>115</v>
+      </c>
+      <c r="E305" t="s">
+        <v>73</v>
+      </c>
+      <c r="F305">
+        <v>21</v>
+      </c>
+      <c r="H305" t="s">
+        <v>72</v>
+      </c>
+      <c r="I305">
+        <v>1</v>
+      </c>
+      <c r="J305" t="s">
+        <v>74</v>
+      </c>
+      <c r="K305">
+        <v>1</v>
+      </c>
+      <c r="L305" t="s">
+        <v>100</v>
+      </c>
+      <c r="M305" t="s">
+        <v>57</v>
+      </c>
+      <c r="N305" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="306" spans="4:18" x14ac:dyDescent="0.35">
+      <c r="D306" t="s">
+        <v>115</v>
+      </c>
+      <c r="E306" t="s">
+        <v>73</v>
+      </c>
+      <c r="F306">
+        <v>21</v>
+      </c>
+      <c r="H306" t="s">
+        <v>72</v>
+      </c>
+      <c r="I306">
+        <v>1</v>
+      </c>
+      <c r="J306" t="s">
+        <v>74</v>
+      </c>
+      <c r="K306">
+        <v>1</v>
+      </c>
+      <c r="L306" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="307" spans="4:18" x14ac:dyDescent="0.35">
+      <c r="D307" t="s">
+        <v>115</v>
+      </c>
+      <c r="E307" t="s">
+        <v>73</v>
+      </c>
+      <c r="F307">
+        <v>21</v>
+      </c>
+      <c r="G307" t="s">
+        <v>88</v>
+      </c>
+      <c r="H307" t="s">
+        <v>89</v>
+      </c>
+      <c r="I307">
+        <v>8</v>
+      </c>
+      <c r="J307" t="s">
+        <v>144</v>
+      </c>
+      <c r="K307">
+        <v>2</v>
+      </c>
+      <c r="L307" t="s">
+        <v>135</v>
+      </c>
+      <c r="M307" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="308" spans="4:18" x14ac:dyDescent="0.35">
+      <c r="D308" t="s">
+        <v>115</v>
+      </c>
+      <c r="E308" t="s">
+        <v>73</v>
+      </c>
+      <c r="F308">
+        <v>21</v>
+      </c>
+      <c r="G308" t="s">
+        <v>88</v>
+      </c>
+      <c r="H308" t="s">
+        <v>89</v>
+      </c>
+      <c r="I308">
+        <v>8</v>
+      </c>
+      <c r="J308" t="s">
+        <v>74</v>
+      </c>
+      <c r="K308">
+        <v>1</v>
+      </c>
+      <c r="L308" t="s">
+        <v>100</v>
+      </c>
+      <c r="M308" t="s">
+        <v>57</v>
+      </c>
+      <c r="N308" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="309" spans="4:18" x14ac:dyDescent="0.35">
+      <c r="D309" t="s">
+        <v>115</v>
+      </c>
+      <c r="E309" t="s">
+        <v>73</v>
+      </c>
+      <c r="F309">
+        <v>21</v>
+      </c>
+      <c r="G309" t="s">
+        <v>88</v>
+      </c>
+      <c r="H309" t="s">
+        <v>89</v>
+      </c>
+      <c r="I309">
+        <v>8</v>
+      </c>
+      <c r="J309" t="s">
+        <v>74</v>
+      </c>
+      <c r="K309">
+        <v>1</v>
+      </c>
+      <c r="L309" t="s">
+        <v>79</v>
+      </c>
+      <c r="M309" t="s">
+        <v>80</v>
+      </c>
+      <c r="R309" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="310" spans="4:18" x14ac:dyDescent="0.35">
+      <c r="D310" t="s">
+        <v>115</v>
+      </c>
+      <c r="E310" t="s">
+        <v>73</v>
+      </c>
+      <c r="F310">
+        <v>21</v>
+      </c>
+      <c r="G310" t="s">
+        <v>88</v>
+      </c>
+      <c r="H310" t="s">
+        <v>89</v>
+      </c>
+      <c r="I310">
+        <v>2</v>
+      </c>
+      <c r="J310" t="s">
+        <v>144</v>
+      </c>
+      <c r="K310">
+        <v>4</v>
+      </c>
+      <c r="L310" t="s">
+        <v>135</v>
+      </c>
+      <c r="M310" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="311" spans="4:18" x14ac:dyDescent="0.35">
+      <c r="D311" t="s">
+        <v>115</v>
+      </c>
+      <c r="E311" t="s">
+        <v>73</v>
+      </c>
+      <c r="F311">
+        <v>21</v>
+      </c>
+      <c r="G311" t="s">
+        <v>96</v>
+      </c>
+      <c r="H311" t="s">
+        <v>89</v>
+      </c>
+      <c r="I311">
+        <v>9</v>
+      </c>
+      <c r="J311" t="s">
+        <v>74</v>
+      </c>
+      <c r="K311">
+        <v>1</v>
+      </c>
+      <c r="L311" t="s">
+        <v>100</v>
+      </c>
+      <c r="M311" t="s">
+        <v>57</v>
+      </c>
+      <c r="N311" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="312" spans="4:18" x14ac:dyDescent="0.35">
+      <c r="D312" t="s">
+        <v>115</v>
+      </c>
+      <c r="E312" t="s">
+        <v>73</v>
+      </c>
+      <c r="F312">
+        <v>21</v>
+      </c>
+      <c r="G312" t="s">
+        <v>88</v>
+      </c>
+      <c r="H312" t="s">
+        <v>89</v>
+      </c>
+      <c r="I312">
+        <v>3</v>
+      </c>
+      <c r="J312" t="s">
+        <v>144</v>
+      </c>
+      <c r="K312">
+        <v>2</v>
+      </c>
+      <c r="L312" t="s">
+        <v>135</v>
+      </c>
+      <c r="M312" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="313" spans="4:18" x14ac:dyDescent="0.35">
+      <c r="D313" t="s">
+        <v>115</v>
+      </c>
+      <c r="E313" t="s">
+        <v>73</v>
+      </c>
+      <c r="F313">
+        <v>21</v>
+      </c>
+      <c r="G313" t="s">
+        <v>88</v>
+      </c>
+      <c r="H313" t="s">
+        <v>89</v>
+      </c>
+      <c r="I313">
+        <v>7</v>
+      </c>
+      <c r="J313" t="s">
+        <v>144</v>
+      </c>
+      <c r="K313">
+        <v>1</v>
+      </c>
+      <c r="L313" t="s">
+        <v>135</v>
+      </c>
+      <c r="R313" t="s">
+        <v>275</v>
       </c>
     </row>
   </sheetData>
@@ -9177,10 +12060,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P8"/>
+  <dimension ref="A1:P11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -9243,6 +12126,14 @@
       </c>
       <c r="P8" t="s">
         <v>85</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>272</v>
+      </c>
+      <c r="B11" t="s">
+        <v>273</v>
       </c>
     </row>
   </sheetData>

--- a/Raw Data/Arthropod_data.xlsx
+++ b/Raw Data/Arthropod_data.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4082" uniqueCount="320">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5823" uniqueCount="365">
   <si>
     <t>location</t>
   </si>
@@ -979,10 +979,145 @@
     <t>was in the CaSL bag</t>
   </si>
   <si>
-    <t>LMAL</t>
-  </si>
-  <si>
     <t>changed big to ET, left small in PG</t>
+  </si>
+  <si>
+    <t>Thomisdae?</t>
+  </si>
+  <si>
+    <t>Harmostes?</t>
+  </si>
+  <si>
+    <t>Coccinelidae</t>
+  </si>
+  <si>
+    <t>looks like Hyperaspidius simulatus</t>
+  </si>
+  <si>
+    <t>Acari?</t>
+  </si>
+  <si>
+    <t>Pheidole?</t>
+  </si>
+  <si>
+    <t>2 types</t>
+  </si>
+  <si>
+    <t>Theridiidae</t>
+  </si>
+  <si>
+    <t>Latrodectus hesperus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Latrodectus </t>
+  </si>
+  <si>
+    <t>Lasioglossum?</t>
+  </si>
+  <si>
+    <t>Thomisidae</t>
+  </si>
+  <si>
+    <t>larva</t>
+  </si>
+  <si>
+    <t>Tingidae</t>
+  </si>
+  <si>
+    <t>tiny</t>
+  </si>
+  <si>
+    <t>covered in mites</t>
+  </si>
+  <si>
+    <t>SiCr003PG</t>
+  </si>
+  <si>
+    <t>dated July 21 but in 22 bag</t>
+  </si>
+  <si>
+    <t>Oedpinae?</t>
+  </si>
+  <si>
+    <t>pineed</t>
+  </si>
+  <si>
+    <t>Chlorochroa?</t>
+  </si>
+  <si>
+    <t>Not say's</t>
+  </si>
+  <si>
+    <t>Oxyopidae</t>
+  </si>
+  <si>
+    <t>Peucetia</t>
+  </si>
+  <si>
+    <t>Reduviidae</t>
+  </si>
+  <si>
+    <t>Viridis?</t>
+  </si>
+  <si>
+    <t>green, immature</t>
+  </si>
+  <si>
+    <t>longnose</t>
+  </si>
+  <si>
+    <t>Richard/Teph etc</t>
+  </si>
+  <si>
+    <t>PaPL-J27-FF-1</t>
+  </si>
+  <si>
+    <t>PaPl</t>
+  </si>
+  <si>
+    <t>2 big tubes, many ants</t>
+  </si>
+  <si>
+    <t>Mov</t>
+  </si>
+  <si>
+    <t>Mov-J28-O10-SS-1</t>
+  </si>
+  <si>
+    <t>red and white</t>
+  </si>
+  <si>
+    <t>Crabronidae??</t>
+  </si>
+  <si>
+    <t>new wasp to me</t>
+  </si>
+  <si>
+    <t>like a mini asilid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aug </t>
+  </si>
+  <si>
+    <t>Membracidae?</t>
+  </si>
+  <si>
+    <t>Pompilidae?</t>
+  </si>
+  <si>
+    <t>head off</t>
+  </si>
+  <si>
+    <t>Pipunculidae</t>
+  </si>
+  <si>
+    <t>Bethylidae?</t>
+  </si>
+  <si>
+    <t>Blattodea</t>
+  </si>
+  <si>
+    <t>white abdomen black spots</t>
   </si>
 </sst>
 </file>
@@ -1317,11 +1452,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T814"/>
+  <dimension ref="A1:T882"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A588" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G608" sqref="G608"/>
+      <pane ySplit="1" topLeftCell="A863" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B879" sqref="B879"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -20829,7 +20964,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="593" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="593" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A593">
         <v>593</v>
       </c>
@@ -20855,7 +20990,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="594" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="594" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A594">
         <v>594</v>
       </c>
@@ -20881,7 +21016,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="595" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="595" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A595">
         <v>595</v>
       </c>
@@ -20907,7 +21042,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="596" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="596" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A596">
         <v>596</v>
       </c>
@@ -20933,7 +21068,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="597" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="597" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A597">
         <v>597</v>
       </c>
@@ -20959,7 +21094,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="598" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="598" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A598">
         <v>598</v>
       </c>
@@ -20985,7 +21120,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="599" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="599" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A599">
         <v>599</v>
       </c>
@@ -21014,7 +21149,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="600" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="600" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A600">
         <v>600</v>
       </c>
@@ -21040,7 +21175,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="601" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="601" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A601">
         <v>601</v>
       </c>
@@ -21066,7 +21201,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="602" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="602" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A602">
         <v>602</v>
       </c>
@@ -21092,7 +21227,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="603" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="603" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A603">
         <v>603</v>
       </c>
@@ -21118,7 +21253,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="604" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="604" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A604">
         <v>604</v>
       </c>
@@ -21144,7 +21279,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="605" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="605" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A605">
         <v>605</v>
       </c>
@@ -21170,7 +21305,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="606" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="606" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A606">
         <v>606</v>
       </c>
@@ -21196,7 +21331,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="607" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="607" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A607">
         <v>607</v>
       </c>
@@ -21213,1045 +21348,8552 @@
         <v>95</v>
       </c>
       <c r="H607" t="s">
+        <v>200</v>
+      </c>
+      <c r="J607" t="s">
         <v>318</v>
       </c>
-      <c r="J607" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="608" spans="1:11" x14ac:dyDescent="0.35">
+    </row>
+    <row r="608" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A608">
         <v>608</v>
       </c>
-    </row>
-    <row r="609" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="D608" t="s">
+        <v>114</v>
+      </c>
+      <c r="E608" t="s">
+        <v>98</v>
+      </c>
+      <c r="F608">
+        <v>22</v>
+      </c>
+      <c r="G608" t="s">
+        <v>88</v>
+      </c>
+      <c r="H608" t="s">
+        <v>89</v>
+      </c>
+      <c r="I608">
+        <v>3</v>
+      </c>
+      <c r="J608" t="s">
+        <v>143</v>
+      </c>
+      <c r="K608">
+        <v>1</v>
+      </c>
+      <c r="L608" t="s">
+        <v>134</v>
+      </c>
+      <c r="M608" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="609" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A609">
         <v>609</v>
       </c>
-    </row>
-    <row r="610" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="D609" t="s">
+        <v>114</v>
+      </c>
+      <c r="E609" t="s">
+        <v>98</v>
+      </c>
+      <c r="F609">
+        <v>22</v>
+      </c>
+      <c r="G609" t="s">
+        <v>88</v>
+      </c>
+      <c r="H609" t="s">
+        <v>89</v>
+      </c>
+      <c r="I609">
+        <v>3</v>
+      </c>
+      <c r="J609" t="s">
+        <v>143</v>
+      </c>
+      <c r="K609">
+        <v>1</v>
+      </c>
+      <c r="L609" t="s">
+        <v>148</v>
+      </c>
+      <c r="M609" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="610" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A610">
         <v>610</v>
       </c>
-    </row>
-    <row r="611" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="D610" t="s">
+        <v>114</v>
+      </c>
+      <c r="E610" t="s">
+        <v>98</v>
+      </c>
+      <c r="F610">
+        <v>22</v>
+      </c>
+      <c r="G610" t="s">
+        <v>88</v>
+      </c>
+      <c r="H610" t="s">
+        <v>89</v>
+      </c>
+      <c r="I610">
+        <v>3</v>
+      </c>
+      <c r="J610" t="s">
+        <v>143</v>
+      </c>
+      <c r="K610">
+        <v>1</v>
+      </c>
+      <c r="L610" t="s">
+        <v>134</v>
+      </c>
+      <c r="R610" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="611" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A611">
         <v>611</v>
       </c>
-    </row>
-    <row r="612" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="D611" t="s">
+        <v>114</v>
+      </c>
+      <c r="E611" t="s">
+        <v>98</v>
+      </c>
+      <c r="F611">
+        <v>22</v>
+      </c>
+      <c r="G611" t="s">
+        <v>88</v>
+      </c>
+      <c r="H611" t="s">
+        <v>89</v>
+      </c>
+      <c r="I611">
+        <v>10</v>
+      </c>
+      <c r="J611" t="s">
+        <v>143</v>
+      </c>
+      <c r="K611">
+        <v>1</v>
+      </c>
+      <c r="L611" t="s">
+        <v>134</v>
+      </c>
+      <c r="P611" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="612" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A612">
         <v>612</v>
       </c>
-    </row>
-    <row r="613" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="D612" t="s">
+        <v>114</v>
+      </c>
+      <c r="E612" t="s">
+        <v>98</v>
+      </c>
+      <c r="F612">
+        <v>22</v>
+      </c>
+      <c r="G612" t="s">
+        <v>88</v>
+      </c>
+      <c r="H612" t="s">
+        <v>89</v>
+      </c>
+      <c r="I612">
+        <v>10</v>
+      </c>
+      <c r="J612" t="s">
+        <v>143</v>
+      </c>
+      <c r="K612">
+        <v>1</v>
+      </c>
+      <c r="L612" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="613" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A613">
         <v>613</v>
       </c>
-    </row>
-    <row r="614" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="D613" t="s">
+        <v>114</v>
+      </c>
+      <c r="E613" t="s">
+        <v>98</v>
+      </c>
+      <c r="F613">
+        <v>22</v>
+      </c>
+      <c r="G613" t="s">
+        <v>88</v>
+      </c>
+      <c r="H613" t="s">
+        <v>89</v>
+      </c>
+      <c r="I613">
+        <v>10</v>
+      </c>
+      <c r="J613" t="s">
+        <v>143</v>
+      </c>
+      <c r="K613">
+        <v>1</v>
+      </c>
+      <c r="L613" t="s">
+        <v>134</v>
+      </c>
+      <c r="M613" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="614" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A614">
         <v>614</v>
       </c>
-    </row>
-    <row r="615" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="D614" t="s">
+        <v>114</v>
+      </c>
+      <c r="E614" t="s">
+        <v>98</v>
+      </c>
+      <c r="F614">
+        <v>22</v>
+      </c>
+      <c r="G614" t="s">
+        <v>88</v>
+      </c>
+      <c r="H614" t="s">
+        <v>89</v>
+      </c>
+      <c r="I614">
+        <v>9</v>
+      </c>
+      <c r="J614" t="s">
+        <v>143</v>
+      </c>
+      <c r="K614">
+        <v>1</v>
+      </c>
+      <c r="L614" t="s">
+        <v>134</v>
+      </c>
+      <c r="M614" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="615" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A615">
         <v>615</v>
       </c>
-    </row>
-    <row r="616" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="D615" t="s">
+        <v>114</v>
+      </c>
+      <c r="E615" t="s">
+        <v>98</v>
+      </c>
+      <c r="F615">
+        <v>22</v>
+      </c>
+      <c r="G615" t="s">
+        <v>88</v>
+      </c>
+      <c r="H615" t="s">
+        <v>89</v>
+      </c>
+      <c r="I615">
+        <v>9</v>
+      </c>
+      <c r="J615" t="s">
+        <v>143</v>
+      </c>
+      <c r="K615">
+        <v>1</v>
+      </c>
+      <c r="L615" t="s">
+        <v>148</v>
+      </c>
+      <c r="M615" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="616" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A616">
         <v>616</v>
       </c>
-    </row>
-    <row r="617" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="D616" t="s">
+        <v>114</v>
+      </c>
+      <c r="E616" t="s">
+        <v>98</v>
+      </c>
+      <c r="F616">
+        <v>22</v>
+      </c>
+      <c r="G616" t="s">
+        <v>95</v>
+      </c>
+      <c r="H616" t="s">
+        <v>89</v>
+      </c>
+      <c r="I616">
+        <v>10</v>
+      </c>
+      <c r="J616" t="s">
+        <v>143</v>
+      </c>
+      <c r="K616">
+        <v>1</v>
+      </c>
+      <c r="L616" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="617" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A617">
         <v>617</v>
       </c>
-    </row>
-    <row r="618" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="D617" t="s">
+        <v>114</v>
+      </c>
+      <c r="E617" t="s">
+        <v>98</v>
+      </c>
+      <c r="F617">
+        <v>22</v>
+      </c>
+      <c r="G617" t="s">
+        <v>88</v>
+      </c>
+      <c r="H617" t="s">
+        <v>89</v>
+      </c>
+      <c r="I617">
+        <v>4</v>
+      </c>
+      <c r="J617" t="s">
+        <v>143</v>
+      </c>
+      <c r="K617">
+        <v>1</v>
+      </c>
+      <c r="L617" t="s">
+        <v>134</v>
+      </c>
+      <c r="M617" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="618" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A618">
         <v>618</v>
       </c>
-    </row>
-    <row r="619" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="D618" t="s">
+        <v>114</v>
+      </c>
+      <c r="E618" t="s">
+        <v>98</v>
+      </c>
+      <c r="F618">
+        <v>22</v>
+      </c>
+      <c r="G618" t="s">
+        <v>88</v>
+      </c>
+      <c r="H618" t="s">
+        <v>89</v>
+      </c>
+      <c r="I618">
+        <v>4</v>
+      </c>
+      <c r="J618" t="s">
+        <v>143</v>
+      </c>
+      <c r="K618">
+        <v>2</v>
+      </c>
+      <c r="L618" t="s">
+        <v>79</v>
+      </c>
+      <c r="M618" t="s">
+        <v>321</v>
+      </c>
+      <c r="Q618" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="619" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A619">
         <v>619</v>
       </c>
-    </row>
-    <row r="620" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="D619" t="s">
+        <v>114</v>
+      </c>
+      <c r="E619" t="s">
+        <v>98</v>
+      </c>
+      <c r="F619">
+        <v>22</v>
+      </c>
+      <c r="G619" t="s">
+        <v>88</v>
+      </c>
+      <c r="H619" t="s">
+        <v>89</v>
+      </c>
+      <c r="I619">
+        <v>6</v>
+      </c>
+      <c r="J619" t="s">
+        <v>143</v>
+      </c>
+      <c r="K619">
+        <v>1</v>
+      </c>
+      <c r="L619" t="s">
+        <v>79</v>
+      </c>
+      <c r="M619" t="s">
+        <v>321</v>
+      </c>
+      <c r="Q619" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="620" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A620">
         <v>620</v>
       </c>
-    </row>
-    <row r="621" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="D620" t="s">
+        <v>114</v>
+      </c>
+      <c r="E620" t="s">
+        <v>98</v>
+      </c>
+      <c r="F620">
+        <v>22</v>
+      </c>
+      <c r="G620" t="s">
+        <v>88</v>
+      </c>
+      <c r="H620" t="s">
+        <v>89</v>
+      </c>
+      <c r="I620">
+        <v>6</v>
+      </c>
+      <c r="J620" t="s">
+        <v>143</v>
+      </c>
+      <c r="K620">
+        <v>1</v>
+      </c>
+      <c r="L620" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="621" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A621">
         <v>621</v>
       </c>
-    </row>
-    <row r="622" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="D621" t="s">
+        <v>114</v>
+      </c>
+      <c r="E621" t="s">
+        <v>98</v>
+      </c>
+      <c r="F621">
+        <v>22</v>
+      </c>
+      <c r="G621" t="s">
+        <v>88</v>
+      </c>
+      <c r="H621" t="s">
+        <v>89</v>
+      </c>
+      <c r="I621">
+        <v>2</v>
+      </c>
+      <c r="J621" t="s">
+        <v>143</v>
+      </c>
+      <c r="K621">
+        <v>3</v>
+      </c>
+      <c r="L621" t="s">
+        <v>79</v>
+      </c>
+      <c r="M621" t="s">
+        <v>321</v>
+      </c>
+      <c r="Q621" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="622" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A622">
         <v>622</v>
       </c>
-    </row>
-    <row r="623" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="D622" t="s">
+        <v>114</v>
+      </c>
+      <c r="E622" t="s">
+        <v>98</v>
+      </c>
+      <c r="F622">
+        <v>22</v>
+      </c>
+      <c r="G622" t="s">
+        <v>88</v>
+      </c>
+      <c r="H622" t="s">
+        <v>89</v>
+      </c>
+      <c r="I622">
+        <v>2</v>
+      </c>
+      <c r="J622" t="s">
+        <v>143</v>
+      </c>
+      <c r="K622">
+        <v>1</v>
+      </c>
+      <c r="L622" t="s">
+        <v>323</v>
+      </c>
+      <c r="R622" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="623" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A623">
         <v>623</v>
       </c>
-    </row>
-    <row r="624" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="D623" t="s">
+        <v>114</v>
+      </c>
+      <c r="E623" t="s">
+        <v>98</v>
+      </c>
+      <c r="F623">
+        <v>22</v>
+      </c>
+      <c r="G623" t="s">
+        <v>88</v>
+      </c>
+      <c r="H623" t="s">
+        <v>89</v>
+      </c>
+      <c r="I623">
+        <v>2</v>
+      </c>
+      <c r="J623" t="s">
+        <v>143</v>
+      </c>
+      <c r="K623">
+        <v>1</v>
+      </c>
+      <c r="L623" t="s">
+        <v>75</v>
+      </c>
+      <c r="M623" t="s">
+        <v>145</v>
+      </c>
+      <c r="P623" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="624" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A624">
         <v>624</v>
       </c>
-    </row>
-    <row r="625" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="D624" t="s">
+        <v>114</v>
+      </c>
+      <c r="E624" t="s">
+        <v>98</v>
+      </c>
+      <c r="F624">
+        <v>22</v>
+      </c>
+      <c r="G624" t="s">
+        <v>88</v>
+      </c>
+      <c r="H624" t="s">
+        <v>89</v>
+      </c>
+      <c r="I624">
+        <v>5</v>
+      </c>
+      <c r="J624" t="s">
+        <v>143</v>
+      </c>
+      <c r="K624">
+        <v>1</v>
+      </c>
+      <c r="L624" t="s">
+        <v>134</v>
+      </c>
+      <c r="M624" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="625" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A625">
         <v>625</v>
       </c>
-    </row>
-    <row r="626" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="D625" t="s">
+        <v>114</v>
+      </c>
+      <c r="E625" t="s">
+        <v>98</v>
+      </c>
+      <c r="F625">
+        <v>22</v>
+      </c>
+      <c r="G625" t="s">
+        <v>88</v>
+      </c>
+      <c r="H625" t="s">
+        <v>89</v>
+      </c>
+      <c r="I625">
+        <v>5</v>
+      </c>
+      <c r="J625" t="s">
+        <v>143</v>
+      </c>
+      <c r="K625">
+        <v>1</v>
+      </c>
+      <c r="L625" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="626" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A626">
         <v>626</v>
       </c>
-    </row>
-    <row r="627" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="D626" t="s">
+        <v>114</v>
+      </c>
+      <c r="E626" t="s">
+        <v>98</v>
+      </c>
+      <c r="F626">
+        <v>22</v>
+      </c>
+      <c r="G626" t="s">
+        <v>88</v>
+      </c>
+      <c r="H626" t="s">
+        <v>89</v>
+      </c>
+      <c r="I626">
+        <v>5</v>
+      </c>
+      <c r="J626" t="s">
+        <v>143</v>
+      </c>
+      <c r="K626">
+        <v>1</v>
+      </c>
+      <c r="L626" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="627" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A627">
         <v>627</v>
       </c>
-    </row>
-    <row r="628" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="D627" t="s">
+        <v>114</v>
+      </c>
+      <c r="E627" t="s">
+        <v>98</v>
+      </c>
+      <c r="F627">
+        <v>22</v>
+      </c>
+      <c r="G627" t="s">
+        <v>95</v>
+      </c>
+      <c r="H627" t="s">
+        <v>89</v>
+      </c>
+      <c r="I627">
+        <v>6</v>
+      </c>
+      <c r="J627" t="s">
+        <v>143</v>
+      </c>
+      <c r="K627">
+        <v>1</v>
+      </c>
+      <c r="L627" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="628" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A628">
         <v>628</v>
       </c>
-    </row>
-    <row r="629" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="D628" t="s">
+        <v>114</v>
+      </c>
+      <c r="E628" t="s">
+        <v>98</v>
+      </c>
+      <c r="F628">
+        <v>22</v>
+      </c>
+      <c r="G628" t="s">
+        <v>88</v>
+      </c>
+      <c r="H628" t="s">
+        <v>89</v>
+      </c>
+      <c r="I628">
+        <v>8</v>
+      </c>
+      <c r="J628" t="s">
+        <v>143</v>
+      </c>
+      <c r="K628">
+        <v>2</v>
+      </c>
+      <c r="L628" t="s">
+        <v>134</v>
+      </c>
+      <c r="M628" t="s">
+        <v>224</v>
+      </c>
+      <c r="N628" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="629" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A629">
         <v>629</v>
       </c>
-    </row>
-    <row r="630" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="D629" t="s">
+        <v>114</v>
+      </c>
+      <c r="E629" t="s">
+        <v>98</v>
+      </c>
+      <c r="F629">
+        <v>22</v>
+      </c>
+      <c r="G629" t="s">
+        <v>95</v>
+      </c>
+      <c r="H629" t="s">
+        <v>89</v>
+      </c>
+      <c r="I629">
+        <v>2</v>
+      </c>
+      <c r="J629" t="s">
+        <v>143</v>
+      </c>
+      <c r="K629">
+        <v>1</v>
+      </c>
+      <c r="L629" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="630" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A630">
         <v>630</v>
       </c>
-    </row>
-    <row r="631" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="D630" t="s">
+        <v>114</v>
+      </c>
+      <c r="E630" t="s">
+        <v>98</v>
+      </c>
+      <c r="F630">
+        <v>22</v>
+      </c>
+      <c r="G630" t="s">
+        <v>88</v>
+      </c>
+      <c r="H630" t="s">
+        <v>89</v>
+      </c>
+      <c r="I630">
+        <v>7</v>
+      </c>
+      <c r="J630" t="s">
+        <v>143</v>
+      </c>
+      <c r="K630">
+        <v>1</v>
+      </c>
+      <c r="L630" t="s">
+        <v>148</v>
+      </c>
+      <c r="M630" t="s">
+        <v>326</v>
+      </c>
+      <c r="P630" t="s">
+        <v>328</v>
+      </c>
+      <c r="Q630" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="631" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A631">
         <v>631</v>
       </c>
-    </row>
-    <row r="632" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="D631" t="s">
+        <v>114</v>
+      </c>
+      <c r="E631" t="s">
+        <v>98</v>
+      </c>
+      <c r="F631">
+        <v>22</v>
+      </c>
+      <c r="G631" t="s">
+        <v>88</v>
+      </c>
+      <c r="H631" t="s">
+        <v>89</v>
+      </c>
+      <c r="I631">
+        <v>7</v>
+      </c>
+      <c r="J631" t="s">
+        <v>143</v>
+      </c>
+      <c r="K631">
+        <v>1</v>
+      </c>
+      <c r="L631" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="632" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A632">
         <v>632</v>
       </c>
-    </row>
-    <row r="633" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="D632" t="s">
+        <v>114</v>
+      </c>
+      <c r="E632" t="s">
+        <v>98</v>
+      </c>
+      <c r="F632">
+        <v>22</v>
+      </c>
+      <c r="H632" t="s">
+        <v>72</v>
+      </c>
+      <c r="J632" t="s">
+        <v>143</v>
+      </c>
+      <c r="K632">
+        <v>1</v>
+      </c>
+      <c r="L632" t="s">
+        <v>75</v>
+      </c>
+      <c r="P632" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="633" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A633">
         <v>633</v>
       </c>
-    </row>
-    <row r="634" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="D633" t="s">
+        <v>114</v>
+      </c>
+      <c r="E633" t="s">
+        <v>98</v>
+      </c>
+      <c r="F633">
+        <v>22</v>
+      </c>
+      <c r="H633" t="s">
+        <v>72</v>
+      </c>
+      <c r="J633" t="s">
+        <v>143</v>
+      </c>
+      <c r="K633">
+        <v>1</v>
+      </c>
+      <c r="L633" t="s">
+        <v>148</v>
+      </c>
+      <c r="M633" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="634" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A634">
         <v>634</v>
       </c>
-    </row>
-    <row r="635" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="D634" t="s">
+        <v>71</v>
+      </c>
+      <c r="E634" t="s">
+        <v>73</v>
+      </c>
+      <c r="F634">
+        <v>22</v>
+      </c>
+      <c r="G634" t="s">
+        <v>88</v>
+      </c>
+      <c r="H634" t="s">
+        <v>89</v>
+      </c>
+      <c r="I634">
+        <v>2</v>
+      </c>
+      <c r="J634" t="s">
+        <v>143</v>
+      </c>
+      <c r="K634">
+        <v>2</v>
+      </c>
+      <c r="L634" t="s">
+        <v>148</v>
+      </c>
+      <c r="M634" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="635" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A635">
         <v>635</v>
       </c>
-    </row>
-    <row r="636" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="D635" t="s">
+        <v>71</v>
+      </c>
+      <c r="E635" t="s">
+        <v>73</v>
+      </c>
+      <c r="F635">
+        <v>22</v>
+      </c>
+      <c r="G635" t="s">
+        <v>88</v>
+      </c>
+      <c r="H635" t="s">
+        <v>89</v>
+      </c>
+      <c r="I635">
+        <v>2</v>
+      </c>
+      <c r="J635" t="s">
+        <v>143</v>
+      </c>
+      <c r="K635">
+        <v>2</v>
+      </c>
+      <c r="L635" t="s">
+        <v>134</v>
+      </c>
+      <c r="M635" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="636" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A636">
         <v>636</v>
       </c>
-    </row>
-    <row r="637" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="D636" t="s">
+        <v>71</v>
+      </c>
+      <c r="E636" t="s">
+        <v>73</v>
+      </c>
+      <c r="F636">
+        <v>22</v>
+      </c>
+      <c r="G636" t="s">
+        <v>88</v>
+      </c>
+      <c r="H636" t="s">
+        <v>89</v>
+      </c>
+      <c r="I636">
+        <v>2</v>
+      </c>
+      <c r="J636" t="s">
+        <v>143</v>
+      </c>
+      <c r="K636">
+        <v>1</v>
+      </c>
+      <c r="L636" t="s">
+        <v>134</v>
+      </c>
+      <c r="M636" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="637" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A637">
         <v>637</v>
       </c>
-    </row>
-    <row r="638" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="D637" t="s">
+        <v>71</v>
+      </c>
+      <c r="E637" t="s">
+        <v>73</v>
+      </c>
+      <c r="F637">
+        <v>22</v>
+      </c>
+      <c r="G637" t="s">
+        <v>88</v>
+      </c>
+      <c r="H637" t="s">
+        <v>89</v>
+      </c>
+      <c r="I637">
+        <v>9</v>
+      </c>
+      <c r="J637" t="s">
+        <v>143</v>
+      </c>
+      <c r="K637">
+        <v>1</v>
+      </c>
+      <c r="L637" t="s">
+        <v>134</v>
+      </c>
+      <c r="M637" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="638" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A638">
         <v>638</v>
       </c>
-    </row>
-    <row r="639" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="D638" t="s">
+        <v>71</v>
+      </c>
+      <c r="E638" t="s">
+        <v>73</v>
+      </c>
+      <c r="F638">
+        <v>22</v>
+      </c>
+      <c r="G638" t="s">
+        <v>88</v>
+      </c>
+      <c r="H638" t="s">
+        <v>89</v>
+      </c>
+      <c r="I638">
+        <v>9</v>
+      </c>
+      <c r="J638" t="s">
+        <v>143</v>
+      </c>
+      <c r="K638">
+        <v>2</v>
+      </c>
+      <c r="L638" t="s">
+        <v>134</v>
+      </c>
+      <c r="M638" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="639" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A639">
         <v>639</v>
       </c>
-    </row>
-    <row r="640" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="D639" t="s">
+        <v>71</v>
+      </c>
+      <c r="E639" t="s">
+        <v>73</v>
+      </c>
+      <c r="F639">
+        <v>22</v>
+      </c>
+      <c r="G639" t="s">
+        <v>88</v>
+      </c>
+      <c r="H639" t="s">
+        <v>89</v>
+      </c>
+      <c r="I639">
+        <v>9</v>
+      </c>
+      <c r="J639" t="s">
+        <v>143</v>
+      </c>
+      <c r="K639">
+        <v>1</v>
+      </c>
+      <c r="L639" t="s">
+        <v>148</v>
+      </c>
+      <c r="M639" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="640" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A640">
         <v>640</v>
       </c>
-    </row>
-    <row r="641" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="D640" t="s">
+        <v>71</v>
+      </c>
+      <c r="E640" t="s">
+        <v>73</v>
+      </c>
+      <c r="F640">
+        <v>22</v>
+      </c>
+      <c r="G640" t="s">
+        <v>88</v>
+      </c>
+      <c r="H640" t="s">
+        <v>89</v>
+      </c>
+      <c r="I640">
+        <v>9</v>
+      </c>
+      <c r="J640" t="s">
+        <v>143</v>
+      </c>
+      <c r="K640">
+        <v>1</v>
+      </c>
+      <c r="L640" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="641" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A641">
         <v>641</v>
       </c>
-    </row>
-    <row r="642" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="D641" t="s">
+        <v>71</v>
+      </c>
+      <c r="E641" t="s">
+        <v>73</v>
+      </c>
+      <c r="F641">
+        <v>22</v>
+      </c>
+      <c r="G641" t="s">
+        <v>88</v>
+      </c>
+      <c r="H641" t="s">
+        <v>89</v>
+      </c>
+      <c r="I641">
+        <v>9</v>
+      </c>
+      <c r="J641" t="s">
+        <v>143</v>
+      </c>
+      <c r="K641">
+        <v>2</v>
+      </c>
+      <c r="L641" t="s">
+        <v>251</v>
+      </c>
+      <c r="R641" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="642" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A642">
         <v>642</v>
       </c>
-    </row>
-    <row r="643" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="D642" t="s">
+        <v>71</v>
+      </c>
+      <c r="E642" t="s">
+        <v>73</v>
+      </c>
+      <c r="F642">
+        <v>22</v>
+      </c>
+      <c r="G642" t="s">
+        <v>88</v>
+      </c>
+      <c r="H642" t="s">
+        <v>89</v>
+      </c>
+      <c r="I642">
+        <v>3</v>
+      </c>
+      <c r="J642" t="s">
+        <v>143</v>
+      </c>
+      <c r="K642">
+        <v>2</v>
+      </c>
+      <c r="L642" t="s">
+        <v>134</v>
+      </c>
+      <c r="M642" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="643" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A643">
         <v>643</v>
       </c>
-    </row>
-    <row r="644" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="D643" t="s">
+        <v>71</v>
+      </c>
+      <c r="E643" t="s">
+        <v>73</v>
+      </c>
+      <c r="F643">
+        <v>22</v>
+      </c>
+      <c r="G643" t="s">
+        <v>88</v>
+      </c>
+      <c r="H643" t="s">
+        <v>89</v>
+      </c>
+      <c r="I643">
+        <v>3</v>
+      </c>
+      <c r="J643" t="s">
+        <v>143</v>
+      </c>
+      <c r="K643">
+        <v>1</v>
+      </c>
+      <c r="L643" t="s">
+        <v>134</v>
+      </c>
+      <c r="M643" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="644" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A644">
         <v>644</v>
       </c>
-    </row>
-    <row r="645" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="D644" t="s">
+        <v>71</v>
+      </c>
+      <c r="E644" t="s">
+        <v>73</v>
+      </c>
+      <c r="F644">
+        <v>22</v>
+      </c>
+      <c r="G644" t="s">
+        <v>88</v>
+      </c>
+      <c r="H644" t="s">
+        <v>89</v>
+      </c>
+      <c r="I644">
+        <v>3</v>
+      </c>
+      <c r="J644" t="s">
+        <v>143</v>
+      </c>
+      <c r="K644">
+        <v>1</v>
+      </c>
+      <c r="L644" t="s">
+        <v>251</v>
+      </c>
+      <c r="R644" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="645" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A645">
         <v>645</v>
       </c>
-    </row>
-    <row r="646" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="D645" t="s">
+        <v>71</v>
+      </c>
+      <c r="E645" t="s">
+        <v>73</v>
+      </c>
+      <c r="F645">
+        <v>22</v>
+      </c>
+      <c r="G645" t="s">
+        <v>88</v>
+      </c>
+      <c r="H645" t="s">
+        <v>89</v>
+      </c>
+      <c r="I645">
+        <v>4</v>
+      </c>
+      <c r="J645" t="s">
+        <v>143</v>
+      </c>
+      <c r="K645">
+        <v>1</v>
+      </c>
+      <c r="L645" t="s">
+        <v>134</v>
+      </c>
+      <c r="M645" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="646" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A646">
         <v>646</v>
       </c>
-    </row>
-    <row r="647" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="D646" t="s">
+        <v>71</v>
+      </c>
+      <c r="E646" t="s">
+        <v>73</v>
+      </c>
+      <c r="F646">
+        <v>22</v>
+      </c>
+      <c r="G646" t="s">
+        <v>88</v>
+      </c>
+      <c r="H646" t="s">
+        <v>89</v>
+      </c>
+      <c r="I646">
+        <v>4</v>
+      </c>
+      <c r="J646" t="s">
+        <v>143</v>
+      </c>
+      <c r="K646">
+        <v>1</v>
+      </c>
+      <c r="L646" t="s">
+        <v>148</v>
+      </c>
+      <c r="M646" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="647" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A647">
         <v>647</v>
       </c>
-    </row>
-    <row r="648" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="D647" t="s">
+        <v>71</v>
+      </c>
+      <c r="E647" t="s">
+        <v>73</v>
+      </c>
+      <c r="F647">
+        <v>22</v>
+      </c>
+      <c r="G647" t="s">
+        <v>88</v>
+      </c>
+      <c r="H647" t="s">
+        <v>89</v>
+      </c>
+      <c r="I647">
+        <v>4</v>
+      </c>
+      <c r="J647" t="s">
+        <v>143</v>
+      </c>
+      <c r="K647">
+        <v>1</v>
+      </c>
+      <c r="L647" t="s">
+        <v>148</v>
+      </c>
+      <c r="M647" t="s">
+        <v>150</v>
+      </c>
+      <c r="R647" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="648" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A648">
         <v>648</v>
       </c>
-    </row>
-    <row r="649" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="D648" t="s">
+        <v>71</v>
+      </c>
+      <c r="E648" t="s">
+        <v>73</v>
+      </c>
+      <c r="F648">
+        <v>22</v>
+      </c>
+      <c r="G648" t="s">
+        <v>88</v>
+      </c>
+      <c r="H648" t="s">
+        <v>89</v>
+      </c>
+      <c r="I648">
+        <v>4</v>
+      </c>
+      <c r="J648" t="s">
+        <v>143</v>
+      </c>
+      <c r="K648">
+        <v>1</v>
+      </c>
+      <c r="L648" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="649" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A649">
         <v>649</v>
       </c>
-    </row>
-    <row r="650" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="D649" t="s">
+        <v>71</v>
+      </c>
+      <c r="E649" t="s">
+        <v>73</v>
+      </c>
+      <c r="F649">
+        <v>22</v>
+      </c>
+      <c r="G649" t="s">
+        <v>88</v>
+      </c>
+      <c r="H649" t="s">
+        <v>89</v>
+      </c>
+      <c r="I649">
+        <v>4</v>
+      </c>
+      <c r="J649" t="s">
+        <v>143</v>
+      </c>
+      <c r="K649">
+        <v>1</v>
+      </c>
+      <c r="L649" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="650" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A650">
         <v>650</v>
       </c>
-    </row>
-    <row r="651" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="D650" t="s">
+        <v>71</v>
+      </c>
+      <c r="E650" t="s">
+        <v>73</v>
+      </c>
+      <c r="F650">
+        <v>22</v>
+      </c>
+      <c r="G650" t="s">
+        <v>88</v>
+      </c>
+      <c r="H650" t="s">
+        <v>89</v>
+      </c>
+      <c r="I650">
+        <v>4</v>
+      </c>
+      <c r="J650" t="s">
+        <v>143</v>
+      </c>
+      <c r="K650">
+        <v>1</v>
+      </c>
+      <c r="L650" t="s">
+        <v>251</v>
+      </c>
+      <c r="R650" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="651" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A651">
         <v>651</v>
       </c>
-    </row>
-    <row r="652" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="D651" t="s">
+        <v>71</v>
+      </c>
+      <c r="E651" t="s">
+        <v>73</v>
+      </c>
+      <c r="F651">
+        <v>22</v>
+      </c>
+      <c r="G651" t="s">
+        <v>88</v>
+      </c>
+      <c r="H651" t="s">
+        <v>89</v>
+      </c>
+      <c r="I651">
+        <v>5</v>
+      </c>
+      <c r="J651" t="s">
+        <v>143</v>
+      </c>
+      <c r="K651">
+        <v>1</v>
+      </c>
+      <c r="L651" t="s">
+        <v>134</v>
+      </c>
+      <c r="M651" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="652" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A652">
         <v>652</v>
       </c>
-    </row>
-    <row r="653" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="D652" t="s">
+        <v>71</v>
+      </c>
+      <c r="E652" t="s">
+        <v>73</v>
+      </c>
+      <c r="F652">
+        <v>22</v>
+      </c>
+      <c r="G652" t="s">
+        <v>95</v>
+      </c>
+      <c r="H652" t="s">
+        <v>89</v>
+      </c>
+      <c r="I652">
+        <v>3</v>
+      </c>
+      <c r="J652" t="s">
+        <v>143</v>
+      </c>
+      <c r="K652">
+        <v>1</v>
+      </c>
+      <c r="L652" t="s">
+        <v>134</v>
+      </c>
+      <c r="M652" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="653" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A653">
         <v>653</v>
       </c>
-    </row>
-    <row r="654" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="D653" t="s">
+        <v>71</v>
+      </c>
+      <c r="E653" t="s">
+        <v>73</v>
+      </c>
+      <c r="F653">
+        <v>22</v>
+      </c>
+      <c r="G653" t="s">
+        <v>88</v>
+      </c>
+      <c r="H653" t="s">
+        <v>89</v>
+      </c>
+      <c r="I653">
+        <v>8</v>
+      </c>
+      <c r="J653" t="s">
+        <v>143</v>
+      </c>
+      <c r="K653">
+        <v>2</v>
+      </c>
+      <c r="L653" t="s">
+        <v>134</v>
+      </c>
+      <c r="M653" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="654" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A654">
         <v>654</v>
       </c>
-    </row>
-    <row r="655" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="D654" t="s">
+        <v>71</v>
+      </c>
+      <c r="E654" t="s">
+        <v>73</v>
+      </c>
+      <c r="F654">
+        <v>22</v>
+      </c>
+      <c r="G654" t="s">
+        <v>88</v>
+      </c>
+      <c r="H654" t="s">
+        <v>89</v>
+      </c>
+      <c r="I654">
+        <v>8</v>
+      </c>
+      <c r="J654" t="s">
+        <v>143</v>
+      </c>
+      <c r="K654">
+        <v>2</v>
+      </c>
+      <c r="L654" t="s">
+        <v>134</v>
+      </c>
+      <c r="M654" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="655" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A655">
         <v>655</v>
       </c>
-    </row>
-    <row r="656" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="D655" t="s">
+        <v>71</v>
+      </c>
+      <c r="E655" t="s">
+        <v>73</v>
+      </c>
+      <c r="F655">
+        <v>22</v>
+      </c>
+      <c r="G655" t="s">
+        <v>88</v>
+      </c>
+      <c r="H655" t="s">
+        <v>89</v>
+      </c>
+      <c r="I655">
+        <v>8</v>
+      </c>
+      <c r="J655" t="s">
+        <v>143</v>
+      </c>
+      <c r="K655">
+        <v>1</v>
+      </c>
+      <c r="L655" t="s">
+        <v>251</v>
+      </c>
+      <c r="R655" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="656" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A656">
         <v>656</v>
       </c>
-    </row>
-    <row r="657" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="D656" t="s">
+        <v>71</v>
+      </c>
+      <c r="E656" t="s">
+        <v>73</v>
+      </c>
+      <c r="F656">
+        <v>22</v>
+      </c>
+      <c r="G656" t="s">
+        <v>88</v>
+      </c>
+      <c r="H656" t="s">
+        <v>89</v>
+      </c>
+      <c r="I656">
+        <v>8</v>
+      </c>
+      <c r="J656" t="s">
+        <v>143</v>
+      </c>
+      <c r="K656">
+        <v>7</v>
+      </c>
+      <c r="L656" t="s">
+        <v>148</v>
+      </c>
+      <c r="M656" t="s">
+        <v>150</v>
+      </c>
+      <c r="P656" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="657" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A657">
         <v>657</v>
       </c>
-    </row>
-    <row r="658" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="D657" t="s">
+        <v>71</v>
+      </c>
+      <c r="E657" t="s">
+        <v>73</v>
+      </c>
+      <c r="F657">
+        <v>22</v>
+      </c>
+      <c r="G657" t="s">
+        <v>88</v>
+      </c>
+      <c r="H657" t="s">
+        <v>89</v>
+      </c>
+      <c r="I657">
+        <v>8</v>
+      </c>
+      <c r="J657" t="s">
+        <v>143</v>
+      </c>
+      <c r="K657">
+        <v>2</v>
+      </c>
+      <c r="L657" t="s">
+        <v>134</v>
+      </c>
+      <c r="R657" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="658" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A658">
         <v>658</v>
       </c>
-    </row>
-    <row r="659" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="D658" t="s">
+        <v>71</v>
+      </c>
+      <c r="E658" t="s">
+        <v>73</v>
+      </c>
+      <c r="F658">
+        <v>22</v>
+      </c>
+      <c r="G658" t="s">
+        <v>88</v>
+      </c>
+      <c r="H658" t="s">
+        <v>89</v>
+      </c>
+      <c r="I658">
+        <v>1</v>
+      </c>
+      <c r="J658" t="s">
+        <v>143</v>
+      </c>
+      <c r="K658">
+        <v>1</v>
+      </c>
+      <c r="L658" t="s">
+        <v>134</v>
+      </c>
+      <c r="M658" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="659" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A659">
         <v>659</v>
       </c>
-    </row>
-    <row r="660" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="D659" t="s">
+        <v>71</v>
+      </c>
+      <c r="E659" t="s">
+        <v>73</v>
+      </c>
+      <c r="F659">
+        <v>22</v>
+      </c>
+      <c r="G659" t="s">
+        <v>88</v>
+      </c>
+      <c r="H659" t="s">
+        <v>89</v>
+      </c>
+      <c r="I659">
+        <v>10</v>
+      </c>
+      <c r="J659" t="s">
+        <v>143</v>
+      </c>
+      <c r="K659">
+        <v>1</v>
+      </c>
+      <c r="L659" t="s">
+        <v>148</v>
+      </c>
+      <c r="M659" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="660" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A660">
         <v>660</v>
       </c>
-    </row>
-    <row r="661" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="D660" t="s">
+        <v>71</v>
+      </c>
+      <c r="E660" t="s">
+        <v>73</v>
+      </c>
+      <c r="F660">
+        <v>22</v>
+      </c>
+      <c r="G660" t="s">
+        <v>88</v>
+      </c>
+      <c r="H660" t="s">
+        <v>89</v>
+      </c>
+      <c r="I660">
+        <v>10</v>
+      </c>
+      <c r="J660" t="s">
+        <v>143</v>
+      </c>
+      <c r="K660">
+        <v>1</v>
+      </c>
+      <c r="L660" t="s">
+        <v>148</v>
+      </c>
+      <c r="M660" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="661" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A661">
         <v>661</v>
       </c>
-    </row>
-    <row r="662" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="D661" t="s">
+        <v>71</v>
+      </c>
+      <c r="E661" t="s">
+        <v>73</v>
+      </c>
+      <c r="F661">
+        <v>22</v>
+      </c>
+      <c r="G661" t="s">
+        <v>88</v>
+      </c>
+      <c r="H661" t="s">
+        <v>89</v>
+      </c>
+      <c r="I661">
+        <v>10</v>
+      </c>
+      <c r="J661" t="s">
+        <v>143</v>
+      </c>
+      <c r="K661">
+        <v>1</v>
+      </c>
+      <c r="L661" t="s">
+        <v>148</v>
+      </c>
+      <c r="M661" t="s">
+        <v>150</v>
+      </c>
+      <c r="R661" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="662" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A662">
         <v>662</v>
       </c>
-    </row>
-    <row r="663" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="D662" t="s">
+        <v>71</v>
+      </c>
+      <c r="E662" t="s">
+        <v>73</v>
+      </c>
+      <c r="F662">
+        <v>22</v>
+      </c>
+      <c r="G662" t="s">
+        <v>95</v>
+      </c>
+      <c r="H662" t="s">
+        <v>89</v>
+      </c>
+      <c r="I662">
+        <v>4</v>
+      </c>
+      <c r="J662" t="s">
+        <v>143</v>
+      </c>
+      <c r="K662">
+        <v>1</v>
+      </c>
+      <c r="L662" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="663" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A663">
         <v>663</v>
       </c>
-    </row>
-    <row r="664" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="D663" t="s">
+        <v>71</v>
+      </c>
+      <c r="E663" t="s">
+        <v>73</v>
+      </c>
+      <c r="F663">
+        <v>22</v>
+      </c>
+      <c r="G663" t="s">
+        <v>95</v>
+      </c>
+      <c r="H663" t="s">
+        <v>89</v>
+      </c>
+      <c r="I663">
+        <v>4</v>
+      </c>
+      <c r="J663" t="s">
+        <v>143</v>
+      </c>
+      <c r="K663">
+        <v>1</v>
+      </c>
+      <c r="L663" t="s">
+        <v>134</v>
+      </c>
+      <c r="M663" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="664" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A664">
         <v>664</v>
       </c>
-    </row>
-    <row r="665" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="D664" t="s">
+        <v>71</v>
+      </c>
+      <c r="E664" t="s">
+        <v>73</v>
+      </c>
+      <c r="F664">
+        <v>22</v>
+      </c>
+      <c r="G664" t="s">
+        <v>88</v>
+      </c>
+      <c r="H664" t="s">
+        <v>89</v>
+      </c>
+      <c r="I664">
+        <v>7</v>
+      </c>
+      <c r="J664" t="s">
+        <v>143</v>
+      </c>
+      <c r="K664">
+        <v>4</v>
+      </c>
+      <c r="L664" t="s">
+        <v>148</v>
+      </c>
+      <c r="M664" t="s">
+        <v>150</v>
+      </c>
+      <c r="P664" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="665" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A665">
         <v>665</v>
       </c>
-    </row>
-    <row r="666" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="D665" t="s">
+        <v>71</v>
+      </c>
+      <c r="E665" t="s">
+        <v>73</v>
+      </c>
+      <c r="F665">
+        <v>22</v>
+      </c>
+      <c r="G665" t="s">
+        <v>88</v>
+      </c>
+      <c r="H665" t="s">
+        <v>89</v>
+      </c>
+      <c r="I665">
+        <v>7</v>
+      </c>
+      <c r="J665" t="s">
+        <v>143</v>
+      </c>
+      <c r="K665">
+        <v>2</v>
+      </c>
+      <c r="L665" t="s">
+        <v>134</v>
+      </c>
+      <c r="M665" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="666" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A666">
         <v>666</v>
       </c>
-    </row>
-    <row r="667" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="D666" t="s">
+        <v>71</v>
+      </c>
+      <c r="E666" t="s">
+        <v>73</v>
+      </c>
+      <c r="F666">
+        <v>22</v>
+      </c>
+      <c r="G666" t="s">
+        <v>88</v>
+      </c>
+      <c r="H666" t="s">
+        <v>89</v>
+      </c>
+      <c r="I666">
+        <v>7</v>
+      </c>
+      <c r="J666" t="s">
+        <v>143</v>
+      </c>
+      <c r="K666">
+        <v>1</v>
+      </c>
+      <c r="L666" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="667" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A667">
         <v>667</v>
       </c>
-    </row>
-    <row r="668" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="D667" t="s">
+        <v>71</v>
+      </c>
+      <c r="E667" t="s">
+        <v>73</v>
+      </c>
+      <c r="F667">
+        <v>22</v>
+      </c>
+      <c r="G667" t="s">
+        <v>95</v>
+      </c>
+      <c r="H667" t="s">
+        <v>96</v>
+      </c>
+      <c r="I667">
+        <v>2</v>
+      </c>
+      <c r="J667" t="s">
+        <v>143</v>
+      </c>
+      <c r="K667">
+        <v>1</v>
+      </c>
+      <c r="L667" t="s">
+        <v>239</v>
+      </c>
+      <c r="M667" t="s">
+        <v>137</v>
+      </c>
+      <c r="P667" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="668" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A668">
         <v>668</v>
       </c>
-    </row>
-    <row r="669" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="D668" t="s">
+        <v>71</v>
+      </c>
+      <c r="E668" t="s">
+        <v>73</v>
+      </c>
+      <c r="F668">
+        <v>22</v>
+      </c>
+      <c r="G668" t="s">
+        <v>95</v>
+      </c>
+      <c r="H668" t="s">
+        <v>89</v>
+      </c>
+      <c r="I668">
+        <v>2</v>
+      </c>
+      <c r="J668" t="s">
+        <v>143</v>
+      </c>
+      <c r="K668">
+        <v>1</v>
+      </c>
+      <c r="L668" t="s">
+        <v>239</v>
+      </c>
+      <c r="M668" t="s">
+        <v>137</v>
+      </c>
+      <c r="P668" t="s">
+        <v>136</v>
+      </c>
+      <c r="T668" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="669" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A669">
         <v>669</v>
       </c>
-    </row>
-    <row r="670" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="D669" t="s">
+        <v>71</v>
+      </c>
+      <c r="E669" t="s">
+        <v>73</v>
+      </c>
+      <c r="F669">
+        <v>22</v>
+      </c>
+      <c r="G669" t="s">
+        <v>95</v>
+      </c>
+      <c r="H669" t="s">
+        <v>89</v>
+      </c>
+      <c r="I669">
+        <v>2</v>
+      </c>
+      <c r="J669" t="s">
+        <v>143</v>
+      </c>
+      <c r="K669">
+        <v>1</v>
+      </c>
+      <c r="L669" t="s">
+        <v>99</v>
+      </c>
+      <c r="R669" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="670" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A670">
         <v>670</v>
       </c>
-    </row>
-    <row r="671" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="D670" t="s">
+        <v>71</v>
+      </c>
+      <c r="E670" t="s">
+        <v>73</v>
+      </c>
+      <c r="F670">
+        <v>22</v>
+      </c>
+      <c r="G670" t="s">
+        <v>95</v>
+      </c>
+      <c r="H670" t="s">
+        <v>89</v>
+      </c>
+      <c r="I670">
+        <v>2</v>
+      </c>
+      <c r="J670" t="s">
+        <v>143</v>
+      </c>
+      <c r="K670">
+        <v>1</v>
+      </c>
+      <c r="L670" t="s">
+        <v>134</v>
+      </c>
+      <c r="M670" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="671" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A671">
         <v>671</v>
       </c>
-    </row>
-    <row r="672" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B671" t="s">
+        <v>335</v>
+      </c>
+      <c r="C671" t="s">
+        <v>336</v>
+      </c>
+      <c r="D671" t="s">
+        <v>71</v>
+      </c>
+      <c r="E671" t="s">
+        <v>73</v>
+      </c>
+      <c r="F671">
+        <v>22</v>
+      </c>
+      <c r="G671" t="s">
+        <v>88</v>
+      </c>
+      <c r="H671" t="s">
+        <v>89</v>
+      </c>
+      <c r="I671">
+        <v>8</v>
+      </c>
+      <c r="J671" t="s">
+        <v>301</v>
+      </c>
+      <c r="K671">
+        <v>1</v>
+      </c>
+      <c r="L671" t="s">
+        <v>90</v>
+      </c>
+      <c r="M671" t="s">
+        <v>91</v>
+      </c>
+      <c r="P671" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q671" t="s">
+        <v>93</v>
+      </c>
+      <c r="R671" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="672" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A672">
         <v>672</v>
       </c>
-    </row>
-    <row r="673" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="D672" t="s">
+        <v>231</v>
+      </c>
+      <c r="E672" t="s">
+        <v>73</v>
+      </c>
+      <c r="F672">
+        <v>27</v>
+      </c>
+      <c r="G672" t="s">
+        <v>88</v>
+      </c>
+      <c r="H672" t="s">
+        <v>89</v>
+      </c>
+      <c r="I672">
+        <v>2</v>
+      </c>
+      <c r="J672" t="s">
+        <v>143</v>
+      </c>
+      <c r="K672">
+        <v>1</v>
+      </c>
+      <c r="L672" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="673" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A673">
         <v>673</v>
       </c>
-    </row>
-    <row r="674" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="D673" t="s">
+        <v>231</v>
+      </c>
+      <c r="E673" t="s">
+        <v>73</v>
+      </c>
+      <c r="F673">
+        <v>27</v>
+      </c>
+      <c r="G673" t="s">
+        <v>95</v>
+      </c>
+      <c r="H673" t="s">
+        <v>96</v>
+      </c>
+      <c r="I673">
+        <v>3</v>
+      </c>
+      <c r="J673" t="s">
+        <v>143</v>
+      </c>
+      <c r="K673">
+        <v>1</v>
+      </c>
+      <c r="L673" t="s">
+        <v>99</v>
+      </c>
+      <c r="M673" t="s">
+        <v>57</v>
+      </c>
+      <c r="N673" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="674" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A674">
         <v>674</v>
       </c>
-    </row>
-    <row r="675" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="D674" t="s">
+        <v>231</v>
+      </c>
+      <c r="E674" t="s">
+        <v>73</v>
+      </c>
+      <c r="F674">
+        <v>27</v>
+      </c>
+      <c r="G674" t="s">
+        <v>88</v>
+      </c>
+      <c r="H674" t="s">
+        <v>89</v>
+      </c>
+      <c r="I674">
+        <v>8</v>
+      </c>
+      <c r="J674" t="s">
+        <v>143</v>
+      </c>
+      <c r="K674">
+        <v>2</v>
+      </c>
+      <c r="L674" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="675" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A675">
         <v>675</v>
       </c>
-    </row>
-    <row r="676" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="D675" t="s">
+        <v>231</v>
+      </c>
+      <c r="E675" t="s">
+        <v>73</v>
+      </c>
+      <c r="F675">
+        <v>27</v>
+      </c>
+      <c r="G675" t="s">
+        <v>88</v>
+      </c>
+      <c r="H675" t="s">
+        <v>89</v>
+      </c>
+      <c r="I675">
+        <v>8</v>
+      </c>
+      <c r="J675" t="s">
+        <v>143</v>
+      </c>
+      <c r="K675">
+        <v>1</v>
+      </c>
+      <c r="L675" t="s">
+        <v>61</v>
+      </c>
+      <c r="R675" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="676" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A676">
         <v>676</v>
       </c>
-    </row>
-    <row r="677" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="D676" t="s">
+        <v>231</v>
+      </c>
+      <c r="E676" t="s">
+        <v>73</v>
+      </c>
+      <c r="F676">
+        <v>27</v>
+      </c>
+      <c r="G676" t="s">
+        <v>95</v>
+      </c>
+      <c r="H676" t="s">
+        <v>96</v>
+      </c>
+      <c r="I676">
+        <v>5</v>
+      </c>
+      <c r="J676" t="s">
+        <v>143</v>
+      </c>
+      <c r="K676">
+        <v>1</v>
+      </c>
+      <c r="L676" t="s">
+        <v>99</v>
+      </c>
+      <c r="M676" t="s">
+        <v>57</v>
+      </c>
+      <c r="N676" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="677" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A677">
         <v>677</v>
       </c>
-    </row>
-    <row r="678" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="D677" t="s">
+        <v>231</v>
+      </c>
+      <c r="E677" t="s">
+        <v>73</v>
+      </c>
+      <c r="F677">
+        <v>27</v>
+      </c>
+      <c r="G677" t="s">
+        <v>95</v>
+      </c>
+      <c r="H677" t="s">
+        <v>96</v>
+      </c>
+      <c r="I677">
+        <v>9</v>
+      </c>
+      <c r="J677" t="s">
+        <v>338</v>
+      </c>
+      <c r="K677">
+        <v>2</v>
+      </c>
+      <c r="L677" t="s">
+        <v>99</v>
+      </c>
+      <c r="M677" t="s">
+        <v>57</v>
+      </c>
+      <c r="N677" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="678" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A678">
         <v>678</v>
       </c>
-    </row>
-    <row r="679" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="D678" t="s">
+        <v>231</v>
+      </c>
+      <c r="E678" t="s">
+        <v>73</v>
+      </c>
+      <c r="F678">
+        <v>27</v>
+      </c>
+      <c r="G678" t="s">
+        <v>95</v>
+      </c>
+      <c r="H678" t="s">
+        <v>89</v>
+      </c>
+      <c r="I678">
+        <v>1</v>
+      </c>
+      <c r="J678" t="s">
+        <v>143</v>
+      </c>
+      <c r="K678">
+        <v>1</v>
+      </c>
+      <c r="L678" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="679" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A679">
         <v>679</v>
       </c>
-    </row>
-    <row r="680" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="D679" t="s">
+        <v>231</v>
+      </c>
+      <c r="E679" t="s">
+        <v>73</v>
+      </c>
+      <c r="F679">
+        <v>27</v>
+      </c>
+      <c r="G679" t="s">
+        <v>88</v>
+      </c>
+      <c r="H679" t="s">
+        <v>89</v>
+      </c>
+      <c r="I679">
+        <v>10</v>
+      </c>
+      <c r="J679" t="s">
+        <v>143</v>
+      </c>
+      <c r="K679">
+        <v>2</v>
+      </c>
+      <c r="L679" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="680" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A680">
         <v>680</v>
       </c>
-    </row>
-    <row r="681" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="D680" t="s">
+        <v>231</v>
+      </c>
+      <c r="E680" t="s">
+        <v>73</v>
+      </c>
+      <c r="F680">
+        <v>27</v>
+      </c>
+      <c r="G680" t="s">
+        <v>88</v>
+      </c>
+      <c r="H680" t="s">
+        <v>89</v>
+      </c>
+      <c r="I680">
+        <v>10</v>
+      </c>
+      <c r="J680" t="s">
+        <v>143</v>
+      </c>
+      <c r="K680">
+        <v>1</v>
+      </c>
+      <c r="L680" t="s">
+        <v>134</v>
+      </c>
+      <c r="M680" t="s">
+        <v>243</v>
+      </c>
+      <c r="P680" t="s">
+        <v>339</v>
+      </c>
+      <c r="Q680" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="681" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A681">
         <v>681</v>
       </c>
-    </row>
-    <row r="682" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="D681" t="s">
+        <v>231</v>
+      </c>
+      <c r="E681" t="s">
+        <v>73</v>
+      </c>
+      <c r="F681">
+        <v>27</v>
+      </c>
+      <c r="G681" t="s">
+        <v>88</v>
+      </c>
+      <c r="H681" t="s">
+        <v>89</v>
+      </c>
+      <c r="I681">
+        <v>9</v>
+      </c>
+      <c r="J681" t="s">
+        <v>143</v>
+      </c>
+      <c r="K681">
+        <v>1</v>
+      </c>
+      <c r="L681" t="s">
+        <v>148</v>
+      </c>
+      <c r="M681" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="682" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A682">
         <v>682</v>
       </c>
-    </row>
-    <row r="683" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="D682" t="s">
+        <v>231</v>
+      </c>
+      <c r="E682" t="s">
+        <v>73</v>
+      </c>
+      <c r="F682">
+        <v>27</v>
+      </c>
+      <c r="G682" t="s">
+        <v>95</v>
+      </c>
+      <c r="H682" t="s">
+        <v>89</v>
+      </c>
+      <c r="I682">
+        <v>5</v>
+      </c>
+      <c r="J682" t="s">
+        <v>143</v>
+      </c>
+      <c r="K682">
+        <v>1</v>
+      </c>
+      <c r="L682" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="683" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A683">
         <v>683</v>
       </c>
-    </row>
-    <row r="684" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="D683" t="s">
+        <v>231</v>
+      </c>
+      <c r="E683" t="s">
+        <v>73</v>
+      </c>
+      <c r="F683">
+        <v>27</v>
+      </c>
+      <c r="G683" t="s">
+        <v>95</v>
+      </c>
+      <c r="H683" t="s">
+        <v>89</v>
+      </c>
+      <c r="I683">
+        <v>5</v>
+      </c>
+      <c r="J683" t="s">
+        <v>143</v>
+      </c>
+      <c r="K683">
+        <v>1</v>
+      </c>
+      <c r="L683" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="684" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A684">
         <v>684</v>
       </c>
-    </row>
-    <row r="685" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="D684" t="s">
+        <v>231</v>
+      </c>
+      <c r="E684" t="s">
+        <v>73</v>
+      </c>
+      <c r="F684">
+        <v>27</v>
+      </c>
+      <c r="G684" t="s">
+        <v>95</v>
+      </c>
+      <c r="H684" t="s">
+        <v>89</v>
+      </c>
+      <c r="I684">
+        <v>5</v>
+      </c>
+      <c r="J684" t="s">
+        <v>143</v>
+      </c>
+      <c r="K684">
+        <v>2</v>
+      </c>
+      <c r="L684" t="s">
+        <v>148</v>
+      </c>
+      <c r="M684" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="685" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A685">
         <v>685</v>
       </c>
-    </row>
-    <row r="686" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="D685" t="s">
+        <v>231</v>
+      </c>
+      <c r="E685" t="s">
+        <v>73</v>
+      </c>
+      <c r="F685">
+        <v>27</v>
+      </c>
+      <c r="G685" t="s">
+        <v>88</v>
+      </c>
+      <c r="H685" t="s">
+        <v>89</v>
+      </c>
+      <c r="I685">
+        <v>6</v>
+      </c>
+      <c r="J685" t="s">
+        <v>143</v>
+      </c>
+      <c r="K685">
+        <v>1</v>
+      </c>
+      <c r="L685" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="686" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A686">
         <v>686</v>
       </c>
-    </row>
-    <row r="687" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="D686" t="s">
+        <v>231</v>
+      </c>
+      <c r="E686" t="s">
+        <v>73</v>
+      </c>
+      <c r="F686">
+        <v>27</v>
+      </c>
+      <c r="G686" t="s">
+        <v>88</v>
+      </c>
+      <c r="H686" t="s">
+        <v>89</v>
+      </c>
+      <c r="I686">
+        <v>6</v>
+      </c>
+      <c r="J686" t="s">
+        <v>143</v>
+      </c>
+      <c r="K686">
+        <v>1</v>
+      </c>
+      <c r="L686" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="687" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A687">
         <v>687</v>
       </c>
-    </row>
-    <row r="688" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="D687" t="s">
+        <v>231</v>
+      </c>
+      <c r="E687" t="s">
+        <v>73</v>
+      </c>
+      <c r="F687">
+        <v>27</v>
+      </c>
+      <c r="G687" t="s">
+        <v>95</v>
+      </c>
+      <c r="H687" t="s">
+        <v>89</v>
+      </c>
+      <c r="I687">
+        <v>2</v>
+      </c>
+      <c r="J687" t="s">
+        <v>143</v>
+      </c>
+      <c r="K687">
+        <v>2</v>
+      </c>
+      <c r="L687" t="s">
+        <v>79</v>
+      </c>
+      <c r="M687" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="688" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A688">
         <v>688</v>
       </c>
-    </row>
-    <row r="689" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="D688" t="s">
+        <v>231</v>
+      </c>
+      <c r="E688" t="s">
+        <v>73</v>
+      </c>
+      <c r="F688">
+        <v>27</v>
+      </c>
+      <c r="G688" t="s">
+        <v>95</v>
+      </c>
+      <c r="H688" t="s">
+        <v>89</v>
+      </c>
+      <c r="I688">
+        <v>2</v>
+      </c>
+      <c r="J688" t="s">
+        <v>143</v>
+      </c>
+      <c r="K688">
+        <v>1</v>
+      </c>
+      <c r="L688" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="689" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A689">
         <v>689</v>
       </c>
-    </row>
-    <row r="690" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="D689" t="s">
+        <v>231</v>
+      </c>
+      <c r="E689" t="s">
+        <v>73</v>
+      </c>
+      <c r="F689">
+        <v>27</v>
+      </c>
+      <c r="G689" t="s">
+        <v>95</v>
+      </c>
+      <c r="H689" t="s">
+        <v>89</v>
+      </c>
+      <c r="I689">
+        <v>8</v>
+      </c>
+      <c r="J689" t="s">
+        <v>143</v>
+      </c>
+      <c r="K689">
+        <v>1</v>
+      </c>
+      <c r="L689" t="s">
+        <v>148</v>
+      </c>
+      <c r="M689" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="690" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A690">
         <v>690</v>
       </c>
-    </row>
-    <row r="691" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="D690" t="s">
+        <v>231</v>
+      </c>
+      <c r="E690" t="s">
+        <v>73</v>
+      </c>
+      <c r="F690">
+        <v>27</v>
+      </c>
+      <c r="G690" t="s">
+        <v>95</v>
+      </c>
+      <c r="H690" t="s">
+        <v>89</v>
+      </c>
+      <c r="I690">
+        <v>8</v>
+      </c>
+      <c r="J690" t="s">
+        <v>143</v>
+      </c>
+      <c r="K690">
+        <v>1</v>
+      </c>
+      <c r="L690" t="s">
+        <v>148</v>
+      </c>
+      <c r="M690" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="691" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A691">
         <v>691</v>
       </c>
-    </row>
-    <row r="692" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="D691" t="s">
+        <v>231</v>
+      </c>
+      <c r="E691" t="s">
+        <v>73</v>
+      </c>
+      <c r="F691">
+        <v>27</v>
+      </c>
+      <c r="G691" t="s">
+        <v>95</v>
+      </c>
+      <c r="H691" t="s">
+        <v>96</v>
+      </c>
+      <c r="I691">
+        <v>4</v>
+      </c>
+      <c r="J691" t="s">
+        <v>74</v>
+      </c>
+      <c r="K691">
+        <v>1</v>
+      </c>
+      <c r="L691" t="s">
+        <v>99</v>
+      </c>
+      <c r="M691" t="s">
+        <v>57</v>
+      </c>
+      <c r="N691" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="692" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A692">
         <v>692</v>
       </c>
-    </row>
-    <row r="693" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="D692" t="s">
+        <v>231</v>
+      </c>
+      <c r="E692" t="s">
+        <v>73</v>
+      </c>
+      <c r="F692">
+        <v>27</v>
+      </c>
+      <c r="G692" t="s">
+        <v>88</v>
+      </c>
+      <c r="H692" t="s">
+        <v>89</v>
+      </c>
+      <c r="I692">
+        <v>7</v>
+      </c>
+      <c r="J692" t="s">
+        <v>143</v>
+      </c>
+      <c r="K692">
+        <v>1</v>
+      </c>
+      <c r="L692" t="s">
+        <v>99</v>
+      </c>
+      <c r="M692" t="s">
+        <v>57</v>
+      </c>
+      <c r="N692" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="693" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A693">
         <v>693</v>
       </c>
-    </row>
-    <row r="694" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="D693" t="s">
+        <v>231</v>
+      </c>
+      <c r="E693" t="s">
+        <v>73</v>
+      </c>
+      <c r="F693">
+        <v>27</v>
+      </c>
+      <c r="G693" t="s">
+        <v>88</v>
+      </c>
+      <c r="H693" t="s">
+        <v>89</v>
+      </c>
+      <c r="I693">
+        <v>7</v>
+      </c>
+      <c r="J693" t="s">
+        <v>143</v>
+      </c>
+      <c r="K693">
+        <v>1</v>
+      </c>
+      <c r="L693" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="694" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A694">
         <v>694</v>
       </c>
-    </row>
-    <row r="695" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="D694" t="s">
+        <v>231</v>
+      </c>
+      <c r="E694" t="s">
+        <v>73</v>
+      </c>
+      <c r="F694">
+        <v>27</v>
+      </c>
+      <c r="G694" t="s">
+        <v>88</v>
+      </c>
+      <c r="H694" t="s">
+        <v>89</v>
+      </c>
+      <c r="I694">
+        <v>7</v>
+      </c>
+      <c r="J694" t="s">
+        <v>143</v>
+      </c>
+      <c r="K694">
+        <v>1</v>
+      </c>
+      <c r="L694" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="695" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A695">
         <v>695</v>
       </c>
-    </row>
-    <row r="696" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="D695" t="s">
+        <v>231</v>
+      </c>
+      <c r="E695" t="s">
+        <v>73</v>
+      </c>
+      <c r="F695">
+        <v>27</v>
+      </c>
+      <c r="G695" t="s">
+        <v>88</v>
+      </c>
+      <c r="H695" t="s">
+        <v>89</v>
+      </c>
+      <c r="I695">
+        <v>7</v>
+      </c>
+      <c r="J695" t="s">
+        <v>143</v>
+      </c>
+      <c r="K695">
+        <v>1</v>
+      </c>
+      <c r="L695" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="696" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A696">
         <v>696</v>
       </c>
-    </row>
-    <row r="697" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="D696" t="s">
+        <v>231</v>
+      </c>
+      <c r="E696" t="s">
+        <v>73</v>
+      </c>
+      <c r="F696">
+        <v>27</v>
+      </c>
+      <c r="G696" t="s">
+        <v>95</v>
+      </c>
+      <c r="H696" t="s">
+        <v>89</v>
+      </c>
+      <c r="I696">
+        <v>4</v>
+      </c>
+      <c r="J696" t="s">
+        <v>143</v>
+      </c>
+      <c r="K696">
+        <v>1</v>
+      </c>
+      <c r="L696" t="s">
+        <v>99</v>
+      </c>
+      <c r="M696" t="s">
+        <v>57</v>
+      </c>
+      <c r="N696" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="697" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A697">
         <v>697</v>
       </c>
-    </row>
-    <row r="698" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="D697" t="s">
+        <v>231</v>
+      </c>
+      <c r="E697" t="s">
+        <v>73</v>
+      </c>
+      <c r="F697">
+        <v>27</v>
+      </c>
+      <c r="G697" t="s">
+        <v>95</v>
+      </c>
+      <c r="H697" t="s">
+        <v>89</v>
+      </c>
+      <c r="I697">
+        <v>4</v>
+      </c>
+      <c r="J697" t="s">
+        <v>143</v>
+      </c>
+      <c r="K697">
+        <v>1</v>
+      </c>
+      <c r="L697" t="s">
+        <v>79</v>
+      </c>
+      <c r="M697" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="698" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A698">
         <v>698</v>
       </c>
-    </row>
-    <row r="699" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="D698" t="s">
+        <v>231</v>
+      </c>
+      <c r="E698" t="s">
+        <v>73</v>
+      </c>
+      <c r="F698">
+        <v>27</v>
+      </c>
+      <c r="G698" t="s">
+        <v>95</v>
+      </c>
+      <c r="H698" t="s">
+        <v>96</v>
+      </c>
+      <c r="I698">
+        <v>1</v>
+      </c>
+      <c r="J698" t="s">
+        <v>74</v>
+      </c>
+      <c r="K698">
+        <v>1</v>
+      </c>
+      <c r="L698" t="s">
+        <v>99</v>
+      </c>
+      <c r="M698" t="s">
+        <v>57</v>
+      </c>
+      <c r="N698" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="699" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A699">
         <v>699</v>
       </c>
-    </row>
-    <row r="700" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="D699" t="s">
+        <v>231</v>
+      </c>
+      <c r="E699" t="s">
+        <v>73</v>
+      </c>
+      <c r="F699">
+        <v>27</v>
+      </c>
+      <c r="G699" t="s">
+        <v>88</v>
+      </c>
+      <c r="H699" t="s">
+        <v>89</v>
+      </c>
+      <c r="I699">
+        <v>4</v>
+      </c>
+      <c r="J699" t="s">
+        <v>74</v>
+      </c>
+      <c r="K699">
+        <v>1</v>
+      </c>
+      <c r="L699" t="s">
+        <v>99</v>
+      </c>
+      <c r="M699" t="s">
+        <v>57</v>
+      </c>
+      <c r="N699" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="700" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A700">
         <v>700</v>
       </c>
-    </row>
-    <row r="701" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="D700" t="s">
+        <v>231</v>
+      </c>
+      <c r="E700" t="s">
+        <v>73</v>
+      </c>
+      <c r="F700">
+        <v>27</v>
+      </c>
+      <c r="G700" t="s">
+        <v>95</v>
+      </c>
+      <c r="H700" t="s">
+        <v>89</v>
+      </c>
+      <c r="I700">
+        <v>3</v>
+      </c>
+      <c r="J700" t="s">
+        <v>74</v>
+      </c>
+      <c r="K700">
+        <v>1</v>
+      </c>
+      <c r="L700" t="s">
+        <v>99</v>
+      </c>
+      <c r="M700" t="s">
+        <v>57</v>
+      </c>
+      <c r="N700" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="701" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A701">
         <v>701</v>
       </c>
-    </row>
-    <row r="702" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="D701" t="s">
+        <v>231</v>
+      </c>
+      <c r="E701" t="s">
+        <v>73</v>
+      </c>
+      <c r="F701">
+        <v>27</v>
+      </c>
+      <c r="G701" t="s">
+        <v>88</v>
+      </c>
+      <c r="H701" t="s">
+        <v>89</v>
+      </c>
+      <c r="I701">
+        <v>6</v>
+      </c>
+      <c r="J701" t="s">
+        <v>143</v>
+      </c>
+      <c r="K701">
+        <v>1</v>
+      </c>
+      <c r="L701" t="s">
+        <v>99</v>
+      </c>
+      <c r="M701" t="s">
+        <v>57</v>
+      </c>
+      <c r="N701" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="702" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A702">
         <v>702</v>
       </c>
-    </row>
-    <row r="703" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="D702" t="s">
+        <v>231</v>
+      </c>
+      <c r="E702" t="s">
+        <v>73</v>
+      </c>
+      <c r="F702">
+        <v>27</v>
+      </c>
+      <c r="H702" t="s">
+        <v>72</v>
+      </c>
+      <c r="J702" t="s">
+        <v>143</v>
+      </c>
+      <c r="K702">
+        <v>1</v>
+      </c>
+      <c r="L702" t="s">
+        <v>61</v>
+      </c>
+      <c r="M702" t="s">
+        <v>76</v>
+      </c>
+      <c r="P702" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="703" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A703">
         <v>703</v>
       </c>
-    </row>
-    <row r="704" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="D703" t="s">
+        <v>231</v>
+      </c>
+      <c r="E703" t="s">
+        <v>73</v>
+      </c>
+      <c r="F703">
+        <v>27</v>
+      </c>
+      <c r="H703" t="s">
+        <v>72</v>
+      </c>
+      <c r="J703" t="s">
+        <v>143</v>
+      </c>
+      <c r="K703">
+        <v>1</v>
+      </c>
+      <c r="L703" t="s">
+        <v>148</v>
+      </c>
+      <c r="M703" t="s">
+        <v>341</v>
+      </c>
+      <c r="P703" t="s">
+        <v>342</v>
+      </c>
+      <c r="Q703" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="704" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A704">
         <v>704</v>
       </c>
-    </row>
-    <row r="705" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="D704" t="s">
+        <v>231</v>
+      </c>
+      <c r="E704" t="s">
+        <v>73</v>
+      </c>
+      <c r="F704">
+        <v>27</v>
+      </c>
+      <c r="H704" t="s">
+        <v>72</v>
+      </c>
+      <c r="J704" t="s">
+        <v>143</v>
+      </c>
+      <c r="K704">
+        <v>6</v>
+      </c>
+      <c r="L704" t="s">
+        <v>148</v>
+      </c>
+      <c r="M704" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="705" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A705">
         <v>705</v>
       </c>
-    </row>
-    <row r="706" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="D705" t="s">
+        <v>231</v>
+      </c>
+      <c r="E705" t="s">
+        <v>73</v>
+      </c>
+      <c r="F705">
+        <v>27</v>
+      </c>
+      <c r="H705" t="s">
+        <v>72</v>
+      </c>
+      <c r="J705" t="s">
+        <v>143</v>
+      </c>
+      <c r="K705">
+        <v>1</v>
+      </c>
+      <c r="L705" t="s">
+        <v>239</v>
+      </c>
+      <c r="M705" t="s">
+        <v>137</v>
+      </c>
+      <c r="P705" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="706" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A706">
         <v>706</v>
       </c>
-    </row>
-    <row r="707" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="D706" t="s">
+        <v>231</v>
+      </c>
+      <c r="E706" t="s">
+        <v>73</v>
+      </c>
+      <c r="F706">
+        <v>27</v>
+      </c>
+      <c r="H706" t="s">
+        <v>72</v>
+      </c>
+      <c r="J706" t="s">
+        <v>143</v>
+      </c>
+      <c r="K706">
+        <v>1</v>
+      </c>
+      <c r="L706" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="707" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A707">
         <v>707</v>
       </c>
-    </row>
-    <row r="708" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="D707" t="s">
+        <v>231</v>
+      </c>
+      <c r="E707" t="s">
+        <v>73</v>
+      </c>
+      <c r="F707">
+        <v>27</v>
+      </c>
+      <c r="H707" t="s">
+        <v>72</v>
+      </c>
+      <c r="J707" t="s">
+        <v>143</v>
+      </c>
+      <c r="K707">
+        <v>2</v>
+      </c>
+      <c r="L707" t="s">
+        <v>134</v>
+      </c>
+      <c r="M707" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="708" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A708">
         <v>708</v>
       </c>
-    </row>
-    <row r="709" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="D708" t="s">
+        <v>231</v>
+      </c>
+      <c r="E708" t="s">
+        <v>73</v>
+      </c>
+      <c r="F708">
+        <v>27</v>
+      </c>
+      <c r="H708" t="s">
+        <v>72</v>
+      </c>
+      <c r="J708" t="s">
+        <v>143</v>
+      </c>
+      <c r="K708">
+        <v>1</v>
+      </c>
+      <c r="L708" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="709" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A709">
         <v>709</v>
       </c>
-    </row>
-    <row r="710" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="D709" t="s">
+        <v>231</v>
+      </c>
+      <c r="E709" t="s">
+        <v>73</v>
+      </c>
+      <c r="F709">
+        <v>27</v>
+      </c>
+      <c r="H709" t="s">
+        <v>72</v>
+      </c>
+      <c r="J709" t="s">
+        <v>143</v>
+      </c>
+      <c r="K709">
+        <v>18</v>
+      </c>
+      <c r="L709" t="s">
+        <v>79</v>
+      </c>
+      <c r="M709" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="710" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A710">
         <v>710</v>
       </c>
-    </row>
-    <row r="711" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="D710" t="s">
+        <v>231</v>
+      </c>
+      <c r="E710" t="s">
+        <v>73</v>
+      </c>
+      <c r="F710">
+        <v>27</v>
+      </c>
+      <c r="H710" t="s">
+        <v>72</v>
+      </c>
+      <c r="J710" t="s">
+        <v>143</v>
+      </c>
+      <c r="K710">
+        <v>1</v>
+      </c>
+      <c r="L710" t="s">
+        <v>148</v>
+      </c>
+      <c r="M710" t="s">
+        <v>341</v>
+      </c>
+      <c r="P710" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="711" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A711">
         <v>711</v>
       </c>
-    </row>
-    <row r="712" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="D711" t="s">
+        <v>231</v>
+      </c>
+      <c r="E711" t="s">
+        <v>73</v>
+      </c>
+      <c r="F711">
+        <v>27</v>
+      </c>
+      <c r="H711" t="s">
+        <v>72</v>
+      </c>
+      <c r="J711" t="s">
+        <v>143</v>
+      </c>
+      <c r="K711">
+        <v>2</v>
+      </c>
+      <c r="L711" t="s">
+        <v>134</v>
+      </c>
+      <c r="M711" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="712" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A712">
         <v>712</v>
       </c>
-    </row>
-    <row r="713" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="D712" t="s">
+        <v>231</v>
+      </c>
+      <c r="E712" t="s">
+        <v>73</v>
+      </c>
+      <c r="F712">
+        <v>27</v>
+      </c>
+      <c r="H712" t="s">
+        <v>72</v>
+      </c>
+      <c r="J712" t="s">
+        <v>143</v>
+      </c>
+      <c r="K712">
+        <v>2</v>
+      </c>
+      <c r="L712" t="s">
+        <v>134</v>
+      </c>
+      <c r="M712" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="713" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A713">
         <v>713</v>
       </c>
-    </row>
-    <row r="714" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="D713" t="s">
+        <v>231</v>
+      </c>
+      <c r="E713" t="s">
+        <v>73</v>
+      </c>
+      <c r="F713">
+        <v>27</v>
+      </c>
+      <c r="H713" t="s">
+        <v>72</v>
+      </c>
+      <c r="J713" t="s">
+        <v>143</v>
+      </c>
+      <c r="K713">
+        <v>19</v>
+      </c>
+      <c r="L713" t="s">
+        <v>61</v>
+      </c>
+      <c r="M713" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="714" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A714">
         <v>714</v>
       </c>
-    </row>
-    <row r="715" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B714" t="s">
+        <v>348</v>
+      </c>
+      <c r="C714" t="s">
+        <v>70</v>
+      </c>
+      <c r="D714" t="s">
+        <v>231</v>
+      </c>
+      <c r="E714" t="s">
+        <v>73</v>
+      </c>
+      <c r="F714">
+        <v>27</v>
+      </c>
+      <c r="H714" t="s">
+        <v>72</v>
+      </c>
+      <c r="J714" t="s">
+        <v>74</v>
+      </c>
+      <c r="K714">
+        <v>1</v>
+      </c>
+      <c r="L714" t="s">
+        <v>75</v>
+      </c>
+      <c r="M714" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="715" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A715">
         <v>715</v>
       </c>
-    </row>
-    <row r="716" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="D715" t="s">
+        <v>231</v>
+      </c>
+      <c r="E715" t="s">
+        <v>73</v>
+      </c>
+      <c r="F715">
+        <v>27</v>
+      </c>
+      <c r="H715" t="s">
+        <v>72</v>
+      </c>
+      <c r="J715" t="s">
+        <v>74</v>
+      </c>
+      <c r="K715">
+        <v>2</v>
+      </c>
+      <c r="L715" t="s">
+        <v>99</v>
+      </c>
+      <c r="M715" t="s">
+        <v>57</v>
+      </c>
+      <c r="N715" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="716" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A716">
         <v>716</v>
       </c>
-    </row>
-    <row r="717" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="D716" t="s">
+        <v>349</v>
+      </c>
+      <c r="E716" t="s">
+        <v>73</v>
+      </c>
+      <c r="F716">
+        <v>27</v>
+      </c>
+      <c r="G716" t="s">
+        <v>95</v>
+      </c>
+      <c r="H716" t="s">
+        <v>141</v>
+      </c>
+      <c r="I716">
+        <v>2</v>
+      </c>
+      <c r="J716" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="717" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A717">
         <v>717</v>
       </c>
-    </row>
-    <row r="718" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="D717" t="s">
+        <v>349</v>
+      </c>
+      <c r="E717" t="s">
+        <v>73</v>
+      </c>
+      <c r="F717">
+        <v>27</v>
+      </c>
+      <c r="G717" t="s">
+        <v>95</v>
+      </c>
+      <c r="H717" t="s">
+        <v>141</v>
+      </c>
+      <c r="I717">
+        <v>6</v>
+      </c>
+      <c r="J717" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="718" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A718">
         <v>718</v>
       </c>
-    </row>
-    <row r="719" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="D718" t="s">
+        <v>349</v>
+      </c>
+      <c r="E718" t="s">
+        <v>73</v>
+      </c>
+      <c r="F718">
+        <v>27</v>
+      </c>
+      <c r="G718" t="s">
+        <v>88</v>
+      </c>
+      <c r="H718" t="s">
+        <v>141</v>
+      </c>
+      <c r="I718">
+        <v>11</v>
+      </c>
+      <c r="J718" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="719" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A719">
         <v>719</v>
       </c>
-    </row>
-    <row r="720" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="D719" t="s">
+        <v>349</v>
+      </c>
+      <c r="E719" t="s">
+        <v>73</v>
+      </c>
+      <c r="F719">
+        <v>27</v>
+      </c>
+      <c r="G719" t="s">
+        <v>95</v>
+      </c>
+      <c r="I719">
+        <v>3</v>
+      </c>
+      <c r="J719" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="720" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A720">
         <v>720</v>
       </c>
-    </row>
-    <row r="721" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="D720" t="s">
+        <v>349</v>
+      </c>
+      <c r="E720" t="s">
+        <v>73</v>
+      </c>
+      <c r="F720">
+        <v>27</v>
+      </c>
+      <c r="G720" t="s">
+        <v>95</v>
+      </c>
+      <c r="I720">
+        <v>11</v>
+      </c>
+      <c r="J720" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="721" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A721">
         <v>721</v>
       </c>
-    </row>
-    <row r="722" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="D721" t="s">
+        <v>349</v>
+      </c>
+      <c r="E721" t="s">
+        <v>73</v>
+      </c>
+      <c r="F721">
+        <v>27</v>
+      </c>
+      <c r="G721" t="s">
+        <v>88</v>
+      </c>
+      <c r="I721">
+        <v>10</v>
+      </c>
+      <c r="J721" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="722" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A722">
         <v>722</v>
       </c>
-    </row>
-    <row r="723" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="D722" t="s">
+        <v>349</v>
+      </c>
+      <c r="E722" t="s">
+        <v>73</v>
+      </c>
+      <c r="F722">
+        <v>27</v>
+      </c>
+      <c r="G722" t="s">
+        <v>88</v>
+      </c>
+      <c r="I722">
+        <v>8</v>
+      </c>
+      <c r="J722" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="723" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A723">
         <v>723</v>
       </c>
-    </row>
-    <row r="724" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="D723" t="s">
+        <v>349</v>
+      </c>
+      <c r="E723" t="s">
+        <v>73</v>
+      </c>
+      <c r="F723">
+        <v>27</v>
+      </c>
+      <c r="G723" t="s">
+        <v>95</v>
+      </c>
+      <c r="I723">
+        <v>8</v>
+      </c>
+      <c r="J723" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="724" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A724">
         <v>724</v>
       </c>
-    </row>
-    <row r="725" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="D724" t="s">
+        <v>349</v>
+      </c>
+      <c r="E724" t="s">
+        <v>73</v>
+      </c>
+      <c r="F724">
+        <v>27</v>
+      </c>
+      <c r="G724" t="s">
+        <v>95</v>
+      </c>
+      <c r="I724">
+        <v>12</v>
+      </c>
+      <c r="J724" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="725" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A725">
         <v>725</v>
       </c>
-    </row>
-    <row r="726" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="D725" t="s">
+        <v>349</v>
+      </c>
+      <c r="E725" t="s">
+        <v>73</v>
+      </c>
+      <c r="F725">
+        <v>27</v>
+      </c>
+      <c r="G725" t="s">
+        <v>88</v>
+      </c>
+      <c r="I725">
+        <v>5</v>
+      </c>
+      <c r="J725" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="726" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A726">
         <v>726</v>
       </c>
-    </row>
-    <row r="727" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="D726" t="s">
+        <v>349</v>
+      </c>
+      <c r="E726" t="s">
+        <v>73</v>
+      </c>
+      <c r="F726">
+        <v>27</v>
+      </c>
+      <c r="G726" t="s">
+        <v>88</v>
+      </c>
+      <c r="I726">
+        <v>9</v>
+      </c>
+      <c r="J726" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="727" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A727">
         <v>727</v>
       </c>
-    </row>
-    <row r="728" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="D727" t="s">
+        <v>349</v>
+      </c>
+      <c r="E727" t="s">
+        <v>73</v>
+      </c>
+      <c r="F727">
+        <v>27</v>
+      </c>
+      <c r="G727" t="s">
+        <v>88</v>
+      </c>
+      <c r="I727">
+        <v>2</v>
+      </c>
+      <c r="J727" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="728" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A728">
         <v>728</v>
       </c>
-    </row>
-    <row r="729" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="D728" t="s">
+        <v>349</v>
+      </c>
+      <c r="E728" t="s">
+        <v>73</v>
+      </c>
+      <c r="F728">
+        <v>27</v>
+      </c>
+      <c r="G728" t="s">
+        <v>88</v>
+      </c>
+      <c r="I728">
+        <v>12</v>
+      </c>
+      <c r="J728" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="729" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A729">
         <v>729</v>
       </c>
-    </row>
-    <row r="730" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="D729" t="s">
+        <v>349</v>
+      </c>
+      <c r="E729" t="s">
+        <v>73</v>
+      </c>
+      <c r="F729">
+        <v>27</v>
+      </c>
+      <c r="G729" t="s">
+        <v>95</v>
+      </c>
+      <c r="I729">
+        <v>5</v>
+      </c>
+      <c r="J729" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="730" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A730">
         <v>730</v>
       </c>
-    </row>
-    <row r="731" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="D730" t="s">
+        <v>349</v>
+      </c>
+      <c r="E730" t="s">
+        <v>73</v>
+      </c>
+      <c r="F730">
+        <v>27</v>
+      </c>
+      <c r="G730" t="s">
+        <v>95</v>
+      </c>
+      <c r="I730">
+        <v>9</v>
+      </c>
+      <c r="J730" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="731" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A731">
         <v>731</v>
       </c>
-    </row>
-    <row r="732" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="D731" t="s">
+        <v>349</v>
+      </c>
+      <c r="E731" t="s">
+        <v>73</v>
+      </c>
+      <c r="F731">
+        <v>27</v>
+      </c>
+      <c r="G731" t="s">
+        <v>88</v>
+      </c>
+      <c r="I731">
+        <v>1</v>
+      </c>
+      <c r="J731" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="732" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A732">
         <v>732</v>
       </c>
-    </row>
-    <row r="733" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="D732" t="s">
+        <v>349</v>
+      </c>
+      <c r="E732" t="s">
+        <v>73</v>
+      </c>
+      <c r="F732">
+        <v>27</v>
+      </c>
+      <c r="G732" t="s">
+        <v>95</v>
+      </c>
+      <c r="I732">
+        <v>10</v>
+      </c>
+      <c r="J732" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="733" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A733">
         <v>733</v>
       </c>
-    </row>
-    <row r="734" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="D733" t="s">
+        <v>349</v>
+      </c>
+      <c r="E733" t="s">
+        <v>73</v>
+      </c>
+      <c r="F733">
+        <v>27</v>
+      </c>
+      <c r="G733" t="s">
+        <v>95</v>
+      </c>
+      <c r="H733" t="s">
+        <v>200</v>
+      </c>
+      <c r="J733" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="734" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A734">
         <v>734</v>
       </c>
-    </row>
-    <row r="735" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="D734" t="s">
+        <v>349</v>
+      </c>
+      <c r="E734" t="s">
+        <v>73</v>
+      </c>
+      <c r="F734">
+        <v>27</v>
+      </c>
+      <c r="G734" t="s">
+        <v>88</v>
+      </c>
+      <c r="I734">
+        <v>7</v>
+      </c>
+      <c r="J734" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="735" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A735">
         <v>735</v>
       </c>
-    </row>
-    <row r="736" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="D735" t="s">
+        <v>349</v>
+      </c>
+      <c r="E735" t="s">
+        <v>73</v>
+      </c>
+      <c r="F735">
+        <v>27</v>
+      </c>
+      <c r="G735" t="s">
+        <v>88</v>
+      </c>
+      <c r="I735">
+        <v>4</v>
+      </c>
+      <c r="J735" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="736" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A736">
         <v>736</v>
       </c>
-    </row>
-    <row r="737" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="D736" t="s">
+        <v>349</v>
+      </c>
+      <c r="E736" t="s">
+        <v>73</v>
+      </c>
+      <c r="F736">
+        <v>27</v>
+      </c>
+      <c r="G736" t="s">
+        <v>88</v>
+      </c>
+      <c r="I736">
+        <v>3</v>
+      </c>
+      <c r="J736" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="737" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A737">
         <v>737</v>
       </c>
-    </row>
-    <row r="738" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="D737" t="s">
+        <v>349</v>
+      </c>
+      <c r="E737" t="s">
+        <v>73</v>
+      </c>
+      <c r="F737">
+        <v>27</v>
+      </c>
+      <c r="G737" t="s">
+        <v>88</v>
+      </c>
+      <c r="I737">
+        <v>6</v>
+      </c>
+      <c r="J737" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="738" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A738">
         <v>738</v>
       </c>
-    </row>
-    <row r="739" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="D738" t="s">
+        <v>349</v>
+      </c>
+      <c r="E738" t="s">
+        <v>73</v>
+      </c>
+      <c r="F738">
+        <v>27</v>
+      </c>
+      <c r="G738" t="s">
+        <v>95</v>
+      </c>
+      <c r="I738">
+        <v>1</v>
+      </c>
+      <c r="J738" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="739" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A739">
         <v>739</v>
       </c>
-    </row>
-    <row r="740" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="D739" t="s">
+        <v>349</v>
+      </c>
+      <c r="E739" t="s">
+        <v>73</v>
+      </c>
+      <c r="F739">
+        <v>27</v>
+      </c>
+      <c r="G739" t="s">
+        <v>95</v>
+      </c>
+      <c r="I739">
+        <v>4</v>
+      </c>
+      <c r="J739" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="740" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A740">
         <v>740</v>
       </c>
-    </row>
-    <row r="741" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="D740" t="s">
+        <v>351</v>
+      </c>
+      <c r="E740" t="s">
+        <v>73</v>
+      </c>
+      <c r="F740">
+        <v>28</v>
+      </c>
+      <c r="G740" t="s">
+        <v>95</v>
+      </c>
+      <c r="H740" t="s">
+        <v>96</v>
+      </c>
+      <c r="I740">
+        <v>2</v>
+      </c>
+      <c r="J740" t="s">
+        <v>74</v>
+      </c>
+      <c r="K740">
+        <v>1</v>
+      </c>
+      <c r="L740" t="s">
+        <v>99</v>
+      </c>
+      <c r="M740" t="s">
+        <v>57</v>
+      </c>
+      <c r="N740" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="741" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A741">
         <v>741</v>
       </c>
-    </row>
-    <row r="742" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="D741" t="s">
+        <v>351</v>
+      </c>
+      <c r="E741" t="s">
+        <v>73</v>
+      </c>
+      <c r="F741">
+        <v>28</v>
+      </c>
+      <c r="G741" t="s">
+        <v>95</v>
+      </c>
+      <c r="H741" t="s">
+        <v>96</v>
+      </c>
+      <c r="I741">
+        <v>4</v>
+      </c>
+      <c r="J741" t="s">
+        <v>74</v>
+      </c>
+      <c r="K741">
+        <v>1</v>
+      </c>
+      <c r="L741" t="s">
+        <v>99</v>
+      </c>
+      <c r="M741" t="s">
+        <v>57</v>
+      </c>
+      <c r="N741" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="742" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A742">
         <v>742</v>
       </c>
-    </row>
-    <row r="743" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="D742" t="s">
+        <v>351</v>
+      </c>
+      <c r="E742" t="s">
+        <v>73</v>
+      </c>
+      <c r="F742">
+        <v>28</v>
+      </c>
+      <c r="G742" t="s">
+        <v>95</v>
+      </c>
+      <c r="H742" t="s">
+        <v>89</v>
+      </c>
+      <c r="I742">
+        <v>5</v>
+      </c>
+      <c r="J742" t="s">
+        <v>74</v>
+      </c>
+      <c r="K742">
+        <v>2</v>
+      </c>
+      <c r="L742" t="s">
+        <v>99</v>
+      </c>
+      <c r="M742" t="s">
+        <v>57</v>
+      </c>
+      <c r="N742" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="743" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A743">
         <v>743</v>
       </c>
-    </row>
-    <row r="744" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="D743" t="s">
+        <v>351</v>
+      </c>
+      <c r="E743" t="s">
+        <v>73</v>
+      </c>
+      <c r="F743">
+        <v>28</v>
+      </c>
+      <c r="G743" t="s">
+        <v>95</v>
+      </c>
+      <c r="H743" t="s">
+        <v>89</v>
+      </c>
+      <c r="I743">
+        <v>6</v>
+      </c>
+      <c r="J743" t="s">
+        <v>74</v>
+      </c>
+      <c r="K743">
+        <v>1</v>
+      </c>
+      <c r="L743" t="s">
+        <v>99</v>
+      </c>
+      <c r="M743" t="s">
+        <v>57</v>
+      </c>
+      <c r="N743" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="744" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A744">
         <v>744</v>
       </c>
-    </row>
-    <row r="745" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="D744" t="s">
+        <v>351</v>
+      </c>
+      <c r="E744" t="s">
+        <v>73</v>
+      </c>
+      <c r="F744">
+        <v>28</v>
+      </c>
+      <c r="G744" t="s">
+        <v>95</v>
+      </c>
+      <c r="H744" t="s">
+        <v>96</v>
+      </c>
+      <c r="I744">
+        <v>10</v>
+      </c>
+      <c r="J744" t="s">
+        <v>74</v>
+      </c>
+      <c r="K744">
+        <v>1</v>
+      </c>
+      <c r="L744" t="s">
+        <v>99</v>
+      </c>
+      <c r="M744" t="s">
+        <v>57</v>
+      </c>
+      <c r="N744" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="745" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A745">
         <v>745</v>
       </c>
-    </row>
-    <row r="746" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B745" t="s">
+        <v>352</v>
+      </c>
+      <c r="C745" t="s">
+        <v>70</v>
+      </c>
+      <c r="D745" t="s">
+        <v>351</v>
+      </c>
+      <c r="E745" t="s">
+        <v>73</v>
+      </c>
+      <c r="F745">
+        <v>28</v>
+      </c>
+      <c r="G745" t="s">
+        <v>95</v>
+      </c>
+      <c r="H745" t="s">
+        <v>96</v>
+      </c>
+      <c r="I745">
+        <v>10</v>
+      </c>
+      <c r="J745" t="s">
+        <v>74</v>
+      </c>
+      <c r="K745">
+        <v>1</v>
+      </c>
+      <c r="L745" t="s">
+        <v>99</v>
+      </c>
+      <c r="M745" t="s">
+        <v>57</v>
+      </c>
+      <c r="N745" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="746" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A746">
         <v>746</v>
       </c>
-    </row>
-    <row r="747" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="D746" t="s">
+        <v>351</v>
+      </c>
+      <c r="E746" t="s">
+        <v>73</v>
+      </c>
+      <c r="F746">
+        <v>28</v>
+      </c>
+      <c r="G746" t="s">
+        <v>95</v>
+      </c>
+      <c r="H746" t="s">
+        <v>89</v>
+      </c>
+      <c r="I746">
+        <v>2</v>
+      </c>
+      <c r="J746" t="s">
+        <v>143</v>
+      </c>
+      <c r="K746">
+        <v>1</v>
+      </c>
+      <c r="L746" t="s">
+        <v>75</v>
+      </c>
+      <c r="M746" t="s">
+        <v>77</v>
+      </c>
+      <c r="P746" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="747" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A747">
         <v>747</v>
       </c>
-    </row>
-    <row r="748" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="D747" t="s">
+        <v>351</v>
+      </c>
+      <c r="E747" t="s">
+        <v>73</v>
+      </c>
+      <c r="F747">
+        <v>28</v>
+      </c>
+      <c r="G747" t="s">
+        <v>95</v>
+      </c>
+      <c r="H747" t="s">
+        <v>89</v>
+      </c>
+      <c r="I747">
+        <v>10</v>
+      </c>
+      <c r="J747" t="s">
+        <v>74</v>
+      </c>
+      <c r="K747">
+        <v>1</v>
+      </c>
+      <c r="L747" t="s">
+        <v>99</v>
+      </c>
+      <c r="M747" t="s">
+        <v>57</v>
+      </c>
+      <c r="N747" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="748" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A748">
         <v>748</v>
       </c>
-    </row>
-    <row r="749" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="D748" t="s">
+        <v>351</v>
+      </c>
+      <c r="E748" t="s">
+        <v>73</v>
+      </c>
+      <c r="F748">
+        <v>28</v>
+      </c>
+      <c r="G748" t="s">
+        <v>95</v>
+      </c>
+      <c r="H748" t="s">
+        <v>96</v>
+      </c>
+      <c r="I748">
+        <v>3</v>
+      </c>
+      <c r="J748" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="749" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A749">
         <v>749</v>
       </c>
-    </row>
-    <row r="750" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="D749" t="s">
+        <v>351</v>
+      </c>
+      <c r="E749" t="s">
+        <v>73</v>
+      </c>
+      <c r="F749">
+        <v>28</v>
+      </c>
+      <c r="G749" t="s">
+        <v>95</v>
+      </c>
+      <c r="H749" t="s">
+        <v>89</v>
+      </c>
+      <c r="I749">
+        <v>3</v>
+      </c>
+      <c r="J749" t="s">
+        <v>143</v>
+      </c>
+      <c r="K749">
+        <v>1</v>
+      </c>
+      <c r="L749" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="750" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A750">
         <v>750</v>
       </c>
-    </row>
-    <row r="751" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="D750" t="s">
+        <v>351</v>
+      </c>
+      <c r="E750" t="s">
+        <v>73</v>
+      </c>
+      <c r="F750">
+        <v>28</v>
+      </c>
+      <c r="G750" t="s">
+        <v>95</v>
+      </c>
+      <c r="H750" t="s">
+        <v>89</v>
+      </c>
+      <c r="I750">
+        <v>9</v>
+      </c>
+      <c r="J750" t="s">
+        <v>74</v>
+      </c>
+      <c r="K750">
+        <v>2</v>
+      </c>
+      <c r="L750" t="s">
+        <v>99</v>
+      </c>
+      <c r="M750" t="s">
+        <v>57</v>
+      </c>
+      <c r="N750" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="751" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A751">
         <v>751</v>
       </c>
-    </row>
-    <row r="752" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="D751" t="s">
+        <v>351</v>
+      </c>
+      <c r="E751" t="s">
+        <v>73</v>
+      </c>
+      <c r="F751">
+        <v>28</v>
+      </c>
+      <c r="G751" t="s">
+        <v>95</v>
+      </c>
+      <c r="H751" t="s">
+        <v>89</v>
+      </c>
+      <c r="I751">
+        <v>4</v>
+      </c>
+      <c r="J751" t="s">
+        <v>74</v>
+      </c>
+      <c r="K751">
+        <v>1</v>
+      </c>
+      <c r="L751" t="s">
+        <v>99</v>
+      </c>
+      <c r="M751" t="s">
+        <v>57</v>
+      </c>
+      <c r="N751" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="752" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A752">
         <v>752</v>
       </c>
-    </row>
-    <row r="753" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="D752" t="s">
+        <v>351</v>
+      </c>
+      <c r="E752" t="s">
+        <v>73</v>
+      </c>
+      <c r="F752">
+        <v>28</v>
+      </c>
+      <c r="G752" t="s">
+        <v>95</v>
+      </c>
+      <c r="H752" t="s">
+        <v>89</v>
+      </c>
+      <c r="I752">
+        <v>7</v>
+      </c>
+      <c r="J752" t="s">
+        <v>74</v>
+      </c>
+      <c r="K752">
+        <v>1</v>
+      </c>
+      <c r="L752" t="s">
+        <v>99</v>
+      </c>
+      <c r="M752" t="s">
+        <v>57</v>
+      </c>
+      <c r="N752" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="753" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A753">
         <v>753</v>
       </c>
-    </row>
-    <row r="754" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="D753" t="s">
+        <v>351</v>
+      </c>
+      <c r="E753" t="s">
+        <v>73</v>
+      </c>
+      <c r="F753">
+        <v>28</v>
+      </c>
+      <c r="G753" t="s">
+        <v>95</v>
+      </c>
+      <c r="H753" t="s">
+        <v>96</v>
+      </c>
+      <c r="I753">
+        <v>7</v>
+      </c>
+      <c r="J753" t="s">
+        <v>74</v>
+      </c>
+      <c r="K753">
+        <v>1</v>
+      </c>
+      <c r="L753" t="s">
+        <v>99</v>
+      </c>
+      <c r="M753" t="s">
+        <v>57</v>
+      </c>
+      <c r="N753" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="754" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A754">
         <v>754</v>
       </c>
-    </row>
-    <row r="755" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="D754" t="s">
+        <v>351</v>
+      </c>
+      <c r="E754" t="s">
+        <v>73</v>
+      </c>
+      <c r="F754">
+        <v>28</v>
+      </c>
+      <c r="G754" t="s">
+        <v>95</v>
+      </c>
+      <c r="H754" t="s">
+        <v>96</v>
+      </c>
+      <c r="I754">
+        <v>7</v>
+      </c>
+      <c r="J754" t="s">
+        <v>74</v>
+      </c>
+      <c r="K754">
+        <v>1</v>
+      </c>
+      <c r="L754" t="s">
+        <v>99</v>
+      </c>
+      <c r="M754" t="s">
+        <v>57</v>
+      </c>
+      <c r="N754" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="755" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A755">
         <v>755</v>
       </c>
-    </row>
-    <row r="756" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="D755" t="s">
+        <v>351</v>
+      </c>
+      <c r="E755" t="s">
+        <v>73</v>
+      </c>
+      <c r="F755">
+        <v>28</v>
+      </c>
+      <c r="H755" t="s">
+        <v>72</v>
+      </c>
+      <c r="J755" t="s">
+        <v>74</v>
+      </c>
+      <c r="K755">
+        <v>4</v>
+      </c>
+      <c r="L755" t="s">
+        <v>99</v>
+      </c>
+      <c r="M755" t="s">
+        <v>57</v>
+      </c>
+      <c r="N755" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="756" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A756">
         <v>756</v>
       </c>
-    </row>
-    <row r="757" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="D756" t="s">
+        <v>351</v>
+      </c>
+      <c r="E756" t="s">
+        <v>73</v>
+      </c>
+      <c r="F756">
+        <v>28</v>
+      </c>
+      <c r="H756" t="s">
+        <v>72</v>
+      </c>
+      <c r="J756" t="s">
+        <v>74</v>
+      </c>
+      <c r="K756">
+        <v>1</v>
+      </c>
+      <c r="L756" t="s">
+        <v>99</v>
+      </c>
+      <c r="M756" t="s">
+        <v>57</v>
+      </c>
+      <c r="N756" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="757" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A757">
         <v>757</v>
       </c>
-    </row>
-    <row r="758" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="D757" t="s">
+        <v>351</v>
+      </c>
+      <c r="E757" t="s">
+        <v>73</v>
+      </c>
+      <c r="F757">
+        <v>28</v>
+      </c>
+      <c r="H757" t="s">
+        <v>72</v>
+      </c>
+      <c r="J757" t="s">
+        <v>143</v>
+      </c>
+      <c r="K757">
+        <v>9</v>
+      </c>
+      <c r="L757" t="s">
+        <v>75</v>
+      </c>
+      <c r="M757" t="s">
+        <v>77</v>
+      </c>
+      <c r="P757" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="758" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A758">
         <v>758</v>
       </c>
-    </row>
-    <row r="759" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="D758" t="s">
+        <v>351</v>
+      </c>
+      <c r="E758" t="s">
+        <v>73</v>
+      </c>
+      <c r="F758">
+        <v>28</v>
+      </c>
+      <c r="H758" t="s">
+        <v>72</v>
+      </c>
+      <c r="J758" t="s">
+        <v>143</v>
+      </c>
+      <c r="K758">
+        <v>1</v>
+      </c>
+      <c r="L758" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="759" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A759">
         <v>759</v>
       </c>
-    </row>
-    <row r="760" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="D759" t="s">
+        <v>351</v>
+      </c>
+      <c r="E759" t="s">
+        <v>73</v>
+      </c>
+      <c r="F759">
+        <v>28</v>
+      </c>
+      <c r="H759" t="s">
+        <v>72</v>
+      </c>
+      <c r="J759" t="s">
+        <v>143</v>
+      </c>
+      <c r="K759">
+        <v>1</v>
+      </c>
+      <c r="L759" t="s">
+        <v>148</v>
+      </c>
+      <c r="R759" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="760" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A760">
         <v>760</v>
       </c>
-    </row>
-    <row r="761" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="D760" t="s">
+        <v>351</v>
+      </c>
+      <c r="E760" t="s">
+        <v>73</v>
+      </c>
+      <c r="F760">
+        <v>29</v>
+      </c>
+      <c r="G760" t="s">
+        <v>95</v>
+      </c>
+      <c r="H760" t="s">
+        <v>89</v>
+      </c>
+      <c r="I760">
+        <v>10</v>
+      </c>
+      <c r="J760" t="s">
+        <v>74</v>
+      </c>
+      <c r="K760">
+        <v>1</v>
+      </c>
+      <c r="L760" t="s">
+        <v>99</v>
+      </c>
+      <c r="M760" t="s">
+        <v>57</v>
+      </c>
+      <c r="N760" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="761" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A761">
         <v>761</v>
       </c>
-    </row>
-    <row r="762" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="D761" t="s">
+        <v>351</v>
+      </c>
+      <c r="E761" t="s">
+        <v>73</v>
+      </c>
+      <c r="F761">
+        <v>29</v>
+      </c>
+      <c r="G761" t="s">
+        <v>95</v>
+      </c>
+      <c r="H761" t="s">
+        <v>96</v>
+      </c>
+      <c r="I761">
+        <v>8</v>
+      </c>
+      <c r="J761" t="s">
+        <v>74</v>
+      </c>
+      <c r="K761">
+        <v>1</v>
+      </c>
+      <c r="L761" t="s">
+        <v>99</v>
+      </c>
+      <c r="M761" t="s">
+        <v>57</v>
+      </c>
+      <c r="N761" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="762" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A762">
         <v>762</v>
       </c>
-    </row>
-    <row r="763" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="D762" t="s">
+        <v>351</v>
+      </c>
+      <c r="E762" t="s">
+        <v>73</v>
+      </c>
+      <c r="F762">
+        <v>29</v>
+      </c>
+      <c r="G762" t="s">
+        <v>95</v>
+      </c>
+      <c r="H762" t="s">
+        <v>96</v>
+      </c>
+      <c r="I762">
+        <v>10</v>
+      </c>
+      <c r="J762" t="s">
+        <v>74</v>
+      </c>
+      <c r="K762">
+        <v>1</v>
+      </c>
+      <c r="L762" t="s">
+        <v>99</v>
+      </c>
+      <c r="M762" t="s">
+        <v>57</v>
+      </c>
+      <c r="N762" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="763" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A763">
         <v>763</v>
       </c>
-    </row>
-    <row r="764" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="D763" t="s">
+        <v>351</v>
+      </c>
+      <c r="E763" t="s">
+        <v>73</v>
+      </c>
+      <c r="F763">
+        <v>29</v>
+      </c>
+      <c r="G763" t="s">
+        <v>95</v>
+      </c>
+      <c r="H763" t="s">
+        <v>96</v>
+      </c>
+      <c r="I763">
+        <v>2</v>
+      </c>
+      <c r="J763" t="s">
+        <v>74</v>
+      </c>
+      <c r="K763">
+        <v>1</v>
+      </c>
+      <c r="L763" t="s">
+        <v>99</v>
+      </c>
+      <c r="M763" t="s">
+        <v>57</v>
+      </c>
+      <c r="N763" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="764" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A764">
         <v>764</v>
       </c>
-    </row>
-    <row r="765" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="D764" t="s">
+        <v>351</v>
+      </c>
+      <c r="E764" t="s">
+        <v>73</v>
+      </c>
+      <c r="F764">
+        <v>29</v>
+      </c>
+      <c r="G764" t="s">
+        <v>95</v>
+      </c>
+      <c r="H764" t="s">
+        <v>89</v>
+      </c>
+      <c r="I764">
+        <v>3</v>
+      </c>
+      <c r="J764" t="s">
+        <v>74</v>
+      </c>
+      <c r="K764">
+        <v>1</v>
+      </c>
+      <c r="L764" t="s">
+        <v>99</v>
+      </c>
+      <c r="M764" t="s">
+        <v>57</v>
+      </c>
+      <c r="N764" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="765" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A765">
         <v>765</v>
       </c>
-    </row>
-    <row r="766" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="D765" t="s">
+        <v>351</v>
+      </c>
+      <c r="E765" t="s">
+        <v>73</v>
+      </c>
+      <c r="F765">
+        <v>29</v>
+      </c>
+      <c r="G765" t="s">
+        <v>95</v>
+      </c>
+      <c r="H765" t="s">
+        <v>96</v>
+      </c>
+      <c r="I765">
+        <v>6</v>
+      </c>
+      <c r="J765" t="s">
+        <v>143</v>
+      </c>
+      <c r="K765">
+        <v>1</v>
+      </c>
+      <c r="L765" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="766" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A766">
         <v>766</v>
       </c>
-    </row>
-    <row r="767" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="D766" t="s">
+        <v>351</v>
+      </c>
+      <c r="E766" t="s">
+        <v>73</v>
+      </c>
+      <c r="F766">
+        <v>29</v>
+      </c>
+      <c r="G766" t="s">
+        <v>95</v>
+      </c>
+      <c r="H766" t="s">
+        <v>96</v>
+      </c>
+      <c r="I766">
+        <v>1</v>
+      </c>
+      <c r="J766" t="s">
+        <v>143</v>
+      </c>
+      <c r="K766">
+        <v>1</v>
+      </c>
+      <c r="L766" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="767" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A767">
         <v>767</v>
       </c>
-    </row>
-    <row r="768" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="D767" t="s">
+        <v>351</v>
+      </c>
+      <c r="E767" t="s">
+        <v>73</v>
+      </c>
+      <c r="F767">
+        <v>29</v>
+      </c>
+      <c r="G767" t="s">
+        <v>95</v>
+      </c>
+      <c r="H767" t="s">
+        <v>96</v>
+      </c>
+      <c r="I767">
+        <v>9</v>
+      </c>
+      <c r="J767" t="s">
+        <v>143</v>
+      </c>
+      <c r="K767">
+        <v>1</v>
+      </c>
+      <c r="L767" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="768" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A768">
         <v>768</v>
       </c>
-    </row>
-    <row r="769" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="D768" t="s">
+        <v>351</v>
+      </c>
+      <c r="E768" t="s">
+        <v>73</v>
+      </c>
+      <c r="F768">
+        <v>29</v>
+      </c>
+      <c r="G768" t="s">
+        <v>95</v>
+      </c>
+      <c r="H768" t="s">
+        <v>96</v>
+      </c>
+      <c r="I768">
+        <v>9</v>
+      </c>
+      <c r="J768" t="s">
+        <v>143</v>
+      </c>
+      <c r="K768">
+        <v>1</v>
+      </c>
+      <c r="L768" t="s">
+        <v>99</v>
+      </c>
+      <c r="M768" t="s">
+        <v>57</v>
+      </c>
+      <c r="N768" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="769" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A769">
         <v>769</v>
       </c>
-    </row>
-    <row r="770" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="D769" t="s">
+        <v>351</v>
+      </c>
+      <c r="E769" t="s">
+        <v>73</v>
+      </c>
+      <c r="F769">
+        <v>29</v>
+      </c>
+      <c r="G769" t="s">
+        <v>95</v>
+      </c>
+      <c r="H769" t="s">
+        <v>89</v>
+      </c>
+      <c r="I769">
+        <v>5</v>
+      </c>
+      <c r="J769" t="s">
+        <v>143</v>
+      </c>
+      <c r="K769">
+        <v>1</v>
+      </c>
+      <c r="L769" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="770" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A770">
         <v>770</v>
       </c>
-    </row>
-    <row r="771" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="D770" t="s">
+        <v>351</v>
+      </c>
+      <c r="E770" t="s">
+        <v>73</v>
+      </c>
+      <c r="F770">
+        <v>29</v>
+      </c>
+      <c r="G770" t="s">
+        <v>95</v>
+      </c>
+      <c r="H770" t="s">
+        <v>89</v>
+      </c>
+      <c r="I770">
+        <v>5</v>
+      </c>
+      <c r="J770" t="s">
+        <v>143</v>
+      </c>
+      <c r="K770">
+        <v>2</v>
+      </c>
+      <c r="L770" t="s">
+        <v>75</v>
+      </c>
+      <c r="M770" t="s">
+        <v>77</v>
+      </c>
+      <c r="P770" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="771" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A771">
         <v>771</v>
       </c>
-    </row>
-    <row r="772" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="D771" t="s">
+        <v>351</v>
+      </c>
+      <c r="E771" t="s">
+        <v>73</v>
+      </c>
+      <c r="F771">
+        <v>29</v>
+      </c>
+      <c r="G771" t="s">
+        <v>95</v>
+      </c>
+      <c r="H771" t="s">
+        <v>89</v>
+      </c>
+      <c r="I771">
+        <v>5</v>
+      </c>
+      <c r="J771" t="s">
+        <v>143</v>
+      </c>
+      <c r="K771">
+        <v>1</v>
+      </c>
+      <c r="L771" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="772" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A772">
         <v>772</v>
       </c>
-    </row>
-    <row r="773" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="D772" t="s">
+        <v>351</v>
+      </c>
+      <c r="E772" t="s">
+        <v>73</v>
+      </c>
+      <c r="F772">
+        <v>29</v>
+      </c>
+      <c r="G772" t="s">
+        <v>95</v>
+      </c>
+      <c r="H772" t="s">
+        <v>89</v>
+      </c>
+      <c r="I772">
+        <v>5</v>
+      </c>
+      <c r="J772" t="s">
+        <v>143</v>
+      </c>
+      <c r="K772">
+        <v>1</v>
+      </c>
+      <c r="L772" t="s">
+        <v>79</v>
+      </c>
+      <c r="M772" t="s">
+        <v>321</v>
+      </c>
+      <c r="Q772" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="773" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A773">
         <v>773</v>
       </c>
-    </row>
-    <row r="774" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="D773" t="s">
+        <v>351</v>
+      </c>
+      <c r="E773" t="s">
+        <v>73</v>
+      </c>
+      <c r="F773">
+        <v>29</v>
+      </c>
+      <c r="G773" t="s">
+        <v>95</v>
+      </c>
+      <c r="H773" t="s">
+        <v>89</v>
+      </c>
+      <c r="I773">
+        <v>1</v>
+      </c>
+      <c r="J773" t="s">
+        <v>143</v>
+      </c>
+      <c r="K773">
+        <v>1</v>
+      </c>
+      <c r="L773" t="s">
+        <v>75</v>
+      </c>
+      <c r="M773" t="s">
+        <v>77</v>
+      </c>
+      <c r="P773" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="774" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A774">
         <v>774</v>
       </c>
-    </row>
-    <row r="775" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="D774" t="s">
+        <v>351</v>
+      </c>
+      <c r="E774" t="s">
+        <v>73</v>
+      </c>
+      <c r="F774">
+        <v>29</v>
+      </c>
+      <c r="G774" t="s">
+        <v>95</v>
+      </c>
+      <c r="H774" t="s">
+        <v>89</v>
+      </c>
+      <c r="I774">
+        <v>9</v>
+      </c>
+      <c r="J774" t="s">
+        <v>143</v>
+      </c>
+      <c r="K774">
+        <v>1</v>
+      </c>
+      <c r="L774" t="s">
+        <v>99</v>
+      </c>
+      <c r="M774" t="s">
+        <v>57</v>
+      </c>
+      <c r="N774" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="775" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A775">
         <v>775</v>
       </c>
-    </row>
-    <row r="776" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="D775" t="s">
+        <v>351</v>
+      </c>
+      <c r="E775" t="s">
+        <v>73</v>
+      </c>
+      <c r="F775">
+        <v>29</v>
+      </c>
+      <c r="G775" t="s">
+        <v>95</v>
+      </c>
+      <c r="H775" t="s">
+        <v>89</v>
+      </c>
+      <c r="I775">
+        <v>9</v>
+      </c>
+      <c r="J775" t="s">
+        <v>143</v>
+      </c>
+      <c r="K775">
+        <v>1</v>
+      </c>
+      <c r="L775" t="s">
+        <v>75</v>
+      </c>
+      <c r="M775" t="s">
+        <v>77</v>
+      </c>
+      <c r="P775" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="776" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A776">
         <v>776</v>
       </c>
-    </row>
-    <row r="777" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="D776" t="s">
+        <v>351</v>
+      </c>
+      <c r="E776" t="s">
+        <v>73</v>
+      </c>
+      <c r="F776">
+        <v>29</v>
+      </c>
+      <c r="G776" t="s">
+        <v>95</v>
+      </c>
+      <c r="H776" t="s">
+        <v>96</v>
+      </c>
+      <c r="I776">
+        <v>7</v>
+      </c>
+      <c r="J776" t="s">
+        <v>74</v>
+      </c>
+      <c r="K776">
+        <v>1</v>
+      </c>
+      <c r="L776" t="s">
+        <v>99</v>
+      </c>
+      <c r="M776" t="s">
+        <v>57</v>
+      </c>
+      <c r="N776" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="777" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A777">
         <v>777</v>
       </c>
-    </row>
-    <row r="778" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="D777" t="s">
+        <v>351</v>
+      </c>
+      <c r="E777" t="s">
+        <v>73</v>
+      </c>
+      <c r="F777">
+        <v>29</v>
+      </c>
+      <c r="H777" t="s">
+        <v>72</v>
+      </c>
+      <c r="J777" t="s">
+        <v>143</v>
+      </c>
+      <c r="K777">
+        <v>2</v>
+      </c>
+      <c r="L777" t="s">
+        <v>99</v>
+      </c>
+      <c r="M777" t="s">
+        <v>57</v>
+      </c>
+      <c r="N777" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="778" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A778">
         <v>778</v>
       </c>
-    </row>
-    <row r="779" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="D778" t="s">
+        <v>351</v>
+      </c>
+      <c r="E778" t="s">
+        <v>73</v>
+      </c>
+      <c r="F778">
+        <v>29</v>
+      </c>
+      <c r="H778" t="s">
+        <v>72</v>
+      </c>
+      <c r="J778" t="s">
+        <v>143</v>
+      </c>
+      <c r="K778">
+        <v>2</v>
+      </c>
+      <c r="L778" t="s">
+        <v>148</v>
+      </c>
+      <c r="M778" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="779" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A779">
         <v>779</v>
       </c>
-    </row>
-    <row r="780" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="D779" t="s">
+        <v>351</v>
+      </c>
+      <c r="E779" t="s">
+        <v>73</v>
+      </c>
+      <c r="F779">
+        <v>29</v>
+      </c>
+      <c r="H779" t="s">
+        <v>72</v>
+      </c>
+      <c r="J779" t="s">
+        <v>143</v>
+      </c>
+      <c r="K779">
+        <v>1</v>
+      </c>
+      <c r="L779" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="780" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A780">
         <v>780</v>
       </c>
-    </row>
-    <row r="781" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="D780" t="s">
+        <v>351</v>
+      </c>
+      <c r="E780" t="s">
+        <v>73</v>
+      </c>
+      <c r="F780">
+        <v>29</v>
+      </c>
+      <c r="H780" t="s">
+        <v>72</v>
+      </c>
+      <c r="J780" t="s">
+        <v>143</v>
+      </c>
+      <c r="K780">
+        <v>1</v>
+      </c>
+      <c r="L780" t="s">
+        <v>75</v>
+      </c>
+      <c r="M780" t="s">
+        <v>354</v>
+      </c>
+      <c r="N780" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="781" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A781">
         <v>781</v>
       </c>
-    </row>
-    <row r="782" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="D781" t="s">
+        <v>351</v>
+      </c>
+      <c r="E781" t="s">
+        <v>73</v>
+      </c>
+      <c r="F781">
+        <v>31</v>
+      </c>
+      <c r="G781" t="s">
+        <v>88</v>
+      </c>
+      <c r="H781" t="s">
+        <v>141</v>
+      </c>
+      <c r="I781">
+        <v>12</v>
+      </c>
+      <c r="J781" t="s">
+        <v>143</v>
+      </c>
+      <c r="K781">
+        <v>1</v>
+      </c>
+      <c r="L781" t="s">
+        <v>75</v>
+      </c>
+      <c r="M781" t="s">
+        <v>145</v>
+      </c>
+      <c r="P781" t="s">
+        <v>146</v>
+      </c>
+      <c r="Q781" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="782" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A782">
         <v>782</v>
       </c>
-    </row>
-    <row r="783" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="D782" t="s">
+        <v>351</v>
+      </c>
+      <c r="E782" t="s">
+        <v>73</v>
+      </c>
+      <c r="F782">
+        <v>31</v>
+      </c>
+      <c r="G782" t="s">
+        <v>88</v>
+      </c>
+      <c r="H782" t="s">
+        <v>141</v>
+      </c>
+      <c r="I782">
+        <v>12</v>
+      </c>
+      <c r="J782" t="s">
+        <v>143</v>
+      </c>
+      <c r="K782">
+        <v>1</v>
+      </c>
+      <c r="L782" t="s">
+        <v>61</v>
+      </c>
+      <c r="M782" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="783" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A783">
         <v>783</v>
       </c>
-    </row>
-    <row r="784" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="D783" t="s">
+        <v>351</v>
+      </c>
+      <c r="E783" t="s">
+        <v>73</v>
+      </c>
+      <c r="F783">
+        <v>31</v>
+      </c>
+      <c r="G783" t="s">
+        <v>88</v>
+      </c>
+      <c r="H783" t="s">
+        <v>141</v>
+      </c>
+      <c r="I783">
+        <v>11</v>
+      </c>
+      <c r="J783" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="784" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A784">
         <v>784</v>
       </c>
-    </row>
-    <row r="785" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="D784" t="s">
+        <v>351</v>
+      </c>
+      <c r="E784" t="s">
+        <v>73</v>
+      </c>
+      <c r="F784">
+        <v>31</v>
+      </c>
+      <c r="G784" t="s">
+        <v>88</v>
+      </c>
+      <c r="H784" t="s">
+        <v>141</v>
+      </c>
+      <c r="I784">
+        <v>9</v>
+      </c>
+      <c r="J784" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="785" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A785">
         <v>785</v>
       </c>
-    </row>
-    <row r="786" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="D785" t="s">
+        <v>351</v>
+      </c>
+      <c r="E785" t="s">
+        <v>73</v>
+      </c>
+      <c r="F785">
+        <v>31</v>
+      </c>
+      <c r="G785" t="s">
+        <v>88</v>
+      </c>
+      <c r="H785" t="s">
+        <v>141</v>
+      </c>
+      <c r="I785">
+        <v>3</v>
+      </c>
+      <c r="J785" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="786" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A786">
         <v>786</v>
       </c>
-    </row>
-    <row r="787" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="D786" t="s">
+        <v>351</v>
+      </c>
+      <c r="E786" t="s">
+        <v>73</v>
+      </c>
+      <c r="F786">
+        <v>31</v>
+      </c>
+      <c r="G786" t="s">
+        <v>88</v>
+      </c>
+      <c r="H786" t="s">
+        <v>141</v>
+      </c>
+      <c r="I786">
+        <v>5</v>
+      </c>
+      <c r="J786" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="787" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A787">
         <v>787</v>
       </c>
-    </row>
-    <row r="788" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="D787" t="s">
+        <v>351</v>
+      </c>
+      <c r="E787" t="s">
+        <v>73</v>
+      </c>
+      <c r="F787">
+        <v>31</v>
+      </c>
+      <c r="G787" t="s">
+        <v>88</v>
+      </c>
+      <c r="H787" t="s">
+        <v>141</v>
+      </c>
+      <c r="I787">
+        <v>2</v>
+      </c>
+      <c r="J787" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="788" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A788">
         <v>788</v>
       </c>
-    </row>
-    <row r="789" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="D788" t="s">
+        <v>351</v>
+      </c>
+      <c r="E788" t="s">
+        <v>73</v>
+      </c>
+      <c r="F788">
+        <v>31</v>
+      </c>
+      <c r="G788" t="s">
+        <v>95</v>
+      </c>
+      <c r="H788" t="s">
+        <v>141</v>
+      </c>
+      <c r="I788">
+        <v>5</v>
+      </c>
+      <c r="J788" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="789" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A789">
         <v>789</v>
       </c>
-    </row>
-    <row r="790" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="D789" t="s">
+        <v>351</v>
+      </c>
+      <c r="E789" t="s">
+        <v>73</v>
+      </c>
+      <c r="F789">
+        <v>31</v>
+      </c>
+      <c r="G789" t="s">
+        <v>95</v>
+      </c>
+      <c r="H789" t="s">
+        <v>141</v>
+      </c>
+      <c r="I789">
+        <v>9</v>
+      </c>
+      <c r="J789" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="790" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A790">
         <v>790</v>
       </c>
-    </row>
-    <row r="791" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="D790" t="s">
+        <v>351</v>
+      </c>
+      <c r="E790" t="s">
+        <v>73</v>
+      </c>
+      <c r="F790">
+        <v>31</v>
+      </c>
+      <c r="G790" t="s">
+        <v>88</v>
+      </c>
+      <c r="H790" t="s">
+        <v>141</v>
+      </c>
+      <c r="I790">
+        <v>7</v>
+      </c>
+      <c r="J790" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="791" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A791">
         <v>791</v>
       </c>
-    </row>
-    <row r="792" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="D791" t="s">
+        <v>351</v>
+      </c>
+      <c r="E791" t="s">
+        <v>73</v>
+      </c>
+      <c r="F791">
+        <v>31</v>
+      </c>
+      <c r="G791" t="s">
+        <v>95</v>
+      </c>
+      <c r="H791" t="s">
+        <v>141</v>
+      </c>
+      <c r="I791">
+        <v>11</v>
+      </c>
+      <c r="J791" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="792" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A792">
         <v>792</v>
       </c>
-    </row>
-    <row r="793" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="D792" t="s">
+        <v>351</v>
+      </c>
+      <c r="E792" t="s">
+        <v>73</v>
+      </c>
+      <c r="F792">
+        <v>31</v>
+      </c>
+      <c r="G792" t="s">
+        <v>95</v>
+      </c>
+      <c r="H792" t="s">
+        <v>141</v>
+      </c>
+      <c r="I792">
+        <v>2</v>
+      </c>
+      <c r="J792" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="793" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A793">
         <v>793</v>
       </c>
-    </row>
-    <row r="794" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="D793" t="s">
+        <v>351</v>
+      </c>
+      <c r="E793" t="s">
+        <v>73</v>
+      </c>
+      <c r="F793">
+        <v>31</v>
+      </c>
+      <c r="G793" t="s">
+        <v>95</v>
+      </c>
+      <c r="H793" t="s">
+        <v>141</v>
+      </c>
+      <c r="I793">
+        <v>6</v>
+      </c>
+      <c r="J793" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="794" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A794">
         <v>794</v>
       </c>
-    </row>
-    <row r="795" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="D794" t="s">
+        <v>351</v>
+      </c>
+      <c r="E794" t="s">
+        <v>73</v>
+      </c>
+      <c r="F794">
+        <v>31</v>
+      </c>
+      <c r="G794" t="s">
+        <v>88</v>
+      </c>
+      <c r="H794" t="s">
+        <v>141</v>
+      </c>
+      <c r="I794">
+        <v>10</v>
+      </c>
+      <c r="J794" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="795" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A795">
         <v>795</v>
       </c>
-    </row>
-    <row r="796" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="D795" t="s">
+        <v>351</v>
+      </c>
+      <c r="E795" t="s">
+        <v>73</v>
+      </c>
+      <c r="F795">
+        <v>31</v>
+      </c>
+      <c r="G795" t="s">
+        <v>95</v>
+      </c>
+      <c r="H795" t="s">
+        <v>141</v>
+      </c>
+      <c r="I795">
+        <v>1</v>
+      </c>
+      <c r="J795" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="796" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A796">
         <v>796</v>
       </c>
-    </row>
-    <row r="797" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="D796" t="s">
+        <v>351</v>
+      </c>
+      <c r="E796" t="s">
+        <v>73</v>
+      </c>
+      <c r="F796">
+        <v>31</v>
+      </c>
+      <c r="G796" t="s">
+        <v>88</v>
+      </c>
+      <c r="H796" t="s">
+        <v>141</v>
+      </c>
+      <c r="I796">
+        <v>4</v>
+      </c>
+      <c r="J796" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="797" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A797">
         <v>797</v>
       </c>
-    </row>
-    <row r="798" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="D797" t="s">
+        <v>351</v>
+      </c>
+      <c r="E797" t="s">
+        <v>73</v>
+      </c>
+      <c r="F797">
+        <v>31</v>
+      </c>
+      <c r="G797" t="s">
+        <v>95</v>
+      </c>
+      <c r="H797" t="s">
+        <v>141</v>
+      </c>
+      <c r="I797">
+        <v>10</v>
+      </c>
+      <c r="J797" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="798" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A798">
         <v>798</v>
       </c>
-    </row>
-    <row r="799" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="D798" t="s">
+        <v>351</v>
+      </c>
+      <c r="E798" t="s">
+        <v>73</v>
+      </c>
+      <c r="F798">
+        <v>31</v>
+      </c>
+      <c r="G798" t="s">
+        <v>95</v>
+      </c>
+      <c r="H798" t="s">
+        <v>141</v>
+      </c>
+      <c r="I798">
+        <v>4</v>
+      </c>
+      <c r="J798" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="799" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A799">
         <v>799</v>
       </c>
-    </row>
-    <row r="800" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="D799" t="s">
+        <v>351</v>
+      </c>
+      <c r="E799" t="s">
+        <v>73</v>
+      </c>
+      <c r="F799">
+        <v>31</v>
+      </c>
+      <c r="G799" t="s">
+        <v>95</v>
+      </c>
+      <c r="H799" t="s">
+        <v>141</v>
+      </c>
+      <c r="I799">
+        <v>8</v>
+      </c>
+      <c r="J799" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="800" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A800">
         <v>800</v>
       </c>
-    </row>
-    <row r="801" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="D800" t="s">
+        <v>351</v>
+      </c>
+      <c r="E800" t="s">
+        <v>73</v>
+      </c>
+      <c r="F800">
+        <v>31</v>
+      </c>
+      <c r="G800" t="s">
+        <v>88</v>
+      </c>
+      <c r="H800" t="s">
+        <v>141</v>
+      </c>
+      <c r="I800">
+        <v>8</v>
+      </c>
+      <c r="J800" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="801" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A801">
         <v>801</v>
       </c>
-    </row>
-    <row r="802" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="D801" t="s">
+        <v>351</v>
+      </c>
+      <c r="E801" t="s">
+        <v>73</v>
+      </c>
+      <c r="F801">
+        <v>31</v>
+      </c>
+      <c r="G801" t="s">
+        <v>88</v>
+      </c>
+      <c r="H801" t="s">
+        <v>141</v>
+      </c>
+      <c r="I801">
+        <v>1</v>
+      </c>
+      <c r="J801" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="802" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A802">
         <v>802</v>
       </c>
-    </row>
-    <row r="803" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="D802" t="s">
+        <v>351</v>
+      </c>
+      <c r="E802" t="s">
+        <v>73</v>
+      </c>
+      <c r="F802">
+        <v>31</v>
+      </c>
+      <c r="G802" t="s">
+        <v>95</v>
+      </c>
+      <c r="H802" t="s">
+        <v>141</v>
+      </c>
+      <c r="I802">
+        <v>12</v>
+      </c>
+      <c r="J802" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="803" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A803">
         <v>803</v>
       </c>
-    </row>
-    <row r="804" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="D803" t="s">
+        <v>351</v>
+      </c>
+      <c r="E803" t="s">
+        <v>73</v>
+      </c>
+      <c r="F803">
+        <v>31</v>
+      </c>
+      <c r="G803" t="s">
+        <v>95</v>
+      </c>
+      <c r="H803" t="s">
+        <v>141</v>
+      </c>
+      <c r="I803">
+        <v>3</v>
+      </c>
+      <c r="J803" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="804" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A804">
         <v>804</v>
       </c>
-    </row>
-    <row r="805" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="D804" t="s">
+        <v>351</v>
+      </c>
+      <c r="E804" t="s">
+        <v>73</v>
+      </c>
+      <c r="F804">
+        <v>31</v>
+      </c>
+      <c r="G804" t="s">
+        <v>95</v>
+      </c>
+      <c r="H804" t="s">
+        <v>141</v>
+      </c>
+      <c r="I804">
+        <v>7</v>
+      </c>
+      <c r="J804" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="805" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A805">
         <v>805</v>
       </c>
-    </row>
-    <row r="806" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="D805" t="s">
+        <v>351</v>
+      </c>
+      <c r="E805" t="s">
+        <v>73</v>
+      </c>
+      <c r="F805">
+        <v>31</v>
+      </c>
+      <c r="G805" t="s">
+        <v>95</v>
+      </c>
+      <c r="H805" t="s">
+        <v>200</v>
+      </c>
+      <c r="J805" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="806" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A806">
         <v>806</v>
       </c>
-    </row>
-    <row r="807" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="D806" t="s">
+        <v>351</v>
+      </c>
+      <c r="E806" t="s">
+        <v>357</v>
+      </c>
+      <c r="F806">
+        <v>13</v>
+      </c>
+      <c r="G806" t="s">
+        <v>95</v>
+      </c>
+      <c r="H806" t="s">
+        <v>89</v>
+      </c>
+      <c r="I806">
+        <v>4</v>
+      </c>
+      <c r="J806" t="s">
+        <v>143</v>
+      </c>
+      <c r="K806">
+        <v>1</v>
+      </c>
+      <c r="L806" t="s">
+        <v>75</v>
+      </c>
+      <c r="M806" t="s">
+        <v>77</v>
+      </c>
+      <c r="P806" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="807" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A807">
         <v>807</v>
       </c>
-    </row>
-    <row r="808" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="D807" t="s">
+        <v>351</v>
+      </c>
+      <c r="E807" t="s">
+        <v>357</v>
+      </c>
+      <c r="F807">
+        <v>13</v>
+      </c>
+      <c r="G807" t="s">
+        <v>95</v>
+      </c>
+      <c r="H807" t="s">
+        <v>89</v>
+      </c>
+      <c r="I807">
+        <v>9</v>
+      </c>
+      <c r="J807" t="s">
+        <v>74</v>
+      </c>
+      <c r="K807">
+        <v>1</v>
+      </c>
+      <c r="L807" t="s">
+        <v>99</v>
+      </c>
+      <c r="M807" t="s">
+        <v>57</v>
+      </c>
+      <c r="N807" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="808" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A808">
         <v>808</v>
       </c>
-    </row>
-    <row r="809" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="D808" t="s">
+        <v>351</v>
+      </c>
+      <c r="E808" t="s">
+        <v>357</v>
+      </c>
+      <c r="F808">
+        <v>13</v>
+      </c>
+      <c r="H808" t="s">
+        <v>72</v>
+      </c>
+      <c r="J808" t="s">
+        <v>143</v>
+      </c>
+      <c r="K808">
+        <v>1</v>
+      </c>
+      <c r="L808" t="s">
+        <v>75</v>
+      </c>
+      <c r="M808" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="809" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A809">
         <v>809</v>
       </c>
-    </row>
-    <row r="810" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="D809" t="s">
+        <v>351</v>
+      </c>
+      <c r="E809" t="s">
+        <v>357</v>
+      </c>
+      <c r="F809">
+        <v>14</v>
+      </c>
+      <c r="G809" t="s">
+        <v>95</v>
+      </c>
+      <c r="H809" t="s">
+        <v>89</v>
+      </c>
+      <c r="I809">
+        <v>9</v>
+      </c>
+      <c r="J809" t="s">
+        <v>74</v>
+      </c>
+      <c r="K809">
+        <v>1</v>
+      </c>
+      <c r="L809" t="s">
+        <v>99</v>
+      </c>
+      <c r="M809" t="s">
+        <v>57</v>
+      </c>
+      <c r="N809" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="810" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A810">
         <v>810</v>
       </c>
-    </row>
-    <row r="811" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="D810" t="s">
+        <v>351</v>
+      </c>
+      <c r="E810" t="s">
+        <v>357</v>
+      </c>
+      <c r="F810">
+        <v>14</v>
+      </c>
+      <c r="G810" t="s">
+        <v>95</v>
+      </c>
+      <c r="H810" t="s">
+        <v>72</v>
+      </c>
+      <c r="J810" t="s">
+        <v>143</v>
+      </c>
+      <c r="K810">
+        <v>2</v>
+      </c>
+      <c r="L810" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="811" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A811">
         <v>811</v>
       </c>
-    </row>
-    <row r="812" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="D811" t="s">
+        <v>351</v>
+      </c>
+      <c r="E811" t="s">
+        <v>357</v>
+      </c>
+      <c r="F811">
+        <v>14</v>
+      </c>
+      <c r="G811" t="s">
+        <v>95</v>
+      </c>
+      <c r="H811" t="s">
+        <v>72</v>
+      </c>
+      <c r="J811" t="s">
+        <v>143</v>
+      </c>
+      <c r="K811">
+        <v>1</v>
+      </c>
+      <c r="L811" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="812" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A812">
         <v>812</v>
       </c>
-    </row>
-    <row r="813" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="D812" t="s">
+        <v>351</v>
+      </c>
+      <c r="E812" t="s">
+        <v>357</v>
+      </c>
+      <c r="F812">
+        <v>14</v>
+      </c>
+      <c r="G812" t="s">
+        <v>95</v>
+      </c>
+      <c r="H812" t="s">
+        <v>72</v>
+      </c>
+      <c r="J812" t="s">
+        <v>143</v>
+      </c>
+      <c r="K812">
+        <v>1</v>
+      </c>
+      <c r="L812" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="813" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A813">
         <v>813</v>
       </c>
-    </row>
-    <row r="814" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="D813" t="s">
+        <v>351</v>
+      </c>
+      <c r="E813" t="s">
+        <v>357</v>
+      </c>
+      <c r="F813">
+        <v>14</v>
+      </c>
+      <c r="G813" t="s">
+        <v>95</v>
+      </c>
+      <c r="H813" t="s">
+        <v>72</v>
+      </c>
+      <c r="J813" t="s">
+        <v>143</v>
+      </c>
+      <c r="K813">
+        <v>1</v>
+      </c>
+      <c r="L813" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="814" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A814">
         <v>814</v>
+      </c>
+      <c r="D814" t="s">
+        <v>351</v>
+      </c>
+      <c r="E814" t="s">
+        <v>357</v>
+      </c>
+      <c r="F814">
+        <v>14</v>
+      </c>
+      <c r="G814" t="s">
+        <v>95</v>
+      </c>
+      <c r="H814" t="s">
+        <v>72</v>
+      </c>
+      <c r="J814" t="s">
+        <v>143</v>
+      </c>
+      <c r="K814">
+        <v>1</v>
+      </c>
+      <c r="L814" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="815" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="D815" t="s">
+        <v>351</v>
+      </c>
+      <c r="E815" t="s">
+        <v>357</v>
+      </c>
+      <c r="F815">
+        <v>14</v>
+      </c>
+      <c r="G815" t="s">
+        <v>95</v>
+      </c>
+      <c r="H815" t="s">
+        <v>72</v>
+      </c>
+      <c r="J815" t="s">
+        <v>143</v>
+      </c>
+      <c r="K815">
+        <v>1</v>
+      </c>
+      <c r="L815" t="s">
+        <v>134</v>
+      </c>
+      <c r="M815" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="816" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="D816" t="s">
+        <v>351</v>
+      </c>
+      <c r="E816" t="s">
+        <v>357</v>
+      </c>
+      <c r="F816">
+        <v>14</v>
+      </c>
+      <c r="G816" t="s">
+        <v>95</v>
+      </c>
+      <c r="H816" t="s">
+        <v>72</v>
+      </c>
+      <c r="J816" t="s">
+        <v>74</v>
+      </c>
+      <c r="K816">
+        <v>3</v>
+      </c>
+      <c r="L816" t="s">
+        <v>99</v>
+      </c>
+      <c r="M816" t="s">
+        <v>57</v>
+      </c>
+      <c r="N816" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="817" spans="4:18" x14ac:dyDescent="0.35">
+      <c r="D817" t="s">
+        <v>351</v>
+      </c>
+      <c r="E817" t="s">
+        <v>357</v>
+      </c>
+      <c r="F817">
+        <v>14</v>
+      </c>
+      <c r="G817" t="s">
+        <v>95</v>
+      </c>
+      <c r="H817" t="s">
+        <v>72</v>
+      </c>
+      <c r="J817" t="s">
+        <v>74</v>
+      </c>
+      <c r="K817">
+        <v>1</v>
+      </c>
+      <c r="L817" t="s">
+        <v>99</v>
+      </c>
+      <c r="M817" t="s">
+        <v>57</v>
+      </c>
+      <c r="N817" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="818" spans="4:18" x14ac:dyDescent="0.35">
+      <c r="D818" t="s">
+        <v>351</v>
+      </c>
+      <c r="E818" t="s">
+        <v>357</v>
+      </c>
+      <c r="F818">
+        <v>14</v>
+      </c>
+      <c r="G818" t="s">
+        <v>95</v>
+      </c>
+      <c r="H818" t="s">
+        <v>72</v>
+      </c>
+      <c r="J818" t="s">
+        <v>74</v>
+      </c>
+      <c r="K818">
+        <v>1</v>
+      </c>
+      <c r="L818" t="s">
+        <v>99</v>
+      </c>
+      <c r="M818" t="s">
+        <v>57</v>
+      </c>
+      <c r="N818" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="819" spans="4:18" x14ac:dyDescent="0.35">
+      <c r="D819" t="s">
+        <v>71</v>
+      </c>
+      <c r="E819" t="s">
+        <v>357</v>
+      </c>
+      <c r="F819">
+        <v>13</v>
+      </c>
+      <c r="H819" t="s">
+        <v>72</v>
+      </c>
+      <c r="J819" t="s">
+        <v>143</v>
+      </c>
+      <c r="K819">
+        <v>1</v>
+      </c>
+      <c r="L819" t="s">
+        <v>75</v>
+      </c>
+      <c r="M819" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="820" spans="4:18" x14ac:dyDescent="0.35">
+      <c r="D820" t="s">
+        <v>71</v>
+      </c>
+      <c r="E820" t="s">
+        <v>357</v>
+      </c>
+      <c r="F820">
+        <v>13</v>
+      </c>
+      <c r="H820" t="s">
+        <v>72</v>
+      </c>
+      <c r="J820" t="s">
+        <v>143</v>
+      </c>
+      <c r="K820">
+        <v>6</v>
+      </c>
+      <c r="L820" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="821" spans="4:18" x14ac:dyDescent="0.35">
+      <c r="D821" t="s">
+        <v>71</v>
+      </c>
+      <c r="E821" t="s">
+        <v>357</v>
+      </c>
+      <c r="F821">
+        <v>13</v>
+      </c>
+      <c r="H821" t="s">
+        <v>72</v>
+      </c>
+      <c r="J821" t="s">
+        <v>143</v>
+      </c>
+      <c r="K821">
+        <v>3</v>
+      </c>
+      <c r="L821" t="s">
+        <v>134</v>
+      </c>
+      <c r="M821" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="822" spans="4:18" x14ac:dyDescent="0.35">
+      <c r="D822" t="s">
+        <v>71</v>
+      </c>
+      <c r="E822" t="s">
+        <v>357</v>
+      </c>
+      <c r="F822">
+        <v>13</v>
+      </c>
+      <c r="H822" t="s">
+        <v>72</v>
+      </c>
+      <c r="J822" t="s">
+        <v>143</v>
+      </c>
+      <c r="K822">
+        <v>1</v>
+      </c>
+      <c r="L822" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="823" spans="4:18" x14ac:dyDescent="0.35">
+      <c r="D823" t="s">
+        <v>71</v>
+      </c>
+      <c r="E823" t="s">
+        <v>357</v>
+      </c>
+      <c r="F823">
+        <v>13</v>
+      </c>
+      <c r="H823" t="s">
+        <v>72</v>
+      </c>
+      <c r="J823" t="s">
+        <v>143</v>
+      </c>
+      <c r="K823">
+        <v>1</v>
+      </c>
+      <c r="L823" t="s">
+        <v>61</v>
+      </c>
+      <c r="M823" t="s">
+        <v>263</v>
+      </c>
+      <c r="R823" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="824" spans="4:18" x14ac:dyDescent="0.35">
+      <c r="D824" t="s">
+        <v>71</v>
+      </c>
+      <c r="E824" t="s">
+        <v>357</v>
+      </c>
+      <c r="F824">
+        <v>13</v>
+      </c>
+      <c r="G824" t="s">
+        <v>88</v>
+      </c>
+      <c r="H824" t="s">
+        <v>89</v>
+      </c>
+      <c r="I824">
+        <v>5</v>
+      </c>
+      <c r="J824" t="s">
+        <v>143</v>
+      </c>
+      <c r="K824">
+        <v>1</v>
+      </c>
+      <c r="L824" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="825" spans="4:18" x14ac:dyDescent="0.35">
+      <c r="D825" t="s">
+        <v>71</v>
+      </c>
+      <c r="E825" t="s">
+        <v>357</v>
+      </c>
+      <c r="F825">
+        <v>13</v>
+      </c>
+      <c r="G825" t="s">
+        <v>88</v>
+      </c>
+      <c r="H825" t="s">
+        <v>89</v>
+      </c>
+      <c r="I825">
+        <v>5</v>
+      </c>
+      <c r="J825" t="s">
+        <v>143</v>
+      </c>
+      <c r="K825">
+        <v>3</v>
+      </c>
+      <c r="L825" t="s">
+        <v>148</v>
+      </c>
+      <c r="M825" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="826" spans="4:18" x14ac:dyDescent="0.35">
+      <c r="D826" t="s">
+        <v>71</v>
+      </c>
+      <c r="E826" t="s">
+        <v>357</v>
+      </c>
+      <c r="F826">
+        <v>13</v>
+      </c>
+      <c r="G826" t="s">
+        <v>95</v>
+      </c>
+      <c r="H826" t="s">
+        <v>89</v>
+      </c>
+      <c r="I826">
+        <v>1</v>
+      </c>
+      <c r="J826" t="s">
+        <v>143</v>
+      </c>
+      <c r="K826">
+        <v>1</v>
+      </c>
+      <c r="L826" t="s">
+        <v>134</v>
+      </c>
+      <c r="M826" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="827" spans="4:18" x14ac:dyDescent="0.35">
+      <c r="D827" t="s">
+        <v>71</v>
+      </c>
+      <c r="E827" t="s">
+        <v>357</v>
+      </c>
+      <c r="F827">
+        <v>13</v>
+      </c>
+      <c r="G827" t="s">
+        <v>88</v>
+      </c>
+      <c r="H827" t="s">
+        <v>89</v>
+      </c>
+      <c r="I827">
+        <v>6</v>
+      </c>
+      <c r="J827" t="s">
+        <v>143</v>
+      </c>
+      <c r="K827">
+        <v>3</v>
+      </c>
+      <c r="L827" t="s">
+        <v>134</v>
+      </c>
+      <c r="M827" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="828" spans="4:18" x14ac:dyDescent="0.35">
+      <c r="D828" t="s">
+        <v>71</v>
+      </c>
+      <c r="E828" t="s">
+        <v>357</v>
+      </c>
+      <c r="F828">
+        <v>13</v>
+      </c>
+      <c r="G828" t="s">
+        <v>88</v>
+      </c>
+      <c r="H828" t="s">
+        <v>89</v>
+      </c>
+      <c r="I828">
+        <v>6</v>
+      </c>
+      <c r="J828" t="s">
+        <v>143</v>
+      </c>
+      <c r="K828">
+        <v>1</v>
+      </c>
+      <c r="L828" t="s">
+        <v>134</v>
+      </c>
+      <c r="M828" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="829" spans="4:18" x14ac:dyDescent="0.35">
+      <c r="D829" t="s">
+        <v>71</v>
+      </c>
+      <c r="E829" t="s">
+        <v>357</v>
+      </c>
+      <c r="F829">
+        <v>13</v>
+      </c>
+      <c r="G829" t="s">
+        <v>88</v>
+      </c>
+      <c r="H829" t="s">
+        <v>89</v>
+      </c>
+      <c r="I829">
+        <v>2</v>
+      </c>
+      <c r="J829" t="s">
+        <v>143</v>
+      </c>
+      <c r="K829">
+        <v>2</v>
+      </c>
+      <c r="L829" t="s">
+        <v>134</v>
+      </c>
+      <c r="M829" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="830" spans="4:18" x14ac:dyDescent="0.35">
+      <c r="D830" t="s">
+        <v>71</v>
+      </c>
+      <c r="E830" t="s">
+        <v>357</v>
+      </c>
+      <c r="F830">
+        <v>13</v>
+      </c>
+      <c r="G830" t="s">
+        <v>88</v>
+      </c>
+      <c r="H830" t="s">
+        <v>89</v>
+      </c>
+      <c r="I830">
+        <v>10</v>
+      </c>
+      <c r="J830" t="s">
+        <v>143</v>
+      </c>
+      <c r="K830">
+        <v>4</v>
+      </c>
+      <c r="L830" t="s">
+        <v>148</v>
+      </c>
+      <c r="M830" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="831" spans="4:18" x14ac:dyDescent="0.35">
+      <c r="D831" t="s">
+        <v>71</v>
+      </c>
+      <c r="E831" t="s">
+        <v>357</v>
+      </c>
+      <c r="F831">
+        <v>13</v>
+      </c>
+      <c r="G831" t="s">
+        <v>88</v>
+      </c>
+      <c r="H831" t="s">
+        <v>89</v>
+      </c>
+      <c r="I831">
+        <v>10</v>
+      </c>
+      <c r="J831" t="s">
+        <v>143</v>
+      </c>
+      <c r="K831">
+        <v>1</v>
+      </c>
+      <c r="L831" t="s">
+        <v>61</v>
+      </c>
+      <c r="M831" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="832" spans="4:18" x14ac:dyDescent="0.35">
+      <c r="D832" t="s">
+        <v>71</v>
+      </c>
+      <c r="E832" t="s">
+        <v>357</v>
+      </c>
+      <c r="F832">
+        <v>13</v>
+      </c>
+      <c r="G832" t="s">
+        <v>88</v>
+      </c>
+      <c r="H832" t="s">
+        <v>89</v>
+      </c>
+      <c r="I832">
+        <v>10</v>
+      </c>
+      <c r="J832" t="s">
+        <v>143</v>
+      </c>
+      <c r="K832">
+        <v>1</v>
+      </c>
+      <c r="L832" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="833" spans="4:16" x14ac:dyDescent="0.35">
+      <c r="D833" t="s">
+        <v>71</v>
+      </c>
+      <c r="E833" t="s">
+        <v>357</v>
+      </c>
+      <c r="F833">
+        <v>13</v>
+      </c>
+      <c r="G833" t="s">
+        <v>88</v>
+      </c>
+      <c r="H833" t="s">
+        <v>89</v>
+      </c>
+      <c r="I833">
+        <v>10</v>
+      </c>
+      <c r="J833" t="s">
+        <v>143</v>
+      </c>
+      <c r="K833">
+        <v>3</v>
+      </c>
+      <c r="L833" t="s">
+        <v>134</v>
+      </c>
+      <c r="M833" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="834" spans="4:16" x14ac:dyDescent="0.35">
+      <c r="D834" t="s">
+        <v>71</v>
+      </c>
+      <c r="E834" t="s">
+        <v>357</v>
+      </c>
+      <c r="F834">
+        <v>13</v>
+      </c>
+      <c r="G834" t="s">
+        <v>88</v>
+      </c>
+      <c r="H834" t="s">
+        <v>89</v>
+      </c>
+      <c r="I834">
+        <v>10</v>
+      </c>
+      <c r="J834" t="s">
+        <v>143</v>
+      </c>
+      <c r="K834">
+        <v>1</v>
+      </c>
+      <c r="L834" t="s">
+        <v>251</v>
+      </c>
+      <c r="M834" t="s">
+        <v>252</v>
+      </c>
+      <c r="P834" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="835" spans="4:16" x14ac:dyDescent="0.35">
+      <c r="D835" t="s">
+        <v>71</v>
+      </c>
+      <c r="E835" t="s">
+        <v>357</v>
+      </c>
+      <c r="F835">
+        <v>13</v>
+      </c>
+      <c r="G835" t="s">
+        <v>88</v>
+      </c>
+      <c r="H835" t="s">
+        <v>89</v>
+      </c>
+      <c r="I835">
+        <v>10</v>
+      </c>
+      <c r="J835" t="s">
+        <v>143</v>
+      </c>
+      <c r="K835">
+        <v>5</v>
+      </c>
+      <c r="L835" t="s">
+        <v>75</v>
+      </c>
+      <c r="M835" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="836" spans="4:16" x14ac:dyDescent="0.35">
+      <c r="D836" t="s">
+        <v>71</v>
+      </c>
+      <c r="E836" t="s">
+        <v>357</v>
+      </c>
+      <c r="F836">
+        <v>13</v>
+      </c>
+      <c r="G836" t="s">
+        <v>88</v>
+      </c>
+      <c r="H836" t="s">
+        <v>89</v>
+      </c>
+      <c r="I836">
+        <v>10</v>
+      </c>
+      <c r="J836" t="s">
+        <v>143</v>
+      </c>
+      <c r="K836">
+        <v>1</v>
+      </c>
+      <c r="L836" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="837" spans="4:16" x14ac:dyDescent="0.35">
+      <c r="D837" t="s">
+        <v>71</v>
+      </c>
+      <c r="E837" t="s">
+        <v>357</v>
+      </c>
+      <c r="F837">
+        <v>13</v>
+      </c>
+      <c r="G837" t="s">
+        <v>95</v>
+      </c>
+      <c r="H837" t="s">
+        <v>89</v>
+      </c>
+      <c r="I837">
+        <v>3</v>
+      </c>
+      <c r="J837" t="s">
+        <v>143</v>
+      </c>
+      <c r="K837">
+        <v>1</v>
+      </c>
+      <c r="L837" t="s">
+        <v>134</v>
+      </c>
+      <c r="M837" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="838" spans="4:16" x14ac:dyDescent="0.35">
+      <c r="D838" t="s">
+        <v>71</v>
+      </c>
+      <c r="E838" t="s">
+        <v>357</v>
+      </c>
+      <c r="F838">
+        <v>13</v>
+      </c>
+      <c r="G838" t="s">
+        <v>88</v>
+      </c>
+      <c r="H838" t="s">
+        <v>89</v>
+      </c>
+      <c r="I838">
+        <v>1</v>
+      </c>
+      <c r="J838" t="s">
+        <v>143</v>
+      </c>
+      <c r="K838">
+        <v>1</v>
+      </c>
+      <c r="L838" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="839" spans="4:16" x14ac:dyDescent="0.35">
+      <c r="D839" t="s">
+        <v>71</v>
+      </c>
+      <c r="E839" t="s">
+        <v>357</v>
+      </c>
+      <c r="F839">
+        <v>13</v>
+      </c>
+      <c r="G839" t="s">
+        <v>88</v>
+      </c>
+      <c r="H839" t="s">
+        <v>89</v>
+      </c>
+      <c r="I839">
+        <v>7</v>
+      </c>
+      <c r="J839" t="s">
+        <v>143</v>
+      </c>
+      <c r="K839">
+        <v>1</v>
+      </c>
+      <c r="L839" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="840" spans="4:16" x14ac:dyDescent="0.35">
+      <c r="D840" t="s">
+        <v>71</v>
+      </c>
+      <c r="E840" t="s">
+        <v>357</v>
+      </c>
+      <c r="F840">
+        <v>13</v>
+      </c>
+      <c r="G840" t="s">
+        <v>88</v>
+      </c>
+      <c r="H840" t="s">
+        <v>89</v>
+      </c>
+      <c r="I840">
+        <v>7</v>
+      </c>
+      <c r="J840" t="s">
+        <v>143</v>
+      </c>
+      <c r="K840">
+        <v>1</v>
+      </c>
+      <c r="L840" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="841" spans="4:16" x14ac:dyDescent="0.35">
+      <c r="D841" t="s">
+        <v>71</v>
+      </c>
+      <c r="E841" t="s">
+        <v>357</v>
+      </c>
+      <c r="F841">
+        <v>13</v>
+      </c>
+      <c r="G841" t="s">
+        <v>88</v>
+      </c>
+      <c r="H841" t="s">
+        <v>89</v>
+      </c>
+      <c r="I841">
+        <v>7</v>
+      </c>
+      <c r="J841" t="s">
+        <v>143</v>
+      </c>
+      <c r="K841">
+        <v>1</v>
+      </c>
+      <c r="L841" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="842" spans="4:16" x14ac:dyDescent="0.35">
+      <c r="D842" t="s">
+        <v>71</v>
+      </c>
+      <c r="E842" t="s">
+        <v>357</v>
+      </c>
+      <c r="F842">
+        <v>13</v>
+      </c>
+      <c r="G842" t="s">
+        <v>95</v>
+      </c>
+      <c r="H842" t="s">
+        <v>89</v>
+      </c>
+      <c r="I842">
+        <v>9</v>
+      </c>
+      <c r="J842" t="s">
+        <v>143</v>
+      </c>
+      <c r="K842">
+        <v>1</v>
+      </c>
+      <c r="L842" t="s">
+        <v>134</v>
+      </c>
+      <c r="M842" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="843" spans="4:16" x14ac:dyDescent="0.35">
+      <c r="D843" t="s">
+        <v>71</v>
+      </c>
+      <c r="E843" t="s">
+        <v>357</v>
+      </c>
+      <c r="F843">
+        <v>13</v>
+      </c>
+      <c r="G843" t="s">
+        <v>88</v>
+      </c>
+      <c r="H843" t="s">
+        <v>89</v>
+      </c>
+      <c r="I843">
+        <v>9</v>
+      </c>
+      <c r="J843" t="s">
+        <v>143</v>
+      </c>
+      <c r="K843">
+        <v>1</v>
+      </c>
+      <c r="L843" t="s">
+        <v>79</v>
+      </c>
+      <c r="M843" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="844" spans="4:16" x14ac:dyDescent="0.35">
+      <c r="D844" t="s">
+        <v>71</v>
+      </c>
+      <c r="E844" t="s">
+        <v>357</v>
+      </c>
+      <c r="F844">
+        <v>13</v>
+      </c>
+      <c r="G844" t="s">
+        <v>88</v>
+      </c>
+      <c r="H844" t="s">
+        <v>89</v>
+      </c>
+      <c r="I844">
+        <v>9</v>
+      </c>
+      <c r="J844" t="s">
+        <v>143</v>
+      </c>
+      <c r="K844">
+        <v>6</v>
+      </c>
+      <c r="L844" t="s">
+        <v>134</v>
+      </c>
+      <c r="M844" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="845" spans="4:16" x14ac:dyDescent="0.35">
+      <c r="D845" t="s">
+        <v>71</v>
+      </c>
+      <c r="E845" t="s">
+        <v>357</v>
+      </c>
+      <c r="F845">
+        <v>13</v>
+      </c>
+      <c r="G845" t="s">
+        <v>88</v>
+      </c>
+      <c r="H845" t="s">
+        <v>89</v>
+      </c>
+      <c r="I845">
+        <v>9</v>
+      </c>
+      <c r="J845" t="s">
+        <v>143</v>
+      </c>
+      <c r="K845">
+        <v>1</v>
+      </c>
+      <c r="L845" t="s">
+        <v>134</v>
+      </c>
+      <c r="M845" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="846" spans="4:16" x14ac:dyDescent="0.35">
+      <c r="D846" t="s">
+        <v>71</v>
+      </c>
+      <c r="E846" t="s">
+        <v>357</v>
+      </c>
+      <c r="F846">
+        <v>13</v>
+      </c>
+      <c r="G846" t="s">
+        <v>88</v>
+      </c>
+      <c r="H846" t="s">
+        <v>89</v>
+      </c>
+      <c r="I846">
+        <v>9</v>
+      </c>
+      <c r="J846" t="s">
+        <v>143</v>
+      </c>
+      <c r="K846">
+        <v>1</v>
+      </c>
+      <c r="L846" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="847" spans="4:16" x14ac:dyDescent="0.35">
+      <c r="D847" t="s">
+        <v>71</v>
+      </c>
+      <c r="E847" t="s">
+        <v>357</v>
+      </c>
+      <c r="F847">
+        <v>13</v>
+      </c>
+      <c r="G847" t="s">
+        <v>88</v>
+      </c>
+      <c r="H847" t="s">
+        <v>89</v>
+      </c>
+      <c r="I847">
+        <v>4</v>
+      </c>
+      <c r="J847" t="s">
+        <v>143</v>
+      </c>
+      <c r="K847">
+        <v>3</v>
+      </c>
+      <c r="L847" t="s">
+        <v>134</v>
+      </c>
+      <c r="M847" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="848" spans="4:16" x14ac:dyDescent="0.35">
+      <c r="D848" t="s">
+        <v>71</v>
+      </c>
+      <c r="E848" t="s">
+        <v>357</v>
+      </c>
+      <c r="F848">
+        <v>13</v>
+      </c>
+      <c r="G848" t="s">
+        <v>88</v>
+      </c>
+      <c r="H848" t="s">
+        <v>89</v>
+      </c>
+      <c r="I848">
+        <v>4</v>
+      </c>
+      <c r="J848" t="s">
+        <v>143</v>
+      </c>
+      <c r="K848">
+        <v>1</v>
+      </c>
+      <c r="L848" t="s">
+        <v>134</v>
+      </c>
+      <c r="M848" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="849" spans="4:16" x14ac:dyDescent="0.35">
+      <c r="D849" t="s">
+        <v>71</v>
+      </c>
+      <c r="E849" t="s">
+        <v>357</v>
+      </c>
+      <c r="F849">
+        <v>13</v>
+      </c>
+      <c r="G849" t="s">
+        <v>88</v>
+      </c>
+      <c r="H849" t="s">
+        <v>89</v>
+      </c>
+      <c r="I849">
+        <v>8</v>
+      </c>
+      <c r="J849" t="s">
+        <v>143</v>
+      </c>
+      <c r="K849">
+        <v>14</v>
+      </c>
+      <c r="L849" t="s">
+        <v>134</v>
+      </c>
+      <c r="M849" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="850" spans="4:16" x14ac:dyDescent="0.35">
+      <c r="D850" t="s">
+        <v>71</v>
+      </c>
+      <c r="E850" t="s">
+        <v>357</v>
+      </c>
+      <c r="F850">
+        <v>13</v>
+      </c>
+      <c r="G850" t="s">
+        <v>88</v>
+      </c>
+      <c r="H850" t="s">
+        <v>89</v>
+      </c>
+      <c r="I850">
+        <v>8</v>
+      </c>
+      <c r="J850" t="s">
+        <v>143</v>
+      </c>
+      <c r="K850">
+        <v>1</v>
+      </c>
+      <c r="L850" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="851" spans="4:16" x14ac:dyDescent="0.35">
+      <c r="D851" t="s">
+        <v>71</v>
+      </c>
+      <c r="E851" t="s">
+        <v>357</v>
+      </c>
+      <c r="F851">
+        <v>13</v>
+      </c>
+      <c r="G851" t="s">
+        <v>88</v>
+      </c>
+      <c r="H851" t="s">
+        <v>89</v>
+      </c>
+      <c r="I851">
+        <v>8</v>
+      </c>
+      <c r="J851" t="s">
+        <v>143</v>
+      </c>
+      <c r="K851">
+        <v>1</v>
+      </c>
+      <c r="L851" t="s">
+        <v>75</v>
+      </c>
+      <c r="M851" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="852" spans="4:16" x14ac:dyDescent="0.35">
+      <c r="D852" t="s">
+        <v>71</v>
+      </c>
+      <c r="E852" t="s">
+        <v>357</v>
+      </c>
+      <c r="F852">
+        <v>13</v>
+      </c>
+      <c r="G852" t="s">
+        <v>88</v>
+      </c>
+      <c r="H852" t="s">
+        <v>89</v>
+      </c>
+      <c r="I852">
+        <v>3</v>
+      </c>
+      <c r="J852" t="s">
+        <v>143</v>
+      </c>
+      <c r="K852">
+        <v>1</v>
+      </c>
+      <c r="L852" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="853" spans="4:16" x14ac:dyDescent="0.35">
+      <c r="D853" t="s">
+        <v>71</v>
+      </c>
+      <c r="E853" t="s">
+        <v>357</v>
+      </c>
+      <c r="F853">
+        <v>13</v>
+      </c>
+      <c r="G853" t="s">
+        <v>88</v>
+      </c>
+      <c r="H853" t="s">
+        <v>89</v>
+      </c>
+      <c r="I853">
+        <v>3</v>
+      </c>
+      <c r="J853" t="s">
+        <v>143</v>
+      </c>
+      <c r="K853">
+        <v>1</v>
+      </c>
+      <c r="L853" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="854" spans="4:16" x14ac:dyDescent="0.35">
+      <c r="D854" t="s">
+        <v>71</v>
+      </c>
+      <c r="E854" t="s">
+        <v>357</v>
+      </c>
+      <c r="F854">
+        <v>13</v>
+      </c>
+      <c r="G854" t="s">
+        <v>88</v>
+      </c>
+      <c r="H854" t="s">
+        <v>89</v>
+      </c>
+      <c r="I854">
+        <v>3</v>
+      </c>
+      <c r="J854" t="s">
+        <v>143</v>
+      </c>
+      <c r="K854">
+        <v>10</v>
+      </c>
+      <c r="L854" t="s">
+        <v>134</v>
+      </c>
+      <c r="M854" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="855" spans="4:16" x14ac:dyDescent="0.35">
+      <c r="D855" t="s">
+        <v>71</v>
+      </c>
+      <c r="E855" t="s">
+        <v>357</v>
+      </c>
+      <c r="F855">
+        <v>13</v>
+      </c>
+      <c r="G855" t="s">
+        <v>88</v>
+      </c>
+      <c r="H855" t="s">
+        <v>89</v>
+      </c>
+      <c r="I855">
+        <v>3</v>
+      </c>
+      <c r="J855" t="s">
+        <v>143</v>
+      </c>
+      <c r="K855">
+        <v>1</v>
+      </c>
+      <c r="L855" t="s">
+        <v>134</v>
+      </c>
+      <c r="M855" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="856" spans="4:16" x14ac:dyDescent="0.35">
+      <c r="D856" t="s">
+        <v>71</v>
+      </c>
+      <c r="E856" t="s">
+        <v>357</v>
+      </c>
+      <c r="F856">
+        <v>13</v>
+      </c>
+      <c r="G856" t="s">
+        <v>88</v>
+      </c>
+      <c r="H856" t="s">
+        <v>89</v>
+      </c>
+      <c r="I856">
+        <v>3</v>
+      </c>
+      <c r="J856" t="s">
+        <v>143</v>
+      </c>
+      <c r="K856">
+        <v>1</v>
+      </c>
+      <c r="L856" t="s">
+        <v>148</v>
+      </c>
+      <c r="M856" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="857" spans="4:16" x14ac:dyDescent="0.35">
+      <c r="D857" t="s">
+        <v>71</v>
+      </c>
+      <c r="E857" t="s">
+        <v>357</v>
+      </c>
+      <c r="F857">
+        <v>13</v>
+      </c>
+      <c r="G857" t="s">
+        <v>88</v>
+      </c>
+      <c r="H857" t="s">
+        <v>89</v>
+      </c>
+      <c r="I857">
+        <v>3</v>
+      </c>
+      <c r="J857" t="s">
+        <v>143</v>
+      </c>
+      <c r="K857">
+        <v>1</v>
+      </c>
+      <c r="L857" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="858" spans="4:16" x14ac:dyDescent="0.35">
+      <c r="D858" t="s">
+        <v>71</v>
+      </c>
+      <c r="E858" t="s">
+        <v>357</v>
+      </c>
+      <c r="F858">
+        <v>13</v>
+      </c>
+      <c r="G858" t="s">
+        <v>95</v>
+      </c>
+      <c r="H858" t="s">
+        <v>89</v>
+      </c>
+      <c r="I858">
+        <v>5</v>
+      </c>
+      <c r="J858" t="s">
+        <v>143</v>
+      </c>
+      <c r="K858">
+        <v>1</v>
+      </c>
+      <c r="L858" t="s">
+        <v>134</v>
+      </c>
+      <c r="M858" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="859" spans="4:16" x14ac:dyDescent="0.35">
+      <c r="D859" t="s">
+        <v>351</v>
+      </c>
+      <c r="E859" t="s">
+        <v>357</v>
+      </c>
+      <c r="F859">
+        <v>16</v>
+      </c>
+      <c r="G859" t="s">
+        <v>88</v>
+      </c>
+      <c r="H859" t="s">
+        <v>141</v>
+      </c>
+      <c r="I859">
+        <v>5</v>
+      </c>
+      <c r="J859" t="s">
+        <v>143</v>
+      </c>
+      <c r="K859">
+        <v>1</v>
+      </c>
+      <c r="L859" t="s">
+        <v>75</v>
+      </c>
+      <c r="M859" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="860" spans="4:16" x14ac:dyDescent="0.35">
+      <c r="D860" t="s">
+        <v>351</v>
+      </c>
+      <c r="E860" t="s">
+        <v>357</v>
+      </c>
+      <c r="F860">
+        <v>16</v>
+      </c>
+      <c r="G860" t="s">
+        <v>88</v>
+      </c>
+      <c r="H860" t="s">
+        <v>141</v>
+      </c>
+      <c r="I860">
+        <v>5</v>
+      </c>
+      <c r="J860" t="s">
+        <v>143</v>
+      </c>
+      <c r="K860">
+        <v>1</v>
+      </c>
+      <c r="L860" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="861" spans="4:16" x14ac:dyDescent="0.35">
+      <c r="D861" t="s">
+        <v>351</v>
+      </c>
+      <c r="E861" t="s">
+        <v>357</v>
+      </c>
+      <c r="F861">
+        <v>16</v>
+      </c>
+      <c r="G861" t="s">
+        <v>88</v>
+      </c>
+      <c r="H861" t="s">
+        <v>141</v>
+      </c>
+      <c r="I861">
+        <v>5</v>
+      </c>
+      <c r="J861" t="s">
+        <v>143</v>
+      </c>
+      <c r="K861">
+        <v>1</v>
+      </c>
+      <c r="L861" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="862" spans="4:16" x14ac:dyDescent="0.35">
+      <c r="D862" t="s">
+        <v>351</v>
+      </c>
+      <c r="E862" t="s">
+        <v>357</v>
+      </c>
+      <c r="F862">
+        <v>16</v>
+      </c>
+      <c r="G862" t="s">
+        <v>88</v>
+      </c>
+      <c r="H862" t="s">
+        <v>141</v>
+      </c>
+      <c r="I862">
+        <v>5</v>
+      </c>
+      <c r="J862" t="s">
+        <v>143</v>
+      </c>
+      <c r="K862">
+        <v>1</v>
+      </c>
+      <c r="L862" t="s">
+        <v>148</v>
+      </c>
+      <c r="M862" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="863" spans="4:16" x14ac:dyDescent="0.35">
+      <c r="D863" t="s">
+        <v>351</v>
+      </c>
+      <c r="E863" t="s">
+        <v>357</v>
+      </c>
+      <c r="F863">
+        <v>16</v>
+      </c>
+      <c r="G863" t="s">
+        <v>88</v>
+      </c>
+      <c r="H863" t="s">
+        <v>141</v>
+      </c>
+      <c r="I863">
+        <v>5</v>
+      </c>
+      <c r="J863" t="s">
+        <v>143</v>
+      </c>
+      <c r="K863">
+        <v>1</v>
+      </c>
+      <c r="L863" t="s">
+        <v>75</v>
+      </c>
+      <c r="M863" t="s">
+        <v>145</v>
+      </c>
+      <c r="P863" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="864" spans="4:16" x14ac:dyDescent="0.35">
+      <c r="D864" t="s">
+        <v>351</v>
+      </c>
+      <c r="E864" t="s">
+        <v>357</v>
+      </c>
+      <c r="F864">
+        <v>16</v>
+      </c>
+      <c r="G864" t="s">
+        <v>95</v>
+      </c>
+      <c r="H864" t="s">
+        <v>141</v>
+      </c>
+      <c r="I864">
+        <v>11</v>
+      </c>
+      <c r="J864" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="865" spans="4:10" x14ac:dyDescent="0.35">
+      <c r="D865" t="s">
+        <v>351</v>
+      </c>
+      <c r="E865" t="s">
+        <v>357</v>
+      </c>
+      <c r="F865">
+        <v>16</v>
+      </c>
+      <c r="G865" t="s">
+        <v>95</v>
+      </c>
+      <c r="H865" t="s">
+        <v>141</v>
+      </c>
+      <c r="I865">
+        <v>7</v>
+      </c>
+      <c r="J865" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="866" spans="4:10" x14ac:dyDescent="0.35">
+      <c r="D866" t="s">
+        <v>351</v>
+      </c>
+      <c r="E866" t="s">
+        <v>357</v>
+      </c>
+      <c r="F866">
+        <v>16</v>
+      </c>
+      <c r="G866" t="s">
+        <v>95</v>
+      </c>
+      <c r="H866" t="s">
+        <v>141</v>
+      </c>
+      <c r="I866">
+        <v>12</v>
+      </c>
+      <c r="J866" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="867" spans="4:10" x14ac:dyDescent="0.35">
+      <c r="D867" t="s">
+        <v>351</v>
+      </c>
+      <c r="E867" t="s">
+        <v>357</v>
+      </c>
+      <c r="F867">
+        <v>16</v>
+      </c>
+      <c r="G867" t="s">
+        <v>88</v>
+      </c>
+      <c r="H867" t="s">
+        <v>141</v>
+      </c>
+      <c r="I867">
+        <v>12</v>
+      </c>
+      <c r="J867" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="868" spans="4:10" x14ac:dyDescent="0.35">
+      <c r="D868" t="s">
+        <v>351</v>
+      </c>
+      <c r="E868" t="s">
+        <v>357</v>
+      </c>
+      <c r="F868">
+        <v>16</v>
+      </c>
+      <c r="G868" t="s">
+        <v>88</v>
+      </c>
+      <c r="H868" t="s">
+        <v>141</v>
+      </c>
+      <c r="I868">
+        <v>1</v>
+      </c>
+      <c r="J868" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="869" spans="4:10" x14ac:dyDescent="0.35">
+      <c r="D869" t="s">
+        <v>351</v>
+      </c>
+      <c r="E869" t="s">
+        <v>357</v>
+      </c>
+      <c r="F869">
+        <v>16</v>
+      </c>
+      <c r="G869" t="s">
+        <v>95</v>
+      </c>
+      <c r="H869" t="s">
+        <v>141</v>
+      </c>
+      <c r="I869">
+        <v>10</v>
+      </c>
+      <c r="J869" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="870" spans="4:10" x14ac:dyDescent="0.35">
+      <c r="D870" t="s">
+        <v>351</v>
+      </c>
+      <c r="E870" t="s">
+        <v>357</v>
+      </c>
+      <c r="F870">
+        <v>16</v>
+      </c>
+      <c r="G870" t="s">
+        <v>95</v>
+      </c>
+      <c r="H870" t="s">
+        <v>141</v>
+      </c>
+      <c r="I870">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="871" spans="4:10" x14ac:dyDescent="0.35">
+      <c r="D871" t="s">
+        <v>351</v>
+      </c>
+      <c r="E871" t="s">
+        <v>357</v>
+      </c>
+      <c r="F871">
+        <v>16</v>
+      </c>
+      <c r="G871" t="s">
+        <v>95</v>
+      </c>
+      <c r="I871">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="872" spans="4:10" x14ac:dyDescent="0.35">
+      <c r="D872" t="s">
+        <v>351</v>
+      </c>
+      <c r="E872" t="s">
+        <v>357</v>
+      </c>
+      <c r="F872">
+        <v>16</v>
+      </c>
+      <c r="G872" t="s">
+        <v>88</v>
+      </c>
+      <c r="I872">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="873" spans="4:10" x14ac:dyDescent="0.35">
+      <c r="D873" t="s">
+        <v>351</v>
+      </c>
+      <c r="E873" t="s">
+        <v>357</v>
+      </c>
+      <c r="F873">
+        <v>16</v>
+      </c>
+      <c r="G873" t="s">
+        <v>95</v>
+      </c>
+      <c r="I873">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="874" spans="4:10" x14ac:dyDescent="0.35">
+      <c r="D874" t="s">
+        <v>351</v>
+      </c>
+      <c r="E874" t="s">
+        <v>357</v>
+      </c>
+      <c r="F874">
+        <v>16</v>
+      </c>
+      <c r="G874" t="s">
+        <v>95</v>
+      </c>
+      <c r="I874">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="875" spans="4:10" x14ac:dyDescent="0.35">
+      <c r="D875" t="s">
+        <v>351</v>
+      </c>
+      <c r="E875" t="s">
+        <v>357</v>
+      </c>
+      <c r="F875">
+        <v>16</v>
+      </c>
+      <c r="G875" t="s">
+        <v>95</v>
+      </c>
+      <c r="I875">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="876" spans="4:10" x14ac:dyDescent="0.35">
+      <c r="D876" t="s">
+        <v>351</v>
+      </c>
+      <c r="E876" t="s">
+        <v>357</v>
+      </c>
+      <c r="F876">
+        <v>16</v>
+      </c>
+      <c r="G876" t="s">
+        <v>88</v>
+      </c>
+      <c r="I876">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="877" spans="4:10" x14ac:dyDescent="0.35">
+      <c r="D877" t="s">
+        <v>351</v>
+      </c>
+      <c r="E877" t="s">
+        <v>357</v>
+      </c>
+      <c r="F877">
+        <v>16</v>
+      </c>
+      <c r="G877" t="s">
+        <v>95</v>
+      </c>
+      <c r="I877">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="878" spans="4:10" x14ac:dyDescent="0.35">
+      <c r="D878" t="s">
+        <v>351</v>
+      </c>
+      <c r="E878" t="s">
+        <v>357</v>
+      </c>
+      <c r="F878">
+        <v>16</v>
+      </c>
+      <c r="G878" t="s">
+        <v>88</v>
+      </c>
+      <c r="I878">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="879" spans="4:10" x14ac:dyDescent="0.35">
+      <c r="D879" t="s">
+        <v>351</v>
+      </c>
+      <c r="E879" t="s">
+        <v>357</v>
+      </c>
+      <c r="F879">
+        <v>16</v>
+      </c>
+      <c r="G879" t="s">
+        <v>88</v>
+      </c>
+      <c r="I879">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="880" spans="4:10" x14ac:dyDescent="0.35">
+      <c r="D880" t="s">
+        <v>351</v>
+      </c>
+      <c r="E880" t="s">
+        <v>357</v>
+      </c>
+      <c r="F880">
+        <v>16</v>
+      </c>
+      <c r="G880" t="s">
+        <v>95</v>
+      </c>
+      <c r="I880">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="881" spans="4:9" x14ac:dyDescent="0.35">
+      <c r="D881" t="s">
+        <v>351</v>
+      </c>
+      <c r="E881" t="s">
+        <v>357</v>
+      </c>
+      <c r="F881">
+        <v>16</v>
+      </c>
+      <c r="G881" t="s">
+        <v>95</v>
+      </c>
+      <c r="I881">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="882" spans="4:9" x14ac:dyDescent="0.35">
+      <c r="D882" t="s">
+        <v>351</v>
+      </c>
+      <c r="E882" t="s">
+        <v>357</v>
+      </c>
+      <c r="F882">
+        <v>16</v>
+      </c>
+      <c r="G882" t="s">
+        <v>88</v>
+      </c>
+      <c r="I882">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/Raw Data/Arthropod_data.xlsx
+++ b/Raw Data/Arthropod_data.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8804" uniqueCount="411">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10316" uniqueCount="432">
   <si>
     <t>location</t>
   </si>
@@ -1257,6 +1257,69 @@
   <si>
     <t>not great shape</t>
   </si>
+  <si>
+    <t>maybe caddisfly</t>
+  </si>
+  <si>
+    <t>orbweaver?</t>
+  </si>
+  <si>
+    <t>Tettigonidae?</t>
+  </si>
+  <si>
+    <t>Iris oratoria?</t>
+  </si>
+  <si>
+    <t>Sceliphron?</t>
+  </si>
+  <si>
+    <t>dragonfly</t>
+  </si>
+  <si>
+    <t>black, fuzzy</t>
+  </si>
+  <si>
+    <t>Coal-A8-FF-1</t>
+  </si>
+  <si>
+    <t>Coal-A8-FF-2</t>
+  </si>
+  <si>
+    <t>Coal-A8-FF-3</t>
+  </si>
+  <si>
+    <t>Pentamoidae</t>
+  </si>
+  <si>
+    <t>tiny black</t>
+  </si>
+  <si>
+    <t>Crabronidae</t>
+  </si>
+  <si>
+    <t>bad shape</t>
+  </si>
+  <si>
+    <t>very long ovipositor</t>
+  </si>
+  <si>
+    <t>tiny but cool</t>
+  </si>
+  <si>
+    <t>white black spots</t>
+  </si>
+  <si>
+    <t>Lactrodectus</t>
+  </si>
+  <si>
+    <t>black spots</t>
+  </si>
+  <si>
+    <t>Latrodectrus\</t>
+  </si>
+  <si>
+    <t>nymphs</t>
+  </si>
 </sst>
 </file>
 
@@ -1590,11 +1653,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T1364"/>
+  <dimension ref="A1:T1581"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A1350" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H1368" sqref="H1368"/>
+      <pane ySplit="1" topLeftCell="A1562" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C1577" sqref="C1577"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -44760,7 +44823,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="1361" spans="4:13" x14ac:dyDescent="0.35">
+    <row r="1361" spans="4:18" x14ac:dyDescent="0.35">
       <c r="D1361" t="s">
         <v>71</v>
       </c>
@@ -44789,7 +44852,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="1362" spans="4:13" x14ac:dyDescent="0.35">
+    <row r="1362" spans="4:18" x14ac:dyDescent="0.35">
       <c r="D1362" t="s">
         <v>71</v>
       </c>
@@ -44821,7 +44884,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="1363" spans="4:13" x14ac:dyDescent="0.35">
+    <row r="1363" spans="4:18" x14ac:dyDescent="0.35">
       <c r="D1363" t="s">
         <v>71</v>
       </c>
@@ -44838,7 +44901,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="1364" spans="4:13" x14ac:dyDescent="0.35">
+    <row r="1364" spans="4:18" x14ac:dyDescent="0.35">
       <c r="D1364" t="s">
         <v>71</v>
       </c>
@@ -44859,6 +44922,6806 @@
       </c>
       <c r="J1364" t="s">
         <v>143</v>
+      </c>
+    </row>
+    <row r="1365" spans="4:18" x14ac:dyDescent="0.35">
+      <c r="D1365" t="s">
+        <v>114</v>
+      </c>
+      <c r="E1365" t="s">
+        <v>407</v>
+      </c>
+      <c r="F1365">
+        <v>10</v>
+      </c>
+      <c r="G1365" t="s">
+        <v>95</v>
+      </c>
+      <c r="H1365" t="s">
+        <v>89</v>
+      </c>
+      <c r="I1365">
+        <v>7</v>
+      </c>
+      <c r="J1365" t="s">
+        <v>382</v>
+      </c>
+      <c r="K1365">
+        <v>1</v>
+      </c>
+      <c r="L1365" t="s">
+        <v>134</v>
+      </c>
+      <c r="M1365" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="1366" spans="4:18" x14ac:dyDescent="0.35">
+      <c r="D1366" t="s">
+        <v>114</v>
+      </c>
+      <c r="E1366" t="s">
+        <v>407</v>
+      </c>
+      <c r="F1366">
+        <v>10</v>
+      </c>
+      <c r="G1366" t="s">
+        <v>88</v>
+      </c>
+      <c r="H1366" t="s">
+        <v>89</v>
+      </c>
+      <c r="I1366">
+        <v>7</v>
+      </c>
+      <c r="J1366" t="s">
+        <v>143</v>
+      </c>
+      <c r="K1366">
+        <v>1</v>
+      </c>
+      <c r="L1366" t="s">
+        <v>134</v>
+      </c>
+      <c r="M1366" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="1367" spans="4:18" x14ac:dyDescent="0.35">
+      <c r="D1367" t="s">
+        <v>114</v>
+      </c>
+      <c r="E1367" t="s">
+        <v>407</v>
+      </c>
+      <c r="F1367">
+        <v>10</v>
+      </c>
+      <c r="G1367" t="s">
+        <v>88</v>
+      </c>
+      <c r="H1367" t="s">
+        <v>89</v>
+      </c>
+      <c r="I1367">
+        <v>7</v>
+      </c>
+      <c r="J1367" t="s">
+        <v>143</v>
+      </c>
+      <c r="K1367">
+        <v>1</v>
+      </c>
+      <c r="L1367" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="1368" spans="4:18" x14ac:dyDescent="0.35">
+      <c r="D1368" t="s">
+        <v>114</v>
+      </c>
+      <c r="E1368" t="s">
+        <v>407</v>
+      </c>
+      <c r="F1368">
+        <v>10</v>
+      </c>
+      <c r="G1368" t="s">
+        <v>88</v>
+      </c>
+      <c r="H1368" t="s">
+        <v>89</v>
+      </c>
+      <c r="I1368">
+        <v>7</v>
+      </c>
+      <c r="J1368" t="s">
+        <v>143</v>
+      </c>
+      <c r="K1368">
+        <v>1</v>
+      </c>
+      <c r="L1368" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="1369" spans="4:18" x14ac:dyDescent="0.35">
+      <c r="D1369" t="s">
+        <v>114</v>
+      </c>
+      <c r="E1369" t="s">
+        <v>407</v>
+      </c>
+      <c r="F1369">
+        <v>10</v>
+      </c>
+      <c r="G1369" t="s">
+        <v>88</v>
+      </c>
+      <c r="H1369" t="s">
+        <v>89</v>
+      </c>
+      <c r="I1369">
+        <v>7</v>
+      </c>
+      <c r="J1369" t="s">
+        <v>143</v>
+      </c>
+      <c r="K1369">
+        <v>1</v>
+      </c>
+      <c r="L1369" t="s">
+        <v>148</v>
+      </c>
+      <c r="M1369" t="s">
+        <v>150</v>
+      </c>
+      <c r="R1369" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="1370" spans="4:18" x14ac:dyDescent="0.35">
+      <c r="D1370" t="s">
+        <v>114</v>
+      </c>
+      <c r="E1370" t="s">
+        <v>407</v>
+      </c>
+      <c r="F1370">
+        <v>10</v>
+      </c>
+      <c r="G1370" t="s">
+        <v>88</v>
+      </c>
+      <c r="H1370" t="s">
+        <v>89</v>
+      </c>
+      <c r="I1370">
+        <v>8</v>
+      </c>
+      <c r="J1370" t="s">
+        <v>382</v>
+      </c>
+      <c r="K1370">
+        <v>1</v>
+      </c>
+      <c r="L1370" t="s">
+        <v>134</v>
+      </c>
+      <c r="M1370" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="1371" spans="4:18" x14ac:dyDescent="0.35">
+      <c r="D1371" t="s">
+        <v>114</v>
+      </c>
+      <c r="E1371" t="s">
+        <v>407</v>
+      </c>
+      <c r="F1371">
+        <v>10</v>
+      </c>
+      <c r="G1371" t="s">
+        <v>88</v>
+      </c>
+      <c r="H1371" t="s">
+        <v>89</v>
+      </c>
+      <c r="I1371">
+        <v>8</v>
+      </c>
+      <c r="J1371" t="s">
+        <v>382</v>
+      </c>
+      <c r="K1371">
+        <v>1</v>
+      </c>
+      <c r="L1371" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="1372" spans="4:18" x14ac:dyDescent="0.35">
+      <c r="D1372" t="s">
+        <v>114</v>
+      </c>
+      <c r="E1372" t="s">
+        <v>407</v>
+      </c>
+      <c r="F1372">
+        <v>10</v>
+      </c>
+      <c r="G1372" t="s">
+        <v>88</v>
+      </c>
+      <c r="H1372" t="s">
+        <v>89</v>
+      </c>
+      <c r="I1372">
+        <v>4</v>
+      </c>
+      <c r="J1372" t="s">
+        <v>143</v>
+      </c>
+      <c r="K1372">
+        <v>1</v>
+      </c>
+      <c r="L1372" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="1373" spans="4:18" x14ac:dyDescent="0.35">
+      <c r="D1373" t="s">
+        <v>114</v>
+      </c>
+      <c r="E1373" t="s">
+        <v>407</v>
+      </c>
+      <c r="F1373">
+        <v>10</v>
+      </c>
+      <c r="G1373" t="s">
+        <v>95</v>
+      </c>
+      <c r="H1373" t="s">
+        <v>89</v>
+      </c>
+      <c r="I1373">
+        <v>5</v>
+      </c>
+      <c r="J1373" t="s">
+        <v>143</v>
+      </c>
+      <c r="K1373">
+        <v>1</v>
+      </c>
+      <c r="L1373" t="s">
+        <v>148</v>
+      </c>
+      <c r="M1373" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="1374" spans="4:18" x14ac:dyDescent="0.35">
+      <c r="D1374" t="s">
+        <v>114</v>
+      </c>
+      <c r="E1374" t="s">
+        <v>407</v>
+      </c>
+      <c r="F1374">
+        <v>10</v>
+      </c>
+      <c r="G1374" t="s">
+        <v>88</v>
+      </c>
+      <c r="H1374" t="s">
+        <v>89</v>
+      </c>
+      <c r="I1374">
+        <v>3</v>
+      </c>
+      <c r="J1374" t="s">
+        <v>143</v>
+      </c>
+      <c r="K1374">
+        <v>2</v>
+      </c>
+      <c r="L1374" t="s">
+        <v>134</v>
+      </c>
+      <c r="M1374" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="1375" spans="4:18" x14ac:dyDescent="0.35">
+      <c r="D1375" t="s">
+        <v>114</v>
+      </c>
+      <c r="E1375" t="s">
+        <v>407</v>
+      </c>
+      <c r="F1375">
+        <v>10</v>
+      </c>
+      <c r="G1375" t="s">
+        <v>88</v>
+      </c>
+      <c r="H1375" t="s">
+        <v>89</v>
+      </c>
+      <c r="I1375">
+        <v>3</v>
+      </c>
+      <c r="J1375" t="s">
+        <v>143</v>
+      </c>
+      <c r="K1375">
+        <v>1</v>
+      </c>
+      <c r="L1375" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="1376" spans="4:18" x14ac:dyDescent="0.35">
+      <c r="D1376" t="s">
+        <v>114</v>
+      </c>
+      <c r="E1376" t="s">
+        <v>407</v>
+      </c>
+      <c r="F1376">
+        <v>10</v>
+      </c>
+      <c r="G1376" t="s">
+        <v>95</v>
+      </c>
+      <c r="H1376" t="s">
+        <v>89</v>
+      </c>
+      <c r="I1376">
+        <v>4</v>
+      </c>
+      <c r="J1376" t="s">
+        <v>143</v>
+      </c>
+      <c r="K1376">
+        <v>1</v>
+      </c>
+      <c r="L1376" t="s">
+        <v>148</v>
+      </c>
+      <c r="M1376" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="1377" spans="3:16" x14ac:dyDescent="0.35">
+      <c r="D1377" t="s">
+        <v>114</v>
+      </c>
+      <c r="E1377" t="s">
+        <v>407</v>
+      </c>
+      <c r="F1377">
+        <v>10</v>
+      </c>
+      <c r="G1377" t="s">
+        <v>95</v>
+      </c>
+      <c r="H1377" t="s">
+        <v>89</v>
+      </c>
+      <c r="I1377">
+        <v>2</v>
+      </c>
+      <c r="J1377" t="s">
+        <v>382</v>
+      </c>
+      <c r="K1377">
+        <v>1</v>
+      </c>
+      <c r="L1377" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="1378" spans="3:16" x14ac:dyDescent="0.35">
+      <c r="D1378" t="s">
+        <v>114</v>
+      </c>
+      <c r="E1378" t="s">
+        <v>407</v>
+      </c>
+      <c r="F1378">
+        <v>10</v>
+      </c>
+      <c r="G1378" t="s">
+        <v>88</v>
+      </c>
+      <c r="H1378" t="s">
+        <v>89</v>
+      </c>
+      <c r="I1378">
+        <v>2</v>
+      </c>
+      <c r="J1378" t="s">
+        <v>382</v>
+      </c>
+      <c r="K1378">
+        <v>1</v>
+      </c>
+      <c r="L1378" t="s">
+        <v>134</v>
+      </c>
+      <c r="M1378" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="1379" spans="3:16" x14ac:dyDescent="0.35">
+      <c r="D1379" t="s">
+        <v>114</v>
+      </c>
+      <c r="E1379" t="s">
+        <v>407</v>
+      </c>
+      <c r="F1379">
+        <v>10</v>
+      </c>
+      <c r="G1379" t="s">
+        <v>88</v>
+      </c>
+      <c r="H1379" t="s">
+        <v>89</v>
+      </c>
+      <c r="I1379">
+        <v>5</v>
+      </c>
+      <c r="J1379" t="s">
+        <v>382</v>
+      </c>
+      <c r="K1379">
+        <v>1</v>
+      </c>
+      <c r="L1379" t="s">
+        <v>134</v>
+      </c>
+      <c r="M1379" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="1380" spans="3:16" x14ac:dyDescent="0.35">
+      <c r="D1380" t="s">
+        <v>114</v>
+      </c>
+      <c r="E1380" t="s">
+        <v>407</v>
+      </c>
+      <c r="F1380">
+        <v>10</v>
+      </c>
+      <c r="G1380" t="s">
+        <v>95</v>
+      </c>
+      <c r="H1380" t="s">
+        <v>89</v>
+      </c>
+      <c r="I1380">
+        <v>8</v>
+      </c>
+      <c r="J1380" t="s">
+        <v>382</v>
+      </c>
+      <c r="K1380">
+        <v>1</v>
+      </c>
+      <c r="L1380" t="s">
+        <v>148</v>
+      </c>
+      <c r="M1380" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="1381" spans="3:16" x14ac:dyDescent="0.35">
+      <c r="D1381" t="s">
+        <v>114</v>
+      </c>
+      <c r="E1381" t="s">
+        <v>407</v>
+      </c>
+      <c r="F1381">
+        <v>10</v>
+      </c>
+      <c r="G1381" t="s">
+        <v>88</v>
+      </c>
+      <c r="H1381" t="s">
+        <v>89</v>
+      </c>
+      <c r="I1381">
+        <v>9</v>
+      </c>
+      <c r="J1381" t="s">
+        <v>74</v>
+      </c>
+      <c r="K1381">
+        <v>1</v>
+      </c>
+      <c r="L1381" t="s">
+        <v>99</v>
+      </c>
+      <c r="M1381" t="s">
+        <v>57</v>
+      </c>
+      <c r="N1381" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="1382" spans="3:16" x14ac:dyDescent="0.35">
+      <c r="D1382" t="s">
+        <v>114</v>
+      </c>
+      <c r="E1382" t="s">
+        <v>407</v>
+      </c>
+      <c r="F1382">
+        <v>10</v>
+      </c>
+      <c r="G1382" t="s">
+        <v>88</v>
+      </c>
+      <c r="H1382" t="s">
+        <v>89</v>
+      </c>
+      <c r="I1382">
+        <v>9</v>
+      </c>
+      <c r="J1382" t="s">
+        <v>382</v>
+      </c>
+      <c r="K1382">
+        <v>1</v>
+      </c>
+      <c r="L1382" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="1383" spans="3:16" x14ac:dyDescent="0.35">
+      <c r="D1383" t="s">
+        <v>114</v>
+      </c>
+      <c r="E1383" t="s">
+        <v>407</v>
+      </c>
+      <c r="F1383">
+        <v>10</v>
+      </c>
+      <c r="G1383" t="s">
+        <v>88</v>
+      </c>
+      <c r="H1383" t="s">
+        <v>89</v>
+      </c>
+      <c r="I1383">
+        <v>9</v>
+      </c>
+      <c r="J1383" t="s">
+        <v>382</v>
+      </c>
+      <c r="K1383">
+        <v>3</v>
+      </c>
+      <c r="L1383" t="s">
+        <v>134</v>
+      </c>
+      <c r="M1383" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="1384" spans="3:16" x14ac:dyDescent="0.35">
+      <c r="D1384" t="s">
+        <v>114</v>
+      </c>
+      <c r="E1384" t="s">
+        <v>407</v>
+      </c>
+      <c r="F1384">
+        <v>10</v>
+      </c>
+      <c r="G1384" t="s">
+        <v>88</v>
+      </c>
+      <c r="H1384" t="s">
+        <v>89</v>
+      </c>
+      <c r="I1384">
+        <v>10</v>
+      </c>
+      <c r="J1384" t="s">
+        <v>74</v>
+      </c>
+      <c r="K1384">
+        <v>1</v>
+      </c>
+      <c r="L1384" t="s">
+        <v>99</v>
+      </c>
+      <c r="M1384" t="s">
+        <v>57</v>
+      </c>
+      <c r="N1384" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="1385" spans="3:16" x14ac:dyDescent="0.35">
+      <c r="D1385" t="s">
+        <v>114</v>
+      </c>
+      <c r="E1385" t="s">
+        <v>407</v>
+      </c>
+      <c r="F1385">
+        <v>10</v>
+      </c>
+      <c r="G1385" t="s">
+        <v>88</v>
+      </c>
+      <c r="H1385" t="s">
+        <v>89</v>
+      </c>
+      <c r="I1385">
+        <v>10</v>
+      </c>
+      <c r="J1385" t="s">
+        <v>382</v>
+      </c>
+      <c r="K1385">
+        <v>6</v>
+      </c>
+      <c r="L1385" t="s">
+        <v>134</v>
+      </c>
+      <c r="M1385" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="1386" spans="3:16" x14ac:dyDescent="0.35">
+      <c r="D1386" t="s">
+        <v>114</v>
+      </c>
+      <c r="E1386" t="s">
+        <v>407</v>
+      </c>
+      <c r="F1386">
+        <v>10</v>
+      </c>
+      <c r="G1386" t="s">
+        <v>88</v>
+      </c>
+      <c r="H1386" t="s">
+        <v>89</v>
+      </c>
+      <c r="I1386">
+        <v>6</v>
+      </c>
+      <c r="J1386" t="s">
+        <v>74</v>
+      </c>
+      <c r="K1386">
+        <v>1</v>
+      </c>
+      <c r="L1386" t="s">
+        <v>99</v>
+      </c>
+      <c r="M1386" t="s">
+        <v>57</v>
+      </c>
+      <c r="N1386" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="1387" spans="3:16" x14ac:dyDescent="0.35">
+      <c r="D1387" t="s">
+        <v>114</v>
+      </c>
+      <c r="E1387" t="s">
+        <v>407</v>
+      </c>
+      <c r="F1387">
+        <v>10</v>
+      </c>
+      <c r="G1387" t="s">
+        <v>88</v>
+      </c>
+      <c r="H1387" t="s">
+        <v>89</v>
+      </c>
+      <c r="I1387">
+        <v>6</v>
+      </c>
+      <c r="J1387" t="s">
+        <v>143</v>
+      </c>
+      <c r="K1387">
+        <v>2</v>
+      </c>
+      <c r="L1387" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="1388" spans="3:16" x14ac:dyDescent="0.35">
+      <c r="D1388" t="s">
+        <v>114</v>
+      </c>
+      <c r="E1388" t="s">
+        <v>407</v>
+      </c>
+      <c r="F1388">
+        <v>10</v>
+      </c>
+      <c r="G1388" t="s">
+        <v>88</v>
+      </c>
+      <c r="H1388" t="s">
+        <v>89</v>
+      </c>
+      <c r="I1388">
+        <v>6</v>
+      </c>
+      <c r="J1388" t="s">
+        <v>143</v>
+      </c>
+      <c r="K1388">
+        <v>1</v>
+      </c>
+      <c r="L1388" t="s">
+        <v>90</v>
+      </c>
+      <c r="P1388" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="1389" spans="3:16" x14ac:dyDescent="0.35">
+      <c r="D1389" t="s">
+        <v>114</v>
+      </c>
+      <c r="E1389" t="s">
+        <v>407</v>
+      </c>
+      <c r="F1389">
+        <v>10</v>
+      </c>
+      <c r="G1389" t="s">
+        <v>95</v>
+      </c>
+      <c r="H1389" t="s">
+        <v>96</v>
+      </c>
+      <c r="I1389">
+        <v>4</v>
+      </c>
+      <c r="J1389" t="s">
+        <v>74</v>
+      </c>
+      <c r="K1389">
+        <v>1</v>
+      </c>
+      <c r="L1389" t="s">
+        <v>99</v>
+      </c>
+      <c r="M1389" t="s">
+        <v>57</v>
+      </c>
+      <c r="N1389" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="1390" spans="3:16" x14ac:dyDescent="0.35">
+      <c r="D1390" t="s">
+        <v>114</v>
+      </c>
+      <c r="E1390" t="s">
+        <v>407</v>
+      </c>
+      <c r="F1390">
+        <v>10</v>
+      </c>
+      <c r="H1390" t="s">
+        <v>72</v>
+      </c>
+      <c r="J1390" t="s">
+        <v>74</v>
+      </c>
+      <c r="K1390">
+        <v>3</v>
+      </c>
+      <c r="L1390" t="s">
+        <v>99</v>
+      </c>
+      <c r="M1390" t="s">
+        <v>57</v>
+      </c>
+      <c r="N1390" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="1391" spans="3:16" x14ac:dyDescent="0.35">
+      <c r="C1391" t="s">
+        <v>70</v>
+      </c>
+      <c r="D1391" t="s">
+        <v>114</v>
+      </c>
+      <c r="E1391" t="s">
+        <v>407</v>
+      </c>
+      <c r="F1391">
+        <v>10</v>
+      </c>
+      <c r="H1391" t="s">
+        <v>72</v>
+      </c>
+      <c r="J1391" t="s">
+        <v>74</v>
+      </c>
+      <c r="K1391">
+        <v>1</v>
+      </c>
+      <c r="L1391" t="s">
+        <v>99</v>
+      </c>
+      <c r="M1391" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="1392" spans="3:16" x14ac:dyDescent="0.35">
+      <c r="C1392" t="s">
+        <v>70</v>
+      </c>
+      <c r="D1392" t="s">
+        <v>114</v>
+      </c>
+      <c r="E1392" t="s">
+        <v>407</v>
+      </c>
+      <c r="F1392">
+        <v>10</v>
+      </c>
+      <c r="H1392" t="s">
+        <v>72</v>
+      </c>
+      <c r="J1392" t="s">
+        <v>74</v>
+      </c>
+      <c r="K1392">
+        <v>1</v>
+      </c>
+      <c r="L1392" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="1393" spans="4:16" x14ac:dyDescent="0.35">
+      <c r="D1393" t="s">
+        <v>114</v>
+      </c>
+      <c r="E1393" t="s">
+        <v>407</v>
+      </c>
+      <c r="F1393">
+        <v>10</v>
+      </c>
+      <c r="H1393" t="s">
+        <v>72</v>
+      </c>
+      <c r="J1393" t="s">
+        <v>382</v>
+      </c>
+      <c r="K1393">
+        <v>3</v>
+      </c>
+      <c r="L1393" t="s">
+        <v>134</v>
+      </c>
+      <c r="M1393" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="1394" spans="4:16" x14ac:dyDescent="0.35">
+      <c r="D1394" t="s">
+        <v>114</v>
+      </c>
+      <c r="E1394" t="s">
+        <v>407</v>
+      </c>
+      <c r="F1394">
+        <v>10</v>
+      </c>
+      <c r="H1394" t="s">
+        <v>72</v>
+      </c>
+      <c r="J1394" t="s">
+        <v>382</v>
+      </c>
+      <c r="K1394">
+        <v>1</v>
+      </c>
+      <c r="L1394" t="s">
+        <v>134</v>
+      </c>
+      <c r="M1394" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="1395" spans="4:16" x14ac:dyDescent="0.35">
+      <c r="D1395" t="s">
+        <v>114</v>
+      </c>
+      <c r="E1395" t="s">
+        <v>407</v>
+      </c>
+      <c r="F1395">
+        <v>10</v>
+      </c>
+      <c r="H1395" t="s">
+        <v>72</v>
+      </c>
+      <c r="J1395" t="s">
+        <v>382</v>
+      </c>
+      <c r="K1395">
+        <v>1</v>
+      </c>
+      <c r="L1395" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="1396" spans="4:16" x14ac:dyDescent="0.35">
+      <c r="D1396" t="s">
+        <v>161</v>
+      </c>
+      <c r="E1396" t="s">
+        <v>407</v>
+      </c>
+      <c r="F1396">
+        <v>8</v>
+      </c>
+      <c r="G1396" t="s">
+        <v>95</v>
+      </c>
+      <c r="H1396" t="s">
+        <v>89</v>
+      </c>
+      <c r="I1396">
+        <v>3</v>
+      </c>
+      <c r="J1396" t="s">
+        <v>74</v>
+      </c>
+      <c r="K1396">
+        <v>1</v>
+      </c>
+      <c r="L1396" t="s">
+        <v>99</v>
+      </c>
+      <c r="M1396" t="s">
+        <v>57</v>
+      </c>
+      <c r="N1396" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="1397" spans="4:16" x14ac:dyDescent="0.35">
+      <c r="D1397" t="s">
+        <v>161</v>
+      </c>
+      <c r="E1397" t="s">
+        <v>407</v>
+      </c>
+      <c r="F1397">
+        <v>8</v>
+      </c>
+      <c r="G1397" t="s">
+        <v>95</v>
+      </c>
+      <c r="H1397" t="s">
+        <v>96</v>
+      </c>
+      <c r="I1397">
+        <v>4</v>
+      </c>
+      <c r="J1397" t="s">
+        <v>74</v>
+      </c>
+      <c r="K1397">
+        <v>1</v>
+      </c>
+      <c r="L1397" t="s">
+        <v>99</v>
+      </c>
+      <c r="M1397" t="s">
+        <v>57</v>
+      </c>
+      <c r="N1397" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="1398" spans="4:16" x14ac:dyDescent="0.35">
+      <c r="D1398" t="s">
+        <v>161</v>
+      </c>
+      <c r="E1398" t="s">
+        <v>407</v>
+      </c>
+      <c r="F1398">
+        <v>8</v>
+      </c>
+      <c r="G1398" t="s">
+        <v>95</v>
+      </c>
+      <c r="H1398" t="s">
+        <v>89</v>
+      </c>
+      <c r="I1398">
+        <v>8</v>
+      </c>
+      <c r="J1398" t="s">
+        <v>74</v>
+      </c>
+      <c r="K1398">
+        <v>2</v>
+      </c>
+      <c r="L1398" t="s">
+        <v>99</v>
+      </c>
+      <c r="M1398" t="s">
+        <v>57</v>
+      </c>
+      <c r="N1398" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="1399" spans="4:16" x14ac:dyDescent="0.35">
+      <c r="D1399" t="s">
+        <v>161</v>
+      </c>
+      <c r="E1399" t="s">
+        <v>407</v>
+      </c>
+      <c r="F1399">
+        <v>8</v>
+      </c>
+      <c r="G1399" t="s">
+        <v>95</v>
+      </c>
+      <c r="H1399" t="s">
+        <v>89</v>
+      </c>
+      <c r="I1399">
+        <v>8</v>
+      </c>
+      <c r="J1399" t="s">
+        <v>382</v>
+      </c>
+      <c r="K1399">
+        <v>1</v>
+      </c>
+      <c r="L1399" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="1400" spans="4:16" x14ac:dyDescent="0.35">
+      <c r="D1400" t="s">
+        <v>161</v>
+      </c>
+      <c r="E1400" t="s">
+        <v>407</v>
+      </c>
+      <c r="F1400">
+        <v>8</v>
+      </c>
+      <c r="G1400" t="s">
+        <v>95</v>
+      </c>
+      <c r="H1400" t="s">
+        <v>89</v>
+      </c>
+      <c r="I1400">
+        <v>5</v>
+      </c>
+      <c r="J1400" t="s">
+        <v>74</v>
+      </c>
+      <c r="K1400">
+        <v>2</v>
+      </c>
+      <c r="L1400" t="s">
+        <v>99</v>
+      </c>
+      <c r="M1400" t="s">
+        <v>57</v>
+      </c>
+      <c r="N1400" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="1401" spans="4:16" x14ac:dyDescent="0.35">
+      <c r="D1401" t="s">
+        <v>161</v>
+      </c>
+      <c r="E1401" t="s">
+        <v>407</v>
+      </c>
+      <c r="F1401">
+        <v>8</v>
+      </c>
+      <c r="G1401" t="s">
+        <v>95</v>
+      </c>
+      <c r="H1401" t="s">
+        <v>89</v>
+      </c>
+      <c r="I1401">
+        <v>5</v>
+      </c>
+      <c r="J1401" t="s">
+        <v>382</v>
+      </c>
+      <c r="K1401">
+        <v>1</v>
+      </c>
+      <c r="L1401" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="1402" spans="4:16" x14ac:dyDescent="0.35">
+      <c r="D1402" t="s">
+        <v>161</v>
+      </c>
+      <c r="E1402" t="s">
+        <v>407</v>
+      </c>
+      <c r="F1402">
+        <v>8</v>
+      </c>
+      <c r="G1402" t="s">
+        <v>95</v>
+      </c>
+      <c r="H1402" t="s">
+        <v>89</v>
+      </c>
+      <c r="I1402">
+        <v>5</v>
+      </c>
+      <c r="J1402" t="s">
+        <v>382</v>
+      </c>
+      <c r="K1402">
+        <v>1</v>
+      </c>
+      <c r="L1402" t="s">
+        <v>75</v>
+      </c>
+      <c r="M1402" t="s">
+        <v>385</v>
+      </c>
+      <c r="P1402" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="1403" spans="4:16" x14ac:dyDescent="0.35">
+      <c r="D1403" t="s">
+        <v>161</v>
+      </c>
+      <c r="E1403" t="s">
+        <v>407</v>
+      </c>
+      <c r="F1403">
+        <v>8</v>
+      </c>
+      <c r="G1403" t="s">
+        <v>95</v>
+      </c>
+      <c r="H1403" t="s">
+        <v>96</v>
+      </c>
+      <c r="I1403">
+        <v>7</v>
+      </c>
+      <c r="J1403" t="s">
+        <v>74</v>
+      </c>
+      <c r="K1403">
+        <v>4</v>
+      </c>
+      <c r="L1403" t="s">
+        <v>99</v>
+      </c>
+      <c r="M1403" t="s">
+        <v>57</v>
+      </c>
+      <c r="N1403" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="1404" spans="4:16" x14ac:dyDescent="0.35">
+      <c r="D1404" t="s">
+        <v>161</v>
+      </c>
+      <c r="E1404" t="s">
+        <v>407</v>
+      </c>
+      <c r="F1404">
+        <v>8</v>
+      </c>
+      <c r="G1404" t="s">
+        <v>95</v>
+      </c>
+      <c r="H1404" t="s">
+        <v>96</v>
+      </c>
+      <c r="I1404">
+        <v>6</v>
+      </c>
+      <c r="J1404" t="s">
+        <v>74</v>
+      </c>
+      <c r="K1404">
+        <v>1</v>
+      </c>
+      <c r="L1404" t="s">
+        <v>99</v>
+      </c>
+      <c r="M1404" t="s">
+        <v>57</v>
+      </c>
+      <c r="N1404" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="1405" spans="4:16" x14ac:dyDescent="0.35">
+      <c r="D1405" t="s">
+        <v>161</v>
+      </c>
+      <c r="E1405" t="s">
+        <v>407</v>
+      </c>
+      <c r="F1405">
+        <v>8</v>
+      </c>
+      <c r="G1405" t="s">
+        <v>95</v>
+      </c>
+      <c r="H1405" t="s">
+        <v>96</v>
+      </c>
+      <c r="I1405">
+        <v>1</v>
+      </c>
+      <c r="J1405" t="s">
+        <v>74</v>
+      </c>
+      <c r="K1405">
+        <v>2</v>
+      </c>
+      <c r="L1405" t="s">
+        <v>99</v>
+      </c>
+      <c r="M1405" t="s">
+        <v>57</v>
+      </c>
+      <c r="N1405" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="1406" spans="4:16" x14ac:dyDescent="0.35">
+      <c r="D1406" t="s">
+        <v>161</v>
+      </c>
+      <c r="E1406" t="s">
+        <v>407</v>
+      </c>
+      <c r="F1406">
+        <v>8</v>
+      </c>
+      <c r="G1406" t="s">
+        <v>95</v>
+      </c>
+      <c r="H1406" t="s">
+        <v>96</v>
+      </c>
+      <c r="I1406">
+        <v>2</v>
+      </c>
+      <c r="J1406" t="s">
+        <v>143</v>
+      </c>
+      <c r="K1406">
+        <v>1</v>
+      </c>
+      <c r="L1406" t="s">
+        <v>75</v>
+      </c>
+      <c r="M1406" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="1407" spans="4:16" x14ac:dyDescent="0.35">
+      <c r="D1407" t="s">
+        <v>161</v>
+      </c>
+      <c r="E1407" t="s">
+        <v>407</v>
+      </c>
+      <c r="F1407">
+        <v>8</v>
+      </c>
+      <c r="G1407" t="s">
+        <v>95</v>
+      </c>
+      <c r="H1407" t="s">
+        <v>96</v>
+      </c>
+      <c r="I1407">
+        <v>2</v>
+      </c>
+      <c r="J1407" t="s">
+        <v>143</v>
+      </c>
+      <c r="K1407">
+        <v>1</v>
+      </c>
+      <c r="L1407" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="1408" spans="4:16" x14ac:dyDescent="0.35">
+      <c r="D1408" t="s">
+        <v>161</v>
+      </c>
+      <c r="E1408" t="s">
+        <v>407</v>
+      </c>
+      <c r="F1408">
+        <v>8</v>
+      </c>
+      <c r="G1408" t="s">
+        <v>95</v>
+      </c>
+      <c r="H1408" t="s">
+        <v>96</v>
+      </c>
+      <c r="I1408">
+        <v>2</v>
+      </c>
+      <c r="J1408" t="s">
+        <v>74</v>
+      </c>
+      <c r="K1408">
+        <v>1</v>
+      </c>
+      <c r="L1408" t="s">
+        <v>99</v>
+      </c>
+      <c r="M1408" t="s">
+        <v>57</v>
+      </c>
+      <c r="N1408" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="1409" spans="4:16" x14ac:dyDescent="0.35">
+      <c r="D1409" t="s">
+        <v>161</v>
+      </c>
+      <c r="E1409" t="s">
+        <v>407</v>
+      </c>
+      <c r="F1409">
+        <v>8</v>
+      </c>
+      <c r="G1409" t="s">
+        <v>95</v>
+      </c>
+      <c r="H1409" t="s">
+        <v>96</v>
+      </c>
+      <c r="I1409">
+        <v>10</v>
+      </c>
+      <c r="J1409" t="s">
+        <v>74</v>
+      </c>
+      <c r="K1409">
+        <v>3</v>
+      </c>
+      <c r="L1409" t="s">
+        <v>99</v>
+      </c>
+      <c r="M1409" t="s">
+        <v>57</v>
+      </c>
+      <c r="N1409" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="1410" spans="4:16" x14ac:dyDescent="0.35">
+      <c r="D1410" t="s">
+        <v>161</v>
+      </c>
+      <c r="E1410" t="s">
+        <v>407</v>
+      </c>
+      <c r="F1410">
+        <v>8</v>
+      </c>
+      <c r="G1410" t="s">
+        <v>95</v>
+      </c>
+      <c r="H1410" t="s">
+        <v>89</v>
+      </c>
+      <c r="I1410">
+        <v>8</v>
+      </c>
+      <c r="J1410" t="s">
+        <v>74</v>
+      </c>
+      <c r="K1410">
+        <v>1</v>
+      </c>
+      <c r="L1410" t="s">
+        <v>99</v>
+      </c>
+      <c r="M1410" t="s">
+        <v>57</v>
+      </c>
+      <c r="N1410" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="1411" spans="4:16" x14ac:dyDescent="0.35">
+      <c r="D1411" t="s">
+        <v>161</v>
+      </c>
+      <c r="E1411" t="s">
+        <v>407</v>
+      </c>
+      <c r="F1411">
+        <v>8</v>
+      </c>
+      <c r="G1411" t="s">
+        <v>95</v>
+      </c>
+      <c r="H1411" t="s">
+        <v>89</v>
+      </c>
+      <c r="I1411">
+        <v>1</v>
+      </c>
+      <c r="J1411" t="s">
+        <v>143</v>
+      </c>
+      <c r="K1411">
+        <v>1</v>
+      </c>
+      <c r="L1411" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="1412" spans="4:16" x14ac:dyDescent="0.35">
+      <c r="D1412" t="s">
+        <v>161</v>
+      </c>
+      <c r="E1412" t="s">
+        <v>407</v>
+      </c>
+      <c r="F1412">
+        <v>8</v>
+      </c>
+      <c r="G1412" t="s">
+        <v>95</v>
+      </c>
+      <c r="H1412" t="s">
+        <v>89</v>
+      </c>
+      <c r="I1412">
+        <v>1</v>
+      </c>
+      <c r="J1412" t="s">
+        <v>143</v>
+      </c>
+      <c r="K1412">
+        <v>1</v>
+      </c>
+      <c r="L1412" t="s">
+        <v>75</v>
+      </c>
+      <c r="M1412" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="1413" spans="4:16" x14ac:dyDescent="0.35">
+      <c r="D1413" t="s">
+        <v>161</v>
+      </c>
+      <c r="E1413" t="s">
+        <v>407</v>
+      </c>
+      <c r="F1413">
+        <v>8</v>
+      </c>
+      <c r="G1413" t="s">
+        <v>95</v>
+      </c>
+      <c r="H1413" t="s">
+        <v>89</v>
+      </c>
+      <c r="I1413">
+        <v>9</v>
+      </c>
+      <c r="J1413" t="s">
+        <v>382</v>
+      </c>
+      <c r="K1413">
+        <v>3</v>
+      </c>
+      <c r="L1413" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="1414" spans="4:16" x14ac:dyDescent="0.35">
+      <c r="D1414" t="s">
+        <v>161</v>
+      </c>
+      <c r="E1414" t="s">
+        <v>407</v>
+      </c>
+      <c r="F1414">
+        <v>8</v>
+      </c>
+      <c r="G1414" t="s">
+        <v>95</v>
+      </c>
+      <c r="H1414" t="s">
+        <v>96</v>
+      </c>
+      <c r="I1414">
+        <v>8</v>
+      </c>
+      <c r="J1414" t="s">
+        <v>74</v>
+      </c>
+      <c r="K1414">
+        <v>7</v>
+      </c>
+      <c r="L1414" t="s">
+        <v>99</v>
+      </c>
+      <c r="M1414" t="s">
+        <v>57</v>
+      </c>
+      <c r="N1414" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="1415" spans="4:16" x14ac:dyDescent="0.35">
+      <c r="D1415" t="s">
+        <v>161</v>
+      </c>
+      <c r="E1415" t="s">
+        <v>407</v>
+      </c>
+      <c r="F1415">
+        <v>8</v>
+      </c>
+      <c r="G1415" t="s">
+        <v>95</v>
+      </c>
+      <c r="H1415" t="s">
+        <v>96</v>
+      </c>
+      <c r="I1415">
+        <v>5</v>
+      </c>
+      <c r="J1415" t="s">
+        <v>74</v>
+      </c>
+      <c r="K1415">
+        <v>5</v>
+      </c>
+      <c r="L1415" t="s">
+        <v>99</v>
+      </c>
+      <c r="M1415" t="s">
+        <v>57</v>
+      </c>
+      <c r="N1415" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="1416" spans="4:16" x14ac:dyDescent="0.35">
+      <c r="D1416" t="s">
+        <v>161</v>
+      </c>
+      <c r="E1416" t="s">
+        <v>407</v>
+      </c>
+      <c r="F1416">
+        <v>8</v>
+      </c>
+      <c r="G1416" t="s">
+        <v>95</v>
+      </c>
+      <c r="H1416" t="s">
+        <v>96</v>
+      </c>
+      <c r="I1416">
+        <v>3</v>
+      </c>
+      <c r="J1416" t="s">
+        <v>143</v>
+      </c>
+      <c r="K1416">
+        <v>1</v>
+      </c>
+      <c r="L1416" t="s">
+        <v>99</v>
+      </c>
+      <c r="M1416" t="s">
+        <v>57</v>
+      </c>
+      <c r="N1416" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="1417" spans="4:16" x14ac:dyDescent="0.35">
+      <c r="D1417" t="s">
+        <v>161</v>
+      </c>
+      <c r="E1417" t="s">
+        <v>407</v>
+      </c>
+      <c r="F1417">
+        <v>8</v>
+      </c>
+      <c r="G1417" t="s">
+        <v>95</v>
+      </c>
+      <c r="H1417" t="s">
+        <v>96</v>
+      </c>
+      <c r="I1417">
+        <v>3</v>
+      </c>
+      <c r="J1417" t="s">
+        <v>143</v>
+      </c>
+      <c r="K1417">
+        <v>1</v>
+      </c>
+      <c r="L1417" t="s">
+        <v>75</v>
+      </c>
+      <c r="M1417" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="1418" spans="4:16" x14ac:dyDescent="0.35">
+      <c r="D1418" t="s">
+        <v>161</v>
+      </c>
+      <c r="E1418" t="s">
+        <v>407</v>
+      </c>
+      <c r="F1418">
+        <v>8</v>
+      </c>
+      <c r="H1418" t="s">
+        <v>72</v>
+      </c>
+      <c r="J1418" t="s">
+        <v>143</v>
+      </c>
+      <c r="K1418">
+        <v>1</v>
+      </c>
+      <c r="L1418" t="s">
+        <v>239</v>
+      </c>
+      <c r="M1418" t="s">
+        <v>137</v>
+      </c>
+      <c r="P1418" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="1419" spans="4:16" x14ac:dyDescent="0.35">
+      <c r="D1419" t="s">
+        <v>161</v>
+      </c>
+      <c r="E1419" t="s">
+        <v>407</v>
+      </c>
+      <c r="F1419">
+        <v>8</v>
+      </c>
+      <c r="H1419" t="s">
+        <v>72</v>
+      </c>
+      <c r="J1419" t="s">
+        <v>143</v>
+      </c>
+      <c r="K1419">
+        <v>2</v>
+      </c>
+      <c r="L1419" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="1420" spans="4:16" x14ac:dyDescent="0.35">
+      <c r="D1420" t="s">
+        <v>161</v>
+      </c>
+      <c r="E1420" t="s">
+        <v>407</v>
+      </c>
+      <c r="F1420">
+        <v>8</v>
+      </c>
+      <c r="H1420" t="s">
+        <v>72</v>
+      </c>
+      <c r="J1420" t="s">
+        <v>143</v>
+      </c>
+      <c r="K1420">
+        <v>1</v>
+      </c>
+      <c r="L1420" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="1421" spans="4:16" x14ac:dyDescent="0.35">
+      <c r="D1421" t="s">
+        <v>161</v>
+      </c>
+      <c r="E1421" t="s">
+        <v>407</v>
+      </c>
+      <c r="F1421">
+        <v>8</v>
+      </c>
+      <c r="H1421" t="s">
+        <v>72</v>
+      </c>
+      <c r="J1421" t="s">
+        <v>143</v>
+      </c>
+      <c r="K1421">
+        <v>1</v>
+      </c>
+      <c r="L1421" t="s">
+        <v>75</v>
+      </c>
+      <c r="M1421" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="1422" spans="4:16" x14ac:dyDescent="0.35">
+      <c r="D1422" t="s">
+        <v>161</v>
+      </c>
+      <c r="E1422" t="s">
+        <v>407</v>
+      </c>
+      <c r="F1422">
+        <v>8</v>
+      </c>
+      <c r="H1422" t="s">
+        <v>72</v>
+      </c>
+      <c r="J1422" t="s">
+        <v>143</v>
+      </c>
+      <c r="K1422">
+        <v>1</v>
+      </c>
+      <c r="L1422" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="1423" spans="4:16" x14ac:dyDescent="0.35">
+      <c r="D1423" t="s">
+        <v>161</v>
+      </c>
+      <c r="E1423" t="s">
+        <v>407</v>
+      </c>
+      <c r="F1423">
+        <v>8</v>
+      </c>
+      <c r="H1423" t="s">
+        <v>72</v>
+      </c>
+      <c r="J1423" t="s">
+        <v>143</v>
+      </c>
+      <c r="K1423">
+        <v>1</v>
+      </c>
+      <c r="L1423" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="1424" spans="4:16" x14ac:dyDescent="0.35">
+      <c r="D1424" t="s">
+        <v>161</v>
+      </c>
+      <c r="E1424" t="s">
+        <v>407</v>
+      </c>
+      <c r="F1424">
+        <v>8</v>
+      </c>
+      <c r="H1424" t="s">
+        <v>72</v>
+      </c>
+      <c r="J1424" t="s">
+        <v>143</v>
+      </c>
+      <c r="K1424">
+        <v>1</v>
+      </c>
+      <c r="L1424" t="s">
+        <v>75</v>
+      </c>
+      <c r="M1424" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="1425" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B1425" t="s">
+        <v>419</v>
+      </c>
+      <c r="C1425" t="s">
+        <v>70</v>
+      </c>
+      <c r="D1425" t="s">
+        <v>161</v>
+      </c>
+      <c r="E1425" t="s">
+        <v>407</v>
+      </c>
+      <c r="F1425">
+        <v>8</v>
+      </c>
+      <c r="H1425" t="s">
+        <v>72</v>
+      </c>
+      <c r="J1425" t="s">
+        <v>74</v>
+      </c>
+      <c r="K1425">
+        <v>1</v>
+      </c>
+      <c r="L1425" t="s">
+        <v>75</v>
+      </c>
+      <c r="M1425" t="s">
+        <v>110</v>
+      </c>
+      <c r="P1425" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="1426" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B1426" t="s">
+        <v>418</v>
+      </c>
+      <c r="C1426" t="s">
+        <v>70</v>
+      </c>
+      <c r="D1426" t="s">
+        <v>161</v>
+      </c>
+      <c r="E1426" t="s">
+        <v>407</v>
+      </c>
+      <c r="F1426">
+        <v>8</v>
+      </c>
+      <c r="H1426" t="s">
+        <v>72</v>
+      </c>
+      <c r="J1426" t="s">
+        <v>74</v>
+      </c>
+      <c r="K1426">
+        <v>1</v>
+      </c>
+      <c r="L1426" t="s">
+        <v>78</v>
+      </c>
+      <c r="M1426" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="1427" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B1427" t="s">
+        <v>420</v>
+      </c>
+      <c r="C1427" t="s">
+        <v>70</v>
+      </c>
+      <c r="D1427" t="s">
+        <v>161</v>
+      </c>
+      <c r="E1427" t="s">
+        <v>407</v>
+      </c>
+      <c r="F1427">
+        <v>8</v>
+      </c>
+      <c r="H1427" t="s">
+        <v>72</v>
+      </c>
+      <c r="J1427" t="s">
+        <v>74</v>
+      </c>
+      <c r="K1427">
+        <v>1</v>
+      </c>
+      <c r="L1427" t="s">
+        <v>75</v>
+      </c>
+      <c r="M1427" t="s">
+        <v>110</v>
+      </c>
+      <c r="P1427" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="1428" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="D1428" t="s">
+        <v>161</v>
+      </c>
+      <c r="E1428" t="s">
+        <v>407</v>
+      </c>
+      <c r="F1428">
+        <v>10</v>
+      </c>
+      <c r="G1428" t="s">
+        <v>95</v>
+      </c>
+      <c r="H1428" t="s">
+        <v>89</v>
+      </c>
+      <c r="I1428">
+        <v>2</v>
+      </c>
+      <c r="J1428" t="s">
+        <v>74</v>
+      </c>
+      <c r="K1428">
+        <v>1</v>
+      </c>
+      <c r="L1428" t="s">
+        <v>99</v>
+      </c>
+      <c r="M1428" t="s">
+        <v>57</v>
+      </c>
+      <c r="N1428" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="1429" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="D1429" t="s">
+        <v>161</v>
+      </c>
+      <c r="E1429" t="s">
+        <v>407</v>
+      </c>
+      <c r="F1429">
+        <v>10</v>
+      </c>
+      <c r="G1429" t="s">
+        <v>95</v>
+      </c>
+      <c r="H1429" t="s">
+        <v>96</v>
+      </c>
+      <c r="I1429">
+        <v>3</v>
+      </c>
+      <c r="J1429" t="s">
+        <v>74</v>
+      </c>
+      <c r="K1429">
+        <v>2</v>
+      </c>
+      <c r="L1429" t="s">
+        <v>99</v>
+      </c>
+      <c r="M1429" t="s">
+        <v>57</v>
+      </c>
+      <c r="N1429" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="1430" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="D1430" t="s">
+        <v>161</v>
+      </c>
+      <c r="E1430" t="s">
+        <v>407</v>
+      </c>
+      <c r="F1430">
+        <v>10</v>
+      </c>
+      <c r="G1430" t="s">
+        <v>95</v>
+      </c>
+      <c r="H1430" t="s">
+        <v>89</v>
+      </c>
+      <c r="I1430">
+        <v>9</v>
+      </c>
+      <c r="J1430" t="s">
+        <v>74</v>
+      </c>
+      <c r="K1430">
+        <v>1</v>
+      </c>
+      <c r="L1430" t="s">
+        <v>99</v>
+      </c>
+      <c r="M1430" t="s">
+        <v>57</v>
+      </c>
+      <c r="N1430" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="1431" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="D1431" t="s">
+        <v>161</v>
+      </c>
+      <c r="E1431" t="s">
+        <v>407</v>
+      </c>
+      <c r="F1431">
+        <v>10</v>
+      </c>
+      <c r="G1431" t="s">
+        <v>95</v>
+      </c>
+      <c r="H1431" t="s">
+        <v>96</v>
+      </c>
+      <c r="I1431">
+        <v>2</v>
+      </c>
+      <c r="J1431" t="s">
+        <v>74</v>
+      </c>
+      <c r="K1431">
+        <v>2</v>
+      </c>
+      <c r="L1431" t="s">
+        <v>99</v>
+      </c>
+      <c r="M1431" t="s">
+        <v>57</v>
+      </c>
+      <c r="N1431" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="1432" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="D1432" t="s">
+        <v>161</v>
+      </c>
+      <c r="E1432" t="s">
+        <v>407</v>
+      </c>
+      <c r="F1432">
+        <v>10</v>
+      </c>
+      <c r="G1432" t="s">
+        <v>95</v>
+      </c>
+      <c r="H1432" t="s">
+        <v>96</v>
+      </c>
+      <c r="I1432">
+        <v>4</v>
+      </c>
+      <c r="J1432" t="s">
+        <v>74</v>
+      </c>
+      <c r="K1432">
+        <v>3</v>
+      </c>
+      <c r="L1432" t="s">
+        <v>99</v>
+      </c>
+      <c r="M1432" t="s">
+        <v>57</v>
+      </c>
+      <c r="N1432" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="1433" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="D1433" t="s">
+        <v>161</v>
+      </c>
+      <c r="E1433" t="s">
+        <v>407</v>
+      </c>
+      <c r="F1433">
+        <v>10</v>
+      </c>
+      <c r="G1433" t="s">
+        <v>95</v>
+      </c>
+      <c r="H1433" t="s">
+        <v>96</v>
+      </c>
+      <c r="I1433">
+        <v>5</v>
+      </c>
+      <c r="J1433" t="s">
+        <v>74</v>
+      </c>
+      <c r="K1433">
+        <v>3</v>
+      </c>
+      <c r="L1433" t="s">
+        <v>99</v>
+      </c>
+      <c r="M1433" t="s">
+        <v>57</v>
+      </c>
+      <c r="N1433" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="1434" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="D1434" t="s">
+        <v>161</v>
+      </c>
+      <c r="E1434" t="s">
+        <v>407</v>
+      </c>
+      <c r="F1434">
+        <v>10</v>
+      </c>
+      <c r="G1434" t="s">
+        <v>95</v>
+      </c>
+      <c r="H1434" t="s">
+        <v>89</v>
+      </c>
+      <c r="I1434">
+        <v>6</v>
+      </c>
+      <c r="J1434" t="s">
+        <v>74</v>
+      </c>
+      <c r="K1434">
+        <v>2</v>
+      </c>
+      <c r="L1434" t="s">
+        <v>99</v>
+      </c>
+      <c r="M1434" t="s">
+        <v>57</v>
+      </c>
+      <c r="N1434" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="1435" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="D1435" t="s">
+        <v>161</v>
+      </c>
+      <c r="E1435" t="s">
+        <v>407</v>
+      </c>
+      <c r="F1435">
+        <v>10</v>
+      </c>
+      <c r="G1435" t="s">
+        <v>95</v>
+      </c>
+      <c r="H1435" t="s">
+        <v>89</v>
+      </c>
+      <c r="I1435">
+        <v>6</v>
+      </c>
+      <c r="J1435" t="s">
+        <v>74</v>
+      </c>
+      <c r="K1435">
+        <v>2</v>
+      </c>
+      <c r="L1435" t="s">
+        <v>99</v>
+      </c>
+      <c r="M1435" t="s">
+        <v>57</v>
+      </c>
+      <c r="N1435" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="1436" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="D1436" t="s">
+        <v>161</v>
+      </c>
+      <c r="E1436" t="s">
+        <v>407</v>
+      </c>
+      <c r="F1436">
+        <v>10</v>
+      </c>
+      <c r="G1436" t="s">
+        <v>95</v>
+      </c>
+      <c r="H1436" t="s">
+        <v>89</v>
+      </c>
+      <c r="I1436">
+        <v>4</v>
+      </c>
+      <c r="J1436" t="s">
+        <v>74</v>
+      </c>
+      <c r="K1436">
+        <v>1</v>
+      </c>
+      <c r="L1436" t="s">
+        <v>99</v>
+      </c>
+      <c r="M1436" t="s">
+        <v>57</v>
+      </c>
+      <c r="N1436" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="1437" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="D1437" t="s">
+        <v>161</v>
+      </c>
+      <c r="E1437" t="s">
+        <v>407</v>
+      </c>
+      <c r="F1437">
+        <v>10</v>
+      </c>
+      <c r="G1437" t="s">
+        <v>95</v>
+      </c>
+      <c r="H1437" t="s">
+        <v>89</v>
+      </c>
+      <c r="I1437">
+        <v>4</v>
+      </c>
+      <c r="J1437" t="s">
+        <v>74</v>
+      </c>
+      <c r="K1437">
+        <v>2</v>
+      </c>
+      <c r="L1437" t="s">
+        <v>99</v>
+      </c>
+      <c r="M1437" t="s">
+        <v>57</v>
+      </c>
+      <c r="N1437" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="1438" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="D1438" t="s">
+        <v>161</v>
+      </c>
+      <c r="E1438" t="s">
+        <v>407</v>
+      </c>
+      <c r="F1438">
+        <v>10</v>
+      </c>
+      <c r="G1438" t="s">
+        <v>95</v>
+      </c>
+      <c r="H1438" t="s">
+        <v>89</v>
+      </c>
+      <c r="I1438">
+        <v>1</v>
+      </c>
+      <c r="J1438" t="s">
+        <v>382</v>
+      </c>
+      <c r="K1438">
+        <v>1</v>
+      </c>
+      <c r="L1438" t="s">
+        <v>99</v>
+      </c>
+      <c r="M1438" t="s">
+        <v>57</v>
+      </c>
+      <c r="N1438" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="1439" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="D1439" t="s">
+        <v>161</v>
+      </c>
+      <c r="E1439" t="s">
+        <v>407</v>
+      </c>
+      <c r="F1439">
+        <v>10</v>
+      </c>
+      <c r="G1439" t="s">
+        <v>95</v>
+      </c>
+      <c r="H1439" t="s">
+        <v>89</v>
+      </c>
+      <c r="I1439">
+        <v>1</v>
+      </c>
+      <c r="J1439" t="s">
+        <v>382</v>
+      </c>
+      <c r="K1439">
+        <v>1</v>
+      </c>
+      <c r="L1439" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="1440" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="D1440" t="s">
+        <v>161</v>
+      </c>
+      <c r="E1440" t="s">
+        <v>407</v>
+      </c>
+      <c r="F1440">
+        <v>10</v>
+      </c>
+      <c r="G1440" t="s">
+        <v>95</v>
+      </c>
+      <c r="H1440" t="s">
+        <v>96</v>
+      </c>
+      <c r="I1440">
+        <v>6</v>
+      </c>
+      <c r="J1440" t="s">
+        <v>74</v>
+      </c>
+      <c r="K1440">
+        <v>4</v>
+      </c>
+      <c r="L1440" t="s">
+        <v>99</v>
+      </c>
+      <c r="M1440" t="s">
+        <v>57</v>
+      </c>
+      <c r="N1440" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="1441" spans="4:17" x14ac:dyDescent="0.35">
+      <c r="D1441" t="s">
+        <v>161</v>
+      </c>
+      <c r="E1441" t="s">
+        <v>407</v>
+      </c>
+      <c r="F1441">
+        <v>10</v>
+      </c>
+      <c r="G1441" t="s">
+        <v>95</v>
+      </c>
+      <c r="H1441" t="s">
+        <v>89</v>
+      </c>
+      <c r="I1441">
+        <v>7</v>
+      </c>
+      <c r="J1441" t="s">
+        <v>143</v>
+      </c>
+      <c r="K1441">
+        <v>2</v>
+      </c>
+      <c r="L1441" t="s">
+        <v>75</v>
+      </c>
+      <c r="M1441" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="1442" spans="4:17" x14ac:dyDescent="0.35">
+      <c r="D1442" t="s">
+        <v>161</v>
+      </c>
+      <c r="E1442" t="s">
+        <v>407</v>
+      </c>
+      <c r="F1442">
+        <v>10</v>
+      </c>
+      <c r="G1442" t="s">
+        <v>95</v>
+      </c>
+      <c r="H1442" t="s">
+        <v>89</v>
+      </c>
+      <c r="I1442">
+        <v>7</v>
+      </c>
+      <c r="J1442" t="s">
+        <v>143</v>
+      </c>
+      <c r="K1442">
+        <v>1</v>
+      </c>
+      <c r="L1442" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="1443" spans="4:17" x14ac:dyDescent="0.35">
+      <c r="D1443" t="s">
+        <v>161</v>
+      </c>
+      <c r="E1443" t="s">
+        <v>407</v>
+      </c>
+      <c r="F1443">
+        <v>10</v>
+      </c>
+      <c r="G1443" t="s">
+        <v>95</v>
+      </c>
+      <c r="H1443" t="s">
+        <v>96</v>
+      </c>
+      <c r="I1443">
+        <v>7</v>
+      </c>
+      <c r="J1443" t="s">
+        <v>74</v>
+      </c>
+      <c r="K1443">
+        <v>8</v>
+      </c>
+      <c r="L1443" t="s">
+        <v>99</v>
+      </c>
+      <c r="M1443" t="s">
+        <v>57</v>
+      </c>
+      <c r="N1443" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="1444" spans="4:17" x14ac:dyDescent="0.35">
+      <c r="D1444" t="s">
+        <v>161</v>
+      </c>
+      <c r="E1444" t="s">
+        <v>407</v>
+      </c>
+      <c r="F1444">
+        <v>10</v>
+      </c>
+      <c r="G1444" t="s">
+        <v>95</v>
+      </c>
+      <c r="H1444" t="s">
+        <v>96</v>
+      </c>
+      <c r="I1444">
+        <v>7</v>
+      </c>
+      <c r="J1444" t="s">
+        <v>382</v>
+      </c>
+      <c r="K1444">
+        <v>1</v>
+      </c>
+      <c r="L1444" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="1445" spans="4:17" x14ac:dyDescent="0.35">
+      <c r="D1445" t="s">
+        <v>161</v>
+      </c>
+      <c r="E1445" t="s">
+        <v>407</v>
+      </c>
+      <c r="F1445">
+        <v>10</v>
+      </c>
+      <c r="G1445" t="s">
+        <v>95</v>
+      </c>
+      <c r="H1445" t="s">
+        <v>96</v>
+      </c>
+      <c r="I1445">
+        <v>7</v>
+      </c>
+      <c r="J1445" t="s">
+        <v>382</v>
+      </c>
+      <c r="K1445">
+        <v>1</v>
+      </c>
+      <c r="L1445" t="s">
+        <v>134</v>
+      </c>
+      <c r="M1445" t="s">
+        <v>421</v>
+      </c>
+      <c r="Q1445" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="1446" spans="4:17" x14ac:dyDescent="0.35">
+      <c r="D1446" t="s">
+        <v>161</v>
+      </c>
+      <c r="E1446" t="s">
+        <v>407</v>
+      </c>
+      <c r="F1446">
+        <v>10</v>
+      </c>
+      <c r="G1446" t="s">
+        <v>95</v>
+      </c>
+      <c r="H1446" t="s">
+        <v>96</v>
+      </c>
+      <c r="I1446">
+        <v>7</v>
+      </c>
+      <c r="J1446" t="s">
+        <v>382</v>
+      </c>
+      <c r="K1446">
+        <v>1</v>
+      </c>
+      <c r="L1446" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="1447" spans="4:17" x14ac:dyDescent="0.35">
+      <c r="D1447" t="s">
+        <v>161</v>
+      </c>
+      <c r="E1447" t="s">
+        <v>407</v>
+      </c>
+      <c r="F1447">
+        <v>10</v>
+      </c>
+      <c r="G1447" t="s">
+        <v>95</v>
+      </c>
+      <c r="H1447" t="s">
+        <v>96</v>
+      </c>
+      <c r="I1447">
+        <v>7</v>
+      </c>
+      <c r="J1447" t="s">
+        <v>74</v>
+      </c>
+      <c r="K1447">
+        <v>1</v>
+      </c>
+      <c r="L1447" t="s">
+        <v>99</v>
+      </c>
+      <c r="M1447" t="s">
+        <v>57</v>
+      </c>
+      <c r="N1447" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="1448" spans="4:17" x14ac:dyDescent="0.35">
+      <c r="D1448" t="s">
+        <v>161</v>
+      </c>
+      <c r="E1448" t="s">
+        <v>407</v>
+      </c>
+      <c r="F1448">
+        <v>10</v>
+      </c>
+      <c r="G1448" t="s">
+        <v>95</v>
+      </c>
+      <c r="H1448" t="s">
+        <v>96</v>
+      </c>
+      <c r="I1448">
+        <v>8</v>
+      </c>
+      <c r="J1448" t="s">
+        <v>74</v>
+      </c>
+      <c r="K1448">
+        <v>1</v>
+      </c>
+      <c r="L1448" t="s">
+        <v>99</v>
+      </c>
+      <c r="M1448" t="s">
+        <v>57</v>
+      </c>
+      <c r="N1448" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="1449" spans="4:17" x14ac:dyDescent="0.35">
+      <c r="D1449" t="s">
+        <v>161</v>
+      </c>
+      <c r="E1449" t="s">
+        <v>407</v>
+      </c>
+      <c r="F1449">
+        <v>10</v>
+      </c>
+      <c r="G1449" t="s">
+        <v>95</v>
+      </c>
+      <c r="H1449" t="s">
+        <v>89</v>
+      </c>
+      <c r="I1449">
+        <v>5</v>
+      </c>
+      <c r="J1449" t="s">
+        <v>382</v>
+      </c>
+      <c r="K1449">
+        <v>1</v>
+      </c>
+      <c r="L1449" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="1450" spans="4:17" x14ac:dyDescent="0.35">
+      <c r="D1450" t="s">
+        <v>161</v>
+      </c>
+      <c r="E1450" t="s">
+        <v>407</v>
+      </c>
+      <c r="F1450">
+        <v>10</v>
+      </c>
+      <c r="G1450" t="s">
+        <v>95</v>
+      </c>
+      <c r="H1450" t="s">
+        <v>89</v>
+      </c>
+      <c r="I1450">
+        <v>3</v>
+      </c>
+      <c r="J1450" t="s">
+        <v>382</v>
+      </c>
+      <c r="K1450">
+        <v>1</v>
+      </c>
+      <c r="L1450" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="1451" spans="4:17" x14ac:dyDescent="0.35">
+      <c r="D1451" t="s">
+        <v>161</v>
+      </c>
+      <c r="E1451" t="s">
+        <v>407</v>
+      </c>
+      <c r="F1451">
+        <v>10</v>
+      </c>
+      <c r="G1451" t="s">
+        <v>95</v>
+      </c>
+      <c r="H1451" t="s">
+        <v>89</v>
+      </c>
+      <c r="I1451">
+        <v>3</v>
+      </c>
+      <c r="J1451" t="s">
+        <v>382</v>
+      </c>
+      <c r="K1451">
+        <v>2</v>
+      </c>
+      <c r="L1451" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="1452" spans="4:17" x14ac:dyDescent="0.35">
+      <c r="D1452" t="s">
+        <v>161</v>
+      </c>
+      <c r="E1452" t="s">
+        <v>407</v>
+      </c>
+      <c r="F1452">
+        <v>10</v>
+      </c>
+      <c r="G1452" t="s">
+        <v>95</v>
+      </c>
+      <c r="H1452" t="s">
+        <v>89</v>
+      </c>
+      <c r="I1452">
+        <v>3</v>
+      </c>
+      <c r="J1452" t="s">
+        <v>382</v>
+      </c>
+      <c r="K1452">
+        <v>1</v>
+      </c>
+      <c r="L1452" t="s">
+        <v>75</v>
+      </c>
+      <c r="M1452" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="1453" spans="4:17" x14ac:dyDescent="0.35">
+      <c r="D1453" t="s">
+        <v>161</v>
+      </c>
+      <c r="E1453" t="s">
+        <v>407</v>
+      </c>
+      <c r="F1453">
+        <v>10</v>
+      </c>
+      <c r="G1453" t="s">
+        <v>95</v>
+      </c>
+      <c r="H1453" t="s">
+        <v>89</v>
+      </c>
+      <c r="I1453">
+        <v>3</v>
+      </c>
+      <c r="J1453" t="s">
+        <v>382</v>
+      </c>
+      <c r="K1453">
+        <v>1</v>
+      </c>
+      <c r="L1453" t="s">
+        <v>148</v>
+      </c>
+      <c r="M1453" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="1454" spans="4:17" x14ac:dyDescent="0.35">
+      <c r="D1454" t="s">
+        <v>161</v>
+      </c>
+      <c r="E1454" t="s">
+        <v>407</v>
+      </c>
+      <c r="F1454">
+        <v>10</v>
+      </c>
+      <c r="G1454" t="s">
+        <v>95</v>
+      </c>
+      <c r="H1454" t="s">
+        <v>89</v>
+      </c>
+      <c r="I1454">
+        <v>8</v>
+      </c>
+      <c r="J1454" t="s">
+        <v>143</v>
+      </c>
+      <c r="K1454">
+        <v>8</v>
+      </c>
+      <c r="L1454" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="1455" spans="4:17" x14ac:dyDescent="0.35">
+      <c r="D1455" t="s">
+        <v>161</v>
+      </c>
+      <c r="E1455" t="s">
+        <v>407</v>
+      </c>
+      <c r="F1455">
+        <v>10</v>
+      </c>
+      <c r="G1455" t="s">
+        <v>95</v>
+      </c>
+      <c r="H1455" t="s">
+        <v>89</v>
+      </c>
+      <c r="I1455">
+        <v>8</v>
+      </c>
+      <c r="J1455" t="s">
+        <v>143</v>
+      </c>
+      <c r="K1455">
+        <v>1</v>
+      </c>
+      <c r="L1455" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="1456" spans="4:17" x14ac:dyDescent="0.35">
+      <c r="D1456" t="s">
+        <v>161</v>
+      </c>
+      <c r="E1456" t="s">
+        <v>407</v>
+      </c>
+      <c r="F1456">
+        <v>10</v>
+      </c>
+      <c r="G1456" t="s">
+        <v>95</v>
+      </c>
+      <c r="H1456" t="s">
+        <v>89</v>
+      </c>
+      <c r="I1456">
+        <v>8</v>
+      </c>
+      <c r="J1456" t="s">
+        <v>143</v>
+      </c>
+      <c r="K1456">
+        <v>1</v>
+      </c>
+      <c r="L1456" t="s">
+        <v>75</v>
+      </c>
+      <c r="M1456" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="1457" spans="4:18" x14ac:dyDescent="0.35">
+      <c r="D1457" t="s">
+        <v>161</v>
+      </c>
+      <c r="E1457" t="s">
+        <v>407</v>
+      </c>
+      <c r="F1457">
+        <v>10</v>
+      </c>
+      <c r="G1457" t="s">
+        <v>95</v>
+      </c>
+      <c r="H1457" t="s">
+        <v>96</v>
+      </c>
+      <c r="I1457">
+        <v>1</v>
+      </c>
+      <c r="J1457" t="s">
+        <v>74</v>
+      </c>
+      <c r="K1457">
+        <v>5</v>
+      </c>
+      <c r="L1457" t="s">
+        <v>99</v>
+      </c>
+      <c r="M1457" t="s">
+        <v>57</v>
+      </c>
+      <c r="N1457" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="1458" spans="4:18" x14ac:dyDescent="0.35">
+      <c r="D1458" t="s">
+        <v>161</v>
+      </c>
+      <c r="E1458" t="s">
+        <v>407</v>
+      </c>
+      <c r="F1458">
+        <v>10</v>
+      </c>
+      <c r="H1458" t="s">
+        <v>72</v>
+      </c>
+      <c r="J1458" t="s">
+        <v>143</v>
+      </c>
+      <c r="K1458">
+        <v>2</v>
+      </c>
+      <c r="L1458" t="s">
+        <v>239</v>
+      </c>
+      <c r="M1458" t="s">
+        <v>137</v>
+      </c>
+      <c r="P1458" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="1459" spans="4:18" x14ac:dyDescent="0.35">
+      <c r="D1459" t="s">
+        <v>161</v>
+      </c>
+      <c r="E1459" t="s">
+        <v>407</v>
+      </c>
+      <c r="F1459">
+        <v>10</v>
+      </c>
+      <c r="H1459" t="s">
+        <v>72</v>
+      </c>
+      <c r="J1459" t="s">
+        <v>143</v>
+      </c>
+      <c r="K1459">
+        <v>1</v>
+      </c>
+      <c r="L1459" t="s">
+        <v>134</v>
+      </c>
+      <c r="M1459" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="1460" spans="4:18" x14ac:dyDescent="0.35">
+      <c r="D1460" t="s">
+        <v>161</v>
+      </c>
+      <c r="E1460" t="s">
+        <v>407</v>
+      </c>
+      <c r="F1460">
+        <v>10</v>
+      </c>
+      <c r="H1460" t="s">
+        <v>72</v>
+      </c>
+      <c r="J1460" t="s">
+        <v>143</v>
+      </c>
+      <c r="K1460">
+        <v>4</v>
+      </c>
+      <c r="L1460" t="s">
+        <v>134</v>
+      </c>
+      <c r="M1460" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="1461" spans="4:18" x14ac:dyDescent="0.35">
+      <c r="D1461" t="s">
+        <v>161</v>
+      </c>
+      <c r="E1461" t="s">
+        <v>407</v>
+      </c>
+      <c r="F1461">
+        <v>10</v>
+      </c>
+      <c r="H1461" t="s">
+        <v>72</v>
+      </c>
+      <c r="J1461" t="s">
+        <v>143</v>
+      </c>
+      <c r="K1461">
+        <v>1</v>
+      </c>
+      <c r="L1461" t="s">
+        <v>75</v>
+      </c>
+      <c r="M1461" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="1462" spans="4:18" x14ac:dyDescent="0.35">
+      <c r="D1462" t="s">
+        <v>161</v>
+      </c>
+      <c r="E1462" t="s">
+        <v>407</v>
+      </c>
+      <c r="F1462">
+        <v>10</v>
+      </c>
+      <c r="H1462" t="s">
+        <v>72</v>
+      </c>
+      <c r="J1462" t="s">
+        <v>143</v>
+      </c>
+      <c r="K1462">
+        <v>1</v>
+      </c>
+      <c r="L1462" t="s">
+        <v>75</v>
+      </c>
+      <c r="M1462" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="1463" spans="4:18" x14ac:dyDescent="0.35">
+      <c r="D1463" t="s">
+        <v>161</v>
+      </c>
+      <c r="E1463" t="s">
+        <v>407</v>
+      </c>
+      <c r="F1463">
+        <v>10</v>
+      </c>
+      <c r="H1463" t="s">
+        <v>72</v>
+      </c>
+      <c r="J1463" t="s">
+        <v>143</v>
+      </c>
+      <c r="K1463">
+        <v>1</v>
+      </c>
+      <c r="L1463" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="1464" spans="4:18" x14ac:dyDescent="0.35">
+      <c r="D1464" t="s">
+        <v>140</v>
+      </c>
+      <c r="E1464" t="s">
+        <v>407</v>
+      </c>
+      <c r="F1464">
+        <v>6</v>
+      </c>
+      <c r="G1464" t="s">
+        <v>95</v>
+      </c>
+      <c r="H1464" t="s">
+        <v>89</v>
+      </c>
+      <c r="I1464">
+        <v>4</v>
+      </c>
+      <c r="J1464" t="s">
+        <v>74</v>
+      </c>
+      <c r="K1464">
+        <v>1</v>
+      </c>
+      <c r="L1464" t="s">
+        <v>99</v>
+      </c>
+      <c r="M1464" t="s">
+        <v>57</v>
+      </c>
+      <c r="N1464" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="1465" spans="4:18" x14ac:dyDescent="0.35">
+      <c r="D1465" t="s">
+        <v>140</v>
+      </c>
+      <c r="E1465" t="s">
+        <v>407</v>
+      </c>
+      <c r="F1465">
+        <v>6</v>
+      </c>
+      <c r="G1465" t="s">
+        <v>95</v>
+      </c>
+      <c r="H1465" t="s">
+        <v>96</v>
+      </c>
+      <c r="I1465">
+        <v>3</v>
+      </c>
+      <c r="J1465" t="s">
+        <v>74</v>
+      </c>
+      <c r="K1465">
+        <v>1</v>
+      </c>
+      <c r="L1465" t="s">
+        <v>99</v>
+      </c>
+      <c r="M1465" t="s">
+        <v>57</v>
+      </c>
+      <c r="N1465" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="1466" spans="4:18" x14ac:dyDescent="0.35">
+      <c r="D1466" t="s">
+        <v>140</v>
+      </c>
+      <c r="E1466" t="s">
+        <v>407</v>
+      </c>
+      <c r="F1466">
+        <v>6</v>
+      </c>
+      <c r="G1466" t="s">
+        <v>88</v>
+      </c>
+      <c r="H1466" t="s">
+        <v>89</v>
+      </c>
+      <c r="I1466">
+        <v>10</v>
+      </c>
+      <c r="J1466" t="s">
+        <v>382</v>
+      </c>
+      <c r="K1466">
+        <v>4</v>
+      </c>
+      <c r="L1466" t="s">
+        <v>134</v>
+      </c>
+      <c r="M1466" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="1467" spans="4:18" x14ac:dyDescent="0.35">
+      <c r="D1467" t="s">
+        <v>140</v>
+      </c>
+      <c r="E1467" t="s">
+        <v>407</v>
+      </c>
+      <c r="F1467">
+        <v>6</v>
+      </c>
+      <c r="G1467" t="s">
+        <v>88</v>
+      </c>
+      <c r="H1467" t="s">
+        <v>89</v>
+      </c>
+      <c r="I1467">
+        <v>10</v>
+      </c>
+      <c r="J1467" t="s">
+        <v>382</v>
+      </c>
+      <c r="K1467">
+        <v>1</v>
+      </c>
+      <c r="L1467" t="s">
+        <v>148</v>
+      </c>
+      <c r="M1467" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="1468" spans="4:18" x14ac:dyDescent="0.35">
+      <c r="D1468" t="s">
+        <v>140</v>
+      </c>
+      <c r="E1468" t="s">
+        <v>407</v>
+      </c>
+      <c r="F1468">
+        <v>6</v>
+      </c>
+      <c r="G1468" t="s">
+        <v>88</v>
+      </c>
+      <c r="H1468" t="s">
+        <v>89</v>
+      </c>
+      <c r="I1468">
+        <v>10</v>
+      </c>
+      <c r="J1468" t="s">
+        <v>74</v>
+      </c>
+      <c r="K1468">
+        <v>2</v>
+      </c>
+      <c r="L1468" t="s">
+        <v>99</v>
+      </c>
+      <c r="M1468" t="s">
+        <v>57</v>
+      </c>
+      <c r="N1468" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="1469" spans="4:18" x14ac:dyDescent="0.35">
+      <c r="D1469" t="s">
+        <v>140</v>
+      </c>
+      <c r="E1469" t="s">
+        <v>407</v>
+      </c>
+      <c r="F1469">
+        <v>6</v>
+      </c>
+      <c r="G1469" t="s">
+        <v>88</v>
+      </c>
+      <c r="H1469" t="s">
+        <v>89</v>
+      </c>
+      <c r="I1469">
+        <v>1</v>
+      </c>
+      <c r="J1469" t="s">
+        <v>382</v>
+      </c>
+      <c r="K1469">
+        <v>1</v>
+      </c>
+      <c r="L1469" t="s">
+        <v>148</v>
+      </c>
+      <c r="M1469" t="s">
+        <v>150</v>
+      </c>
+      <c r="R1469" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="1470" spans="4:18" x14ac:dyDescent="0.35">
+      <c r="D1470" t="s">
+        <v>140</v>
+      </c>
+      <c r="E1470" t="s">
+        <v>407</v>
+      </c>
+      <c r="F1470">
+        <v>6</v>
+      </c>
+      <c r="G1470" t="s">
+        <v>88</v>
+      </c>
+      <c r="H1470" t="s">
+        <v>89</v>
+      </c>
+      <c r="I1470">
+        <v>3</v>
+      </c>
+      <c r="J1470" t="s">
+        <v>143</v>
+      </c>
+      <c r="K1470">
+        <v>2</v>
+      </c>
+      <c r="L1470" t="s">
+        <v>134</v>
+      </c>
+      <c r="M1470" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="1471" spans="4:18" x14ac:dyDescent="0.35">
+      <c r="D1471" t="s">
+        <v>140</v>
+      </c>
+      <c r="E1471" t="s">
+        <v>407</v>
+      </c>
+      <c r="F1471">
+        <v>6</v>
+      </c>
+      <c r="G1471" t="s">
+        <v>88</v>
+      </c>
+      <c r="H1471" t="s">
+        <v>89</v>
+      </c>
+      <c r="I1471">
+        <v>8</v>
+      </c>
+      <c r="J1471" t="s">
+        <v>382</v>
+      </c>
+      <c r="K1471">
+        <v>1</v>
+      </c>
+      <c r="L1471" t="s">
+        <v>148</v>
+      </c>
+      <c r="M1471" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="1472" spans="4:18" x14ac:dyDescent="0.35">
+      <c r="D1472" t="s">
+        <v>140</v>
+      </c>
+      <c r="E1472" t="s">
+        <v>407</v>
+      </c>
+      <c r="F1472">
+        <v>6</v>
+      </c>
+      <c r="G1472" t="s">
+        <v>88</v>
+      </c>
+      <c r="H1472" t="s">
+        <v>89</v>
+      </c>
+      <c r="I1472">
+        <v>6</v>
+      </c>
+      <c r="J1472" t="s">
+        <v>382</v>
+      </c>
+      <c r="K1472">
+        <v>1</v>
+      </c>
+      <c r="L1472" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="1473" spans="4:18" x14ac:dyDescent="0.35">
+      <c r="D1473" t="s">
+        <v>140</v>
+      </c>
+      <c r="E1473" t="s">
+        <v>407</v>
+      </c>
+      <c r="F1473">
+        <v>6</v>
+      </c>
+      <c r="H1473" t="s">
+        <v>72</v>
+      </c>
+      <c r="J1473" t="s">
+        <v>143</v>
+      </c>
+      <c r="K1473">
+        <v>1</v>
+      </c>
+      <c r="L1473" t="s">
+        <v>75</v>
+      </c>
+      <c r="M1473" t="s">
+        <v>385</v>
+      </c>
+      <c r="P1473" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="1474" spans="4:18" x14ac:dyDescent="0.35">
+      <c r="D1474" t="s">
+        <v>140</v>
+      </c>
+      <c r="E1474" t="s">
+        <v>407</v>
+      </c>
+      <c r="F1474">
+        <v>6</v>
+      </c>
+      <c r="H1474" t="s">
+        <v>72</v>
+      </c>
+      <c r="J1474" t="s">
+        <v>143</v>
+      </c>
+      <c r="K1474">
+        <v>2</v>
+      </c>
+      <c r="L1474" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="1475" spans="4:18" x14ac:dyDescent="0.35">
+      <c r="D1475" t="s">
+        <v>140</v>
+      </c>
+      <c r="E1475" t="s">
+        <v>407</v>
+      </c>
+      <c r="F1475">
+        <v>6</v>
+      </c>
+      <c r="H1475" t="s">
+        <v>72</v>
+      </c>
+      <c r="J1475" t="s">
+        <v>143</v>
+      </c>
+      <c r="K1475">
+        <v>1</v>
+      </c>
+      <c r="L1475" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="1476" spans="4:18" x14ac:dyDescent="0.35">
+      <c r="D1476" t="s">
+        <v>140</v>
+      </c>
+      <c r="E1476" t="s">
+        <v>407</v>
+      </c>
+      <c r="F1476">
+        <v>6</v>
+      </c>
+      <c r="H1476" t="s">
+        <v>72</v>
+      </c>
+      <c r="J1476" t="s">
+        <v>143</v>
+      </c>
+      <c r="K1476">
+        <v>1</v>
+      </c>
+      <c r="L1476" t="s">
+        <v>134</v>
+      </c>
+      <c r="M1476" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="1477" spans="4:18" x14ac:dyDescent="0.35">
+      <c r="D1477" t="s">
+        <v>140</v>
+      </c>
+      <c r="E1477" t="s">
+        <v>407</v>
+      </c>
+      <c r="F1477">
+        <v>6</v>
+      </c>
+      <c r="H1477" t="s">
+        <v>72</v>
+      </c>
+      <c r="J1477" t="s">
+        <v>143</v>
+      </c>
+      <c r="K1477">
+        <v>1</v>
+      </c>
+      <c r="L1477" t="s">
+        <v>75</v>
+      </c>
+      <c r="M1477" t="s">
+        <v>425</v>
+      </c>
+      <c r="R1477" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="1478" spans="4:18" x14ac:dyDescent="0.35">
+      <c r="D1478" t="s">
+        <v>140</v>
+      </c>
+      <c r="E1478" t="s">
+        <v>407</v>
+      </c>
+      <c r="F1478">
+        <v>6</v>
+      </c>
+      <c r="H1478" t="s">
+        <v>72</v>
+      </c>
+      <c r="J1478" t="s">
+        <v>74</v>
+      </c>
+      <c r="K1478">
+        <v>3</v>
+      </c>
+      <c r="L1478" t="s">
+        <v>99</v>
+      </c>
+      <c r="M1478" t="s">
+        <v>57</v>
+      </c>
+      <c r="N1478" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="1479" spans="4:18" x14ac:dyDescent="0.35">
+      <c r="D1479" t="s">
+        <v>140</v>
+      </c>
+      <c r="E1479" t="s">
+        <v>407</v>
+      </c>
+      <c r="F1479">
+        <v>6</v>
+      </c>
+      <c r="H1479" t="s">
+        <v>72</v>
+      </c>
+      <c r="J1479" t="s">
+        <v>74</v>
+      </c>
+      <c r="K1479">
+        <v>3</v>
+      </c>
+      <c r="L1479" t="s">
+        <v>99</v>
+      </c>
+      <c r="M1479" t="s">
+        <v>57</v>
+      </c>
+      <c r="N1479" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="1480" spans="4:18" x14ac:dyDescent="0.35">
+      <c r="D1480" t="s">
+        <v>140</v>
+      </c>
+      <c r="E1480" t="s">
+        <v>407</v>
+      </c>
+      <c r="F1480">
+        <v>6</v>
+      </c>
+      <c r="H1480" t="s">
+        <v>72</v>
+      </c>
+      <c r="J1480" t="s">
+        <v>74</v>
+      </c>
+      <c r="K1480">
+        <v>1</v>
+      </c>
+      <c r="L1480" t="s">
+        <v>99</v>
+      </c>
+      <c r="M1480" t="s">
+        <v>57</v>
+      </c>
+      <c r="N1480" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="1481" spans="4:18" x14ac:dyDescent="0.35">
+      <c r="D1481" t="s">
+        <v>220</v>
+      </c>
+      <c r="E1481" t="s">
+        <v>407</v>
+      </c>
+      <c r="F1481">
+        <v>4</v>
+      </c>
+      <c r="G1481" t="s">
+        <v>95</v>
+      </c>
+      <c r="H1481" t="s">
+        <v>89</v>
+      </c>
+      <c r="I1481">
+        <v>7</v>
+      </c>
+      <c r="J1481" t="s">
+        <v>143</v>
+      </c>
+      <c r="K1481">
+        <v>1</v>
+      </c>
+      <c r="L1481" t="s">
+        <v>148</v>
+      </c>
+      <c r="M1481" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="1482" spans="4:18" x14ac:dyDescent="0.35">
+      <c r="D1482" t="s">
+        <v>220</v>
+      </c>
+      <c r="E1482" t="s">
+        <v>407</v>
+      </c>
+      <c r="F1482">
+        <v>4</v>
+      </c>
+      <c r="G1482" t="s">
+        <v>88</v>
+      </c>
+      <c r="H1482" t="s">
+        <v>89</v>
+      </c>
+      <c r="I1482">
+        <v>5</v>
+      </c>
+      <c r="J1482" t="s">
+        <v>382</v>
+      </c>
+      <c r="K1482">
+        <v>1</v>
+      </c>
+      <c r="L1482" t="s">
+        <v>148</v>
+      </c>
+      <c r="M1482" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="1483" spans="4:18" x14ac:dyDescent="0.35">
+      <c r="D1483" t="s">
+        <v>220</v>
+      </c>
+      <c r="E1483" t="s">
+        <v>407</v>
+      </c>
+      <c r="F1483">
+        <v>4</v>
+      </c>
+      <c r="G1483" t="s">
+        <v>88</v>
+      </c>
+      <c r="H1483" t="s">
+        <v>89</v>
+      </c>
+      <c r="I1483">
+        <v>5</v>
+      </c>
+      <c r="J1483" t="s">
+        <v>382</v>
+      </c>
+      <c r="K1483">
+        <v>1</v>
+      </c>
+      <c r="L1483" t="s">
+        <v>134</v>
+      </c>
+      <c r="M1483" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="1484" spans="4:18" x14ac:dyDescent="0.35">
+      <c r="D1484" t="s">
+        <v>220</v>
+      </c>
+      <c r="E1484" t="s">
+        <v>407</v>
+      </c>
+      <c r="F1484">
+        <v>4</v>
+      </c>
+      <c r="G1484" t="s">
+        <v>88</v>
+      </c>
+      <c r="H1484" t="s">
+        <v>89</v>
+      </c>
+      <c r="I1484">
+        <v>8</v>
+      </c>
+      <c r="J1484" t="s">
+        <v>382</v>
+      </c>
+      <c r="K1484">
+        <v>1</v>
+      </c>
+      <c r="L1484" t="s">
+        <v>134</v>
+      </c>
+      <c r="M1484" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="1485" spans="4:18" x14ac:dyDescent="0.35">
+      <c r="D1485" t="s">
+        <v>220</v>
+      </c>
+      <c r="E1485" t="s">
+        <v>407</v>
+      </c>
+      <c r="F1485">
+        <v>4</v>
+      </c>
+      <c r="G1485" t="s">
+        <v>88</v>
+      </c>
+      <c r="H1485" t="s">
+        <v>89</v>
+      </c>
+      <c r="I1485">
+        <v>8</v>
+      </c>
+      <c r="J1485" t="s">
+        <v>382</v>
+      </c>
+      <c r="K1485">
+        <v>1</v>
+      </c>
+      <c r="L1485" t="s">
+        <v>251</v>
+      </c>
+      <c r="M1485" t="s">
+        <v>252</v>
+      </c>
+      <c r="P1485" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="1486" spans="4:18" x14ac:dyDescent="0.35">
+      <c r="D1486" t="s">
+        <v>220</v>
+      </c>
+      <c r="E1486" t="s">
+        <v>407</v>
+      </c>
+      <c r="F1486">
+        <v>4</v>
+      </c>
+      <c r="G1486" t="s">
+        <v>88</v>
+      </c>
+      <c r="H1486" t="s">
+        <v>89</v>
+      </c>
+      <c r="I1486">
+        <v>8</v>
+      </c>
+      <c r="J1486" t="s">
+        <v>382</v>
+      </c>
+      <c r="K1486">
+        <v>1</v>
+      </c>
+      <c r="L1486" t="s">
+        <v>134</v>
+      </c>
+      <c r="R1486" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="1487" spans="4:18" x14ac:dyDescent="0.35">
+      <c r="D1487" t="s">
+        <v>220</v>
+      </c>
+      <c r="E1487" t="s">
+        <v>407</v>
+      </c>
+      <c r="F1487">
+        <v>4</v>
+      </c>
+      <c r="G1487" t="s">
+        <v>88</v>
+      </c>
+      <c r="H1487" t="s">
+        <v>89</v>
+      </c>
+      <c r="I1487">
+        <v>8</v>
+      </c>
+      <c r="J1487" t="s">
+        <v>382</v>
+      </c>
+      <c r="K1487">
+        <v>2</v>
+      </c>
+      <c r="L1487" t="s">
+        <v>148</v>
+      </c>
+      <c r="R1487" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="1488" spans="4:18" x14ac:dyDescent="0.35">
+      <c r="D1488" t="s">
+        <v>220</v>
+      </c>
+      <c r="E1488" t="s">
+        <v>407</v>
+      </c>
+      <c r="F1488">
+        <v>4</v>
+      </c>
+      <c r="G1488" t="s">
+        <v>88</v>
+      </c>
+      <c r="H1488" t="s">
+        <v>89</v>
+      </c>
+      <c r="I1488">
+        <v>2</v>
+      </c>
+      <c r="J1488" t="s">
+        <v>382</v>
+      </c>
+      <c r="K1488">
+        <v>3</v>
+      </c>
+      <c r="L1488" t="s">
+        <v>251</v>
+      </c>
+      <c r="M1488" t="s">
+        <v>252</v>
+      </c>
+      <c r="P1488" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="1489" spans="4:18" x14ac:dyDescent="0.35">
+      <c r="D1489" t="s">
+        <v>220</v>
+      </c>
+      <c r="E1489" t="s">
+        <v>407</v>
+      </c>
+      <c r="F1489">
+        <v>4</v>
+      </c>
+      <c r="G1489" t="s">
+        <v>88</v>
+      </c>
+      <c r="H1489" t="s">
+        <v>89</v>
+      </c>
+      <c r="I1489">
+        <v>2</v>
+      </c>
+      <c r="J1489" t="s">
+        <v>382</v>
+      </c>
+      <c r="K1489">
+        <v>1</v>
+      </c>
+      <c r="L1489" t="s">
+        <v>148</v>
+      </c>
+      <c r="M1489" t="s">
+        <v>150</v>
+      </c>
+      <c r="R1489" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="1490" spans="4:18" x14ac:dyDescent="0.35">
+      <c r="D1490" t="s">
+        <v>220</v>
+      </c>
+      <c r="E1490" t="s">
+        <v>407</v>
+      </c>
+      <c r="F1490">
+        <v>4</v>
+      </c>
+      <c r="G1490" t="s">
+        <v>88</v>
+      </c>
+      <c r="H1490" t="s">
+        <v>89</v>
+      </c>
+      <c r="I1490">
+        <v>2</v>
+      </c>
+      <c r="J1490" t="s">
+        <v>382</v>
+      </c>
+      <c r="K1490">
+        <v>1</v>
+      </c>
+      <c r="L1490" t="s">
+        <v>79</v>
+      </c>
+      <c r="R1490" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="1491" spans="4:18" x14ac:dyDescent="0.35">
+      <c r="D1491" t="s">
+        <v>220</v>
+      </c>
+      <c r="E1491" t="s">
+        <v>407</v>
+      </c>
+      <c r="F1491">
+        <v>4</v>
+      </c>
+      <c r="G1491" t="s">
+        <v>95</v>
+      </c>
+      <c r="H1491" t="s">
+        <v>89</v>
+      </c>
+      <c r="I1491">
+        <v>4</v>
+      </c>
+      <c r="J1491" t="s">
+        <v>143</v>
+      </c>
+      <c r="K1491">
+        <v>1</v>
+      </c>
+      <c r="L1491" t="s">
+        <v>75</v>
+      </c>
+      <c r="M1491" t="s">
+        <v>385</v>
+      </c>
+      <c r="P1491" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="1492" spans="4:18" x14ac:dyDescent="0.35">
+      <c r="D1492" t="s">
+        <v>220</v>
+      </c>
+      <c r="E1492" t="s">
+        <v>407</v>
+      </c>
+      <c r="F1492">
+        <v>4</v>
+      </c>
+      <c r="G1492" t="s">
+        <v>95</v>
+      </c>
+      <c r="H1492" t="s">
+        <v>89</v>
+      </c>
+      <c r="I1492">
+        <v>6</v>
+      </c>
+      <c r="J1492" t="s">
+        <v>143</v>
+      </c>
+      <c r="K1492">
+        <v>2</v>
+      </c>
+      <c r="L1492" t="s">
+        <v>148</v>
+      </c>
+      <c r="M1492" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="1493" spans="4:18" x14ac:dyDescent="0.35">
+      <c r="D1493" t="s">
+        <v>220</v>
+      </c>
+      <c r="E1493" t="s">
+        <v>407</v>
+      </c>
+      <c r="F1493">
+        <v>4</v>
+      </c>
+      <c r="G1493" t="s">
+        <v>95</v>
+      </c>
+      <c r="H1493" t="s">
+        <v>89</v>
+      </c>
+      <c r="I1493">
+        <v>6</v>
+      </c>
+      <c r="J1493" t="s">
+        <v>143</v>
+      </c>
+      <c r="K1493">
+        <v>2</v>
+      </c>
+      <c r="L1493" t="s">
+        <v>148</v>
+      </c>
+      <c r="M1493" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="1494" spans="4:18" x14ac:dyDescent="0.35">
+      <c r="D1494" t="s">
+        <v>220</v>
+      </c>
+      <c r="E1494" t="s">
+        <v>407</v>
+      </c>
+      <c r="F1494">
+        <v>4</v>
+      </c>
+      <c r="G1494" t="s">
+        <v>95</v>
+      </c>
+      <c r="H1494" t="s">
+        <v>89</v>
+      </c>
+      <c r="I1494">
+        <v>6</v>
+      </c>
+      <c r="J1494" t="s">
+        <v>143</v>
+      </c>
+      <c r="K1494">
+        <v>3</v>
+      </c>
+      <c r="L1494" t="s">
+        <v>134</v>
+      </c>
+      <c r="M1494" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="1495" spans="4:18" x14ac:dyDescent="0.35">
+      <c r="D1495" t="s">
+        <v>220</v>
+      </c>
+      <c r="E1495" t="s">
+        <v>407</v>
+      </c>
+      <c r="F1495">
+        <v>4</v>
+      </c>
+      <c r="G1495" t="s">
+        <v>95</v>
+      </c>
+      <c r="H1495" t="s">
+        <v>89</v>
+      </c>
+      <c r="I1495">
+        <v>6</v>
+      </c>
+      <c r="J1495" t="s">
+        <v>143</v>
+      </c>
+      <c r="K1495">
+        <v>1</v>
+      </c>
+      <c r="L1495" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="1496" spans="4:18" x14ac:dyDescent="0.35">
+      <c r="D1496" t="s">
+        <v>220</v>
+      </c>
+      <c r="E1496" t="s">
+        <v>407</v>
+      </c>
+      <c r="F1496">
+        <v>4</v>
+      </c>
+      <c r="G1496" t="s">
+        <v>95</v>
+      </c>
+      <c r="H1496" t="s">
+        <v>89</v>
+      </c>
+      <c r="I1496">
+        <v>6</v>
+      </c>
+      <c r="J1496" t="s">
+        <v>143</v>
+      </c>
+      <c r="K1496">
+        <v>1</v>
+      </c>
+      <c r="L1496" t="s">
+        <v>148</v>
+      </c>
+      <c r="M1496" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="1497" spans="4:18" x14ac:dyDescent="0.35">
+      <c r="D1497" t="s">
+        <v>220</v>
+      </c>
+      <c r="E1497" t="s">
+        <v>407</v>
+      </c>
+      <c r="F1497">
+        <v>4</v>
+      </c>
+      <c r="G1497" t="s">
+        <v>95</v>
+      </c>
+      <c r="H1497" t="s">
+        <v>89</v>
+      </c>
+      <c r="I1497">
+        <v>6</v>
+      </c>
+      <c r="J1497" t="s">
+        <v>143</v>
+      </c>
+      <c r="K1497">
+        <v>5</v>
+      </c>
+      <c r="L1497" t="s">
+        <v>134</v>
+      </c>
+      <c r="R1497" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="1498" spans="4:18" x14ac:dyDescent="0.35">
+      <c r="D1498" t="s">
+        <v>220</v>
+      </c>
+      <c r="E1498" t="s">
+        <v>407</v>
+      </c>
+      <c r="F1498">
+        <v>4</v>
+      </c>
+      <c r="G1498" t="s">
+        <v>95</v>
+      </c>
+      <c r="H1498" t="s">
+        <v>89</v>
+      </c>
+      <c r="I1498">
+        <v>6</v>
+      </c>
+      <c r="J1498" t="s">
+        <v>143</v>
+      </c>
+      <c r="K1498">
+        <v>1</v>
+      </c>
+      <c r="L1498" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="1499" spans="4:18" x14ac:dyDescent="0.35">
+      <c r="D1499" t="s">
+        <v>220</v>
+      </c>
+      <c r="E1499" t="s">
+        <v>407</v>
+      </c>
+      <c r="F1499">
+        <v>4</v>
+      </c>
+      <c r="G1499" t="s">
+        <v>95</v>
+      </c>
+      <c r="H1499" t="s">
+        <v>96</v>
+      </c>
+      <c r="I1499">
+        <v>6</v>
+      </c>
+      <c r="J1499" t="s">
+        <v>382</v>
+      </c>
+      <c r="K1499">
+        <v>1</v>
+      </c>
+      <c r="L1499" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="1500" spans="4:18" x14ac:dyDescent="0.35">
+      <c r="D1500" t="s">
+        <v>220</v>
+      </c>
+      <c r="E1500" t="s">
+        <v>407</v>
+      </c>
+      <c r="F1500">
+        <v>4</v>
+      </c>
+      <c r="G1500" t="s">
+        <v>88</v>
+      </c>
+      <c r="H1500" t="s">
+        <v>89</v>
+      </c>
+      <c r="I1500">
+        <v>6</v>
+      </c>
+      <c r="J1500" t="s">
+        <v>143</v>
+      </c>
+      <c r="K1500">
+        <v>1</v>
+      </c>
+      <c r="L1500" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="1501" spans="4:18" x14ac:dyDescent="0.35">
+      <c r="D1501" t="s">
+        <v>220</v>
+      </c>
+      <c r="E1501" t="s">
+        <v>407</v>
+      </c>
+      <c r="F1501">
+        <v>4</v>
+      </c>
+      <c r="G1501" t="s">
+        <v>88</v>
+      </c>
+      <c r="H1501" t="s">
+        <v>89</v>
+      </c>
+      <c r="I1501">
+        <v>6</v>
+      </c>
+      <c r="J1501" t="s">
+        <v>143</v>
+      </c>
+      <c r="K1501">
+        <v>1</v>
+      </c>
+      <c r="L1501" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="1502" spans="4:18" x14ac:dyDescent="0.35">
+      <c r="D1502" t="s">
+        <v>220</v>
+      </c>
+      <c r="E1502" t="s">
+        <v>407</v>
+      </c>
+      <c r="F1502">
+        <v>4</v>
+      </c>
+      <c r="G1502" t="s">
+        <v>88</v>
+      </c>
+      <c r="H1502" t="s">
+        <v>89</v>
+      </c>
+      <c r="I1502">
+        <v>6</v>
+      </c>
+      <c r="J1502" t="s">
+        <v>143</v>
+      </c>
+      <c r="K1502">
+        <v>1</v>
+      </c>
+      <c r="L1502" t="s">
+        <v>134</v>
+      </c>
+      <c r="M1502" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="1503" spans="4:18" x14ac:dyDescent="0.35">
+      <c r="D1503" t="s">
+        <v>220</v>
+      </c>
+      <c r="E1503" t="s">
+        <v>407</v>
+      </c>
+      <c r="F1503">
+        <v>4</v>
+      </c>
+      <c r="G1503" t="s">
+        <v>88</v>
+      </c>
+      <c r="H1503" t="s">
+        <v>89</v>
+      </c>
+      <c r="I1503">
+        <v>6</v>
+      </c>
+      <c r="J1503" t="s">
+        <v>143</v>
+      </c>
+      <c r="K1503">
+        <v>1</v>
+      </c>
+      <c r="L1503" t="s">
+        <v>134</v>
+      </c>
+      <c r="M1503" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="1504" spans="4:18" x14ac:dyDescent="0.35">
+      <c r="D1504" t="s">
+        <v>220</v>
+      </c>
+      <c r="E1504" t="s">
+        <v>407</v>
+      </c>
+      <c r="F1504">
+        <v>4</v>
+      </c>
+      <c r="G1504" t="s">
+        <v>95</v>
+      </c>
+      <c r="H1504" t="s">
+        <v>89</v>
+      </c>
+      <c r="I1504">
+        <v>2</v>
+      </c>
+      <c r="J1504" t="s">
+        <v>382</v>
+      </c>
+      <c r="K1504">
+        <v>1</v>
+      </c>
+      <c r="L1504" t="s">
+        <v>75</v>
+      </c>
+      <c r="M1504" t="s">
+        <v>385</v>
+      </c>
+      <c r="P1504" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="1505" spans="4:18" x14ac:dyDescent="0.35">
+      <c r="D1505" t="s">
+        <v>220</v>
+      </c>
+      <c r="E1505" t="s">
+        <v>407</v>
+      </c>
+      <c r="F1505">
+        <v>4</v>
+      </c>
+      <c r="G1505" t="s">
+        <v>95</v>
+      </c>
+      <c r="H1505" t="s">
+        <v>89</v>
+      </c>
+      <c r="I1505">
+        <v>2</v>
+      </c>
+      <c r="J1505" t="s">
+        <v>382</v>
+      </c>
+      <c r="K1505">
+        <v>1</v>
+      </c>
+      <c r="L1505" t="s">
+        <v>148</v>
+      </c>
+      <c r="M1505" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="1506" spans="4:18" x14ac:dyDescent="0.35">
+      <c r="D1506" t="s">
+        <v>220</v>
+      </c>
+      <c r="E1506" t="s">
+        <v>407</v>
+      </c>
+      <c r="F1506">
+        <v>4</v>
+      </c>
+      <c r="G1506" t="s">
+        <v>88</v>
+      </c>
+      <c r="H1506" t="s">
+        <v>89</v>
+      </c>
+      <c r="I1506">
+        <v>7</v>
+      </c>
+      <c r="J1506" t="s">
+        <v>143</v>
+      </c>
+      <c r="K1506">
+        <v>4</v>
+      </c>
+      <c r="L1506" t="s">
+        <v>148</v>
+      </c>
+      <c r="M1506" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="1507" spans="4:18" x14ac:dyDescent="0.35">
+      <c r="D1507" t="s">
+        <v>220</v>
+      </c>
+      <c r="E1507" t="s">
+        <v>407</v>
+      </c>
+      <c r="F1507">
+        <v>4</v>
+      </c>
+      <c r="G1507" t="s">
+        <v>88</v>
+      </c>
+      <c r="H1507" t="s">
+        <v>89</v>
+      </c>
+      <c r="I1507">
+        <v>7</v>
+      </c>
+      <c r="J1507" t="s">
+        <v>143</v>
+      </c>
+      <c r="K1507">
+        <v>2</v>
+      </c>
+      <c r="L1507" t="s">
+        <v>134</v>
+      </c>
+      <c r="M1507" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="1508" spans="4:18" x14ac:dyDescent="0.35">
+      <c r="D1508" t="s">
+        <v>220</v>
+      </c>
+      <c r="E1508" t="s">
+        <v>407</v>
+      </c>
+      <c r="F1508">
+        <v>4</v>
+      </c>
+      <c r="G1508" t="s">
+        <v>88</v>
+      </c>
+      <c r="H1508" t="s">
+        <v>89</v>
+      </c>
+      <c r="I1508">
+        <v>7</v>
+      </c>
+      <c r="J1508" t="s">
+        <v>143</v>
+      </c>
+      <c r="K1508">
+        <v>1</v>
+      </c>
+      <c r="L1508" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="1509" spans="4:18" x14ac:dyDescent="0.35">
+      <c r="D1509" t="s">
+        <v>220</v>
+      </c>
+      <c r="E1509" t="s">
+        <v>407</v>
+      </c>
+      <c r="F1509">
+        <v>4</v>
+      </c>
+      <c r="G1509" t="s">
+        <v>88</v>
+      </c>
+      <c r="H1509" t="s">
+        <v>89</v>
+      </c>
+      <c r="I1509">
+        <v>1</v>
+      </c>
+      <c r="J1509" t="s">
+        <v>382</v>
+      </c>
+      <c r="K1509">
+        <v>2</v>
+      </c>
+      <c r="L1509" t="s">
+        <v>251</v>
+      </c>
+      <c r="M1509" t="s">
+        <v>252</v>
+      </c>
+      <c r="P1509" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="1510" spans="4:18" x14ac:dyDescent="0.35">
+      <c r="D1510" t="s">
+        <v>220</v>
+      </c>
+      <c r="E1510" t="s">
+        <v>407</v>
+      </c>
+      <c r="F1510">
+        <v>4</v>
+      </c>
+      <c r="G1510" t="s">
+        <v>88</v>
+      </c>
+      <c r="H1510" t="s">
+        <v>89</v>
+      </c>
+      <c r="I1510">
+        <v>1</v>
+      </c>
+      <c r="J1510" t="s">
+        <v>382</v>
+      </c>
+      <c r="K1510">
+        <v>2</v>
+      </c>
+      <c r="L1510" t="s">
+        <v>134</v>
+      </c>
+      <c r="M1510" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="1511" spans="4:18" x14ac:dyDescent="0.35">
+      <c r="D1511" t="s">
+        <v>220</v>
+      </c>
+      <c r="E1511" t="s">
+        <v>407</v>
+      </c>
+      <c r="F1511">
+        <v>4</v>
+      </c>
+      <c r="G1511" t="s">
+        <v>88</v>
+      </c>
+      <c r="H1511" t="s">
+        <v>89</v>
+      </c>
+      <c r="I1511">
+        <v>1</v>
+      </c>
+      <c r="J1511" t="s">
+        <v>382</v>
+      </c>
+      <c r="K1511">
+        <v>1</v>
+      </c>
+      <c r="L1511" t="s">
+        <v>148</v>
+      </c>
+      <c r="R1511" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="1512" spans="4:18" x14ac:dyDescent="0.35">
+      <c r="D1512" t="s">
+        <v>220</v>
+      </c>
+      <c r="E1512" t="s">
+        <v>407</v>
+      </c>
+      <c r="F1512">
+        <v>4</v>
+      </c>
+      <c r="G1512" t="s">
+        <v>88</v>
+      </c>
+      <c r="H1512" t="s">
+        <v>89</v>
+      </c>
+      <c r="I1512">
+        <v>6</v>
+      </c>
+      <c r="J1512" t="s">
+        <v>382</v>
+      </c>
+      <c r="K1512">
+        <v>1</v>
+      </c>
+      <c r="L1512" t="s">
+        <v>251</v>
+      </c>
+      <c r="M1512" t="s">
+        <v>252</v>
+      </c>
+      <c r="P1512" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="1513" spans="4:18" x14ac:dyDescent="0.35">
+      <c r="D1513" t="s">
+        <v>220</v>
+      </c>
+      <c r="E1513" t="s">
+        <v>407</v>
+      </c>
+      <c r="F1513">
+        <v>4</v>
+      </c>
+      <c r="G1513" t="s">
+        <v>88</v>
+      </c>
+      <c r="H1513" t="s">
+        <v>89</v>
+      </c>
+      <c r="I1513">
+        <v>9</v>
+      </c>
+      <c r="J1513" t="s">
+        <v>382</v>
+      </c>
+      <c r="K1513">
+        <v>1</v>
+      </c>
+      <c r="L1513" t="s">
+        <v>251</v>
+      </c>
+      <c r="M1513" t="s">
+        <v>252</v>
+      </c>
+      <c r="P1513" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="1514" spans="4:18" x14ac:dyDescent="0.35">
+      <c r="D1514" t="s">
+        <v>220</v>
+      </c>
+      <c r="E1514" t="s">
+        <v>407</v>
+      </c>
+      <c r="F1514">
+        <v>4</v>
+      </c>
+      <c r="G1514" t="s">
+        <v>88</v>
+      </c>
+      <c r="H1514" t="s">
+        <v>89</v>
+      </c>
+      <c r="I1514">
+        <v>9</v>
+      </c>
+      <c r="J1514" t="s">
+        <v>382</v>
+      </c>
+      <c r="K1514">
+        <v>1</v>
+      </c>
+      <c r="L1514" t="s">
+        <v>134</v>
+      </c>
+      <c r="M1514" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="1515" spans="4:18" x14ac:dyDescent="0.35">
+      <c r="D1515" t="s">
+        <v>220</v>
+      </c>
+      <c r="E1515" t="s">
+        <v>407</v>
+      </c>
+      <c r="F1515">
+        <v>4</v>
+      </c>
+      <c r="G1515" t="s">
+        <v>88</v>
+      </c>
+      <c r="H1515" t="s">
+        <v>89</v>
+      </c>
+      <c r="I1515">
+        <v>9</v>
+      </c>
+      <c r="J1515" t="s">
+        <v>382</v>
+      </c>
+      <c r="K1515">
+        <v>1</v>
+      </c>
+      <c r="L1515" t="s">
+        <v>134</v>
+      </c>
+      <c r="M1515" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="1516" spans="4:18" x14ac:dyDescent="0.35">
+      <c r="D1516" t="s">
+        <v>220</v>
+      </c>
+      <c r="E1516" t="s">
+        <v>407</v>
+      </c>
+      <c r="F1516">
+        <v>4</v>
+      </c>
+      <c r="G1516" t="s">
+        <v>88</v>
+      </c>
+      <c r="H1516" t="s">
+        <v>89</v>
+      </c>
+      <c r="I1516">
+        <v>4</v>
+      </c>
+      <c r="J1516" t="s">
+        <v>143</v>
+      </c>
+      <c r="K1516">
+        <v>1</v>
+      </c>
+      <c r="L1516" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="1517" spans="4:18" x14ac:dyDescent="0.35">
+      <c r="D1517" t="s">
+        <v>220</v>
+      </c>
+      <c r="E1517" t="s">
+        <v>407</v>
+      </c>
+      <c r="F1517">
+        <v>4</v>
+      </c>
+      <c r="G1517" t="s">
+        <v>88</v>
+      </c>
+      <c r="H1517" t="s">
+        <v>89</v>
+      </c>
+      <c r="I1517">
+        <v>4</v>
+      </c>
+      <c r="J1517" t="s">
+        <v>143</v>
+      </c>
+      <c r="K1517">
+        <v>3</v>
+      </c>
+      <c r="L1517" t="s">
+        <v>251</v>
+      </c>
+      <c r="M1517" t="s">
+        <v>252</v>
+      </c>
+      <c r="P1517" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="1518" spans="4:18" x14ac:dyDescent="0.35">
+      <c r="D1518" t="s">
+        <v>220</v>
+      </c>
+      <c r="E1518" t="s">
+        <v>407</v>
+      </c>
+      <c r="F1518">
+        <v>4</v>
+      </c>
+      <c r="G1518" t="s">
+        <v>88</v>
+      </c>
+      <c r="H1518" t="s">
+        <v>89</v>
+      </c>
+      <c r="I1518">
+        <v>4</v>
+      </c>
+      <c r="J1518" t="s">
+        <v>143</v>
+      </c>
+      <c r="K1518">
+        <v>2</v>
+      </c>
+      <c r="L1518" t="s">
+        <v>134</v>
+      </c>
+      <c r="M1518" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="1519" spans="4:18" x14ac:dyDescent="0.35">
+      <c r="D1519" t="s">
+        <v>220</v>
+      </c>
+      <c r="E1519" t="s">
+        <v>407</v>
+      </c>
+      <c r="F1519">
+        <v>4</v>
+      </c>
+      <c r="G1519" t="s">
+        <v>88</v>
+      </c>
+      <c r="H1519" t="s">
+        <v>89</v>
+      </c>
+      <c r="I1519">
+        <v>4</v>
+      </c>
+      <c r="J1519" t="s">
+        <v>143</v>
+      </c>
+      <c r="K1519">
+        <v>1</v>
+      </c>
+      <c r="L1519" t="s">
+        <v>134</v>
+      </c>
+      <c r="M1519" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="1520" spans="4:18" x14ac:dyDescent="0.35">
+      <c r="D1520" t="s">
+        <v>220</v>
+      </c>
+      <c r="E1520" t="s">
+        <v>407</v>
+      </c>
+      <c r="F1520">
+        <v>4</v>
+      </c>
+      <c r="G1520" t="s">
+        <v>88</v>
+      </c>
+      <c r="H1520" t="s">
+        <v>89</v>
+      </c>
+      <c r="I1520">
+        <v>4</v>
+      </c>
+      <c r="J1520" t="s">
+        <v>143</v>
+      </c>
+      <c r="K1520">
+        <v>1</v>
+      </c>
+      <c r="L1520" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="1521" spans="4:17" x14ac:dyDescent="0.35">
+      <c r="D1521" t="s">
+        <v>220</v>
+      </c>
+      <c r="E1521" t="s">
+        <v>407</v>
+      </c>
+      <c r="F1521">
+        <v>4</v>
+      </c>
+      <c r="G1521" t="s">
+        <v>88</v>
+      </c>
+      <c r="H1521" t="s">
+        <v>89</v>
+      </c>
+      <c r="I1521">
+        <v>4</v>
+      </c>
+      <c r="J1521" t="s">
+        <v>143</v>
+      </c>
+      <c r="K1521">
+        <v>1</v>
+      </c>
+      <c r="L1521" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="1522" spans="4:17" x14ac:dyDescent="0.35">
+      <c r="D1522" t="s">
+        <v>220</v>
+      </c>
+      <c r="E1522" t="s">
+        <v>407</v>
+      </c>
+      <c r="F1522">
+        <v>4</v>
+      </c>
+      <c r="G1522" t="s">
+        <v>88</v>
+      </c>
+      <c r="H1522" t="s">
+        <v>89</v>
+      </c>
+      <c r="I1522">
+        <v>4</v>
+      </c>
+      <c r="J1522" t="s">
+        <v>143</v>
+      </c>
+      <c r="K1522">
+        <v>1</v>
+      </c>
+      <c r="L1522" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="1523" spans="4:17" x14ac:dyDescent="0.35">
+      <c r="D1523" t="s">
+        <v>220</v>
+      </c>
+      <c r="E1523" t="s">
+        <v>407</v>
+      </c>
+      <c r="F1523">
+        <v>4</v>
+      </c>
+      <c r="G1523" t="s">
+        <v>88</v>
+      </c>
+      <c r="H1523" t="s">
+        <v>89</v>
+      </c>
+      <c r="I1523">
+        <v>3</v>
+      </c>
+      <c r="J1523" t="s">
+        <v>143</v>
+      </c>
+      <c r="K1523">
+        <v>1</v>
+      </c>
+      <c r="L1523" t="s">
+        <v>61</v>
+      </c>
+      <c r="M1523" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="1524" spans="4:17" x14ac:dyDescent="0.35">
+      <c r="D1524" t="s">
+        <v>220</v>
+      </c>
+      <c r="E1524" t="s">
+        <v>407</v>
+      </c>
+      <c r="F1524">
+        <v>4</v>
+      </c>
+      <c r="G1524" t="s">
+        <v>88</v>
+      </c>
+      <c r="H1524" t="s">
+        <v>89</v>
+      </c>
+      <c r="I1524">
+        <v>3</v>
+      </c>
+      <c r="J1524" t="s">
+        <v>143</v>
+      </c>
+      <c r="K1524">
+        <v>1</v>
+      </c>
+      <c r="L1524" t="s">
+        <v>134</v>
+      </c>
+      <c r="M1524" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="1525" spans="4:17" x14ac:dyDescent="0.35">
+      <c r="D1525" t="s">
+        <v>220</v>
+      </c>
+      <c r="E1525" t="s">
+        <v>407</v>
+      </c>
+      <c r="F1525">
+        <v>4</v>
+      </c>
+      <c r="G1525" t="s">
+        <v>88</v>
+      </c>
+      <c r="H1525" t="s">
+        <v>89</v>
+      </c>
+      <c r="I1525">
+        <v>3</v>
+      </c>
+      <c r="J1525" t="s">
+        <v>143</v>
+      </c>
+      <c r="K1525">
+        <v>1</v>
+      </c>
+      <c r="L1525" t="s">
+        <v>148</v>
+      </c>
+      <c r="M1525" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="1526" spans="4:17" x14ac:dyDescent="0.35">
+      <c r="D1526" t="s">
+        <v>220</v>
+      </c>
+      <c r="E1526" t="s">
+        <v>407</v>
+      </c>
+      <c r="F1526">
+        <v>4</v>
+      </c>
+      <c r="G1526" t="s">
+        <v>88</v>
+      </c>
+      <c r="H1526" t="s">
+        <v>89</v>
+      </c>
+      <c r="I1526">
+        <v>3</v>
+      </c>
+      <c r="J1526" t="s">
+        <v>143</v>
+      </c>
+      <c r="K1526">
+        <v>1</v>
+      </c>
+      <c r="L1526" t="s">
+        <v>99</v>
+      </c>
+      <c r="M1526" t="s">
+        <v>57</v>
+      </c>
+      <c r="N1526" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="1527" spans="4:17" x14ac:dyDescent="0.35">
+      <c r="D1527" t="s">
+        <v>220</v>
+      </c>
+      <c r="E1527" t="s">
+        <v>407</v>
+      </c>
+      <c r="F1527">
+        <v>4</v>
+      </c>
+      <c r="G1527" t="s">
+        <v>95</v>
+      </c>
+      <c r="H1527" t="s">
+        <v>96</v>
+      </c>
+      <c r="I1527">
+        <v>5</v>
+      </c>
+      <c r="J1527" t="s">
+        <v>74</v>
+      </c>
+      <c r="K1527">
+        <v>1</v>
+      </c>
+      <c r="L1527" t="s">
+        <v>99</v>
+      </c>
+      <c r="M1527" t="s">
+        <v>57</v>
+      </c>
+      <c r="N1527" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="1528" spans="4:17" x14ac:dyDescent="0.35">
+      <c r="D1528" t="s">
+        <v>220</v>
+      </c>
+      <c r="E1528" t="s">
+        <v>407</v>
+      </c>
+      <c r="F1528">
+        <v>4</v>
+      </c>
+      <c r="G1528" t="s">
+        <v>95</v>
+      </c>
+      <c r="H1528" t="s">
+        <v>96</v>
+      </c>
+      <c r="I1528">
+        <v>5</v>
+      </c>
+      <c r="J1528" t="s">
+        <v>74</v>
+      </c>
+      <c r="K1528">
+        <v>1</v>
+      </c>
+      <c r="L1528" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="1529" spans="4:17" x14ac:dyDescent="0.35">
+      <c r="D1529" t="s">
+        <v>220</v>
+      </c>
+      <c r="E1529" t="s">
+        <v>407</v>
+      </c>
+      <c r="F1529">
+        <v>4</v>
+      </c>
+      <c r="G1529" t="s">
+        <v>95</v>
+      </c>
+      <c r="H1529" t="s">
+        <v>96</v>
+      </c>
+      <c r="I1529">
+        <v>9</v>
+      </c>
+      <c r="J1529" t="s">
+        <v>74</v>
+      </c>
+      <c r="K1529">
+        <v>1</v>
+      </c>
+      <c r="L1529" t="s">
+        <v>99</v>
+      </c>
+      <c r="M1529" t="s">
+        <v>57</v>
+      </c>
+      <c r="N1529" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="1530" spans="4:17" x14ac:dyDescent="0.35">
+      <c r="D1530" t="s">
+        <v>220</v>
+      </c>
+      <c r="E1530" t="s">
+        <v>407</v>
+      </c>
+      <c r="F1530">
+        <v>4</v>
+      </c>
+      <c r="H1530" t="s">
+        <v>72</v>
+      </c>
+      <c r="J1530" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="1531" spans="4:17" x14ac:dyDescent="0.35">
+      <c r="D1531" t="s">
+        <v>220</v>
+      </c>
+      <c r="E1531" t="s">
+        <v>407</v>
+      </c>
+      <c r="F1531">
+        <v>4</v>
+      </c>
+      <c r="H1531" t="s">
+        <v>72</v>
+      </c>
+      <c r="J1531" t="s">
+        <v>74</v>
+      </c>
+      <c r="K1531">
+        <v>4</v>
+      </c>
+      <c r="L1531" t="s">
+        <v>99</v>
+      </c>
+      <c r="M1531" t="s">
+        <v>57</v>
+      </c>
+      <c r="N1531" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="1532" spans="4:17" x14ac:dyDescent="0.35">
+      <c r="D1532" t="s">
+        <v>220</v>
+      </c>
+      <c r="E1532" t="s">
+        <v>407</v>
+      </c>
+      <c r="F1532">
+        <v>4</v>
+      </c>
+      <c r="H1532" t="s">
+        <v>72</v>
+      </c>
+      <c r="J1532" t="s">
+        <v>74</v>
+      </c>
+      <c r="K1532">
+        <v>1</v>
+      </c>
+      <c r="L1532" t="s">
+        <v>99</v>
+      </c>
+      <c r="M1532" t="s">
+        <v>57</v>
+      </c>
+      <c r="N1532" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="1533" spans="4:17" x14ac:dyDescent="0.35">
+      <c r="D1533" t="s">
+        <v>220</v>
+      </c>
+      <c r="E1533" t="s">
+        <v>407</v>
+      </c>
+      <c r="F1533">
+        <v>5</v>
+      </c>
+      <c r="G1533" t="s">
+        <v>95</v>
+      </c>
+      <c r="H1533" t="s">
+        <v>89</v>
+      </c>
+      <c r="I1533">
+        <v>2</v>
+      </c>
+      <c r="J1533" t="s">
+        <v>382</v>
+      </c>
+      <c r="K1533">
+        <v>1</v>
+      </c>
+      <c r="L1533" t="s">
+        <v>79</v>
+      </c>
+      <c r="M1533" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="1534" spans="4:17" x14ac:dyDescent="0.35">
+      <c r="D1534" t="s">
+        <v>220</v>
+      </c>
+      <c r="E1534" t="s">
+        <v>407</v>
+      </c>
+      <c r="F1534">
+        <v>5</v>
+      </c>
+      <c r="G1534" t="s">
+        <v>95</v>
+      </c>
+      <c r="H1534" t="s">
+        <v>89</v>
+      </c>
+      <c r="I1534">
+        <v>2</v>
+      </c>
+      <c r="J1534" t="s">
+        <v>382</v>
+      </c>
+      <c r="K1534">
+        <v>1</v>
+      </c>
+      <c r="L1534" t="s">
+        <v>148</v>
+      </c>
+      <c r="M1534" t="s">
+        <v>326</v>
+      </c>
+      <c r="P1534" t="s">
+        <v>428</v>
+      </c>
+      <c r="Q1534" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="1535" spans="4:17" x14ac:dyDescent="0.35">
+      <c r="D1535" t="s">
+        <v>220</v>
+      </c>
+      <c r="E1535" t="s">
+        <v>407</v>
+      </c>
+      <c r="F1535">
+        <v>5</v>
+      </c>
+      <c r="G1535" t="s">
+        <v>95</v>
+      </c>
+      <c r="H1535" t="s">
+        <v>89</v>
+      </c>
+      <c r="I1535">
+        <v>2</v>
+      </c>
+      <c r="J1535" t="s">
+        <v>382</v>
+      </c>
+      <c r="K1535">
+        <v>1</v>
+      </c>
+      <c r="L1535" t="s">
+        <v>148</v>
+      </c>
+      <c r="M1535" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="1536" spans="4:17" x14ac:dyDescent="0.35">
+      <c r="D1536" t="s">
+        <v>220</v>
+      </c>
+      <c r="E1536" t="s">
+        <v>407</v>
+      </c>
+      <c r="F1536">
+        <v>5</v>
+      </c>
+      <c r="G1536" t="s">
+        <v>88</v>
+      </c>
+      <c r="H1536" t="s">
+        <v>89</v>
+      </c>
+      <c r="I1536">
+        <v>7</v>
+      </c>
+      <c r="J1536" t="s">
+        <v>382</v>
+      </c>
+      <c r="K1536">
+        <v>1</v>
+      </c>
+      <c r="L1536" t="s">
+        <v>251</v>
+      </c>
+      <c r="M1536" t="s">
+        <v>252</v>
+      </c>
+      <c r="P1536" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="1537" spans="4:18" x14ac:dyDescent="0.35">
+      <c r="D1537" t="s">
+        <v>220</v>
+      </c>
+      <c r="E1537" t="s">
+        <v>407</v>
+      </c>
+      <c r="F1537">
+        <v>5</v>
+      </c>
+      <c r="G1537" t="s">
+        <v>88</v>
+      </c>
+      <c r="H1537" t="s">
+        <v>89</v>
+      </c>
+      <c r="I1537">
+        <v>7</v>
+      </c>
+      <c r="J1537" t="s">
+        <v>382</v>
+      </c>
+      <c r="K1537">
+        <v>1</v>
+      </c>
+      <c r="L1537" t="s">
+        <v>134</v>
+      </c>
+      <c r="M1537" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="1538" spans="4:18" x14ac:dyDescent="0.35">
+      <c r="D1538" t="s">
+        <v>220</v>
+      </c>
+      <c r="E1538" t="s">
+        <v>407</v>
+      </c>
+      <c r="F1538">
+        <v>5</v>
+      </c>
+      <c r="G1538" t="s">
+        <v>88</v>
+      </c>
+      <c r="H1538" t="s">
+        <v>89</v>
+      </c>
+      <c r="I1538">
+        <v>7</v>
+      </c>
+      <c r="J1538" t="s">
+        <v>382</v>
+      </c>
+      <c r="K1538">
+        <v>1</v>
+      </c>
+      <c r="L1538" t="s">
+        <v>134</v>
+      </c>
+      <c r="M1538" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="1539" spans="4:18" x14ac:dyDescent="0.35">
+      <c r="D1539" t="s">
+        <v>220</v>
+      </c>
+      <c r="E1539" t="s">
+        <v>407</v>
+      </c>
+      <c r="F1539">
+        <v>5</v>
+      </c>
+      <c r="G1539" t="s">
+        <v>95</v>
+      </c>
+      <c r="H1539" t="s">
+        <v>89</v>
+      </c>
+      <c r="I1539">
+        <v>7</v>
+      </c>
+      <c r="J1539" t="s">
+        <v>382</v>
+      </c>
+      <c r="K1539">
+        <v>1</v>
+      </c>
+      <c r="L1539" t="s">
+        <v>148</v>
+      </c>
+      <c r="R1539" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="1540" spans="4:18" x14ac:dyDescent="0.35">
+      <c r="D1540" t="s">
+        <v>220</v>
+      </c>
+      <c r="E1540" t="s">
+        <v>407</v>
+      </c>
+      <c r="F1540">
+        <v>5</v>
+      </c>
+      <c r="G1540" t="s">
+        <v>95</v>
+      </c>
+      <c r="H1540" t="s">
+        <v>89</v>
+      </c>
+      <c r="I1540">
+        <v>4</v>
+      </c>
+      <c r="J1540" t="s">
+        <v>143</v>
+      </c>
+      <c r="K1540">
+        <v>1</v>
+      </c>
+      <c r="L1540" t="s">
+        <v>75</v>
+      </c>
+      <c r="M1540" t="s">
+        <v>385</v>
+      </c>
+      <c r="P1540" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="1541" spans="4:18" x14ac:dyDescent="0.35">
+      <c r="D1541" t="s">
+        <v>220</v>
+      </c>
+      <c r="E1541" t="s">
+        <v>407</v>
+      </c>
+      <c r="F1541">
+        <v>5</v>
+      </c>
+      <c r="G1541" t="s">
+        <v>95</v>
+      </c>
+      <c r="H1541" t="s">
+        <v>89</v>
+      </c>
+      <c r="I1541">
+        <v>4</v>
+      </c>
+      <c r="J1541" t="s">
+        <v>143</v>
+      </c>
+      <c r="K1541">
+        <v>1</v>
+      </c>
+      <c r="L1541" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="1542" spans="4:18" x14ac:dyDescent="0.35">
+      <c r="D1542" t="s">
+        <v>220</v>
+      </c>
+      <c r="E1542" t="s">
+        <v>407</v>
+      </c>
+      <c r="F1542">
+        <v>5</v>
+      </c>
+      <c r="G1542" t="s">
+        <v>88</v>
+      </c>
+      <c r="H1542" t="s">
+        <v>89</v>
+      </c>
+      <c r="I1542">
+        <v>8</v>
+      </c>
+      <c r="J1542" t="s">
+        <v>382</v>
+      </c>
+      <c r="K1542">
+        <v>1</v>
+      </c>
+      <c r="L1542" t="s">
+        <v>134</v>
+      </c>
+      <c r="M1542" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="1543" spans="4:18" x14ac:dyDescent="0.35">
+      <c r="D1543" t="s">
+        <v>220</v>
+      </c>
+      <c r="E1543" t="s">
+        <v>407</v>
+      </c>
+      <c r="F1543">
+        <v>5</v>
+      </c>
+      <c r="G1543" t="s">
+        <v>88</v>
+      </c>
+      <c r="H1543" t="s">
+        <v>89</v>
+      </c>
+      <c r="I1543">
+        <v>3</v>
+      </c>
+      <c r="J1543" t="s">
+        <v>382</v>
+      </c>
+      <c r="K1543">
+        <v>3</v>
+      </c>
+      <c r="L1543" t="s">
+        <v>134</v>
+      </c>
+      <c r="M1543" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="1544" spans="4:18" x14ac:dyDescent="0.35">
+      <c r="D1544" t="s">
+        <v>220</v>
+      </c>
+      <c r="E1544" t="s">
+        <v>407</v>
+      </c>
+      <c r="F1544">
+        <v>5</v>
+      </c>
+      <c r="G1544" t="s">
+        <v>88</v>
+      </c>
+      <c r="H1544" t="s">
+        <v>89</v>
+      </c>
+      <c r="I1544">
+        <v>9</v>
+      </c>
+      <c r="J1544" t="s">
+        <v>382</v>
+      </c>
+      <c r="K1544">
+        <v>2</v>
+      </c>
+      <c r="L1544" t="s">
+        <v>134</v>
+      </c>
+      <c r="M1544" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="1545" spans="4:18" x14ac:dyDescent="0.35">
+      <c r="D1545" t="s">
+        <v>220</v>
+      </c>
+      <c r="E1545" t="s">
+        <v>407</v>
+      </c>
+      <c r="F1545">
+        <v>5</v>
+      </c>
+      <c r="G1545" t="s">
+        <v>95</v>
+      </c>
+      <c r="H1545" t="s">
+        <v>96</v>
+      </c>
+      <c r="I1545">
+        <v>9</v>
+      </c>
+      <c r="J1545" t="s">
+        <v>143</v>
+      </c>
+      <c r="K1545">
+        <v>1</v>
+      </c>
+      <c r="L1545" t="s">
+        <v>148</v>
+      </c>
+      <c r="M1545" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="1546" spans="4:18" x14ac:dyDescent="0.35">
+      <c r="D1546" t="s">
+        <v>220</v>
+      </c>
+      <c r="E1546" t="s">
+        <v>407</v>
+      </c>
+      <c r="F1546">
+        <v>5</v>
+      </c>
+      <c r="G1546" t="s">
+        <v>95</v>
+      </c>
+      <c r="H1546" t="s">
+        <v>96</v>
+      </c>
+      <c r="I1546">
+        <v>9</v>
+      </c>
+      <c r="J1546" t="s">
+        <v>143</v>
+      </c>
+      <c r="K1546">
+        <v>1</v>
+      </c>
+      <c r="L1546" t="s">
+        <v>148</v>
+      </c>
+      <c r="M1546" t="s">
+        <v>326</v>
+      </c>
+      <c r="P1546" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="1547" spans="4:18" x14ac:dyDescent="0.35">
+      <c r="D1547" t="s">
+        <v>220</v>
+      </c>
+      <c r="E1547" t="s">
+        <v>407</v>
+      </c>
+      <c r="F1547">
+        <v>5</v>
+      </c>
+      <c r="G1547" t="s">
+        <v>95</v>
+      </c>
+      <c r="H1547" t="s">
+        <v>89</v>
+      </c>
+      <c r="I1547">
+        <v>9</v>
+      </c>
+      <c r="J1547" t="s">
+        <v>382</v>
+      </c>
+      <c r="K1547">
+        <v>1</v>
+      </c>
+      <c r="L1547" t="s">
+        <v>148</v>
+      </c>
+      <c r="M1547" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="1548" spans="4:18" x14ac:dyDescent="0.35">
+      <c r="D1548" t="s">
+        <v>220</v>
+      </c>
+      <c r="E1548" t="s">
+        <v>407</v>
+      </c>
+      <c r="F1548">
+        <v>5</v>
+      </c>
+      <c r="G1548" t="s">
+        <v>95</v>
+      </c>
+      <c r="H1548" t="s">
+        <v>89</v>
+      </c>
+      <c r="I1548">
+        <v>3</v>
+      </c>
+      <c r="J1548" t="s">
+        <v>382</v>
+      </c>
+      <c r="K1548">
+        <v>1</v>
+      </c>
+      <c r="L1548" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="1549" spans="4:18" x14ac:dyDescent="0.35">
+      <c r="D1549" t="s">
+        <v>220</v>
+      </c>
+      <c r="E1549" t="s">
+        <v>407</v>
+      </c>
+      <c r="F1549">
+        <v>5</v>
+      </c>
+      <c r="G1549" t="s">
+        <v>95</v>
+      </c>
+      <c r="H1549" t="s">
+        <v>89</v>
+      </c>
+      <c r="I1549">
+        <v>3</v>
+      </c>
+      <c r="J1549" t="s">
+        <v>382</v>
+      </c>
+      <c r="K1549">
+        <v>1</v>
+      </c>
+      <c r="L1549" t="s">
+        <v>134</v>
+      </c>
+      <c r="M1549" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="1550" spans="4:18" x14ac:dyDescent="0.35">
+      <c r="D1550" t="s">
+        <v>220</v>
+      </c>
+      <c r="E1550" t="s">
+        <v>407</v>
+      </c>
+      <c r="F1550">
+        <v>5</v>
+      </c>
+      <c r="G1550" t="s">
+        <v>95</v>
+      </c>
+      <c r="H1550" t="s">
+        <v>89</v>
+      </c>
+      <c r="I1550">
+        <v>3</v>
+      </c>
+      <c r="J1550" t="s">
+        <v>382</v>
+      </c>
+      <c r="K1550">
+        <v>4</v>
+      </c>
+      <c r="L1550" t="s">
+        <v>134</v>
+      </c>
+      <c r="R1550" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="1551" spans="4:18" x14ac:dyDescent="0.35">
+      <c r="D1551" t="s">
+        <v>220</v>
+      </c>
+      <c r="E1551" t="s">
+        <v>407</v>
+      </c>
+      <c r="F1551">
+        <v>5</v>
+      </c>
+      <c r="G1551" t="s">
+        <v>88</v>
+      </c>
+      <c r="H1551" t="s">
+        <v>89</v>
+      </c>
+      <c r="I1551">
+        <v>10</v>
+      </c>
+      <c r="J1551" t="s">
+        <v>382</v>
+      </c>
+      <c r="K1551">
+        <v>2</v>
+      </c>
+      <c r="L1551" t="s">
+        <v>134</v>
+      </c>
+      <c r="M1551" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="1552" spans="4:18" x14ac:dyDescent="0.35">
+      <c r="D1552" t="s">
+        <v>220</v>
+      </c>
+      <c r="E1552" t="s">
+        <v>407</v>
+      </c>
+      <c r="F1552">
+        <v>5</v>
+      </c>
+      <c r="G1552" t="s">
+        <v>88</v>
+      </c>
+      <c r="H1552" t="s">
+        <v>89</v>
+      </c>
+      <c r="I1552">
+        <v>10</v>
+      </c>
+      <c r="J1552" t="s">
+        <v>382</v>
+      </c>
+      <c r="K1552">
+        <v>2</v>
+      </c>
+      <c r="L1552" t="s">
+        <v>148</v>
+      </c>
+      <c r="M1552" t="s">
+        <v>150</v>
+      </c>
+      <c r="R1552" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="1553" spans="4:18" x14ac:dyDescent="0.35">
+      <c r="D1553" t="s">
+        <v>220</v>
+      </c>
+      <c r="E1553" t="s">
+        <v>407</v>
+      </c>
+      <c r="F1553">
+        <v>5</v>
+      </c>
+      <c r="G1553" t="s">
+        <v>95</v>
+      </c>
+      <c r="H1553" t="s">
+        <v>89</v>
+      </c>
+      <c r="I1553">
+        <v>5</v>
+      </c>
+      <c r="J1553" t="s">
+        <v>382</v>
+      </c>
+      <c r="K1553">
+        <v>1</v>
+      </c>
+      <c r="L1553" t="s">
+        <v>75</v>
+      </c>
+      <c r="M1553" t="s">
+        <v>385</v>
+      </c>
+      <c r="P1553" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="1554" spans="4:18" x14ac:dyDescent="0.35">
+      <c r="D1554" t="s">
+        <v>220</v>
+      </c>
+      <c r="E1554" t="s">
+        <v>407</v>
+      </c>
+      <c r="F1554">
+        <v>5</v>
+      </c>
+      <c r="G1554" t="s">
+        <v>95</v>
+      </c>
+      <c r="H1554" t="s">
+        <v>89</v>
+      </c>
+      <c r="I1554">
+        <v>5</v>
+      </c>
+      <c r="J1554" t="s">
+        <v>382</v>
+      </c>
+      <c r="K1554">
+        <v>1</v>
+      </c>
+      <c r="L1554" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="1555" spans="4:18" x14ac:dyDescent="0.35">
+      <c r="D1555" t="s">
+        <v>220</v>
+      </c>
+      <c r="E1555" t="s">
+        <v>407</v>
+      </c>
+      <c r="F1555">
+        <v>5</v>
+      </c>
+      <c r="G1555" t="s">
+        <v>95</v>
+      </c>
+      <c r="H1555" t="s">
+        <v>89</v>
+      </c>
+      <c r="I1555">
+        <v>1</v>
+      </c>
+      <c r="J1555" t="s">
+        <v>382</v>
+      </c>
+      <c r="K1555">
+        <v>1</v>
+      </c>
+      <c r="L1555" t="s">
+        <v>148</v>
+      </c>
+      <c r="M1555" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="1556" spans="4:18" x14ac:dyDescent="0.35">
+      <c r="D1556" t="s">
+        <v>220</v>
+      </c>
+      <c r="E1556" t="s">
+        <v>407</v>
+      </c>
+      <c r="F1556">
+        <v>5</v>
+      </c>
+      <c r="G1556" t="s">
+        <v>88</v>
+      </c>
+      <c r="H1556" t="s">
+        <v>89</v>
+      </c>
+      <c r="I1556">
+        <v>4</v>
+      </c>
+      <c r="J1556" t="s">
+        <v>143</v>
+      </c>
+      <c r="K1556">
+        <v>5</v>
+      </c>
+      <c r="L1556" t="s">
+        <v>134</v>
+      </c>
+      <c r="M1556" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="1557" spans="4:18" x14ac:dyDescent="0.35">
+      <c r="D1557" t="s">
+        <v>220</v>
+      </c>
+      <c r="E1557" t="s">
+        <v>407</v>
+      </c>
+      <c r="F1557">
+        <v>5</v>
+      </c>
+      <c r="G1557" t="s">
+        <v>88</v>
+      </c>
+      <c r="H1557" t="s">
+        <v>89</v>
+      </c>
+      <c r="I1557">
+        <v>4</v>
+      </c>
+      <c r="J1557" t="s">
+        <v>143</v>
+      </c>
+      <c r="K1557">
+        <v>1</v>
+      </c>
+      <c r="L1557" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="1558" spans="4:18" x14ac:dyDescent="0.35">
+      <c r="D1558" t="s">
+        <v>220</v>
+      </c>
+      <c r="E1558" t="s">
+        <v>407</v>
+      </c>
+      <c r="F1558">
+        <v>5</v>
+      </c>
+      <c r="G1558" t="s">
+        <v>88</v>
+      </c>
+      <c r="H1558" t="s">
+        <v>89</v>
+      </c>
+      <c r="I1558">
+        <v>4</v>
+      </c>
+      <c r="J1558" t="s">
+        <v>143</v>
+      </c>
+      <c r="K1558">
+        <v>1</v>
+      </c>
+      <c r="L1558" t="s">
+        <v>148</v>
+      </c>
+      <c r="M1558" t="s">
+        <v>150</v>
+      </c>
+      <c r="R1558" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="1559" spans="4:18" x14ac:dyDescent="0.35">
+      <c r="D1559" t="s">
+        <v>220</v>
+      </c>
+      <c r="E1559" t="s">
+        <v>407</v>
+      </c>
+      <c r="F1559">
+        <v>5</v>
+      </c>
+      <c r="G1559" t="s">
+        <v>95</v>
+      </c>
+      <c r="H1559" t="s">
+        <v>89</v>
+      </c>
+      <c r="I1559">
+        <v>10</v>
+      </c>
+      <c r="J1559" t="s">
+        <v>382</v>
+      </c>
+      <c r="K1559">
+        <v>1</v>
+      </c>
+      <c r="L1559" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="1560" spans="4:18" x14ac:dyDescent="0.35">
+      <c r="D1560" t="s">
+        <v>220</v>
+      </c>
+      <c r="E1560" t="s">
+        <v>407</v>
+      </c>
+      <c r="F1560">
+        <v>5</v>
+      </c>
+      <c r="G1560" t="s">
+        <v>95</v>
+      </c>
+      <c r="H1560" t="s">
+        <v>96</v>
+      </c>
+      <c r="I1560">
+        <v>10</v>
+      </c>
+      <c r="J1560" t="s">
+        <v>74</v>
+      </c>
+      <c r="K1560">
+        <v>1</v>
+      </c>
+      <c r="L1560" t="s">
+        <v>99</v>
+      </c>
+      <c r="M1560" t="s">
+        <v>57</v>
+      </c>
+      <c r="N1560" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="1561" spans="4:18" x14ac:dyDescent="0.35">
+      <c r="D1561" t="s">
+        <v>220</v>
+      </c>
+      <c r="E1561" t="s">
+        <v>407</v>
+      </c>
+      <c r="F1561">
+        <v>5</v>
+      </c>
+      <c r="G1561" t="s">
+        <v>88</v>
+      </c>
+      <c r="H1561" t="s">
+        <v>89</v>
+      </c>
+      <c r="I1561">
+        <v>6</v>
+      </c>
+      <c r="J1561" t="s">
+        <v>382</v>
+      </c>
+      <c r="K1561">
+        <v>1</v>
+      </c>
+      <c r="L1561" t="s">
+        <v>99</v>
+      </c>
+      <c r="M1561" t="s">
+        <v>57</v>
+      </c>
+      <c r="N1561" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="1562" spans="4:18" x14ac:dyDescent="0.35">
+      <c r="D1562" t="s">
+        <v>220</v>
+      </c>
+      <c r="E1562" t="s">
+        <v>407</v>
+      </c>
+      <c r="F1562">
+        <v>5</v>
+      </c>
+      <c r="G1562" t="s">
+        <v>88</v>
+      </c>
+      <c r="H1562" t="s">
+        <v>89</v>
+      </c>
+      <c r="I1562">
+        <v>6</v>
+      </c>
+      <c r="J1562" t="s">
+        <v>382</v>
+      </c>
+      <c r="K1562">
+        <v>2</v>
+      </c>
+      <c r="L1562" t="s">
+        <v>148</v>
+      </c>
+      <c r="M1562" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="1563" spans="4:18" x14ac:dyDescent="0.35">
+      <c r="D1563" t="s">
+        <v>220</v>
+      </c>
+      <c r="E1563" t="s">
+        <v>407</v>
+      </c>
+      <c r="F1563">
+        <v>5</v>
+      </c>
+      <c r="G1563" t="s">
+        <v>95</v>
+      </c>
+      <c r="H1563" t="s">
+        <v>89</v>
+      </c>
+      <c r="I1563">
+        <v>8</v>
+      </c>
+      <c r="J1563" t="s">
+        <v>382</v>
+      </c>
+      <c r="K1563">
+        <v>1</v>
+      </c>
+      <c r="L1563" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="1564" spans="4:18" x14ac:dyDescent="0.35">
+      <c r="D1564" t="s">
+        <v>220</v>
+      </c>
+      <c r="E1564" t="s">
+        <v>407</v>
+      </c>
+      <c r="F1564">
+        <v>5</v>
+      </c>
+      <c r="G1564" t="s">
+        <v>95</v>
+      </c>
+      <c r="H1564" t="s">
+        <v>89</v>
+      </c>
+      <c r="I1564">
+        <v>8</v>
+      </c>
+      <c r="J1564" t="s">
+        <v>382</v>
+      </c>
+      <c r="K1564">
+        <v>2</v>
+      </c>
+      <c r="L1564" t="s">
+        <v>148</v>
+      </c>
+      <c r="M1564" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="1565" spans="4:18" x14ac:dyDescent="0.35">
+      <c r="D1565" t="s">
+        <v>220</v>
+      </c>
+      <c r="E1565" t="s">
+        <v>407</v>
+      </c>
+      <c r="F1565">
+        <v>5</v>
+      </c>
+      <c r="G1565" t="s">
+        <v>95</v>
+      </c>
+      <c r="H1565" t="s">
+        <v>89</v>
+      </c>
+      <c r="I1565">
+        <v>8</v>
+      </c>
+      <c r="J1565" t="s">
+        <v>382</v>
+      </c>
+      <c r="K1565">
+        <v>1</v>
+      </c>
+      <c r="L1565" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="1566" spans="4:18" x14ac:dyDescent="0.35">
+      <c r="D1566" t="s">
+        <v>220</v>
+      </c>
+      <c r="E1566" t="s">
+        <v>407</v>
+      </c>
+      <c r="F1566">
+        <v>5</v>
+      </c>
+      <c r="G1566" t="s">
+        <v>88</v>
+      </c>
+      <c r="H1566" t="s">
+        <v>89</v>
+      </c>
+      <c r="I1566">
+        <v>2</v>
+      </c>
+      <c r="J1566" t="s">
+        <v>74</v>
+      </c>
+      <c r="K1566">
+        <v>1</v>
+      </c>
+      <c r="L1566" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="1567" spans="4:18" x14ac:dyDescent="0.35">
+      <c r="D1567" t="s">
+        <v>220</v>
+      </c>
+      <c r="E1567" t="s">
+        <v>407</v>
+      </c>
+      <c r="F1567">
+        <v>5</v>
+      </c>
+      <c r="G1567" t="s">
+        <v>88</v>
+      </c>
+      <c r="H1567" t="s">
+        <v>89</v>
+      </c>
+      <c r="I1567">
+        <v>2</v>
+      </c>
+      <c r="J1567" t="s">
+        <v>74</v>
+      </c>
+      <c r="K1567">
+        <v>1</v>
+      </c>
+      <c r="L1567" t="s">
+        <v>134</v>
+      </c>
+      <c r="M1567" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="1568" spans="4:18" x14ac:dyDescent="0.35">
+      <c r="D1568" t="s">
+        <v>220</v>
+      </c>
+      <c r="E1568" t="s">
+        <v>407</v>
+      </c>
+      <c r="F1568">
+        <v>5</v>
+      </c>
+      <c r="G1568" t="s">
+        <v>95</v>
+      </c>
+      <c r="H1568" t="s">
+        <v>96</v>
+      </c>
+      <c r="I1568">
+        <v>2</v>
+      </c>
+      <c r="J1568" t="s">
+        <v>74</v>
+      </c>
+      <c r="K1568">
+        <v>1</v>
+      </c>
+      <c r="L1568" t="s">
+        <v>99</v>
+      </c>
+      <c r="M1568" t="s">
+        <v>57</v>
+      </c>
+      <c r="N1568" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="1569" spans="4:16" x14ac:dyDescent="0.35">
+      <c r="D1569" t="s">
+        <v>220</v>
+      </c>
+      <c r="E1569" t="s">
+        <v>407</v>
+      </c>
+      <c r="F1569">
+        <v>5</v>
+      </c>
+      <c r="G1569" t="s">
+        <v>95</v>
+      </c>
+      <c r="H1569" t="s">
+        <v>96</v>
+      </c>
+      <c r="I1569">
+        <v>4</v>
+      </c>
+      <c r="J1569" t="s">
+        <v>74</v>
+      </c>
+      <c r="K1569">
+        <v>1</v>
+      </c>
+      <c r="L1569" t="s">
+        <v>99</v>
+      </c>
+      <c r="M1569" t="s">
+        <v>57</v>
+      </c>
+      <c r="N1569" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="1570" spans="4:16" x14ac:dyDescent="0.35">
+      <c r="D1570" t="s">
+        <v>220</v>
+      </c>
+      <c r="E1570" t="s">
+        <v>407</v>
+      </c>
+      <c r="F1570">
+        <v>5</v>
+      </c>
+      <c r="G1570" t="s">
+        <v>88</v>
+      </c>
+      <c r="H1570" t="s">
+        <v>89</v>
+      </c>
+      <c r="I1570">
+        <v>1</v>
+      </c>
+      <c r="J1570" t="s">
+        <v>382</v>
+      </c>
+      <c r="K1570">
+        <v>1</v>
+      </c>
+      <c r="L1570" t="s">
+        <v>99</v>
+      </c>
+      <c r="M1570" t="s">
+        <v>57</v>
+      </c>
+      <c r="N1570" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="1571" spans="4:16" x14ac:dyDescent="0.35">
+      <c r="D1571" t="s">
+        <v>220</v>
+      </c>
+      <c r="E1571" t="s">
+        <v>407</v>
+      </c>
+      <c r="F1571">
+        <v>5</v>
+      </c>
+      <c r="G1571" t="s">
+        <v>88</v>
+      </c>
+      <c r="H1571" t="s">
+        <v>89</v>
+      </c>
+      <c r="I1571">
+        <v>1</v>
+      </c>
+      <c r="J1571" t="s">
+        <v>382</v>
+      </c>
+      <c r="K1571">
+        <v>1</v>
+      </c>
+      <c r="L1571" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="1572" spans="4:16" x14ac:dyDescent="0.35">
+      <c r="D1572" t="s">
+        <v>220</v>
+      </c>
+      <c r="E1572" t="s">
+        <v>407</v>
+      </c>
+      <c r="F1572">
+        <v>5</v>
+      </c>
+      <c r="G1572" t="s">
+        <v>88</v>
+      </c>
+      <c r="H1572" t="s">
+        <v>89</v>
+      </c>
+      <c r="I1572">
+        <v>1</v>
+      </c>
+      <c r="J1572" t="s">
+        <v>382</v>
+      </c>
+      <c r="K1572">
+        <v>1</v>
+      </c>
+      <c r="L1572" t="s">
+        <v>148</v>
+      </c>
+      <c r="M1572" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="1573" spans="4:16" x14ac:dyDescent="0.35">
+      <c r="D1573" t="s">
+        <v>220</v>
+      </c>
+      <c r="E1573" t="s">
+        <v>407</v>
+      </c>
+      <c r="F1573">
+        <v>5</v>
+      </c>
+      <c r="G1573" t="s">
+        <v>88</v>
+      </c>
+      <c r="H1573" t="s">
+        <v>89</v>
+      </c>
+      <c r="I1573">
+        <v>1</v>
+      </c>
+      <c r="J1573" t="s">
+        <v>382</v>
+      </c>
+      <c r="K1573">
+        <v>1</v>
+      </c>
+      <c r="L1573" t="s">
+        <v>251</v>
+      </c>
+      <c r="M1573" t="s">
+        <v>252</v>
+      </c>
+      <c r="P1573" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="1574" spans="4:16" x14ac:dyDescent="0.35">
+      <c r="D1574" t="s">
+        <v>220</v>
+      </c>
+      <c r="E1574" t="s">
+        <v>407</v>
+      </c>
+      <c r="F1574">
+        <v>5</v>
+      </c>
+      <c r="H1574" t="s">
+        <v>72</v>
+      </c>
+      <c r="J1574" t="s">
+        <v>74</v>
+      </c>
+      <c r="K1574">
+        <v>3</v>
+      </c>
+      <c r="L1574" t="s">
+        <v>99</v>
+      </c>
+      <c r="M1574" t="s">
+        <v>57</v>
+      </c>
+      <c r="N1574" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="1575" spans="4:16" x14ac:dyDescent="0.35">
+      <c r="D1575" t="s">
+        <v>220</v>
+      </c>
+      <c r="E1575" t="s">
+        <v>407</v>
+      </c>
+      <c r="F1575">
+        <v>5</v>
+      </c>
+      <c r="H1575" t="s">
+        <v>72</v>
+      </c>
+      <c r="J1575" t="s">
+        <v>143</v>
+      </c>
+      <c r="K1575">
+        <v>2</v>
+      </c>
+      <c r="L1575" t="s">
+        <v>148</v>
+      </c>
+      <c r="M1575" t="s">
+        <v>326</v>
+      </c>
+      <c r="P1575" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="1576" spans="4:16" x14ac:dyDescent="0.35">
+      <c r="D1576" t="s">
+        <v>220</v>
+      </c>
+      <c r="E1576" t="s">
+        <v>407</v>
+      </c>
+      <c r="F1576">
+        <v>5</v>
+      </c>
+      <c r="H1576" t="s">
+        <v>72</v>
+      </c>
+      <c r="J1576" t="s">
+        <v>143</v>
+      </c>
+      <c r="K1576">
+        <v>3</v>
+      </c>
+      <c r="L1576" t="s">
+        <v>134</v>
+      </c>
+      <c r="M1576" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="1577" spans="4:16" x14ac:dyDescent="0.35">
+      <c r="D1577" t="s">
+        <v>220</v>
+      </c>
+      <c r="E1577" t="s">
+        <v>407</v>
+      </c>
+      <c r="F1577">
+        <v>5</v>
+      </c>
+      <c r="H1577" t="s">
+        <v>72</v>
+      </c>
+      <c r="J1577" t="s">
+        <v>143</v>
+      </c>
+      <c r="K1577">
+        <v>1</v>
+      </c>
+      <c r="L1577" t="s">
+        <v>75</v>
+      </c>
+      <c r="M1577" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="1578" spans="4:16" x14ac:dyDescent="0.35">
+      <c r="D1578" t="s">
+        <v>220</v>
+      </c>
+      <c r="E1578" t="s">
+        <v>407</v>
+      </c>
+      <c r="F1578">
+        <v>5</v>
+      </c>
+      <c r="H1578" t="s">
+        <v>72</v>
+      </c>
+      <c r="J1578" t="s">
+        <v>143</v>
+      </c>
+      <c r="K1578">
+        <v>1</v>
+      </c>
+      <c r="L1578" t="s">
+        <v>134</v>
+      </c>
+      <c r="M1578" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="1579" spans="4:16" x14ac:dyDescent="0.35">
+      <c r="D1579" t="s">
+        <v>220</v>
+      </c>
+      <c r="E1579" t="s">
+        <v>407</v>
+      </c>
+      <c r="F1579">
+        <v>5</v>
+      </c>
+      <c r="H1579" t="s">
+        <v>72</v>
+      </c>
+      <c r="J1579" t="s">
+        <v>143</v>
+      </c>
+      <c r="K1579">
+        <v>1</v>
+      </c>
+      <c r="L1579" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="1580" spans="4:16" x14ac:dyDescent="0.35">
+      <c r="D1580" t="s">
+        <v>220</v>
+      </c>
+      <c r="E1580" t="s">
+        <v>407</v>
+      </c>
+      <c r="F1580">
+        <v>5</v>
+      </c>
+      <c r="H1580" t="s">
+        <v>72</v>
+      </c>
+      <c r="J1580" t="s">
+        <v>143</v>
+      </c>
+      <c r="K1580">
+        <v>1</v>
+      </c>
+      <c r="L1580" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="1581" spans="4:16" x14ac:dyDescent="0.35">
+      <c r="D1581" t="s">
+        <v>220</v>
+      </c>
+      <c r="E1581" t="s">
+        <v>407</v>
+      </c>
+      <c r="F1581">
+        <v>5</v>
+      </c>
+      <c r="G1581" t="s">
+        <v>95</v>
+      </c>
+      <c r="H1581" t="s">
+        <v>96</v>
+      </c>
+      <c r="I1581">
+        <v>1</v>
+      </c>
+      <c r="J1581" t="s">
+        <v>74</v>
+      </c>
+      <c r="K1581">
+        <v>11</v>
+      </c>
+      <c r="L1581" t="s">
+        <v>99</v>
+      </c>
+      <c r="M1581" t="s">
+        <v>57</v>
+      </c>
+      <c r="N1581" t="s">
+        <v>236</v>
       </c>
     </row>
   </sheetData>

--- a/Raw Data/Arthropod_data.xlsx
+++ b/Raw Data/Arthropod_data.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11485" uniqueCount="496">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11920" uniqueCount="508">
   <si>
     <t>location</t>
   </si>
@@ -1505,13 +1505,49 @@
     <t>Sept</t>
   </si>
   <si>
-    <t>Coal-S6-O1-SS-1</t>
+    <t>Pteromalidae?</t>
   </si>
   <si>
-    <t>Coal-S6-O1-SS-2</t>
+    <t>Eucera?</t>
   </si>
   <si>
-    <t>Pteromalidae?</t>
+    <t>CaS-Sept19-FF-1</t>
+  </si>
+  <si>
+    <t>CaS-Sept19-O5-SS-1</t>
+  </si>
+  <si>
+    <t>Coal-Sept-6-O1-SS-1</t>
+  </si>
+  <si>
+    <t>Coal-Sept-6-O1-SS-2</t>
+  </si>
+  <si>
+    <t>Curculionidae</t>
+  </si>
+  <si>
+    <t>SiCr-Sept-16-FF-1</t>
+  </si>
+  <si>
+    <t>white/black dots</t>
+  </si>
+  <si>
+    <t>Chrysomelidae?</t>
+  </si>
+  <si>
+    <t>IS - no gly</t>
+  </si>
+  <si>
+    <t>Oedipodinae?</t>
+  </si>
+  <si>
+    <t>Theriidae</t>
+  </si>
+  <si>
+    <t>spiderling</t>
+  </si>
+  <si>
+    <t>Eulophidae?</t>
   </si>
 </sst>
 </file>
@@ -1852,9 +1888,9 @@
   <dimension ref="A1:U1970"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A1707" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A1719" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="D1715" sqref="D1715:F1722"/>
+      <selection pane="bottomLeft" activeCell="C1781" sqref="C1781"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -57227,9 +57263,6 @@
       <c r="L1699" t="s">
         <v>99</v>
       </c>
-      <c r="P1699" t="s">
-        <v>135</v>
-      </c>
       <c r="Q1699" t="s">
         <v>102</v>
       </c>
@@ -57706,7 +57739,7 @@
         <v>1714</v>
       </c>
       <c r="B1713" t="s">
-        <v>493</v>
+        <v>497</v>
       </c>
       <c r="C1713" t="s">
         <v>70</v>
@@ -57750,7 +57783,7 @@
         <v>1715</v>
       </c>
       <c r="B1714" t="s">
-        <v>494</v>
+        <v>498</v>
       </c>
       <c r="C1714" t="s">
         <v>70</v>
@@ -58005,7 +58038,7 @@
         <v>75</v>
       </c>
       <c r="M1720" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
     </row>
     <row r="1721" spans="1:16" x14ac:dyDescent="0.35">
@@ -58082,348 +58115,2160 @@
       <c r="A1723">
         <v>1724</v>
       </c>
+      <c r="B1723" t="s">
+        <v>496</v>
+      </c>
+      <c r="C1723" t="s">
+        <v>70</v>
+      </c>
+      <c r="D1723" t="s">
+        <v>203</v>
+      </c>
+      <c r="E1723" t="s">
+        <v>492</v>
+      </c>
+      <c r="F1723">
+        <v>19</v>
+      </c>
+      <c r="G1723" t="s">
+        <v>95</v>
+      </c>
+      <c r="H1723" t="s">
+        <v>96</v>
+      </c>
+      <c r="I1723">
+        <v>5</v>
+      </c>
+      <c r="J1723" t="s">
+        <v>74</v>
+      </c>
+      <c r="K1723">
+        <v>1</v>
+      </c>
+      <c r="L1723" t="s">
+        <v>99</v>
+      </c>
+      <c r="M1723" t="s">
+        <v>57</v>
+      </c>
+      <c r="N1723" t="s">
+        <v>255</v>
+      </c>
     </row>
     <row r="1724" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A1724">
         <v>1725</v>
       </c>
+      <c r="D1724" t="s">
+        <v>203</v>
+      </c>
+      <c r="E1724" t="s">
+        <v>492</v>
+      </c>
+      <c r="F1724">
+        <v>19</v>
+      </c>
+      <c r="G1724" t="s">
+        <v>95</v>
+      </c>
+      <c r="H1724" t="s">
+        <v>72</v>
+      </c>
+      <c r="J1724" t="s">
+        <v>74</v>
+      </c>
+      <c r="K1724">
+        <v>2</v>
+      </c>
+      <c r="L1724" t="s">
+        <v>99</v>
+      </c>
+      <c r="M1724" t="s">
+        <v>57</v>
+      </c>
+      <c r="N1724" t="s">
+        <v>255</v>
+      </c>
     </row>
     <row r="1725" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A1725">
         <v>1726</v>
       </c>
+      <c r="D1725" t="s">
+        <v>203</v>
+      </c>
+      <c r="E1725" t="s">
+        <v>492</v>
+      </c>
+      <c r="F1725">
+        <v>19</v>
+      </c>
+      <c r="G1725" t="s">
+        <v>95</v>
+      </c>
+      <c r="H1725" t="s">
+        <v>72</v>
+      </c>
+      <c r="J1725" t="s">
+        <v>74</v>
+      </c>
+      <c r="K1725">
+        <v>1</v>
+      </c>
+      <c r="L1725" t="s">
+        <v>99</v>
+      </c>
+      <c r="M1725" t="s">
+        <v>57</v>
+      </c>
+      <c r="N1725" t="s">
+        <v>248</v>
+      </c>
     </row>
     <row r="1726" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A1726">
         <v>1727</v>
       </c>
+      <c r="B1726" t="s">
+        <v>495</v>
+      </c>
+      <c r="D1726" t="s">
+        <v>203</v>
+      </c>
+      <c r="E1726" t="s">
+        <v>492</v>
+      </c>
+      <c r="F1726">
+        <v>19</v>
+      </c>
+      <c r="G1726" t="s">
+        <v>95</v>
+      </c>
+      <c r="H1726" t="s">
+        <v>72</v>
+      </c>
+      <c r="J1726" t="s">
+        <v>74</v>
+      </c>
+      <c r="K1726">
+        <v>1</v>
+      </c>
+      <c r="L1726" t="s">
+        <v>75</v>
+      </c>
+      <c r="M1726" t="s">
+        <v>288</v>
+      </c>
+      <c r="P1726" t="s">
+        <v>494</v>
+      </c>
     </row>
     <row r="1727" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A1727">
         <v>1728</v>
       </c>
+      <c r="D1727" t="s">
+        <v>203</v>
+      </c>
+      <c r="E1727" t="s">
+        <v>492</v>
+      </c>
+      <c r="F1727">
+        <v>19</v>
+      </c>
+      <c r="G1727" t="s">
+        <v>95</v>
+      </c>
+      <c r="H1727" t="s">
+        <v>96</v>
+      </c>
+      <c r="I1727">
+        <v>10</v>
+      </c>
+      <c r="J1727" t="s">
+        <v>74</v>
+      </c>
+      <c r="K1727">
+        <v>1</v>
+      </c>
+      <c r="L1727" t="s">
+        <v>99</v>
+      </c>
+      <c r="M1727" t="s">
+        <v>57</v>
+      </c>
+      <c r="N1727" t="s">
+        <v>255</v>
+      </c>
     </row>
     <row r="1728" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A1728">
         <v>1729</v>
       </c>
-    </row>
-    <row r="1729" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="D1728" t="s">
+        <v>203</v>
+      </c>
+      <c r="E1728" t="s">
+        <v>492</v>
+      </c>
+      <c r="F1728">
+        <v>19</v>
+      </c>
+      <c r="G1728" t="s">
+        <v>95</v>
+      </c>
+      <c r="H1728" t="s">
+        <v>96</v>
+      </c>
+      <c r="I1728">
+        <v>2</v>
+      </c>
+      <c r="J1728" t="s">
+        <v>74</v>
+      </c>
+      <c r="K1728">
+        <v>1</v>
+      </c>
+      <c r="L1728" t="s">
+        <v>99</v>
+      </c>
+      <c r="M1728" t="s">
+        <v>57</v>
+      </c>
+      <c r="N1728" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="1729" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A1729">
         <v>1730</v>
       </c>
-    </row>
-    <row r="1730" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="D1729" t="s">
+        <v>203</v>
+      </c>
+      <c r="E1729" t="s">
+        <v>492</v>
+      </c>
+      <c r="F1729">
+        <v>19</v>
+      </c>
+      <c r="G1729" t="s">
+        <v>95</v>
+      </c>
+      <c r="H1729" t="s">
+        <v>96</v>
+      </c>
+      <c r="I1729">
+        <v>2</v>
+      </c>
+      <c r="J1729" t="s">
+        <v>380</v>
+      </c>
+      <c r="K1729">
+        <v>1</v>
+      </c>
+      <c r="L1729" t="s">
+        <v>75</v>
+      </c>
+      <c r="M1729" t="s">
+        <v>145</v>
+      </c>
+      <c r="P1729" t="s">
+        <v>146</v>
+      </c>
+      <c r="Q1729" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="1730" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A1730">
         <v>1731</v>
       </c>
-    </row>
-    <row r="1731" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="D1730" t="s">
+        <v>203</v>
+      </c>
+      <c r="E1730" t="s">
+        <v>492</v>
+      </c>
+      <c r="F1730">
+        <v>19</v>
+      </c>
+      <c r="G1730" t="s">
+        <v>95</v>
+      </c>
+      <c r="H1730" t="s">
+        <v>96</v>
+      </c>
+      <c r="I1730">
+        <v>7</v>
+      </c>
+      <c r="J1730" t="s">
+        <v>74</v>
+      </c>
+      <c r="K1730">
+        <v>1</v>
+      </c>
+      <c r="L1730" t="s">
+        <v>79</v>
+      </c>
+      <c r="M1730" t="s">
+        <v>80</v>
+      </c>
+      <c r="P1730" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="1731" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A1731">
         <v>1732</v>
       </c>
-    </row>
-    <row r="1732" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="D1731" t="s">
+        <v>203</v>
+      </c>
+      <c r="E1731" t="s">
+        <v>492</v>
+      </c>
+      <c r="F1731">
+        <v>19</v>
+      </c>
+      <c r="G1731" t="s">
+        <v>95</v>
+      </c>
+      <c r="H1731" t="s">
+        <v>89</v>
+      </c>
+      <c r="I1731">
+        <v>3</v>
+      </c>
+      <c r="J1731" t="s">
+        <v>143</v>
+      </c>
+      <c r="K1731">
+        <v>1</v>
+      </c>
+      <c r="L1731" t="s">
+        <v>75</v>
+      </c>
+      <c r="M1731" t="s">
+        <v>77</v>
+      </c>
+      <c r="P1731" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="1732" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A1732">
         <v>1733</v>
       </c>
-    </row>
-    <row r="1733" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="D1732" t="s">
+        <v>203</v>
+      </c>
+      <c r="E1732" t="s">
+        <v>492</v>
+      </c>
+      <c r="F1732">
+        <v>19</v>
+      </c>
+      <c r="G1732" t="s">
+        <v>95</v>
+      </c>
+      <c r="H1732" t="s">
+        <v>89</v>
+      </c>
+      <c r="I1732">
+        <v>6</v>
+      </c>
+      <c r="J1732" t="s">
+        <v>143</v>
+      </c>
+      <c r="K1732">
+        <v>1</v>
+      </c>
+      <c r="L1732" t="s">
+        <v>148</v>
+      </c>
+      <c r="M1732" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="1733" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A1733">
         <v>1734</v>
       </c>
-    </row>
-    <row r="1734" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="D1733" t="s">
+        <v>203</v>
+      </c>
+      <c r="E1733" t="s">
+        <v>492</v>
+      </c>
+      <c r="F1733">
+        <v>19</v>
+      </c>
+      <c r="G1733" t="s">
+        <v>88</v>
+      </c>
+      <c r="H1733" t="s">
+        <v>89</v>
+      </c>
+      <c r="I1733">
+        <v>5</v>
+      </c>
+      <c r="J1733" t="s">
+        <v>143</v>
+      </c>
+      <c r="K1733">
+        <v>1</v>
+      </c>
+      <c r="L1733" t="s">
+        <v>134</v>
+      </c>
+      <c r="M1733" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="1734" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A1734">
         <v>1735</v>
       </c>
-    </row>
-    <row r="1735" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="D1734" t="s">
+        <v>203</v>
+      </c>
+      <c r="E1734" t="s">
+        <v>492</v>
+      </c>
+      <c r="F1734">
+        <v>19</v>
+      </c>
+      <c r="G1734" t="s">
+        <v>88</v>
+      </c>
+      <c r="H1734" t="s">
+        <v>89</v>
+      </c>
+      <c r="I1734">
+        <v>5</v>
+      </c>
+      <c r="J1734" t="s">
+        <v>143</v>
+      </c>
+      <c r="K1734">
+        <v>1</v>
+      </c>
+      <c r="L1734" t="s">
+        <v>79</v>
+      </c>
+      <c r="M1734" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="1735" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A1735">
         <v>1736</v>
       </c>
-    </row>
-    <row r="1736" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="D1735" t="s">
+        <v>203</v>
+      </c>
+      <c r="E1735" t="s">
+        <v>492</v>
+      </c>
+      <c r="F1735">
+        <v>19</v>
+      </c>
+      <c r="G1735" t="s">
+        <v>88</v>
+      </c>
+      <c r="H1735" t="s">
+        <v>89</v>
+      </c>
+      <c r="I1735">
+        <v>10</v>
+      </c>
+      <c r="J1735" t="s">
+        <v>143</v>
+      </c>
+      <c r="K1735">
+        <v>1</v>
+      </c>
+      <c r="L1735" t="s">
+        <v>148</v>
+      </c>
+      <c r="M1735" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="1736" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A1736">
         <v>1737</v>
       </c>
-    </row>
-    <row r="1737" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="D1736" t="s">
+        <v>203</v>
+      </c>
+      <c r="E1736" t="s">
+        <v>492</v>
+      </c>
+      <c r="F1736">
+        <v>19</v>
+      </c>
+      <c r="G1736" t="s">
+        <v>95</v>
+      </c>
+      <c r="H1736" t="s">
+        <v>89</v>
+      </c>
+      <c r="I1736">
+        <v>8</v>
+      </c>
+      <c r="J1736" t="s">
+        <v>143</v>
+      </c>
+      <c r="K1736">
+        <v>12</v>
+      </c>
+      <c r="L1736" t="s">
+        <v>79</v>
+      </c>
+      <c r="M1736" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="1737" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A1737">
         <v>1738</v>
       </c>
-    </row>
-    <row r="1738" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="D1737" t="s">
+        <v>203</v>
+      </c>
+      <c r="E1737" t="s">
+        <v>492</v>
+      </c>
+      <c r="F1737">
+        <v>19</v>
+      </c>
+      <c r="G1737" t="s">
+        <v>95</v>
+      </c>
+      <c r="H1737" t="s">
+        <v>89</v>
+      </c>
+      <c r="I1737">
+        <v>8</v>
+      </c>
+      <c r="J1737" t="s">
+        <v>143</v>
+      </c>
+      <c r="K1737">
+        <v>1</v>
+      </c>
+      <c r="L1737" t="s">
+        <v>134</v>
+      </c>
+      <c r="M1737" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="1738" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A1738">
         <v>1739</v>
       </c>
-    </row>
-    <row r="1739" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="D1738" t="s">
+        <v>203</v>
+      </c>
+      <c r="E1738" t="s">
+        <v>492</v>
+      </c>
+      <c r="F1738">
+        <v>19</v>
+      </c>
+      <c r="G1738" t="s">
+        <v>95</v>
+      </c>
+      <c r="H1738" t="s">
+        <v>89</v>
+      </c>
+      <c r="I1738">
+        <v>8</v>
+      </c>
+      <c r="J1738" t="s">
+        <v>143</v>
+      </c>
+      <c r="K1738">
+        <v>1</v>
+      </c>
+      <c r="L1738" t="s">
+        <v>148</v>
+      </c>
+      <c r="M1738" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="1739" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A1739">
         <v>1740</v>
       </c>
-    </row>
-    <row r="1740" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="D1739" t="s">
+        <v>203</v>
+      </c>
+      <c r="E1739" t="s">
+        <v>492</v>
+      </c>
+      <c r="F1739">
+        <v>19</v>
+      </c>
+      <c r="G1739" t="s">
+        <v>95</v>
+      </c>
+      <c r="H1739" t="s">
+        <v>89</v>
+      </c>
+      <c r="I1739">
+        <v>7</v>
+      </c>
+      <c r="J1739" t="s">
+        <v>143</v>
+      </c>
+      <c r="K1739">
+        <v>2</v>
+      </c>
+      <c r="L1739" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="1740" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A1740">
         <v>1741</v>
       </c>
-    </row>
-    <row r="1741" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="D1740" t="s">
+        <v>203</v>
+      </c>
+      <c r="E1740" t="s">
+        <v>492</v>
+      </c>
+      <c r="F1740">
+        <v>19</v>
+      </c>
+      <c r="G1740" t="s">
+        <v>95</v>
+      </c>
+      <c r="H1740" t="s">
+        <v>89</v>
+      </c>
+      <c r="I1740">
+        <v>7</v>
+      </c>
+      <c r="J1740" t="s">
+        <v>143</v>
+      </c>
+      <c r="K1740">
+        <v>2</v>
+      </c>
+      <c r="L1740" t="s">
+        <v>79</v>
+      </c>
+      <c r="M1740" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="1741" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A1741">
         <v>1742</v>
       </c>
-    </row>
-    <row r="1742" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="D1741" t="s">
+        <v>203</v>
+      </c>
+      <c r="E1741" t="s">
+        <v>492</v>
+      </c>
+      <c r="F1741">
+        <v>19</v>
+      </c>
+      <c r="G1741" t="s">
+        <v>95</v>
+      </c>
+      <c r="H1741" t="s">
+        <v>89</v>
+      </c>
+      <c r="I1741">
+        <v>7</v>
+      </c>
+      <c r="J1741" t="s">
+        <v>143</v>
+      </c>
+      <c r="K1741">
+        <v>1</v>
+      </c>
+      <c r="L1741" t="s">
+        <v>148</v>
+      </c>
+      <c r="M1741" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="1742" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A1742">
         <v>1743</v>
       </c>
-    </row>
-    <row r="1743" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="D1742" t="s">
+        <v>203</v>
+      </c>
+      <c r="E1742" t="s">
+        <v>492</v>
+      </c>
+      <c r="F1742">
+        <v>19</v>
+      </c>
+      <c r="G1742" t="s">
+        <v>95</v>
+      </c>
+      <c r="H1742" t="s">
+        <v>89</v>
+      </c>
+      <c r="I1742">
+        <v>9</v>
+      </c>
+      <c r="J1742" t="s">
+        <v>74</v>
+      </c>
+      <c r="K1742">
+        <v>1</v>
+      </c>
+      <c r="L1742" t="s">
+        <v>99</v>
+      </c>
+      <c r="M1742" t="s">
+        <v>57</v>
+      </c>
+      <c r="N1742" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="1743" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A1743">
         <v>1744</v>
       </c>
-    </row>
-    <row r="1744" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="D1743" t="s">
+        <v>203</v>
+      </c>
+      <c r="E1743" t="s">
+        <v>492</v>
+      </c>
+      <c r="F1743">
+        <v>19</v>
+      </c>
+      <c r="G1743" t="s">
+        <v>95</v>
+      </c>
+      <c r="H1743" t="s">
+        <v>89</v>
+      </c>
+      <c r="I1743">
+        <v>9</v>
+      </c>
+      <c r="J1743" t="s">
+        <v>143</v>
+      </c>
+      <c r="K1743">
+        <v>3</v>
+      </c>
+      <c r="L1743" t="s">
+        <v>148</v>
+      </c>
+      <c r="M1743" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="1744" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A1744">
         <v>1745</v>
       </c>
-    </row>
-    <row r="1745" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="D1744" t="s">
+        <v>71</v>
+      </c>
+      <c r="E1744" t="s">
+        <v>492</v>
+      </c>
+      <c r="F1744">
+        <v>14</v>
+      </c>
+      <c r="H1744" t="s">
+        <v>72</v>
+      </c>
+      <c r="J1744" t="s">
+        <v>143</v>
+      </c>
+      <c r="K1744">
+        <v>1</v>
+      </c>
+      <c r="L1744" t="s">
+        <v>134</v>
+      </c>
+      <c r="M1744" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="1745" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A1745">
         <v>1746</v>
       </c>
-    </row>
-    <row r="1746" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B1745" t="s">
+        <v>500</v>
+      </c>
+      <c r="C1745" t="s">
+        <v>70</v>
+      </c>
+      <c r="D1745" t="s">
+        <v>71</v>
+      </c>
+      <c r="E1745" t="s">
+        <v>492</v>
+      </c>
+      <c r="F1745">
+        <v>14</v>
+      </c>
+      <c r="H1745" t="s">
+        <v>72</v>
+      </c>
+      <c r="J1745" t="s">
+        <v>74</v>
+      </c>
+      <c r="K1745">
+        <v>1</v>
+      </c>
+      <c r="L1745" t="s">
+        <v>75</v>
+      </c>
+      <c r="M1745" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="1746" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A1746">
         <v>1747</v>
       </c>
-    </row>
-    <row r="1747" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="D1746" t="s">
+        <v>265</v>
+      </c>
+      <c r="E1746" t="s">
+        <v>492</v>
+      </c>
+      <c r="F1746">
+        <v>18</v>
+      </c>
+      <c r="G1746" t="s">
+        <v>95</v>
+      </c>
+      <c r="H1746" t="s">
+        <v>89</v>
+      </c>
+      <c r="I1746">
+        <v>10</v>
+      </c>
+      <c r="J1746" t="s">
+        <v>143</v>
+      </c>
+      <c r="K1746">
+        <v>1</v>
+      </c>
+      <c r="L1746" t="s">
+        <v>148</v>
+      </c>
+      <c r="R1746" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="1747" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A1747">
         <v>1748</v>
       </c>
-    </row>
-    <row r="1748" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="D1747" t="s">
+        <v>265</v>
+      </c>
+      <c r="E1747" t="s">
+        <v>492</v>
+      </c>
+      <c r="F1747">
+        <v>18</v>
+      </c>
+      <c r="G1747" t="s">
+        <v>95</v>
+      </c>
+      <c r="H1747" t="s">
+        <v>89</v>
+      </c>
+      <c r="I1747">
+        <v>5</v>
+      </c>
+      <c r="J1747" t="s">
+        <v>380</v>
+      </c>
+      <c r="K1747">
+        <v>1</v>
+      </c>
+      <c r="L1747" t="s">
+        <v>148</v>
+      </c>
+      <c r="M1747" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="1748" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A1748">
         <v>1749</v>
       </c>
-    </row>
-    <row r="1749" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="D1748" t="s">
+        <v>265</v>
+      </c>
+      <c r="E1748" t="s">
+        <v>492</v>
+      </c>
+      <c r="F1748">
+        <v>18</v>
+      </c>
+      <c r="G1748" t="s">
+        <v>95</v>
+      </c>
+      <c r="H1748" t="s">
+        <v>89</v>
+      </c>
+      <c r="I1748">
+        <v>7</v>
+      </c>
+      <c r="J1748" t="s">
+        <v>380</v>
+      </c>
+      <c r="K1748">
+        <v>1</v>
+      </c>
+      <c r="L1748" t="s">
+        <v>148</v>
+      </c>
+      <c r="M1748" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="1749" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A1749">
         <v>1750</v>
       </c>
-    </row>
-    <row r="1750" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="D1749" t="s">
+        <v>265</v>
+      </c>
+      <c r="E1749" t="s">
+        <v>492</v>
+      </c>
+      <c r="F1749">
+        <v>18</v>
+      </c>
+      <c r="H1749" t="s">
+        <v>72</v>
+      </c>
+      <c r="J1749" t="s">
+        <v>74</v>
+      </c>
+      <c r="K1749">
+        <v>1</v>
+      </c>
+      <c r="L1749" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="1750" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A1750">
         <v>1751</v>
       </c>
-    </row>
-    <row r="1751" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="D1750" t="s">
+        <v>220</v>
+      </c>
+      <c r="E1750" t="s">
+        <v>492</v>
+      </c>
+      <c r="F1750">
+        <v>23</v>
+      </c>
+      <c r="G1750" t="s">
+        <v>88</v>
+      </c>
+      <c r="H1750" t="s">
+        <v>89</v>
+      </c>
+      <c r="I1750">
+        <v>2</v>
+      </c>
+      <c r="J1750" t="s">
+        <v>74</v>
+      </c>
+      <c r="K1750">
+        <v>4</v>
+      </c>
+      <c r="L1750" t="s">
+        <v>99</v>
+      </c>
+      <c r="M1750" t="s">
+        <v>57</v>
+      </c>
+      <c r="N1750" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="1751" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A1751">
         <v>1752</v>
       </c>
-    </row>
-    <row r="1752" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="D1751" t="s">
+        <v>220</v>
+      </c>
+      <c r="E1751" t="s">
+        <v>492</v>
+      </c>
+      <c r="F1751">
+        <v>23</v>
+      </c>
+      <c r="G1751" t="s">
+        <v>88</v>
+      </c>
+      <c r="H1751" t="s">
+        <v>89</v>
+      </c>
+      <c r="J1751" t="s">
+        <v>380</v>
+      </c>
+      <c r="K1751">
+        <v>1</v>
+      </c>
+      <c r="L1751" t="s">
+        <v>134</v>
+      </c>
+      <c r="R1751" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="1752" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A1752">
         <v>1753</v>
       </c>
-    </row>
-    <row r="1753" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="D1752" t="s">
+        <v>220</v>
+      </c>
+      <c r="E1752" t="s">
+        <v>492</v>
+      </c>
+      <c r="F1752">
+        <v>23</v>
+      </c>
+      <c r="G1752" t="s">
+        <v>88</v>
+      </c>
+      <c r="H1752" t="s">
+        <v>89</v>
+      </c>
+      <c r="J1752" t="s">
+        <v>380</v>
+      </c>
+      <c r="K1752">
+        <v>1</v>
+      </c>
+      <c r="L1752" t="s">
+        <v>148</v>
+      </c>
+      <c r="M1752" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="1753" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A1753">
         <v>1754</v>
       </c>
-    </row>
-    <row r="1754" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="D1753" t="s">
+        <v>220</v>
+      </c>
+      <c r="E1753" t="s">
+        <v>492</v>
+      </c>
+      <c r="F1753">
+        <v>23</v>
+      </c>
+      <c r="G1753" t="s">
+        <v>88</v>
+      </c>
+      <c r="H1753" t="s">
+        <v>89</v>
+      </c>
+      <c r="J1753" t="s">
+        <v>380</v>
+      </c>
+      <c r="K1753">
+        <v>1</v>
+      </c>
+      <c r="L1753" t="s">
+        <v>79</v>
+      </c>
+      <c r="M1753" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="1754" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A1754">
         <v>1755</v>
       </c>
-    </row>
-    <row r="1755" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="D1754" t="s">
+        <v>220</v>
+      </c>
+      <c r="E1754" t="s">
+        <v>492</v>
+      </c>
+      <c r="F1754">
+        <v>23</v>
+      </c>
+      <c r="G1754" t="s">
+        <v>88</v>
+      </c>
+      <c r="H1754" t="s">
+        <v>89</v>
+      </c>
+      <c r="I1754">
+        <v>9</v>
+      </c>
+      <c r="J1754" t="s">
+        <v>74</v>
+      </c>
+      <c r="K1754">
+        <v>3</v>
+      </c>
+      <c r="L1754" t="s">
+        <v>99</v>
+      </c>
+      <c r="M1754" t="s">
+        <v>57</v>
+      </c>
+      <c r="N1754" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="1755" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A1755">
         <v>1756</v>
       </c>
-    </row>
-    <row r="1756" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="D1755" t="s">
+        <v>220</v>
+      </c>
+      <c r="E1755" t="s">
+        <v>492</v>
+      </c>
+      <c r="F1755">
+        <v>23</v>
+      </c>
+      <c r="G1755" t="s">
+        <v>88</v>
+      </c>
+      <c r="H1755" t="s">
+        <v>89</v>
+      </c>
+      <c r="I1755">
+        <v>9</v>
+      </c>
+      <c r="J1755" t="s">
+        <v>143</v>
+      </c>
+      <c r="K1755">
+        <v>1</v>
+      </c>
+      <c r="L1755" t="s">
+        <v>79</v>
+      </c>
+      <c r="M1755" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="1756" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A1756">
         <v>1757</v>
       </c>
-    </row>
-    <row r="1757" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="D1756" t="s">
+        <v>220</v>
+      </c>
+      <c r="E1756" t="s">
+        <v>492</v>
+      </c>
+      <c r="F1756">
+        <v>23</v>
+      </c>
+      <c r="G1756" t="s">
+        <v>88</v>
+      </c>
+      <c r="H1756" t="s">
+        <v>89</v>
+      </c>
+      <c r="I1756">
+        <v>9</v>
+      </c>
+      <c r="J1756" t="s">
+        <v>143</v>
+      </c>
+      <c r="K1756">
+        <v>2</v>
+      </c>
+      <c r="L1756" t="s">
+        <v>134</v>
+      </c>
+      <c r="R1756" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="1757" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A1757">
         <v>1758</v>
       </c>
-    </row>
-    <row r="1758" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="D1757" t="s">
+        <v>220</v>
+      </c>
+      <c r="E1757" t="s">
+        <v>492</v>
+      </c>
+      <c r="F1757">
+        <v>23</v>
+      </c>
+      <c r="G1757" t="s">
+        <v>88</v>
+      </c>
+      <c r="H1757" t="s">
+        <v>89</v>
+      </c>
+      <c r="I1757">
+        <v>9</v>
+      </c>
+      <c r="J1757" t="s">
+        <v>143</v>
+      </c>
+      <c r="K1757">
+        <v>1</v>
+      </c>
+      <c r="L1757" t="s">
+        <v>148</v>
+      </c>
+      <c r="M1757" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="1758" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A1758">
         <v>1759</v>
       </c>
-    </row>
-    <row r="1759" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="D1758" t="s">
+        <v>220</v>
+      </c>
+      <c r="E1758" t="s">
+        <v>492</v>
+      </c>
+      <c r="F1758">
+        <v>23</v>
+      </c>
+      <c r="G1758" t="s">
+        <v>88</v>
+      </c>
+      <c r="H1758" t="s">
+        <v>89</v>
+      </c>
+      <c r="I1758">
+        <v>19</v>
+      </c>
+      <c r="J1758" t="s">
+        <v>143</v>
+      </c>
+      <c r="K1758">
+        <v>4</v>
+      </c>
+      <c r="L1758" t="s">
+        <v>148</v>
+      </c>
+      <c r="M1758" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="1759" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A1759">
         <v>1760</v>
       </c>
-    </row>
-    <row r="1760" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="D1759" t="s">
+        <v>220</v>
+      </c>
+      <c r="E1759" t="s">
+        <v>492</v>
+      </c>
+      <c r="F1759">
+        <v>23</v>
+      </c>
+      <c r="G1759" t="s">
+        <v>88</v>
+      </c>
+      <c r="H1759" t="s">
+        <v>89</v>
+      </c>
+      <c r="I1759">
+        <v>19</v>
+      </c>
+      <c r="J1759" t="s">
+        <v>143</v>
+      </c>
+      <c r="K1759">
+        <v>1</v>
+      </c>
+      <c r="L1759" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="1760" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A1760">
         <v>1761</v>
       </c>
-    </row>
-    <row r="1761" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="D1760" t="s">
+        <v>220</v>
+      </c>
+      <c r="E1760" t="s">
+        <v>492</v>
+      </c>
+      <c r="F1760">
+        <v>23</v>
+      </c>
+      <c r="G1760" t="s">
+        <v>88</v>
+      </c>
+      <c r="H1760" t="s">
+        <v>89</v>
+      </c>
+      <c r="I1760">
+        <v>19</v>
+      </c>
+      <c r="J1760" t="s">
+        <v>143</v>
+      </c>
+      <c r="K1760">
+        <v>1</v>
+      </c>
+      <c r="L1760" t="s">
+        <v>134</v>
+      </c>
+      <c r="M1760" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="1761" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A1761">
         <v>1762</v>
       </c>
-    </row>
-    <row r="1762" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="D1761" t="s">
+        <v>220</v>
+      </c>
+      <c r="E1761" t="s">
+        <v>492</v>
+      </c>
+      <c r="F1761">
+        <v>23</v>
+      </c>
+      <c r="G1761" t="s">
+        <v>88</v>
+      </c>
+      <c r="H1761" t="s">
+        <v>89</v>
+      </c>
+      <c r="I1761">
+        <v>19</v>
+      </c>
+      <c r="J1761" t="s">
+        <v>143</v>
+      </c>
+      <c r="K1761">
+        <v>1</v>
+      </c>
+      <c r="L1761" t="s">
+        <v>75</v>
+      </c>
+      <c r="M1761" t="s">
+        <v>145</v>
+      </c>
+      <c r="P1761" t="s">
+        <v>146</v>
+      </c>
+      <c r="Q1761" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="1762" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A1762">
         <v>1763</v>
       </c>
-    </row>
-    <row r="1763" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="D1762" t="s">
+        <v>220</v>
+      </c>
+      <c r="E1762" t="s">
+        <v>492</v>
+      </c>
+      <c r="F1762">
+        <v>23</v>
+      </c>
+      <c r="G1762" t="s">
+        <v>88</v>
+      </c>
+      <c r="H1762" t="s">
+        <v>89</v>
+      </c>
+      <c r="I1762">
+        <v>5</v>
+      </c>
+      <c r="J1762" t="s">
+        <v>74</v>
+      </c>
+      <c r="K1762">
+        <v>1</v>
+      </c>
+      <c r="L1762" t="s">
+        <v>99</v>
+      </c>
+      <c r="M1762" t="s">
+        <v>57</v>
+      </c>
+      <c r="N1762" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="1763" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A1763">
         <v>1764</v>
       </c>
-    </row>
-    <row r="1764" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="D1763" t="s">
+        <v>220</v>
+      </c>
+      <c r="E1763" t="s">
+        <v>492</v>
+      </c>
+      <c r="F1763">
+        <v>23</v>
+      </c>
+      <c r="G1763" t="s">
+        <v>88</v>
+      </c>
+      <c r="H1763" t="s">
+        <v>89</v>
+      </c>
+      <c r="I1763">
+        <v>1</v>
+      </c>
+      <c r="J1763" t="s">
+        <v>143</v>
+      </c>
+      <c r="K1763">
+        <v>1</v>
+      </c>
+      <c r="L1763" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="1764" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A1764">
         <v>1765</v>
       </c>
-    </row>
-    <row r="1765" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="D1764" t="s">
+        <v>220</v>
+      </c>
+      <c r="E1764" t="s">
+        <v>492</v>
+      </c>
+      <c r="F1764">
+        <v>23</v>
+      </c>
+      <c r="H1764" t="s">
+        <v>72</v>
+      </c>
+      <c r="J1764" t="s">
+        <v>503</v>
+      </c>
+      <c r="K1764">
+        <v>1</v>
+      </c>
+      <c r="L1764" t="s">
+        <v>99</v>
+      </c>
+      <c r="M1764" t="s">
+        <v>57</v>
+      </c>
+      <c r="N1764" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="1765" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A1765">
         <v>1766</v>
       </c>
-    </row>
-    <row r="1766" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="D1765" t="s">
+        <v>220</v>
+      </c>
+      <c r="E1765" t="s">
+        <v>492</v>
+      </c>
+      <c r="F1765">
+        <v>23</v>
+      </c>
+      <c r="H1765" t="s">
+        <v>72</v>
+      </c>
+      <c r="J1765" t="s">
+        <v>503</v>
+      </c>
+      <c r="K1765">
+        <v>2</v>
+      </c>
+      <c r="L1765" t="s">
+        <v>134</v>
+      </c>
+      <c r="M1765" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="1766" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A1766">
         <v>1767</v>
       </c>
-    </row>
-    <row r="1767" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="D1766" t="s">
+        <v>220</v>
+      </c>
+      <c r="E1766" t="s">
+        <v>492</v>
+      </c>
+      <c r="F1766">
+        <v>23</v>
+      </c>
+      <c r="H1766" t="s">
+        <v>72</v>
+      </c>
+      <c r="J1766" t="s">
+        <v>503</v>
+      </c>
+      <c r="K1766">
+        <v>1</v>
+      </c>
+      <c r="L1766" t="s">
+        <v>148</v>
+      </c>
+      <c r="M1766" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="1767" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A1767">
         <v>1768</v>
       </c>
-    </row>
-    <row r="1768" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="D1767" t="s">
+        <v>220</v>
+      </c>
+      <c r="E1767" t="s">
+        <v>492</v>
+      </c>
+      <c r="F1767">
+        <v>23</v>
+      </c>
+      <c r="G1767" t="s">
+        <v>88</v>
+      </c>
+      <c r="H1767" t="s">
+        <v>89</v>
+      </c>
+      <c r="I1767">
+        <v>8</v>
+      </c>
+      <c r="J1767" t="s">
+        <v>143</v>
+      </c>
+      <c r="K1767">
+        <v>1</v>
+      </c>
+      <c r="L1767" t="s">
+        <v>79</v>
+      </c>
+      <c r="M1767" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="1768" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A1768">
         <v>1769</v>
       </c>
-    </row>
-    <row r="1769" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="D1768" t="s">
+        <v>220</v>
+      </c>
+      <c r="E1768" t="s">
+        <v>492</v>
+      </c>
+      <c r="F1768">
+        <v>23</v>
+      </c>
+      <c r="G1768" t="s">
+        <v>88</v>
+      </c>
+      <c r="H1768" t="s">
+        <v>89</v>
+      </c>
+      <c r="I1768">
+        <v>8</v>
+      </c>
+      <c r="J1768" t="s">
+        <v>74</v>
+      </c>
+      <c r="K1768">
+        <v>2</v>
+      </c>
+      <c r="L1768" t="s">
+        <v>99</v>
+      </c>
+      <c r="M1768" t="s">
+        <v>57</v>
+      </c>
+      <c r="N1768" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="1769" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A1769">
         <v>1770</v>
       </c>
-    </row>
-    <row r="1770" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="D1769" t="s">
+        <v>220</v>
+      </c>
+      <c r="E1769" t="s">
+        <v>492</v>
+      </c>
+      <c r="F1769">
+        <v>23</v>
+      </c>
+      <c r="G1769" t="s">
+        <v>95</v>
+      </c>
+      <c r="H1769" t="s">
+        <v>89</v>
+      </c>
+      <c r="I1769">
+        <v>7</v>
+      </c>
+      <c r="J1769" t="s">
+        <v>143</v>
+      </c>
+      <c r="K1769">
+        <v>1</v>
+      </c>
+      <c r="L1769" t="s">
+        <v>61</v>
+      </c>
+      <c r="M1769" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="1770" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A1770">
         <v>1771</v>
       </c>
-    </row>
-    <row r="1771" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="D1770" t="s">
+        <v>220</v>
+      </c>
+      <c r="E1770" t="s">
+        <v>492</v>
+      </c>
+      <c r="F1770">
+        <v>23</v>
+      </c>
+      <c r="G1770" t="s">
+        <v>95</v>
+      </c>
+      <c r="H1770" t="s">
+        <v>89</v>
+      </c>
+      <c r="I1770">
+        <v>10</v>
+      </c>
+      <c r="J1770" t="s">
+        <v>74</v>
+      </c>
+      <c r="K1770">
+        <v>1</v>
+      </c>
+      <c r="L1770" t="s">
+        <v>99</v>
+      </c>
+      <c r="M1770" t="s">
+        <v>57</v>
+      </c>
+      <c r="N1770" t="s">
+        <v>504</v>
+      </c>
+      <c r="R1770" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="1771" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A1771">
         <v>1772</v>
       </c>
-    </row>
-    <row r="1772" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="D1771" t="s">
+        <v>220</v>
+      </c>
+      <c r="E1771" t="s">
+        <v>492</v>
+      </c>
+      <c r="F1771">
+        <v>23</v>
+      </c>
+      <c r="G1771" t="s">
+        <v>95</v>
+      </c>
+      <c r="H1771" t="s">
+        <v>96</v>
+      </c>
+      <c r="I1771">
+        <v>4</v>
+      </c>
+      <c r="J1771" t="s">
+        <v>74</v>
+      </c>
+      <c r="K1771">
+        <v>1</v>
+      </c>
+      <c r="L1771" t="s">
+        <v>99</v>
+      </c>
+      <c r="M1771" t="s">
+        <v>57</v>
+      </c>
+      <c r="N1771" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="1772" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A1772">
         <v>1773</v>
       </c>
-    </row>
-    <row r="1773" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="D1772" t="s">
+        <v>220</v>
+      </c>
+      <c r="E1772" t="s">
+        <v>492</v>
+      </c>
+      <c r="F1772">
+        <v>23</v>
+      </c>
+      <c r="G1772" t="s">
+        <v>95</v>
+      </c>
+      <c r="H1772" t="s">
+        <v>89</v>
+      </c>
+      <c r="I1772">
+        <v>9</v>
+      </c>
+      <c r="J1772" t="s">
+        <v>380</v>
+      </c>
+      <c r="K1772">
+        <v>1</v>
+      </c>
+      <c r="L1772" t="s">
+        <v>148</v>
+      </c>
+      <c r="M1772" t="s">
+        <v>505</v>
+      </c>
+      <c r="P1772" t="s">
+        <v>388</v>
+      </c>
+      <c r="Q1772" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="1773" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A1773">
         <v>1774</v>
       </c>
-    </row>
-    <row r="1774" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="D1773" t="s">
+        <v>220</v>
+      </c>
+      <c r="E1773" t="s">
+        <v>492</v>
+      </c>
+      <c r="F1773">
+        <v>23</v>
+      </c>
+      <c r="G1773" t="s">
+        <v>88</v>
+      </c>
+      <c r="H1773" t="s">
+        <v>89</v>
+      </c>
+      <c r="I1773">
+        <v>5</v>
+      </c>
+      <c r="J1773" t="s">
+        <v>143</v>
+      </c>
+      <c r="K1773">
+        <v>1</v>
+      </c>
+      <c r="L1773" t="s">
+        <v>75</v>
+      </c>
+      <c r="M1773" t="s">
+        <v>145</v>
+      </c>
+      <c r="P1773" t="s">
+        <v>146</v>
+      </c>
+      <c r="Q1773" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="1774" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A1774">
         <v>1775</v>
       </c>
-    </row>
-    <row r="1775" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="D1774" t="s">
+        <v>220</v>
+      </c>
+      <c r="E1774" t="s">
+        <v>492</v>
+      </c>
+      <c r="F1774">
+        <v>23</v>
+      </c>
+      <c r="G1774" t="s">
+        <v>88</v>
+      </c>
+      <c r="H1774" t="s">
+        <v>89</v>
+      </c>
+      <c r="I1774">
+        <v>5</v>
+      </c>
+      <c r="J1774" t="s">
+        <v>143</v>
+      </c>
+      <c r="K1774">
+        <v>1</v>
+      </c>
+      <c r="L1774" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="1775" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A1775">
         <v>1776</v>
       </c>
-    </row>
-    <row r="1776" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="D1775" t="s">
+        <v>220</v>
+      </c>
+      <c r="E1775" t="s">
+        <v>492</v>
+      </c>
+      <c r="F1775">
+        <v>23</v>
+      </c>
+      <c r="G1775" t="s">
+        <v>88</v>
+      </c>
+      <c r="H1775" t="s">
+        <v>89</v>
+      </c>
+      <c r="I1775">
+        <v>5</v>
+      </c>
+      <c r="J1775" t="s">
+        <v>143</v>
+      </c>
+      <c r="K1775">
+        <v>2</v>
+      </c>
+      <c r="L1775" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="1776" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A1776">
         <v>1777</v>
       </c>
-    </row>
-    <row r="1777" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="D1776" t="s">
+        <v>220</v>
+      </c>
+      <c r="E1776" t="s">
+        <v>492</v>
+      </c>
+      <c r="F1776">
+        <v>23</v>
+      </c>
+      <c r="G1776" t="s">
+        <v>88</v>
+      </c>
+      <c r="H1776" t="s">
+        <v>89</v>
+      </c>
+      <c r="I1776">
+        <v>7</v>
+      </c>
+      <c r="J1776" t="s">
+        <v>143</v>
+      </c>
+      <c r="K1776">
+        <v>1</v>
+      </c>
+      <c r="L1776" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="1777" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A1777">
         <v>1778</v>
       </c>
-    </row>
-    <row r="1778" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="D1777" t="s">
+        <v>220</v>
+      </c>
+      <c r="E1777" t="s">
+        <v>492</v>
+      </c>
+      <c r="F1777">
+        <v>23</v>
+      </c>
+      <c r="G1777" t="s">
+        <v>88</v>
+      </c>
+      <c r="H1777" t="s">
+        <v>89</v>
+      </c>
+      <c r="I1777">
+        <v>7</v>
+      </c>
+      <c r="J1777" t="s">
+        <v>143</v>
+      </c>
+      <c r="K1777">
+        <v>1</v>
+      </c>
+      <c r="L1777" t="s">
+        <v>251</v>
+      </c>
+      <c r="M1777" t="s">
+        <v>252</v>
+      </c>
+      <c r="P1777" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="1778" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A1778">
         <v>1779</v>
       </c>
-    </row>
-    <row r="1779" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="D1778" t="s">
+        <v>220</v>
+      </c>
+      <c r="E1778" t="s">
+        <v>492</v>
+      </c>
+      <c r="F1778">
+        <v>23</v>
+      </c>
+      <c r="G1778" t="s">
+        <v>88</v>
+      </c>
+      <c r="H1778" t="s">
+        <v>89</v>
+      </c>
+      <c r="I1778">
+        <v>7</v>
+      </c>
+      <c r="J1778" t="s">
+        <v>143</v>
+      </c>
+      <c r="K1778">
+        <v>1</v>
+      </c>
+      <c r="L1778" t="s">
+        <v>148</v>
+      </c>
+      <c r="R1778" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="1779" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A1779">
         <v>1780</v>
       </c>
-    </row>
-    <row r="1780" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="D1779" t="s">
+        <v>220</v>
+      </c>
+      <c r="E1779" t="s">
+        <v>492</v>
+      </c>
+      <c r="F1779">
+        <v>23</v>
+      </c>
+      <c r="G1779" t="s">
+        <v>88</v>
+      </c>
+      <c r="H1779" t="s">
+        <v>89</v>
+      </c>
+      <c r="I1779">
+        <v>7</v>
+      </c>
+      <c r="J1779" t="s">
+        <v>143</v>
+      </c>
+      <c r="K1779">
+        <v>1</v>
+      </c>
+      <c r="L1779" t="s">
+        <v>75</v>
+      </c>
+      <c r="M1779" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="1780" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A1780">
         <v>1781</v>
       </c>
-    </row>
-    <row r="1781" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="D1780" t="s">
+        <v>220</v>
+      </c>
+      <c r="E1780" t="s">
+        <v>492</v>
+      </c>
+      <c r="F1780">
+        <v>23</v>
+      </c>
+      <c r="G1780" t="s">
+        <v>88</v>
+      </c>
+      <c r="H1780" t="s">
+        <v>89</v>
+      </c>
+      <c r="I1780">
+        <v>4</v>
+      </c>
+      <c r="J1780" t="s">
+        <v>143</v>
+      </c>
+      <c r="K1780">
+        <v>1</v>
+      </c>
+      <c r="L1780" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="1781" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A1781">
         <v>1782</v>
       </c>
-    </row>
-    <row r="1782" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="D1781" t="s">
+        <v>220</v>
+      </c>
+      <c r="E1781" t="s">
+        <v>492</v>
+      </c>
+      <c r="F1781">
+        <v>23</v>
+      </c>
+      <c r="G1781" t="s">
+        <v>88</v>
+      </c>
+      <c r="H1781" t="s">
+        <v>89</v>
+      </c>
+      <c r="I1781">
+        <v>4</v>
+      </c>
+      <c r="J1781" t="s">
+        <v>143</v>
+      </c>
+      <c r="K1781">
+        <v>1</v>
+      </c>
+      <c r="L1781" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="1782" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A1782">
         <v>1783</v>
       </c>
-    </row>
-    <row r="1783" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="D1782" t="s">
+        <v>220</v>
+      </c>
+      <c r="E1782" t="s">
+        <v>492</v>
+      </c>
+      <c r="F1782">
+        <v>23</v>
+      </c>
+      <c r="G1782" t="s">
+        <v>88</v>
+      </c>
+      <c r="H1782" t="s">
+        <v>89</v>
+      </c>
+      <c r="I1782">
+        <v>4</v>
+      </c>
+      <c r="J1782" t="s">
+        <v>143</v>
+      </c>
+      <c r="K1782">
+        <v>1</v>
+      </c>
+      <c r="L1782" t="s">
+        <v>148</v>
+      </c>
+      <c r="M1782" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="1783" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A1783">
         <v>1784</v>
       </c>
     </row>
-    <row r="1784" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1784" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A1784">
         <v>1785</v>
       </c>
     </row>
-    <row r="1785" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1785" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A1785">
         <v>1786</v>
       </c>
     </row>
-    <row r="1786" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1786" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A1786">
         <v>1787</v>
       </c>
     </row>
-    <row r="1787" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1787" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A1787">
         <v>1788</v>
       </c>
     </row>
-    <row r="1788" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1788" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A1788">
         <v>1789</v>
       </c>
     </row>
-    <row r="1789" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1789" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A1789">
         <v>1790</v>
       </c>
     </row>
-    <row r="1790" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1790" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A1790">
         <v>1791</v>
       </c>
     </row>
-    <row r="1791" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1791" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A1791">
         <v>1792</v>
       </c>
     </row>
-    <row r="1792" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1792" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A1792">
         <v>1793</v>
       </c>

--- a/Raw Data/Arthropod_data.xlsx
+++ b/Raw Data/Arthropod_data.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11920" uniqueCount="508">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12223" uniqueCount="522">
   <si>
     <t>location</t>
   </si>
@@ -1549,6 +1549,48 @@
   <si>
     <t>Eulophidae?</t>
   </si>
+  <si>
+    <t>weird thing on back</t>
+  </si>
+  <si>
+    <t>Philodromidae</t>
+  </si>
+  <si>
+    <t>Titanebo?</t>
+  </si>
+  <si>
+    <t>Orgeriinae</t>
+  </si>
+  <si>
+    <t>Dictyopharidae</t>
+  </si>
+  <si>
+    <t>Carpophilinae</t>
+  </si>
+  <si>
+    <t>Nitidulidae</t>
+  </si>
+  <si>
+    <t>Ledrinae</t>
+  </si>
+  <si>
+    <t>CaS-Sept-21-O9-SS-1</t>
+  </si>
+  <si>
+    <t>CaS-Sept-21-FF-1</t>
+  </si>
+  <si>
+    <t>PaPL-Sept-13-S10-SWP-1</t>
+  </si>
+  <si>
+    <t>Iris oratoria</t>
+  </si>
+  <si>
+    <t>Iris</t>
+  </si>
+  <si>
+    <t>Tarachodidae</t>
+  </si>
 </sst>
 </file>
 
@@ -1887,10 +1929,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U1970"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A1719" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A1814" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="C1781" sqref="C1781"/>
+      <selection pane="bottomLeft" activeCell="H1827" sqref="H1827"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -60227,208 +60269,1471 @@
       <c r="A1783">
         <v>1784</v>
       </c>
+      <c r="D1783" t="s">
+        <v>203</v>
+      </c>
+      <c r="E1783" t="s">
+        <v>492</v>
+      </c>
+      <c r="F1783">
+        <v>21</v>
+      </c>
+      <c r="G1783" t="s">
+        <v>95</v>
+      </c>
+      <c r="H1783" t="s">
+        <v>89</v>
+      </c>
+      <c r="I1783">
+        <v>2</v>
+      </c>
+      <c r="J1783" t="s">
+        <v>143</v>
+      </c>
+      <c r="K1783">
+        <v>1</v>
+      </c>
+      <c r="L1783" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="1784" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A1784">
         <v>1785</v>
       </c>
+      <c r="D1784" t="s">
+        <v>203</v>
+      </c>
+      <c r="E1784" t="s">
+        <v>492</v>
+      </c>
+      <c r="F1784">
+        <v>21</v>
+      </c>
+      <c r="G1784" t="s">
+        <v>95</v>
+      </c>
+      <c r="H1784" t="s">
+        <v>89</v>
+      </c>
+      <c r="I1784">
+        <v>2</v>
+      </c>
+      <c r="J1784" t="s">
+        <v>143</v>
+      </c>
+      <c r="K1784">
+        <v>1</v>
+      </c>
+      <c r="L1784" t="s">
+        <v>75</v>
+      </c>
+      <c r="M1784" t="s">
+        <v>77</v>
+      </c>
+      <c r="P1784" t="s">
+        <v>131</v>
+      </c>
     </row>
     <row r="1785" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A1785">
         <v>1786</v>
       </c>
+      <c r="D1785" t="s">
+        <v>203</v>
+      </c>
+      <c r="E1785" t="s">
+        <v>492</v>
+      </c>
+      <c r="F1785">
+        <v>21</v>
+      </c>
+      <c r="G1785" t="s">
+        <v>95</v>
+      </c>
+      <c r="H1785" t="s">
+        <v>89</v>
+      </c>
+      <c r="I1785">
+        <v>2</v>
+      </c>
+      <c r="J1785" t="s">
+        <v>143</v>
+      </c>
+      <c r="K1785">
+        <v>2</v>
+      </c>
+      <c r="L1785" t="s">
+        <v>148</v>
+      </c>
     </row>
     <row r="1786" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A1786">
         <v>1787</v>
       </c>
+      <c r="D1786" t="s">
+        <v>203</v>
+      </c>
+      <c r="E1786" t="s">
+        <v>492</v>
+      </c>
+      <c r="F1786">
+        <v>21</v>
+      </c>
+      <c r="G1786" t="s">
+        <v>95</v>
+      </c>
+      <c r="H1786" t="s">
+        <v>89</v>
+      </c>
+      <c r="I1786">
+        <v>2</v>
+      </c>
+      <c r="J1786" t="s">
+        <v>143</v>
+      </c>
+      <c r="K1786">
+        <v>2</v>
+      </c>
+      <c r="L1786" t="s">
+        <v>148</v>
+      </c>
+      <c r="M1786" t="s">
+        <v>501</v>
+      </c>
     </row>
     <row r="1787" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A1787">
         <v>1788</v>
       </c>
+      <c r="D1787" t="s">
+        <v>203</v>
+      </c>
+      <c r="E1787" t="s">
+        <v>492</v>
+      </c>
+      <c r="F1787">
+        <v>21</v>
+      </c>
+      <c r="G1787" t="s">
+        <v>95</v>
+      </c>
+      <c r="H1787" t="s">
+        <v>89</v>
+      </c>
+      <c r="I1787">
+        <v>2</v>
+      </c>
+      <c r="J1787" t="s">
+        <v>143</v>
+      </c>
+      <c r="K1787">
+        <v>1</v>
+      </c>
+      <c r="L1787" t="s">
+        <v>148</v>
+      </c>
     </row>
     <row r="1788" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A1788">
         <v>1789</v>
       </c>
+      <c r="D1788" t="s">
+        <v>203</v>
+      </c>
+      <c r="E1788" t="s">
+        <v>492</v>
+      </c>
+      <c r="F1788">
+        <v>21</v>
+      </c>
+      <c r="G1788" t="s">
+        <v>88</v>
+      </c>
+      <c r="H1788" t="s">
+        <v>89</v>
+      </c>
+      <c r="I1788">
+        <v>1</v>
+      </c>
+      <c r="J1788" t="s">
+        <v>380</v>
+      </c>
+      <c r="K1788">
+        <v>1</v>
+      </c>
+      <c r="L1788" t="s">
+        <v>75</v>
+      </c>
+      <c r="M1788" t="s">
+        <v>77</v>
+      </c>
+      <c r="P1788" t="s">
+        <v>131</v>
+      </c>
     </row>
     <row r="1789" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A1789">
         <v>1790</v>
       </c>
+      <c r="D1789" t="s">
+        <v>203</v>
+      </c>
+      <c r="E1789" t="s">
+        <v>492</v>
+      </c>
+      <c r="F1789">
+        <v>21</v>
+      </c>
+      <c r="G1789" t="s">
+        <v>88</v>
+      </c>
+      <c r="H1789" t="s">
+        <v>89</v>
+      </c>
+      <c r="I1789">
+        <v>1</v>
+      </c>
+      <c r="J1789" t="s">
+        <v>380</v>
+      </c>
+      <c r="K1789">
+        <v>1</v>
+      </c>
+      <c r="L1789" t="s">
+        <v>134</v>
+      </c>
+      <c r="M1789" t="s">
+        <v>224</v>
+      </c>
     </row>
     <row r="1790" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A1790">
         <v>1791</v>
       </c>
+      <c r="D1790" t="s">
+        <v>203</v>
+      </c>
+      <c r="E1790" t="s">
+        <v>492</v>
+      </c>
+      <c r="F1790">
+        <v>21</v>
+      </c>
+      <c r="G1790" t="s">
+        <v>88</v>
+      </c>
+      <c r="H1790" t="s">
+        <v>89</v>
+      </c>
+      <c r="I1790">
+        <v>1</v>
+      </c>
+      <c r="J1790" t="s">
+        <v>380</v>
+      </c>
+      <c r="K1790">
+        <v>1</v>
+      </c>
+      <c r="L1790" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="1791" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A1791">
         <v>1792</v>
       </c>
+      <c r="D1791" t="s">
+        <v>203</v>
+      </c>
+      <c r="E1791" t="s">
+        <v>492</v>
+      </c>
+      <c r="F1791">
+        <v>21</v>
+      </c>
+      <c r="G1791" t="s">
+        <v>95</v>
+      </c>
+      <c r="H1791" t="s">
+        <v>89</v>
+      </c>
+      <c r="I1791">
+        <v>9</v>
+      </c>
+      <c r="J1791" t="s">
+        <v>380</v>
+      </c>
+      <c r="K1791">
+        <v>1</v>
+      </c>
+      <c r="L1791" t="s">
+        <v>79</v>
+      </c>
+      <c r="M1791" t="s">
+        <v>499</v>
+      </c>
     </row>
     <row r="1792" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A1792">
         <v>1793</v>
       </c>
-    </row>
-    <row r="1793" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="D1792" t="s">
+        <v>203</v>
+      </c>
+      <c r="E1792" t="s">
+        <v>492</v>
+      </c>
+      <c r="F1792">
+        <v>21</v>
+      </c>
+      <c r="G1792" t="s">
+        <v>95</v>
+      </c>
+      <c r="H1792" t="s">
+        <v>89</v>
+      </c>
+      <c r="J1792" t="s">
+        <v>380</v>
+      </c>
+      <c r="K1792">
+        <v>1</v>
+      </c>
+      <c r="L1792" t="s">
+        <v>148</v>
+      </c>
+      <c r="M1792" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="1793" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A1793">
         <v>1794</v>
       </c>
-    </row>
-    <row r="1794" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="D1793" t="s">
+        <v>203</v>
+      </c>
+      <c r="E1793" t="s">
+        <v>492</v>
+      </c>
+      <c r="F1793">
+        <v>21</v>
+      </c>
+      <c r="G1793" t="s">
+        <v>95</v>
+      </c>
+      <c r="H1793" t="s">
+        <v>89</v>
+      </c>
+      <c r="I1793">
+        <v>7</v>
+      </c>
+      <c r="J1793" t="s">
+        <v>143</v>
+      </c>
+      <c r="K1793">
+        <v>1</v>
+      </c>
+      <c r="L1793" t="s">
+        <v>79</v>
+      </c>
+      <c r="M1793" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="1794" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A1794">
         <v>1795</v>
       </c>
-    </row>
-    <row r="1795" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="D1794" t="s">
+        <v>203</v>
+      </c>
+      <c r="E1794" t="s">
+        <v>492</v>
+      </c>
+      <c r="F1794">
+        <v>21</v>
+      </c>
+      <c r="G1794" t="s">
+        <v>95</v>
+      </c>
+      <c r="H1794" t="s">
+        <v>89</v>
+      </c>
+      <c r="I1794">
+        <v>7</v>
+      </c>
+      <c r="J1794" t="s">
+        <v>143</v>
+      </c>
+      <c r="K1794">
+        <v>1</v>
+      </c>
+      <c r="L1794" t="s">
+        <v>148</v>
+      </c>
+      <c r="M1794" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="1795" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A1795">
         <v>1796</v>
       </c>
-    </row>
-    <row r="1796" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="D1795" t="s">
+        <v>203</v>
+      </c>
+      <c r="E1795" t="s">
+        <v>492</v>
+      </c>
+      <c r="F1795">
+        <v>21</v>
+      </c>
+      <c r="G1795" t="s">
+        <v>95</v>
+      </c>
+      <c r="H1795" t="s">
+        <v>89</v>
+      </c>
+      <c r="I1795">
+        <v>7</v>
+      </c>
+      <c r="J1795" t="s">
+        <v>143</v>
+      </c>
+      <c r="K1795">
+        <v>1</v>
+      </c>
+      <c r="L1795" t="s">
+        <v>148</v>
+      </c>
+      <c r="M1795" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="1796" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A1796">
         <v>1797</v>
       </c>
-    </row>
-    <row r="1797" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="D1796" t="s">
+        <v>203</v>
+      </c>
+      <c r="E1796" t="s">
+        <v>492</v>
+      </c>
+      <c r="F1796">
+        <v>21</v>
+      </c>
+      <c r="G1796" t="s">
+        <v>95</v>
+      </c>
+      <c r="H1796" t="s">
+        <v>89</v>
+      </c>
+      <c r="I1796">
+        <v>7</v>
+      </c>
+      <c r="J1796" t="s">
+        <v>143</v>
+      </c>
+      <c r="K1796">
+        <v>1</v>
+      </c>
+      <c r="L1796" t="s">
+        <v>148</v>
+      </c>
+      <c r="M1796" t="s">
+        <v>509</v>
+      </c>
+      <c r="P1796" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="1797" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A1797">
         <v>1798</v>
       </c>
-    </row>
-    <row r="1798" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="D1797" t="s">
+        <v>203</v>
+      </c>
+      <c r="E1797" t="s">
+        <v>492</v>
+      </c>
+      <c r="F1797">
+        <v>21</v>
+      </c>
+      <c r="G1797" t="s">
+        <v>95</v>
+      </c>
+      <c r="H1797" t="s">
+        <v>89</v>
+      </c>
+      <c r="I1797">
+        <v>4</v>
+      </c>
+      <c r="J1797" t="s">
+        <v>380</v>
+      </c>
+      <c r="K1797">
+        <v>2</v>
+      </c>
+      <c r="L1797" t="s">
+        <v>148</v>
+      </c>
+      <c r="M1797" t="s">
+        <v>509</v>
+      </c>
+      <c r="P1797" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="1798" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A1798">
         <v>1799</v>
       </c>
-    </row>
-    <row r="1799" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="D1798" t="s">
+        <v>203</v>
+      </c>
+      <c r="E1798" t="s">
+        <v>492</v>
+      </c>
+      <c r="F1798">
+        <v>21</v>
+      </c>
+      <c r="G1798" t="s">
+        <v>88</v>
+      </c>
+      <c r="H1798" t="s">
+        <v>89</v>
+      </c>
+      <c r="I1798">
+        <v>4</v>
+      </c>
+      <c r="J1798" t="s">
+        <v>143</v>
+      </c>
+      <c r="K1798">
+        <v>1</v>
+      </c>
+      <c r="L1798" t="s">
+        <v>148</v>
+      </c>
+      <c r="M1798" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="1799" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A1799">
         <v>1800</v>
       </c>
-    </row>
-    <row r="1800" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="D1799" t="s">
+        <v>203</v>
+      </c>
+      <c r="E1799" t="s">
+        <v>492</v>
+      </c>
+      <c r="F1799">
+        <v>21</v>
+      </c>
+      <c r="G1799" t="s">
+        <v>88</v>
+      </c>
+      <c r="H1799" t="s">
+        <v>89</v>
+      </c>
+      <c r="I1799">
+        <v>4</v>
+      </c>
+      <c r="J1799" t="s">
+        <v>143</v>
+      </c>
+      <c r="K1799">
+        <v>1</v>
+      </c>
+      <c r="L1799" t="s">
+        <v>134</v>
+      </c>
+      <c r="M1799" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="1800" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A1800">
         <v>1801</v>
       </c>
-    </row>
-    <row r="1801" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="D1800" t="s">
+        <v>203</v>
+      </c>
+      <c r="E1800" t="s">
+        <v>492</v>
+      </c>
+      <c r="F1800">
+        <v>21</v>
+      </c>
+      <c r="G1800" t="s">
+        <v>88</v>
+      </c>
+      <c r="H1800" t="s">
+        <v>89</v>
+      </c>
+      <c r="I1800">
+        <v>5</v>
+      </c>
+      <c r="J1800" t="s">
+        <v>380</v>
+      </c>
+      <c r="K1800">
+        <v>1</v>
+      </c>
+      <c r="L1800" t="s">
+        <v>134</v>
+      </c>
+      <c r="M1800" t="s">
+        <v>512</v>
+      </c>
+      <c r="N1800" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="1801" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A1801">
         <v>1802</v>
       </c>
-    </row>
-    <row r="1802" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="D1801" t="s">
+        <v>203</v>
+      </c>
+      <c r="E1801" t="s">
+        <v>492</v>
+      </c>
+      <c r="F1801">
+        <v>21</v>
+      </c>
+      <c r="G1801" t="s">
+        <v>88</v>
+      </c>
+      <c r="H1801" t="s">
+        <v>89</v>
+      </c>
+      <c r="I1801">
+        <v>7</v>
+      </c>
+      <c r="J1801" t="s">
+        <v>143</v>
+      </c>
+      <c r="K1801">
+        <v>1</v>
+      </c>
+      <c r="L1801" t="s">
+        <v>134</v>
+      </c>
+      <c r="M1801" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="1802" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A1802">
         <v>1803</v>
       </c>
-    </row>
-    <row r="1803" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="D1802" t="s">
+        <v>203</v>
+      </c>
+      <c r="E1802" t="s">
+        <v>492</v>
+      </c>
+      <c r="F1802">
+        <v>21</v>
+      </c>
+      <c r="G1802" t="s">
+        <v>88</v>
+      </c>
+      <c r="H1802" t="s">
+        <v>89</v>
+      </c>
+      <c r="I1802">
+        <v>7</v>
+      </c>
+      <c r="J1802" t="s">
+        <v>143</v>
+      </c>
+      <c r="K1802">
+        <v>1</v>
+      </c>
+      <c r="L1802" t="s">
+        <v>79</v>
+      </c>
+      <c r="M1802" t="s">
+        <v>514</v>
+      </c>
+      <c r="N1802" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="1803" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A1803">
         <v>1804</v>
       </c>
-    </row>
-    <row r="1804" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="D1803" t="s">
+        <v>203</v>
+      </c>
+      <c r="E1803" t="s">
+        <v>492</v>
+      </c>
+      <c r="F1803">
+        <v>21</v>
+      </c>
+      <c r="G1803" t="s">
+        <v>88</v>
+      </c>
+      <c r="H1803" t="s">
+        <v>89</v>
+      </c>
+      <c r="I1803">
+        <v>7</v>
+      </c>
+      <c r="J1803" t="s">
+        <v>143</v>
+      </c>
+      <c r="K1803">
+        <v>1</v>
+      </c>
+      <c r="L1803" t="s">
+        <v>61</v>
+      </c>
+      <c r="M1803" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="1804" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A1804">
         <v>1805</v>
       </c>
-    </row>
-    <row r="1805" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="D1804" t="s">
+        <v>203</v>
+      </c>
+      <c r="E1804" t="s">
+        <v>492</v>
+      </c>
+      <c r="F1804">
+        <v>21</v>
+      </c>
+      <c r="G1804" t="s">
+        <v>95</v>
+      </c>
+      <c r="H1804" t="s">
+        <v>89</v>
+      </c>
+      <c r="I1804">
+        <v>8</v>
+      </c>
+      <c r="J1804" t="s">
+        <v>380</v>
+      </c>
+      <c r="K1804">
+        <v>1</v>
+      </c>
+      <c r="L1804" t="s">
+        <v>148</v>
+      </c>
+      <c r="M1804" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="1805" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A1805">
         <v>1806</v>
       </c>
-    </row>
-    <row r="1806" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="D1805" t="s">
+        <v>203</v>
+      </c>
+      <c r="E1805" t="s">
+        <v>492</v>
+      </c>
+      <c r="F1805">
+        <v>21</v>
+      </c>
+      <c r="G1805" t="s">
+        <v>95</v>
+      </c>
+      <c r="H1805" t="s">
+        <v>89</v>
+      </c>
+      <c r="I1805">
+        <v>8</v>
+      </c>
+      <c r="J1805" t="s">
+        <v>380</v>
+      </c>
+      <c r="K1805">
+        <v>6</v>
+      </c>
+      <c r="L1805" t="s">
+        <v>79</v>
+      </c>
+      <c r="M1805" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="1806" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A1806">
         <v>1807</v>
       </c>
-    </row>
-    <row r="1807" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="D1806" t="s">
+        <v>203</v>
+      </c>
+      <c r="E1806" t="s">
+        <v>492</v>
+      </c>
+      <c r="F1806">
+        <v>21</v>
+      </c>
+      <c r="G1806" t="s">
+        <v>95</v>
+      </c>
+      <c r="H1806" t="s">
+        <v>89</v>
+      </c>
+      <c r="I1806">
+        <v>10</v>
+      </c>
+      <c r="J1806" t="s">
+        <v>143</v>
+      </c>
+      <c r="K1806">
+        <v>1</v>
+      </c>
+      <c r="L1806" t="s">
+        <v>61</v>
+      </c>
+      <c r="M1806" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="1807" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A1807">
         <v>1808</v>
       </c>
-    </row>
-    <row r="1808" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="D1807" t="s">
+        <v>203</v>
+      </c>
+      <c r="E1807" t="s">
+        <v>492</v>
+      </c>
+      <c r="F1807">
+        <v>21</v>
+      </c>
+      <c r="G1807" t="s">
+        <v>88</v>
+      </c>
+      <c r="H1807" t="s">
+        <v>89</v>
+      </c>
+      <c r="I1807">
+        <v>8</v>
+      </c>
+      <c r="J1807" t="s">
+        <v>380</v>
+      </c>
+      <c r="K1807">
+        <v>1</v>
+      </c>
+      <c r="L1807" t="s">
+        <v>148</v>
+      </c>
+      <c r="M1807" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="1808" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A1808">
         <v>1809</v>
       </c>
-    </row>
-    <row r="1809" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="D1808" t="s">
+        <v>203</v>
+      </c>
+      <c r="E1808" t="s">
+        <v>492</v>
+      </c>
+      <c r="F1808">
+        <v>21</v>
+      </c>
+      <c r="G1808" t="s">
+        <v>88</v>
+      </c>
+      <c r="H1808" t="s">
+        <v>89</v>
+      </c>
+      <c r="I1808">
+        <v>10</v>
+      </c>
+      <c r="J1808" t="s">
+        <v>143</v>
+      </c>
+      <c r="K1808">
+        <v>1</v>
+      </c>
+      <c r="L1808" t="s">
+        <v>134</v>
+      </c>
+      <c r="M1808" t="s">
+        <v>224</v>
+      </c>
+      <c r="N1808" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="1809" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A1809">
         <v>1810</v>
       </c>
-    </row>
-    <row r="1810" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B1809" t="s">
+        <v>516</v>
+      </c>
+      <c r="C1809" t="s">
+        <v>70</v>
+      </c>
+      <c r="D1809" t="s">
+        <v>203</v>
+      </c>
+      <c r="E1809" t="s">
+        <v>492</v>
+      </c>
+      <c r="F1809">
+        <v>21</v>
+      </c>
+      <c r="G1809" t="s">
+        <v>88</v>
+      </c>
+      <c r="H1809" t="s">
+        <v>89</v>
+      </c>
+      <c r="I1809">
+        <v>6</v>
+      </c>
+      <c r="J1809" t="s">
+        <v>74</v>
+      </c>
+      <c r="K1809">
+        <v>1</v>
+      </c>
+      <c r="L1809" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="1810" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A1810">
         <v>1811</v>
       </c>
-    </row>
-    <row r="1811" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="D1810" t="s">
+        <v>203</v>
+      </c>
+      <c r="E1810" t="s">
+        <v>492</v>
+      </c>
+      <c r="F1810">
+        <v>21</v>
+      </c>
+      <c r="G1810" t="s">
+        <v>95</v>
+      </c>
+      <c r="H1810" t="s">
+        <v>96</v>
+      </c>
+      <c r="I1810">
+        <v>9</v>
+      </c>
+      <c r="J1810" t="s">
+        <v>74</v>
+      </c>
+      <c r="K1810">
+        <v>1</v>
+      </c>
+      <c r="L1810" t="s">
+        <v>99</v>
+      </c>
+      <c r="M1810" t="s">
+        <v>57</v>
+      </c>
+      <c r="N1810" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="1811" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A1811">
         <v>1812</v>
       </c>
-    </row>
-    <row r="1812" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="D1811" t="s">
+        <v>203</v>
+      </c>
+      <c r="E1811" t="s">
+        <v>492</v>
+      </c>
+      <c r="F1811">
+        <v>21</v>
+      </c>
+      <c r="H1811" t="s">
+        <v>72</v>
+      </c>
+      <c r="J1811" t="s">
+        <v>74</v>
+      </c>
+      <c r="K1811">
+        <v>1</v>
+      </c>
+      <c r="L1811" t="s">
+        <v>99</v>
+      </c>
+      <c r="M1811" t="s">
+        <v>57</v>
+      </c>
+      <c r="N1811" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="1812" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A1812">
         <v>1813</v>
       </c>
-    </row>
-    <row r="1813" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="D1812" t="s">
+        <v>203</v>
+      </c>
+      <c r="E1812" t="s">
+        <v>492</v>
+      </c>
+      <c r="F1812">
+        <v>21</v>
+      </c>
+      <c r="H1812" t="s">
+        <v>72</v>
+      </c>
+      <c r="J1812" t="s">
+        <v>74</v>
+      </c>
+      <c r="K1812">
+        <v>1</v>
+      </c>
+      <c r="L1812" t="s">
+        <v>90</v>
+      </c>
+      <c r="M1812" t="s">
+        <v>521</v>
+      </c>
+      <c r="P1812" t="s">
+        <v>520</v>
+      </c>
+      <c r="Q1812" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="1813" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A1813">
         <v>1814</v>
       </c>
-    </row>
-    <row r="1814" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B1813" t="s">
+        <v>517</v>
+      </c>
+      <c r="C1813" t="s">
+        <v>70</v>
+      </c>
+      <c r="D1813" t="s">
+        <v>203</v>
+      </c>
+      <c r="E1813" t="s">
+        <v>492</v>
+      </c>
+      <c r="F1813">
+        <v>21</v>
+      </c>
+      <c r="H1813" t="s">
+        <v>72</v>
+      </c>
+      <c r="J1813" t="s">
+        <v>74</v>
+      </c>
+      <c r="K1813">
+        <v>1</v>
+      </c>
+      <c r="L1813" t="s">
+        <v>61</v>
+      </c>
+      <c r="M1813" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="1814" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A1814">
         <v>1815</v>
       </c>
-    </row>
-    <row r="1815" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="D1814" t="s">
+        <v>203</v>
+      </c>
+      <c r="E1814" t="s">
+        <v>492</v>
+      </c>
+      <c r="F1814">
+        <v>21</v>
+      </c>
+      <c r="H1814" t="s">
+        <v>72</v>
+      </c>
+      <c r="J1814" t="s">
+        <v>380</v>
+      </c>
+      <c r="K1814">
+        <v>2</v>
+      </c>
+      <c r="L1814" t="s">
+        <v>148</v>
+      </c>
+      <c r="M1814" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="1815" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A1815">
         <v>1816</v>
       </c>
-    </row>
-    <row r="1816" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="D1815" t="s">
+        <v>231</v>
+      </c>
+      <c r="E1815" t="s">
+        <v>492</v>
+      </c>
+      <c r="F1815">
+        <v>13</v>
+      </c>
+      <c r="G1815" t="s">
+        <v>88</v>
+      </c>
+      <c r="H1815" t="s">
+        <v>89</v>
+      </c>
+      <c r="I1815">
+        <v>3</v>
+      </c>
+      <c r="J1815" t="s">
+        <v>380</v>
+      </c>
+      <c r="K1815">
+        <v>3</v>
+      </c>
+      <c r="L1815" t="s">
+        <v>134</v>
+      </c>
+      <c r="M1815" t="s">
+        <v>512</v>
+      </c>
+      <c r="N1815" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="1816" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A1816">
         <v>1817</v>
       </c>
-    </row>
-    <row r="1817" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="D1816" t="s">
+        <v>231</v>
+      </c>
+      <c r="E1816" t="s">
+        <v>492</v>
+      </c>
+      <c r="F1816">
+        <v>13</v>
+      </c>
+      <c r="G1816" t="s">
+        <v>88</v>
+      </c>
+      <c r="H1816" t="s">
+        <v>89</v>
+      </c>
+      <c r="I1816">
+        <v>9</v>
+      </c>
+      <c r="J1816" t="s">
+        <v>380</v>
+      </c>
+      <c r="K1816">
+        <v>3</v>
+      </c>
+      <c r="L1816" t="s">
+        <v>134</v>
+      </c>
+      <c r="M1816" t="s">
+        <v>512</v>
+      </c>
+      <c r="N1816" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="1817" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A1817">
         <v>1818</v>
       </c>
-    </row>
-    <row r="1818" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="D1817" t="s">
+        <v>231</v>
+      </c>
+      <c r="E1817" t="s">
+        <v>492</v>
+      </c>
+      <c r="F1817">
+        <v>13</v>
+      </c>
+      <c r="G1817" t="s">
+        <v>88</v>
+      </c>
+      <c r="H1817" t="s">
+        <v>89</v>
+      </c>
+      <c r="I1817">
+        <v>5</v>
+      </c>
+      <c r="J1817" t="s">
+        <v>380</v>
+      </c>
+      <c r="K1817">
+        <v>2</v>
+      </c>
+      <c r="L1817" t="s">
+        <v>134</v>
+      </c>
+      <c r="M1817" t="s">
+        <v>512</v>
+      </c>
+      <c r="N1817" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="1818" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A1818">
         <v>1819</v>
       </c>
-    </row>
-    <row r="1819" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="D1818" t="s">
+        <v>231</v>
+      </c>
+      <c r="E1818" t="s">
+        <v>492</v>
+      </c>
+      <c r="F1818">
+        <v>13</v>
+      </c>
+      <c r="G1818" t="s">
+        <v>88</v>
+      </c>
+      <c r="H1818" t="s">
+        <v>89</v>
+      </c>
+      <c r="I1818">
+        <v>8</v>
+      </c>
+      <c r="J1818" t="s">
+        <v>380</v>
+      </c>
+      <c r="K1818">
+        <v>1</v>
+      </c>
+      <c r="L1818" t="s">
+        <v>134</v>
+      </c>
+      <c r="M1818" t="s">
+        <v>512</v>
+      </c>
+      <c r="N1818" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="1819" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A1819">
         <v>1820</v>
       </c>
-    </row>
-    <row r="1820" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="D1819" t="s">
+        <v>231</v>
+      </c>
+      <c r="E1819" t="s">
+        <v>492</v>
+      </c>
+      <c r="F1819">
+        <v>13</v>
+      </c>
+      <c r="G1819" t="s">
+        <v>88</v>
+      </c>
+      <c r="H1819" t="s">
+        <v>89</v>
+      </c>
+      <c r="I1819">
+        <v>1</v>
+      </c>
+      <c r="J1819" t="s">
+        <v>380</v>
+      </c>
+      <c r="K1819">
+        <v>1</v>
+      </c>
+      <c r="L1819" t="s">
+        <v>134</v>
+      </c>
+      <c r="M1819" t="s">
+        <v>512</v>
+      </c>
+      <c r="N1819" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="1820" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A1820">
         <v>1821</v>
       </c>
-    </row>
-    <row r="1821" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="D1820" t="s">
+        <v>231</v>
+      </c>
+      <c r="E1820" t="s">
+        <v>492</v>
+      </c>
+      <c r="F1820">
+        <v>13</v>
+      </c>
+      <c r="G1820" t="s">
+        <v>88</v>
+      </c>
+      <c r="H1820" t="s">
+        <v>89</v>
+      </c>
+      <c r="I1820">
+        <v>6</v>
+      </c>
+      <c r="J1820" t="s">
+        <v>380</v>
+      </c>
+      <c r="K1820">
+        <v>1</v>
+      </c>
+      <c r="L1820" t="s">
+        <v>134</v>
+      </c>
+      <c r="M1820" t="s">
+        <v>512</v>
+      </c>
+      <c r="N1820" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="1821" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A1821">
         <v>1822</v>
       </c>
-    </row>
-    <row r="1822" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="D1821" t="s">
+        <v>231</v>
+      </c>
+      <c r="E1821" t="s">
+        <v>492</v>
+      </c>
+      <c r="F1821">
+        <v>13</v>
+      </c>
+      <c r="G1821" t="s">
+        <v>88</v>
+      </c>
+      <c r="H1821" t="s">
+        <v>89</v>
+      </c>
+      <c r="I1821">
+        <v>2</v>
+      </c>
+      <c r="J1821" t="s">
+        <v>380</v>
+      </c>
+      <c r="K1821">
+        <v>1</v>
+      </c>
+      <c r="L1821" t="s">
+        <v>134</v>
+      </c>
+      <c r="M1821" t="s">
+        <v>512</v>
+      </c>
+      <c r="N1821" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="1822" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A1822">
         <v>1823</v>
       </c>
-    </row>
-    <row r="1823" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="D1822" t="s">
+        <v>231</v>
+      </c>
+      <c r="E1822" t="s">
+        <v>492</v>
+      </c>
+      <c r="F1822">
+        <v>13</v>
+      </c>
+      <c r="G1822" t="s">
+        <v>88</v>
+      </c>
+      <c r="H1822" t="s">
+        <v>89</v>
+      </c>
+      <c r="I1822">
+        <v>10</v>
+      </c>
+      <c r="J1822" t="s">
+        <v>380</v>
+      </c>
+      <c r="K1822">
+        <v>1</v>
+      </c>
+      <c r="L1822" t="s">
+        <v>134</v>
+      </c>
+      <c r="M1822" t="s">
+        <v>512</v>
+      </c>
+      <c r="N1822" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="1823" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A1823">
         <v>1824</v>
       </c>
-    </row>
-    <row r="1824" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B1823" t="s">
+        <v>518</v>
+      </c>
+      <c r="C1823" t="s">
+        <v>70</v>
+      </c>
+      <c r="D1823" t="s">
+        <v>231</v>
+      </c>
+      <c r="E1823" t="s">
+        <v>492</v>
+      </c>
+      <c r="F1823">
+        <v>13</v>
+      </c>
+      <c r="G1823" t="s">
+        <v>88</v>
+      </c>
+      <c r="H1823" t="s">
+        <v>89</v>
+      </c>
+      <c r="I1823">
+        <v>10</v>
+      </c>
+      <c r="J1823" t="s">
+        <v>74</v>
+      </c>
+      <c r="K1823">
+        <v>1</v>
+      </c>
+      <c r="L1823" t="s">
+        <v>134</v>
+      </c>
+      <c r="M1823" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="1824" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A1824">
         <v>1825</v>
       </c>

--- a/Raw Data/Arthropod_data.xlsx
+++ b/Raw Data/Arthropod_data.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12223" uniqueCount="522">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12630" uniqueCount="541">
   <si>
     <t>location</t>
   </si>
@@ -1591,6 +1591,63 @@
   <si>
     <t>Tarachodidae</t>
   </si>
+  <si>
+    <t>yellow, pointy</t>
+  </si>
+  <si>
+    <t>Miridae</t>
+  </si>
+  <si>
+    <t>Lygus</t>
+  </si>
+  <si>
+    <t>Melanopleurus pyrrhopterus</t>
+  </si>
+  <si>
+    <t>Melanopleurus</t>
+  </si>
+  <si>
+    <t>Lygaeidae</t>
+  </si>
+  <si>
+    <t>stout</t>
+  </si>
+  <si>
+    <t>dark, bottom get slender</t>
+  </si>
+  <si>
+    <t>pink</t>
+  </si>
+  <si>
+    <t>Eurytomidae?</t>
+  </si>
+  <si>
+    <t>Chalcoid</t>
+  </si>
+  <si>
+    <t>Agromyzidae?</t>
+  </si>
+  <si>
+    <t>brown, not miridae</t>
+  </si>
+  <si>
+    <t>Scelionidae</t>
+  </si>
+  <si>
+    <t>Coal-Sept-9-Oss1 need to relabel</t>
+  </si>
+  <si>
+    <t>Coal=Sept-9-FF-2</t>
+  </si>
+  <si>
+    <t>PaPL-Sept-13-FF-1</t>
+  </si>
+  <si>
+    <t>PaPL-Sept-13-FF-2</t>
+  </si>
+  <si>
+    <t>Eucera or Anthophora</t>
+  </si>
 </sst>
 </file>
 
@@ -1929,10 +1986,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U1970"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A1814" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A1864" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="H1827" sqref="H1827"/>
+      <selection pane="bottomLeft" activeCell="J1881" sqref="J1881"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -61737,323 +61794,1946 @@
       <c r="A1824">
         <v>1825</v>
       </c>
-    </row>
-    <row r="1825" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="D1824" t="s">
+        <v>231</v>
+      </c>
+      <c r="E1824" t="s">
+        <v>492</v>
+      </c>
+      <c r="F1824">
+        <v>13</v>
+      </c>
+      <c r="G1824" t="s">
+        <v>95</v>
+      </c>
+      <c r="H1824" t="s">
+        <v>89</v>
+      </c>
+      <c r="I1824">
+        <v>8</v>
+      </c>
+      <c r="J1824" t="s">
+        <v>74</v>
+      </c>
+      <c r="K1824">
+        <v>1</v>
+      </c>
+      <c r="L1824" t="s">
+        <v>99</v>
+      </c>
+      <c r="M1824" t="s">
+        <v>57</v>
+      </c>
+      <c r="N1824" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="1825" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A1825">
         <v>1826</v>
       </c>
-    </row>
-    <row r="1826" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="D1825" t="s">
+        <v>231</v>
+      </c>
+      <c r="E1825" t="s">
+        <v>492</v>
+      </c>
+      <c r="F1825">
+        <v>13</v>
+      </c>
+      <c r="G1825" t="s">
+        <v>95</v>
+      </c>
+      <c r="H1825" t="s">
+        <v>96</v>
+      </c>
+      <c r="I1825">
+        <v>8</v>
+      </c>
+      <c r="J1825" t="s">
+        <v>74</v>
+      </c>
+      <c r="K1825">
+        <v>1</v>
+      </c>
+      <c r="L1825" t="s">
+        <v>99</v>
+      </c>
+      <c r="M1825" t="s">
+        <v>57</v>
+      </c>
+      <c r="N1825" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="1826" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A1826">
         <v>1827</v>
       </c>
-    </row>
-    <row r="1827" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="D1826" t="s">
+        <v>231</v>
+      </c>
+      <c r="E1826" t="s">
+        <v>492</v>
+      </c>
+      <c r="F1826">
+        <v>13</v>
+      </c>
+      <c r="G1826" t="s">
+        <v>95</v>
+      </c>
+      <c r="H1826" t="s">
+        <v>89</v>
+      </c>
+      <c r="I1826">
+        <v>6</v>
+      </c>
+      <c r="J1826" t="s">
+        <v>74</v>
+      </c>
+      <c r="K1826">
+        <v>1</v>
+      </c>
+      <c r="L1826" t="s">
+        <v>99</v>
+      </c>
+      <c r="M1826" t="s">
+        <v>57</v>
+      </c>
+      <c r="N1826" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="1827" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A1827">
         <v>1828</v>
       </c>
-    </row>
-    <row r="1828" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="D1827" t="s">
+        <v>231</v>
+      </c>
+      <c r="E1827" t="s">
+        <v>492</v>
+      </c>
+      <c r="F1827">
+        <v>13</v>
+      </c>
+      <c r="G1827" t="s">
+        <v>95</v>
+      </c>
+      <c r="H1827" t="s">
+        <v>89</v>
+      </c>
+      <c r="I1827">
+        <v>7</v>
+      </c>
+      <c r="J1827" t="s">
+        <v>74</v>
+      </c>
+      <c r="K1827">
+        <v>1</v>
+      </c>
+      <c r="L1827" t="s">
+        <v>99</v>
+      </c>
+      <c r="M1827" t="s">
+        <v>57</v>
+      </c>
+      <c r="N1827" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="1828" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A1828">
         <v>1829</v>
       </c>
-    </row>
-    <row r="1829" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="D1828" t="s">
+        <v>231</v>
+      </c>
+      <c r="E1828" t="s">
+        <v>492</v>
+      </c>
+      <c r="F1828">
+        <v>13</v>
+      </c>
+      <c r="G1828" t="s">
+        <v>95</v>
+      </c>
+      <c r="H1828" t="s">
+        <v>89</v>
+      </c>
+      <c r="I1828">
+        <v>2</v>
+      </c>
+      <c r="J1828" t="s">
+        <v>74</v>
+      </c>
+      <c r="K1828">
+        <v>1</v>
+      </c>
+      <c r="L1828" t="s">
+        <v>99</v>
+      </c>
+      <c r="M1828" t="s">
+        <v>57</v>
+      </c>
+      <c r="N1828" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="1829" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A1829">
         <v>1830</v>
       </c>
-    </row>
-    <row r="1830" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="D1829" t="s">
+        <v>231</v>
+      </c>
+      <c r="E1829" t="s">
+        <v>492</v>
+      </c>
+      <c r="F1829">
+        <v>13</v>
+      </c>
+      <c r="G1829" t="s">
+        <v>95</v>
+      </c>
+      <c r="H1829" t="s">
+        <v>96</v>
+      </c>
+      <c r="I1829">
+        <v>2</v>
+      </c>
+      <c r="J1829" t="s">
+        <v>74</v>
+      </c>
+      <c r="K1829">
+        <v>1</v>
+      </c>
+      <c r="L1829" t="s">
+        <v>99</v>
+      </c>
+      <c r="M1829" t="s">
+        <v>57</v>
+      </c>
+      <c r="N1829" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="1830" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A1830">
         <v>1831</v>
       </c>
-    </row>
-    <row r="1831" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="D1830" t="s">
+        <v>231</v>
+      </c>
+      <c r="E1830" t="s">
+        <v>492</v>
+      </c>
+      <c r="F1830">
+        <v>13</v>
+      </c>
+      <c r="G1830" t="s">
+        <v>95</v>
+      </c>
+      <c r="H1830" t="s">
+        <v>96</v>
+      </c>
+      <c r="I1830">
+        <v>7</v>
+      </c>
+      <c r="J1830" t="s">
+        <v>74</v>
+      </c>
+      <c r="K1830">
+        <v>1</v>
+      </c>
+      <c r="L1830" t="s">
+        <v>99</v>
+      </c>
+      <c r="M1830" t="s">
+        <v>57</v>
+      </c>
+      <c r="N1830" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="1831" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A1831">
         <v>1832</v>
       </c>
-    </row>
-    <row r="1832" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="D1831" t="s">
+        <v>231</v>
+      </c>
+      <c r="E1831" t="s">
+        <v>492</v>
+      </c>
+      <c r="F1831">
+        <v>13</v>
+      </c>
+      <c r="G1831" t="s">
+        <v>95</v>
+      </c>
+      <c r="H1831" t="s">
+        <v>89</v>
+      </c>
+      <c r="I1831">
+        <v>5</v>
+      </c>
+      <c r="J1831" t="s">
+        <v>74</v>
+      </c>
+      <c r="K1831">
+        <v>1</v>
+      </c>
+      <c r="L1831" t="s">
+        <v>99</v>
+      </c>
+      <c r="M1831" t="s">
+        <v>57</v>
+      </c>
+      <c r="N1831" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="1832" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A1832">
         <v>1833</v>
       </c>
-    </row>
-    <row r="1833" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="D1832" t="s">
+        <v>231</v>
+      </c>
+      <c r="E1832" t="s">
+        <v>492</v>
+      </c>
+      <c r="F1832">
+        <v>13</v>
+      </c>
+      <c r="G1832" t="s">
+        <v>95</v>
+      </c>
+      <c r="H1832" t="s">
+        <v>96</v>
+      </c>
+      <c r="I1832">
+        <v>9</v>
+      </c>
+      <c r="J1832" t="s">
+        <v>74</v>
+      </c>
+      <c r="K1832">
+        <v>1</v>
+      </c>
+      <c r="L1832" t="s">
+        <v>99</v>
+      </c>
+      <c r="M1832" t="s">
+        <v>57</v>
+      </c>
+      <c r="N1832" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="1833" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A1833">
         <v>1834</v>
       </c>
-    </row>
-    <row r="1834" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="D1833" t="s">
+        <v>231</v>
+      </c>
+      <c r="E1833" t="s">
+        <v>492</v>
+      </c>
+      <c r="F1833">
+        <v>13</v>
+      </c>
+      <c r="G1833" t="s">
+        <v>95</v>
+      </c>
+      <c r="H1833" t="s">
+        <v>89</v>
+      </c>
+      <c r="I1833">
+        <v>10</v>
+      </c>
+      <c r="J1833" t="s">
+        <v>143</v>
+      </c>
+      <c r="K1833">
+        <v>1</v>
+      </c>
+      <c r="L1833" t="s">
+        <v>99</v>
+      </c>
+      <c r="M1833" t="s">
+        <v>57</v>
+      </c>
+      <c r="N1833" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="1834" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A1834">
         <v>1835</v>
       </c>
-    </row>
-    <row r="1835" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="D1834" t="s">
+        <v>231</v>
+      </c>
+      <c r="E1834" t="s">
+        <v>492</v>
+      </c>
+      <c r="F1834">
+        <v>13</v>
+      </c>
+      <c r="G1834" t="s">
+        <v>95</v>
+      </c>
+      <c r="H1834" t="s">
+        <v>89</v>
+      </c>
+      <c r="I1834">
+        <v>10</v>
+      </c>
+      <c r="J1834" t="s">
+        <v>143</v>
+      </c>
+      <c r="K1834">
+        <v>1</v>
+      </c>
+      <c r="L1834" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="1835" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A1835">
         <v>1836</v>
       </c>
-    </row>
-    <row r="1836" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="D1835" t="s">
+        <v>231</v>
+      </c>
+      <c r="E1835" t="s">
+        <v>492</v>
+      </c>
+      <c r="F1835">
+        <v>13</v>
+      </c>
+      <c r="G1835" t="s">
+        <v>95</v>
+      </c>
+      <c r="H1835" t="s">
+        <v>72</v>
+      </c>
+      <c r="J1835" t="s">
+        <v>74</v>
+      </c>
+      <c r="K1835">
+        <v>1</v>
+      </c>
+      <c r="L1835" t="s">
+        <v>99</v>
+      </c>
+      <c r="M1835" t="s">
+        <v>57</v>
+      </c>
+      <c r="N1835" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="1836" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A1836">
         <v>1837</v>
       </c>
-    </row>
-    <row r="1837" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B1836" t="s">
+        <v>538</v>
+      </c>
+      <c r="C1836" t="s">
+        <v>70</v>
+      </c>
+      <c r="D1836" t="s">
+        <v>231</v>
+      </c>
+      <c r="E1836" t="s">
+        <v>492</v>
+      </c>
+      <c r="F1836">
+        <v>13</v>
+      </c>
+      <c r="G1836" t="s">
+        <v>95</v>
+      </c>
+      <c r="H1836" t="s">
+        <v>72</v>
+      </c>
+      <c r="J1836" t="s">
+        <v>74</v>
+      </c>
+      <c r="K1836">
+        <v>1</v>
+      </c>
+      <c r="L1836" t="s">
+        <v>75</v>
+      </c>
+      <c r="M1836" t="s">
+        <v>288</v>
+      </c>
+      <c r="P1836" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="1837" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A1837">
         <v>1838</v>
       </c>
-    </row>
-    <row r="1838" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B1837" t="s">
+        <v>539</v>
+      </c>
+      <c r="C1837" t="s">
+        <v>70</v>
+      </c>
+      <c r="D1837" t="s">
+        <v>231</v>
+      </c>
+      <c r="E1837" t="s">
+        <v>492</v>
+      </c>
+      <c r="F1837">
+        <v>13</v>
+      </c>
+      <c r="G1837" t="s">
+        <v>95</v>
+      </c>
+      <c r="H1837" t="s">
+        <v>72</v>
+      </c>
+      <c r="J1837" t="s">
+        <v>74</v>
+      </c>
+      <c r="K1837">
+        <v>1</v>
+      </c>
+      <c r="L1837" t="s">
+        <v>61</v>
+      </c>
+      <c r="M1837" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="1838" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A1838">
         <v>1839</v>
       </c>
-    </row>
-    <row r="1839" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="D1838" t="s">
+        <v>231</v>
+      </c>
+      <c r="E1838" t="s">
+        <v>492</v>
+      </c>
+      <c r="F1838">
+        <v>13</v>
+      </c>
+      <c r="G1838" t="s">
+        <v>95</v>
+      </c>
+      <c r="H1838" t="s">
+        <v>72</v>
+      </c>
+      <c r="J1838" t="s">
+        <v>143</v>
+      </c>
+      <c r="K1838">
+        <v>6</v>
+      </c>
+      <c r="L1838" t="s">
+        <v>134</v>
+      </c>
+      <c r="M1838" t="s">
+        <v>224</v>
+      </c>
+      <c r="N1838" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="1839" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A1839">
         <v>1840</v>
       </c>
-    </row>
-    <row r="1840" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="D1839" t="s">
+        <v>231</v>
+      </c>
+      <c r="E1839" t="s">
+        <v>492</v>
+      </c>
+      <c r="F1839">
+        <v>13</v>
+      </c>
+      <c r="G1839" t="s">
+        <v>95</v>
+      </c>
+      <c r="H1839" t="s">
+        <v>72</v>
+      </c>
+      <c r="J1839" t="s">
+        <v>143</v>
+      </c>
+      <c r="K1839">
+        <v>1</v>
+      </c>
+      <c r="L1839" t="s">
+        <v>134</v>
+      </c>
+      <c r="M1839" t="s">
+        <v>512</v>
+      </c>
+      <c r="N1839" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="1840" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A1840">
         <v>1841</v>
       </c>
-    </row>
-    <row r="1841" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="D1840" t="s">
+        <v>231</v>
+      </c>
+      <c r="E1840" t="s">
+        <v>492</v>
+      </c>
+      <c r="F1840">
+        <v>13</v>
+      </c>
+      <c r="G1840" t="s">
+        <v>95</v>
+      </c>
+      <c r="H1840" t="s">
+        <v>72</v>
+      </c>
+      <c r="J1840" t="s">
+        <v>143</v>
+      </c>
+      <c r="K1840">
+        <v>6</v>
+      </c>
+      <c r="L1840" t="s">
+        <v>134</v>
+      </c>
+      <c r="M1840" t="s">
+        <v>523</v>
+      </c>
+      <c r="P1840" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="1841" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A1841">
         <v>1842</v>
       </c>
-    </row>
-    <row r="1842" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="D1841" t="s">
+        <v>231</v>
+      </c>
+      <c r="E1841" t="s">
+        <v>492</v>
+      </c>
+      <c r="F1841">
+        <v>13</v>
+      </c>
+      <c r="G1841" t="s">
+        <v>95</v>
+      </c>
+      <c r="H1841" t="s">
+        <v>72</v>
+      </c>
+      <c r="J1841" t="s">
+        <v>143</v>
+      </c>
+      <c r="K1841">
+        <v>1</v>
+      </c>
+      <c r="L1841" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="1842" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A1842">
         <v>1843</v>
       </c>
-    </row>
-    <row r="1843" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="D1842" t="s">
+        <v>231</v>
+      </c>
+      <c r="E1842" t="s">
+        <v>492</v>
+      </c>
+      <c r="F1842">
+        <v>13</v>
+      </c>
+      <c r="G1842" t="s">
+        <v>95</v>
+      </c>
+      <c r="H1842" t="s">
+        <v>72</v>
+      </c>
+      <c r="J1842" t="s">
+        <v>143</v>
+      </c>
+      <c r="K1842">
+        <v>4</v>
+      </c>
+      <c r="L1842" t="s">
+        <v>134</v>
+      </c>
+      <c r="R1842" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="1843" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A1843">
         <v>1844</v>
       </c>
-    </row>
-    <row r="1844" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="D1843" t="s">
+        <v>231</v>
+      </c>
+      <c r="E1843" t="s">
+        <v>492</v>
+      </c>
+      <c r="F1843">
+        <v>13</v>
+      </c>
+      <c r="G1843" t="s">
+        <v>95</v>
+      </c>
+      <c r="H1843" t="s">
+        <v>72</v>
+      </c>
+      <c r="J1843" t="s">
+        <v>143</v>
+      </c>
+      <c r="K1843">
+        <v>2</v>
+      </c>
+      <c r="L1843" t="s">
+        <v>134</v>
+      </c>
+      <c r="M1843" t="s">
+        <v>527</v>
+      </c>
+      <c r="P1843" t="s">
+        <v>526</v>
+      </c>
+      <c r="Q1843" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="1844" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A1844">
         <v>1845</v>
       </c>
-    </row>
-    <row r="1845" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="D1844" t="s">
+        <v>231</v>
+      </c>
+      <c r="E1844" t="s">
+        <v>492</v>
+      </c>
+      <c r="F1844">
+        <v>13</v>
+      </c>
+      <c r="G1844" t="s">
+        <v>95</v>
+      </c>
+      <c r="H1844" t="s">
+        <v>72</v>
+      </c>
+      <c r="J1844" t="s">
+        <v>143</v>
+      </c>
+      <c r="K1844">
+        <v>32</v>
+      </c>
+      <c r="L1844" t="s">
+        <v>79</v>
+      </c>
+      <c r="M1844" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="1845" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A1845">
         <v>1846</v>
       </c>
-    </row>
-    <row r="1846" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="D1845" t="s">
+        <v>231</v>
+      </c>
+      <c r="E1845" t="s">
+        <v>492</v>
+      </c>
+      <c r="F1845">
+        <v>13</v>
+      </c>
+      <c r="G1845" t="s">
+        <v>95</v>
+      </c>
+      <c r="H1845" t="s">
+        <v>72</v>
+      </c>
+      <c r="J1845" t="s">
+        <v>143</v>
+      </c>
+      <c r="K1845">
+        <v>12</v>
+      </c>
+      <c r="L1845" t="s">
+        <v>134</v>
+      </c>
+      <c r="M1845" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="1846" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A1846">
         <v>1847</v>
       </c>
-    </row>
-    <row r="1847" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="D1846" t="s">
+        <v>231</v>
+      </c>
+      <c r="E1846" t="s">
+        <v>492</v>
+      </c>
+      <c r="F1846">
+        <v>13</v>
+      </c>
+      <c r="G1846" t="s">
+        <v>95</v>
+      </c>
+      <c r="H1846" t="s">
+        <v>72</v>
+      </c>
+      <c r="J1846" t="s">
+        <v>143</v>
+      </c>
+      <c r="K1846">
+        <v>1</v>
+      </c>
+      <c r="L1846" t="s">
+        <v>134</v>
+      </c>
+      <c r="M1846" t="s">
+        <v>224</v>
+      </c>
+      <c r="N1846" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="1847" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A1847">
         <v>1848</v>
       </c>
-    </row>
-    <row r="1848" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="D1847" t="s">
+        <v>231</v>
+      </c>
+      <c r="E1847" t="s">
+        <v>492</v>
+      </c>
+      <c r="F1847">
+        <v>13</v>
+      </c>
+      <c r="G1847" t="s">
+        <v>95</v>
+      </c>
+      <c r="H1847" t="s">
+        <v>72</v>
+      </c>
+      <c r="J1847" t="s">
+        <v>143</v>
+      </c>
+      <c r="K1847">
+        <v>1</v>
+      </c>
+      <c r="L1847" t="s">
+        <v>134</v>
+      </c>
+      <c r="M1847" t="s">
+        <v>523</v>
+      </c>
+      <c r="N1847" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="1848" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A1848">
         <v>1849</v>
       </c>
-    </row>
-    <row r="1849" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="D1848" t="s">
+        <v>231</v>
+      </c>
+      <c r="E1848" t="s">
+        <v>492</v>
+      </c>
+      <c r="F1848">
+        <v>13</v>
+      </c>
+      <c r="G1848" t="s">
+        <v>95</v>
+      </c>
+      <c r="H1848" t="s">
+        <v>72</v>
+      </c>
+      <c r="J1848" t="s">
+        <v>143</v>
+      </c>
+      <c r="K1848">
+        <v>1</v>
+      </c>
+      <c r="L1848" t="s">
+        <v>75</v>
+      </c>
+      <c r="M1848" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="1849" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A1849">
         <v>1850</v>
       </c>
-    </row>
-    <row r="1850" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="D1849" t="s">
+        <v>231</v>
+      </c>
+      <c r="E1849" t="s">
+        <v>492</v>
+      </c>
+      <c r="F1849">
+        <v>13</v>
+      </c>
+      <c r="G1849" t="s">
+        <v>95</v>
+      </c>
+      <c r="H1849" t="s">
+        <v>72</v>
+      </c>
+      <c r="J1849" t="s">
+        <v>143</v>
+      </c>
+      <c r="K1849">
+        <v>1</v>
+      </c>
+      <c r="L1849" t="s">
+        <v>75</v>
+      </c>
+      <c r="M1849" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="1850" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A1850">
         <v>1851</v>
       </c>
-    </row>
-    <row r="1851" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="D1850" t="s">
+        <v>231</v>
+      </c>
+      <c r="E1850" t="s">
+        <v>492</v>
+      </c>
+      <c r="F1850">
+        <v>13</v>
+      </c>
+      <c r="G1850" t="s">
+        <v>95</v>
+      </c>
+      <c r="H1850" t="s">
+        <v>72</v>
+      </c>
+      <c r="J1850" t="s">
+        <v>143</v>
+      </c>
+      <c r="K1850">
+        <v>1</v>
+      </c>
+      <c r="L1850" t="s">
+        <v>61</v>
+      </c>
+      <c r="M1850" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="1851" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A1851">
         <v>1852</v>
       </c>
-    </row>
-    <row r="1852" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="D1851" t="s">
+        <v>231</v>
+      </c>
+      <c r="E1851" t="s">
+        <v>492</v>
+      </c>
+      <c r="F1851">
+        <v>13</v>
+      </c>
+      <c r="G1851" t="s">
+        <v>95</v>
+      </c>
+      <c r="H1851" t="s">
+        <v>72</v>
+      </c>
+      <c r="J1851" t="s">
+        <v>143</v>
+      </c>
+      <c r="K1851">
+        <v>1</v>
+      </c>
+      <c r="L1851" t="s">
+        <v>134</v>
+      </c>
+      <c r="M1851" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="1852" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A1852">
         <v>1853</v>
       </c>
-    </row>
-    <row r="1853" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="D1852" t="s">
+        <v>231</v>
+      </c>
+      <c r="E1852" t="s">
+        <v>492</v>
+      </c>
+      <c r="F1852">
+        <v>13</v>
+      </c>
+      <c r="G1852" t="s">
+        <v>95</v>
+      </c>
+      <c r="H1852" t="s">
+        <v>72</v>
+      </c>
+      <c r="J1852" t="s">
+        <v>143</v>
+      </c>
+      <c r="K1852">
+        <v>1</v>
+      </c>
+      <c r="L1852" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="1853" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A1853">
         <v>1854</v>
       </c>
-    </row>
-    <row r="1854" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="D1853" t="s">
+        <v>231</v>
+      </c>
+      <c r="E1853" t="s">
+        <v>492</v>
+      </c>
+      <c r="F1853">
+        <v>13</v>
+      </c>
+      <c r="G1853" t="s">
+        <v>95</v>
+      </c>
+      <c r="H1853" t="s">
+        <v>72</v>
+      </c>
+      <c r="J1853" t="s">
+        <v>143</v>
+      </c>
+      <c r="K1853">
+        <v>1</v>
+      </c>
+      <c r="L1853" t="s">
+        <v>75</v>
+      </c>
+      <c r="M1853" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="1854" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A1854">
         <v>1855</v>
       </c>
-    </row>
-    <row r="1855" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="D1854" t="s">
+        <v>231</v>
+      </c>
+      <c r="E1854" t="s">
+        <v>492</v>
+      </c>
+      <c r="F1854">
+        <v>13</v>
+      </c>
+      <c r="G1854" t="s">
+        <v>95</v>
+      </c>
+      <c r="H1854" t="s">
+        <v>72</v>
+      </c>
+      <c r="J1854" t="s">
+        <v>143</v>
+      </c>
+      <c r="K1854">
+        <v>3</v>
+      </c>
+      <c r="L1854" t="s">
+        <v>148</v>
+      </c>
+      <c r="M1854" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="1855" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A1855">
         <v>1856</v>
       </c>
-    </row>
-    <row r="1856" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="D1855" t="s">
+        <v>161</v>
+      </c>
+      <c r="E1855" t="s">
+        <v>492</v>
+      </c>
+      <c r="F1855">
+        <v>9</v>
+      </c>
+      <c r="G1855" t="s">
+        <v>95</v>
+      </c>
+      <c r="H1855" t="s">
+        <v>89</v>
+      </c>
+      <c r="I1855">
+        <v>1</v>
+      </c>
+      <c r="J1855" t="s">
+        <v>74</v>
+      </c>
+      <c r="K1855">
+        <v>2</v>
+      </c>
+      <c r="L1855" t="s">
+        <v>99</v>
+      </c>
+      <c r="M1855" t="s">
+        <v>57</v>
+      </c>
+      <c r="N1855" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="1856" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A1856">
         <v>1857</v>
       </c>
-    </row>
-    <row r="1857" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="D1856" t="s">
+        <v>161</v>
+      </c>
+      <c r="E1856" t="s">
+        <v>492</v>
+      </c>
+      <c r="F1856">
+        <v>9</v>
+      </c>
+      <c r="G1856" t="s">
+        <v>95</v>
+      </c>
+      <c r="H1856" t="s">
+        <v>96</v>
+      </c>
+      <c r="I1856">
+        <v>3</v>
+      </c>
+      <c r="J1856" t="s">
+        <v>74</v>
+      </c>
+      <c r="K1856">
+        <v>1</v>
+      </c>
+      <c r="L1856" t="s">
+        <v>99</v>
+      </c>
+      <c r="M1856" t="s">
+        <v>57</v>
+      </c>
+      <c r="N1856" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="1857" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A1857">
         <v>1858</v>
       </c>
-    </row>
-    <row r="1858" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="D1857" t="s">
+        <v>161</v>
+      </c>
+      <c r="E1857" t="s">
+        <v>492</v>
+      </c>
+      <c r="F1857">
+        <v>9</v>
+      </c>
+      <c r="G1857" t="s">
+        <v>95</v>
+      </c>
+      <c r="H1857" t="s">
+        <v>96</v>
+      </c>
+      <c r="I1857">
+        <v>3</v>
+      </c>
+      <c r="J1857" t="s">
+        <v>74</v>
+      </c>
+      <c r="K1857">
+        <v>1</v>
+      </c>
+      <c r="L1857" t="s">
+        <v>99</v>
+      </c>
+      <c r="M1857" t="s">
+        <v>57</v>
+      </c>
+      <c r="R1857" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="1858" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A1858">
         <v>1859</v>
       </c>
-    </row>
-    <row r="1859" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="D1858" t="s">
+        <v>161</v>
+      </c>
+      <c r="E1858" t="s">
+        <v>492</v>
+      </c>
+      <c r="F1858">
+        <v>9</v>
+      </c>
+      <c r="G1858" t="s">
+        <v>95</v>
+      </c>
+      <c r="H1858" t="s">
+        <v>96</v>
+      </c>
+      <c r="I1858">
+        <v>2</v>
+      </c>
+      <c r="J1858" t="s">
+        <v>74</v>
+      </c>
+      <c r="K1858">
+        <v>2</v>
+      </c>
+      <c r="L1858" t="s">
+        <v>99</v>
+      </c>
+      <c r="M1858" t="s">
+        <v>57</v>
+      </c>
+      <c r="N1858" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="1859" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A1859">
         <v>1860</v>
       </c>
-    </row>
-    <row r="1860" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="D1859" t="s">
+        <v>161</v>
+      </c>
+      <c r="E1859" t="s">
+        <v>492</v>
+      </c>
+      <c r="F1859">
+        <v>9</v>
+      </c>
+      <c r="G1859" t="s">
+        <v>95</v>
+      </c>
+      <c r="H1859" t="s">
+        <v>96</v>
+      </c>
+      <c r="I1859">
+        <v>7</v>
+      </c>
+      <c r="J1859" t="s">
+        <v>74</v>
+      </c>
+      <c r="K1859">
+        <v>1</v>
+      </c>
+      <c r="L1859" t="s">
+        <v>99</v>
+      </c>
+      <c r="M1859" t="s">
+        <v>57</v>
+      </c>
+      <c r="N1859" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="1860" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A1860">
         <v>1861</v>
       </c>
-    </row>
-    <row r="1861" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="D1860" t="s">
+        <v>161</v>
+      </c>
+      <c r="E1860" t="s">
+        <v>492</v>
+      </c>
+      <c r="F1860">
+        <v>9</v>
+      </c>
+      <c r="G1860" t="s">
+        <v>95</v>
+      </c>
+      <c r="H1860" t="s">
+        <v>96</v>
+      </c>
+      <c r="I1860">
+        <v>7</v>
+      </c>
+      <c r="J1860" t="s">
+        <v>74</v>
+      </c>
+      <c r="K1860">
+        <v>1</v>
+      </c>
+      <c r="L1860" t="s">
+        <v>99</v>
+      </c>
+      <c r="M1860" t="s">
+        <v>57</v>
+      </c>
+      <c r="N1860" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="1861" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A1861">
         <v>1862</v>
       </c>
-    </row>
-    <row r="1862" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="D1861" t="s">
+        <v>161</v>
+      </c>
+      <c r="E1861" t="s">
+        <v>492</v>
+      </c>
+      <c r="F1861">
+        <v>9</v>
+      </c>
+      <c r="G1861" t="s">
+        <v>95</v>
+      </c>
+      <c r="H1861" t="s">
+        <v>96</v>
+      </c>
+      <c r="I1861">
+        <v>7</v>
+      </c>
+      <c r="J1861" t="s">
+        <v>143</v>
+      </c>
+      <c r="K1861">
+        <v>1</v>
+      </c>
+      <c r="L1861" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="1862" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A1862">
         <v>1863</v>
       </c>
-    </row>
-    <row r="1863" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="D1862" t="s">
+        <v>161</v>
+      </c>
+      <c r="E1862" t="s">
+        <v>492</v>
+      </c>
+      <c r="F1862">
+        <v>9</v>
+      </c>
+      <c r="G1862" t="s">
+        <v>95</v>
+      </c>
+      <c r="H1862" t="s">
+        <v>96</v>
+      </c>
+      <c r="I1862">
+        <v>10</v>
+      </c>
+      <c r="J1862" t="s">
+        <v>74</v>
+      </c>
+      <c r="K1862">
+        <v>1</v>
+      </c>
+      <c r="L1862" t="s">
+        <v>99</v>
+      </c>
+      <c r="M1862" t="s">
+        <v>57</v>
+      </c>
+      <c r="N1862" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="1863" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A1863">
         <v>1864</v>
       </c>
-    </row>
-    <row r="1864" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="D1863" t="s">
+        <v>161</v>
+      </c>
+      <c r="E1863" t="s">
+        <v>492</v>
+      </c>
+      <c r="F1863">
+        <v>9</v>
+      </c>
+      <c r="G1863" t="s">
+        <v>95</v>
+      </c>
+      <c r="H1863" t="s">
+        <v>89</v>
+      </c>
+      <c r="I1863">
+        <v>4</v>
+      </c>
+      <c r="J1863" t="s">
+        <v>143</v>
+      </c>
+      <c r="K1863">
+        <v>1</v>
+      </c>
+      <c r="L1863" t="s">
+        <v>148</v>
+      </c>
+      <c r="M1863" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="1864" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A1864">
         <v>1865</v>
       </c>
-    </row>
-    <row r="1865" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="D1864" t="s">
+        <v>161</v>
+      </c>
+      <c r="E1864" t="s">
+        <v>492</v>
+      </c>
+      <c r="F1864">
+        <v>9</v>
+      </c>
+      <c r="G1864" t="s">
+        <v>95</v>
+      </c>
+      <c r="H1864" t="s">
+        <v>89</v>
+      </c>
+      <c r="I1864">
+        <v>5</v>
+      </c>
+      <c r="J1864" t="s">
+        <v>74</v>
+      </c>
+      <c r="K1864">
+        <v>1</v>
+      </c>
+      <c r="L1864" t="s">
+        <v>99</v>
+      </c>
+      <c r="M1864" t="s">
+        <v>57</v>
+      </c>
+      <c r="N1864" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="1865" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A1865">
         <v>1866</v>
       </c>
-    </row>
-    <row r="1866" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="D1865" t="s">
+        <v>161</v>
+      </c>
+      <c r="E1865" t="s">
+        <v>492</v>
+      </c>
+      <c r="F1865">
+        <v>9</v>
+      </c>
+      <c r="G1865" t="s">
+        <v>95</v>
+      </c>
+      <c r="H1865" t="s">
+        <v>89</v>
+      </c>
+      <c r="I1865">
+        <v>7</v>
+      </c>
+      <c r="J1865" t="s">
+        <v>74</v>
+      </c>
+      <c r="K1865">
+        <v>3</v>
+      </c>
+      <c r="L1865" t="s">
+        <v>99</v>
+      </c>
+      <c r="M1865" t="s">
+        <v>57</v>
+      </c>
+      <c r="N1865" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="1866" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A1866">
         <v>1867</v>
       </c>
-    </row>
-    <row r="1867" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="D1866" t="s">
+        <v>161</v>
+      </c>
+      <c r="E1866" t="s">
+        <v>492</v>
+      </c>
+      <c r="F1866">
+        <v>9</v>
+      </c>
+      <c r="G1866" t="s">
+        <v>95</v>
+      </c>
+      <c r="H1866" t="s">
+        <v>96</v>
+      </c>
+      <c r="I1866">
+        <v>5</v>
+      </c>
+      <c r="J1866" t="s">
+        <v>74</v>
+      </c>
+      <c r="K1866">
+        <v>3</v>
+      </c>
+      <c r="L1866" t="s">
+        <v>99</v>
+      </c>
+      <c r="M1866" t="s">
+        <v>57</v>
+      </c>
+      <c r="N1866" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="1867" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A1867">
         <v>1868</v>
       </c>
-    </row>
-    <row r="1868" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="D1867" t="s">
+        <v>161</v>
+      </c>
+      <c r="E1867" t="s">
+        <v>492</v>
+      </c>
+      <c r="F1867">
+        <v>9</v>
+      </c>
+      <c r="G1867" t="s">
+        <v>95</v>
+      </c>
+      <c r="H1867" t="s">
+        <v>89</v>
+      </c>
+      <c r="I1867">
+        <v>10</v>
+      </c>
+      <c r="J1867" t="s">
+        <v>74</v>
+      </c>
+      <c r="K1867">
+        <v>1</v>
+      </c>
+      <c r="L1867" t="s">
+        <v>99</v>
+      </c>
+      <c r="M1867" t="s">
+        <v>57</v>
+      </c>
+      <c r="N1867" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="1868" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A1868">
         <v>1869</v>
       </c>
-    </row>
-    <row r="1869" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="D1868" t="s">
+        <v>161</v>
+      </c>
+      <c r="E1868" t="s">
+        <v>492</v>
+      </c>
+      <c r="F1868">
+        <v>9</v>
+      </c>
+      <c r="G1868" t="s">
+        <v>95</v>
+      </c>
+      <c r="H1868" t="s">
+        <v>89</v>
+      </c>
+      <c r="I1868">
+        <v>10</v>
+      </c>
+      <c r="J1868" t="s">
+        <v>380</v>
+      </c>
+      <c r="K1868">
+        <v>1</v>
+      </c>
+      <c r="L1868" t="s">
+        <v>134</v>
+      </c>
+      <c r="M1868" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="1869" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A1869">
         <v>1870</v>
       </c>
-    </row>
-    <row r="1870" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="D1869" t="s">
+        <v>161</v>
+      </c>
+      <c r="E1869" t="s">
+        <v>492</v>
+      </c>
+      <c r="F1869">
+        <v>9</v>
+      </c>
+      <c r="G1869" t="s">
+        <v>95</v>
+      </c>
+      <c r="H1869" t="s">
+        <v>96</v>
+      </c>
+      <c r="I1869">
+        <v>9</v>
+      </c>
+      <c r="J1869" t="s">
+        <v>74</v>
+      </c>
+      <c r="K1869">
+        <v>1</v>
+      </c>
+      <c r="L1869" t="s">
+        <v>99</v>
+      </c>
+      <c r="M1869" t="s">
+        <v>57</v>
+      </c>
+      <c r="N1869" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="1870" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A1870">
         <v>1871</v>
       </c>
-    </row>
-    <row r="1871" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="D1870" t="s">
+        <v>161</v>
+      </c>
+      <c r="E1870" t="s">
+        <v>492</v>
+      </c>
+      <c r="F1870">
+        <v>9</v>
+      </c>
+      <c r="G1870" t="s">
+        <v>95</v>
+      </c>
+      <c r="H1870" t="s">
+        <v>96</v>
+      </c>
+      <c r="I1870">
+        <v>9</v>
+      </c>
+      <c r="J1870" t="s">
+        <v>74</v>
+      </c>
+      <c r="K1870">
+        <v>1</v>
+      </c>
+      <c r="L1870" t="s">
+        <v>79</v>
+      </c>
+      <c r="M1870" t="s">
+        <v>80</v>
+      </c>
+      <c r="P1870" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q1870" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="1871" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A1871">
         <v>1872</v>
       </c>
-    </row>
-    <row r="1872" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="D1871" t="s">
+        <v>161</v>
+      </c>
+      <c r="E1871" t="s">
+        <v>492</v>
+      </c>
+      <c r="F1871">
+        <v>9</v>
+      </c>
+      <c r="G1871" t="s">
+        <v>95</v>
+      </c>
+      <c r="H1871" t="s">
+        <v>96</v>
+      </c>
+      <c r="I1871">
+        <v>9</v>
+      </c>
+      <c r="J1871" t="s">
+        <v>143</v>
+      </c>
+      <c r="K1871">
+        <v>3</v>
+      </c>
+      <c r="L1871" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="1872" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A1872">
         <v>1873</v>
       </c>
-    </row>
-    <row r="1873" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="D1872" t="s">
+        <v>161</v>
+      </c>
+      <c r="E1872" t="s">
+        <v>492</v>
+      </c>
+      <c r="F1872">
+        <v>9</v>
+      </c>
+      <c r="G1872" t="s">
+        <v>95</v>
+      </c>
+      <c r="H1872" t="s">
+        <v>72</v>
+      </c>
+      <c r="J1872" t="s">
+        <v>143</v>
+      </c>
+      <c r="K1872">
+        <v>2</v>
+      </c>
+      <c r="L1872" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="1873" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1873">
         <v>1874</v>
       </c>
-    </row>
-    <row r="1874" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="D1873" t="s">
+        <v>161</v>
+      </c>
+      <c r="E1873" t="s">
+        <v>492</v>
+      </c>
+      <c r="F1873">
+        <v>9</v>
+      </c>
+      <c r="G1873" t="s">
+        <v>95</v>
+      </c>
+      <c r="H1873" t="s">
+        <v>72</v>
+      </c>
+      <c r="J1873" t="s">
+        <v>143</v>
+      </c>
+      <c r="K1873">
+        <v>1</v>
+      </c>
+      <c r="L1873" t="s">
+        <v>148</v>
+      </c>
+      <c r="M1873" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="1874" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1874">
         <v>1875</v>
       </c>
-    </row>
-    <row r="1875" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B1874" t="s">
+        <v>536</v>
+      </c>
+      <c r="C1874" t="s">
+        <v>70</v>
+      </c>
+      <c r="D1874" t="s">
+        <v>161</v>
+      </c>
+      <c r="E1874" t="s">
+        <v>492</v>
+      </c>
+      <c r="F1874">
+        <v>9</v>
+      </c>
+      <c r="G1874" t="s">
+        <v>95</v>
+      </c>
+      <c r="H1874" t="s">
+        <v>72</v>
+      </c>
+      <c r="J1874" t="s">
+        <v>74</v>
+      </c>
+      <c r="K1874">
+        <v>1</v>
+      </c>
+      <c r="L1874" t="s">
+        <v>99</v>
+      </c>
+      <c r="M1874" t="s">
+        <v>57</v>
+      </c>
+      <c r="N1874" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="1875" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1875">
         <v>1876</v>
       </c>
-    </row>
-    <row r="1876" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="D1875" t="s">
+        <v>161</v>
+      </c>
+      <c r="E1875" t="s">
+        <v>492</v>
+      </c>
+      <c r="F1875">
+        <v>9</v>
+      </c>
+      <c r="G1875" t="s">
+        <v>95</v>
+      </c>
+      <c r="H1875" t="s">
+        <v>72</v>
+      </c>
+      <c r="J1875" t="s">
+        <v>74</v>
+      </c>
+      <c r="K1875">
+        <v>1</v>
+      </c>
+      <c r="L1875" t="s">
+        <v>99</v>
+      </c>
+      <c r="M1875" t="s">
+        <v>57</v>
+      </c>
+      <c r="N1875" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="1876" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1876">
         <v>1877</v>
       </c>
-    </row>
-    <row r="1877" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B1876" t="s">
+        <v>537</v>
+      </c>
+      <c r="C1876" t="s">
+        <v>70</v>
+      </c>
+      <c r="D1876" t="s">
+        <v>161</v>
+      </c>
+      <c r="E1876" t="s">
+        <v>492</v>
+      </c>
+      <c r="F1876">
+        <v>9</v>
+      </c>
+      <c r="G1876" t="s">
+        <v>95</v>
+      </c>
+      <c r="H1876" t="s">
+        <v>72</v>
+      </c>
+      <c r="J1876" t="s">
+        <v>74</v>
+      </c>
+      <c r="K1876">
+        <v>1</v>
+      </c>
+      <c r="L1876" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="1877" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1877">
         <v>1878</v>
       </c>
     </row>
-    <row r="1878" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1878" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1878">
         <v>1879</v>
       </c>
     </row>
-    <row r="1879" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1879" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1879">
         <v>1880</v>
       </c>
     </row>
-    <row r="1880" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1880" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1880">
         <v>1881</v>
       </c>
     </row>
-    <row r="1881" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1881" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1881">
         <v>1882</v>
       </c>
     </row>
-    <row r="1882" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1882" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1882">
         <v>1883</v>
       </c>
     </row>
-    <row r="1883" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1883" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1883">
         <v>1884</v>
       </c>
     </row>
-    <row r="1884" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1884" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1884">
         <v>1885</v>
       </c>
     </row>
-    <row r="1885" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1885" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1885">
         <v>1886</v>
       </c>
     </row>
-    <row r="1886" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1886" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1886">
         <v>1887</v>
       </c>
     </row>
-    <row r="1887" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1887" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1887">
         <v>1888</v>
       </c>
     </row>
-    <row r="1888" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1888" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1888">
         <v>1889</v>
       </c>

--- a/Raw Data/Arthropod_data.xlsx
+++ b/Raw Data/Arthropod_data.xlsx
@@ -37479,7 +37479,7 @@
   <dimension ref="A1:U1383"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A1361" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A1315" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="G1356" sqref="G1356"/>
     </sheetView>
